--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="138">
   <si>
     <t>资金</t>
   </si>
@@ -145,6 +145,12 @@
     <t>002876</t>
   </si>
   <si>
+    <t>三维股份</t>
+  </si>
+  <si>
+    <t>东宏股份</t>
+  </si>
+  <si>
     <t>中公教育</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>亿嘉和</t>
   </si>
   <si>
+    <t>伯特利</t>
+  </si>
+  <si>
     <t>佳发教育</t>
   </si>
   <si>
@@ -190,9 +199,6 @@
     <t>光弘科技</t>
   </si>
   <si>
-    <t>光莆股份</t>
-  </si>
-  <si>
     <t>克来机电</t>
   </si>
   <si>
@@ -208,9 +214,6 @@
     <t>华宝添益</t>
   </si>
   <si>
-    <t>博创科技</t>
-  </si>
-  <si>
     <t>博实股份</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t>宁波高发</t>
   </si>
   <si>
+    <t>安图生物</t>
+  </si>
+  <si>
     <t>安琪酵母</t>
   </si>
   <si>
@@ -307,15 +313,9 @@
     <t>晨光生物</t>
   </si>
   <si>
-    <t>晨光配债</t>
-  </si>
-  <si>
     <t>普利制药</t>
   </si>
   <si>
-    <t>景旺电子</t>
-  </si>
-  <si>
     <t>杭锅股份</t>
   </si>
   <si>
@@ -328,9 +328,6 @@
     <t>正海生物</t>
   </si>
   <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
     <t>江山欧派</t>
   </si>
   <si>
@@ -343,9 +340,15 @@
     <t>浦东金桥</t>
   </si>
   <si>
+    <t>海利生物</t>
+  </si>
+  <si>
     <t>海容冷链</t>
   </si>
   <si>
+    <t>海容配债</t>
+  </si>
+  <si>
     <t>深南电路</t>
   </si>
   <si>
@@ -391,16 +394,19 @@
     <t>艾华集团</t>
   </si>
   <si>
+    <t>苏博特</t>
+  </si>
+  <si>
     <t>莱克电气</t>
   </si>
   <si>
     <t>菲利华</t>
   </si>
   <si>
-    <t>超图软件</t>
-  </si>
-  <si>
-    <t>迪瑞医疗</t>
+    <t>视源股份</t>
+  </si>
+  <si>
+    <t>002841</t>
   </si>
   <si>
     <t>金圆股份</t>
@@ -418,19 +424,10 @@
     <t>集友股份</t>
   </si>
   <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
     <t>顺丰控股</t>
   </si>
   <si>
     <t>002352</t>
-  </si>
-  <si>
-    <t>鹏鼎控股</t>
-  </si>
-  <si>
-    <t>002938</t>
   </si>
 </sst>
 </file>
@@ -822,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -902,28 +899,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>24037870.05</v>
+        <v>5569758.21</v>
       </c>
       <c r="D3" s="3">
-        <v>5286365.45</v>
+        <v>6303974.96</v>
       </c>
       <c r="E3" s="3">
-        <v>5286365.45</v>
+        <v>5569758.21</v>
       </c>
       <c r="F3" s="3">
-        <v>18751504.6</v>
+        <v>-734216.75</v>
       </c>
       <c r="G3" s="3">
-        <v>89671460.36</v>
+        <v>90094218.27</v>
       </c>
       <c r="H3" s="3">
-        <v>94957825.81</v>
+        <v>96398193.23</v>
       </c>
       <c r="I3" s="3">
-        <v>2548517.06</v>
+        <v>3653543.12</v>
       </c>
       <c r="J3" s="3">
-        <v>825456.23</v>
+        <v>1263642.61</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1030,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>1616000</v>
+        <v>2103000</v>
       </c>
       <c r="C8" s="3">
-        <v>1616000</v>
+        <v>2103000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1047,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>2529000</v>
+        <v>3042000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1138,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>95.81</v>
+        <v>104</v>
       </c>
       <c r="G12" s="7">
         <v>93.41</v>
@@ -1147,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1130558</v>
+        <v>1227200</v>
       </c>
       <c r="J12" s="7">
-        <v>28319.68</v>
+        <v>124961.68</v>
       </c>
       <c r="K12" s="7">
-        <v>15458</v>
+        <v>24662</v>
       </c>
       <c r="L12" s="8">
-        <v>2.57</v>
+        <v>11.34</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1182,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>49.66</v>
+        <v>52.9</v>
       </c>
       <c r="G13" s="7">
         <v>47.981</v>
@@ -1191,16 +1188,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>412178</v>
+        <v>439070</v>
       </c>
       <c r="J13" s="7">
-        <v>13932.28</v>
+        <v>40824.28</v>
       </c>
       <c r="K13" s="7">
-        <v>-6308</v>
+        <v>17430</v>
       </c>
       <c r="L13" s="8">
-        <v>3.5</v>
+        <v>10.25</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -1210,129 +1207,129 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10">
+        <v>603033</v>
+      </c>
+      <c r="C14" s="10">
+        <v>17600</v>
+      </c>
+      <c r="D14" s="10">
+        <v>17600</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>21.72</v>
+      </c>
+      <c r="G14" s="11">
+        <v>22.227</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>382272</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-8919.48</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-3344</v>
+      </c>
+      <c r="L14" s="9">
+        <v>-2.28</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6">
-        <v>37429</v>
-      </c>
-      <c r="D14" s="6">
-        <v>37429</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>28.84</v>
-      </c>
-      <c r="G14" s="7">
-        <v>27.24</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1079452.36</v>
-      </c>
-      <c r="J14" s="7">
-        <v>59883.52</v>
-      </c>
-      <c r="K14" s="7">
-        <v>27697.46</v>
-      </c>
-      <c r="L14" s="8">
-        <v>5.87</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="10">
-        <v>601965</v>
-      </c>
-      <c r="C15" s="10">
-        <v>35800</v>
-      </c>
-      <c r="D15" s="10">
-        <v>35800</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>9.839</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>325780</v>
-      </c>
-      <c r="J15" s="11">
-        <v>-26446.87</v>
-      </c>
-      <c r="K15" s="11">
-        <v>-2864</v>
-      </c>
-      <c r="L15" s="9">
-        <v>-7.51</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="B15" s="6">
+        <v>603856</v>
+      </c>
+      <c r="C15" s="6">
+        <v>19400</v>
+      </c>
+      <c r="D15" s="6">
+        <v>19400</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>14.209</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>279360</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3708.08</v>
+      </c>
+      <c r="K15" s="7">
+        <v>5626</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C16" s="6">
-        <v>13100</v>
+        <v>37429</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
+        <v>37429</v>
       </c>
       <c r="E16" s="6">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>28.65</v>
+        <v>27.75</v>
       </c>
       <c r="G16" s="7">
-        <v>28.503</v>
+        <v>27.24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>375315</v>
+        <v>1038654.75</v>
       </c>
       <c r="J16" s="7">
-        <v>1929.58</v>
+        <v>19085.91</v>
       </c>
       <c r="K16" s="7">
-        <v>1929.58</v>
+        <v>-4865.77</v>
       </c>
       <c r="L16" s="8">
-        <v>0.52</v>
+        <v>1.87</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>26</v>
@@ -1342,85 +1339,85 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="6">
-        <v>300575</v>
-      </c>
-      <c r="C17" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D17" s="6">
-        <v>32400</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>37.05</v>
-      </c>
-      <c r="G17" s="7">
-        <v>31.145</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1200420</v>
-      </c>
-      <c r="J17" s="7">
-        <v>191323.67</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4860</v>
-      </c>
-      <c r="L17" s="8">
-        <v>18.96</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>25</v>
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="10">
+        <v>601965</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D17" s="10">
+        <v>35800</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8.72</v>
+      </c>
+      <c r="G17" s="11">
+        <v>9.589</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>312176</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-31100.87</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-4296</v>
+      </c>
+      <c r="L17" s="9">
+        <v>-9.06</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6">
-        <v>300308</v>
-      </c>
       <c r="C18" s="6">
-        <v>5500</v>
+        <v>13100</v>
       </c>
       <c r="D18" s="6">
-        <v>5500</v>
+        <v>13100</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>61.8</v>
+        <v>31.26</v>
       </c>
       <c r="G18" s="7">
-        <v>58.231</v>
+        <v>28.495</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>339900</v>
+        <v>409506</v>
       </c>
       <c r="J18" s="7">
-        <v>19629.98</v>
+        <v>36224.11</v>
       </c>
       <c r="K18" s="7">
-        <v>-5500</v>
+        <v>27641</v>
       </c>
       <c r="L18" s="8">
-        <v>6.13</v>
+        <v>9.7</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>26</v>
@@ -1433,38 +1430,38 @@
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
+      <c r="B19" s="6">
+        <v>300575</v>
       </c>
       <c r="C19" s="6">
-        <v>35420</v>
+        <v>32400</v>
       </c>
       <c r="D19" s="6">
-        <v>35420</v>
+        <v>32400</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>29.13</v>
+        <v>39.49</v>
       </c>
       <c r="G19" s="7">
-        <v>28.083</v>
+        <v>31.145</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1031784.6</v>
+        <v>1279476</v>
       </c>
       <c r="J19" s="7">
-        <v>37076.62</v>
+        <v>270379.67</v>
       </c>
       <c r="K19" s="7">
-        <v>54192.6</v>
+        <v>48924</v>
       </c>
       <c r="L19" s="8">
-        <v>3.73</v>
+        <v>26.79</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>26</v>
@@ -1475,133 +1472,133 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6">
+        <v>300308</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>63</v>
+      </c>
+      <c r="G20" s="7">
+        <v>58.231</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>346500</v>
+      </c>
+      <c r="J20" s="7">
+        <v>26229.98</v>
+      </c>
+      <c r="K20" s="7">
+        <v>6325</v>
+      </c>
+      <c r="L20" s="8">
+        <v>8.19</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6">
+        <v>35420</v>
+      </c>
+      <c r="D21" s="6">
+        <v>35420</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>30.41</v>
+      </c>
+      <c r="G21" s="7">
+        <v>28.083</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1077122.2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>82414.22</v>
+      </c>
+      <c r="K21" s="7">
+        <v>71902.6</v>
+      </c>
+      <c r="L21" s="8">
+        <v>8.29</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6">
         <v>603666</v>
       </c>
-      <c r="C20" s="6">
-        <v>4200</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4200</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>106.37</v>
-      </c>
-      <c r="G20" s="7">
-        <v>100.715</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>446754</v>
-      </c>
-      <c r="J20" s="7">
-        <v>23751</v>
-      </c>
-      <c r="K20" s="7">
-        <v>2814</v>
-      </c>
-      <c r="L20" s="8">
-        <v>5.61</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="C22" s="6">
+        <v>8280</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8280</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>87.76</v>
+      </c>
+      <c r="G22" s="7">
+        <v>72.89</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>726652.8</v>
+      </c>
+      <c r="J22" s="7">
+        <v>123124.98</v>
+      </c>
+      <c r="K22" s="7">
+        <v>58953.6</v>
+      </c>
+      <c r="L22" s="8">
+        <v>20.4</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="10">
-        <v>300559</v>
-      </c>
-      <c r="C21" s="10">
-        <v>41400</v>
-      </c>
-      <c r="D21" s="10">
-        <v>41400</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>21.2</v>
-      </c>
-      <c r="G21" s="11">
-        <v>22.013</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>877680</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-33661.64</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-3726</v>
-      </c>
-      <c r="L21" s="9">
-        <v>-3.69</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="10">
-        <v>603416</v>
-      </c>
-      <c r="C22" s="10">
-        <v>24500</v>
-      </c>
-      <c r="D22" s="10">
-        <v>24500</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>37.43</v>
-      </c>
-      <c r="G22" s="11">
-        <v>41.553</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>917035</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-101024.99</v>
-      </c>
-      <c r="K22" s="11">
-        <v>5145</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-9.92</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1610,37 +1607,37 @@
         <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>603707</v>
+        <v>603596</v>
       </c>
       <c r="C23" s="6">
-        <v>24600</v>
+        <v>42700</v>
       </c>
       <c r="D23" s="6">
-        <v>24600</v>
+        <v>42700</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>60.2</v>
+        <v>35.2</v>
       </c>
       <c r="G23" s="7">
-        <v>59.272</v>
+        <v>34.519</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1480920</v>
+        <v>1503040</v>
       </c>
       <c r="J23" s="7">
-        <v>22823.8</v>
+        <v>29084.28</v>
       </c>
       <c r="K23" s="7">
-        <v>50676</v>
+        <v>854</v>
       </c>
       <c r="L23" s="8">
-        <v>1.57</v>
+        <v>1.97</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>24</v>
@@ -1650,46 +1647,46 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6">
-        <v>300695</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6000</v>
-      </c>
-      <c r="D24" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>77.73</v>
-      </c>
-      <c r="G24" s="7">
-        <v>66.731</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>466380</v>
-      </c>
-      <c r="J24" s="7">
-        <v>65994.96</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-420</v>
-      </c>
-      <c r="L24" s="8">
-        <v>16.48</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="B24" s="10">
+        <v>300559</v>
+      </c>
+      <c r="C24" s="10">
+        <v>41400</v>
+      </c>
+      <c r="D24" s="10">
+        <v>41400</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>21.22</v>
+      </c>
+      <c r="G24" s="11">
+        <v>22.013</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>878508</v>
+      </c>
+      <c r="J24" s="11">
+        <v>-32833.64</v>
+      </c>
+      <c r="K24" s="11">
+        <v>15318</v>
+      </c>
+      <c r="L24" s="9">
+        <v>-3.6</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1698,43 +1695,43 @@
         <v>57</v>
       </c>
       <c r="B25" s="10">
-        <v>300735</v>
+        <v>603416</v>
       </c>
       <c r="C25" s="10">
-        <v>54620</v>
+        <v>24500</v>
       </c>
       <c r="D25" s="10">
-        <v>54620</v>
+        <v>24500</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>18.25</v>
+        <v>39.86</v>
       </c>
       <c r="G25" s="11">
-        <v>18.323</v>
+        <v>41.553</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>996815</v>
+        <v>976570</v>
       </c>
       <c r="J25" s="11">
-        <v>-3966.7</v>
+        <v>-41489.99</v>
       </c>
       <c r="K25" s="11">
-        <v>-15293.6</v>
+        <v>17395</v>
       </c>
       <c r="L25" s="9">
-        <v>-0.4</v>
+        <v>-4.07</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1742,43 +1739,43 @@
         <v>58</v>
       </c>
       <c r="B26" s="6">
-        <v>300632</v>
+        <v>603707</v>
       </c>
       <c r="C26" s="6">
-        <v>12900</v>
+        <v>24600</v>
       </c>
       <c r="D26" s="6">
-        <v>12900</v>
+        <v>24600</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>17.75</v>
+        <v>64.57</v>
       </c>
       <c r="G26" s="7">
-        <v>15.342</v>
+        <v>59.272</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>228975</v>
+        <v>1588422</v>
       </c>
       <c r="J26" s="7">
-        <v>31057.33</v>
+        <v>130325.8</v>
       </c>
       <c r="K26" s="7">
-        <v>10578</v>
+        <v>88068</v>
       </c>
       <c r="L26" s="8">
-        <v>15.7</v>
+        <v>8.94</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1786,43 +1783,43 @@
         <v>59</v>
       </c>
       <c r="B27" s="6">
-        <v>603960</v>
+        <v>300695</v>
       </c>
       <c r="C27" s="6">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="D27" s="6">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>26.59</v>
+        <v>76.45</v>
       </c>
       <c r="G27" s="7">
-        <v>23.214</v>
+        <v>66.731</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>452030</v>
+        <v>458700</v>
       </c>
       <c r="J27" s="7">
-        <v>57385.76</v>
+        <v>58314.96</v>
       </c>
       <c r="K27" s="7">
-        <v>-850</v>
+        <v>13140</v>
       </c>
       <c r="L27" s="8">
-        <v>14.54</v>
+        <v>14.56</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1830,43 +1827,43 @@
         <v>60</v>
       </c>
       <c r="B28" s="6">
-        <v>603027</v>
+        <v>300735</v>
       </c>
       <c r="C28" s="6">
-        <v>30840</v>
+        <v>54620</v>
       </c>
       <c r="D28" s="6">
-        <v>30840</v>
+        <v>54620</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>28.46</v>
+        <v>18.45</v>
       </c>
       <c r="G28" s="7">
-        <v>26.907</v>
+        <v>18.323</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>877706.4</v>
+        <v>1007739</v>
       </c>
       <c r="J28" s="7">
-        <v>47893.29</v>
+        <v>6957.3</v>
       </c>
       <c r="K28" s="7">
-        <v>10485.6</v>
+        <v>25671.4</v>
       </c>
       <c r="L28" s="8">
-        <v>5.77</v>
+        <v>0.69</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1874,7 +1871,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="6">
-        <v>600850</v>
+        <v>603960</v>
       </c>
       <c r="C29" s="6">
         <v>17000</v>
@@ -1886,25 +1883,25 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>23.24</v>
+        <v>27.92</v>
       </c>
       <c r="G29" s="7">
-        <v>23.086</v>
+        <v>23.214</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>395080</v>
+        <v>474640</v>
       </c>
       <c r="J29" s="7">
-        <v>2624.26</v>
+        <v>79995.76</v>
       </c>
       <c r="K29" s="7">
-        <v>-170</v>
+        <v>19210</v>
       </c>
       <c r="L29" s="8">
-        <v>0.67</v>
+        <v>20.27</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>24</v>
@@ -1918,37 +1915,37 @@
         <v>62</v>
       </c>
       <c r="B30" s="6">
-        <v>600475</v>
+        <v>603027</v>
       </c>
       <c r="C30" s="6">
-        <v>20700</v>
+        <v>80</v>
       </c>
       <c r="D30" s="6">
-        <v>20700</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>12.32</v>
+        <v>31.58</v>
       </c>
       <c r="G30" s="7">
-        <v>11.312</v>
+        <v>-1395.382</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>255024</v>
+        <v>2526.4</v>
       </c>
       <c r="J30" s="7">
-        <v>20861.19</v>
+        <v>114156.95</v>
       </c>
       <c r="K30" s="7">
-        <v>621</v>
+        <v>-935.04</v>
       </c>
       <c r="L30" s="8">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>24</v>
@@ -1962,37 +1959,37 @@
         <v>63</v>
       </c>
       <c r="B31" s="6">
-        <v>511990</v>
+        <v>600850</v>
       </c>
       <c r="C31" s="6">
-        <v>320543</v>
+        <v>17000</v>
       </c>
       <c r="D31" s="6">
-        <v>320543</v>
+        <v>17000</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>99.979</v>
+        <v>24.51</v>
       </c>
       <c r="G31" s="7">
-        <v>99.491</v>
+        <v>22.836</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>32047568.6</v>
+        <v>416670</v>
       </c>
       <c r="J31" s="7">
-        <v>156457.58</v>
+        <v>28464.26</v>
       </c>
       <c r="K31" s="7">
-        <v>13.37</v>
+        <v>37910</v>
       </c>
       <c r="L31" s="8">
-        <v>0.49</v>
+        <v>7.33</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>24</v>
@@ -2006,125 +2003,125 @@
         <v>64</v>
       </c>
       <c r="B32" s="6">
-        <v>300548</v>
+        <v>600475</v>
       </c>
       <c r="C32" s="6">
-        <v>200</v>
+        <v>20700</v>
       </c>
       <c r="D32" s="6">
-        <v>200</v>
+        <v>20700</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>57.93</v>
+        <v>11.67</v>
       </c>
       <c r="G32" s="7">
-        <v>-133.707</v>
+        <v>11.312</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>11586</v>
+        <v>241569</v>
       </c>
       <c r="J32" s="7">
-        <v>38327.41</v>
+        <v>7406.19</v>
       </c>
       <c r="K32" s="7">
-        <v>3123.07</v>
+        <v>207</v>
       </c>
       <c r="L32" s="8">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>66</v>
+      <c r="B33" s="6">
+        <v>511990</v>
       </c>
       <c r="C33" s="6">
-        <v>38500</v>
+        <v>320634</v>
       </c>
       <c r="D33" s="6">
-        <v>38500</v>
+        <v>320634</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>12.7</v>
+        <v>99.974</v>
       </c>
       <c r="G33" s="7">
-        <v>12.177</v>
+        <v>99.463</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>488950</v>
+        <v>32055063.52</v>
       </c>
       <c r="J33" s="7">
-        <v>20117.68</v>
+        <v>163952.5</v>
       </c>
       <c r="K33" s="7">
-        <v>6545</v>
+        <v>-320.63</v>
       </c>
       <c r="L33" s="8">
-        <v>4.29</v>
+        <v>0.51</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="C34" s="6">
-        <v>7500</v>
+        <v>38500</v>
       </c>
       <c r="D34" s="6">
-        <v>7500</v>
+        <v>38500</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>63.86</v>
+        <v>12.75</v>
       </c>
       <c r="G34" s="7">
-        <v>53.268</v>
+        <v>12.177</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>478950</v>
+        <v>490875</v>
       </c>
       <c r="J34" s="7">
-        <v>79443.56</v>
+        <v>22042.68</v>
       </c>
       <c r="K34" s="7">
-        <v>8025</v>
+        <v>12705</v>
       </c>
       <c r="L34" s="8">
-        <v>19.88</v>
+        <v>4.71</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2135,40 +2132,40 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="C35" s="6">
-        <v>13200</v>
+        <v>7500</v>
       </c>
       <c r="D35" s="6">
-        <v>13200</v>
+        <v>7500</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>73.85</v>
+        <v>66.68</v>
       </c>
       <c r="G35" s="7">
-        <v>68.159</v>
+        <v>53.268</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>974820</v>
+        <v>500100</v>
       </c>
       <c r="J35" s="7">
-        <v>75124.08</v>
+        <v>100593.56</v>
       </c>
       <c r="K35" s="7">
-        <v>18876</v>
+        <v>1350</v>
       </c>
       <c r="L35" s="8">
-        <v>8.35</v>
+        <v>25.18</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>26</v>
@@ -2179,134 +2176,134 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="6">
-        <v>603444</v>
-      </c>
       <c r="C36" s="6">
-        <v>1000</v>
+        <v>13200</v>
       </c>
       <c r="D36" s="6">
-        <v>1000</v>
+        <v>13200</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>476.66</v>
+        <v>74.13</v>
       </c>
       <c r="G36" s="7">
-        <v>409.247</v>
+        <v>68.159</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>476660</v>
+        <v>978516</v>
       </c>
       <c r="J36" s="7">
-        <v>67413.44</v>
+        <v>78820.08</v>
       </c>
       <c r="K36" s="7">
-        <v>23180</v>
+        <v>4356</v>
       </c>
       <c r="L36" s="8">
-        <v>16.47</v>
+        <v>8.76</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>73</v>
+      <c r="B37" s="6">
+        <v>603444</v>
       </c>
       <c r="C37" s="6">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="D37" s="6">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>13.15</v>
+        <v>549.01</v>
       </c>
       <c r="G37" s="7">
-        <v>12.392</v>
+        <v>409.247</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>197250</v>
+        <v>549010</v>
       </c>
       <c r="J37" s="7">
-        <v>11371.07</v>
+        <v>139763.44</v>
       </c>
       <c r="K37" s="7">
-        <v>-1050</v>
+        <v>21410</v>
       </c>
       <c r="L37" s="8">
-        <v>6.12</v>
+        <v>34.15</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6">
-        <v>603826</v>
-      </c>
       <c r="C38" s="6">
-        <v>13400</v>
+        <v>15000</v>
       </c>
       <c r="D38" s="6">
-        <v>13400</v>
+        <v>15000</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>33.81</v>
+        <v>12.7</v>
       </c>
       <c r="G38" s="7">
-        <v>29.482</v>
+        <v>12.392</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>453054</v>
+        <v>190500</v>
       </c>
       <c r="J38" s="7">
-        <v>58000.77</v>
+        <v>4621.07</v>
       </c>
       <c r="K38" s="7">
-        <v>5896</v>
+        <v>750</v>
       </c>
       <c r="L38" s="8">
-        <v>14.68</v>
+        <v>2.49</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2314,43 +2311,43 @@
         <v>75</v>
       </c>
       <c r="B39" s="6">
-        <v>300082</v>
+        <v>603826</v>
       </c>
       <c r="C39" s="6">
-        <v>58900</v>
+        <v>13400</v>
       </c>
       <c r="D39" s="6">
-        <v>58900</v>
+        <v>13400</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>6.44</v>
+        <v>33.57</v>
       </c>
       <c r="G39" s="7">
-        <v>6.147</v>
+        <v>29.482</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>379316</v>
+        <v>449838</v>
       </c>
       <c r="J39" s="7">
-        <v>17266.71</v>
+        <v>54784.77</v>
       </c>
       <c r="K39" s="7">
-        <v>-2945</v>
+        <v>7638</v>
       </c>
       <c r="L39" s="8">
-        <v>4.77</v>
+        <v>13.87</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2358,43 +2355,43 @@
         <v>76</v>
       </c>
       <c r="B40" s="6">
-        <v>603788</v>
+        <v>300082</v>
       </c>
       <c r="C40" s="6">
-        <v>26800</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
-        <v>26800</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>16.44</v>
+        <v>6.42</v>
       </c>
       <c r="G40" s="7">
-        <v>14.931</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>440592</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7">
-        <v>40443.96</v>
+        <v>10977.42</v>
       </c>
       <c r="K40" s="7">
-        <v>1340</v>
+        <v>-4.01</v>
       </c>
       <c r="L40" s="8">
-        <v>10.11</v>
+        <v>0</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2402,37 +2399,37 @@
         <v>77</v>
       </c>
       <c r="B41" s="6">
-        <v>600298</v>
+        <v>603788</v>
       </c>
       <c r="C41" s="6">
-        <v>37900</v>
+        <v>26800</v>
       </c>
       <c r="D41" s="6">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="E41" s="6">
-        <v>37900</v>
+        <v>10000</v>
       </c>
       <c r="F41" s="7">
-        <v>46.61</v>
+        <v>17.93</v>
       </c>
       <c r="G41" s="7">
-        <v>45.678</v>
+        <v>14.895</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>1766519</v>
+        <v>480524</v>
       </c>
       <c r="J41" s="7">
-        <v>35316.15</v>
+        <v>81337.29</v>
       </c>
       <c r="K41" s="7">
-        <v>35316.15</v>
+        <v>15701.33</v>
       </c>
       <c r="L41" s="8">
-        <v>2.04</v>
+        <v>20.38</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>24</v>
@@ -2442,217 +2439,217 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="6">
-        <v>600845</v>
-      </c>
-      <c r="C42" s="6">
-        <v>19000</v>
-      </c>
-      <c r="D42" s="6">
-        <v>14000</v>
-      </c>
-      <c r="E42" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F42" s="7">
-        <v>60.41</v>
-      </c>
-      <c r="G42" s="7">
-        <v>54.583</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1147790</v>
-      </c>
-      <c r="J42" s="7">
-        <v>110704.04</v>
-      </c>
-      <c r="K42" s="7">
-        <v>83690.07</v>
-      </c>
-      <c r="L42" s="8">
-        <v>10.68</v>
-      </c>
-      <c r="M42" s="8" t="s">
+      <c r="B42" s="10">
+        <v>603658</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1300</v>
+      </c>
+      <c r="F42" s="11">
+        <v>162.44</v>
+      </c>
+      <c r="G42" s="11">
+        <v>164.269</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>211172</v>
+      </c>
+      <c r="J42" s="11">
+        <v>-2378.31</v>
+      </c>
+      <c r="K42" s="11">
+        <v>-2378.31</v>
+      </c>
+      <c r="L42" s="9">
+        <v>-1.11</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="N42" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="10">
-        <v>50900</v>
-      </c>
-      <c r="D43" s="10">
-        <v>50900</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>6.92</v>
-      </c>
-      <c r="G43" s="11">
-        <v>7.252</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>352228</v>
-      </c>
-      <c r="J43" s="11">
-        <v>-16922.2</v>
-      </c>
-      <c r="K43" s="11">
-        <v>2036</v>
-      </c>
-      <c r="L43" s="9">
-        <v>-4.58</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>25</v>
+      <c r="B43" s="6">
+        <v>600298</v>
+      </c>
+      <c r="C43" s="6">
+        <v>37900</v>
+      </c>
+      <c r="D43" s="6">
+        <v>37900</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>49.48</v>
+      </c>
+      <c r="G43" s="7">
+        <v>45.669</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1875292</v>
+      </c>
+      <c r="J43" s="7">
+        <v>144443.47</v>
+      </c>
+      <c r="K43" s="7">
+        <v>76937</v>
+      </c>
+      <c r="L43" s="8">
+        <v>8.34</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="6">
+        <v>600845</v>
+      </c>
+      <c r="C44" s="6">
+        <v>19000</v>
+      </c>
+      <c r="D44" s="6">
+        <v>19000</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>59.08</v>
+      </c>
+      <c r="G44" s="7">
+        <v>54.583</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1122520</v>
+      </c>
+      <c r="J44" s="7">
+        <v>85434.04</v>
+      </c>
+      <c r="K44" s="7">
+        <v>21850</v>
+      </c>
+      <c r="L44" s="8">
+        <v>8.24</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="6">
-        <v>200</v>
-      </c>
-      <c r="D44" s="6">
-        <v>200</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>19.13</v>
-      </c>
-      <c r="G44" s="7">
-        <v>-164.428</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>3826</v>
-      </c>
-      <c r="J44" s="7">
-        <v>36711.59</v>
-      </c>
-      <c r="K44" s="7">
-        <v>-58</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8" t="s">
+      <c r="C45" s="10">
+        <v>50900</v>
+      </c>
+      <c r="D45" s="10">
+        <v>50900</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>7.04</v>
+      </c>
+      <c r="G45" s="11">
+        <v>7.252</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>358336</v>
+      </c>
+      <c r="J45" s="11">
+        <v>-10814.2</v>
+      </c>
+      <c r="K45" s="11">
+        <v>8144</v>
+      </c>
+      <c r="L45" s="9">
+        <v>-2.92</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="6">
-        <v>300776</v>
-      </c>
-      <c r="C45" s="6">
-        <v>15820</v>
-      </c>
-      <c r="D45" s="6">
-        <v>15820</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>79.6</v>
-      </c>
-      <c r="G45" s="7">
-        <v>79.344</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1259272</v>
-      </c>
-      <c r="J45" s="7">
-        <v>4048.48</v>
-      </c>
-      <c r="K45" s="7">
-        <v>2373</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="6">
-        <v>300638</v>
-      </c>
       <c r="C46" s="6">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>57.43</v>
+        <v>20.23</v>
       </c>
       <c r="G46" s="7">
-        <v>56.117</v>
+        <v>0</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1493180</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7">
-        <v>34135.9</v>
+        <v>36836.63</v>
       </c>
       <c r="K46" s="7">
-        <v>39520</v>
+        <v>7.04</v>
       </c>
       <c r="L46" s="8">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2666,37 +2663,37 @@
         <v>85</v>
       </c>
       <c r="B47" s="6">
-        <v>300257</v>
+        <v>300776</v>
       </c>
       <c r="C47" s="6">
-        <v>69500</v>
+        <v>15820</v>
       </c>
       <c r="D47" s="6">
-        <v>69500</v>
+        <v>15820</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>13.25</v>
+        <v>83.78</v>
       </c>
       <c r="G47" s="7">
-        <v>11.43</v>
+        <v>79.344</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>920875</v>
+        <v>1325399.6</v>
       </c>
       <c r="J47" s="7">
-        <v>126522.36</v>
+        <v>70176.08</v>
       </c>
       <c r="K47" s="7">
-        <v>17375</v>
+        <v>9333.8</v>
       </c>
       <c r="L47" s="8">
-        <v>15.92</v>
+        <v>5.59</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>26</v>
@@ -2710,43 +2707,43 @@
         <v>86</v>
       </c>
       <c r="B48" s="6">
-        <v>603203</v>
+        <v>300638</v>
       </c>
       <c r="C48" s="6">
-        <v>35740</v>
+        <v>26000</v>
       </c>
       <c r="D48" s="6">
-        <v>35740</v>
+        <v>26000</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>28</v>
+        <v>60.1</v>
       </c>
       <c r="G48" s="7">
-        <v>27.336</v>
+        <v>56.117</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1000720</v>
+        <v>1562600</v>
       </c>
       <c r="J48" s="7">
-        <v>23729.47</v>
+        <v>103555.9</v>
       </c>
       <c r="K48" s="7">
-        <v>-17155.2</v>
+        <v>28860</v>
       </c>
       <c r="L48" s="8">
-        <v>2.43</v>
+        <v>7.1</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2754,125 +2751,125 @@
         <v>87</v>
       </c>
       <c r="B49" s="6">
-        <v>601100</v>
+        <v>300257</v>
       </c>
       <c r="C49" s="6">
-        <v>15200</v>
+        <v>69500</v>
       </c>
       <c r="D49" s="6">
-        <v>15200</v>
+        <v>69500</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>75.91</v>
+        <v>13.07</v>
       </c>
       <c r="G49" s="7">
-        <v>72.228</v>
+        <v>11.43</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1153832</v>
+        <v>908365</v>
       </c>
       <c r="J49" s="7">
-        <v>55965.69</v>
+        <v>114012.36</v>
       </c>
       <c r="K49" s="7">
-        <v>47576</v>
+        <v>-2085</v>
       </c>
       <c r="L49" s="8">
-        <v>5.1</v>
+        <v>14.35</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>89</v>
+      <c r="B50" s="6">
+        <v>603203</v>
       </c>
       <c r="C50" s="6">
-        <v>17000</v>
+        <v>35740</v>
       </c>
       <c r="D50" s="6">
-        <v>17000</v>
+        <v>35740</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>65.96</v>
+        <v>28.69</v>
       </c>
       <c r="G50" s="7">
-        <v>61.17</v>
+        <v>27.126</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>1121320</v>
+        <v>1025380.6</v>
       </c>
       <c r="J50" s="7">
-        <v>81431.06</v>
+        <v>55895.47</v>
       </c>
       <c r="K50" s="7">
-        <v>35700</v>
+        <v>52180.4</v>
       </c>
       <c r="L50" s="8">
-        <v>7.83</v>
+        <v>5.77</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6">
-        <v>603583</v>
+        <v>601100</v>
       </c>
       <c r="C51" s="6">
-        <v>22700</v>
+        <v>15200</v>
       </c>
       <c r="D51" s="6">
-        <v>22700</v>
+        <v>15200</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>67.22</v>
+        <v>80.2</v>
       </c>
       <c r="G51" s="7">
-        <v>66.104</v>
+        <v>72.228</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>1525894</v>
+        <v>1219040</v>
       </c>
       <c r="J51" s="7">
-        <v>25334.24</v>
+        <v>121173.69</v>
       </c>
       <c r="K51" s="7">
-        <v>30191</v>
+        <v>76152</v>
       </c>
       <c r="L51" s="8">
-        <v>1.69</v>
+        <v>11.04</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>24</v>
@@ -2883,40 +2880,40 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="C52" s="6">
-        <v>25700</v>
+        <v>17000</v>
       </c>
       <c r="D52" s="6">
-        <v>25700</v>
+        <v>17000</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>56.74</v>
+        <v>65.8</v>
       </c>
       <c r="G52" s="7">
-        <v>53.899</v>
+        <v>61.17</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1458218</v>
+        <v>1118600</v>
       </c>
       <c r="J52" s="7">
-        <v>73014.49</v>
+        <v>78711.06</v>
       </c>
       <c r="K52" s="7">
-        <v>74016</v>
+        <v>-1190</v>
       </c>
       <c r="L52" s="8">
-        <v>5.27</v>
+        <v>7.57</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>26</v>
@@ -2926,91 +2923,91 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="10">
-        <v>300739</v>
-      </c>
-      <c r="C53" s="10">
-        <v>49600</v>
-      </c>
-      <c r="D53" s="10">
-        <v>49600</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
-        <v>20.14</v>
-      </c>
-      <c r="G53" s="11">
-        <v>20.25</v>
-      </c>
-      <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>998944</v>
-      </c>
-      <c r="J53" s="11">
-        <v>-5434.61</v>
-      </c>
-      <c r="K53" s="11">
-        <v>-6448</v>
-      </c>
-      <c r="L53" s="9">
-        <v>-0.54</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>25</v>
+      <c r="A53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="6">
+        <v>603583</v>
+      </c>
+      <c r="C53" s="6">
+        <v>22700</v>
+      </c>
+      <c r="D53" s="6">
+        <v>22700</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>68.38</v>
+      </c>
+      <c r="G53" s="7">
+        <v>66.104</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1552226</v>
+      </c>
+      <c r="J53" s="7">
+        <v>51666.24</v>
+      </c>
+      <c r="K53" s="7">
+        <v>48351</v>
+      </c>
+      <c r="L53" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="6">
-        <v>601799</v>
-      </c>
       <c r="C54" s="6">
-        <v>3600</v>
+        <v>25700</v>
       </c>
       <c r="D54" s="6">
-        <v>3600</v>
+        <v>25700</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>121.95</v>
+        <v>54.14</v>
       </c>
       <c r="G54" s="7">
-        <v>111.804</v>
+        <v>53.899</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>439020</v>
+        <v>1391398</v>
       </c>
       <c r="J54" s="7">
-        <v>36523.92</v>
+        <v>6194.49</v>
       </c>
       <c r="K54" s="7">
-        <v>72</v>
+        <v>-21588</v>
       </c>
       <c r="L54" s="8">
-        <v>9.07</v>
+        <v>0.45</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3018,43 +3015,43 @@
         <v>95</v>
       </c>
       <c r="B55" s="6">
-        <v>603127</v>
+        <v>300739</v>
       </c>
       <c r="C55" s="6">
-        <v>12000</v>
+        <v>49600</v>
       </c>
       <c r="D55" s="6">
-        <v>12000</v>
+        <v>49600</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>96.53</v>
+        <v>20.91</v>
       </c>
       <c r="G55" s="7">
-        <v>89.398</v>
+        <v>20.25</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>1158360</v>
+        <v>1037136</v>
       </c>
       <c r="J55" s="7">
-        <v>85584.34</v>
+        <v>32757.39</v>
       </c>
       <c r="K55" s="7">
-        <v>60360</v>
+        <v>39184</v>
       </c>
       <c r="L55" s="8">
-        <v>7.98</v>
+        <v>3.26</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3062,175 +3059,175 @@
         <v>96</v>
       </c>
       <c r="B56" s="6">
+        <v>601799</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3600</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>127</v>
+      </c>
+      <c r="G56" s="7">
+        <v>111.804</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>457200</v>
+      </c>
+      <c r="J56" s="7">
+        <v>54703.92</v>
+      </c>
+      <c r="K56" s="7">
+        <v>15228</v>
+      </c>
+      <c r="L56" s="8">
+        <v>13.59</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="6">
+        <v>603127</v>
+      </c>
+      <c r="C57" s="6">
+        <v>12000</v>
+      </c>
+      <c r="D57" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>105.13</v>
+      </c>
+      <c r="G57" s="7">
+        <v>89.398</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1261560</v>
+      </c>
+      <c r="J57" s="7">
+        <v>188784.34</v>
+      </c>
+      <c r="K57" s="7">
+        <v>53160</v>
+      </c>
+      <c r="L57" s="8">
+        <v>17.6</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="6">
         <v>300138</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C58" s="6">
         <v>35400</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D58" s="6">
         <v>35400</v>
       </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>12.15</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>12.14</v>
+      </c>
+      <c r="G58" s="7">
         <v>11.069</v>
       </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>430110</v>
-      </c>
-      <c r="J56" s="7">
-        <v>38252.87</v>
-      </c>
-      <c r="K56" s="7">
-        <v>2124</v>
-      </c>
-      <c r="L56" s="8">
-        <v>9.77</v>
-      </c>
-      <c r="M56" s="8" t="s">
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>429756</v>
+      </c>
+      <c r="J58" s="7">
+        <v>37898.87</v>
+      </c>
+      <c r="K58" s="7">
+        <v>4602</v>
+      </c>
+      <c r="L58" s="8">
+        <v>9.68</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="8" t="s">
+      <c r="N58" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="13">
-        <v>380138</v>
-      </c>
-      <c r="C57" s="13">
-        <v>463</v>
-      </c>
-      <c r="D57" s="13">
-        <v>463</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>100</v>
-      </c>
-      <c r="G57" s="14">
-        <v>0</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0</v>
-      </c>
-      <c r="I57" s="14">
-        <v>0</v>
-      </c>
-      <c r="J57" s="14">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="12" t="s">
+    <row r="59" spans="1:14">
+      <c r="A59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="10">
+        <v>300630</v>
+      </c>
+      <c r="C59" s="10">
+        <v>5300</v>
+      </c>
+      <c r="D59" s="10">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>73.95</v>
+      </c>
+      <c r="G59" s="11">
+        <v>74.593</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>391935</v>
+      </c>
+      <c r="J59" s="11">
+        <v>-3405.29</v>
+      </c>
+      <c r="K59" s="11">
+        <v>7102</v>
+      </c>
+      <c r="L59" s="9">
+        <v>-0.86</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="12" t="s">
+      <c r="N59" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="10">
-        <v>300630</v>
-      </c>
-      <c r="C58" s="10">
-        <v>5300</v>
-      </c>
-      <c r="D58" s="10">
-        <v>5300</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>71.8</v>
-      </c>
-      <c r="G58" s="11">
-        <v>74.593</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>380540</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-14800.29</v>
-      </c>
-      <c r="K58" s="11">
-        <v>9010</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-3.74</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="6">
-        <v>603228</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>35.27</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
-        <v>29100.62</v>
-      </c>
-      <c r="K59" s="7">
-        <v>-9319.95</v>
-      </c>
-      <c r="L59" s="8">
-        <v>0</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3250,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>7.76</v>
+        <v>8.12</v>
       </c>
       <c r="G60" s="7">
         <v>7.736</v>
@@ -3259,16 +3256,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>217900.8</v>
+        <v>228009.6</v>
       </c>
       <c r="J60" s="7">
-        <v>664.37</v>
+        <v>10773.17</v>
       </c>
       <c r="K60" s="7">
-        <v>4212</v>
+        <v>1404</v>
       </c>
       <c r="L60" s="8">
-        <v>0.31</v>
+        <v>4.96</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3294,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="11">
-        <v>50.37</v>
+        <v>50.89</v>
       </c>
       <c r="G61" s="11">
         <v>51.764</v>
@@ -3303,16 +3300,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>256887</v>
+        <v>259539</v>
       </c>
       <c r="J61" s="11">
-        <v>-7108.78</v>
+        <v>-4456.78</v>
       </c>
       <c r="K61" s="11">
-        <v>2907</v>
+        <v>8007</v>
       </c>
       <c r="L61" s="9">
-        <v>-2.69</v>
+        <v>-1.69</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>24</v>
@@ -3332,31 +3329,31 @@
         <v>23160</v>
       </c>
       <c r="D62" s="6">
-        <v>10150</v>
+        <v>23160</v>
       </c>
       <c r="E62" s="6">
-        <v>13010</v>
+        <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>75.78</v>
+        <v>77.22</v>
       </c>
       <c r="G62" s="7">
-        <v>68.476</v>
+        <v>68.463</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>1755064.8</v>
+        <v>1788415.2</v>
       </c>
       <c r="J62" s="7">
-        <v>169150.81</v>
+        <v>202809.35</v>
       </c>
       <c r="K62" s="7">
-        <v>33584.15</v>
+        <v>7874.4</v>
       </c>
       <c r="L62" s="8">
-        <v>10.67</v>
+        <v>12.79</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3366,90 +3363,90 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="6">
-        <v>300124</v>
-      </c>
-      <c r="C63" s="6">
-        <v>11400</v>
-      </c>
-      <c r="D63" s="6">
-        <v>11400</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>35.87</v>
-      </c>
-      <c r="G63" s="7">
-        <v>34.931</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>408918</v>
-      </c>
-      <c r="J63" s="7">
-        <v>10700.28</v>
-      </c>
-      <c r="K63" s="7">
-        <v>4218</v>
-      </c>
-      <c r="L63" s="8">
-        <v>2.69</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>25</v>
+      <c r="B63" s="10">
+        <v>603208</v>
+      </c>
+      <c r="C63" s="10">
+        <v>16100</v>
+      </c>
+      <c r="D63" s="10">
+        <v>16100</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>97.4</v>
+      </c>
+      <c r="G63" s="11">
+        <v>102.477</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1568140</v>
+      </c>
+      <c r="J63" s="11">
+        <v>-81743.6</v>
+      </c>
+      <c r="K63" s="11">
+        <v>22701</v>
+      </c>
+      <c r="L63" s="9">
+        <v>-4.95</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="10">
-        <v>603208</v>
-      </c>
-      <c r="C64" s="10">
-        <v>16100</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="10">
-        <v>16100</v>
-      </c>
-      <c r="F64" s="11">
-        <v>100</v>
-      </c>
-      <c r="G64" s="11">
-        <v>102.492</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>1610000</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-40126.7</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-40126.7</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-2.43</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="B64" s="6">
+        <v>603039</v>
+      </c>
+      <c r="C64" s="6">
+        <v>6380</v>
+      </c>
+      <c r="D64" s="6">
+        <v>6380</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>77.26</v>
+      </c>
+      <c r="G64" s="7">
+        <v>62.022</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>492918.8</v>
+      </c>
+      <c r="J64" s="7">
+        <v>97216.2</v>
+      </c>
+      <c r="K64" s="7">
+        <v>34324.4</v>
+      </c>
+      <c r="L64" s="8">
+        <v>24.57</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3458,37 +3455,37 @@
         <v>106</v>
       </c>
       <c r="B65" s="6">
-        <v>603039</v>
+        <v>603338</v>
       </c>
       <c r="C65" s="6">
-        <v>6380</v>
+        <v>19300</v>
       </c>
       <c r="D65" s="6">
-        <v>6380</v>
+        <v>19300</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>70.38</v>
+        <v>75.77</v>
       </c>
       <c r="G65" s="7">
-        <v>62.022</v>
+        <v>74.855</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>449024.4</v>
+        <v>1462361</v>
       </c>
       <c r="J65" s="7">
-        <v>53321.8</v>
+        <v>17657.25</v>
       </c>
       <c r="K65" s="7">
-        <v>12632.4</v>
+        <v>14861</v>
       </c>
       <c r="L65" s="8">
-        <v>13.48</v>
+        <v>1.22</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>24</v>
@@ -3502,37 +3499,37 @@
         <v>107</v>
       </c>
       <c r="B66" s="6">
-        <v>603338</v>
+        <v>600639</v>
       </c>
       <c r="C66" s="6">
-        <v>19300</v>
+        <v>26800</v>
       </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="E66" s="6">
-        <v>19300</v>
+        <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>75.5</v>
+        <v>15.98</v>
       </c>
       <c r="G66" s="7">
-        <v>74.881</v>
+        <v>14.909</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>1457150</v>
+        <v>428264</v>
       </c>
       <c r="J66" s="7">
-        <v>11951.02</v>
+        <v>28700.08</v>
       </c>
       <c r="K66" s="7">
-        <v>11951.02</v>
+        <v>15544</v>
       </c>
       <c r="L66" s="8">
-        <v>0.83</v>
+        <v>7.18</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>24</v>
@@ -3542,46 +3539,46 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="6">
-        <v>600639</v>
-      </c>
-      <c r="C67" s="6">
-        <v>26800</v>
-      </c>
-      <c r="D67" s="6">
-        <v>26800</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>15.41</v>
-      </c>
-      <c r="G67" s="7">
-        <v>14.909</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>412988</v>
-      </c>
-      <c r="J67" s="7">
-        <v>13424.08</v>
-      </c>
-      <c r="K67" s="7">
-        <v>3216</v>
-      </c>
-      <c r="L67" s="8">
-        <v>3.36</v>
-      </c>
-      <c r="M67" s="8" t="s">
+      <c r="B67" s="10">
+        <v>603718</v>
+      </c>
+      <c r="C67" s="10">
+        <v>51700</v>
+      </c>
+      <c r="D67" s="10">
+        <v>51700</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>18.26</v>
+      </c>
+      <c r="G67" s="11">
+        <v>19.017</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>944042</v>
+      </c>
+      <c r="J67" s="11">
+        <v>-39130.1</v>
+      </c>
+      <c r="K67" s="11">
+        <v>-7238</v>
+      </c>
+      <c r="L67" s="9">
+        <v>-3.98</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="N67" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3602,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="11">
-        <v>36.6</v>
+        <v>36.47</v>
       </c>
       <c r="G68" s="11">
         <v>36.788</v>
@@ -3611,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="11">
-        <v>1281000</v>
+        <v>1276450</v>
       </c>
       <c r="J68" s="11">
-        <v>-6580.48</v>
+        <v>-11130.48</v>
       </c>
       <c r="K68" s="11">
-        <v>17500</v>
+        <v>18900</v>
       </c>
       <c r="L68" s="9">
-        <v>-0.51</v>
+        <v>-0.86</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>24</v>
@@ -3630,90 +3627,90 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="13">
+        <v>753187</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1100</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1100</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="14">
+        <v>100</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
+        <v>0</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="6">
-        <v>6600</v>
-      </c>
-      <c r="D69" s="6">
-        <v>6600</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>159.34</v>
-      </c>
-      <c r="G69" s="7">
-        <v>153.871</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>1051644</v>
-      </c>
-      <c r="J69" s="7">
-        <v>36094.85</v>
-      </c>
-      <c r="K69" s="7">
-        <v>-24024</v>
-      </c>
-      <c r="L69" s="8">
-        <v>3.55</v>
-      </c>
-      <c r="M69" s="8" t="s">
+      <c r="B70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="6">
+        <v>10800</v>
+      </c>
+      <c r="D70" s="6">
+        <v>10800</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>167.52</v>
+      </c>
+      <c r="G70" s="7">
+        <v>156.721</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1809216</v>
+      </c>
+      <c r="J70" s="7">
+        <v>116629.71</v>
+      </c>
+      <c r="K70" s="7">
+        <v>22788</v>
+      </c>
+      <c r="L70" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="M70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="10">
-        <v>300696</v>
-      </c>
-      <c r="C70" s="10">
-        <v>35900</v>
-      </c>
-      <c r="D70" s="10">
-        <v>35900</v>
-      </c>
-      <c r="E70" s="10">
-        <v>0</v>
-      </c>
-      <c r="F70" s="11">
-        <v>35.36</v>
-      </c>
-      <c r="G70" s="11">
-        <v>35.684</v>
-      </c>
-      <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <v>1269424</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-11619.07</v>
-      </c>
-      <c r="K70" s="11">
-        <v>19386</v>
-      </c>
-      <c r="L70" s="9">
-        <v>-0.91</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3722,43 +3719,43 @@
         <v>113</v>
       </c>
       <c r="B71" s="6">
-        <v>603605</v>
+        <v>300696</v>
       </c>
       <c r="C71" s="6">
-        <v>4000</v>
+        <v>35900</v>
       </c>
       <c r="D71" s="6">
-        <v>4000</v>
+        <v>35900</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>174.97</v>
+        <v>35.88</v>
       </c>
       <c r="G71" s="7">
-        <v>155.718</v>
+        <v>35.684</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>699880</v>
+        <v>1288092</v>
       </c>
       <c r="J71" s="7">
-        <v>77007.06</v>
+        <v>7048.93</v>
       </c>
       <c r="K71" s="7">
-        <v>28680</v>
+        <v>18668</v>
       </c>
       <c r="L71" s="8">
-        <v>12.36</v>
+        <v>0.55</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3766,43 +3763,43 @@
         <v>114</v>
       </c>
       <c r="B72" s="6">
-        <v>300119</v>
+        <v>603605</v>
       </c>
       <c r="C72" s="6">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="D72" s="6">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>21.5</v>
+        <v>180.02</v>
       </c>
       <c r="G72" s="7">
-        <v>17.758</v>
+        <v>155.718</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>365500</v>
+        <v>720080</v>
       </c>
       <c r="J72" s="7">
-        <v>63608.72</v>
+        <v>97207.06</v>
       </c>
       <c r="K72" s="7">
-        <v>6800</v>
+        <v>20960</v>
       </c>
       <c r="L72" s="8">
-        <v>21.07</v>
+        <v>15.61</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3810,43 +3807,43 @@
         <v>115</v>
       </c>
       <c r="B73" s="6">
-        <v>603181</v>
+        <v>300119</v>
       </c>
       <c r="C73" s="6">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="D73" s="6">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="E73" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>21.45</v>
+        <v>22.35</v>
       </c>
       <c r="G73" s="7">
-        <v>21.077</v>
+        <v>17.758</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>214500</v>
+        <v>379950</v>
       </c>
       <c r="J73" s="7">
-        <v>3731.54</v>
+        <v>78058.72</v>
       </c>
       <c r="K73" s="7">
-        <v>3731.54</v>
+        <v>15470</v>
       </c>
       <c r="L73" s="8">
-        <v>1.77</v>
+        <v>25.86</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3854,37 +3851,37 @@
         <v>116</v>
       </c>
       <c r="B74" s="6">
-        <v>603688</v>
+        <v>603181</v>
       </c>
       <c r="C74" s="6">
-        <v>46700</v>
+        <v>10000</v>
       </c>
       <c r="D74" s="6">
-        <v>46700</v>
+        <v>10000</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>23.36</v>
+        <v>22.7</v>
       </c>
       <c r="G74" s="7">
-        <v>21.88</v>
+        <v>21.067</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>1090912</v>
+        <v>227000</v>
       </c>
       <c r="J74" s="7">
-        <v>69119.28</v>
+        <v>16326.21</v>
       </c>
       <c r="K74" s="7">
-        <v>7005</v>
+        <v>9100</v>
       </c>
       <c r="L74" s="8">
-        <v>6.76</v>
+        <v>7.75</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>24</v>
@@ -3894,223 +3891,223 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="6">
+        <v>603688</v>
+      </c>
+      <c r="C75" s="6">
+        <v>46700</v>
+      </c>
+      <c r="D75" s="6">
+        <v>46700</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>23.82</v>
+      </c>
+      <c r="G75" s="7">
+        <v>21.88</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1112394</v>
+      </c>
+      <c r="J75" s="7">
+        <v>90601.28</v>
+      </c>
+      <c r="K75" s="7">
+        <v>12609</v>
+      </c>
+      <c r="L75" s="8">
+        <v>8.87</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="6">
         <v>603609</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C76" s="6">
         <v>102800</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="6">
         <v>102800</v>
       </c>
-      <c r="E75" s="10">
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <v>14.69</v>
-      </c>
-      <c r="G75" s="11">
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="G76" s="7">
         <v>14.839</v>
       </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <v>1510132</v>
-      </c>
-      <c r="J75" s="11">
-        <v>-15311.45</v>
-      </c>
-      <c r="K75" s="11">
-        <v>-39064</v>
-      </c>
-      <c r="L75" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M75" s="9" t="s">
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1531720</v>
+      </c>
+      <c r="J76" s="7">
+        <v>6276.55</v>
+      </c>
+      <c r="K76" s="7">
+        <v>14392</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N76" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="12" t="s">
+    <row r="77" spans="1:14">
+      <c r="A77" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="13">
-        <v>1616000</v>
-      </c>
-      <c r="D76" s="13">
-        <v>1616000</v>
-      </c>
-      <c r="E76" s="13">
-        <v>0</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0</v>
-      </c>
-      <c r="G76" s="14">
-        <v>0</v>
-      </c>
-      <c r="H76" s="14">
-        <v>0</v>
-      </c>
-      <c r="I76" s="14">
-        <v>0</v>
-      </c>
-      <c r="J76" s="14">
-        <v>0</v>
-      </c>
-      <c r="K76" s="14" t="s">
+      <c r="B77" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2103000</v>
+      </c>
+      <c r="D77" s="13">
+        <v>2103000</v>
+      </c>
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+      <c r="G77" s="14">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="K77" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L76" s="12">
-        <v>0</v>
-      </c>
-      <c r="M76" s="12" t="s">
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="12" t="s">
+      <c r="N77" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="10">
+    <row r="78" spans="1:14">
+      <c r="A78" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="10">
         <v>603612</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C78" s="10">
         <v>64300</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>64300</v>
       </c>
-      <c r="E77" s="10">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11">
-        <v>11.74</v>
-      </c>
-      <c r="G77" s="11">
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>11.42</v>
+      </c>
+      <c r="G78" s="11">
         <v>12.042</v>
       </c>
-      <c r="H77" s="11">
-        <v>0</v>
-      </c>
-      <c r="I77" s="11">
-        <v>754882</v>
-      </c>
-      <c r="J77" s="11">
-        <v>-19436.19</v>
-      </c>
-      <c r="K77" s="11">
-        <v>-14146</v>
-      </c>
-      <c r="L77" s="9">
-        <v>-2.51</v>
-      </c>
-      <c r="M77" s="9" t="s">
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>734306</v>
+      </c>
+      <c r="J78" s="11">
+        <v>-40012.19</v>
+      </c>
+      <c r="K78" s="11">
+        <v>10288</v>
+      </c>
+      <c r="L78" s="9">
+        <v>-5.17</v>
+      </c>
+      <c r="M78" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N78" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D78" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>43.15</v>
-      </c>
-      <c r="G78" s="7">
-        <v>38.095</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>94930</v>
-      </c>
-      <c r="J78" s="7">
-        <v>11121.43</v>
-      </c>
-      <c r="K78" s="7">
-        <v>792</v>
-      </c>
-      <c r="L78" s="8">
-        <v>13.27</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="6">
-        <v>603538</v>
-      </c>
       <c r="C79" s="6">
-        <v>11800</v>
+        <v>2200</v>
       </c>
       <c r="D79" s="6">
-        <v>11800</v>
+        <v>2200</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>53.06</v>
+        <v>42.98</v>
       </c>
       <c r="G79" s="7">
-        <v>50.745</v>
+        <v>38.095</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>626108</v>
+        <v>94556</v>
       </c>
       <c r="J79" s="7">
-        <v>27313.22</v>
+        <v>10747.43</v>
       </c>
       <c r="K79" s="7">
-        <v>27022</v>
+        <v>2046</v>
       </c>
       <c r="L79" s="8">
-        <v>4.56</v>
+        <v>12.82</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4118,37 +4115,37 @@
         <v>124</v>
       </c>
       <c r="B80" s="6">
-        <v>603989</v>
+        <v>603538</v>
       </c>
       <c r="C80" s="6">
-        <v>14400</v>
+        <v>11800</v>
       </c>
       <c r="D80" s="6">
-        <v>14400</v>
+        <v>11800</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>28.2</v>
+        <v>50.98</v>
       </c>
       <c r="G80" s="7">
-        <v>27.281</v>
+        <v>50.635</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>406080</v>
+        <v>601564</v>
       </c>
       <c r="J80" s="7">
-        <v>13229.45</v>
+        <v>4067.22</v>
       </c>
       <c r="K80" s="7">
-        <v>4320</v>
+        <v>4720</v>
       </c>
       <c r="L80" s="8">
-        <v>3.37</v>
+        <v>0.68</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>24</v>
@@ -4162,37 +4159,37 @@
         <v>125</v>
       </c>
       <c r="B81" s="6">
-        <v>603355</v>
+        <v>603989</v>
       </c>
       <c r="C81" s="6">
-        <v>9600</v>
+        <v>14400</v>
       </c>
       <c r="D81" s="6">
-        <v>9600</v>
+        <v>14400</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>23.79</v>
+        <v>29.02</v>
       </c>
       <c r="G81" s="7">
-        <v>22.984</v>
+        <v>27.281</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>228384</v>
+        <v>417888</v>
       </c>
       <c r="J81" s="7">
-        <v>7732.96</v>
+        <v>25037.45</v>
       </c>
       <c r="K81" s="7">
-        <v>6432</v>
+        <v>19008</v>
       </c>
       <c r="L81" s="8">
-        <v>3.51</v>
+        <v>6.37</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>24</v>
@@ -4202,47 +4199,47 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="6">
-        <v>300395</v>
-      </c>
-      <c r="C82" s="6">
-        <v>16600</v>
-      </c>
-      <c r="D82" s="6">
-        <v>16600</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>30.39</v>
-      </c>
-      <c r="G82" s="7">
-        <v>23.739</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>504474</v>
-      </c>
-      <c r="J82" s="7">
-        <v>110413.89</v>
-      </c>
-      <c r="K82" s="7">
-        <v>-1494</v>
-      </c>
-      <c r="L82" s="8">
-        <v>28.02</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>25</v>
+      <c r="B82" s="10">
+        <v>603916</v>
+      </c>
+      <c r="C82" s="10">
+        <v>17200</v>
+      </c>
+      <c r="D82" s="10">
+        <v>17200</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>25.15</v>
+      </c>
+      <c r="G82" s="11">
+        <v>26.66</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>432580</v>
+      </c>
+      <c r="J82" s="11">
+        <v>-25966.91</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="9">
+        <v>-5.66</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4250,43 +4247,43 @@
         <v>127</v>
       </c>
       <c r="B83" s="6">
-        <v>300036</v>
+        <v>603355</v>
       </c>
       <c r="C83" s="6">
-        <v>33900</v>
+        <v>9600</v>
       </c>
       <c r="D83" s="6">
-        <v>33900</v>
+        <v>9600</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>24.9</v>
+        <v>24.89</v>
       </c>
       <c r="G83" s="7">
-        <v>23.81</v>
+        <v>22.984</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>844110</v>
+        <v>238944</v>
       </c>
       <c r="J83" s="7">
-        <v>36959.9</v>
+        <v>18292.96</v>
       </c>
       <c r="K83" s="7">
-        <v>13221</v>
+        <v>2976</v>
       </c>
       <c r="L83" s="8">
-        <v>4.58</v>
+        <v>8.29</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4294,37 +4291,37 @@
         <v>128</v>
       </c>
       <c r="B84" s="6">
-        <v>300396</v>
+        <v>300395</v>
       </c>
       <c r="C84" s="6">
-        <v>56500</v>
+        <v>16600</v>
       </c>
       <c r="D84" s="6">
-        <v>56500</v>
+        <v>16600</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="F84" s="7">
-        <v>26.89</v>
+        <v>32.87</v>
       </c>
       <c r="G84" s="7">
-        <v>25.853</v>
+        <v>23.739</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>1519285</v>
+        <v>545642</v>
       </c>
       <c r="J84" s="7">
-        <v>58583.87</v>
+        <v>151581.89</v>
       </c>
       <c r="K84" s="7">
-        <v>67235</v>
+        <v>13612</v>
       </c>
       <c r="L84" s="8">
-        <v>4.01</v>
+        <v>38.46</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>26</v>
@@ -4334,90 +4331,90 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>99.52</v>
+      </c>
+      <c r="G85" s="7">
+        <v>97.621</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>119424</v>
+      </c>
+      <c r="J85" s="7">
+        <v>2278.41</v>
+      </c>
+      <c r="K85" s="7">
+        <v>5040</v>
+      </c>
+      <c r="L85" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="10">
         <v>84700</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>84700</v>
       </c>
-      <c r="E85" s="10">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11">
-        <v>10.24</v>
-      </c>
-      <c r="G85" s="11">
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>10.07</v>
+      </c>
+      <c r="G86" s="11">
         <v>10.641</v>
       </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>867328</v>
-      </c>
-      <c r="J85" s="11">
-        <v>-33986.22</v>
-      </c>
-      <c r="K85" s="11">
-        <v>-10164</v>
-      </c>
-      <c r="L85" s="9">
-        <v>-3.77</v>
-      </c>
-      <c r="M85" s="9" t="s">
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>852929</v>
+      </c>
+      <c r="J86" s="11">
+        <v>-48385.22</v>
+      </c>
+      <c r="K86" s="11">
+        <v>5082</v>
+      </c>
+      <c r="L86" s="9">
+        <v>-5.37</v>
+      </c>
+      <c r="M86" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N85" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="6">
-        <v>17100</v>
-      </c>
-      <c r="D86" s="6">
-        <v>17100</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>11.35</v>
-      </c>
-      <c r="G86" s="7">
-        <v>10.757</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>194085</v>
-      </c>
-      <c r="J86" s="7">
-        <v>10138.41</v>
-      </c>
-      <c r="K86" s="7">
-        <v>-2565</v>
-      </c>
-      <c r="L86" s="8">
-        <v>5.51</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="8" t="s">
+      <c r="N86" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4425,82 +4422,82 @@
       <c r="A87" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="6">
-        <v>603429</v>
+      <c r="B87" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C87" s="6">
-        <v>19460</v>
+        <v>17100</v>
       </c>
       <c r="D87" s="6">
-        <v>19460</v>
+        <v>17100</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>30.19</v>
+        <v>11.35</v>
       </c>
       <c r="G87" s="7">
-        <v>28.878</v>
+        <v>10.757</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>587497.4</v>
+        <v>194085</v>
       </c>
       <c r="J87" s="7">
-        <v>25529.86</v>
+        <v>10138.41</v>
       </c>
       <c r="K87" s="7">
-        <v>-10897.6</v>
+        <v>1197</v>
       </c>
       <c r="L87" s="8">
-        <v>4.54</v>
+        <v>5.51</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B88" s="6">
-        <v>603501</v>
+        <v>603429</v>
       </c>
       <c r="C88" s="6">
-        <v>1500</v>
+        <v>19460</v>
       </c>
       <c r="D88" s="6">
-        <v>1500</v>
+        <v>19460</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>204.99</v>
+        <v>31.83</v>
       </c>
       <c r="G88" s="7">
-        <v>181.481</v>
+        <v>28.878</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>307485</v>
+        <v>619411.8</v>
       </c>
       <c r="J88" s="7">
-        <v>35262.76</v>
+        <v>57444.26</v>
       </c>
       <c r="K88" s="7">
-        <v>3585</v>
+        <v>26076.4</v>
       </c>
       <c r="L88" s="8">
-        <v>12.95</v>
+        <v>10.22</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>24</v>
@@ -4511,89 +4508,45 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C89" s="10">
         <v>31400</v>
       </c>
       <c r="D89" s="10">
-        <v>0</v>
+        <v>31400</v>
       </c>
       <c r="E89" s="10">
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F89" s="11">
-        <v>55.62</v>
+        <v>54.7</v>
       </c>
       <c r="G89" s="11">
-        <v>55.797</v>
+        <v>55.795</v>
       </c>
       <c r="H89" s="11">
         <v>0</v>
       </c>
       <c r="I89" s="11">
-        <v>1746468</v>
+        <v>1717580</v>
       </c>
       <c r="J89" s="11">
-        <v>-5545.01</v>
-      </c>
-      <c r="K89" s="11">
-        <v>-5545.01</v>
+        <v>-34377.53</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L89" s="9">
-        <v>-0.32</v>
+        <v>-1.96</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="6">
-        <v>21100</v>
-      </c>
-      <c r="D90" s="6">
-        <v>6100</v>
-      </c>
-      <c r="E90" s="6">
-        <v>15000</v>
-      </c>
-      <c r="F90" s="7">
-        <v>51.67</v>
-      </c>
-      <c r="G90" s="7">
-        <v>48.798</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>1090237</v>
-      </c>
-      <c r="J90" s="7">
-        <v>60600.3</v>
-      </c>
-      <c r="K90" s="7">
-        <v>76345.28</v>
-      </c>
-      <c r="L90" s="8">
-        <v>5.89</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
   <si>
     <t>资金</t>
   </si>
@@ -136,6 +136,9 @@
     <t>交易市场</t>
   </si>
   <si>
+    <t>DR恒立液</t>
+  </si>
+  <si>
     <t>万孚生物</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>东宏股份</t>
   </si>
   <si>
+    <t>东方集团</t>
+  </si>
+  <si>
     <t>中公教育</t>
   </si>
   <si>
@@ -244,9 +250,6 @@
     <t>坤彩科技</t>
   </si>
   <si>
-    <t>奥克股份</t>
-  </si>
-  <si>
     <t>宁波高发</t>
   </si>
   <si>
@@ -265,12 +268,6 @@
     <t>002327</t>
   </si>
   <si>
-    <t>崇达技术</t>
-  </si>
-  <si>
-    <t>002815</t>
-  </si>
-  <si>
     <t>帝尔激光</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>快克股份</t>
   </si>
   <si>
-    <t>恒立液压</t>
-  </si>
-  <si>
     <t>恩捷股份</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
   </si>
   <si>
     <t>海容冷链</t>
-  </si>
-  <si>
-    <t>海容配债</t>
   </si>
   <si>
     <t>深南电路</t>
@@ -819,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -899,28 +890,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>5569758.21</v>
+        <v>6313175.35</v>
       </c>
       <c r="D3" s="3">
-        <v>6303974.96</v>
+        <v>6541512.15</v>
       </c>
       <c r="E3" s="3">
-        <v>5569758.21</v>
+        <v>6313175.35</v>
       </c>
       <c r="F3" s="3">
-        <v>-734216.75</v>
+        <v>-228336.8</v>
       </c>
       <c r="G3" s="3">
-        <v>90094218.27</v>
+        <v>90089792.16</v>
       </c>
       <c r="H3" s="3">
-        <v>96398193.23</v>
+        <v>96623927.6</v>
       </c>
       <c r="I3" s="3">
-        <v>3653543.12</v>
+        <v>3838830.81</v>
       </c>
       <c r="J3" s="3">
-        <v>1263642.61</v>
+        <v>231326.28</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1027,10 +1018,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>2103000</v>
+        <v>2300000</v>
       </c>
       <c r="C8" s="3">
-        <v>2103000</v>
+        <v>2300500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1044,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>3042000</v>
+        <v>3204000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1123,81 +1114,81 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>300482</v>
+        <v>601100</v>
       </c>
       <c r="C12" s="6">
-        <v>11800</v>
+        <v>22496</v>
       </c>
       <c r="D12" s="6">
-        <v>11800</v>
+        <v>15200</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>7296</v>
       </c>
       <c r="F12" s="7">
-        <v>104</v>
+        <v>54.39</v>
       </c>
       <c r="G12" s="7">
-        <v>93.41</v>
+        <v>48.397</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1227200</v>
+        <v>1223557.44</v>
       </c>
       <c r="J12" s="7">
-        <v>124961.68</v>
+        <v>134811.13</v>
       </c>
       <c r="K12" s="7">
-        <v>24662</v>
+        <v>13632.58</v>
       </c>
       <c r="L12" s="8">
-        <v>11.34</v>
+        <v>12.38</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
+      <c r="B13" s="6">
+        <v>300482</v>
       </c>
       <c r="C13" s="6">
-        <v>8300</v>
+        <v>11800</v>
       </c>
       <c r="D13" s="6">
-        <v>8300</v>
+        <v>11800</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>52.9</v>
+        <v>102.44</v>
       </c>
       <c r="G13" s="7">
-        <v>47.981</v>
+        <v>93.41</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>439070</v>
+        <v>1208792</v>
       </c>
       <c r="J13" s="7">
-        <v>40824.28</v>
+        <v>106553.68</v>
       </c>
       <c r="K13" s="7">
-        <v>17430</v>
+        <v>-18408</v>
       </c>
       <c r="L13" s="8">
-        <v>10.25</v>
+        <v>9.67</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -1207,90 +1198,90 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10">
+      <c r="C14" s="6">
+        <v>8300</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8300</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>50.84</v>
+      </c>
+      <c r="G14" s="7">
+        <v>47.981</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>421972</v>
+      </c>
+      <c r="J14" s="7">
+        <v>23726.28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-17098</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5.96</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10">
         <v>603033</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="10">
         <v>17600</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>17600</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>21.72</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>21.92</v>
+      </c>
+      <c r="G15" s="11">
         <v>22.227</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>382272</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-8919.48</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-3344</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-2.28</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>385792</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-5399.48</v>
+      </c>
+      <c r="K15" s="11">
+        <v>3520</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-1.38</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6">
-        <v>603856</v>
-      </c>
-      <c r="C15" s="6">
-        <v>19400</v>
-      </c>
-      <c r="D15" s="6">
-        <v>19400</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="G15" s="7">
-        <v>14.209</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>279360</v>
-      </c>
-      <c r="J15" s="7">
-        <v>3708.08</v>
-      </c>
-      <c r="K15" s="7">
-        <v>5626</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1.34</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1298,82 +1289,82 @@
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>46</v>
+      <c r="B16" s="6">
+        <v>603856</v>
       </c>
       <c r="C16" s="6">
-        <v>37429</v>
+        <v>19400</v>
       </c>
       <c r="D16" s="6">
-        <v>37429</v>
+        <v>19400</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>27.75</v>
+        <v>14.77</v>
       </c>
       <c r="G16" s="7">
-        <v>27.24</v>
+        <v>14.209</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1038654.75</v>
+        <v>286538</v>
       </c>
       <c r="J16" s="7">
-        <v>19085.91</v>
+        <v>10886.08</v>
       </c>
       <c r="K16" s="7">
-        <v>-4865.77</v>
+        <v>7178</v>
       </c>
       <c r="L16" s="8">
-        <v>1.87</v>
+        <v>3.95</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="10">
-        <v>601965</v>
+        <v>600811</v>
       </c>
       <c r="C17" s="10">
-        <v>35800</v>
+        <v>55700</v>
       </c>
       <c r="D17" s="10">
-        <v>35800</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10">
-        <v>0</v>
+        <v>55700</v>
       </c>
       <c r="F17" s="11">
-        <v>8.72</v>
+        <v>4.41</v>
       </c>
       <c r="G17" s="11">
-        <v>9.589</v>
+        <v>4.431</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>312176</v>
+        <v>245637</v>
       </c>
       <c r="J17" s="11">
-        <v>-31100.87</v>
+        <v>-1155.93</v>
       </c>
       <c r="K17" s="11">
-        <v>-4296</v>
+        <v>-1155.93</v>
       </c>
       <c r="L17" s="9">
-        <v>-9.06</v>
+        <v>-0.47</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1384,40 +1375,40 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" s="6">
-        <v>13100</v>
+        <v>37429</v>
       </c>
       <c r="D18" s="6">
-        <v>13100</v>
+        <v>37429</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>31.26</v>
+        <v>27.65</v>
       </c>
       <c r="G18" s="7">
-        <v>28.495</v>
+        <v>27.24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>409506</v>
+        <v>1034911.85</v>
       </c>
       <c r="J18" s="7">
-        <v>36224.11</v>
+        <v>15343.01</v>
       </c>
       <c r="K18" s="7">
-        <v>27641</v>
+        <v>-3742.9</v>
       </c>
       <c r="L18" s="8">
-        <v>9.7</v>
+        <v>1.51</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>26</v>
@@ -1427,85 +1418,85 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6">
-        <v>300575</v>
-      </c>
-      <c r="C19" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D19" s="6">
-        <v>32400</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>39.49</v>
-      </c>
-      <c r="G19" s="7">
-        <v>31.145</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1279476</v>
-      </c>
-      <c r="J19" s="7">
-        <v>270379.67</v>
-      </c>
-      <c r="K19" s="7">
-        <v>48924</v>
-      </c>
-      <c r="L19" s="8">
-        <v>26.79</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>25</v>
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10">
+        <v>601965</v>
+      </c>
+      <c r="C19" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D19" s="10">
+        <v>35800</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>8.91</v>
+      </c>
+      <c r="G19" s="11">
+        <v>9.589</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>318978</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-24298.87</v>
+      </c>
+      <c r="K19" s="11">
+        <v>6802</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-7.08</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6">
-        <v>300308</v>
-      </c>
       <c r="C20" s="6">
-        <v>5500</v>
+        <v>13100</v>
       </c>
       <c r="D20" s="6">
-        <v>5500</v>
+        <v>13100</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>63</v>
+        <v>30.66</v>
       </c>
       <c r="G20" s="7">
-        <v>58.231</v>
+        <v>28.495</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>346500</v>
+        <v>401646</v>
       </c>
       <c r="J20" s="7">
-        <v>26229.98</v>
+        <v>28364.11</v>
       </c>
       <c r="K20" s="7">
-        <v>6325</v>
+        <v>-7860</v>
       </c>
       <c r="L20" s="8">
-        <v>8.19</v>
+        <v>7.6</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>26</v>
@@ -1518,38 +1509,38 @@
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>53</v>
+      <c r="B21" s="6">
+        <v>300575</v>
       </c>
       <c r="C21" s="6">
-        <v>35420</v>
+        <v>32400</v>
       </c>
       <c r="D21" s="6">
-        <v>35420</v>
+        <v>32400</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>30.41</v>
+        <v>39.95</v>
       </c>
       <c r="G21" s="7">
-        <v>28.083</v>
+        <v>31.145</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>1077122.2</v>
+        <v>1294380</v>
       </c>
       <c r="J21" s="7">
-        <v>82414.22</v>
+        <v>285283.67</v>
       </c>
       <c r="K21" s="7">
-        <v>71902.6</v>
+        <v>14904</v>
       </c>
       <c r="L21" s="8">
-        <v>8.29</v>
+        <v>28.27</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>26</v>
@@ -1560,266 +1551,266 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6">
-        <v>603666</v>
+        <v>300308</v>
       </c>
       <c r="C22" s="6">
-        <v>8280</v>
+        <v>5500</v>
       </c>
       <c r="D22" s="6">
-        <v>8280</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>87.76</v>
+        <v>62.43</v>
       </c>
       <c r="G22" s="7">
-        <v>72.89</v>
+        <v>58.231</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>726652.8</v>
+        <v>343365</v>
       </c>
       <c r="J22" s="7">
-        <v>123124.98</v>
+        <v>23094.98</v>
       </c>
       <c r="K22" s="7">
-        <v>58953.6</v>
+        <v>-3135</v>
       </c>
       <c r="L22" s="8">
-        <v>20.4</v>
+        <v>7.21</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6">
+      <c r="C23" s="6">
+        <v>35420</v>
+      </c>
+      <c r="D23" s="6">
+        <v>35420</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>30.44</v>
+      </c>
+      <c r="G23" s="7">
+        <v>28.083</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1078184.8</v>
+      </c>
+      <c r="J23" s="7">
+        <v>83476.82</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1062.6</v>
+      </c>
+      <c r="L23" s="8">
+        <v>8.39</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="6">
+        <v>603666</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8280</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8280</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>89.81</v>
+      </c>
+      <c r="G24" s="7">
+        <v>72.89</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>743626.8</v>
+      </c>
+      <c r="J24" s="7">
+        <v>140098.98</v>
+      </c>
+      <c r="K24" s="7">
+        <v>16974</v>
+      </c>
+      <c r="L24" s="8">
+        <v>23.21</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6">
         <v>603596</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C25" s="6">
         <v>42700</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <v>42700</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>35.2</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>34.85</v>
+      </c>
+      <c r="G25" s="7">
         <v>34.519</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1503040</v>
-      </c>
-      <c r="J23" s="7">
-        <v>29084.28</v>
-      </c>
-      <c r="K23" s="7">
-        <v>854</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.97</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1488095</v>
+      </c>
+      <c r="J25" s="7">
+        <v>14139.28</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-14945</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="10">
+    <row r="26" spans="1:14">
+      <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="10">
         <v>300559</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C26" s="10">
         <v>41400</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D26" s="10">
         <v>41400</v>
       </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>21.22</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>21.24</v>
+      </c>
+      <c r="G26" s="11">
         <v>22.013</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>878508</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-32833.64</v>
-      </c>
-      <c r="K24" s="11">
-        <v>15318</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-3.6</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>879336</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-32005.64</v>
+      </c>
+      <c r="K26" s="11">
+        <v>828</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-3.51</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="10">
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="10">
         <v>603416</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C27" s="10">
         <v>24500</v>
       </c>
-      <c r="D25" s="10">
-        <v>24500</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>39.86</v>
-      </c>
-      <c r="G25" s="11">
-        <v>41.553</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>976570</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-41489.99</v>
-      </c>
-      <c r="K25" s="11">
-        <v>17395</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-4.07</v>
-      </c>
-      <c r="M25" s="9" t="s">
+      <c r="D27" s="10">
+        <v>20500</v>
+      </c>
+      <c r="E27" s="10">
+        <v>4000</v>
+      </c>
+      <c r="F27" s="11">
+        <v>40.77</v>
+      </c>
+      <c r="G27" s="11">
+        <v>41.569</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>998865</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-19581.88</v>
+      </c>
+      <c r="K27" s="11">
+        <v>21908.11</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-1.92</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="6">
-        <v>603707</v>
-      </c>
-      <c r="C26" s="6">
-        <v>24600</v>
-      </c>
-      <c r="D26" s="6">
-        <v>24600</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>64.57</v>
-      </c>
-      <c r="G26" s="7">
-        <v>59.272</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1588422</v>
-      </c>
-      <c r="J26" s="7">
-        <v>130325.8</v>
-      </c>
-      <c r="K26" s="7">
-        <v>88068</v>
-      </c>
-      <c r="L26" s="8">
-        <v>8.94</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="6">
-        <v>300695</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6000</v>
-      </c>
-      <c r="D27" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>76.45</v>
-      </c>
-      <c r="G27" s="7">
-        <v>66.731</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>458700</v>
-      </c>
-      <c r="J27" s="7">
-        <v>58314.96</v>
-      </c>
-      <c r="K27" s="7">
-        <v>13140</v>
-      </c>
-      <c r="L27" s="8">
-        <v>14.56</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1827,43 +1818,43 @@
         <v>60</v>
       </c>
       <c r="B28" s="6">
-        <v>300735</v>
+        <v>603707</v>
       </c>
       <c r="C28" s="6">
-        <v>54620</v>
+        <v>24600</v>
       </c>
       <c r="D28" s="6">
-        <v>54620</v>
+        <v>24600</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>18.45</v>
+        <v>63.8</v>
       </c>
       <c r="G28" s="7">
-        <v>18.323</v>
+        <v>59.272</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1007739</v>
+        <v>1569480</v>
       </c>
       <c r="J28" s="7">
-        <v>6957.3</v>
+        <v>111383.8</v>
       </c>
       <c r="K28" s="7">
-        <v>25671.4</v>
+        <v>-18942</v>
       </c>
       <c r="L28" s="8">
-        <v>0.69</v>
+        <v>7.64</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1871,43 +1862,43 @@
         <v>61</v>
       </c>
       <c r="B29" s="6">
-        <v>603960</v>
+        <v>300695</v>
       </c>
       <c r="C29" s="6">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="D29" s="6">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>27.92</v>
+        <v>76.03</v>
       </c>
       <c r="G29" s="7">
-        <v>23.214</v>
+        <v>66.731</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>474640</v>
+        <v>456180</v>
       </c>
       <c r="J29" s="7">
-        <v>79995.76</v>
+        <v>55794.96</v>
       </c>
       <c r="K29" s="7">
-        <v>19210</v>
+        <v>-2520</v>
       </c>
       <c r="L29" s="8">
-        <v>20.27</v>
+        <v>13.94</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1915,43 +1906,43 @@
         <v>62</v>
       </c>
       <c r="B30" s="6">
-        <v>603027</v>
+        <v>300735</v>
       </c>
       <c r="C30" s="6">
-        <v>80</v>
+        <v>54620</v>
       </c>
       <c r="D30" s="6">
-        <v>80</v>
+        <v>34620</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F30" s="7">
-        <v>31.58</v>
+        <v>19.37</v>
       </c>
       <c r="G30" s="7">
-        <v>-1395.382</v>
+        <v>18.289</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>2526.4</v>
+        <v>1057989.4</v>
       </c>
       <c r="J30" s="7">
-        <v>114156.95</v>
+        <v>59023.48</v>
       </c>
       <c r="K30" s="7">
-        <v>-935.04</v>
+        <v>52066.18</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1959,7 +1950,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="6">
-        <v>600850</v>
+        <v>603960</v>
       </c>
       <c r="C31" s="6">
         <v>17000</v>
@@ -1971,25 +1962,25 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>24.51</v>
+        <v>29.7</v>
       </c>
       <c r="G31" s="7">
-        <v>22.836</v>
+        <v>23.214</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>416670</v>
+        <v>504900</v>
       </c>
       <c r="J31" s="7">
-        <v>28464.26</v>
+        <v>110255.76</v>
       </c>
       <c r="K31" s="7">
-        <v>37910</v>
+        <v>30260</v>
       </c>
       <c r="L31" s="8">
-        <v>7.33</v>
+        <v>27.94</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>24</v>
@@ -2003,37 +1994,37 @@
         <v>64</v>
       </c>
       <c r="B32" s="6">
-        <v>600475</v>
+        <v>603027</v>
       </c>
       <c r="C32" s="6">
-        <v>20700</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>20700</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>11.67</v>
+        <v>33.67</v>
       </c>
       <c r="G32" s="7">
-        <v>11.312</v>
+        <v>0</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>241569</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>7406.19</v>
+        <v>114242.88</v>
       </c>
       <c r="K32" s="7">
-        <v>207</v>
+        <v>18.8</v>
       </c>
       <c r="L32" s="8">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>24</v>
@@ -2047,37 +2038,37 @@
         <v>65</v>
       </c>
       <c r="B33" s="6">
-        <v>511990</v>
+        <v>600850</v>
       </c>
       <c r="C33" s="6">
-        <v>320634</v>
+        <v>17000</v>
       </c>
       <c r="D33" s="6">
-        <v>320634</v>
+        <v>17000</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>99.974</v>
+        <v>24.45</v>
       </c>
       <c r="G33" s="7">
-        <v>99.463</v>
+        <v>22.836</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>32055063.52</v>
+        <v>415650</v>
       </c>
       <c r="J33" s="7">
-        <v>163952.5</v>
+        <v>27444.26</v>
       </c>
       <c r="K33" s="7">
-        <v>-320.63</v>
+        <v>-1020</v>
       </c>
       <c r="L33" s="8">
-        <v>0.51</v>
+        <v>7.07</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>24</v>
@@ -2090,126 +2081,126 @@
       <c r="A34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>67</v>
+      <c r="B34" s="6">
+        <v>600475</v>
       </c>
       <c r="C34" s="6">
-        <v>38500</v>
+        <v>20700</v>
       </c>
       <c r="D34" s="6">
-        <v>38500</v>
+        <v>20700</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>12.75</v>
+        <v>11.92</v>
       </c>
       <c r="G34" s="7">
-        <v>12.177</v>
+        <v>11.312</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>490875</v>
+        <v>246744</v>
       </c>
       <c r="J34" s="7">
-        <v>22042.68</v>
+        <v>12581.19</v>
       </c>
       <c r="K34" s="7">
-        <v>12705</v>
+        <v>5175</v>
       </c>
       <c r="L34" s="8">
-        <v>4.71</v>
+        <v>5.37</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B35" s="6">
+        <v>511990</v>
       </c>
       <c r="C35" s="6">
-        <v>7500</v>
+        <v>320651</v>
       </c>
       <c r="D35" s="6">
-        <v>7500</v>
+        <v>320651</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>66.68</v>
+        <v>99.97</v>
       </c>
       <c r="G35" s="7">
-        <v>53.268</v>
+        <v>99.457</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>500100</v>
+        <v>32055480.47</v>
       </c>
       <c r="J35" s="7">
-        <v>100593.56</v>
+        <v>164369.45</v>
       </c>
       <c r="K35" s="7">
-        <v>1350</v>
+        <v>-1282.6</v>
       </c>
       <c r="L35" s="8">
-        <v>25.18</v>
+        <v>0.52</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6">
-        <v>13200</v>
+        <v>38500</v>
       </c>
       <c r="D36" s="6">
-        <v>13200</v>
+        <v>38500</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>74.13</v>
+        <v>12.64</v>
       </c>
       <c r="G36" s="7">
-        <v>68.159</v>
+        <v>12.177</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>978516</v>
+        <v>486640</v>
       </c>
       <c r="J36" s="7">
-        <v>78820.08</v>
+        <v>17807.68</v>
       </c>
       <c r="K36" s="7">
-        <v>4356</v>
+        <v>-4235</v>
       </c>
       <c r="L36" s="8">
-        <v>8.76</v>
+        <v>3.8</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>26</v>
@@ -2220,84 +2211,84 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="6">
-        <v>603444</v>
+        <v>70</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="6">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="D37" s="6">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>549.01</v>
+        <v>65.59</v>
       </c>
       <c r="G37" s="7">
-        <v>409.247</v>
+        <v>53.268</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>549010</v>
+        <v>491925</v>
       </c>
       <c r="J37" s="7">
-        <v>139763.44</v>
+        <v>92418.56</v>
       </c>
       <c r="K37" s="7">
-        <v>21410</v>
+        <v>-8175</v>
       </c>
       <c r="L37" s="8">
-        <v>34.15</v>
+        <v>23.13</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="C38" s="6">
-        <v>15000</v>
+        <v>13200</v>
       </c>
       <c r="D38" s="6">
-        <v>15000</v>
+        <v>13200</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>12.7</v>
+        <v>73.22</v>
       </c>
       <c r="G38" s="7">
-        <v>12.392</v>
+        <v>68.159</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>190500</v>
+        <v>966504</v>
       </c>
       <c r="J38" s="7">
-        <v>4621.07</v>
+        <v>66808.08</v>
       </c>
       <c r="K38" s="7">
-        <v>750</v>
+        <v>-12012</v>
       </c>
       <c r="L38" s="8">
-        <v>2.49</v>
+        <v>7.43</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2308,40 +2299,40 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="6">
-        <v>603826</v>
+        <v>603444</v>
       </c>
       <c r="C39" s="6">
-        <v>13400</v>
+        <v>1000</v>
       </c>
       <c r="D39" s="6">
-        <v>13400</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>33.57</v>
+        <v>550</v>
       </c>
       <c r="G39" s="7">
-        <v>29.482</v>
+        <v>409.247</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>449838</v>
+        <v>550000</v>
       </c>
       <c r="J39" s="7">
-        <v>54784.77</v>
+        <v>140753.44</v>
       </c>
       <c r="K39" s="7">
-        <v>7638</v>
+        <v>990</v>
       </c>
       <c r="L39" s="8">
-        <v>13.87</v>
+        <v>34.39</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>24</v>
@@ -2352,40 +2343,40 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="6">
-        <v>300082</v>
-      </c>
       <c r="C40" s="6">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="D40" s="6">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>6.42</v>
+        <v>12.74</v>
       </c>
       <c r="G40" s="7">
-        <v>0</v>
+        <v>12.392</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>191100</v>
       </c>
       <c r="J40" s="7">
-        <v>10977.42</v>
+        <v>5221.07</v>
       </c>
       <c r="K40" s="7">
-        <v>-4.01</v>
+        <v>600</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>26</v>
@@ -2399,37 +2390,37 @@
         <v>77</v>
       </c>
       <c r="B41" s="6">
-        <v>603788</v>
+        <v>603826</v>
       </c>
       <c r="C41" s="6">
-        <v>26800</v>
+        <v>13400</v>
       </c>
       <c r="D41" s="6">
-        <v>16800</v>
+        <v>13400</v>
       </c>
       <c r="E41" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>17.93</v>
+        <v>33</v>
       </c>
       <c r="G41" s="7">
-        <v>14.895</v>
+        <v>29.482</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>480524</v>
+        <v>442200</v>
       </c>
       <c r="J41" s="7">
-        <v>81337.29</v>
+        <v>47146.77</v>
       </c>
       <c r="K41" s="7">
-        <v>15701.33</v>
+        <v>-7638</v>
       </c>
       <c r="L41" s="8">
-        <v>20.38</v>
+        <v>11.93</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>24</v>
@@ -2439,90 +2430,90 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="6">
+        <v>603788</v>
+      </c>
+      <c r="C42" s="6">
+        <v>26800</v>
+      </c>
+      <c r="D42" s="6">
+        <v>26800</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>18.12</v>
+      </c>
+      <c r="G42" s="7">
+        <v>14.895</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>485616</v>
+      </c>
+      <c r="J42" s="7">
+        <v>86433.21</v>
+      </c>
+      <c r="K42" s="7">
+        <v>5092</v>
+      </c>
+      <c r="L42" s="8">
+        <v>21.65</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="10">
         <v>603658</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C43" s="10">
         <v>1300</v>
       </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D43" s="10">
         <v>1300</v>
       </c>
-      <c r="F42" s="11">
-        <v>162.44</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>154.1</v>
+      </c>
+      <c r="G43" s="11">
         <v>164.269</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>211172</v>
-      </c>
-      <c r="J42" s="11">
-        <v>-2378.31</v>
-      </c>
-      <c r="K42" s="11">
-        <v>-2378.31</v>
-      </c>
-      <c r="L42" s="9">
-        <v>-1.11</v>
-      </c>
-      <c r="M42" s="9" t="s">
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>200330</v>
+      </c>
+      <c r="J43" s="11">
+        <v>-13220.31</v>
+      </c>
+      <c r="K43" s="11">
+        <v>-10842</v>
+      </c>
+      <c r="L43" s="9">
+        <v>-6.19</v>
+      </c>
+      <c r="M43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="6">
-        <v>600298</v>
-      </c>
-      <c r="C43" s="6">
-        <v>37900</v>
-      </c>
-      <c r="D43" s="6">
-        <v>37900</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>49.48</v>
-      </c>
-      <c r="G43" s="7">
-        <v>45.669</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1875292</v>
-      </c>
-      <c r="J43" s="7">
-        <v>144443.47</v>
-      </c>
-      <c r="K43" s="7">
-        <v>76937</v>
-      </c>
-      <c r="L43" s="8">
-        <v>8.34</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2531,37 +2522,37 @@
         <v>80</v>
       </c>
       <c r="B44" s="6">
-        <v>600845</v>
+        <v>600298</v>
       </c>
       <c r="C44" s="6">
-        <v>19000</v>
+        <v>37900</v>
       </c>
       <c r="D44" s="6">
-        <v>19000</v>
+        <v>37900</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>59.08</v>
+        <v>49.45</v>
       </c>
       <c r="G44" s="7">
-        <v>54.583</v>
+        <v>45.669</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>1122520</v>
+        <v>1874155</v>
       </c>
       <c r="J44" s="7">
-        <v>85434.04</v>
+        <v>143306.47</v>
       </c>
       <c r="K44" s="7">
-        <v>21850</v>
+        <v>-1137</v>
       </c>
       <c r="L44" s="8">
-        <v>8.24</v>
+        <v>8.28</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>24</v>
@@ -2571,96 +2562,96 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6">
+        <v>600845</v>
+      </c>
+      <c r="C45" s="6">
+        <v>19000</v>
+      </c>
+      <c r="D45" s="6">
+        <v>19000</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>57.66</v>
+      </c>
+      <c r="G45" s="7">
+        <v>54.583</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1095540</v>
+      </c>
+      <c r="J45" s="7">
+        <v>58454.04</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-26980</v>
+      </c>
+      <c r="L45" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="10">
+      <c r="B46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="10">
         <v>50900</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>50900</v>
       </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>7.04</v>
-      </c>
-      <c r="G45" s="11">
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>7.07</v>
+      </c>
+      <c r="G46" s="11">
         <v>7.252</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>358336</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-10814.2</v>
-      </c>
-      <c r="K45" s="11">
-        <v>8144</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-2.92</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>359863</v>
+      </c>
+      <c r="J46" s="11">
+        <v>-9287.2</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1527</v>
+      </c>
+      <c r="L46" s="9">
+        <v>-2.51</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>20.23</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7">
-        <v>36836.63</v>
-      </c>
-      <c r="K46" s="7">
-        <v>7.04</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="8" t="s">
+      <c r="N46" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="6">
         <v>300776</v>
@@ -2675,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>83.78</v>
+        <v>87.48</v>
       </c>
       <c r="G47" s="7">
         <v>79.344</v>
@@ -2684,16 +2675,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>1325399.6</v>
+        <v>1383933.6</v>
       </c>
       <c r="J47" s="7">
-        <v>70176.08</v>
+        <v>128710.08</v>
       </c>
       <c r="K47" s="7">
-        <v>9333.8</v>
+        <v>58534</v>
       </c>
       <c r="L47" s="8">
-        <v>5.59</v>
+        <v>10.25</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>26</v>
@@ -2704,7 +2695,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="6">
         <v>300638</v>
@@ -2719,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>60.1</v>
+        <v>58.78</v>
       </c>
       <c r="G48" s="7">
         <v>56.117</v>
@@ -2728,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1562600</v>
+        <v>1528280</v>
       </c>
       <c r="J48" s="7">
-        <v>103555.9</v>
+        <v>69235.9</v>
       </c>
       <c r="K48" s="7">
-        <v>28860</v>
+        <v>-34320</v>
       </c>
       <c r="L48" s="8">
-        <v>7.1</v>
+        <v>4.75</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>26</v>
@@ -2748,7 +2739,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="6">
         <v>300257</v>
@@ -2763,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>13.07</v>
+        <v>12.84</v>
       </c>
       <c r="G49" s="7">
         <v>11.43</v>
@@ -2772,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>908365</v>
+        <v>892380</v>
       </c>
       <c r="J49" s="7">
-        <v>114012.36</v>
+        <v>98027.36</v>
       </c>
       <c r="K49" s="7">
-        <v>-2085</v>
+        <v>-15985</v>
       </c>
       <c r="L49" s="8">
-        <v>14.35</v>
+        <v>12.34</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2792,7 +2783,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="6">
         <v>603203</v>
@@ -2807,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>28.69</v>
+        <v>28.58</v>
       </c>
       <c r="G50" s="7">
         <v>27.126</v>
@@ -2816,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>1025380.6</v>
+        <v>1021449.2</v>
       </c>
       <c r="J50" s="7">
-        <v>55895.47</v>
+        <v>51964.07</v>
       </c>
       <c r="K50" s="7">
-        <v>52180.4</v>
+        <v>-3931.4</v>
       </c>
       <c r="L50" s="8">
-        <v>5.77</v>
+        <v>5.36</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>24</v>
@@ -2836,172 +2827,172 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="6">
-        <v>601100</v>
-      </c>
       <c r="C51" s="6">
-        <v>15200</v>
+        <v>17000</v>
       </c>
       <c r="D51" s="6">
-        <v>15200</v>
+        <v>17000</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>80.2</v>
+        <v>68.1</v>
       </c>
       <c r="G51" s="7">
-        <v>72.228</v>
+        <v>61.17</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>1219040</v>
+        <v>1157700</v>
       </c>
       <c r="J51" s="7">
-        <v>121173.69</v>
+        <v>117811.06</v>
       </c>
       <c r="K51" s="7">
-        <v>76152</v>
+        <v>39100</v>
       </c>
       <c r="L51" s="8">
-        <v>11.04</v>
+        <v>11.33</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>91</v>
+      <c r="B52" s="6">
+        <v>603583</v>
       </c>
       <c r="C52" s="6">
-        <v>17000</v>
+        <v>22700</v>
       </c>
       <c r="D52" s="6">
-        <v>17000</v>
+        <v>22700</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>65.8</v>
+        <v>71.89</v>
       </c>
       <c r="G52" s="7">
-        <v>61.17</v>
+        <v>66.104</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1118600</v>
+        <v>1631903</v>
       </c>
       <c r="J52" s="7">
-        <v>78711.06</v>
+        <v>131343.24</v>
       </c>
       <c r="K52" s="7">
-        <v>-1190</v>
+        <v>79677</v>
       </c>
       <c r="L52" s="8">
-        <v>7.57</v>
+        <v>8.75</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="6">
-        <v>603583</v>
-      </c>
       <c r="C53" s="6">
-        <v>22700</v>
+        <v>25700</v>
       </c>
       <c r="D53" s="6">
-        <v>22700</v>
+        <v>25700</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>68.38</v>
+        <v>53.95</v>
       </c>
       <c r="G53" s="7">
-        <v>66.104</v>
+        <v>53.899</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>1552226</v>
+        <v>1386515</v>
       </c>
       <c r="J53" s="7">
-        <v>51666.24</v>
+        <v>1311.49</v>
       </c>
       <c r="K53" s="7">
-        <v>48351</v>
+        <v>-4883</v>
       </c>
       <c r="L53" s="8">
-        <v>3.44</v>
+        <v>0.09</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>94</v>
+      <c r="B54" s="6">
+        <v>300739</v>
       </c>
       <c r="C54" s="6">
-        <v>25700</v>
+        <v>49600</v>
       </c>
       <c r="D54" s="6">
-        <v>25700</v>
+        <v>49600</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>54.14</v>
+        <v>20.56</v>
       </c>
       <c r="G54" s="7">
-        <v>53.899</v>
+        <v>20.25</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>1391398</v>
+        <v>1019776</v>
       </c>
       <c r="J54" s="7">
-        <v>6194.49</v>
+        <v>15397.39</v>
       </c>
       <c r="K54" s="7">
-        <v>-21588</v>
+        <v>-17360</v>
       </c>
       <c r="L54" s="8">
-        <v>0.45</v>
+        <v>1.53</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3012,84 +3003,84 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="6">
-        <v>300739</v>
+        <v>601799</v>
       </c>
       <c r="C55" s="6">
-        <v>49600</v>
+        <v>3600</v>
       </c>
       <c r="D55" s="6">
-        <v>49600</v>
+        <v>3600</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>20.91</v>
+        <v>125.56</v>
       </c>
       <c r="G55" s="7">
-        <v>20.25</v>
+        <v>111.804</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>1037136</v>
+        <v>452016</v>
       </c>
       <c r="J55" s="7">
-        <v>32757.39</v>
+        <v>49519.92</v>
       </c>
       <c r="K55" s="7">
-        <v>39184</v>
+        <v>-5184</v>
       </c>
       <c r="L55" s="8">
-        <v>3.26</v>
+        <v>12.3</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="6">
-        <v>601799</v>
+        <v>603127</v>
       </c>
       <c r="C56" s="6">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="D56" s="6">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>127</v>
+        <v>102.98</v>
       </c>
       <c r="G56" s="7">
-        <v>111.804</v>
+        <v>89.398</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>457200</v>
+        <v>1235760</v>
       </c>
       <c r="J56" s="7">
-        <v>54703.92</v>
+        <v>162984.34</v>
       </c>
       <c r="K56" s="7">
-        <v>15228</v>
+        <v>-25800</v>
       </c>
       <c r="L56" s="8">
-        <v>13.59</v>
+        <v>15.19</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>24</v>
@@ -3100,348 +3091,348 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6">
+        <v>300138</v>
+      </c>
+      <c r="C57" s="6">
+        <v>35400</v>
+      </c>
+      <c r="D57" s="6">
+        <v>35400</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>11.99</v>
+      </c>
+      <c r="G57" s="7">
+        <v>11.069</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>424446</v>
+      </c>
+      <c r="J57" s="7">
+        <v>32588.87</v>
+      </c>
+      <c r="K57" s="7">
+        <v>-5310</v>
+      </c>
+      <c r="L57" s="8">
+        <v>8.32</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="6">
-        <v>603127</v>
-      </c>
-      <c r="C57" s="6">
-        <v>12000</v>
-      </c>
-      <c r="D57" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>105.13</v>
-      </c>
-      <c r="G57" s="7">
-        <v>89.398</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1261560</v>
-      </c>
-      <c r="J57" s="7">
-        <v>188784.34</v>
-      </c>
-      <c r="K57" s="7">
-        <v>53160</v>
-      </c>
-      <c r="L57" s="8">
-        <v>17.6</v>
-      </c>
-      <c r="M57" s="8" t="s">
+      <c r="B58" s="10">
+        <v>300630</v>
+      </c>
+      <c r="C58" s="10">
+        <v>5300</v>
+      </c>
+      <c r="D58" s="10">
+        <v>5300</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>71.66</v>
+      </c>
+      <c r="G58" s="11">
+        <v>74.593</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>379798</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-15542.29</v>
+      </c>
+      <c r="K58" s="11">
+        <v>-12137</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-3.93</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="6">
+        <v>28080</v>
+      </c>
+      <c r="D59" s="6">
+        <v>28080</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>8.04</v>
+      </c>
+      <c r="G59" s="7">
+        <v>7.736</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>225763.2</v>
+      </c>
+      <c r="J59" s="7">
+        <v>8526.77</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-2246.4</v>
+      </c>
+      <c r="L59" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="10">
+        <v>603866</v>
+      </c>
+      <c r="C60" s="10">
+        <v>5100</v>
+      </c>
+      <c r="D60" s="10">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>51.14</v>
+      </c>
+      <c r="G60" s="11">
+        <v>51.764</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>260814</v>
+      </c>
+      <c r="J60" s="11">
+        <v>-3181.78</v>
+      </c>
+      <c r="K60" s="11">
+        <v>1275</v>
+      </c>
+      <c r="L60" s="9">
+        <v>-1.21</v>
+      </c>
+      <c r="M60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="N60" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="6">
-        <v>300138</v>
-      </c>
-      <c r="C58" s="6">
-        <v>35400</v>
-      </c>
-      <c r="D58" s="6">
-        <v>35400</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>12.14</v>
-      </c>
-      <c r="G58" s="7">
-        <v>11.069</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>429756</v>
-      </c>
-      <c r="J58" s="7">
-        <v>37898.87</v>
-      </c>
-      <c r="K58" s="7">
-        <v>4602</v>
-      </c>
-      <c r="L58" s="8">
-        <v>9.68</v>
-      </c>
-      <c r="M58" s="8" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="6">
+        <v>300653</v>
+      </c>
+      <c r="C61" s="6">
+        <v>23160</v>
+      </c>
+      <c r="D61" s="6">
+        <v>23160</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>78.41</v>
+      </c>
+      <c r="G61" s="7">
+        <v>68.463</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1815975.6</v>
+      </c>
+      <c r="J61" s="7">
+        <v>230369.75</v>
+      </c>
+      <c r="K61" s="7">
+        <v>27560.4</v>
+      </c>
+      <c r="L61" s="8">
+        <v>14.53</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="N61" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="10">
-        <v>300630</v>
-      </c>
-      <c r="C59" s="10">
-        <v>5300</v>
-      </c>
-      <c r="D59" s="10">
-        <v>5300</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>73.95</v>
-      </c>
-      <c r="G59" s="11">
-        <v>74.593</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>391935</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-3405.29</v>
-      </c>
-      <c r="K59" s="11">
-        <v>7102</v>
-      </c>
-      <c r="L59" s="9">
-        <v>-0.86</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="6">
-        <v>28080</v>
-      </c>
-      <c r="D60" s="6">
-        <v>28080</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>8.12</v>
-      </c>
-      <c r="G60" s="7">
-        <v>7.736</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>228009.6</v>
-      </c>
-      <c r="J60" s="7">
-        <v>10773.17</v>
-      </c>
-      <c r="K60" s="7">
-        <v>1404</v>
-      </c>
-      <c r="L60" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
+    <row r="62" spans="1:14">
+      <c r="A62" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="10">
-        <v>603866</v>
-      </c>
-      <c r="C61" s="10">
-        <v>5100</v>
-      </c>
-      <c r="D61" s="10">
-        <v>5100</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>50.89</v>
-      </c>
-      <c r="G61" s="11">
-        <v>51.764</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>259539</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-4456.78</v>
-      </c>
-      <c r="K61" s="11">
-        <v>8007</v>
-      </c>
-      <c r="L61" s="9">
-        <v>-1.69</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="B62" s="10">
+        <v>603208</v>
+      </c>
+      <c r="C62" s="10">
+        <v>16100</v>
+      </c>
+      <c r="D62" s="10">
+        <v>16100</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>97.36</v>
+      </c>
+      <c r="G62" s="11">
+        <v>102.477</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>1567496</v>
+      </c>
+      <c r="J62" s="11">
+        <v>-82387.6</v>
+      </c>
+      <c r="K62" s="11">
+        <v>-644</v>
+      </c>
+      <c r="L62" s="9">
+        <v>-4.99</v>
+      </c>
+      <c r="M62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N62" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="8" t="s">
+    <row r="63" spans="1:14">
+      <c r="A63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="6">
-        <v>300653</v>
-      </c>
-      <c r="C62" s="6">
-        <v>23160</v>
-      </c>
-      <c r="D62" s="6">
-        <v>23160</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>77.22</v>
-      </c>
-      <c r="G62" s="7">
-        <v>68.463</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>1788415.2</v>
-      </c>
-      <c r="J62" s="7">
-        <v>202809.35</v>
-      </c>
-      <c r="K62" s="7">
-        <v>7874.4</v>
-      </c>
-      <c r="L62" s="8">
-        <v>12.79</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="10">
-        <v>603208</v>
-      </c>
-      <c r="C63" s="10">
-        <v>16100</v>
-      </c>
-      <c r="D63" s="10">
-        <v>16100</v>
-      </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>97.4</v>
-      </c>
-      <c r="G63" s="11">
-        <v>102.477</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>1568140</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-81743.6</v>
-      </c>
-      <c r="K63" s="11">
-        <v>22701</v>
-      </c>
-      <c r="L63" s="9">
-        <v>-4.95</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="B63" s="6">
+        <v>603039</v>
+      </c>
+      <c r="C63" s="6">
+        <v>80</v>
+      </c>
+      <c r="D63" s="6">
+        <v>80</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>76.08</v>
+      </c>
+      <c r="G63" s="7">
+        <v>-943.163</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>6086.4</v>
+      </c>
+      <c r="J63" s="7">
+        <v>81539.44</v>
+      </c>
+      <c r="K63" s="7">
+        <v>-15676.76</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="6">
-        <v>603039</v>
+        <v>603338</v>
       </c>
       <c r="C64" s="6">
-        <v>6380</v>
+        <v>19300</v>
       </c>
       <c r="D64" s="6">
-        <v>6380</v>
+        <v>19300</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>77.26</v>
+        <v>75</v>
       </c>
       <c r="G64" s="7">
-        <v>62.022</v>
+        <v>74.855</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>492918.8</v>
+        <v>1447500</v>
       </c>
       <c r="J64" s="7">
-        <v>97216.2</v>
+        <v>2796.25</v>
       </c>
       <c r="K64" s="7">
-        <v>34324.4</v>
+        <v>-14861</v>
       </c>
       <c r="L64" s="8">
-        <v>24.57</v>
+        <v>0.19</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>24</v>
@@ -3452,40 +3443,40 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="6">
-        <v>603338</v>
+        <v>600639</v>
       </c>
       <c r="C65" s="6">
-        <v>19300</v>
+        <v>26800</v>
       </c>
       <c r="D65" s="6">
-        <v>19300</v>
+        <v>26800</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>75.77</v>
+        <v>15.87</v>
       </c>
       <c r="G65" s="7">
-        <v>74.855</v>
+        <v>14.909</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1462361</v>
+        <v>425316</v>
       </c>
       <c r="J65" s="7">
-        <v>17657.25</v>
+        <v>25752.08</v>
       </c>
       <c r="K65" s="7">
-        <v>14861</v>
+        <v>-2948</v>
       </c>
       <c r="L65" s="8">
-        <v>1.22</v>
+        <v>6.45</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>24</v>
@@ -3496,40 +3487,40 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="6">
-        <v>600639</v>
+        <v>603718</v>
       </c>
       <c r="C66" s="6">
-        <v>26800</v>
+        <v>51700</v>
       </c>
       <c r="D66" s="6">
-        <v>26800</v>
+        <v>51700</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>15.98</v>
+        <v>19.46</v>
       </c>
       <c r="G66" s="7">
-        <v>14.909</v>
+        <v>19.017</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>428264</v>
+        <v>1006082</v>
       </c>
       <c r="J66" s="7">
-        <v>28700.08</v>
+        <v>22909.9</v>
       </c>
       <c r="K66" s="7">
-        <v>15544</v>
+        <v>62040</v>
       </c>
       <c r="L66" s="8">
-        <v>7.18</v>
+        <v>2.33</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>24</v>
@@ -3540,40 +3531,40 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="10">
-        <v>603718</v>
+        <v>603187</v>
       </c>
       <c r="C67" s="10">
-        <v>51700</v>
+        <v>35000</v>
       </c>
       <c r="D67" s="10">
-        <v>51700</v>
+        <v>35000</v>
       </c>
       <c r="E67" s="10">
         <v>0</v>
       </c>
       <c r="F67" s="11">
-        <v>18.26</v>
+        <v>36.02</v>
       </c>
       <c r="G67" s="11">
-        <v>19.017</v>
+        <v>36.788</v>
       </c>
       <c r="H67" s="11">
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>944042</v>
+        <v>1260700</v>
       </c>
       <c r="J67" s="11">
-        <v>-39130.1</v>
+        <v>-26880.48</v>
       </c>
       <c r="K67" s="11">
-        <v>-7238</v>
+        <v>-15750</v>
       </c>
       <c r="L67" s="9">
-        <v>-3.98</v>
+        <v>-2.09</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>24</v>
@@ -3583,173 +3574,173 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="10">
-        <v>603187</v>
-      </c>
-      <c r="C68" s="10">
-        <v>35000</v>
-      </c>
-      <c r="D68" s="10">
-        <v>35000</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>36.47</v>
-      </c>
-      <c r="G68" s="11">
-        <v>36.788</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>1276450</v>
-      </c>
-      <c r="J68" s="11">
-        <v>-11130.48</v>
-      </c>
-      <c r="K68" s="11">
-        <v>18900</v>
-      </c>
-      <c r="L68" s="9">
-        <v>-0.86</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>23</v>
+      <c r="C68" s="6">
+        <v>10800</v>
+      </c>
+      <c r="D68" s="6">
+        <v>10800</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>168.98</v>
+      </c>
+      <c r="G68" s="7">
+        <v>156.721</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1824984</v>
+      </c>
+      <c r="J68" s="7">
+        <v>132397.71</v>
+      </c>
+      <c r="K68" s="7">
+        <v>15768</v>
+      </c>
+      <c r="L68" s="8">
+        <v>7.82</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="13">
-        <v>753187</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1100</v>
-      </c>
-      <c r="D69" s="13">
-        <v>1100</v>
-      </c>
-      <c r="E69" s="13">
-        <v>0</v>
-      </c>
-      <c r="F69" s="14">
-        <v>100</v>
-      </c>
-      <c r="G69" s="14">
-        <v>0</v>
-      </c>
-      <c r="H69" s="14">
-        <v>0</v>
-      </c>
-      <c r="I69" s="14">
-        <v>0</v>
-      </c>
-      <c r="J69" s="14">
-        <v>0</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="12">
-        <v>0</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="12" t="s">
-        <v>23</v>
+      <c r="B69" s="6">
+        <v>300696</v>
+      </c>
+      <c r="C69" s="6">
+        <v>35900</v>
+      </c>
+      <c r="D69" s="6">
+        <v>35900</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>36.42</v>
+      </c>
+      <c r="G69" s="7">
+        <v>35.684</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1307478</v>
+      </c>
+      <c r="J69" s="7">
+        <v>26434.93</v>
+      </c>
+      <c r="K69" s="7">
+        <v>19386</v>
+      </c>
+      <c r="L69" s="8">
+        <v>2.06</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>112</v>
+      <c r="B70" s="6">
+        <v>603605</v>
       </c>
       <c r="C70" s="6">
-        <v>10800</v>
+        <v>4000</v>
       </c>
       <c r="D70" s="6">
-        <v>10800</v>
+        <v>4000</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>167.52</v>
+        <v>180.52</v>
       </c>
       <c r="G70" s="7">
-        <v>156.721</v>
+        <v>155.718</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>1809216</v>
+        <v>722080</v>
       </c>
       <c r="J70" s="7">
-        <v>116629.71</v>
+        <v>99207.06</v>
       </c>
       <c r="K70" s="7">
-        <v>22788</v>
+        <v>2000</v>
       </c>
       <c r="L70" s="8">
-        <v>6.89</v>
+        <v>15.93</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="6">
-        <v>300696</v>
+        <v>300119</v>
       </c>
       <c r="C71" s="6">
-        <v>35900</v>
+        <v>17000</v>
       </c>
       <c r="D71" s="6">
-        <v>35900</v>
+        <v>17000</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>35.88</v>
+        <v>22.24</v>
       </c>
       <c r="G71" s="7">
-        <v>35.684</v>
+        <v>17.758</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>1288092</v>
+        <v>378080</v>
       </c>
       <c r="J71" s="7">
-        <v>7048.93</v>
+        <v>76188.72</v>
       </c>
       <c r="K71" s="7">
-        <v>18668</v>
+        <v>-1870</v>
       </c>
       <c r="L71" s="8">
-        <v>0.55</v>
+        <v>25.24</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3760,40 +3751,40 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="6">
-        <v>603605</v>
+        <v>603181</v>
       </c>
       <c r="C72" s="6">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D72" s="6">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>180.02</v>
+        <v>22.46</v>
       </c>
       <c r="G72" s="7">
-        <v>155.718</v>
+        <v>21.067</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>720080</v>
+        <v>224600</v>
       </c>
       <c r="J72" s="7">
-        <v>97207.06</v>
+        <v>13926.21</v>
       </c>
       <c r="K72" s="7">
-        <v>20960</v>
+        <v>-2400</v>
       </c>
       <c r="L72" s="8">
-        <v>15.61</v>
+        <v>6.61</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>24</v>
@@ -3804,84 +3795,84 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="6">
-        <v>300119</v>
+        <v>603688</v>
       </c>
       <c r="C73" s="6">
-        <v>17000</v>
+        <v>46700</v>
       </c>
       <c r="D73" s="6">
-        <v>17000</v>
+        <v>46700</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>22.35</v>
+        <v>23.98</v>
       </c>
       <c r="G73" s="7">
-        <v>17.758</v>
+        <v>21.88</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>379950</v>
+        <v>1119866</v>
       </c>
       <c r="J73" s="7">
-        <v>78058.72</v>
+        <v>98073.28</v>
       </c>
       <c r="K73" s="7">
-        <v>15470</v>
+        <v>7472</v>
       </c>
       <c r="L73" s="8">
-        <v>25.86</v>
+        <v>9.6</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="6">
-        <v>603181</v>
+        <v>603609</v>
       </c>
       <c r="C74" s="6">
-        <v>10000</v>
+        <v>102800</v>
       </c>
       <c r="D74" s="6">
-        <v>10000</v>
+        <v>102800</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>22.7</v>
+        <v>15.18</v>
       </c>
       <c r="G74" s="7">
-        <v>21.067</v>
+        <v>14.839</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>227000</v>
+        <v>1560504</v>
       </c>
       <c r="J74" s="7">
-        <v>16326.21</v>
+        <v>35060.55</v>
       </c>
       <c r="K74" s="7">
-        <v>9100</v>
+        <v>28784</v>
       </c>
       <c r="L74" s="8">
-        <v>7.75</v>
+        <v>2.3</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>24</v>
@@ -3891,135 +3882,135 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="6">
-        <v>603688</v>
-      </c>
-      <c r="C75" s="6">
-        <v>46700</v>
-      </c>
-      <c r="D75" s="6">
-        <v>46700</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>23.82</v>
-      </c>
-      <c r="G75" s="7">
-        <v>21.88</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>1112394</v>
-      </c>
-      <c r="J75" s="7">
-        <v>90601.28</v>
-      </c>
-      <c r="K75" s="7">
-        <v>12609</v>
-      </c>
-      <c r="L75" s="8">
-        <v>8.87</v>
-      </c>
-      <c r="M75" s="8" t="s">
+      <c r="C75" s="13">
+        <v>2300500</v>
+      </c>
+      <c r="D75" s="13">
+        <v>2300500</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="N75" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="6">
-        <v>603609</v>
-      </c>
-      <c r="C76" s="6">
-        <v>102800</v>
-      </c>
-      <c r="D76" s="6">
-        <v>102800</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>14.9</v>
-      </c>
-      <c r="G76" s="7">
-        <v>14.839</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>1531720</v>
-      </c>
-      <c r="J76" s="7">
-        <v>6276.55</v>
-      </c>
-      <c r="K76" s="7">
-        <v>14392</v>
-      </c>
-      <c r="L76" s="8">
-        <v>0.41</v>
-      </c>
-      <c r="M76" s="8" t="s">
+      <c r="B76" s="10">
+        <v>603612</v>
+      </c>
+      <c r="C76" s="10">
+        <v>64300</v>
+      </c>
+      <c r="D76" s="10">
+        <v>64300</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>11.71</v>
+      </c>
+      <c r="G76" s="11">
+        <v>12.042</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>752953</v>
+      </c>
+      <c r="J76" s="11">
+        <v>-21365.19</v>
+      </c>
+      <c r="K76" s="11">
+        <v>18647</v>
+      </c>
+      <c r="L76" s="9">
+        <v>-2.76</v>
+      </c>
+      <c r="M76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="8" t="s">
+      <c r="N76" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="13">
-        <v>2103000</v>
-      </c>
-      <c r="D77" s="13">
-        <v>2103000</v>
-      </c>
-      <c r="E77" s="13">
-        <v>0</v>
-      </c>
-      <c r="F77" s="14">
-        <v>0</v>
-      </c>
-      <c r="G77" s="14">
-        <v>0</v>
-      </c>
-      <c r="H77" s="14">
-        <v>0</v>
-      </c>
-      <c r="I77" s="14">
-        <v>0</v>
-      </c>
-      <c r="J77" s="14">
-        <v>0</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" s="12">
-        <v>0</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="12" t="s">
-        <v>23</v>
+      <c r="C77" s="6">
+        <v>2200</v>
+      </c>
+      <c r="D77" s="6">
+        <v>2200</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="G77" s="7">
+        <v>38.095</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>96360</v>
+      </c>
+      <c r="J77" s="7">
+        <v>12551.43</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1804</v>
+      </c>
+      <c r="L77" s="8">
+        <v>14.98</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4027,37 +4018,37 @@
         <v>121</v>
       </c>
       <c r="B78" s="10">
-        <v>603612</v>
+        <v>603538</v>
       </c>
       <c r="C78" s="10">
-        <v>64300</v>
+        <v>11800</v>
       </c>
       <c r="D78" s="10">
-        <v>64300</v>
+        <v>11800</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>11.42</v>
+        <v>49.96</v>
       </c>
       <c r="G78" s="11">
-        <v>12.042</v>
+        <v>50.635</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>734306</v>
+        <v>589528</v>
       </c>
       <c r="J78" s="11">
-        <v>-40012.19</v>
+        <v>-7968.78</v>
       </c>
       <c r="K78" s="11">
-        <v>10288</v>
+        <v>-12036</v>
       </c>
       <c r="L78" s="9">
-        <v>-5.17</v>
+        <v>-1.33</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>24</v>
@@ -4070,126 +4061,126 @@
       <c r="A79" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6">
+        <v>603989</v>
+      </c>
+      <c r="C79" s="6">
+        <v>14400</v>
+      </c>
+      <c r="D79" s="6">
+        <v>14400</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>29.78</v>
+      </c>
+      <c r="G79" s="7">
+        <v>27.281</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>428832</v>
+      </c>
+      <c r="J79" s="7">
+        <v>35981.45</v>
+      </c>
+      <c r="K79" s="7">
+        <v>10944</v>
+      </c>
+      <c r="L79" s="8">
+        <v>9.16</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>42.98</v>
-      </c>
-      <c r="G79" s="7">
-        <v>38.095</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>94556</v>
-      </c>
-      <c r="J79" s="7">
-        <v>10747.43</v>
-      </c>
-      <c r="K79" s="7">
-        <v>2046</v>
-      </c>
-      <c r="L79" s="8">
-        <v>12.82</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="6">
-        <v>603538</v>
-      </c>
-      <c r="C80" s="6">
-        <v>11800</v>
-      </c>
-      <c r="D80" s="6">
-        <v>11800</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>50.98</v>
-      </c>
-      <c r="G80" s="7">
-        <v>50.635</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>601564</v>
-      </c>
-      <c r="J80" s="7">
-        <v>4067.22</v>
-      </c>
-      <c r="K80" s="7">
-        <v>4720</v>
-      </c>
-      <c r="L80" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="M80" s="8" t="s">
+      <c r="B80" s="10">
+        <v>603916</v>
+      </c>
+      <c r="C80" s="10">
+        <v>17200</v>
+      </c>
+      <c r="D80" s="10">
+        <v>17200</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G80" s="11">
+        <v>26.66</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>443760</v>
+      </c>
+      <c r="J80" s="11">
+        <v>-14786.91</v>
+      </c>
+      <c r="K80" s="11">
+        <v>11180</v>
+      </c>
+      <c r="L80" s="9">
+        <v>-3.23</v>
+      </c>
+      <c r="M80" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="8" t="s">
+      <c r="N80" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="6">
-        <v>603989</v>
+        <v>603355</v>
       </c>
       <c r="C81" s="6">
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="D81" s="6">
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>29.02</v>
+        <v>25.26</v>
       </c>
       <c r="G81" s="7">
-        <v>27.281</v>
+        <v>22.984</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>417888</v>
+        <v>242496</v>
       </c>
       <c r="J81" s="7">
-        <v>25037.45</v>
+        <v>21844.96</v>
       </c>
       <c r="K81" s="7">
-        <v>19008</v>
+        <v>3552</v>
       </c>
       <c r="L81" s="8">
-        <v>6.37</v>
+        <v>9.9</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>24</v>
@@ -4199,173 +4190,173 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="6">
+        <v>300395</v>
+      </c>
+      <c r="C82" s="6">
+        <v>16600</v>
+      </c>
+      <c r="D82" s="6">
+        <v>16600</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>32.81</v>
+      </c>
+      <c r="G82" s="7">
+        <v>23.739</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>544646</v>
+      </c>
+      <c r="J82" s="7">
+        <v>150585.89</v>
+      </c>
+      <c r="K82" s="7">
+        <v>-996</v>
+      </c>
+      <c r="L82" s="8">
+        <v>38.21</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="10">
-        <v>603916</v>
-      </c>
-      <c r="C82" s="10">
-        <v>17200</v>
-      </c>
-      <c r="D82" s="10">
-        <v>17200</v>
-      </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <v>25.15</v>
-      </c>
-      <c r="G82" s="11">
-        <v>26.66</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>432580</v>
-      </c>
-      <c r="J82" s="11">
-        <v>-25966.91</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="9">
-        <v>-5.66</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="6">
-        <v>603355</v>
-      </c>
-      <c r="C83" s="6">
-        <v>9600</v>
-      </c>
-      <c r="D83" s="6">
-        <v>9600</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>24.89</v>
-      </c>
-      <c r="G83" s="7">
-        <v>22.984</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>238944</v>
-      </c>
-      <c r="J83" s="7">
-        <v>18292.96</v>
-      </c>
-      <c r="K83" s="7">
-        <v>2976</v>
-      </c>
-      <c r="L83" s="8">
-        <v>8.29</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>23</v>
+      <c r="C83" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D83" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>97.62</v>
+      </c>
+      <c r="G83" s="11">
+        <v>97.621</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>117144</v>
+      </c>
+      <c r="J83" s="11">
+        <v>-1.59</v>
+      </c>
+      <c r="K83" s="11">
+        <v>-2280</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="6">
-        <v>300395</v>
-      </c>
-      <c r="C84" s="6">
-        <v>16600</v>
-      </c>
-      <c r="D84" s="6">
-        <v>16600</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>32.87</v>
-      </c>
-      <c r="G84" s="7">
-        <v>23.739</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>545642</v>
-      </c>
-      <c r="J84" s="7">
-        <v>151581.89</v>
-      </c>
-      <c r="K84" s="7">
-        <v>13612</v>
-      </c>
-      <c r="L84" s="8">
-        <v>38.46</v>
-      </c>
-      <c r="M84" s="8" t="s">
+      <c r="B84" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="10">
+        <v>84700</v>
+      </c>
+      <c r="D84" s="10">
+        <v>84700</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>10.19</v>
+      </c>
+      <c r="G84" s="11">
+        <v>10.641</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>863093</v>
+      </c>
+      <c r="J84" s="11">
+        <v>-38221.22</v>
+      </c>
+      <c r="K84" s="11">
+        <v>10164</v>
+      </c>
+      <c r="L84" s="9">
+        <v>-4.24</v>
+      </c>
+      <c r="M84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="8" t="s">
+      <c r="N84" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C85" s="6">
-        <v>1200</v>
+        <v>17100</v>
       </c>
       <c r="D85" s="6">
-        <v>1200</v>
+        <v>17100</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>99.52</v>
+        <v>11.23</v>
       </c>
       <c r="G85" s="7">
-        <v>97.621</v>
+        <v>10.757</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>119424</v>
+        <v>192033</v>
       </c>
       <c r="J85" s="7">
-        <v>2278.41</v>
+        <v>8086.41</v>
       </c>
       <c r="K85" s="7">
-        <v>5040</v>
+        <v>-2052</v>
       </c>
       <c r="L85" s="8">
-        <v>1.95</v>
+        <v>4.4</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>26</v>
@@ -4375,178 +4366,90 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="10">
-        <v>84700</v>
-      </c>
-      <c r="D86" s="10">
-        <v>84700</v>
-      </c>
-      <c r="E86" s="10">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>10.07</v>
-      </c>
-      <c r="G86" s="11">
-        <v>10.641</v>
-      </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>852929</v>
-      </c>
-      <c r="J86" s="11">
-        <v>-48385.22</v>
-      </c>
-      <c r="K86" s="11">
-        <v>5082</v>
-      </c>
-      <c r="L86" s="9">
-        <v>-5.37</v>
-      </c>
-      <c r="M86" s="9" t="s">
+      <c r="B86" s="6">
+        <v>603429</v>
+      </c>
+      <c r="C86" s="6">
+        <v>19460</v>
+      </c>
+      <c r="D86" s="6">
+        <v>19460</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>33.59</v>
+      </c>
+      <c r="G86" s="7">
+        <v>28.878</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>653661.4</v>
+      </c>
+      <c r="J86" s="7">
+        <v>91693.86</v>
+      </c>
+      <c r="K86" s="7">
+        <v>34249.6</v>
+      </c>
+      <c r="L86" s="8">
+        <v>16.32</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="10">
+        <v>31400</v>
+      </c>
+      <c r="D87" s="10">
+        <v>31400</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>53.95</v>
+      </c>
+      <c r="G87" s="11">
+        <v>55.795</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>1694030</v>
+      </c>
+      <c r="J87" s="11">
+        <v>-57927.53</v>
+      </c>
+      <c r="K87" s="11">
+        <v>-23550</v>
+      </c>
+      <c r="L87" s="9">
+        <v>-3.31</v>
+      </c>
+      <c r="M87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N86" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="6">
-        <v>17100</v>
-      </c>
-      <c r="D87" s="6">
-        <v>17100</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>11.35</v>
-      </c>
-      <c r="G87" s="7">
-        <v>10.757</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>194085</v>
-      </c>
-      <c r="J87" s="7">
-        <v>10138.41</v>
-      </c>
-      <c r="K87" s="7">
-        <v>1197</v>
-      </c>
-      <c r="L87" s="8">
-        <v>5.51</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B88" s="6">
-        <v>603429</v>
-      </c>
-      <c r="C88" s="6">
-        <v>19460</v>
-      </c>
-      <c r="D88" s="6">
-        <v>19460</v>
-      </c>
-      <c r="E88" s="6">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>31.83</v>
-      </c>
-      <c r="G88" s="7">
-        <v>28.878</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>619411.8</v>
-      </c>
-      <c r="J88" s="7">
-        <v>57444.26</v>
-      </c>
-      <c r="K88" s="7">
-        <v>26076.4</v>
-      </c>
-      <c r="L88" s="8">
-        <v>10.22</v>
-      </c>
-      <c r="M88" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="10">
-        <v>31400</v>
-      </c>
-      <c r="D89" s="10">
-        <v>31400</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>54.7</v>
-      </c>
-      <c r="G89" s="11">
-        <v>55.795</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>1717580</v>
-      </c>
-      <c r="J89" s="11">
-        <v>-34377.53</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="9">
-        <v>-1.96</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="9" t="s">
+      <c r="N87" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
   <si>
     <t>资金</t>
   </si>
@@ -950,16 +950,16 @@
         <v>-4805104.41</v>
       </c>
       <c r="G3" s="3">
-        <v>85047887.34</v>
+        <v>85023717.72</v>
       </c>
       <c r="H3" s="3">
-        <v>96430993.58</v>
+        <v>96377754.06</v>
       </c>
       <c r="I3" s="3">
-        <v>3495214.68</v>
+        <v>3471045.06</v>
       </c>
       <c r="J3" s="3">
-        <v>-220456.24</v>
+        <v>-244625.86</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>69400</v>
       </c>
       <c r="F12" s="7">
-        <v>36.75</v>
+        <v>36.68</v>
       </c>
       <c r="G12" s="7">
         <v>36.879</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2550450</v>
+        <v>2545592</v>
       </c>
       <c r="J12" s="7">
-        <v>-8941.04</v>
+        <v>-13799.04</v>
       </c>
       <c r="K12" s="7">
-        <v>-8941.04</v>
+        <v>-13799.04</v>
       </c>
       <c r="L12" s="8">
-        <v>-0.35</v>
+        <v>-0.54</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>99.64</v>
+        <v>98.04</v>
       </c>
       <c r="G13" s="11">
         <v>93.41</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>1175752</v>
+        <v>1156872</v>
       </c>
       <c r="J13" s="11">
-        <v>73513.68</v>
+        <v>54633.68</v>
       </c>
       <c r="K13" s="11">
-        <v>-19470</v>
+        <v>-38350</v>
       </c>
       <c r="L13" s="9">
-        <v>6.67</v>
+        <v>4.96</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>26</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>50.77</v>
+        <v>50.9</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>21.77</v>
+        <v>21.7</v>
       </c>
       <c r="G15" s="7">
         <v>22.227</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>383152</v>
+        <v>381920</v>
       </c>
       <c r="J15" s="7">
-        <v>-8039.48</v>
+        <v>-9271.48</v>
       </c>
       <c r="K15" s="7">
-        <v>-2816</v>
+        <v>-4048</v>
       </c>
       <c r="L15" s="8">
-        <v>-2.06</v>
+        <v>-2.37</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>24</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>15.19</v>
+        <v>15.3</v>
       </c>
       <c r="G16" s="11">
         <v>14.209</v>
@@ -1359,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>294686</v>
+        <v>296820</v>
       </c>
       <c r="J16" s="11">
-        <v>19034.08</v>
+        <v>21168.08</v>
       </c>
       <c r="K16" s="11">
-        <v>4656</v>
+        <v>6790</v>
       </c>
       <c r="L16" s="9">
-        <v>6.9</v>
+        <v>7.68</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>24</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>4.51</v>
+        <v>4.52</v>
       </c>
       <c r="G17" s="11">
         <v>4.431</v>
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>251207</v>
+        <v>251764</v>
       </c>
       <c r="J17" s="11">
-        <v>4414.07</v>
+        <v>4971.07</v>
       </c>
       <c r="K17" s="11">
-        <v>3342</v>
+        <v>3899</v>
       </c>
       <c r="L17" s="9">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>28.03</v>
+        <v>27.8</v>
       </c>
       <c r="G18" s="11">
         <v>27.24</v>
@@ -1447,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>1049134.87</v>
+        <v>1040526.2</v>
       </c>
       <c r="J18" s="11">
-        <v>29566.03</v>
+        <v>20957.36</v>
       </c>
       <c r="K18" s="11">
-        <v>10480.12</v>
+        <v>1871.45</v>
       </c>
       <c r="L18" s="9">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>26</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>9.04</v>
+        <v>9.05</v>
       </c>
       <c r="G19" s="7">
         <v>9.589</v>
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>323632</v>
+        <v>323990</v>
       </c>
       <c r="J19" s="7">
-        <v>-19644.87</v>
+        <v>-19286.87</v>
       </c>
       <c r="K19" s="7">
-        <v>3938</v>
+        <v>4296</v>
       </c>
       <c r="L19" s="8">
-        <v>-5.73</v>
+        <v>-5.62</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <v>30.44</v>
+        <v>31.76</v>
       </c>
       <c r="G20" s="11">
         <v>28.495</v>
@@ -1535,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>398764</v>
+        <v>416056</v>
       </c>
       <c r="J20" s="11">
-        <v>25482.11</v>
+        <v>42774.11</v>
       </c>
       <c r="K20" s="11">
-        <v>-5633</v>
+        <v>11659</v>
       </c>
       <c r="L20" s="9">
-        <v>6.83</v>
+        <v>11.46</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>26</v>
@@ -1554,46 +1554,46 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>300659</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>41200</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>41200</v>
       </c>
-      <c r="F21" s="11">
-        <v>57.5</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F21" s="7">
+        <v>56.91</v>
+      </c>
+      <c r="G21" s="7">
         <v>57.217</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2369000</v>
-      </c>
-      <c r="J21" s="11">
-        <v>11657.64</v>
-      </c>
-      <c r="K21" s="11">
-        <v>11657.64</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.49</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2344692</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-12650.36</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-12650.36</v>
+      </c>
+      <c r="L21" s="8">
+        <v>-0.54</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
         <v>16100</v>
       </c>
       <c r="F22" s="7">
-        <v>154.62</v>
+        <v>155.81</v>
       </c>
       <c r="G22" s="7">
         <v>155.939</v>
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2489382</v>
+        <v>2508541</v>
       </c>
       <c r="J22" s="7">
-        <v>-21236.93</v>
+        <v>-2077.93</v>
       </c>
       <c r="K22" s="7">
-        <v>-21236.93</v>
+        <v>-2077.93</v>
       </c>
       <c r="L22" s="8">
-        <v>-0.85</v>
+        <v>-0.08</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>39.54</v>
+        <v>39.8</v>
       </c>
       <c r="G23" s="11">
         <v>31.145</v>
@@ -1667,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>1281096</v>
+        <v>1289520</v>
       </c>
       <c r="J23" s="11">
-        <v>271999.67</v>
+        <v>280423.67</v>
       </c>
       <c r="K23" s="11">
-        <v>-11988</v>
+        <v>-3564</v>
       </c>
       <c r="L23" s="9">
-        <v>26.95</v>
+        <v>27.79</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>26</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="11">
-        <v>61.47</v>
+        <v>61.79</v>
       </c>
       <c r="G24" s="11">
         <v>58.147</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="11">
-        <v>338085</v>
+        <v>339845</v>
       </c>
       <c r="J24" s="11">
-        <v>18276.98</v>
+        <v>20036.98</v>
       </c>
       <c r="K24" s="11">
-        <v>-1683</v>
+        <v>77</v>
       </c>
       <c r="L24" s="9">
-        <v>5.71</v>
+        <v>6.27</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>26</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>29.84</v>
+        <v>30.01</v>
       </c>
       <c r="G25" s="11">
         <v>28.083</v>
@@ -1755,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>1056932.8</v>
+        <v>1062954.2</v>
       </c>
       <c r="J25" s="11">
-        <v>62224.82</v>
+        <v>68246.22</v>
       </c>
       <c r="K25" s="11">
-        <v>-23377.2</v>
+        <v>-17355.8</v>
       </c>
       <c r="L25" s="9">
-        <v>6.26</v>
+        <v>6.86</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>26</v>
@@ -1790,7 +1790,7 @@
         <v>27800</v>
       </c>
       <c r="F26" s="11">
-        <v>42.76</v>
+        <v>43.3</v>
       </c>
       <c r="G26" s="11">
         <v>41.832</v>
@@ -1799,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>1188728</v>
+        <v>1203740</v>
       </c>
       <c r="J26" s="11">
-        <v>25792.21</v>
+        <v>40804.21</v>
       </c>
       <c r="K26" s="11">
-        <v>25792.21</v>
+        <v>40804.21</v>
       </c>
       <c r="L26" s="9">
-        <v>2.22</v>
+        <v>3.51</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>24</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="11">
-        <v>89.66</v>
+        <v>90.1</v>
       </c>
       <c r="G27" s="11">
         <v>72.89</v>
@@ -1843,16 +1843,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>742384.8</v>
+        <v>746028</v>
       </c>
       <c r="J27" s="11">
-        <v>138856.98</v>
+        <v>142500.18</v>
       </c>
       <c r="K27" s="11">
-        <v>-331.2</v>
+        <v>3312</v>
       </c>
       <c r="L27" s="9">
-        <v>23.01</v>
+        <v>23.61</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>24</v>
@@ -1878,7 +1878,7 @@
         <v>31100</v>
       </c>
       <c r="F28" s="7">
-        <v>34.01</v>
+        <v>33.62</v>
       </c>
       <c r="G28" s="7">
         <v>34.438</v>
@@ -1887,16 +1887,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>2509938</v>
+        <v>2481156</v>
       </c>
       <c r="J28" s="7">
-        <v>-31613.63</v>
+        <v>-60395.63</v>
       </c>
       <c r="K28" s="7">
-        <v>-1344.91</v>
+        <v>-30126.91</v>
       </c>
       <c r="L28" s="8">
-        <v>-1.24</v>
+        <v>-2.38</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>24</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>21.9</v>
+        <v>21.89</v>
       </c>
       <c r="G29" s="7">
         <v>22.013</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>906660</v>
+        <v>906246</v>
       </c>
       <c r="J29" s="7">
-        <v>-4681.64</v>
+        <v>-5095.64</v>
       </c>
       <c r="K29" s="7">
-        <v>25668</v>
+        <v>25254</v>
       </c>
       <c r="L29" s="8">
-        <v>-0.51</v>
+        <v>-0.56</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>26</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>41.02</v>
+        <v>41</v>
       </c>
       <c r="G30" s="7">
         <v>41.569</v>
@@ -1975,16 +1975,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>1004990</v>
+        <v>1004500</v>
       </c>
       <c r="J30" s="7">
-        <v>-13456.88</v>
+        <v>-13946.88</v>
       </c>
       <c r="K30" s="7">
-        <v>5390</v>
+        <v>4900</v>
       </c>
       <c r="L30" s="8">
-        <v>-1.32</v>
+        <v>-1.37</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>24</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>62.4</v>
+        <v>62.52</v>
       </c>
       <c r="G31" s="11">
         <v>59.272</v>
@@ -2019,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>1535040</v>
+        <v>1537992</v>
       </c>
       <c r="J31" s="11">
-        <v>76943.8</v>
+        <v>79895.8</v>
       </c>
       <c r="K31" s="11">
-        <v>-27060</v>
+        <v>-24108</v>
       </c>
       <c r="L31" s="9">
-        <v>5.28</v>
+        <v>5.48</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>24</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <v>77.15</v>
+        <v>76.42</v>
       </c>
       <c r="G32" s="11">
         <v>66.731</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>462900</v>
+        <v>458520</v>
       </c>
       <c r="J32" s="11">
-        <v>62514.96</v>
+        <v>58134.96</v>
       </c>
       <c r="K32" s="11">
-        <v>-7680</v>
+        <v>-12060</v>
       </c>
       <c r="L32" s="9">
-        <v>15.61</v>
+        <v>14.52</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>26</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>30.8</v>
+        <v>31.12</v>
       </c>
       <c r="G34" s="11">
         <v>23.214</v>
@@ -2151,16 +2151,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>523600</v>
+        <v>529040</v>
       </c>
       <c r="J34" s="11">
-        <v>128955.76</v>
+        <v>134395.76</v>
       </c>
       <c r="K34" s="11">
-        <v>25160</v>
+        <v>30600</v>
       </c>
       <c r="L34" s="9">
-        <v>32.68</v>
+        <v>34.06</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>24</v>
@@ -2186,7 +2186,7 @@
         <v>10000</v>
       </c>
       <c r="F35" s="11">
-        <v>24.9</v>
+        <v>25.25</v>
       </c>
       <c r="G35" s="11">
         <v>22.924</v>
@@ -2195,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>423300</v>
+        <v>429250</v>
       </c>
       <c r="J35" s="11">
-        <v>33596.68</v>
+        <v>39546.68</v>
       </c>
       <c r="K35" s="11">
-        <v>10062.42</v>
+        <v>16012.42</v>
       </c>
       <c r="L35" s="9">
-        <v>8.62</v>
+        <v>10.15</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>24</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="11">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="G36" s="11">
         <v>11.312</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>248400</v>
+        <v>249228</v>
       </c>
       <c r="J36" s="11">
-        <v>14237.19</v>
+        <v>15065.19</v>
       </c>
       <c r="K36" s="11">
-        <v>1449</v>
+        <v>2277</v>
       </c>
       <c r="L36" s="9">
-        <v>6.08</v>
+        <v>6.44</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>24</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>12.51</v>
+        <v>12.63</v>
       </c>
       <c r="G38" s="11">
         <v>12.177</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="11">
-        <v>481635</v>
+        <v>486255</v>
       </c>
       <c r="J38" s="11">
-        <v>12802.68</v>
+        <v>17422.68</v>
       </c>
       <c r="K38" s="11">
-        <v>-8085</v>
+        <v>-3465</v>
       </c>
       <c r="L38" s="9">
-        <v>2.73</v>
+        <v>3.72</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>26</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>65.38</v>
+        <v>64.72</v>
       </c>
       <c r="G39" s="11">
         <v>53.268</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>490350</v>
+        <v>485400</v>
       </c>
       <c r="J39" s="11">
-        <v>90843.56</v>
+        <v>85893.56</v>
       </c>
       <c r="K39" s="11">
-        <v>150</v>
+        <v>-4800</v>
       </c>
       <c r="L39" s="9">
-        <v>22.74</v>
+        <v>21.5</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>26</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>75.19</v>
+        <v>74.5</v>
       </c>
       <c r="G40" s="11">
         <v>68.159</v>
@@ -2415,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>992508</v>
+        <v>983400</v>
       </c>
       <c r="J40" s="11">
-        <v>92812.08</v>
+        <v>83704.08</v>
       </c>
       <c r="K40" s="11">
-        <v>50556</v>
+        <v>41448</v>
       </c>
       <c r="L40" s="9">
-        <v>10.32</v>
+        <v>9.3</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>26</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="11">
-        <v>550.79</v>
+        <v>541</v>
       </c>
       <c r="G41" s="11">
         <v>409.247</v>
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>550790</v>
+        <v>541000</v>
       </c>
       <c r="J41" s="11">
-        <v>141543.44</v>
+        <v>131753.44</v>
       </c>
       <c r="K41" s="11">
-        <v>-3660</v>
+        <v>-13450</v>
       </c>
       <c r="L41" s="9">
-        <v>34.59</v>
+        <v>32.19</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>24</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <v>33.9</v>
+        <v>33.45</v>
       </c>
       <c r="G43" s="11">
         <v>29.482</v>
@@ -2547,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>454260</v>
+        <v>448230</v>
       </c>
       <c r="J43" s="11">
-        <v>59206.77</v>
+        <v>53176.77</v>
       </c>
       <c r="K43" s="11">
-        <v>9514</v>
+        <v>3484</v>
       </c>
       <c r="L43" s="9">
-        <v>14.99</v>
+        <v>13.46</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>24</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>17.98</v>
+        <v>17.89</v>
       </c>
       <c r="G44" s="11">
         <v>14.895</v>
@@ -2591,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>481864</v>
+        <v>479452</v>
       </c>
       <c r="J44" s="11">
-        <v>82681.21</v>
+        <v>80269.21</v>
       </c>
       <c r="K44" s="11">
-        <v>-11792</v>
+        <v>-14204</v>
       </c>
       <c r="L44" s="9">
-        <v>20.71</v>
+        <v>20.11</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>24</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>150.1</v>
+        <v>151.55</v>
       </c>
       <c r="G45" s="7">
         <v>164.269</v>
@@ -2635,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>195130</v>
+        <v>197015</v>
       </c>
       <c r="J45" s="7">
-        <v>-18420.31</v>
+        <v>-16535.31</v>
       </c>
       <c r="K45" s="7">
-        <v>-5590</v>
+        <v>-3705</v>
       </c>
       <c r="L45" s="8">
-        <v>-8.63</v>
+        <v>-7.74</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>24</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="G46" s="11">
         <v>45.669</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>1830570</v>
+        <v>1826780</v>
       </c>
       <c r="J46" s="11">
-        <v>99721.47</v>
+        <v>95931.47</v>
       </c>
       <c r="K46" s="11">
-        <v>-1137</v>
+        <v>-4927</v>
       </c>
       <c r="L46" s="9">
-        <v>5.76</v>
+        <v>5.54</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>24</v>
@@ -2714,7 +2714,7 @@
         <v>71200</v>
       </c>
       <c r="F47" s="7">
-        <v>35.66</v>
+        <v>35.69</v>
       </c>
       <c r="G47" s="7">
         <v>35.868</v>
@@ -2723,16 +2723,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>2538992</v>
+        <v>2541128</v>
       </c>
       <c r="J47" s="7">
-        <v>-14816.32</v>
+        <v>-12680.32</v>
       </c>
       <c r="K47" s="7">
-        <v>-14816.32</v>
+        <v>-12680.32</v>
       </c>
       <c r="L47" s="8">
-        <v>-0.58</v>
+        <v>-0.5</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>26</v>
@@ -2758,7 +2758,7 @@
         <v>14900</v>
       </c>
       <c r="F48" s="11">
-        <v>56.41</v>
+        <v>56.35</v>
       </c>
       <c r="G48" s="11">
         <v>55.417</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>1912299</v>
+        <v>1910265</v>
       </c>
       <c r="J48" s="11">
-        <v>33665.65</v>
+        <v>31631.65</v>
       </c>
       <c r="K48" s="11">
-        <v>-16238.39</v>
+        <v>-18272.39</v>
       </c>
       <c r="L48" s="9">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
       <c r="G49" s="7">
         <v>7.252</v>
@@ -2811,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>362917</v>
+        <v>364444</v>
       </c>
       <c r="J49" s="7">
-        <v>-6233.2</v>
+        <v>-4706.2</v>
       </c>
       <c r="K49" s="7">
-        <v>4072</v>
+        <v>5599</v>
       </c>
       <c r="L49" s="8">
-        <v>-1.68</v>
+        <v>-1.27</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2830,46 +2830,46 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="10">
         <v>603730</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="10">
         <v>1600</v>
       </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
         <v>1600</v>
       </c>
-      <c r="F50" s="7">
-        <v>31.91</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="11">
+        <v>32.22</v>
+      </c>
+      <c r="G50" s="11">
         <v>31.921</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>51056</v>
-      </c>
-      <c r="J50" s="7">
-        <v>-16.99</v>
-      </c>
-      <c r="K50" s="7">
-        <v>-16.99</v>
-      </c>
-      <c r="L50" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="M50" s="8" t="s">
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>51552</v>
+      </c>
+      <c r="J50" s="11">
+        <v>479.01</v>
+      </c>
+      <c r="K50" s="11">
+        <v>479.01</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N50" s="8" t="s">
+      <c r="N50" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
       <c r="G51" s="11">
         <v>79.344</v>
@@ -2899,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>1366848</v>
+        <v>1370012</v>
       </c>
       <c r="J51" s="11">
-        <v>111624.48</v>
+        <v>114788.48</v>
       </c>
       <c r="K51" s="11">
-        <v>-16769.2</v>
+        <v>-13605.2</v>
       </c>
       <c r="L51" s="9">
-        <v>8.89</v>
+        <v>9.14</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>26</v>
@@ -2934,7 +2934,7 @@
         <v>18700</v>
       </c>
       <c r="F52" s="11">
-        <v>58.63</v>
+        <v>58.71</v>
       </c>
       <c r="G52" s="11">
         <v>57.033</v>
@@ -2943,16 +2943,16 @@
         <v>0</v>
       </c>
       <c r="I52" s="11">
-        <v>2620761</v>
+        <v>2624337</v>
       </c>
       <c r="J52" s="11">
-        <v>71367.97</v>
+        <v>74943.97</v>
       </c>
       <c r="K52" s="11">
-        <v>46852.07</v>
+        <v>50428.07</v>
       </c>
       <c r="L52" s="9">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>26</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>13.82</v>
+        <v>14.11</v>
       </c>
       <c r="G53" s="11">
         <v>11.43</v>
@@ -2987,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>960490</v>
+        <v>980645</v>
       </c>
       <c r="J53" s="11">
-        <v>166137.36</v>
+        <v>186292.36</v>
       </c>
       <c r="K53" s="11">
-        <v>59770</v>
+        <v>79925</v>
       </c>
       <c r="L53" s="9">
-        <v>20.91</v>
+        <v>23.45</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>26</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>28.33</v>
+        <v>28.64</v>
       </c>
       <c r="G54" s="11">
         <v>27.126</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>1012514.2</v>
+        <v>1023593.6</v>
       </c>
       <c r="J54" s="11">
-        <v>43029.07</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-11079.4</v>
+        <v>54108.47</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L54" s="9">
-        <v>4.44</v>
+        <v>5.58</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>24</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="11">
-        <v>50.73</v>
+        <v>50.43</v>
       </c>
       <c r="G55" s="11">
         <v>48.397</v>
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="11">
-        <v>1141222.08</v>
+        <v>1134473.28</v>
       </c>
       <c r="J55" s="11">
-        <v>52475.77</v>
+        <v>45726.97</v>
       </c>
       <c r="K55" s="11">
-        <v>-56689.92</v>
+        <v>-63438.72</v>
       </c>
       <c r="L55" s="9">
-        <v>4.82</v>
+        <v>4.2</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>24</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>67.79</v>
+        <v>68.25</v>
       </c>
       <c r="G56" s="11">
         <v>61.17</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>1152430</v>
+        <v>1160250</v>
       </c>
       <c r="J56" s="11">
-        <v>112541.06</v>
+        <v>120361.06</v>
       </c>
       <c r="K56" s="11">
-        <v>3570</v>
+        <v>11390</v>
       </c>
       <c r="L56" s="9">
-        <v>10.82</v>
+        <v>11.57</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>26</v>
@@ -3154,7 +3154,7 @@
         <v>92700</v>
       </c>
       <c r="F57" s="7">
-        <v>27.2</v>
+        <v>27.11</v>
       </c>
       <c r="G57" s="7">
         <v>27.386</v>
@@ -3163,16 +3163,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>2521440</v>
+        <v>2513097</v>
       </c>
       <c r="J57" s="7">
-        <v>-17224.92</v>
+        <v>-25567.92</v>
       </c>
       <c r="K57" s="7">
-        <v>-17224.92</v>
+        <v>-25567.92</v>
       </c>
       <c r="L57" s="8">
-        <v>-0.68</v>
+        <v>-1.01</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>24</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="11">
-        <v>69.64</v>
+        <v>68.97</v>
       </c>
       <c r="G58" s="11">
         <v>66.104</v>
@@ -3207,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>1580828</v>
+        <v>1565619</v>
       </c>
       <c r="J58" s="11">
-        <v>80268.24</v>
+        <v>65059.24</v>
       </c>
       <c r="K58" s="11">
-        <v>-35639</v>
+        <v>-50848</v>
       </c>
       <c r="L58" s="9">
-        <v>5.35</v>
+        <v>4.34</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>24</v>
@@ -3242,7 +3242,7 @@
         <v>12600</v>
       </c>
       <c r="F59" s="7">
-        <v>208.87</v>
+        <v>206.5</v>
       </c>
       <c r="G59" s="7">
         <v>210.444</v>
@@ -3251,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>2631762</v>
+        <v>2601900</v>
       </c>
       <c r="J59" s="7">
-        <v>-19837.66</v>
+        <v>-49699.66</v>
       </c>
       <c r="K59" s="7">
-        <v>-19837.66</v>
+        <v>-49699.66</v>
       </c>
       <c r="L59" s="8">
-        <v>-0.75</v>
+        <v>-1.87</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>26</v>
@@ -3286,7 +3286,7 @@
         <v>46700</v>
       </c>
       <c r="F60" s="7">
-        <v>54.36</v>
+        <v>54.59</v>
       </c>
       <c r="G60" s="7">
         <v>54.932</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>2538612</v>
+        <v>2549353</v>
       </c>
       <c r="J60" s="7">
-        <v>-26730.5</v>
+        <v>-15989.5</v>
       </c>
       <c r="K60" s="7">
-        <v>-26730.5</v>
+        <v>-15989.5</v>
       </c>
       <c r="L60" s="8">
-        <v>-1.04</v>
+        <v>-0.62</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="11">
-        <v>54.85</v>
+        <v>54.46</v>
       </c>
       <c r="G61" s="11">
         <v>53.899</v>
@@ -3339,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>1409645</v>
+        <v>1399622</v>
       </c>
       <c r="J61" s="11">
-        <v>24441.49</v>
+        <v>14418.49</v>
       </c>
       <c r="K61" s="11">
-        <v>-3855</v>
+        <v>-13878</v>
       </c>
       <c r="L61" s="9">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>26</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="11">
-        <v>20.65</v>
+        <v>20.83</v>
       </c>
       <c r="G62" s="11">
         <v>20.25</v>
@@ -3383,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="11">
-        <v>1024240</v>
+        <v>1033168</v>
       </c>
       <c r="J62" s="11">
-        <v>19861.39</v>
+        <v>28789.39</v>
       </c>
       <c r="K62" s="11">
-        <v>-4464</v>
+        <v>4464</v>
       </c>
       <c r="L62" s="9">
-        <v>1.98</v>
+        <v>2.86</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>26</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <v>124</v>
+        <v>124.33</v>
       </c>
       <c r="G63" s="11">
         <v>111.804</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="11">
-        <v>446400</v>
+        <v>447588</v>
       </c>
       <c r="J63" s="11">
-        <v>43903.92</v>
+        <v>45091.92</v>
       </c>
       <c r="K63" s="11">
-        <v>-12132</v>
+        <v>-10944</v>
       </c>
       <c r="L63" s="9">
-        <v>10.91</v>
+        <v>11.2</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>24</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>100.67</v>
+        <v>98</v>
       </c>
       <c r="G64" s="11">
         <v>89.398</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="11">
-        <v>1208040</v>
+        <v>1176000</v>
       </c>
       <c r="J64" s="11">
-        <v>135264.34</v>
+        <v>103224.34</v>
       </c>
       <c r="K64" s="11">
-        <v>-14760</v>
+        <v>-46800</v>
       </c>
       <c r="L64" s="9">
-        <v>12.61</v>
+        <v>9.62</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>24</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="11">
-        <v>11.65</v>
+        <v>11.51</v>
       </c>
       <c r="G65" s="11">
         <v>11.069</v>
@@ -3515,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="11">
-        <v>412410</v>
+        <v>407454</v>
       </c>
       <c r="J65" s="11">
-        <v>20552.87</v>
+        <v>15596.87</v>
       </c>
       <c r="K65" s="11">
-        <v>-2124</v>
+        <v>-7080</v>
       </c>
       <c r="L65" s="9">
-        <v>5.25</v>
+        <v>3.98</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>26</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>71.29</v>
+        <v>72.04</v>
       </c>
       <c r="G66" s="7">
         <v>74.593</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>377837</v>
+        <v>381812</v>
       </c>
       <c r="J66" s="7">
-        <v>-17503.29</v>
+        <v>-13528.29</v>
       </c>
       <c r="K66" s="7">
-        <v>-4028</v>
+        <v>-53</v>
       </c>
       <c r="L66" s="8">
-        <v>-4.43</v>
+        <v>-3.42</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="11">
-        <v>7.9</v>
+        <v>7.92</v>
       </c>
       <c r="G67" s="11">
         <v>7.736</v>
@@ -3603,16 +3603,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>221832</v>
+        <v>222393.6</v>
       </c>
       <c r="J67" s="11">
-        <v>4595.57</v>
+        <v>5157.17</v>
       </c>
       <c r="K67" s="11">
-        <v>-1404</v>
+        <v>-842.4</v>
       </c>
       <c r="L67" s="9">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>26</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>51.62</v>
+        <v>50.93</v>
       </c>
       <c r="G68" s="7">
         <v>51.764</v>
@@ -3647,16 +3647,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>263262</v>
+        <v>259743</v>
       </c>
       <c r="J68" s="7">
-        <v>-733.78</v>
+        <v>-4252.78</v>
       </c>
       <c r="K68" s="7">
-        <v>2244</v>
+        <v>-1275</v>
       </c>
       <c r="L68" s="8">
-        <v>-0.28</v>
+        <v>-1.61</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>24</v>
@@ -3682,7 +3682,7 @@
         <v>12200</v>
       </c>
       <c r="F69" s="7">
-        <v>64.7</v>
+        <v>64.56</v>
       </c>
       <c r="G69" s="7">
         <v>64.745</v>
@@ -3691,16 +3691,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>789340</v>
+        <v>787632</v>
       </c>
       <c r="J69" s="7">
-        <v>-551.65</v>
+        <v>-2259.65</v>
       </c>
       <c r="K69" s="7">
-        <v>-551.65</v>
+        <v>-2259.65</v>
       </c>
       <c r="L69" s="8">
-        <v>-0.07</v>
+        <v>-0.29</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>76.58</v>
+        <v>76.2</v>
       </c>
       <c r="G70" s="11">
         <v>68.463</v>
@@ -3735,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>1773592.8</v>
+        <v>1764792</v>
       </c>
       <c r="J70" s="11">
-        <v>187986.95</v>
+        <v>179186.15</v>
       </c>
       <c r="K70" s="11">
-        <v>-13664.4</v>
+        <v>-22465.2</v>
       </c>
       <c r="L70" s="9">
-        <v>11.86</v>
+        <v>11.3</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>26</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>102.3</v>
+        <v>101.86</v>
       </c>
       <c r="G71" s="7">
         <v>109.135</v>
@@ -3779,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>439890</v>
+        <v>437998</v>
       </c>
       <c r="J71" s="7">
-        <v>-29390.47</v>
+        <v>-31282.47</v>
       </c>
       <c r="K71" s="7">
-        <v>-19452.87</v>
+        <v>-21344.87</v>
       </c>
       <c r="L71" s="8">
-        <v>-6.26</v>
+        <v>-6.67</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>24</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <v>74.05</v>
+        <v>75.65</v>
       </c>
       <c r="G72" s="11">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>73.52</v>
+        <v>73.75</v>
       </c>
       <c r="G73" s="7">
         <v>74.855</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>1418936</v>
+        <v>1423375</v>
       </c>
       <c r="J73" s="7">
-        <v>-25767.75</v>
+        <v>-21328.75</v>
       </c>
       <c r="K73" s="7">
-        <v>-43425</v>
+        <v>-38986</v>
       </c>
       <c r="L73" s="8">
-        <v>-1.78</v>
+        <v>-1.48</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>24</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>16.7</v>
+        <v>16.89</v>
       </c>
       <c r="G74" s="11">
         <v>14.909</v>
@@ -3911,16 +3911,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>447560</v>
+        <v>452652</v>
       </c>
       <c r="J74" s="11">
-        <v>47996.08</v>
+        <v>53088.08</v>
       </c>
       <c r="K74" s="11">
-        <v>24388</v>
+        <v>29480</v>
       </c>
       <c r="L74" s="9">
-        <v>12.01</v>
+        <v>13.29</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>24</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="11">
-        <v>19.08</v>
+        <v>19.29</v>
       </c>
       <c r="G75" s="11">
         <v>19.017</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="11">
-        <v>986436</v>
+        <v>997293</v>
       </c>
       <c r="J75" s="11">
-        <v>3263.9</v>
+        <v>14120.9</v>
       </c>
       <c r="K75" s="11">
-        <v>-13442</v>
+        <v>-2585</v>
       </c>
       <c r="L75" s="9">
-        <v>0.33</v>
+        <v>1.44</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>24</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="11">
-        <v>37.93</v>
+        <v>38.85</v>
       </c>
       <c r="G76" s="11">
         <v>36.788</v>
@@ -3999,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <v>1327550</v>
+        <v>1359750</v>
       </c>
       <c r="J76" s="11">
-        <v>39969.52</v>
+        <v>72169.52</v>
       </c>
       <c r="K76" s="11">
-        <v>46550</v>
+        <v>78750</v>
       </c>
       <c r="L76" s="9">
-        <v>3.1</v>
+        <v>5.61</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>24</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="11">
-        <v>166.01</v>
+        <v>166.61</v>
       </c>
       <c r="G77" s="11">
         <v>156.721</v>
@@ -4043,16 +4043,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>1792908</v>
+        <v>1799388</v>
       </c>
       <c r="J77" s="11">
-        <v>100321.71</v>
+        <v>106801.71</v>
       </c>
       <c r="K77" s="11">
-        <v>-32184</v>
+        <v>-25704</v>
       </c>
       <c r="L77" s="9">
-        <v>5.93</v>
+        <v>6.31</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>26</v>
@@ -4078,7 +4078,7 @@
         <v>72600</v>
       </c>
       <c r="F78" s="11">
-        <v>14.5</v>
+        <v>14.54</v>
       </c>
       <c r="G78" s="11">
         <v>14.486</v>
@@ -4087,16 +4087,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>1052700</v>
+        <v>1055604</v>
       </c>
       <c r="J78" s="11">
-        <v>1036</v>
+        <v>3940</v>
       </c>
       <c r="K78" s="11">
-        <v>1036</v>
+        <v>3940</v>
       </c>
       <c r="L78" s="9">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>26</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>35.26</v>
+        <v>35.42</v>
       </c>
       <c r="G79" s="7">
         <v>35.684</v>
@@ -4131,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>1265834</v>
+        <v>1271578</v>
       </c>
       <c r="J79" s="7">
-        <v>-15209.07</v>
+        <v>-9465.07</v>
       </c>
       <c r="K79" s="7">
-        <v>-59235</v>
+        <v>-53491</v>
       </c>
       <c r="L79" s="8">
-        <v>-1.19</v>
+        <v>-0.74</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="11">
-        <v>178.89</v>
+        <v>175.56</v>
       </c>
       <c r="G80" s="11">
         <v>155.718</v>
@@ -4175,16 +4175,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <v>715560</v>
+        <v>702240</v>
       </c>
       <c r="J80" s="11">
-        <v>92687.06</v>
+        <v>79367.06</v>
       </c>
       <c r="K80" s="11">
-        <v>-9360</v>
+        <v>-22680</v>
       </c>
       <c r="L80" s="9">
-        <v>14.88</v>
+        <v>12.74</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>24</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="11">
-        <v>21.84</v>
+        <v>21.86</v>
       </c>
       <c r="G81" s="11">
         <v>17.758</v>
@@ -4219,16 +4219,16 @@
         <v>0</v>
       </c>
       <c r="I81" s="11">
-        <v>371280</v>
+        <v>371620</v>
       </c>
       <c r="J81" s="11">
-        <v>69388.72</v>
+        <v>69728.72</v>
       </c>
       <c r="K81" s="11">
-        <v>-12240</v>
+        <v>-11900</v>
       </c>
       <c r="L81" s="9">
-        <v>22.99</v>
+        <v>23.1</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>26</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="11">
-        <v>22.22</v>
+        <v>21.86</v>
       </c>
       <c r="G82" s="11">
         <v>21.067</v>
@@ -4263,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="I82" s="11">
-        <v>222200</v>
+        <v>218600</v>
       </c>
       <c r="J82" s="11">
-        <v>11526.21</v>
+        <v>7926.21</v>
       </c>
       <c r="K82" s="11">
-        <v>-700</v>
+        <v>-4300</v>
       </c>
       <c r="L82" s="9">
-        <v>5.47</v>
+        <v>3.76</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>24</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="11">
-        <v>24.2</v>
+        <v>24.29</v>
       </c>
       <c r="G83" s="11">
         <v>21.88</v>
@@ -4307,16 +4307,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="11">
-        <v>1130140</v>
+        <v>1134343</v>
       </c>
       <c r="J83" s="11">
-        <v>108347.28</v>
+        <v>112550.28</v>
       </c>
       <c r="K83" s="11">
-        <v>15411</v>
+        <v>19614</v>
       </c>
       <c r="L83" s="9">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>24</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="11">
-        <v>15.53</v>
+        <v>15.4</v>
       </c>
       <c r="G84" s="11">
         <v>14.839</v>
@@ -4351,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>1596484</v>
+        <v>1583120</v>
       </c>
       <c r="J84" s="11">
-        <v>71040.55</v>
+        <v>57676.55</v>
       </c>
       <c r="K84" s="11">
-        <v>23644</v>
+        <v>10280</v>
       </c>
       <c r="L84" s="9">
-        <v>4.66</v>
+        <v>3.78</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>24</v>
@@ -4414,46 +4414,46 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="10">
         <v>603612</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="10">
         <v>64300</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="10">
         <v>64300</v>
       </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>11.91</v>
-      </c>
-      <c r="G86" s="7">
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>12.15</v>
+      </c>
+      <c r="G86" s="11">
         <v>12.042</v>
       </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>765813</v>
-      </c>
-      <c r="J86" s="7">
-        <v>-8505.19</v>
-      </c>
-      <c r="K86" s="7">
-        <v>12217</v>
-      </c>
-      <c r="L86" s="8">
-        <v>-1.1</v>
-      </c>
-      <c r="M86" s="8" t="s">
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>781245</v>
+      </c>
+      <c r="J86" s="11">
+        <v>6926.81</v>
+      </c>
+      <c r="K86" s="11">
+        <v>27649</v>
+      </c>
+      <c r="L86" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="M86" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N86" s="8" t="s">
+      <c r="N86" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="11">
-        <v>44.65</v>
+        <v>45.15</v>
       </c>
       <c r="G87" s="11">
         <v>38.095</v>
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="I87" s="11">
-        <v>98230</v>
+        <v>99330</v>
       </c>
       <c r="J87" s="11">
-        <v>14421.43</v>
+        <v>15521.43</v>
       </c>
       <c r="K87" s="11">
-        <v>2156</v>
+        <v>3256</v>
       </c>
       <c r="L87" s="9">
-        <v>17.21</v>
+        <v>18.52</v>
       </c>
       <c r="M87" s="9" t="s">
         <v>26</v>
@@ -4518,7 +4518,7 @@
         <v>48767</v>
       </c>
       <c r="F88" s="7">
-        <v>50.57</v>
+        <v>50.52</v>
       </c>
       <c r="G88" s="7">
         <v>52.109</v>
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>2466147.19</v>
+        <v>2463708.84</v>
       </c>
       <c r="J88" s="7">
-        <v>-75032.52</v>
+        <v>-77470.87</v>
       </c>
       <c r="K88" s="7">
-        <v>-75032.52</v>
+        <v>-77470.87</v>
       </c>
       <c r="L88" s="8">
-        <v>-2.95</v>
+        <v>-3.05</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>26</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <v>50.18</v>
+        <v>50.22</v>
       </c>
       <c r="G89" s="7">
         <v>50.635</v>
@@ -4571,16 +4571,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>592124</v>
+        <v>592596</v>
       </c>
       <c r="J89" s="7">
-        <v>-5372.78</v>
+        <v>-4900.78</v>
       </c>
       <c r="K89" s="7">
-        <v>590</v>
+        <v>1062</v>
       </c>
       <c r="L89" s="8">
-        <v>-0.9</v>
+        <v>-0.82</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>24</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="11">
-        <v>29.69</v>
+        <v>29.7</v>
       </c>
       <c r="G90" s="11">
         <v>27.281</v>
@@ -4615,16 +4615,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="11">
-        <v>427536</v>
+        <v>427680</v>
       </c>
       <c r="J90" s="11">
-        <v>34685.45</v>
+        <v>34829.45</v>
       </c>
       <c r="K90" s="11">
-        <v>-2736</v>
+        <v>-2592</v>
       </c>
       <c r="L90" s="9">
-        <v>8.83</v>
+        <v>8.87</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>24</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="7">
-        <v>25.58</v>
+        <v>25.7</v>
       </c>
       <c r="G91" s="7">
         <v>26.66</v>
@@ -4659,16 +4659,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="7">
-        <v>439976</v>
+        <v>442040</v>
       </c>
       <c r="J91" s="7">
-        <v>-18570.91</v>
+        <v>-16506.91</v>
       </c>
       <c r="K91" s="7">
-        <v>-9116</v>
+        <v>-7052</v>
       </c>
       <c r="L91" s="8">
-        <v>-4.05</v>
+        <v>-3.6</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>24</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="11">
-        <v>25.03</v>
+        <v>25.25</v>
       </c>
       <c r="G92" s="11">
         <v>22.984</v>
@@ -4703,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="11">
-        <v>240288</v>
+        <v>242400</v>
       </c>
       <c r="J92" s="11">
-        <v>19636.96</v>
+        <v>21748.96</v>
       </c>
       <c r="K92" s="11">
-        <v>2112</v>
+        <v>4224</v>
       </c>
       <c r="L92" s="9">
-        <v>8.9</v>
+        <v>9.86</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>24</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="11">
-        <v>33.08</v>
+        <v>33.44</v>
       </c>
       <c r="G93" s="11">
         <v>23.739</v>
@@ -4747,16 +4747,16 @@
         <v>0</v>
       </c>
       <c r="I93" s="11">
-        <v>549128</v>
+        <v>555104</v>
       </c>
       <c r="J93" s="11">
-        <v>155067.89</v>
+        <v>161043.89</v>
       </c>
       <c r="K93" s="11">
-        <v>15272</v>
+        <v>21248</v>
       </c>
       <c r="L93" s="9">
-        <v>39.35</v>
+        <v>40.87</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>26</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="7">
-        <v>97.23</v>
+        <v>97.34</v>
       </c>
       <c r="G94" s="7">
         <v>97.621</v>
@@ -4791,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="I94" s="7">
-        <v>116676</v>
+        <v>116808</v>
       </c>
       <c r="J94" s="7">
-        <v>-469.59</v>
+        <v>-337.59</v>
       </c>
       <c r="K94" s="7">
-        <v>-3420</v>
+        <v>-3288</v>
       </c>
       <c r="L94" s="8">
-        <v>-0.4</v>
+        <v>-0.29</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>26</v>
@@ -4826,7 +4826,7 @@
         <v>8500</v>
       </c>
       <c r="F95" s="7">
-        <v>290.02</v>
+        <v>290.58</v>
       </c>
       <c r="G95" s="7">
         <v>296.525</v>
@@ -4835,16 +4835,16 @@
         <v>0</v>
       </c>
       <c r="I95" s="7">
-        <v>2465170</v>
+        <v>2469930</v>
       </c>
       <c r="J95" s="7">
-        <v>-55295.19</v>
+        <v>-50535.19</v>
       </c>
       <c r="K95" s="7">
-        <v>-55295.19</v>
+        <v>-50535.19</v>
       </c>
       <c r="L95" s="8">
-        <v>-2.19</v>
+        <v>-2</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>26</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <v>10.38</v>
+        <v>10.29</v>
       </c>
       <c r="G96" s="7">
         <v>10.561</v>
@@ -4879,16 +4879,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <v>879186</v>
+        <v>871563</v>
       </c>
       <c r="J96" s="7">
-        <v>-15352.22</v>
+        <v>-22975.22</v>
       </c>
       <c r="K96" s="7">
-        <v>13552</v>
+        <v>5929</v>
       </c>
       <c r="L96" s="8">
-        <v>-1.71</v>
+        <v>-2.57</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>26</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="11">
-        <v>11.47</v>
+        <v>11.3</v>
       </c>
       <c r="G97" s="11">
         <v>10.757</v>
@@ -4923,16 +4923,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="11">
-        <v>196137</v>
+        <v>193230</v>
       </c>
       <c r="J97" s="11">
-        <v>12190.41</v>
+        <v>9283.41</v>
       </c>
       <c r="K97" s="11">
-        <v>4959</v>
+        <v>2052</v>
       </c>
       <c r="L97" s="9">
-        <v>6.63</v>
+        <v>5.05</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>26</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="11">
-        <v>33.98</v>
+        <v>33.57</v>
       </c>
       <c r="G98" s="11">
         <v>28.878</v>
@@ -4967,16 +4967,16 @@
         <v>0</v>
       </c>
       <c r="I98" s="11">
-        <v>661250.8</v>
+        <v>653272.2</v>
       </c>
       <c r="J98" s="11">
-        <v>99283.26</v>
+        <v>91304.66</v>
       </c>
       <c r="K98" s="11">
-        <v>-20043.8</v>
+        <v>-28022.4</v>
       </c>
       <c r="L98" s="9">
-        <v>17.67</v>
+        <v>16.25</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>24</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <v>55.38</v>
+        <v>55.52</v>
       </c>
       <c r="G99" s="7">
         <v>55.795</v>
@@ -5011,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="I99" s="7">
-        <v>1738932</v>
+        <v>1743328</v>
       </c>
       <c r="J99" s="7">
-        <v>-13025.53</v>
+        <v>-8629.53</v>
       </c>
       <c r="K99" s="7">
-        <v>6280</v>
+        <v>10676</v>
       </c>
       <c r="L99" s="8">
-        <v>-0.74</v>
+        <v>-0.49</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>26</v>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="156">
   <si>
     <t>资金</t>
   </si>
@@ -145,6 +145,9 @@
     <t>三维股份</t>
   </si>
   <si>
+    <t>三诺生物</t>
+  </si>
+  <si>
     <t>东宏股份</t>
   </si>
   <si>
@@ -160,12 +163,6 @@
     <t>中国汽研</t>
   </si>
   <si>
-    <t>中国重汽</t>
-  </si>
-  <si>
-    <t>000951</t>
-  </si>
-  <si>
     <t>中孚信息</t>
   </si>
   <si>
@@ -262,6 +259,12 @@
     <t>坤彩科技</t>
   </si>
   <si>
+    <t>大博医疗</t>
+  </si>
+  <si>
+    <t>002901</t>
+  </si>
+  <si>
     <t>宁波高发</t>
   </si>
   <si>
@@ -298,9 +301,6 @@
     <t>建设机械</t>
   </si>
   <si>
-    <t>开山股份</t>
-  </si>
-  <si>
     <t>快克股份</t>
   </si>
   <si>
@@ -313,6 +313,9 @@
     <t>002812</t>
   </si>
   <si>
+    <t>扬农化工</t>
+  </si>
+  <si>
     <t>拓普集团</t>
   </si>
   <si>
@@ -367,18 +370,12 @@
     <t>正海生物</t>
   </si>
   <si>
-    <t>江山欧派</t>
-  </si>
-  <si>
     <t>浙江鼎力</t>
   </si>
   <si>
     <t>浦东金桥</t>
   </si>
   <si>
-    <t>海利生物</t>
-  </si>
-  <si>
     <t>海容冷链</t>
   </si>
   <si>
@@ -404,6 +401,12 @@
   </si>
   <si>
     <t>皇马科技</t>
+  </si>
+  <si>
+    <t>盐津铺子</t>
+  </si>
+  <si>
+    <t>002847</t>
   </si>
   <si>
     <t>石英股份</t>
@@ -950,28 +953,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>16135463.25</v>
+        <v>9815251.03</v>
       </c>
       <c r="D3" s="3">
-        <v>9813075.06</v>
+        <v>9700710.58</v>
       </c>
       <c r="E3" s="3">
-        <v>9813075.06</v>
+        <v>9700710.58</v>
       </c>
       <c r="F3" s="3">
-        <v>6322388.19</v>
+        <v>114540.45</v>
       </c>
       <c r="G3" s="3">
-        <v>91836537.1</v>
+        <v>93217692.03</v>
       </c>
       <c r="H3" s="3">
-        <v>101649612.16</v>
+        <v>102918402.61</v>
       </c>
       <c r="I3" s="3">
-        <v>3891449</v>
+        <v>4945542.57</v>
       </c>
       <c r="J3" s="3">
-        <v>514844.25</v>
+        <v>1266614.48</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1078,10 +1081,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>2673000</v>
+        <v>2839000</v>
       </c>
       <c r="C8" s="3">
-        <v>2673000</v>
+        <v>2839000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1095,7 +1098,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>3489000</v>
+        <v>3640500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1177,34 +1180,34 @@
         <v>603712</v>
       </c>
       <c r="C12" s="6">
-        <v>69400</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>69400</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>39.79</v>
+        <v>40.06</v>
       </c>
       <c r="G12" s="7">
-        <v>36.87</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2761426</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>202654.28</v>
+        <v>190105.73</v>
       </c>
       <c r="K12" s="7">
-        <v>215834</v>
+        <v>-12548.55</v>
       </c>
       <c r="L12" s="8">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1230,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>102.4</v>
+        <v>99.3</v>
       </c>
       <c r="G13" s="7">
         <v>93.41</v>
@@ -1239,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1208320</v>
+        <v>1171740</v>
       </c>
       <c r="J13" s="7">
-        <v>106081.68</v>
+        <v>69501.68</v>
       </c>
       <c r="K13" s="7">
-        <v>51448</v>
+        <v>-36580</v>
       </c>
       <c r="L13" s="8">
-        <v>9.62</v>
+        <v>6.31</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -1258,46 +1261,46 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>603033</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>17600</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>17600</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>21.84</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>22.49</v>
+      </c>
+      <c r="G14" s="7">
         <v>22.227</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>384384</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-6807.48</v>
-      </c>
-      <c r="K14" s="11">
-        <v>2464</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-1.74</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>395824</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4632.52</v>
+      </c>
+      <c r="K14" s="7">
+        <v>11440</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1306,43 +1309,43 @@
         <v>43</v>
       </c>
       <c r="B15" s="6">
-        <v>603856</v>
+        <v>300298</v>
       </c>
       <c r="C15" s="6">
-        <v>19400</v>
+        <v>35500</v>
       </c>
       <c r="D15" s="6">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="F15" s="7">
-        <v>14.95</v>
+        <v>31.81</v>
       </c>
       <c r="G15" s="7">
-        <v>14.209</v>
+        <v>31.78</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>290030</v>
+        <v>1129255</v>
       </c>
       <c r="J15" s="7">
-        <v>14378.08</v>
+        <v>1069.55</v>
       </c>
       <c r="K15" s="7">
-        <v>-6790</v>
+        <v>1069.55</v>
       </c>
       <c r="L15" s="8">
-        <v>5.22</v>
+        <v>0.09</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1350,37 +1353,37 @@
         <v>44</v>
       </c>
       <c r="B16" s="6">
-        <v>600811</v>
+        <v>603856</v>
       </c>
       <c r="C16" s="6">
-        <v>55700</v>
+        <v>19400</v>
       </c>
       <c r="D16" s="6">
-        <v>55700</v>
+        <v>19400</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>4.8</v>
+        <v>15.23</v>
       </c>
       <c r="G16" s="7">
-        <v>4.431</v>
+        <v>14.209</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>267360</v>
+        <v>295462</v>
       </c>
       <c r="J16" s="7">
-        <v>20567.07</v>
+        <v>19810.08</v>
       </c>
       <c r="K16" s="7">
-        <v>15596</v>
+        <v>5432</v>
       </c>
       <c r="L16" s="8">
-        <v>8.33</v>
+        <v>7.19</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1393,170 +1396,170 @@
       <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6">
+        <v>600811</v>
+      </c>
+      <c r="C17" s="6">
+        <v>55700</v>
+      </c>
+      <c r="D17" s="6">
+        <v>55700</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4.431</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>278500</v>
+      </c>
+      <c r="J17" s="7">
+        <v>31707.07</v>
+      </c>
+      <c r="K17" s="7">
+        <v>11140</v>
+      </c>
+      <c r="L17" s="8">
+        <v>12.84</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6">
         <v>37429</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>37429</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>27.65</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>27.53</v>
+      </c>
+      <c r="G18" s="7">
         <v>27.24</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1034911.85</v>
-      </c>
-      <c r="J17" s="7">
-        <v>15343.01</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-5614.35</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1.51</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1030420.37</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10851.53</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-4491.48</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10">
-        <v>601965</v>
-      </c>
-      <c r="C18" s="10">
-        <v>35800</v>
-      </c>
-      <c r="D18" s="10">
-        <v>35800</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>9.22</v>
-      </c>
-      <c r="G18" s="11">
-        <v>9.589</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>330076</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-13200.87</v>
-      </c>
-      <c r="K18" s="11">
-        <v>6086</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-3.85</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
+      <c r="B19" s="6">
+        <v>601965</v>
       </c>
       <c r="C19" s="6">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="D19" s="6">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>31.08</v>
+        <v>9.7</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>9.589</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>347260</v>
       </c>
       <c r="J19" s="7">
-        <v>34690.73</v>
+        <v>3983.13</v>
       </c>
       <c r="K19" s="7">
-        <v>-8083.38</v>
+        <v>17184</v>
       </c>
       <c r="L19" s="8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6">
         <v>300659</v>
       </c>
       <c r="C20" s="6">
-        <v>41200</v>
+        <v>48200</v>
       </c>
       <c r="D20" s="6">
         <v>41200</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F20" s="7">
-        <v>58.36</v>
+        <v>59.63</v>
       </c>
       <c r="G20" s="7">
-        <v>57.203</v>
+        <v>57.374</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2404432</v>
+        <v>2874166</v>
       </c>
       <c r="J20" s="7">
-        <v>47661.5</v>
+        <v>108756.26</v>
       </c>
       <c r="K20" s="7">
-        <v>59740</v>
+        <v>61094.76</v>
       </c>
       <c r="L20" s="8">
-        <v>2.02</v>
+        <v>3.93</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>26</v>
@@ -1566,52 +1569,52 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>25760</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>25760</v>
       </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>96.92</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>100.36</v>
+      </c>
+      <c r="G21" s="7">
         <v>97.05</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2496659.2</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-3351.73</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-1416.8</v>
-      </c>
-      <c r="L21" s="9">
-        <v>-0.13</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2585273.6</v>
+      </c>
+      <c r="J21" s="7">
+        <v>85262.67</v>
+      </c>
+      <c r="K21" s="7">
+        <v>88614.4</v>
+      </c>
+      <c r="L21" s="8">
+        <v>3.41</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
         <v>300575</v>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>41.7</v>
+        <v>40.93</v>
       </c>
       <c r="G22" s="7">
         <v>31.145</v>
@@ -1635,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1351080</v>
+        <v>1326132</v>
       </c>
       <c r="J22" s="7">
-        <v>341983.67</v>
+        <v>317035.67</v>
       </c>
       <c r="K22" s="7">
-        <v>61560</v>
+        <v>-24948</v>
       </c>
       <c r="L22" s="8">
-        <v>33.89</v>
+        <v>31.42</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="6">
         <v>300308</v>
@@ -1670,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>62.99</v>
+        <v>65.01</v>
       </c>
       <c r="G23" s="7">
         <v>58.147</v>
@@ -1679,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>346445</v>
+        <v>357555</v>
       </c>
       <c r="J23" s="7">
-        <v>26636.98</v>
+        <v>37746.98</v>
       </c>
       <c r="K23" s="7">
-        <v>6600</v>
+        <v>11110</v>
       </c>
       <c r="L23" s="8">
-        <v>8.33</v>
+        <v>11.8</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>26</v>
@@ -1699,10 +1702,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="6">
         <v>35420</v>
@@ -1714,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>29.9</v>
+        <v>30.65</v>
       </c>
       <c r="G24" s="7">
         <v>28.083</v>
@@ -1723,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1059058</v>
+        <v>1085623</v>
       </c>
       <c r="J24" s="7">
-        <v>64350.02</v>
+        <v>90915.02</v>
       </c>
       <c r="K24" s="7">
-        <v>-3896.2</v>
+        <v>26565</v>
       </c>
       <c r="L24" s="8">
-        <v>6.47</v>
+        <v>9.14</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>26</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6">
         <v>603378</v>
@@ -1758,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>42.28</v>
+        <v>43.3</v>
       </c>
       <c r="G25" s="7">
         <v>41.81</v>
@@ -1767,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1175384</v>
+        <v>1203740</v>
       </c>
       <c r="J25" s="7">
-        <v>13063.83</v>
+        <v>41419.83</v>
       </c>
       <c r="K25" s="7">
-        <v>-28356</v>
+        <v>28356</v>
       </c>
       <c r="L25" s="8">
-        <v>1.12</v>
+        <v>3.56</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>24</v>
@@ -1787,7 +1790,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6">
         <v>603666</v>
@@ -1802,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>91.9</v>
+        <v>91.12</v>
       </c>
       <c r="G26" s="7">
         <v>72.89</v>
@@ -1811,16 +1814,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>760932</v>
+        <v>754473.6</v>
       </c>
       <c r="J26" s="7">
-        <v>157404.18</v>
+        <v>150945.78</v>
       </c>
       <c r="K26" s="7">
-        <v>14904</v>
+        <v>-6458.4</v>
       </c>
       <c r="L26" s="8">
-        <v>26.08</v>
+        <v>25.01</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>24</v>
@@ -1830,52 +1833,52 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="10">
+      <c r="A27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6">
         <v>603596</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>73800</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>73800</v>
       </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <v>33.64</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="G27" s="7">
         <v>34.43</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>2482632</v>
-      </c>
-      <c r="J27" s="11">
-        <v>-58301.47</v>
-      </c>
-      <c r="K27" s="11">
-        <v>1476</v>
-      </c>
-      <c r="L27" s="9">
-        <v>-2.29</v>
-      </c>
-      <c r="M27" s="9" t="s">
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2546100</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5166.53</v>
+      </c>
+      <c r="K27" s="7">
+        <v>63468</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10">
         <v>300559</v>
@@ -1890,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>21.08</v>
+        <v>21.63</v>
       </c>
       <c r="G28" s="11">
         <v>22.013</v>
@@ -1899,16 +1902,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>872712</v>
+        <v>895482</v>
       </c>
       <c r="J28" s="11">
-        <v>-38629.64</v>
+        <v>-15859.64</v>
       </c>
       <c r="K28" s="11">
-        <v>-33534</v>
+        <v>22770</v>
       </c>
       <c r="L28" s="9">
-        <v>-4.24</v>
+        <v>-1.74</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>26</v>
@@ -1918,52 +1921,52 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="A29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6">
         <v>603416</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>24500</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>24500</v>
       </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>41.24</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>42.46</v>
+      </c>
+      <c r="G29" s="7">
         <v>41.569</v>
       </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>1010380</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-8066.88</v>
-      </c>
-      <c r="K29" s="11">
-        <v>5880</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-0.79</v>
-      </c>
-      <c r="M29" s="9" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1040270</v>
+      </c>
+      <c r="J29" s="7">
+        <v>21823.12</v>
+      </c>
+      <c r="K29" s="7">
+        <v>29890</v>
+      </c>
+      <c r="L29" s="8">
+        <v>2.14</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="6">
         <v>603707</v>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>61.6</v>
+        <v>59.91</v>
       </c>
       <c r="G30" s="7">
         <v>59.272</v>
@@ -1987,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>1515360</v>
+        <v>1473786</v>
       </c>
       <c r="J30" s="7">
-        <v>57263.8</v>
+        <v>15689.8</v>
       </c>
       <c r="K30" s="7">
-        <v>-22632</v>
+        <v>-41574</v>
       </c>
       <c r="L30" s="8">
-        <v>3.93</v>
+        <v>1.08</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>24</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="6">
         <v>300695</v>
@@ -2022,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>75.25</v>
+        <v>79.6</v>
       </c>
       <c r="G31" s="7">
         <v>66.731</v>
@@ -2031,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>451500</v>
+        <v>477600</v>
       </c>
       <c r="J31" s="7">
-        <v>51114.96</v>
+        <v>77214.96</v>
       </c>
       <c r="K31" s="7">
-        <v>-7020</v>
+        <v>26100</v>
       </c>
       <c r="L31" s="8">
-        <v>12.77</v>
+        <v>19.28</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>26</v>
@@ -2050,85 +2053,85 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="A32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6">
         <v>300699</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>900</v>
       </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="6">
         <v>900</v>
       </c>
-      <c r="F32" s="11">
-        <v>60.37</v>
-      </c>
-      <c r="G32" s="11">
-        <v>60.779</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>54333</v>
-      </c>
-      <c r="J32" s="11">
-        <v>-368</v>
-      </c>
-      <c r="K32" s="11">
-        <v>-368</v>
-      </c>
-      <c r="L32" s="9">
-        <v>-0.67</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>61.52</v>
+      </c>
+      <c r="G32" s="7">
+        <v>60.76</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>55368</v>
+      </c>
+      <c r="J32" s="7">
+        <v>683.8</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1035</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="6">
         <v>300735</v>
       </c>
       <c r="C33" s="6">
-        <v>54620</v>
+        <v>80</v>
       </c>
       <c r="D33" s="6">
-        <v>54620</v>
+        <v>80</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>20.85</v>
+        <v>21.35</v>
       </c>
       <c r="G33" s="7">
-        <v>18.291</v>
+        <v>-2013.285</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>1138827</v>
+        <v>1708</v>
       </c>
       <c r="J33" s="7">
-        <v>139785.73</v>
+        <v>162770.82</v>
       </c>
       <c r="K33" s="7">
-        <v>-7646.8</v>
+        <v>22985.09</v>
       </c>
       <c r="L33" s="8">
-        <v>13.99</v>
+        <v>0</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>26</v>
@@ -2139,40 +2142,40 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="6">
         <v>603960</v>
       </c>
       <c r="C34" s="6">
-        <v>17000</v>
+        <v>62</v>
       </c>
       <c r="D34" s="6">
-        <v>17000</v>
+        <v>62</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>31.88</v>
+        <v>34.94</v>
       </c>
       <c r="G34" s="7">
-        <v>23.214</v>
+        <v>-2395.949</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>541960</v>
+        <v>2166.28</v>
       </c>
       <c r="J34" s="7">
-        <v>147315.76</v>
+        <v>150715.09</v>
       </c>
       <c r="K34" s="7">
-        <v>12920</v>
+        <v>3399.33</v>
       </c>
       <c r="L34" s="8">
-        <v>37.33</v>
+        <v>0</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>24</v>
@@ -2183,7 +2186,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="6">
         <v>600850</v>
@@ -2198,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>24.92</v>
+        <v>25.88</v>
       </c>
       <c r="G35" s="7">
         <v>22.924</v>
@@ -2207,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>423640</v>
+        <v>439960</v>
       </c>
       <c r="J35" s="7">
-        <v>33936.68</v>
+        <v>50256.68</v>
       </c>
       <c r="K35" s="7">
-        <v>-5610</v>
+        <v>16320</v>
       </c>
       <c r="L35" s="8">
-        <v>8.71</v>
+        <v>12.89</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>24</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="6">
         <v>600475</v>
@@ -2242,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>12.22</v>
+        <v>12.83</v>
       </c>
       <c r="G36" s="7">
         <v>11.312</v>
@@ -2251,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>252954</v>
+        <v>265581</v>
       </c>
       <c r="J36" s="7">
-        <v>18791.19</v>
+        <v>31418.19</v>
       </c>
       <c r="K36" s="7">
-        <v>3726</v>
+        <v>12627</v>
       </c>
       <c r="L36" s="8">
-        <v>8.03</v>
+        <v>13.42</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>24</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="6">
         <v>511990</v>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>99.986</v>
+        <v>99.952</v>
       </c>
       <c r="G37" s="7">
         <v>-11749.026</v>
@@ -2295,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1399.8</v>
+        <v>1399.33</v>
       </c>
       <c r="J37" s="7">
-        <v>165886.17</v>
+        <v>165885.7</v>
       </c>
       <c r="K37" s="7">
-        <v>0.22</v>
+        <v>-0.47</v>
       </c>
       <c r="L37" s="8">
         <v>0</v>
@@ -2315,10 +2318,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C38" s="6">
         <v>38500</v>
@@ -2330,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="G38" s="7">
         <v>12.177</v>
@@ -2339,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>481250</v>
+        <v>496650</v>
       </c>
       <c r="J38" s="7">
-        <v>12417.68</v>
+        <v>27817.68</v>
       </c>
       <c r="K38" s="7">
-        <v>-5005</v>
+        <v>15400</v>
       </c>
       <c r="L38" s="8">
-        <v>2.65</v>
+        <v>5.94</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2359,10 +2362,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C39" s="6">
         <v>7500</v>
@@ -2374,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>64.43</v>
+        <v>63.98</v>
       </c>
       <c r="G39" s="7">
         <v>53.268</v>
@@ -2383,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>483225</v>
+        <v>479850</v>
       </c>
       <c r="J39" s="7">
-        <v>83718.56</v>
+        <v>80343.56</v>
       </c>
       <c r="K39" s="7">
-        <v>-2175</v>
+        <v>-3375</v>
       </c>
       <c r="L39" s="8">
-        <v>20.95</v>
+        <v>20.11</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>26</v>
@@ -2402,52 +2405,52 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="C40" s="10">
         <v>37200</v>
       </c>
-      <c r="D40" s="6">
-        <v>13200</v>
-      </c>
-      <c r="E40" s="6">
-        <v>24000</v>
-      </c>
-      <c r="F40" s="7">
-        <v>71.5</v>
-      </c>
-      <c r="G40" s="7">
-        <v>70.833</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>2659800</v>
-      </c>
-      <c r="J40" s="7">
-        <v>24827.14</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-58876.94</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="M40" s="8" t="s">
+      <c r="D40" s="10">
+        <v>37200</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>69.68</v>
+      </c>
+      <c r="G40" s="11">
+        <v>70.823</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2592096</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-42514.12</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-67704</v>
+      </c>
+      <c r="L40" s="9">
+        <v>-1.61</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="6">
         <v>603444</v>
@@ -2462,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>541.92</v>
+        <v>535.56</v>
       </c>
       <c r="G41" s="7">
         <v>409.247</v>
@@ -2471,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>541920</v>
+        <v>535560</v>
       </c>
       <c r="J41" s="7">
-        <v>132673.44</v>
+        <v>126313.44</v>
       </c>
       <c r="K41" s="7">
-        <v>920</v>
+        <v>-6360</v>
       </c>
       <c r="L41" s="8">
-        <v>32.42</v>
+        <v>30.86</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>24</v>
@@ -2491,10 +2494,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="C42" s="6">
         <v>15000</v>
@@ -2506,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>12.63</v>
+        <v>12.99</v>
       </c>
       <c r="G42" s="7">
         <v>12.392</v>
@@ -2515,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>189450</v>
+        <v>194850</v>
       </c>
       <c r="J42" s="7">
-        <v>3571.07</v>
+        <v>8971.07</v>
       </c>
       <c r="K42" s="7">
-        <v>-4800</v>
+        <v>5400</v>
       </c>
       <c r="L42" s="8">
-        <v>1.92</v>
+        <v>4.83</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2534,52 +2537,52 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="C43" s="10">
         <v>19100</v>
       </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43" s="10">
         <v>19100</v>
       </c>
-      <c r="F43" s="7">
-        <v>82.3</v>
-      </c>
-      <c r="G43" s="7">
-        <v>81.657</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1571930</v>
-      </c>
-      <c r="J43" s="7">
-        <v>12288.32</v>
-      </c>
-      <c r="K43" s="7">
-        <v>12288.32</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="M43" s="8" t="s">
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>80.79</v>
+      </c>
+      <c r="G43" s="11">
+        <v>81.632</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1543089</v>
+      </c>
+      <c r="J43" s="11">
+        <v>-16077.34</v>
+      </c>
+      <c r="K43" s="11">
+        <v>-28841</v>
+      </c>
+      <c r="L43" s="9">
+        <v>-1.03</v>
+      </c>
+      <c r="M43" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="6">
         <v>603826</v>
@@ -2594,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>33.2</v>
+        <v>32.16</v>
       </c>
       <c r="G44" s="7">
         <v>29.482</v>
@@ -2603,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>444880</v>
+        <v>430944</v>
       </c>
       <c r="J44" s="7">
-        <v>49826.77</v>
+        <v>35890.77</v>
       </c>
       <c r="K44" s="7">
-        <v>-3350</v>
+        <v>-13936</v>
       </c>
       <c r="L44" s="8">
-        <v>12.61</v>
+        <v>9.08</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>24</v>
@@ -2623,133 +2626,133 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="6">
+      <c r="C45" s="6">
+        <v>12100</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>12100</v>
+      </c>
+      <c r="F45" s="7">
+        <v>105.1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>103.923</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1271710</v>
+      </c>
+      <c r="J45" s="7">
+        <v>14245.79</v>
+      </c>
+      <c r="K45" s="7">
+        <v>14245.79</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1.13</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6">
         <v>603788</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C46" s="6">
         <v>26800</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>26800</v>
       </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>17.81</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>18.62</v>
+      </c>
+      <c r="G46" s="7">
         <v>14.895</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>477308</v>
-      </c>
-      <c r="J45" s="7">
-        <v>78125.21</v>
-      </c>
-      <c r="K45" s="7">
-        <v>-2144</v>
-      </c>
-      <c r="L45" s="8">
-        <v>19.57</v>
-      </c>
-      <c r="M45" s="8" t="s">
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>499016</v>
+      </c>
+      <c r="J46" s="7">
+        <v>99833.21</v>
+      </c>
+      <c r="K46" s="7">
+        <v>21708</v>
+      </c>
+      <c r="L46" s="8">
+        <v>25.01</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N46" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="10">
+    <row r="47" spans="1:14">
+      <c r="A47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="10">
         <v>603658</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C47" s="10">
         <v>1300</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>1300</v>
       </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>153.59</v>
-      </c>
-      <c r="G46" s="11">
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>154.72</v>
+      </c>
+      <c r="G47" s="11">
         <v>164.269</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>199667</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-13883.31</v>
-      </c>
-      <c r="K46" s="11">
-        <v>2652</v>
-      </c>
-      <c r="L46" s="9">
-        <v>-6.5</v>
-      </c>
-      <c r="M46" s="9" t="s">
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>201136</v>
+      </c>
+      <c r="J47" s="11">
+        <v>-12414.31</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1469</v>
+      </c>
+      <c r="L47" s="9">
+        <v>-5.81</v>
+      </c>
+      <c r="M47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N46" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="6">
-        <v>600298</v>
-      </c>
-      <c r="C47" s="6">
-        <v>37900</v>
-      </c>
-      <c r="D47" s="6">
-        <v>37900</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>47.71</v>
-      </c>
-      <c r="G47" s="7">
-        <v>45.669</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1808209</v>
-      </c>
-      <c r="J47" s="7">
-        <v>77360.47</v>
-      </c>
-      <c r="K47" s="7">
-        <v>-18571</v>
-      </c>
-      <c r="L47" s="8">
-        <v>4.47</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="8" t="s">
+      <c r="N47" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2757,176 +2760,176 @@
       <c r="A48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>86</v>
+      <c r="B48" s="6">
+        <v>600298</v>
       </c>
       <c r="C48" s="6">
-        <v>71200</v>
+        <v>37900</v>
       </c>
       <c r="D48" s="6">
-        <v>71200</v>
+        <v>37900</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>36.21</v>
+        <v>50.33</v>
       </c>
       <c r="G48" s="7">
-        <v>35.663</v>
+        <v>45.669</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>2578152</v>
+        <v>1907507</v>
       </c>
       <c r="J48" s="7">
-        <v>38913.01</v>
+        <v>176658.47</v>
       </c>
       <c r="K48" s="7">
-        <v>51264</v>
+        <v>99298</v>
       </c>
       <c r="L48" s="8">
-        <v>1.53</v>
+        <v>10.21</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="6">
-        <v>600845</v>
-      </c>
       <c r="C49" s="6">
-        <v>33900</v>
+        <v>71200</v>
       </c>
       <c r="D49" s="6">
-        <v>33900</v>
+        <v>71200</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>56.07</v>
+        <v>39.83</v>
       </c>
       <c r="G49" s="7">
-        <v>55.41</v>
+        <v>35.663</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1900773</v>
+        <v>2835896</v>
       </c>
       <c r="J49" s="7">
-        <v>22359.61</v>
+        <v>296657.01</v>
       </c>
       <c r="K49" s="7">
-        <v>-9492</v>
+        <v>257744</v>
       </c>
       <c r="L49" s="8">
-        <v>1.19</v>
+        <v>11.68</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>89</v>
+      <c r="B50" s="6">
+        <v>600845</v>
       </c>
       <c r="C50" s="6">
-        <v>50900</v>
+        <v>33900</v>
       </c>
       <c r="D50" s="6">
-        <v>50900</v>
+        <v>33900</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>7.32</v>
+        <v>57.8</v>
       </c>
       <c r="G50" s="7">
-        <v>7.252</v>
+        <v>55.41</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>372588</v>
+        <v>1959420</v>
       </c>
       <c r="J50" s="7">
-        <v>3437.8</v>
+        <v>81006.61</v>
       </c>
       <c r="K50" s="7">
-        <v>8144</v>
+        <v>58647</v>
       </c>
       <c r="L50" s="8">
-        <v>0.94</v>
+        <v>4.31</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="6">
-        <v>603730</v>
-      </c>
       <c r="C51" s="6">
-        <v>1600</v>
+        <v>50900</v>
       </c>
       <c r="D51" s="6">
-        <v>1600</v>
+        <v>50900</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>33.3</v>
+        <v>7.52</v>
       </c>
       <c r="G51" s="7">
-        <v>31.894</v>
+        <v>7.252</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>53280</v>
+        <v>382768</v>
       </c>
       <c r="J51" s="7">
-        <v>2249.34</v>
+        <v>13617.8</v>
       </c>
       <c r="K51" s="7">
-        <v>1728</v>
+        <v>10180</v>
       </c>
       <c r="L51" s="8">
-        <v>4.41</v>
+        <v>3.7</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2934,43 +2937,43 @@
         <v>91</v>
       </c>
       <c r="B52" s="6">
-        <v>300776</v>
+        <v>603730</v>
       </c>
       <c r="C52" s="6">
-        <v>15820</v>
+        <v>1600</v>
       </c>
       <c r="D52" s="6">
-        <v>15820</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>86.87</v>
+        <v>33.94</v>
       </c>
       <c r="G52" s="7">
-        <v>79.344</v>
+        <v>31.894</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1374283.4</v>
+        <v>54304</v>
       </c>
       <c r="J52" s="7">
-        <v>119059.88</v>
+        <v>3273.34</v>
       </c>
       <c r="K52" s="7">
-        <v>4271.4</v>
+        <v>1024</v>
       </c>
       <c r="L52" s="8">
-        <v>9.49</v>
+        <v>6.41</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2978,37 +2981,37 @@
         <v>92</v>
       </c>
       <c r="B53" s="6">
-        <v>300638</v>
+        <v>300776</v>
       </c>
       <c r="C53" s="6">
-        <v>44700</v>
+        <v>15820</v>
       </c>
       <c r="D53" s="6">
-        <v>44700</v>
+        <v>15820</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>58</v>
+        <v>89.35</v>
       </c>
       <c r="G53" s="7">
-        <v>57.031</v>
+        <v>79.344</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>2592600</v>
+        <v>1413517</v>
       </c>
       <c r="J53" s="7">
-        <v>43329.39</v>
+        <v>158293.48</v>
       </c>
       <c r="K53" s="7">
-        <v>-31737</v>
+        <v>39233.6</v>
       </c>
       <c r="L53" s="8">
-        <v>1.7</v>
+        <v>12.61</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3018,91 +3021,91 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="6">
+        <v>300638</v>
+      </c>
+      <c r="C54" s="6">
+        <v>48500</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44700</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="G54" s="7">
+        <v>57.213</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2895450</v>
+      </c>
+      <c r="J54" s="7">
+        <v>120631.45</v>
+      </c>
+      <c r="K54" s="7">
+        <v>77302.06</v>
+      </c>
+      <c r="L54" s="8">
+        <v>4.35</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="10">
         <v>600984</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C55" s="10">
         <v>126800</v>
       </c>
-      <c r="D54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D55" s="10">
         <v>126800</v>
       </c>
-      <c r="F54" s="11">
-        <v>22.2</v>
-      </c>
-      <c r="G54" s="11">
-        <v>23.026</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>2814960</v>
-      </c>
-      <c r="J54" s="11">
-        <v>-104690.49</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-104690.49</v>
-      </c>
-      <c r="L54" s="9">
-        <v>-3.59</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>22.96</v>
+      </c>
+      <c r="G55" s="11">
+        <v>23.025</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>2911328</v>
+      </c>
+      <c r="J55" s="11">
+        <v>-8191.01</v>
+      </c>
+      <c r="K55" s="11">
+        <v>96368</v>
+      </c>
+      <c r="L55" s="9">
+        <v>-0.28</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N55" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="6">
-        <v>300257</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>13.83</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
-        <v>181860.63</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-4431.73</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3122,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>29.15</v>
+        <v>30.36</v>
       </c>
       <c r="G56" s="7">
         <v>27.126</v>
@@ -3131,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>1041821</v>
+        <v>1085066.4</v>
       </c>
       <c r="J56" s="7">
-        <v>72335.87</v>
+        <v>115581.27</v>
       </c>
       <c r="K56" s="7">
-        <v>18227.4</v>
+        <v>43245.4</v>
       </c>
       <c r="L56" s="8">
-        <v>7.46</v>
+        <v>11.92</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>24</v>
@@ -3166,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>51.03</v>
+        <v>52.18</v>
       </c>
       <c r="G57" s="7">
         <v>48.397</v>
@@ -3175,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>1147970.88</v>
+        <v>1173841.28</v>
       </c>
       <c r="J57" s="7">
-        <v>59224.57</v>
+        <v>85094.97</v>
       </c>
       <c r="K57" s="7">
-        <v>13497.6</v>
+        <v>25870.4</v>
       </c>
       <c r="L57" s="8">
-        <v>5.44</v>
+        <v>7.82</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>24</v>
@@ -3210,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>68.95</v>
+        <v>70.5</v>
       </c>
       <c r="G58" s="7">
         <v>61.17</v>
@@ -3219,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>1172150</v>
+        <v>1198500</v>
       </c>
       <c r="J58" s="7">
-        <v>132261.06</v>
+        <v>158611.06</v>
       </c>
       <c r="K58" s="7">
-        <v>11900</v>
+        <v>26350</v>
       </c>
       <c r="L58" s="8">
-        <v>12.72</v>
+        <v>15.25</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3242,37 +3245,37 @@
         <v>99</v>
       </c>
       <c r="B59" s="6">
-        <v>601689</v>
+        <v>600486</v>
       </c>
       <c r="C59" s="6">
-        <v>92700</v>
+        <v>500</v>
       </c>
       <c r="D59" s="6">
-        <v>92700</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F59" s="7">
-        <v>28.3</v>
+        <v>81.77</v>
       </c>
       <c r="G59" s="7">
-        <v>27.38</v>
+        <v>80.514</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>2623410</v>
+        <v>40885</v>
       </c>
       <c r="J59" s="7">
-        <v>85256.47</v>
+        <v>628.15</v>
       </c>
       <c r="K59" s="7">
-        <v>110313</v>
+        <v>628.15</v>
       </c>
       <c r="L59" s="8">
-        <v>3.36</v>
+        <v>1.56</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>24</v>
@@ -3286,37 +3289,37 @@
         <v>100</v>
       </c>
       <c r="B60" s="6">
-        <v>603583</v>
+        <v>601689</v>
       </c>
       <c r="C60" s="6">
-        <v>22700</v>
+        <v>92700</v>
       </c>
       <c r="D60" s="6">
-        <v>22700</v>
+        <v>92700</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>69.15</v>
+        <v>28.93</v>
       </c>
       <c r="G60" s="7">
-        <v>66.104</v>
+        <v>27.38</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>1569705</v>
+        <v>2681811</v>
       </c>
       <c r="J60" s="7">
-        <v>69145.24</v>
+        <v>143657.47</v>
       </c>
       <c r="K60" s="7">
-        <v>4086</v>
+        <v>58401</v>
       </c>
       <c r="L60" s="8">
-        <v>4.61</v>
+        <v>5.66</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>24</v>
@@ -3326,47 +3329,47 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="10">
-        <v>300770</v>
-      </c>
-      <c r="C61" s="10">
-        <v>12600</v>
-      </c>
-      <c r="D61" s="10">
-        <v>12600</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>206.8</v>
-      </c>
-      <c r="G61" s="11">
-        <v>210.44</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>2605680</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-45858.65</v>
-      </c>
-      <c r="K61" s="11">
-        <v>3780</v>
-      </c>
-      <c r="L61" s="9">
-        <v>-1.73</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>25</v>
+      <c r="B61" s="6">
+        <v>603583</v>
+      </c>
+      <c r="C61" s="6">
+        <v>22700</v>
+      </c>
+      <c r="D61" s="6">
+        <v>22700</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>68.51</v>
+      </c>
+      <c r="G61" s="7">
+        <v>66.104</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1555177</v>
+      </c>
+      <c r="J61" s="7">
+        <v>54617.24</v>
+      </c>
+      <c r="K61" s="7">
+        <v>-14528</v>
+      </c>
+      <c r="L61" s="8">
+        <v>3.64</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3374,37 +3377,37 @@
         <v>102</v>
       </c>
       <c r="B62" s="10">
-        <v>300037</v>
+        <v>300770</v>
       </c>
       <c r="C62" s="10">
-        <v>46700</v>
+        <v>12600</v>
       </c>
       <c r="D62" s="10">
-        <v>46700</v>
+        <v>12600</v>
       </c>
       <c r="E62" s="10">
         <v>0</v>
       </c>
       <c r="F62" s="11">
-        <v>54.9</v>
+        <v>208.61</v>
       </c>
       <c r="G62" s="11">
-        <v>54.923</v>
+        <v>210.44</v>
       </c>
       <c r="H62" s="11">
         <v>0</v>
       </c>
       <c r="I62" s="11">
-        <v>2563830</v>
+        <v>2628486</v>
       </c>
       <c r="J62" s="11">
-        <v>-1053.14</v>
+        <v>-23052.65</v>
       </c>
       <c r="K62" s="11">
-        <v>14477</v>
+        <v>22806</v>
       </c>
       <c r="L62" s="9">
-        <v>-0.04</v>
+        <v>-0.87</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>26</v>
@@ -3417,38 +3420,38 @@
       <c r="A63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>104</v>
+      <c r="B63" s="6">
+        <v>300037</v>
       </c>
       <c r="C63" s="6">
-        <v>22300</v>
+        <v>46700</v>
       </c>
       <c r="D63" s="6">
-        <v>0</v>
+        <v>46700</v>
       </c>
       <c r="E63" s="6">
-        <v>22300</v>
+        <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>35</v>
+        <v>55.6</v>
       </c>
       <c r="G63" s="7">
-        <v>34.881</v>
+        <v>54.923</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>780500</v>
+        <v>2596520</v>
       </c>
       <c r="J63" s="7">
-        <v>2662.05</v>
+        <v>31636.86</v>
       </c>
       <c r="K63" s="7">
-        <v>2662.05</v>
+        <v>32690</v>
       </c>
       <c r="L63" s="8">
-        <v>0.34</v>
+        <v>1.23</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3458,85 +3461,85 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="6">
-        <v>25700</v>
-      </c>
-      <c r="D64" s="6">
-        <v>25700</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>54.3</v>
-      </c>
-      <c r="G64" s="7">
-        <v>53.899</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>1395510</v>
-      </c>
-      <c r="J64" s="7">
-        <v>10306.49</v>
-      </c>
-      <c r="K64" s="7">
-        <v>-4112</v>
-      </c>
-      <c r="L64" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="M64" s="8" t="s">
+      <c r="C64" s="10">
+        <v>22300</v>
+      </c>
+      <c r="D64" s="10">
+        <v>22300</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>34.02</v>
+      </c>
+      <c r="G64" s="11">
+        <v>34.872</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>758646</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-18992.63</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-21854</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-2.44</v>
+      </c>
+      <c r="M64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="8" t="s">
+      <c r="N64" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="6">
-        <v>300739</v>
-      </c>
       <c r="C65" s="6">
-        <v>49600</v>
+        <v>25700</v>
       </c>
       <c r="D65" s="6">
-        <v>49600</v>
+        <v>25700</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>20.56</v>
+        <v>54</v>
       </c>
       <c r="G65" s="7">
-        <v>20.25</v>
+        <v>53.899</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1019776</v>
+        <v>1387800</v>
       </c>
       <c r="J65" s="7">
-        <v>15397.39</v>
+        <v>2596.49</v>
       </c>
       <c r="K65" s="7">
-        <v>-13392</v>
+        <v>-7710</v>
       </c>
       <c r="L65" s="8">
-        <v>1.53</v>
+        <v>0.19</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>26</v>
@@ -3550,43 +3553,43 @@
         <v>108</v>
       </c>
       <c r="B66" s="6">
-        <v>601799</v>
+        <v>300739</v>
       </c>
       <c r="C66" s="6">
-        <v>3600</v>
+        <v>49600</v>
       </c>
       <c r="D66" s="6">
-        <v>3600</v>
+        <v>49600</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>124.3</v>
+        <v>21.49</v>
       </c>
       <c r="G66" s="7">
-        <v>111.804</v>
+        <v>20.25</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>447480</v>
+        <v>1065904</v>
       </c>
       <c r="J66" s="7">
-        <v>44983.92</v>
+        <v>61525.39</v>
       </c>
       <c r="K66" s="7">
-        <v>-108</v>
+        <v>46128</v>
       </c>
       <c r="L66" s="8">
-        <v>11.18</v>
+        <v>6.12</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3594,37 +3597,37 @@
         <v>109</v>
       </c>
       <c r="B67" s="6">
-        <v>603127</v>
+        <v>601799</v>
       </c>
       <c r="C67" s="6">
-        <v>12000</v>
+        <v>3600</v>
       </c>
       <c r="D67" s="6">
-        <v>12000</v>
+        <v>3600</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>98.45</v>
+        <v>126.31</v>
       </c>
       <c r="G67" s="7">
-        <v>89.398</v>
+        <v>111.804</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>1181400</v>
+        <v>454716</v>
       </c>
       <c r="J67" s="7">
-        <v>108624.34</v>
+        <v>52219.92</v>
       </c>
       <c r="K67" s="7">
-        <v>5400</v>
+        <v>7236</v>
       </c>
       <c r="L67" s="8">
-        <v>10.13</v>
+        <v>12.97</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>24</v>
@@ -3638,43 +3641,43 @@
         <v>110</v>
       </c>
       <c r="B68" s="6">
-        <v>300138</v>
+        <v>603127</v>
       </c>
       <c r="C68" s="6">
-        <v>35400</v>
+        <v>12000</v>
       </c>
       <c r="D68" s="6">
-        <v>35400</v>
+        <v>12000</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>11.07</v>
+        <v>95.33</v>
       </c>
       <c r="G68" s="7">
-        <v>11.069</v>
+        <v>89.398</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>391878</v>
+        <v>1143960</v>
       </c>
       <c r="J68" s="7">
-        <v>20.87</v>
+        <v>71184.34</v>
       </c>
       <c r="K68" s="7">
-        <v>-15576</v>
+        <v>-37440</v>
       </c>
       <c r="L68" s="8">
-        <v>0.01</v>
+        <v>6.64</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3682,37 +3685,37 @@
         <v>111</v>
       </c>
       <c r="B69" s="6">
-        <v>300630</v>
+        <v>300138</v>
       </c>
       <c r="C69" s="6">
-        <v>8121</v>
+        <v>35400</v>
       </c>
       <c r="D69" s="6">
-        <v>8121</v>
+        <v>35400</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>48.88</v>
+        <v>11.4</v>
       </c>
       <c r="G69" s="7">
-        <v>48.542</v>
+        <v>11.069</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>396954.48</v>
+        <v>403560</v>
       </c>
       <c r="J69" s="7">
-        <v>2742.4</v>
+        <v>11702.87</v>
       </c>
       <c r="K69" s="7">
-        <v>16250.12</v>
+        <v>11682</v>
       </c>
       <c r="L69" s="8">
-        <v>0.7</v>
+        <v>2.99</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3725,38 +3728,38 @@
       <c r="A70" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>113</v>
+      <c r="B70" s="6">
+        <v>300630</v>
       </c>
       <c r="C70" s="6">
-        <v>28080</v>
+        <v>21</v>
       </c>
       <c r="D70" s="6">
-        <v>28080</v>
+        <v>21</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>7.97</v>
+        <v>48.66</v>
       </c>
       <c r="G70" s="7">
-        <v>7.736</v>
+        <v>-388.272</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>223797.6</v>
+        <v>1021.86</v>
       </c>
       <c r="J70" s="7">
-        <v>6561.17</v>
+        <v>9175.58</v>
       </c>
       <c r="K70" s="7">
-        <v>1404</v>
+        <v>6433.18</v>
       </c>
       <c r="L70" s="8">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3766,47 +3769,47 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="10">
-        <v>603866</v>
-      </c>
-      <c r="C71" s="10">
-        <v>5100</v>
-      </c>
-      <c r="D71" s="10">
-        <v>5100</v>
-      </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>49.1</v>
-      </c>
-      <c r="G71" s="11">
-        <v>51.764</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>250410</v>
-      </c>
-      <c r="J71" s="11">
-        <v>-13585.78</v>
-      </c>
-      <c r="K71" s="11">
-        <v>-9333</v>
-      </c>
-      <c r="L71" s="9">
-        <v>-5.15</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>23</v>
+      <c r="C71" s="6">
+        <v>28080</v>
+      </c>
+      <c r="D71" s="6">
+        <v>28080</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>8.18</v>
+      </c>
+      <c r="G71" s="7">
+        <v>7.736</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>229694.4</v>
+      </c>
+      <c r="J71" s="7">
+        <v>12457.97</v>
+      </c>
+      <c r="K71" s="7">
+        <v>5896.8</v>
+      </c>
+      <c r="L71" s="8">
+        <v>5.74</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3814,131 +3817,131 @@
         <v>115</v>
       </c>
       <c r="B72" s="6">
+        <v>603866</v>
+      </c>
+      <c r="C72" s="6">
+        <v>57200</v>
+      </c>
+      <c r="D72" s="6">
+        <v>5100</v>
+      </c>
+      <c r="E72" s="6">
+        <v>52100</v>
+      </c>
+      <c r="F72" s="7">
+        <v>49.32</v>
+      </c>
+      <c r="G72" s="7">
+        <v>49.243</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>2821104</v>
+      </c>
+      <c r="J72" s="7">
+        <v>4408.18</v>
+      </c>
+      <c r="K72" s="7">
+        <v>17993.96</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="10">
         <v>300595</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C73" s="10">
         <v>12200</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="10">
         <v>12200</v>
       </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>66.99</v>
-      </c>
-      <c r="G72" s="7">
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>63.82</v>
+      </c>
+      <c r="G73" s="11">
         <v>64.742</v>
       </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>817278</v>
-      </c>
-      <c r="J72" s="7">
-        <v>27419.7</v>
-      </c>
-      <c r="K72" s="7">
-        <v>29646</v>
-      </c>
-      <c r="L72" s="8">
-        <v>3.47</v>
-      </c>
-      <c r="M72" s="8" t="s">
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>778604</v>
+      </c>
+      <c r="J73" s="11">
+        <v>-11254.3</v>
+      </c>
+      <c r="K73" s="11">
+        <v>-38674</v>
+      </c>
+      <c r="L73" s="9">
+        <v>-1.42</v>
+      </c>
+      <c r="M73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N72" s="8" t="s">
+      <c r="N73" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="6">
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="6">
         <v>300653</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C74" s="6">
         <v>23160</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>23160</v>
       </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>79.34</v>
-      </c>
-      <c r="G73" s="7">
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>74.68</v>
+      </c>
+      <c r="G74" s="7">
         <v>68.463</v>
       </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>1837514.4</v>
-      </c>
-      <c r="J73" s="7">
-        <v>251908.55</v>
-      </c>
-      <c r="K73" s="7">
-        <v>72722.4</v>
-      </c>
-      <c r="L73" s="8">
-        <v>15.89</v>
-      </c>
-      <c r="M73" s="8" t="s">
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1729588.8</v>
+      </c>
+      <c r="J74" s="7">
+        <v>143982.95</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-107925.6</v>
+      </c>
+      <c r="L74" s="8">
+        <v>9.08</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="N74" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="10">
-        <v>603208</v>
-      </c>
-      <c r="C74" s="10">
-        <v>0</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0</v>
-      </c>
-      <c r="E74" s="10">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <v>108.11</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0</v>
-      </c>
-      <c r="J74" s="11">
-        <v>-38358.74</v>
-      </c>
-      <c r="K74" s="11">
-        <v>-7360.86</v>
-      </c>
-      <c r="L74" s="9">
-        <v>0</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3949,34 +3952,34 @@
         <v>603338</v>
       </c>
       <c r="C75" s="10">
-        <v>19300</v>
+        <v>26100</v>
       </c>
       <c r="D75" s="10">
         <v>19300</v>
       </c>
       <c r="E75" s="10">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="F75" s="11">
-        <v>74.1</v>
+        <v>74.29</v>
       </c>
       <c r="G75" s="11">
-        <v>74.855</v>
+        <v>74.854</v>
       </c>
       <c r="H75" s="11">
         <v>0</v>
       </c>
       <c r="I75" s="11">
-        <v>1430130</v>
+        <v>1938969</v>
       </c>
       <c r="J75" s="11">
-        <v>-14573.75</v>
+        <v>-14723.37</v>
       </c>
       <c r="K75" s="11">
-        <v>6755</v>
+        <v>-149.62</v>
       </c>
       <c r="L75" s="9">
-        <v>-1.01</v>
+        <v>-0.75</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>24</v>
@@ -4002,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>16.65</v>
+        <v>17.2</v>
       </c>
       <c r="G76" s="7">
         <v>14.909</v>
@@ -4011,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>446220</v>
+        <v>460960</v>
       </c>
       <c r="J76" s="7">
-        <v>46656.08</v>
+        <v>61396.08</v>
       </c>
       <c r="K76" s="7">
-        <v>-6432</v>
+        <v>14740</v>
       </c>
       <c r="L76" s="8">
-        <v>11.68</v>
+        <v>15.37</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>24</v>
@@ -4034,37 +4037,37 @@
         <v>120</v>
       </c>
       <c r="B77" s="6">
-        <v>603718</v>
+        <v>603187</v>
       </c>
       <c r="C77" s="6">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="D77" s="6">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>21.22</v>
+        <v>37.81</v>
       </c>
       <c r="G77" s="7">
-        <v>0</v>
+        <v>36.788</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>0</v>
+        <v>1323350</v>
       </c>
       <c r="J77" s="7">
-        <v>35902.4</v>
+        <v>35769.52</v>
       </c>
       <c r="K77" s="7">
-        <v>21781.5</v>
+        <v>6300</v>
       </c>
       <c r="L77" s="8">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>24</v>
@@ -4077,82 +4080,82 @@
       <c r="A78" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="6">
-        <v>603187</v>
+      <c r="B78" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C78" s="6">
-        <v>35000</v>
+        <v>10800</v>
       </c>
       <c r="D78" s="6">
-        <v>35000</v>
+        <v>8300</v>
       </c>
       <c r="E78" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F78" s="7">
-        <v>37.63</v>
+        <v>175.98</v>
       </c>
       <c r="G78" s="7">
-        <v>36.788</v>
+        <v>156.749</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>1317050</v>
+        <v>1900584</v>
       </c>
       <c r="J78" s="7">
-        <v>29469.52</v>
+        <v>207694.58</v>
       </c>
       <c r="K78" s="7">
-        <v>-42700</v>
+        <v>74864.87</v>
       </c>
       <c r="L78" s="8">
-        <v>2.29</v>
+        <v>12.27</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" s="6">
-        <v>10800</v>
+        <v>72600</v>
       </c>
       <c r="D79" s="6">
-        <v>10800</v>
+        <v>72600</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>169.02</v>
+        <v>15</v>
       </c>
       <c r="G79" s="7">
-        <v>156.721</v>
+        <v>14.481</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>1825416</v>
+        <v>1089000</v>
       </c>
       <c r="J79" s="7">
-        <v>132829.71</v>
+        <v>37713.29</v>
       </c>
       <c r="K79" s="7">
-        <v>26028</v>
+        <v>31218</v>
       </c>
       <c r="L79" s="8">
-        <v>7.85</v>
+        <v>3.58</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4162,91 +4165,91 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="6">
-        <v>72600</v>
-      </c>
-      <c r="D80" s="6">
-        <v>72600</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>14.57</v>
-      </c>
-      <c r="G80" s="7">
-        <v>14.481</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>1057782</v>
-      </c>
-      <c r="J80" s="7">
-        <v>6495.29</v>
-      </c>
-      <c r="K80" s="7">
-        <v>2178</v>
-      </c>
-      <c r="L80" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="M80" s="8" t="s">
+      <c r="B80" s="10">
+        <v>300696</v>
+      </c>
+      <c r="C80" s="10">
+        <v>35900</v>
+      </c>
+      <c r="D80" s="10">
+        <v>35900</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>35.21</v>
+      </c>
+      <c r="G80" s="11">
+        <v>35.684</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>1264039</v>
+      </c>
+      <c r="J80" s="11">
+        <v>-17004.07</v>
+      </c>
+      <c r="K80" s="11">
+        <v>-14001</v>
+      </c>
+      <c r="L80" s="9">
+        <v>-1.33</v>
+      </c>
+      <c r="M80" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="8" t="s">
+      <c r="N80" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="10">
-        <v>300696</v>
-      </c>
-      <c r="C81" s="10">
-        <v>35900</v>
-      </c>
-      <c r="D81" s="10">
-        <v>35900</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>35.6</v>
-      </c>
-      <c r="G81" s="11">
-        <v>35.684</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>1278040</v>
-      </c>
-      <c r="J81" s="11">
-        <v>-3003.07</v>
-      </c>
-      <c r="K81" s="11">
-        <v>6462</v>
-      </c>
-      <c r="L81" s="9">
-        <v>-0.24</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>25</v>
+      <c r="B81" s="6">
+        <v>603605</v>
+      </c>
+      <c r="C81" s="6">
+        <v>4000</v>
+      </c>
+      <c r="D81" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>165.2</v>
+      </c>
+      <c r="G81" s="7">
+        <v>155.718</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>660800</v>
+      </c>
+      <c r="J81" s="7">
+        <v>37927.06</v>
+      </c>
+      <c r="K81" s="7">
+        <v>-27600</v>
+      </c>
+      <c r="L81" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4254,43 +4257,43 @@
         <v>127</v>
       </c>
       <c r="B82" s="6">
-        <v>603605</v>
+        <v>300119</v>
       </c>
       <c r="C82" s="6">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="D82" s="6">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>172.1</v>
+        <v>21.36</v>
       </c>
       <c r="G82" s="7">
-        <v>155.718</v>
+        <v>17.758</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>688400</v>
+        <v>363120</v>
       </c>
       <c r="J82" s="7">
-        <v>65527.06</v>
+        <v>61228.72</v>
       </c>
       <c r="K82" s="7">
-        <v>-13840</v>
+        <v>-4080</v>
       </c>
       <c r="L82" s="8">
-        <v>10.52</v>
+        <v>20.28</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4298,92 +4301,92 @@
         <v>128</v>
       </c>
       <c r="B83" s="6">
-        <v>300119</v>
+        <v>603181</v>
       </c>
       <c r="C83" s="6">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="D83" s="6">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>21.6</v>
+        <v>21.85</v>
       </c>
       <c r="G83" s="7">
-        <v>17.758</v>
+        <v>21.067</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>367200</v>
+        <v>218500</v>
       </c>
       <c r="J83" s="7">
-        <v>65308.72</v>
+        <v>7826.21</v>
       </c>
       <c r="K83" s="7">
-        <v>-4420</v>
+        <v>2100</v>
       </c>
       <c r="L83" s="8">
-        <v>21.64</v>
+        <v>3.72</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="6">
-        <v>603181</v>
+      <c r="B84" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C84" s="6">
-        <v>10000</v>
+        <v>6600</v>
       </c>
       <c r="D84" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E84" s="6">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="F84" s="7">
-        <v>21.64</v>
+        <v>96.36</v>
       </c>
       <c r="G84" s="7">
-        <v>21.067</v>
+        <v>94.126</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>216400</v>
+        <v>635976</v>
       </c>
       <c r="J84" s="7">
-        <v>5726.21</v>
+        <v>14747.31</v>
       </c>
       <c r="K84" s="7">
-        <v>-2200</v>
+        <v>14747.31</v>
       </c>
       <c r="L84" s="8">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B85" s="6">
         <v>603688</v>
@@ -4398,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>24.27</v>
+        <v>25.67</v>
       </c>
       <c r="G85" s="7">
         <v>21.88</v>
@@ -4407,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>1133409</v>
+        <v>1198789</v>
       </c>
       <c r="J85" s="7">
-        <v>111616.28</v>
+        <v>176996.28</v>
       </c>
       <c r="K85" s="7">
-        <v>-934</v>
+        <v>65380</v>
       </c>
       <c r="L85" s="8">
-        <v>10.92</v>
+        <v>17.32</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>24</v>
@@ -4427,7 +4430,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B86" s="6">
         <v>603609</v>
@@ -4442,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="7">
-        <v>15.47</v>
+        <v>15.84</v>
       </c>
       <c r="G86" s="7">
         <v>14.839</v>
@@ -4451,16 +4454,16 @@
         <v>0</v>
       </c>
       <c r="I86" s="7">
-        <v>1590316</v>
+        <v>1628352</v>
       </c>
       <c r="J86" s="7">
-        <v>64872.55</v>
+        <v>102908.55</v>
       </c>
       <c r="K86" s="7">
-        <v>7196</v>
+        <v>38036</v>
       </c>
       <c r="L86" s="8">
-        <v>4.25</v>
+        <v>6.75</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>24</v>
@@ -4471,16 +4474,16 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C87" s="13">
-        <v>2673000</v>
+        <v>2839000</v>
       </c>
       <c r="D87" s="13">
-        <v>2673000</v>
+        <v>2839000</v>
       </c>
       <c r="E87" s="13">
         <v>0</v>
@@ -4515,7 +4518,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B88" s="6">
         <v>603612</v>
@@ -4530,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>12.1</v>
+        <v>13.12</v>
       </c>
       <c r="G88" s="7">
         <v>12.042</v>
@@ -4539,16 +4542,16 @@
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>778030</v>
+        <v>843616</v>
       </c>
       <c r="J88" s="7">
-        <v>3711.81</v>
+        <v>69297.81</v>
       </c>
       <c r="K88" s="7">
-        <v>-3215</v>
+        <v>65586</v>
       </c>
       <c r="L88" s="8">
-        <v>0.48</v>
+        <v>8.95</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>24</v>
@@ -4559,10 +4562,10 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C89" s="6">
         <v>2200</v>
@@ -4574,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <v>44.8</v>
+        <v>46.62</v>
       </c>
       <c r="G89" s="7">
         <v>38.095</v>
@@ -4583,16 +4586,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>98560</v>
+        <v>102564</v>
       </c>
       <c r="J89" s="7">
-        <v>14751.43</v>
+        <v>18755.43</v>
       </c>
       <c r="K89" s="7">
-        <v>-770</v>
+        <v>4004</v>
       </c>
       <c r="L89" s="8">
-        <v>17.6</v>
+        <v>22.38</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>26</v>
@@ -4603,10 +4606,10 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C90" s="10">
         <v>48767</v>
@@ -4618,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="11">
-        <v>51.07</v>
+        <v>51.33</v>
       </c>
       <c r="G90" s="11">
         <v>52.099</v>
@@ -4627,16 +4630,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="11">
-        <v>2490530.69</v>
+        <v>2503210.11</v>
       </c>
       <c r="J90" s="11">
-        <v>-50203.05</v>
+        <v>-37523.63</v>
       </c>
       <c r="K90" s="11">
-        <v>26821.85</v>
+        <v>12679.42</v>
       </c>
       <c r="L90" s="9">
-        <v>-1.98</v>
+        <v>-1.48</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>26</v>
@@ -4647,7 +4650,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B91" s="10">
         <v>603538</v>
@@ -4662,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="11">
-        <v>49.96</v>
+        <v>49.07</v>
       </c>
       <c r="G91" s="11">
         <v>50.635</v>
@@ -4671,16 +4674,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="11">
-        <v>589528</v>
+        <v>579026</v>
       </c>
       <c r="J91" s="11">
-        <v>-7968.78</v>
+        <v>-18470.78</v>
       </c>
       <c r="K91" s="11">
-        <v>-3068</v>
+        <v>-10502</v>
       </c>
       <c r="L91" s="9">
-        <v>-1.33</v>
+        <v>-3.09</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>24</v>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" s="6">
         <v>603989</v>
@@ -4706,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <v>28.91</v>
+        <v>29.46</v>
       </c>
       <c r="G92" s="7">
         <v>27.281</v>
@@ -4715,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>416304</v>
+        <v>424224</v>
       </c>
       <c r="J92" s="7">
-        <v>23453.45</v>
+        <v>31373.45</v>
       </c>
       <c r="K92" s="7">
-        <v>-11376</v>
+        <v>7920</v>
       </c>
       <c r="L92" s="8">
-        <v>5.97</v>
+        <v>7.99</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>24</v>
@@ -4734,96 +4737,96 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B93" s="6">
+      <c r="A93" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="10">
         <v>300413</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="10">
         <v>45200</v>
       </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6">
+      <c r="D93" s="10">
         <v>45200</v>
       </c>
-      <c r="F93" s="7">
-        <v>61.6</v>
-      </c>
-      <c r="G93" s="7">
-        <v>61.161</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>2784320</v>
-      </c>
-      <c r="J93" s="7">
-        <v>19840.37</v>
-      </c>
-      <c r="K93" s="7">
-        <v>19840.37</v>
-      </c>
-      <c r="L93" s="8">
-        <v>0.72</v>
-      </c>
-      <c r="M93" s="8" t="s">
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>60.57</v>
+      </c>
+      <c r="G93" s="11">
+        <v>61.153</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>2737764</v>
+      </c>
+      <c r="J93" s="11">
+        <v>-26352.57</v>
+      </c>
+      <c r="K93" s="11">
+        <v>-46556</v>
+      </c>
+      <c r="L93" s="9">
+        <v>-0.95</v>
+      </c>
+      <c r="M93" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N93" s="8" t="s">
+      <c r="N93" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94" s="10">
+      <c r="A94" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="6">
         <v>603916</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="6">
         <v>17200</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="6">
         <v>17200</v>
       </c>
-      <c r="E94" s="10">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>26.54</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>27.56</v>
+      </c>
+      <c r="G94" s="7">
         <v>26.66</v>
       </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>456488</v>
-      </c>
-      <c r="J94" s="11">
-        <v>-2058.91</v>
-      </c>
-      <c r="K94" s="11">
-        <v>14448</v>
-      </c>
-      <c r="L94" s="9">
-        <v>-0.45</v>
-      </c>
-      <c r="M94" s="9" t="s">
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>474032</v>
+      </c>
+      <c r="J94" s="7">
+        <v>15485.09</v>
+      </c>
+      <c r="K94" s="7">
+        <v>17544</v>
+      </c>
+      <c r="L94" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="M94" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="9" t="s">
+      <c r="N94" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B95" s="6">
         <v>603355</v>
@@ -4838,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="7">
-        <v>24.85</v>
+        <v>25.61</v>
       </c>
       <c r="G95" s="7">
         <v>22.984</v>
@@ -4847,16 +4850,16 @@
         <v>0</v>
       </c>
       <c r="I95" s="7">
-        <v>238560</v>
+        <v>245856</v>
       </c>
       <c r="J95" s="7">
-        <v>17908.96</v>
+        <v>25204.96</v>
       </c>
       <c r="K95" s="7">
-        <v>-3840</v>
+        <v>7296</v>
       </c>
       <c r="L95" s="8">
-        <v>8.12</v>
+        <v>11.43</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>24</v>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B96" s="6">
         <v>300395</v>
@@ -4882,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <v>32.25</v>
+        <v>33.8</v>
       </c>
       <c r="G96" s="7">
         <v>23.739</v>
@@ -4891,16 +4894,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <v>535350</v>
+        <v>561080</v>
       </c>
       <c r="J96" s="7">
-        <v>141289.89</v>
+        <v>167019.89</v>
       </c>
       <c r="K96" s="7">
-        <v>-19754</v>
+        <v>25730</v>
       </c>
       <c r="L96" s="8">
-        <v>35.85</v>
+        <v>42.38</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>26</v>
@@ -4911,10 +4914,10 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C97" s="6">
         <v>1200</v>
@@ -4926,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>98.6</v>
+        <v>98.28</v>
       </c>
       <c r="G97" s="7">
         <v>97.621</v>
@@ -4935,16 +4938,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <v>118320</v>
+        <v>117936</v>
       </c>
       <c r="J97" s="7">
-        <v>1174.41</v>
+        <v>790.41</v>
       </c>
       <c r="K97" s="7">
-        <v>1512</v>
+        <v>-384</v>
       </c>
       <c r="L97" s="8">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>26</v>
@@ -4954,99 +4957,99 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="6">
+      <c r="A98" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="10">
         <v>300760</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="10">
         <v>8500</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="10">
         <v>8500</v>
       </c>
-      <c r="E98" s="6">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7">
-        <v>296.69</v>
-      </c>
-      <c r="G98" s="7">
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>291.37</v>
+      </c>
+      <c r="G98" s="11">
         <v>296.522</v>
       </c>
-      <c r="H98" s="7">
-        <v>0</v>
-      </c>
-      <c r="I98" s="7">
-        <v>2521865</v>
-      </c>
-      <c r="J98" s="7">
-        <v>1426.98</v>
-      </c>
-      <c r="K98" s="7">
-        <v>51935</v>
-      </c>
-      <c r="L98" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="M98" s="8" t="s">
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>2476645</v>
+      </c>
+      <c r="J98" s="11">
+        <v>-43793.02</v>
+      </c>
+      <c r="K98" s="11">
+        <v>-45220</v>
+      </c>
+      <c r="L98" s="9">
+        <v>-1.74</v>
+      </c>
+      <c r="M98" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N98" s="8" t="s">
+      <c r="N98" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C99" s="10">
+      <c r="B99" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="6">
         <v>84700</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="6">
         <v>84700</v>
       </c>
-      <c r="E99" s="10">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11">
-        <v>10.25</v>
-      </c>
-      <c r="G99" s="11">
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>10.59</v>
+      </c>
+      <c r="G99" s="7">
         <v>10.561</v>
       </c>
-      <c r="H99" s="11">
-        <v>0</v>
-      </c>
-      <c r="I99" s="11">
-        <v>868175</v>
-      </c>
-      <c r="J99" s="11">
-        <v>-26363.22</v>
-      </c>
-      <c r="K99" s="11">
-        <v>-3388</v>
-      </c>
-      <c r="L99" s="9">
-        <v>-2.94</v>
-      </c>
-      <c r="M99" s="9" t="s">
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>896973</v>
+      </c>
+      <c r="J99" s="7">
+        <v>2434.78</v>
+      </c>
+      <c r="K99" s="7">
+        <v>28798</v>
+      </c>
+      <c r="L99" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="M99" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="9" t="s">
+      <c r="N99" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C100" s="6">
         <v>17100</v>
@@ -5058,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="7">
-        <v>11.39</v>
+        <v>11.55</v>
       </c>
       <c r="G100" s="7">
         <v>10.757</v>
@@ -5067,16 +5070,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="7">
-        <v>194769</v>
+        <v>197505</v>
       </c>
       <c r="J100" s="7">
-        <v>10822.41</v>
+        <v>13558.41</v>
       </c>
       <c r="K100" s="7">
-        <v>1539</v>
+        <v>2736</v>
       </c>
       <c r="L100" s="8">
-        <v>5.88</v>
+        <v>7.37</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>26</v>
@@ -5087,37 +5090,37 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B101" s="6">
         <v>603429</v>
       </c>
       <c r="C101" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D101" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
       </c>
       <c r="F101" s="7">
-        <v>36.93</v>
+        <v>40.62</v>
       </c>
       <c r="G101" s="7">
-        <v>-1555.574</v>
+        <v>0</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
       </c>
       <c r="I101" s="7">
-        <v>2215.8</v>
+        <v>0</v>
       </c>
       <c r="J101" s="7">
-        <v>95550.23</v>
+        <v>95547.37</v>
       </c>
       <c r="K101" s="7">
-        <v>4245.57</v>
+        <v>-28.23</v>
       </c>
       <c r="L101" s="8">
         <v>0</v>
@@ -5131,40 +5134,40 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C102" s="6">
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="D102" s="6">
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
       </c>
       <c r="F102" s="7">
-        <v>56.23</v>
+        <v>56.78</v>
       </c>
       <c r="G102" s="7">
-        <v>55.795</v>
+        <v>0</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <v>1765622</v>
+        <v>0</v>
       </c>
       <c r="J102" s="7">
-        <v>13664.47</v>
+        <v>20088.23</v>
       </c>
       <c r="K102" s="7">
-        <v>22294</v>
+        <v>6423.76</v>
       </c>
       <c r="L102" s="8">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>26</v>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="160">
   <si>
     <t>资金</t>
   </si>
@@ -136,82 +136,100 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>七一二</t>
+    <t>DR捷昌驱</t>
+  </si>
+  <si>
+    <t>一汽解放</t>
+  </si>
+  <si>
+    <t>000800</t>
   </si>
   <si>
     <t>万孚生物</t>
   </si>
   <si>
+    <t>三泰控股</t>
+  </si>
+  <si>
+    <t>002312</t>
+  </si>
+  <si>
     <t>三维股份</t>
   </si>
   <si>
     <t>三诺生物</t>
   </si>
   <si>
+    <t>上海莱士</t>
+  </si>
+  <si>
+    <t>002252</t>
+  </si>
+  <si>
     <t>东宏股份</t>
   </si>
   <si>
+    <t>东方明珠</t>
+  </si>
+  <si>
     <t>东方集团</t>
   </si>
   <si>
-    <t>中公教育</t>
-  </si>
-  <si>
-    <t>002607</t>
+    <t>东阿阿胶</t>
+  </si>
+  <si>
+    <t>000423</t>
+  </si>
+  <si>
+    <t>中体产业</t>
+  </si>
+  <si>
+    <t>中华企业</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>中国出版</t>
+  </si>
+  <si>
+    <t>中国建筑</t>
   </si>
   <si>
     <t>中国汽研</t>
   </si>
   <si>
-    <t>中孚信息</t>
-  </si>
-  <si>
-    <t>中新赛克</t>
-  </si>
-  <si>
-    <t>002912</t>
+    <t>中国联通</t>
   </si>
   <si>
     <t>中旗股份</t>
   </si>
   <si>
-    <t>中际旭创</t>
-  </si>
-  <si>
-    <t>久远银海</t>
-  </si>
-  <si>
-    <t>002777</t>
+    <t>九阳股份</t>
+  </si>
+  <si>
+    <t>002242</t>
   </si>
   <si>
     <t>亚士创能</t>
   </si>
   <si>
-    <t>亿嘉和</t>
-  </si>
-  <si>
-    <t>伯特利</t>
-  </si>
-  <si>
-    <t>佳发教育</t>
-  </si>
-  <si>
-    <t>信捷电气</t>
-  </si>
-  <si>
     <t>健友股份</t>
   </si>
   <si>
     <t>兆丰股份</t>
   </si>
   <si>
-    <t>光威复材</t>
-  </si>
-  <si>
-    <t>光弘科技</t>
-  </si>
-  <si>
-    <t>克来机电</t>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>002027</t>
+  </si>
+  <si>
+    <t>利亚德</t>
+  </si>
+  <si>
+    <t>包钢股份</t>
   </si>
   <si>
     <t>华东电脑</t>
@@ -223,10 +241,22 @@
     <t>华宝添益</t>
   </si>
   <si>
-    <t>博实股份</t>
-  </si>
-  <si>
-    <t>002698</t>
+    <t>华联股份</t>
+  </si>
+  <si>
+    <t>000882</t>
+  </si>
+  <si>
+    <t>华谊兄弟</t>
+  </si>
+  <si>
+    <t>华锦股份</t>
+  </si>
+  <si>
+    <t>000059</t>
+  </si>
+  <si>
+    <t>南山铝业</t>
   </si>
   <si>
     <t>卫光生物</t>
@@ -241,7 +271,10 @@
     <t>000403</t>
   </si>
   <si>
-    <t>吉比特</t>
+    <t>和邦生物</t>
+  </si>
+  <si>
+    <t>四川路桥</t>
   </si>
   <si>
     <t>国光股份</t>
@@ -265,22 +298,10 @@
     <t>002901</t>
   </si>
   <si>
-    <t>宁波高发</t>
-  </si>
-  <si>
-    <t>安图生物</t>
-  </si>
-  <si>
-    <t>安琪酵母</t>
-  </si>
-  <si>
-    <t>宏大爆破</t>
-  </si>
-  <si>
-    <t>002683</t>
-  </si>
-  <si>
-    <t>宝信软件</t>
+    <t>太安堂</t>
+  </si>
+  <si>
+    <t>002433</t>
   </si>
   <si>
     <t>富安娜</t>
@@ -289,43 +310,37 @@
     <t>002327</t>
   </si>
   <si>
-    <t>岱美股份</t>
-  </si>
-  <si>
     <t>帝尔激光</t>
   </si>
   <si>
+    <t>常山药业</t>
+  </si>
+  <si>
     <t>广和通</t>
   </si>
   <si>
     <t>建设机械</t>
   </si>
   <si>
+    <t>徐工机械</t>
+  </si>
+  <si>
+    <t>000425</t>
+  </si>
+  <si>
     <t>快克股份</t>
   </si>
   <si>
-    <t>恒立液压</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>002812</t>
+    <t>悦达投资</t>
   </si>
   <si>
     <t>扬农化工</t>
   </si>
   <si>
-    <t>拓普集团</t>
-  </si>
-  <si>
-    <t>捷昌驱动</t>
-  </si>
-  <si>
-    <t>新媒股份</t>
-  </si>
-  <si>
-    <t>新宙邦</t>
+    <t>新北洋</t>
+  </si>
+  <si>
+    <t>002376</t>
   </si>
   <si>
     <t>新宝股份</t>
@@ -340,9 +355,6 @@
     <t>002940</t>
   </si>
   <si>
-    <t>明阳电路</t>
-  </si>
-  <si>
     <t>星宇股份</t>
   </si>
   <si>
@@ -352,46 +364,37 @@
     <t>晨光生物</t>
   </si>
   <si>
-    <t>普利制药</t>
-  </si>
-  <si>
     <t>杭锅股份</t>
   </si>
   <si>
     <t>002534</t>
   </si>
   <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
     <t>桃李面包</t>
   </si>
   <si>
+    <t>梅花生物</t>
+  </si>
+  <si>
     <t>欧普康视</t>
   </si>
   <si>
+    <t>欧比特</t>
+  </si>
+  <si>
     <t>正海生物</t>
   </si>
   <si>
-    <t>浙江鼎力</t>
-  </si>
-  <si>
-    <t>浦东金桥</t>
-  </si>
-  <si>
-    <t>海容冷链</t>
-  </si>
-  <si>
-    <t>深南电路</t>
-  </si>
-  <si>
-    <t>002916</t>
-  </si>
-  <si>
-    <t>深圳华强</t>
-  </si>
-  <si>
-    <t>000062</t>
-  </si>
-  <si>
-    <t>爱乐达</t>
+    <t>洲明科技</t>
+  </si>
+  <si>
+    <t>海航控股</t>
   </si>
   <si>
     <t>珀莱雅</t>
@@ -403,18 +406,18 @@
     <t>皇马科技</t>
   </si>
   <si>
-    <t>盐津铺子</t>
-  </si>
-  <si>
-    <t>002847</t>
-  </si>
-  <si>
     <t>石英股份</t>
   </si>
   <si>
     <t>禾丰牧业</t>
   </si>
   <si>
+    <t>科伦药业</t>
+  </si>
+  <si>
+    <t>002422</t>
+  </si>
+  <si>
     <t>科创额度</t>
   </si>
   <si>
@@ -424,64 +427,73 @@
     <t>索通发展</t>
   </si>
   <si>
-    <t>紫光股份</t>
-  </si>
-  <si>
-    <t>000938</t>
-  </si>
-  <si>
     <t>美亚光电</t>
   </si>
   <si>
     <t>002690</t>
   </si>
   <si>
+    <t>美凯龙</t>
+  </si>
+  <si>
     <t>美诺华</t>
   </si>
   <si>
-    <t>艾华集团</t>
-  </si>
-  <si>
-    <t>芒果超媒</t>
-  </si>
-  <si>
-    <t>苏博特</t>
+    <t>胜宏科技</t>
+  </si>
+  <si>
+    <t>航天机电</t>
+  </si>
+  <si>
+    <t>苏宁易购</t>
+  </si>
+  <si>
+    <t>002024</t>
   </si>
   <si>
     <t>莱克电气</t>
   </si>
   <si>
-    <t>菲利华</t>
-  </si>
-  <si>
-    <t>视源股份</t>
-  </si>
-  <si>
-    <t>002841</t>
-  </si>
-  <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
+    <t>酒钢宏兴</t>
+  </si>
+  <si>
     <t>金圆股份</t>
   </si>
   <si>
     <t>000546</t>
   </si>
   <si>
+    <t>金运激光</t>
+  </si>
+  <si>
+    <t>金隅集团</t>
+  </si>
+  <si>
+    <t>金龙汽车</t>
+  </si>
+  <si>
     <t>长青集团</t>
   </si>
   <si>
     <t>002616</t>
   </si>
   <si>
-    <t>集友股份</t>
-  </si>
-  <si>
-    <t>顺丰控股</t>
-  </si>
-  <si>
-    <t>002352</t>
+    <t>阳 光 城</t>
+  </si>
+  <si>
+    <t>000671</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>000830</t>
+  </si>
+  <si>
+    <t>鹏欣资源</t>
   </si>
 </sst>
 </file>
@@ -953,28 +965,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>9815251.03</v>
+        <v>2501228.95</v>
       </c>
       <c r="D3" s="3">
-        <v>9700710.58</v>
+        <v>4745793.41</v>
       </c>
       <c r="E3" s="3">
-        <v>9700710.58</v>
+        <v>2501228.95</v>
       </c>
       <c r="F3" s="3">
-        <v>114540.45</v>
+        <v>-2244564.46</v>
       </c>
       <c r="G3" s="3">
-        <v>93217692.03</v>
+        <v>95197927.5</v>
       </c>
       <c r="H3" s="3">
-        <v>102918402.61</v>
+        <v>99943720.91</v>
       </c>
       <c r="I3" s="3">
-        <v>4945542.57</v>
+        <v>5446916.85</v>
       </c>
       <c r="J3" s="3">
-        <v>1266614.48</v>
+        <v>-106366.56</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1081,10 +1093,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>2839000</v>
+        <v>3535000</v>
       </c>
       <c r="C8" s="3">
-        <v>2839000</v>
+        <v>3535000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1098,7 +1110,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>3640500</v>
+        <v>4430000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1177,37 +1189,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>603712</v>
+        <v>603583</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>9080</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>9080</v>
       </c>
       <c r="F12" s="7">
-        <v>40.06</v>
+        <v>54.61</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>25.22</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>495858.8</v>
       </c>
       <c r="J12" s="7">
-        <v>190105.73</v>
+        <v>266857.72</v>
       </c>
       <c r="K12" s="7">
-        <v>-12548.55</v>
+        <v>94418.4</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>116.53</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1217,129 +1229,129 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6">
-        <v>300482</v>
-      </c>
-      <c r="C13" s="6">
-        <v>11800</v>
-      </c>
-      <c r="D13" s="6">
-        <v>11800</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>99.3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>93.41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1171740</v>
-      </c>
-      <c r="J13" s="7">
-        <v>69501.68</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-36580</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6.31</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10">
+        <v>125900</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>125900</v>
+      </c>
+      <c r="F13" s="11">
+        <v>13.14</v>
+      </c>
+      <c r="G13" s="11">
+        <v>13.145</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1654326</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-584.3</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-584.3</v>
+      </c>
+      <c r="L13" s="9">
+        <v>-0.04</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
-        <v>603033</v>
+        <v>300482</v>
       </c>
       <c r="C14" s="6">
-        <v>17600</v>
+        <v>11800</v>
       </c>
       <c r="D14" s="6">
-        <v>17600</v>
+        <v>11800</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>22.49</v>
+        <v>103.36</v>
       </c>
       <c r="G14" s="7">
-        <v>22.227</v>
+        <v>93.41</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>395824</v>
+        <v>1219648</v>
       </c>
       <c r="J14" s="7">
-        <v>4632.52</v>
+        <v>117409.68</v>
       </c>
       <c r="K14" s="7">
-        <v>11440</v>
+        <v>46138</v>
       </c>
       <c r="L14" s="8">
-        <v>1.18</v>
+        <v>10.65</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="6">
-        <v>300298</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="6">
-        <v>35500</v>
+        <v>190850</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>190850</v>
       </c>
       <c r="E15" s="6">
-        <v>35500</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>31.81</v>
+        <v>5.37</v>
       </c>
       <c r="G15" s="7">
-        <v>31.78</v>
+        <v>5.088</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>1129255</v>
+        <v>1024864.5</v>
       </c>
       <c r="J15" s="7">
-        <v>1069.55</v>
+        <v>53891.38</v>
       </c>
       <c r="K15" s="7">
-        <v>1069.55</v>
+        <v>-41987</v>
       </c>
       <c r="L15" s="8">
-        <v>0.09</v>
+        <v>5.54</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1350,40 +1362,40 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6">
-        <v>603856</v>
+        <v>603033</v>
       </c>
       <c r="C16" s="6">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>15.23</v>
+        <v>24.09</v>
       </c>
       <c r="G16" s="7">
-        <v>14.209</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>295462</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>19810.08</v>
+        <v>21453.72</v>
       </c>
       <c r="K16" s="7">
-        <v>5432</v>
+        <v>8693.56</v>
       </c>
       <c r="L16" s="8">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1394,84 +1406,84 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6">
-        <v>600811</v>
+        <v>300298</v>
       </c>
       <c r="C17" s="6">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>55700</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>5</v>
+        <v>35.91</v>
       </c>
       <c r="G17" s="7">
-        <v>4.431</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>278500</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>31707.07</v>
+        <v>134978.61</v>
       </c>
       <c r="K17" s="7">
-        <v>11140</v>
+        <v>40270.64</v>
       </c>
       <c r="L17" s="8">
-        <v>12.84</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6">
-        <v>37429</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>37429</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>27.53</v>
+        <v>10.14</v>
       </c>
       <c r="G18" s="7">
-        <v>27.24</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1030420.37</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>10851.53</v>
+        <v>359088.98</v>
       </c>
       <c r="K18" s="7">
-        <v>-4491.48</v>
+        <v>58703.08</v>
       </c>
       <c r="L18" s="8">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>26</v>
@@ -1482,40 +1494,40 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6">
-        <v>601965</v>
+        <v>603856</v>
       </c>
       <c r="C19" s="6">
-        <v>35800</v>
+        <v>19400</v>
       </c>
       <c r="D19" s="6">
-        <v>35800</v>
+        <v>19400</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>9.7</v>
+        <v>15.87</v>
       </c>
       <c r="G19" s="7">
-        <v>9.589</v>
+        <v>14.209</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>347260</v>
+        <v>307878</v>
       </c>
       <c r="J19" s="7">
-        <v>3983.13</v>
+        <v>32226.08</v>
       </c>
       <c r="K19" s="7">
-        <v>17184</v>
+        <v>10088</v>
       </c>
       <c r="L19" s="8">
-        <v>1.16</v>
+        <v>11.69</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
@@ -1526,304 +1538,304 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6">
-        <v>300659</v>
+        <v>600637</v>
       </c>
       <c r="C20" s="6">
-        <v>48200</v>
+        <v>93600</v>
       </c>
       <c r="D20" s="6">
-        <v>41200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
-        <v>7000</v>
+        <v>93600</v>
       </c>
       <c r="F20" s="7">
-        <v>59.63</v>
+        <v>10.83</v>
       </c>
       <c r="G20" s="7">
-        <v>57.374</v>
+        <v>10.755</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2874166</v>
+        <v>1013688</v>
       </c>
       <c r="J20" s="7">
-        <v>108756.26</v>
+        <v>7011.46</v>
       </c>
       <c r="K20" s="7">
-        <v>61094.76</v>
+        <v>7011.46</v>
       </c>
       <c r="L20" s="8">
-        <v>3.93</v>
+        <v>0.7</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B21" s="6">
+        <v>600811</v>
       </c>
       <c r="C21" s="6">
-        <v>25760</v>
+        <v>55700</v>
       </c>
       <c r="D21" s="6">
-        <v>25760</v>
+        <v>55700</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>100.36</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7">
-        <v>97.05</v>
+        <v>4.431</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>2585273.6</v>
+        <v>278500</v>
       </c>
       <c r="J21" s="7">
-        <v>85262.67</v>
+        <v>31707.07</v>
       </c>
       <c r="K21" s="7">
-        <v>88614.4</v>
+        <v>-3342</v>
       </c>
       <c r="L21" s="8">
-        <v>3.41</v>
+        <v>12.84</v>
       </c>
       <c r="M21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10">
+        <v>80200</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>80200</v>
+      </c>
+      <c r="F22" s="11">
+        <v>36.05</v>
+      </c>
+      <c r="G22" s="11">
+        <v>36.979</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2891210</v>
+      </c>
+      <c r="J22" s="11">
+        <v>-74516.48</v>
+      </c>
+      <c r="K22" s="11">
+        <v>-74516.48</v>
+      </c>
+      <c r="L22" s="9">
+        <v>-2.51</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6">
-        <v>300575</v>
-      </c>
-      <c r="C22" s="6">
-        <v>32400</v>
-      </c>
-      <c r="D22" s="6">
-        <v>32400</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>40.93</v>
-      </c>
-      <c r="G22" s="7">
-        <v>31.145</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1326132</v>
-      </c>
-      <c r="J22" s="7">
-        <v>317035.67</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-24948</v>
-      </c>
-      <c r="L22" s="8">
-        <v>31.42</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6">
-        <v>300308</v>
-      </c>
-      <c r="C23" s="6">
-        <v>5500</v>
-      </c>
-      <c r="D23" s="6">
-        <v>5500</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>65.01</v>
-      </c>
-      <c r="G23" s="7">
-        <v>58.147</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>357555</v>
-      </c>
-      <c r="J23" s="7">
-        <v>37746.98</v>
-      </c>
-      <c r="K23" s="7">
-        <v>11110</v>
-      </c>
-      <c r="L23" s="8">
-        <v>11.8</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>25</v>
+      <c r="A23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="10">
+        <v>600158</v>
+      </c>
+      <c r="C23" s="10">
+        <v>77000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>77000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>9.2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>9.302</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>708400</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-7845.66</v>
+      </c>
+      <c r="K23" s="11">
+        <v>-7845.66</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-1.1</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B24" s="6">
+        <v>600675</v>
       </c>
       <c r="C24" s="6">
-        <v>35420</v>
+        <v>356960</v>
       </c>
       <c r="D24" s="6">
-        <v>35420</v>
+        <v>356960</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>30.65</v>
+        <v>4.78</v>
       </c>
       <c r="G24" s="7">
-        <v>28.083</v>
+        <v>4.449</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1085623</v>
+        <v>1706268.8</v>
       </c>
       <c r="J24" s="7">
-        <v>90915.02</v>
+        <v>118323.6</v>
       </c>
       <c r="K24" s="7">
-        <v>26565</v>
+        <v>42835.2</v>
       </c>
       <c r="L24" s="8">
-        <v>9.14</v>
+        <v>7.44</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="6">
-        <v>603378</v>
-      </c>
-      <c r="C25" s="6">
-        <v>27800</v>
-      </c>
-      <c r="D25" s="6">
-        <v>27800</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>43.3</v>
-      </c>
-      <c r="G25" s="7">
-        <v>41.81</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1203740</v>
-      </c>
-      <c r="J25" s="7">
-        <v>41419.83</v>
-      </c>
-      <c r="K25" s="7">
-        <v>28356</v>
-      </c>
-      <c r="L25" s="8">
-        <v>3.56</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="10">
+        <v>601766</v>
+      </c>
+      <c r="C25" s="10">
+        <v>119400</v>
+      </c>
+      <c r="D25" s="10">
+        <v>119400</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>6.18</v>
+      </c>
+      <c r="G25" s="11">
+        <v>6.319</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>737892</v>
+      </c>
+      <c r="J25" s="11">
+        <v>-16539.24</v>
+      </c>
+      <c r="K25" s="11">
+        <v>-20298</v>
+      </c>
+      <c r="L25" s="9">
+        <v>-2.2</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6">
-        <v>603666</v>
+        <v>601949</v>
       </c>
       <c r="C26" s="6">
-        <v>8280</v>
+        <v>230500</v>
       </c>
       <c r="D26" s="6">
-        <v>8280</v>
+        <v>230500</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>91.12</v>
+        <v>5.89</v>
       </c>
       <c r="G26" s="7">
-        <v>72.89</v>
+        <v>5.716</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>754473.6</v>
+        <v>1357645</v>
       </c>
       <c r="J26" s="7">
-        <v>150945.78</v>
+        <v>40157.08</v>
       </c>
       <c r="K26" s="7">
-        <v>-6458.4</v>
+        <v>-13830</v>
       </c>
       <c r="L26" s="8">
-        <v>25.01</v>
+        <v>3.04</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>24</v>
@@ -1833,481 +1845,481 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6">
-        <v>603596</v>
-      </c>
-      <c r="C27" s="6">
-        <v>73800</v>
-      </c>
-      <c r="D27" s="6">
-        <v>73800</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>34.5</v>
-      </c>
-      <c r="G27" s="7">
-        <v>34.43</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>2546100</v>
-      </c>
-      <c r="J27" s="7">
-        <v>5166.53</v>
-      </c>
-      <c r="K27" s="7">
-        <v>63468</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="10">
+        <v>601668</v>
+      </c>
+      <c r="C27" s="10">
+        <v>17400</v>
+      </c>
+      <c r="D27" s="10">
+        <v>17400</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>5.27</v>
+      </c>
+      <c r="G27" s="11">
+        <v>5.521</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>91698</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-4366.33</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-3654</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-4.55</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10">
-        <v>300559</v>
-      </c>
-      <c r="C28" s="10">
-        <v>41400</v>
-      </c>
-      <c r="D28" s="10">
-        <v>41400</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>21.63</v>
-      </c>
-      <c r="G28" s="11">
-        <v>22.013</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>895482</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-15859.64</v>
-      </c>
-      <c r="K28" s="11">
-        <v>22770</v>
-      </c>
-      <c r="L28" s="9">
-        <v>-1.74</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>25</v>
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6">
+        <v>601965</v>
+      </c>
+      <c r="C28" s="6">
+        <v>35800</v>
+      </c>
+      <c r="D28" s="6">
+        <v>35800</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>9.589</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>365160</v>
+      </c>
+      <c r="J28" s="7">
+        <v>21883.13</v>
+      </c>
+      <c r="K28" s="7">
+        <v>2506</v>
+      </c>
+      <c r="L28" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="6">
-        <v>603416</v>
-      </c>
-      <c r="C29" s="6">
-        <v>24500</v>
-      </c>
-      <c r="D29" s="6">
-        <v>24500</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>42.46</v>
-      </c>
-      <c r="G29" s="7">
-        <v>41.569</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1040270</v>
-      </c>
-      <c r="J29" s="7">
-        <v>21823.12</v>
-      </c>
-      <c r="K29" s="7">
-        <v>29890</v>
-      </c>
-      <c r="L29" s="8">
-        <v>2.14</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="10">
+        <v>600050</v>
+      </c>
+      <c r="C29" s="10">
+        <v>502800</v>
+      </c>
+      <c r="D29" s="10">
+        <v>502800</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="G29" s="11">
+        <v>5.393</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2609532</v>
+      </c>
+      <c r="J29" s="11">
+        <v>-101943.9</v>
+      </c>
+      <c r="K29" s="11">
+        <v>-85476</v>
+      </c>
+      <c r="L29" s="9">
+        <v>-3.76</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6">
-        <v>603707</v>
+        <v>300575</v>
       </c>
       <c r="C30" s="6">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>59.91</v>
+        <v>44.82</v>
       </c>
       <c r="G30" s="7">
-        <v>59.272</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>1473786</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
-        <v>15689.8</v>
+        <v>394919.59</v>
       </c>
       <c r="K30" s="7">
-        <v>-41574</v>
+        <v>3880.85</v>
       </c>
       <c r="L30" s="8">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="6">
-        <v>300695</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6000</v>
-      </c>
-      <c r="D31" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>79.6</v>
-      </c>
-      <c r="G31" s="7">
-        <v>66.731</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>477600</v>
-      </c>
-      <c r="J31" s="7">
-        <v>77214.96</v>
-      </c>
-      <c r="K31" s="7">
-        <v>26100</v>
-      </c>
-      <c r="L31" s="8">
-        <v>19.28</v>
-      </c>
-      <c r="M31" s="8" t="s">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>35.3</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>-2157.16</v>
+      </c>
+      <c r="K31" s="11">
+        <v>-26915</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" s="6">
-        <v>300699</v>
+        <v>603378</v>
       </c>
       <c r="C32" s="6">
-        <v>900</v>
+        <v>9700</v>
       </c>
       <c r="D32" s="6">
-        <v>900</v>
+        <v>9700</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>61.52</v>
+        <v>48.7</v>
       </c>
       <c r="G32" s="7">
-        <v>60.76</v>
+        <v>35.642</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>55368</v>
+        <v>472390</v>
       </c>
       <c r="J32" s="7">
-        <v>683.8</v>
+        <v>126662.07</v>
       </c>
       <c r="K32" s="7">
-        <v>1035</v>
+        <v>30167</v>
       </c>
       <c r="L32" s="8">
-        <v>1.25</v>
+        <v>36.64</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="6">
-        <v>300735</v>
+        <v>603707</v>
       </c>
       <c r="C33" s="6">
-        <v>80</v>
+        <v>24600</v>
       </c>
       <c r="D33" s="6">
-        <v>80</v>
+        <v>24600</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>21.35</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7">
-        <v>-2013.285</v>
+        <v>59.272</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>1708</v>
+        <v>1476000</v>
       </c>
       <c r="J33" s="7">
-        <v>162770.82</v>
+        <v>17903.8</v>
       </c>
       <c r="K33" s="7">
-        <v>22985.09</v>
+        <v>-17466</v>
       </c>
       <c r="L33" s="8">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="6">
-        <v>603960</v>
+        <v>300695</v>
       </c>
       <c r="C34" s="6">
-        <v>62</v>
+        <v>6000</v>
       </c>
       <c r="D34" s="6">
-        <v>62</v>
+        <v>6000</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>34.94</v>
+        <v>75.1</v>
       </c>
       <c r="G34" s="7">
-        <v>-2395.949</v>
+        <v>63.731</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>2166.28</v>
+        <v>450600</v>
       </c>
       <c r="J34" s="7">
-        <v>150715.09</v>
+        <v>68214.96</v>
       </c>
       <c r="K34" s="7">
-        <v>3399.33</v>
+        <v>-2580</v>
       </c>
       <c r="L34" s="8">
-        <v>0</v>
+        <v>17.84</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="6">
-        <v>600850</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="6">
-        <v>17000</v>
+        <v>472300</v>
       </c>
       <c r="D35" s="6">
-        <v>17000</v>
+        <v>472300</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>25.88</v>
+        <v>6.02</v>
       </c>
       <c r="G35" s="7">
-        <v>22.924</v>
+        <v>6.01</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>439960</v>
+        <v>2843246</v>
       </c>
       <c r="J35" s="7">
-        <v>50256.68</v>
+        <v>4784.3</v>
       </c>
       <c r="K35" s="7">
-        <v>16320</v>
+        <v>-33061</v>
       </c>
       <c r="L35" s="8">
-        <v>12.89</v>
+        <v>0.17</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="6">
-        <v>600475</v>
-      </c>
-      <c r="C36" s="6">
-        <v>20700</v>
-      </c>
-      <c r="D36" s="6">
-        <v>20700</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>12.83</v>
-      </c>
-      <c r="G36" s="7">
-        <v>11.312</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>265581</v>
-      </c>
-      <c r="J36" s="7">
-        <v>31418.19</v>
-      </c>
-      <c r="K36" s="7">
-        <v>12627</v>
-      </c>
-      <c r="L36" s="8">
-        <v>13.42</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>23</v>
+      <c r="A36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="10">
+        <v>300296</v>
+      </c>
+      <c r="C36" s="10">
+        <v>405200</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>405200</v>
+      </c>
+      <c r="F36" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="G36" s="11">
+        <v>7.053</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>2795880</v>
+      </c>
+      <c r="J36" s="11">
+        <v>-61959.68</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-61959.68</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-2.17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B37" s="6">
-        <v>511990</v>
+        <v>600010</v>
       </c>
       <c r="C37" s="6">
-        <v>14</v>
+        <v>1700000</v>
       </c>
       <c r="D37" s="6">
-        <v>14</v>
+        <v>1700000</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>99.952</v>
+        <v>1.22</v>
       </c>
       <c r="G37" s="7">
-        <v>-11749.026</v>
+        <v>1.201</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1399.33</v>
+        <v>2074000</v>
       </c>
       <c r="J37" s="7">
-        <v>165885.7</v>
+        <v>32653.04</v>
       </c>
       <c r="K37" s="7">
-        <v>-0.47</v>
+        <v>-85000</v>
       </c>
       <c r="L37" s="8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>24</v>
@@ -2318,216 +2330,216 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="B38" s="6">
+        <v>600850</v>
       </c>
       <c r="C38" s="6">
-        <v>38500</v>
+        <v>17000</v>
       </c>
       <c r="D38" s="6">
-        <v>38500</v>
+        <v>17000</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>12.9</v>
+        <v>27.9</v>
       </c>
       <c r="G38" s="7">
-        <v>12.177</v>
+        <v>22.902</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>496650</v>
+        <v>474300</v>
       </c>
       <c r="J38" s="7">
-        <v>27817.68</v>
+        <v>84960.2</v>
       </c>
       <c r="K38" s="7">
-        <v>15400</v>
+        <v>1700</v>
       </c>
       <c r="L38" s="8">
-        <v>5.94</v>
+        <v>21.82</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B39" s="6">
+        <v>600475</v>
       </c>
       <c r="C39" s="6">
-        <v>7500</v>
+        <v>20700</v>
       </c>
       <c r="D39" s="6">
-        <v>7500</v>
+        <v>20700</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>63.98</v>
+        <v>13.18</v>
       </c>
       <c r="G39" s="7">
-        <v>53.268</v>
+        <v>11.312</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>479850</v>
+        <v>272826</v>
       </c>
       <c r="J39" s="7">
-        <v>80343.56</v>
+        <v>38663.19</v>
       </c>
       <c r="K39" s="7">
-        <v>-3375</v>
+        <v>621</v>
       </c>
       <c r="L39" s="8">
-        <v>20.11</v>
+        <v>16.51</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="10">
-        <v>37200</v>
-      </c>
-      <c r="D40" s="10">
-        <v>37200</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>69.68</v>
-      </c>
-      <c r="G40" s="11">
-        <v>70.823</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>2592096</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-42514.12</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-67704</v>
-      </c>
-      <c r="L40" s="9">
-        <v>-1.61</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>25</v>
+      <c r="B40" s="6">
+        <v>511990</v>
+      </c>
+      <c r="C40" s="6">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6">
+        <v>14</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>100.031</v>
+      </c>
+      <c r="G40" s="7">
+        <v>-11749.026</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1400.43</v>
+      </c>
+      <c r="J40" s="7">
+        <v>165886.8</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="6">
-        <v>603444</v>
+      <c r="B41" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C41" s="6">
-        <v>1000</v>
+        <v>201044</v>
       </c>
       <c r="D41" s="6">
-        <v>1000</v>
+        <v>1044</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F41" s="7">
-        <v>535.56</v>
+        <v>2.17</v>
       </c>
       <c r="G41" s="7">
-        <v>409.247</v>
+        <v>2.03</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>535560</v>
+        <v>436265.48</v>
       </c>
       <c r="J41" s="7">
-        <v>126313.44</v>
+        <v>28145.76</v>
       </c>
       <c r="K41" s="7">
-        <v>-6360</v>
+        <v>7428.94</v>
       </c>
       <c r="L41" s="8">
-        <v>30.86</v>
+        <v>6.9</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="B42" s="6">
+        <v>300027</v>
+      </c>
       <c r="C42" s="6">
-        <v>15000</v>
+        <v>544200</v>
       </c>
       <c r="D42" s="6">
-        <v>15000</v>
+        <v>444200</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F42" s="7">
-        <v>12.99</v>
+        <v>4.73</v>
       </c>
       <c r="G42" s="7">
-        <v>12.392</v>
+        <v>4.24</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>194850</v>
+        <v>2574066</v>
       </c>
       <c r="J42" s="7">
-        <v>8971.07</v>
+        <v>266484.66</v>
       </c>
       <c r="K42" s="7">
-        <v>5400</v>
+        <v>234406.85</v>
       </c>
       <c r="L42" s="8">
-        <v>4.83</v>
+        <v>11.56</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2544,34 +2556,34 @@
         <v>79</v>
       </c>
       <c r="C43" s="10">
-        <v>19100</v>
+        <v>112400</v>
       </c>
       <c r="D43" s="10">
-        <v>19100</v>
+        <v>112400</v>
       </c>
       <c r="E43" s="10">
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <v>80.79</v>
+        <v>5.05</v>
       </c>
       <c r="G43" s="11">
-        <v>81.632</v>
+        <v>5.107</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>1543089</v>
+        <v>567620</v>
       </c>
       <c r="J43" s="11">
-        <v>-16077.34</v>
+        <v>-6409.15</v>
       </c>
       <c r="K43" s="11">
-        <v>-28841</v>
+        <v>-13488</v>
       </c>
       <c r="L43" s="9">
-        <v>-1.03</v>
+        <v>-1.12</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>26</v>
@@ -2581,46 +2593,46 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="6">
-        <v>603826</v>
-      </c>
-      <c r="C44" s="6">
-        <v>13400</v>
-      </c>
-      <c r="D44" s="6">
-        <v>13400</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>32.16</v>
-      </c>
-      <c r="G44" s="7">
-        <v>29.482</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>430944</v>
-      </c>
-      <c r="J44" s="7">
-        <v>35890.77</v>
-      </c>
-      <c r="K44" s="7">
-        <v>-13936</v>
-      </c>
-      <c r="L44" s="8">
-        <v>9.08</v>
-      </c>
-      <c r="M44" s="8" t="s">
+      <c r="B44" s="10">
+        <v>600219</v>
+      </c>
+      <c r="C44" s="10">
+        <v>730300</v>
+      </c>
+      <c r="D44" s="10">
+        <v>730300</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2.33</v>
+      </c>
+      <c r="G44" s="11">
+        <v>2.41</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1701599</v>
+      </c>
+      <c r="J44" s="11">
+        <v>-58130</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-58424</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-3.32</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N44" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2632,34 +2644,34 @@
         <v>82</v>
       </c>
       <c r="C45" s="6">
-        <v>12100</v>
+        <v>7500</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E45" s="6">
-        <v>12100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>105.1</v>
+        <v>66.92</v>
       </c>
       <c r="G45" s="7">
-        <v>103.923</v>
+        <v>53.268</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>1271710</v>
+        <v>501900</v>
       </c>
       <c r="J45" s="7">
-        <v>14245.79</v>
+        <v>102393.56</v>
       </c>
       <c r="K45" s="7">
-        <v>14245.79</v>
+        <v>9525</v>
       </c>
       <c r="L45" s="8">
-        <v>1.13</v>
+        <v>25.63</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2672,82 +2684,82 @@
       <c r="A46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="6">
-        <v>603788</v>
+      <c r="B46" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C46" s="6">
-        <v>26800</v>
+        <v>37200</v>
       </c>
       <c r="D46" s="6">
-        <v>26800</v>
+        <v>37200</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>18.62</v>
+        <v>75.97</v>
       </c>
       <c r="G46" s="7">
-        <v>14.895</v>
+        <v>70.823</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>499016</v>
+        <v>2826084</v>
       </c>
       <c r="J46" s="7">
-        <v>99833.21</v>
+        <v>191473.88</v>
       </c>
       <c r="K46" s="7">
-        <v>21708</v>
+        <v>136152</v>
       </c>
       <c r="L46" s="8">
-        <v>25.01</v>
+        <v>7.27</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="10">
-        <v>603658</v>
+        <v>603077</v>
       </c>
       <c r="C47" s="10">
-        <v>1300</v>
+        <v>1986500</v>
       </c>
       <c r="D47" s="10">
-        <v>1300</v>
+        <v>1986500</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>154.72</v>
+        <v>1.4</v>
       </c>
       <c r="G47" s="11">
-        <v>164.269</v>
+        <v>1.417</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>201136</v>
+        <v>2781100</v>
       </c>
       <c r="J47" s="11">
-        <v>-12414.31</v>
+        <v>-34402.83</v>
       </c>
       <c r="K47" s="11">
-        <v>1469</v>
+        <v>-99325</v>
       </c>
       <c r="L47" s="9">
-        <v>-5.81</v>
+        <v>-1.2</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>24</v>
@@ -2758,40 +2770,40 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="6">
-        <v>600298</v>
+        <v>600039</v>
       </c>
       <c r="C48" s="6">
-        <v>37900</v>
+        <v>62160</v>
       </c>
       <c r="D48" s="6">
-        <v>37900</v>
+        <v>62160</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>50.33</v>
+        <v>4.15</v>
       </c>
       <c r="G48" s="7">
-        <v>45.669</v>
+        <v>4.093</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1907507</v>
+        <v>257964</v>
       </c>
       <c r="J48" s="7">
-        <v>176658.47</v>
+        <v>3566.36</v>
       </c>
       <c r="K48" s="7">
-        <v>99298</v>
+        <v>-3729.6</v>
       </c>
       <c r="L48" s="8">
-        <v>10.21</v>
+        <v>1.39</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>24</v>
@@ -2802,40 +2814,40 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" s="6">
-        <v>71200</v>
+        <v>15000</v>
       </c>
       <c r="D49" s="6">
-        <v>71200</v>
+        <v>15000</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>39.83</v>
+        <v>13.43</v>
       </c>
       <c r="G49" s="7">
-        <v>35.663</v>
+        <v>12.392</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>2835896</v>
+        <v>201450</v>
       </c>
       <c r="J49" s="7">
-        <v>296657.01</v>
+        <v>15571.07</v>
       </c>
       <c r="K49" s="7">
-        <v>257744</v>
+        <v>-1650</v>
       </c>
       <c r="L49" s="8">
-        <v>11.68</v>
+        <v>8.38</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2846,172 +2858,172 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="6">
-        <v>600845</v>
+        <v>89</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C50" s="6">
-        <v>33900</v>
+        <v>10000</v>
       </c>
       <c r="D50" s="6">
-        <v>33900</v>
+        <v>10000</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>57.8</v>
+        <v>98.34</v>
       </c>
       <c r="G50" s="7">
-        <v>55.41</v>
+        <v>74.02</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>1959420</v>
+        <v>983400</v>
       </c>
       <c r="J50" s="7">
-        <v>81006.61</v>
+        <v>243203.25</v>
       </c>
       <c r="K50" s="7">
-        <v>58647</v>
+        <v>117620.64</v>
       </c>
       <c r="L50" s="8">
-        <v>4.31</v>
+        <v>32.86</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B51" s="6">
+        <v>603826</v>
       </c>
       <c r="C51" s="6">
-        <v>50900</v>
+        <v>72900</v>
       </c>
       <c r="D51" s="6">
-        <v>50900</v>
+        <v>72900</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>7.52</v>
+        <v>34.2</v>
       </c>
       <c r="G51" s="7">
-        <v>7.252</v>
+        <v>31.379</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>382768</v>
+        <v>2493180</v>
       </c>
       <c r="J51" s="7">
-        <v>13617.8</v>
+        <v>205673.22</v>
       </c>
       <c r="K51" s="7">
-        <v>10180</v>
+        <v>114453</v>
       </c>
       <c r="L51" s="8">
-        <v>3.7</v>
+        <v>8.99</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="6">
-        <v>603730</v>
+        <v>92</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C52" s="6">
-        <v>1600</v>
+        <v>12100</v>
       </c>
       <c r="D52" s="6">
-        <v>1600</v>
+        <v>12100</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>33.94</v>
+        <v>112.24</v>
       </c>
       <c r="G52" s="7">
-        <v>31.894</v>
+        <v>103.91</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>54304</v>
+        <v>1358104</v>
       </c>
       <c r="J52" s="7">
-        <v>3273.34</v>
+        <v>100796.44</v>
       </c>
       <c r="K52" s="7">
-        <v>1024</v>
+        <v>39688</v>
       </c>
       <c r="L52" s="8">
-        <v>6.41</v>
+        <v>8.02</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6">
-        <v>300776</v>
+        <v>94</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C53" s="6">
-        <v>15820</v>
+        <v>69900</v>
       </c>
       <c r="D53" s="6">
-        <v>15820</v>
+        <v>69900</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>89.35</v>
+        <v>4.66</v>
       </c>
       <c r="G53" s="7">
-        <v>79.344</v>
+        <v>4.621</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>1413517</v>
+        <v>325734</v>
       </c>
       <c r="J53" s="7">
-        <v>158293.48</v>
+        <v>2724.58</v>
       </c>
       <c r="K53" s="7">
-        <v>39233.6</v>
+        <v>-6291</v>
       </c>
       <c r="L53" s="8">
-        <v>12.61</v>
+        <v>0.84</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3022,40 +3034,40 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="6">
-        <v>300638</v>
+        <v>96</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C54" s="6">
-        <v>48500</v>
+        <v>50900</v>
       </c>
       <c r="D54" s="6">
-        <v>44700</v>
+        <v>50900</v>
       </c>
       <c r="E54" s="6">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>59.7</v>
+        <v>7.81</v>
       </c>
       <c r="G54" s="7">
-        <v>57.213</v>
+        <v>7.252</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>2895450</v>
+        <v>397529</v>
       </c>
       <c r="J54" s="7">
-        <v>120631.45</v>
+        <v>28378.8</v>
       </c>
       <c r="K54" s="7">
-        <v>77302.06</v>
+        <v>7126</v>
       </c>
       <c r="L54" s="8">
-        <v>4.35</v>
+        <v>7.69</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3065,261 +3077,261 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="10">
-        <v>600984</v>
-      </c>
-      <c r="C55" s="10">
-        <v>126800</v>
-      </c>
-      <c r="D55" s="10">
-        <v>126800</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>22.96</v>
-      </c>
-      <c r="G55" s="11">
-        <v>23.025</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>2911328</v>
-      </c>
-      <c r="J55" s="11">
-        <v>-8191.01</v>
-      </c>
-      <c r="K55" s="11">
-        <v>96368</v>
-      </c>
-      <c r="L55" s="9">
-        <v>-0.28</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>23</v>
+      <c r="A55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="6">
+        <v>300776</v>
+      </c>
+      <c r="C55" s="6">
+        <v>15820</v>
+      </c>
+      <c r="D55" s="6">
+        <v>15820</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>89.75</v>
+      </c>
+      <c r="G55" s="7">
+        <v>79.344</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1419845</v>
+      </c>
+      <c r="J55" s="7">
+        <v>164621.48</v>
+      </c>
+      <c r="K55" s="7">
+        <v>-28634.2</v>
+      </c>
+      <c r="L55" s="8">
+        <v>13.12</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="6">
-        <v>603203</v>
-      </c>
-      <c r="C56" s="6">
-        <v>35740</v>
-      </c>
-      <c r="D56" s="6">
-        <v>35740</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>30.36</v>
-      </c>
-      <c r="G56" s="7">
-        <v>27.126</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1085066.4</v>
-      </c>
-      <c r="J56" s="7">
-        <v>115581.27</v>
-      </c>
-      <c r="K56" s="7">
-        <v>43245.4</v>
-      </c>
-      <c r="L56" s="8">
-        <v>11.92</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>23</v>
+      <c r="A56" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="10">
+        <v>300255</v>
+      </c>
+      <c r="C56" s="10">
+        <v>193900</v>
+      </c>
+      <c r="D56" s="10">
+        <v>46600</v>
+      </c>
+      <c r="E56" s="10">
+        <v>147300</v>
+      </c>
+      <c r="F56" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6.548</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1240960</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-28621.88</v>
+      </c>
+      <c r="K56" s="11">
+        <v>-49169.12</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-2.26</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B57" s="6">
-        <v>601100</v>
+        <v>300638</v>
       </c>
       <c r="C57" s="6">
-        <v>22496</v>
+        <v>100</v>
       </c>
       <c r="D57" s="6">
-        <v>22496</v>
+        <v>100</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>52.18</v>
+        <v>67.33</v>
       </c>
       <c r="G57" s="7">
-        <v>48.397</v>
+        <v>-4215.186</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>1173841.28</v>
+        <v>6733</v>
       </c>
       <c r="J57" s="7">
-        <v>85094.97</v>
+        <v>428251.62</v>
       </c>
       <c r="K57" s="7">
-        <v>25870.4</v>
+        <v>67056.06</v>
       </c>
       <c r="L57" s="8">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="M57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="10">
+        <v>600984</v>
+      </c>
+      <c r="C58" s="10">
+        <v>28600</v>
+      </c>
+      <c r="D58" s="10">
+        <v>28600</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>21.39</v>
+      </c>
+      <c r="G58" s="11">
+        <v>26.338</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>611754</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-141526.8</v>
+      </c>
+      <c r="K58" s="11">
+        <v>-52183.79</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-18.79</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="N58" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="6">
-        <v>17000</v>
-      </c>
-      <c r="D58" s="6">
-        <v>17000</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>70.5</v>
-      </c>
-      <c r="G58" s="7">
-        <v>61.17</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1198500</v>
-      </c>
-      <c r="J58" s="7">
-        <v>158611.06</v>
-      </c>
-      <c r="K58" s="7">
-        <v>26350</v>
-      </c>
-      <c r="L58" s="8">
-        <v>15.25</v>
-      </c>
-      <c r="M58" s="8" t="s">
+    <row r="59" spans="1:14">
+      <c r="A59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="10">
+        <v>426600</v>
+      </c>
+      <c r="D59" s="10">
+        <v>426600</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>6.33</v>
+      </c>
+      <c r="G59" s="11">
+        <v>6.389</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>2700378</v>
+      </c>
+      <c r="J59" s="11">
+        <v>-24975.73</v>
+      </c>
+      <c r="K59" s="11">
+        <v>-106650</v>
+      </c>
+      <c r="L59" s="9">
+        <v>-0.92</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="N59" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="6">
-        <v>600486</v>
-      </c>
-      <c r="C59" s="6">
-        <v>500</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>500</v>
-      </c>
-      <c r="F59" s="7">
-        <v>81.77</v>
-      </c>
-      <c r="G59" s="7">
-        <v>80.514</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>40885</v>
-      </c>
-      <c r="J59" s="7">
-        <v>628.15</v>
-      </c>
-      <c r="K59" s="7">
-        <v>628.15</v>
-      </c>
-      <c r="L59" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" s="6">
-        <v>601689</v>
+        <v>603203</v>
       </c>
       <c r="C60" s="6">
-        <v>92700</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
-        <v>92700</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>28.93</v>
+        <v>31.97</v>
       </c>
       <c r="G60" s="7">
-        <v>27.38</v>
+        <v>0</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>2681811</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7">
-        <v>143657.47</v>
+        <v>106431.2</v>
       </c>
       <c r="K60" s="7">
-        <v>58401</v>
+        <v>-5.71</v>
       </c>
       <c r="L60" s="8">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>24</v>
@@ -3329,129 +3341,129 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="6">
-        <v>603583</v>
-      </c>
-      <c r="C61" s="6">
-        <v>22700</v>
-      </c>
-      <c r="D61" s="6">
-        <v>22700</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>68.51</v>
-      </c>
-      <c r="G61" s="7">
-        <v>66.104</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>1555177</v>
-      </c>
-      <c r="J61" s="7">
-        <v>54617.24</v>
-      </c>
-      <c r="K61" s="7">
-        <v>-14528</v>
-      </c>
-      <c r="L61" s="8">
-        <v>3.64</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="A61" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="10">
+        <v>600805</v>
+      </c>
+      <c r="C61" s="10">
+        <v>85580</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>85580</v>
+      </c>
+      <c r="F61" s="11">
+        <v>4.51</v>
+      </c>
+      <c r="G61" s="11">
+        <v>4.613</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>385965.8</v>
+      </c>
+      <c r="J61" s="11">
+        <v>-8822.91</v>
+      </c>
+      <c r="K61" s="11">
+        <v>-8822.91</v>
+      </c>
+      <c r="L61" s="9">
+        <v>-2.23</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="10">
-        <v>300770</v>
-      </c>
-      <c r="C62" s="10">
-        <v>12600</v>
-      </c>
-      <c r="D62" s="10">
-        <v>12600</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11">
-        <v>208.61</v>
-      </c>
-      <c r="G62" s="11">
-        <v>210.44</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>2628486</v>
-      </c>
-      <c r="J62" s="11">
-        <v>-23052.65</v>
-      </c>
-      <c r="K62" s="11">
-        <v>22806</v>
-      </c>
-      <c r="L62" s="9">
-        <v>-0.87</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>25</v>
+      <c r="A62" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="6">
+        <v>600486</v>
+      </c>
+      <c r="C62" s="6">
+        <v>500</v>
+      </c>
+      <c r="D62" s="6">
+        <v>500</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>84.92</v>
+      </c>
+      <c r="G62" s="7">
+        <v>80.514</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>42460</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2203.15</v>
+      </c>
+      <c r="K62" s="7">
+        <v>-725</v>
+      </c>
+      <c r="L62" s="8">
+        <v>5.47</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="6">
-        <v>300037</v>
+        <v>107</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C63" s="6">
-        <v>46700</v>
+        <v>184700</v>
       </c>
       <c r="D63" s="6">
-        <v>46700</v>
+        <v>184700</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>55.6</v>
+        <v>11.14</v>
       </c>
       <c r="G63" s="7">
-        <v>54.923</v>
+        <v>11.045</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>2596520</v>
+        <v>2057558</v>
       </c>
       <c r="J63" s="7">
-        <v>31636.86</v>
+        <v>17537.01</v>
       </c>
       <c r="K63" s="7">
-        <v>32690</v>
+        <v>-38787</v>
       </c>
       <c r="L63" s="8">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3461,55 +3473,55 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="10">
+      <c r="A64" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="6">
         <v>22300</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="6">
         <v>22300</v>
       </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>34.02</v>
-      </c>
-      <c r="G64" s="11">
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>36.8</v>
+      </c>
+      <c r="G64" s="7">
         <v>34.872</v>
       </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>758646</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-18992.63</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-21854</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-2.44</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>820640</v>
+      </c>
+      <c r="J64" s="7">
+        <v>43001.37</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3122</v>
+      </c>
+      <c r="L64" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C65" s="6">
         <v>25700</v>
@@ -3521,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>54</v>
+        <v>57.62</v>
       </c>
       <c r="G65" s="7">
         <v>53.899</v>
@@ -3530,16 +3542,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1387800</v>
+        <v>1480834</v>
       </c>
       <c r="J65" s="7">
-        <v>2596.49</v>
+        <v>95630.49</v>
       </c>
       <c r="K65" s="7">
-        <v>-7710</v>
+        <v>86609</v>
       </c>
       <c r="L65" s="8">
-        <v>0.19</v>
+        <v>6.9</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>26</v>
@@ -3550,84 +3562,84 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B66" s="6">
-        <v>300739</v>
+        <v>601799</v>
       </c>
       <c r="C66" s="6">
-        <v>49600</v>
+        <v>3600</v>
       </c>
       <c r="D66" s="6">
-        <v>49600</v>
+        <v>3600</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>21.49</v>
+        <v>129.92</v>
       </c>
       <c r="G66" s="7">
-        <v>20.25</v>
+        <v>111.804</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>1065904</v>
+        <v>467712</v>
       </c>
       <c r="J66" s="7">
-        <v>61525.39</v>
+        <v>65215.92</v>
       </c>
       <c r="K66" s="7">
-        <v>46128</v>
+        <v>-3168</v>
       </c>
       <c r="L66" s="8">
-        <v>6.12</v>
+        <v>16.2</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B67" s="6">
-        <v>601799</v>
+        <v>603127</v>
       </c>
       <c r="C67" s="6">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="D67" s="6">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>126.31</v>
+        <v>101.02</v>
       </c>
       <c r="G67" s="7">
-        <v>111.804</v>
+        <v>89.398</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>454716</v>
+        <v>1212240</v>
       </c>
       <c r="J67" s="7">
-        <v>52219.92</v>
+        <v>139464.34</v>
       </c>
       <c r="K67" s="7">
-        <v>7236</v>
+        <v>21000</v>
       </c>
       <c r="L67" s="8">
-        <v>12.97</v>
+        <v>13</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>24</v>
@@ -3638,84 +3650,84 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B68" s="6">
-        <v>603127</v>
+        <v>300138</v>
       </c>
       <c r="C68" s="6">
-        <v>12000</v>
+        <v>35400</v>
       </c>
       <c r="D68" s="6">
-        <v>12000</v>
+        <v>35400</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>95.33</v>
+        <v>12.78</v>
       </c>
       <c r="G68" s="7">
-        <v>89.398</v>
+        <v>11.069</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>1143960</v>
+        <v>452412</v>
       </c>
       <c r="J68" s="7">
-        <v>71184.34</v>
+        <v>60554.87</v>
       </c>
       <c r="K68" s="7">
-        <v>-37440</v>
+        <v>-15222</v>
       </c>
       <c r="L68" s="8">
-        <v>6.64</v>
+        <v>15.46</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="6">
-        <v>300138</v>
+        <v>116</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C69" s="6">
-        <v>35400</v>
+        <v>28080</v>
       </c>
       <c r="D69" s="6">
-        <v>35400</v>
+        <v>28080</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="G69" s="7">
-        <v>11.069</v>
+        <v>7.736</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>403560</v>
+        <v>238680</v>
       </c>
       <c r="J69" s="7">
-        <v>11702.87</v>
+        <v>21443.57</v>
       </c>
       <c r="K69" s="7">
-        <v>11682</v>
+        <v>-1965.6</v>
       </c>
       <c r="L69" s="8">
-        <v>2.99</v>
+        <v>9.88</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3725,349 +3737,349 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="6">
-        <v>300630</v>
-      </c>
-      <c r="C70" s="6">
-        <v>21</v>
-      </c>
-      <c r="D70" s="6">
-        <v>21</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>48.66</v>
-      </c>
-      <c r="G70" s="7">
-        <v>-388.272</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1021.86</v>
-      </c>
-      <c r="J70" s="7">
-        <v>9175.58</v>
-      </c>
-      <c r="K70" s="7">
-        <v>6433.18</v>
-      </c>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
-      <c r="M70" s="8" t="s">
+      <c r="A70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="10">
+        <v>437000</v>
+      </c>
+      <c r="D70" s="10">
+        <v>437000</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>5.31</v>
+      </c>
+      <c r="G70" s="11">
+        <v>5.456</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>2320470</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-63971.61</v>
+      </c>
+      <c r="K70" s="11">
+        <v>-69920</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-2.68</v>
+      </c>
+      <c r="M70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="8" t="s">
+      <c r="N70" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="B71" s="6">
+        <v>603866</v>
       </c>
       <c r="C71" s="6">
-        <v>28080</v>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
-        <v>28080</v>
+        <v>0</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>8.18</v>
+        <v>52.68</v>
       </c>
       <c r="G71" s="7">
-        <v>7.736</v>
+        <v>0</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>229694.4</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7">
-        <v>12457.97</v>
+        <v>128179.8</v>
       </c>
       <c r="K71" s="7">
-        <v>5896.8</v>
+        <v>1293.04</v>
       </c>
       <c r="L71" s="8">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="M71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="10">
+        <v>600873</v>
+      </c>
+      <c r="C72" s="10">
+        <v>83200</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>83200</v>
+      </c>
+      <c r="F72" s="11">
+        <v>4.83</v>
+      </c>
+      <c r="G72" s="11">
+        <v>4.889</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>401856</v>
+      </c>
+      <c r="J72" s="11">
+        <v>-4945.14</v>
+      </c>
+      <c r="K72" s="11">
+        <v>-4945.14</v>
+      </c>
+      <c r="L72" s="9">
+        <v>-1.21</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="6">
+        <v>300595</v>
+      </c>
+      <c r="C73" s="6">
+        <v>12200</v>
+      </c>
+      <c r="D73" s="6">
+        <v>12200</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>65.32</v>
+      </c>
+      <c r="G73" s="7">
+        <v>64.742</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>796904</v>
+      </c>
+      <c r="J73" s="7">
+        <v>7045.7</v>
+      </c>
+      <c r="K73" s="7">
+        <v>9760</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="8" t="s">
+      <c r="N73" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="6">
-        <v>603866</v>
-      </c>
-      <c r="C72" s="6">
-        <v>57200</v>
-      </c>
-      <c r="D72" s="6">
-        <v>5100</v>
-      </c>
-      <c r="E72" s="6">
-        <v>52100</v>
-      </c>
-      <c r="F72" s="7">
-        <v>49.32</v>
-      </c>
-      <c r="G72" s="7">
-        <v>49.243</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>2821104</v>
-      </c>
-      <c r="J72" s="7">
-        <v>4408.18</v>
-      </c>
-      <c r="K72" s="7">
-        <v>17993.96</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="10">
-        <v>300595</v>
-      </c>
-      <c r="C73" s="10">
-        <v>12200</v>
-      </c>
-      <c r="D73" s="10">
-        <v>12200</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>63.82</v>
-      </c>
-      <c r="G73" s="11">
-        <v>64.742</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>778604</v>
-      </c>
-      <c r="J73" s="11">
-        <v>-11254.3</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-38674</v>
-      </c>
-      <c r="L73" s="9">
-        <v>-1.42</v>
-      </c>
-      <c r="M73" s="9" t="s">
+    <row r="74" spans="1:14">
+      <c r="A74" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="10">
+        <v>300053</v>
+      </c>
+      <c r="C74" s="10">
+        <v>215200</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>215200</v>
+      </c>
+      <c r="F74" s="11">
+        <v>12.84</v>
+      </c>
+      <c r="G74" s="11">
+        <v>13.086</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>2763168</v>
+      </c>
+      <c r="J74" s="11">
+        <v>-52877.96</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-52877.96</v>
+      </c>
+      <c r="L74" s="9">
+        <v>-1.88</v>
+      </c>
+      <c r="M74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N74" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="6">
+    <row r="75" spans="1:14">
+      <c r="A75" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="6">
         <v>300653</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C75" s="6">
         <v>23160</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>23160</v>
       </c>
-      <c r="E74" s="6">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
-        <v>74.68</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>76.7</v>
+      </c>
+      <c r="G75" s="7">
         <v>68.463</v>
       </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>1729588.8</v>
-      </c>
-      <c r="J74" s="7">
-        <v>143982.95</v>
-      </c>
-      <c r="K74" s="7">
-        <v>-107925.6</v>
-      </c>
-      <c r="L74" s="8">
-        <v>9.08</v>
-      </c>
-      <c r="M74" s="8" t="s">
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1776372</v>
+      </c>
+      <c r="J75" s="7">
+        <v>190766.15</v>
+      </c>
+      <c r="K75" s="7">
+        <v>34971.6</v>
+      </c>
+      <c r="L75" s="8">
+        <v>12.03</v>
+      </c>
+      <c r="M75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="N75" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="10">
-        <v>603338</v>
-      </c>
-      <c r="C75" s="10">
-        <v>26100</v>
-      </c>
-      <c r="D75" s="10">
-        <v>19300</v>
-      </c>
-      <c r="E75" s="10">
-        <v>6800</v>
-      </c>
-      <c r="F75" s="11">
-        <v>74.29</v>
-      </c>
-      <c r="G75" s="11">
-        <v>74.854</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <v>1938969</v>
-      </c>
-      <c r="J75" s="11">
-        <v>-14723.37</v>
-      </c>
-      <c r="K75" s="11">
-        <v>-149.62</v>
-      </c>
-      <c r="L75" s="9">
-        <v>-0.75</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="6">
-        <v>600639</v>
-      </c>
-      <c r="C76" s="6">
-        <v>26800</v>
-      </c>
-      <c r="D76" s="6">
-        <v>26800</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="G76" s="7">
-        <v>14.909</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>460960</v>
-      </c>
-      <c r="J76" s="7">
-        <v>61396.08</v>
-      </c>
-      <c r="K76" s="7">
-        <v>14740</v>
-      </c>
-      <c r="L76" s="8">
-        <v>15.37</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>23</v>
+      <c r="A76" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="10">
+        <v>300232</v>
+      </c>
+      <c r="C76" s="10">
+        <v>188221</v>
+      </c>
+      <c r="D76" s="10">
+        <v>188221</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>9.28</v>
+      </c>
+      <c r="G76" s="11">
+        <v>9.453</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1746690.88</v>
+      </c>
+      <c r="J76" s="11">
+        <v>-32557.59</v>
+      </c>
+      <c r="K76" s="11">
+        <v>-24468.73</v>
+      </c>
+      <c r="L76" s="9">
+        <v>-1.83</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B77" s="6">
-        <v>603187</v>
+        <v>600221</v>
       </c>
       <c r="C77" s="6">
-        <v>35000</v>
+        <v>1597600</v>
       </c>
       <c r="D77" s="6">
-        <v>35000</v>
+        <v>1597600</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>37.81</v>
+        <v>1.73</v>
       </c>
       <c r="G77" s="7">
-        <v>36.788</v>
+        <v>1.716</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>1323350</v>
+        <v>2763848</v>
       </c>
       <c r="J77" s="7">
-        <v>35769.52</v>
+        <v>21697.99</v>
       </c>
       <c r="K77" s="7">
-        <v>6300</v>
+        <v>47928</v>
       </c>
       <c r="L77" s="8">
-        <v>2.78</v>
+        <v>0.82</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>24</v>
@@ -4078,84 +4090,84 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="B78" s="6">
+        <v>603605</v>
       </c>
       <c r="C78" s="6">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="E78" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>175.98</v>
+        <v>173.25</v>
       </c>
       <c r="G78" s="7">
-        <v>156.749</v>
+        <v>0</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>1900584</v>
+        <v>0</v>
       </c>
       <c r="J78" s="7">
-        <v>207694.58</v>
+        <v>51925.73</v>
       </c>
       <c r="K78" s="7">
-        <v>74864.87</v>
+        <v>-5201.33</v>
       </c>
       <c r="L78" s="8">
-        <v>12.27</v>
+        <v>0</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="B79" s="6">
+        <v>300119</v>
       </c>
       <c r="C79" s="6">
-        <v>72600</v>
+        <v>13700</v>
       </c>
       <c r="D79" s="6">
-        <v>72600</v>
+        <v>13700</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>15</v>
+        <v>23.66</v>
       </c>
       <c r="G79" s="7">
-        <v>14.481</v>
+        <v>16.5</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>1089000</v>
+        <v>324142</v>
       </c>
       <c r="J79" s="7">
-        <v>37713.29</v>
+        <v>98092.75</v>
       </c>
       <c r="K79" s="7">
-        <v>31218</v>
+        <v>5754.03</v>
       </c>
       <c r="L79" s="8">
-        <v>3.58</v>
+        <v>43.39</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4165,85 +4177,85 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="10">
-        <v>300696</v>
-      </c>
-      <c r="C80" s="10">
-        <v>35900</v>
-      </c>
-      <c r="D80" s="10">
-        <v>35900</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11">
-        <v>35.21</v>
-      </c>
-      <c r="G80" s="11">
-        <v>35.684</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>1264039</v>
-      </c>
-      <c r="J80" s="11">
-        <v>-17004.07</v>
-      </c>
-      <c r="K80" s="11">
-        <v>-14001</v>
-      </c>
-      <c r="L80" s="9">
-        <v>-1.33</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>25</v>
+      <c r="A80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="6">
+        <v>603181</v>
+      </c>
+      <c r="C80" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D80" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="G80" s="7">
+        <v>21.067</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>229000</v>
+      </c>
+      <c r="J80" s="7">
+        <v>18326.21</v>
+      </c>
+      <c r="K80" s="7">
+        <v>4700</v>
+      </c>
+      <c r="L80" s="8">
+        <v>8.7</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B81" s="6">
-        <v>603605</v>
+        <v>603688</v>
       </c>
       <c r="C81" s="6">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D81" s="6">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>165.2</v>
+        <v>27.39</v>
       </c>
       <c r="G81" s="7">
-        <v>155.718</v>
+        <v>-33.99</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>660800</v>
+        <v>123255</v>
       </c>
       <c r="J81" s="7">
-        <v>37927.06</v>
+        <v>276210.93</v>
       </c>
       <c r="K81" s="7">
-        <v>-27600</v>
+        <v>1611.65</v>
       </c>
       <c r="L81" s="8">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>24</v>
@@ -4254,172 +4266,172 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="6">
-        <v>300119</v>
+        <v>603609</v>
       </c>
       <c r="C82" s="6">
-        <v>17000</v>
+        <v>102800</v>
       </c>
       <c r="D82" s="6">
-        <v>17000</v>
+        <v>102800</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>21.36</v>
+        <v>15.35</v>
       </c>
       <c r="G82" s="7">
-        <v>17.758</v>
+        <v>14.842</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>363120</v>
+        <v>1577980</v>
       </c>
       <c r="J82" s="7">
-        <v>61228.72</v>
+        <v>52257.33</v>
       </c>
       <c r="K82" s="7">
-        <v>-4080</v>
+        <v>-53456</v>
       </c>
       <c r="L82" s="8">
-        <v>20.28</v>
+        <v>3.42</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="6">
-        <v>603181</v>
+        <v>132</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C83" s="6">
-        <v>10000</v>
+        <v>18800</v>
       </c>
       <c r="D83" s="6">
-        <v>10000</v>
+        <v>18800</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>21.85</v>
+        <v>22.91</v>
       </c>
       <c r="G83" s="7">
-        <v>21.067</v>
+        <v>22.441</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>218500</v>
+        <v>430708</v>
       </c>
       <c r="J83" s="7">
-        <v>7826.21</v>
+        <v>8815.73</v>
       </c>
       <c r="K83" s="7">
-        <v>2100</v>
+        <v>-4324</v>
       </c>
       <c r="L83" s="8">
-        <v>3.72</v>
+        <v>2.09</v>
       </c>
       <c r="M83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="13">
+        <v>3535000</v>
+      </c>
+      <c r="D84" s="13">
+        <v>3535000</v>
+      </c>
+      <c r="E84" s="13">
+        <v>0</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
+        <v>0</v>
+      </c>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="12">
+        <v>0</v>
+      </c>
+      <c r="M84" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="8" t="s">
+      <c r="N84" s="12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="6">
-        <v>6600</v>
-      </c>
-      <c r="D84" s="6">
-        <v>0</v>
-      </c>
-      <c r="E84" s="6">
-        <v>6600</v>
-      </c>
-      <c r="F84" s="7">
-        <v>96.36</v>
-      </c>
-      <c r="G84" s="7">
-        <v>94.126</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>635976</v>
-      </c>
-      <c r="J84" s="7">
-        <v>14747.31</v>
-      </c>
-      <c r="K84" s="7">
-        <v>14747.31</v>
-      </c>
-      <c r="L84" s="8">
-        <v>2.37</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B85" s="6">
-        <v>603688</v>
+        <v>603612</v>
       </c>
       <c r="C85" s="6">
-        <v>46700</v>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
-        <v>46700</v>
+        <v>0</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>25.67</v>
+        <v>14.07</v>
       </c>
       <c r="G85" s="7">
-        <v>21.88</v>
+        <v>0</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>1198789</v>
+        <v>0</v>
       </c>
       <c r="J85" s="7">
-        <v>176996.28</v>
+        <v>75982.81</v>
       </c>
       <c r="K85" s="7">
-        <v>65380</v>
+        <v>-660.17</v>
       </c>
       <c r="L85" s="8">
-        <v>17.32</v>
+        <v>0</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>24</v>
@@ -4430,128 +4442,128 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="6">
-        <v>603609</v>
+        <v>137</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C86" s="6">
-        <v>102800</v>
+        <v>48767</v>
       </c>
       <c r="D86" s="6">
-        <v>102800</v>
+        <v>48767</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
       </c>
       <c r="F86" s="7">
-        <v>15.84</v>
+        <v>53.46</v>
       </c>
       <c r="G86" s="7">
-        <v>14.839</v>
+        <v>52.099</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
       </c>
       <c r="I86" s="7">
-        <v>1628352</v>
+        <v>2607083.82</v>
       </c>
       <c r="J86" s="7">
-        <v>102908.55</v>
+        <v>66350.08</v>
       </c>
       <c r="K86" s="7">
-        <v>38036</v>
+        <v>-39013.6</v>
       </c>
       <c r="L86" s="8">
-        <v>6.75</v>
+        <v>2.61</v>
       </c>
       <c r="M86" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="10">
+        <v>601828</v>
+      </c>
+      <c r="C87" s="10">
+        <v>137800</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+      <c r="E87" s="10">
+        <v>137800</v>
+      </c>
+      <c r="F87" s="11">
+        <v>10.53</v>
+      </c>
+      <c r="G87" s="11">
+        <v>10.692</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>1451034</v>
+      </c>
+      <c r="J87" s="11">
+        <v>-22270.88</v>
+      </c>
+      <c r="K87" s="11">
+        <v>-22270.88</v>
+      </c>
+      <c r="L87" s="9">
+        <v>-1.52</v>
+      </c>
+      <c r="M87" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N86" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="13">
-        <v>2839000</v>
-      </c>
-      <c r="D87" s="13">
-        <v>2839000</v>
-      </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="14">
-        <v>0</v>
-      </c>
-      <c r="G87" s="14">
-        <v>0</v>
-      </c>
-      <c r="H87" s="14">
-        <v>0</v>
-      </c>
-      <c r="I87" s="14">
-        <v>0</v>
-      </c>
-      <c r="J87" s="14">
-        <v>0</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L87" s="12">
-        <v>0</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N87" s="12" t="s">
+      <c r="N87" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B88" s="6">
-        <v>603612</v>
+        <v>603538</v>
       </c>
       <c r="C88" s="6">
-        <v>64300</v>
+        <v>11800</v>
       </c>
       <c r="D88" s="6">
-        <v>64300</v>
+        <v>11800</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>13.12</v>
+        <v>53.42</v>
       </c>
       <c r="G88" s="7">
-        <v>12.042</v>
+        <v>50.635</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>843616</v>
+        <v>630356</v>
       </c>
       <c r="J88" s="7">
-        <v>69297.81</v>
+        <v>32859.22</v>
       </c>
       <c r="K88" s="7">
-        <v>65586</v>
+        <v>41536</v>
       </c>
       <c r="L88" s="8">
-        <v>8.95</v>
+        <v>5.5</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>24</v>
@@ -4561,173 +4573,173 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0</v>
-      </c>
-      <c r="F89" s="7">
-        <v>46.62</v>
-      </c>
-      <c r="G89" s="7">
-        <v>38.095</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>102564</v>
-      </c>
-      <c r="J89" s="7">
-        <v>18755.43</v>
-      </c>
-      <c r="K89" s="7">
-        <v>4004</v>
-      </c>
-      <c r="L89" s="8">
-        <v>22.38</v>
-      </c>
-      <c r="M89" s="8" t="s">
+      <c r="A89" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="10">
+        <v>300476</v>
+      </c>
+      <c r="C89" s="10">
+        <v>35900</v>
+      </c>
+      <c r="D89" s="10">
+        <v>35900</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>26.01</v>
+      </c>
+      <c r="G89" s="11">
+        <v>26.07</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>933759</v>
+      </c>
+      <c r="J89" s="11">
+        <v>-2159.37</v>
+      </c>
+      <c r="K89" s="11">
+        <v>-11129</v>
+      </c>
+      <c r="L89" s="9">
+        <v>-0.23</v>
+      </c>
+      <c r="M89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N89" s="8" t="s">
+      <c r="N89" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="10">
-        <v>48767</v>
-      </c>
-      <c r="D90" s="10">
-        <v>48767</v>
-      </c>
-      <c r="E90" s="10">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>51.33</v>
-      </c>
-      <c r="G90" s="11">
-        <v>52.099</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>2503210.11</v>
-      </c>
-      <c r="J90" s="11">
-        <v>-37523.63</v>
-      </c>
-      <c r="K90" s="11">
-        <v>12679.42</v>
-      </c>
-      <c r="L90" s="9">
-        <v>-1.48</v>
-      </c>
-      <c r="M90" s="9" t="s">
+      <c r="A90" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="6">
+        <v>600151</v>
+      </c>
+      <c r="C90" s="6">
+        <v>364400</v>
+      </c>
+      <c r="D90" s="6">
+        <v>364400</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>5.26</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5.148</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>1916744</v>
+      </c>
+      <c r="J90" s="7">
+        <v>40965.34</v>
+      </c>
+      <c r="K90" s="7">
+        <v>-32796</v>
+      </c>
+      <c r="L90" s="8">
+        <v>2.18</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="6">
+        <v>291200</v>
+      </c>
+      <c r="D91" s="6">
+        <v>36700</v>
+      </c>
+      <c r="E91" s="6">
+        <v>254500</v>
+      </c>
+      <c r="F91" s="7">
+        <v>11.24</v>
+      </c>
+      <c r="G91" s="7">
+        <v>9.552</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>3273088</v>
+      </c>
+      <c r="J91" s="7">
+        <v>491638.28</v>
+      </c>
+      <c r="K91" s="7">
+        <v>203661.15</v>
+      </c>
+      <c r="L91" s="8">
+        <v>17.67</v>
+      </c>
+      <c r="M91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N90" s="9" t="s">
+      <c r="N91" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="10">
-        <v>603538</v>
-      </c>
-      <c r="C91" s="10">
-        <v>11800</v>
-      </c>
-      <c r="D91" s="10">
-        <v>11800</v>
-      </c>
-      <c r="E91" s="10">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>49.07</v>
-      </c>
-      <c r="G91" s="11">
-        <v>50.635</v>
-      </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>579026</v>
-      </c>
-      <c r="J91" s="11">
-        <v>-18470.78</v>
-      </c>
-      <c r="K91" s="11">
-        <v>-10502</v>
-      </c>
-      <c r="L91" s="9">
-        <v>-3.09</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B92" s="6">
-        <v>603989</v>
+        <v>603355</v>
       </c>
       <c r="C92" s="6">
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="D92" s="6">
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <v>29.46</v>
+        <v>24.77</v>
       </c>
       <c r="G92" s="7">
-        <v>27.281</v>
+        <v>22.984</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>424224</v>
+        <v>237792</v>
       </c>
       <c r="J92" s="7">
-        <v>31373.45</v>
+        <v>17140.96</v>
       </c>
       <c r="K92" s="7">
-        <v>7920</v>
+        <v>-4800</v>
       </c>
       <c r="L92" s="8">
-        <v>7.99</v>
+        <v>7.77</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>24</v>
@@ -4737,173 +4749,173 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93" s="10">
-        <v>300413</v>
-      </c>
-      <c r="C93" s="10">
-        <v>45200</v>
-      </c>
-      <c r="D93" s="10">
-        <v>45200</v>
-      </c>
-      <c r="E93" s="10">
-        <v>0</v>
-      </c>
-      <c r="F93" s="11">
-        <v>60.57</v>
-      </c>
-      <c r="G93" s="11">
-        <v>61.153</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
-        <v>2737764</v>
-      </c>
-      <c r="J93" s="11">
-        <v>-26352.57</v>
-      </c>
-      <c r="K93" s="11">
-        <v>-46556</v>
-      </c>
-      <c r="L93" s="9">
-        <v>-0.95</v>
-      </c>
-      <c r="M93" s="9" t="s">
+      <c r="A93" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="6">
+        <v>300760</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>318.67</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>236014.97</v>
+      </c>
+      <c r="K93" s="7">
+        <v>12295.7</v>
+      </c>
+      <c r="L93" s="8">
+        <v>0</v>
+      </c>
+      <c r="M93" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N93" s="9" t="s">
+      <c r="N93" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="6">
-        <v>603916</v>
-      </c>
-      <c r="C94" s="6">
-        <v>17200</v>
-      </c>
-      <c r="D94" s="6">
-        <v>17200</v>
-      </c>
-      <c r="E94" s="6">
-        <v>0</v>
-      </c>
-      <c r="F94" s="7">
-        <v>27.56</v>
-      </c>
-      <c r="G94" s="7">
-        <v>26.66</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0</v>
-      </c>
-      <c r="I94" s="7">
-        <v>474032</v>
-      </c>
-      <c r="J94" s="7">
-        <v>15485.09</v>
-      </c>
-      <c r="K94" s="7">
-        <v>17544</v>
-      </c>
-      <c r="L94" s="8">
-        <v>3.38</v>
-      </c>
-      <c r="M94" s="8" t="s">
+      <c r="A94" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="10">
+        <v>600307</v>
+      </c>
+      <c r="C94" s="10">
+        <v>503000</v>
+      </c>
+      <c r="D94" s="10">
+        <v>503000</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="G94" s="11">
+        <v>1.73</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>855100</v>
+      </c>
+      <c r="J94" s="11">
+        <v>-15237.91</v>
+      </c>
+      <c r="K94" s="11">
+        <v>-30180</v>
+      </c>
+      <c r="L94" s="9">
+        <v>-1.73</v>
+      </c>
+      <c r="M94" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="8" t="s">
+      <c r="N94" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="6">
-        <v>603355</v>
-      </c>
-      <c r="C95" s="6">
-        <v>9600</v>
-      </c>
-      <c r="D95" s="6">
-        <v>9600</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7">
-        <v>25.61</v>
-      </c>
-      <c r="G95" s="7">
-        <v>22.984</v>
-      </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
-      <c r="I95" s="7">
-        <v>245856</v>
-      </c>
-      <c r="J95" s="7">
-        <v>25204.96</v>
-      </c>
-      <c r="K95" s="7">
-        <v>7296</v>
-      </c>
-      <c r="L95" s="8">
-        <v>11.43</v>
-      </c>
-      <c r="M95" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="8" t="s">
-        <v>23</v>
+      <c r="A95" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="10">
+        <v>252700</v>
+      </c>
+      <c r="D95" s="10">
+        <v>252700</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>10.04</v>
+      </c>
+      <c r="G95" s="11">
+        <v>10.281</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>2537108</v>
+      </c>
+      <c r="J95" s="11">
+        <v>-60967.69</v>
+      </c>
+      <c r="K95" s="11">
+        <v>-161728</v>
+      </c>
+      <c r="L95" s="9">
+        <v>-2.34</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B96" s="6">
-        <v>300395</v>
+        <v>300220</v>
       </c>
       <c r="C96" s="6">
-        <v>16600</v>
+        <v>49900</v>
       </c>
       <c r="D96" s="6">
-        <v>16600</v>
+        <v>49900</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <v>33.8</v>
+        <v>38.03</v>
       </c>
       <c r="G96" s="7">
-        <v>23.739</v>
+        <v>35.331</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <v>561080</v>
+        <v>1897697</v>
       </c>
       <c r="J96" s="7">
-        <v>167019.89</v>
+        <v>134690.84</v>
       </c>
       <c r="K96" s="7">
-        <v>25730</v>
+        <v>1497</v>
       </c>
       <c r="L96" s="8">
-        <v>42.38</v>
+        <v>7.64</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>26</v>
@@ -4913,129 +4925,129 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="7">
-        <v>98.28</v>
-      </c>
-      <c r="G97" s="7">
-        <v>97.621</v>
-      </c>
-      <c r="H97" s="7">
-        <v>0</v>
-      </c>
-      <c r="I97" s="7">
-        <v>117936</v>
-      </c>
-      <c r="J97" s="7">
-        <v>790.41</v>
-      </c>
-      <c r="K97" s="7">
-        <v>-384</v>
-      </c>
-      <c r="L97" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="M97" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N97" s="8" t="s">
-        <v>25</v>
+      <c r="A97" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="10">
+        <v>601992</v>
+      </c>
+      <c r="C97" s="10">
+        <v>141900</v>
+      </c>
+      <c r="D97" s="10">
+        <v>141900</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="G97" s="11">
+        <v>3.319</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>468270</v>
+      </c>
+      <c r="J97" s="11">
+        <v>-2669.91</v>
+      </c>
+      <c r="K97" s="11">
+        <v>-11352</v>
+      </c>
+      <c r="L97" s="9">
+        <v>-0.57</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="10">
-        <v>300760</v>
-      </c>
-      <c r="C98" s="10">
-        <v>8500</v>
-      </c>
-      <c r="D98" s="10">
-        <v>8500</v>
-      </c>
-      <c r="E98" s="10">
-        <v>0</v>
-      </c>
-      <c r="F98" s="11">
-        <v>291.37</v>
-      </c>
-      <c r="G98" s="11">
-        <v>296.522</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
-        <v>2476645</v>
-      </c>
-      <c r="J98" s="11">
-        <v>-43793.02</v>
-      </c>
-      <c r="K98" s="11">
-        <v>-45220</v>
-      </c>
-      <c r="L98" s="9">
-        <v>-1.74</v>
-      </c>
-      <c r="M98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="9" t="s">
-        <v>25</v>
+      <c r="A98" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="6">
+        <v>600686</v>
+      </c>
+      <c r="C98" s="6">
+        <v>13400</v>
+      </c>
+      <c r="D98" s="6">
+        <v>13400</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>6.13</v>
+      </c>
+      <c r="G98" s="7">
+        <v>6.048</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>82142</v>
+      </c>
+      <c r="J98" s="7">
+        <v>1093.23</v>
+      </c>
+      <c r="K98" s="7">
+        <v>-1206</v>
+      </c>
+      <c r="L98" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C99" s="6">
-        <v>84700</v>
+        <v>0</v>
       </c>
       <c r="D99" s="6">
-        <v>84700</v>
+        <v>0</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <v>10.59</v>
+        <v>11.38</v>
       </c>
       <c r="G99" s="7">
-        <v>10.561</v>
+        <v>0</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
       <c r="I99" s="7">
-        <v>896973</v>
+        <v>0</v>
       </c>
       <c r="J99" s="7">
-        <v>2434.78</v>
+        <v>15243.18</v>
       </c>
       <c r="K99" s="7">
-        <v>28798</v>
+        <v>-6694.23</v>
       </c>
       <c r="L99" s="8">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>26</v>
@@ -5045,135 +5057,135 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="6">
-        <v>17100</v>
-      </c>
-      <c r="D100" s="6">
-        <v>17100</v>
-      </c>
-      <c r="E100" s="6">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7">
-        <v>11.55</v>
-      </c>
-      <c r="G100" s="7">
-        <v>10.757</v>
-      </c>
-      <c r="H100" s="7">
-        <v>0</v>
-      </c>
-      <c r="I100" s="7">
-        <v>197505</v>
-      </c>
-      <c r="J100" s="7">
-        <v>13558.41</v>
-      </c>
-      <c r="K100" s="7">
-        <v>2736</v>
-      </c>
-      <c r="L100" s="8">
-        <v>7.37</v>
-      </c>
-      <c r="M100" s="8" t="s">
+      <c r="A100" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="10">
+        <v>374939</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10">
+        <v>374939</v>
+      </c>
+      <c r="F100" s="11">
+        <v>7.41</v>
+      </c>
+      <c r="G100" s="11">
+        <v>7.604</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2778297.99</v>
+      </c>
+      <c r="J100" s="11">
+        <v>-72577.41</v>
+      </c>
+      <c r="K100" s="11">
+        <v>-72577.41</v>
+      </c>
+      <c r="L100" s="9">
+        <v>-2.55</v>
+      </c>
+      <c r="M100" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N100" s="8" t="s">
+      <c r="N100" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="6">
-        <v>603429</v>
-      </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6">
-        <v>0</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>40.62</v>
-      </c>
-      <c r="G101" s="7">
-        <v>0</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7">
-        <v>0</v>
-      </c>
-      <c r="J101" s="7">
-        <v>95547.37</v>
-      </c>
-      <c r="K101" s="7">
-        <v>-28.23</v>
-      </c>
-      <c r="L101" s="8">
-        <v>0</v>
-      </c>
-      <c r="M101" s="8" t="s">
+      <c r="A101" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="10">
+        <v>117800</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10">
+        <v>117800</v>
+      </c>
+      <c r="F101" s="11">
+        <v>8.66</v>
+      </c>
+      <c r="G101" s="11">
+        <v>8.867</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11">
+        <v>1020148</v>
+      </c>
+      <c r="J101" s="11">
+        <v>-24399.28</v>
+      </c>
+      <c r="K101" s="11">
+        <v>-24399.28</v>
+      </c>
+      <c r="L101" s="9">
+        <v>-2.33</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="10">
+        <v>600490</v>
+      </c>
+      <c r="C102" s="10">
+        <v>386500</v>
+      </c>
+      <c r="D102" s="10">
+        <v>386500</v>
+      </c>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
+      <c r="F102" s="11">
+        <v>3.59</v>
+      </c>
+      <c r="G102" s="11">
+        <v>3.754</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
+      </c>
+      <c r="I102" s="11">
+        <v>1387535</v>
+      </c>
+      <c r="J102" s="11">
+        <v>-63346.64</v>
+      </c>
+      <c r="K102" s="11">
+        <v>-61840</v>
+      </c>
+      <c r="L102" s="9">
+        <v>-4.37</v>
+      </c>
+      <c r="M102" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="8" t="s">
+      <c r="N102" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="6">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6">
-        <v>0</v>
-      </c>
-      <c r="E102" s="6">
-        <v>0</v>
-      </c>
-      <c r="F102" s="7">
-        <v>56.78</v>
-      </c>
-      <c r="G102" s="7">
-        <v>0</v>
-      </c>
-      <c r="H102" s="7">
-        <v>0</v>
-      </c>
-      <c r="I102" s="7">
-        <v>0</v>
-      </c>
-      <c r="J102" s="7">
-        <v>20088.23</v>
-      </c>
-      <c r="K102" s="7">
-        <v>6423.76</v>
-      </c>
-      <c r="L102" s="8">
-        <v>0</v>
-      </c>
-      <c r="M102" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N102" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
   <si>
     <t>资金</t>
   </si>
@@ -136,9 +136,6 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>DR捷昌驱</t>
-  </si>
-  <si>
     <t>一汽解放</t>
   </si>
   <si>
@@ -154,18 +151,6 @@
     <t>002312</t>
   </si>
   <si>
-    <t>三维股份</t>
-  </si>
-  <si>
-    <t>三诺生物</t>
-  </si>
-  <si>
-    <t>上海莱士</t>
-  </si>
-  <si>
-    <t>002252</t>
-  </si>
-  <si>
     <t>东宏股份</t>
   </si>
   <si>
@@ -193,6 +178,9 @@
     <t>中国出版</t>
   </si>
   <si>
+    <t>中国巨石</t>
+  </si>
+  <si>
     <t>中国建筑</t>
   </si>
   <si>
@@ -202,15 +190,6 @@
     <t>中国联通</t>
   </si>
   <si>
-    <t>中旗股份</t>
-  </si>
-  <si>
-    <t>九阳股份</t>
-  </si>
-  <si>
-    <t>002242</t>
-  </si>
-  <si>
     <t>亚士创能</t>
   </si>
   <si>
@@ -310,6 +289,12 @@
     <t>002327</t>
   </si>
   <si>
+    <t>尚品宅配</t>
+  </si>
+  <si>
+    <t>工业富联</t>
+  </si>
+  <si>
     <t>帝尔激光</t>
   </si>
   <si>
@@ -319,24 +304,33 @@
     <t>广和通</t>
   </si>
   <si>
+    <t>广誉远</t>
+  </si>
+  <si>
     <t>建设机械</t>
   </si>
   <si>
+    <t>开立医疗</t>
+  </si>
+  <si>
     <t>徐工机械</t>
   </si>
   <si>
     <t>000425</t>
   </si>
   <si>
-    <t>快克股份</t>
-  </si>
-  <si>
     <t>悦达投资</t>
   </si>
   <si>
     <t>扬农化工</t>
   </si>
   <si>
+    <t>捷昌驱动</t>
+  </si>
+  <si>
+    <t>数码科技</t>
+  </si>
+  <si>
     <t>新北洋</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>002340</t>
   </si>
   <si>
-    <t>桃李面包</t>
-  </si>
-  <si>
     <t>梅花生物</t>
   </si>
   <si>
@@ -388,18 +379,24 @@
     <t>欧比特</t>
   </si>
   <si>
+    <t>欧派家居</t>
+  </si>
+  <si>
     <t>正海生物</t>
   </si>
   <si>
     <t>洲明科技</t>
   </si>
   <si>
+    <t>海信家电</t>
+  </si>
+  <si>
+    <t>000921</t>
+  </si>
+  <si>
     <t>海航控股</t>
   </si>
   <si>
-    <t>珀莱雅</t>
-  </si>
-  <si>
     <t>瑞普生物</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>SHKCED</t>
   </si>
   <si>
-    <t>索通发展</t>
-  </si>
-  <si>
     <t>美亚光电</t>
   </si>
   <si>
@@ -454,12 +448,18 @@
     <t>莱克电气</t>
   </si>
   <si>
-    <t>迈瑞医疗</t>
+    <t>读者传媒</t>
   </si>
   <si>
     <t>酒钢宏兴</t>
   </si>
   <si>
+    <t>金 螳 螂</t>
+  </si>
+  <si>
+    <t>002081</t>
+  </si>
+  <si>
     <t>金圆股份</t>
   </si>
   <si>
@@ -473,12 +473,6 @@
   </si>
   <si>
     <t>金龙汽车</t>
-  </si>
-  <si>
-    <t>长青集团</t>
-  </si>
-  <si>
-    <t>002616</t>
   </si>
   <si>
     <t>阳 光 城</t>
@@ -885,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -965,28 +959,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2501228.95</v>
+        <v>4766554.91</v>
       </c>
       <c r="D3" s="3">
-        <v>4745793.41</v>
+        <v>10357578.88</v>
       </c>
       <c r="E3" s="3">
-        <v>2501228.95</v>
+        <v>4766554.91</v>
       </c>
       <c r="F3" s="3">
-        <v>-2244564.46</v>
+        <v>-5591023.97</v>
       </c>
       <c r="G3" s="3">
-        <v>95197927.5</v>
+        <v>92377789.54</v>
       </c>
       <c r="H3" s="3">
-        <v>99943720.91</v>
+        <v>102735368.42</v>
       </c>
       <c r="I3" s="3">
-        <v>5446916.85</v>
+        <v>6706380.28</v>
       </c>
       <c r="J3" s="3">
-        <v>-106366.56</v>
+        <v>2778146.01</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1093,10 +1087,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>3535000</v>
+        <v>3711000</v>
       </c>
       <c r="C8" s="3">
-        <v>3535000</v>
+        <v>3711000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1110,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>4430000</v>
+        <v>4657000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1188,87 +1182,87 @@
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6">
-        <v>603583</v>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="6">
-        <v>9080</v>
+        <v>136600</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>125900</v>
       </c>
       <c r="E12" s="6">
-        <v>9080</v>
+        <v>10700</v>
       </c>
       <c r="F12" s="7">
-        <v>54.61</v>
+        <v>14.29</v>
       </c>
       <c r="G12" s="7">
-        <v>25.22</v>
+        <v>13.16</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>495858.8</v>
+        <v>1952014</v>
       </c>
       <c r="J12" s="7">
-        <v>266857.72</v>
+        <v>154401</v>
       </c>
       <c r="K12" s="7">
-        <v>94418.4</v>
+        <v>154939.19</v>
       </c>
       <c r="L12" s="8">
-        <v>116.53</v>
+        <v>8.59</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="10">
-        <v>125900</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>125900</v>
-      </c>
-      <c r="F13" s="11">
-        <v>13.14</v>
-      </c>
-      <c r="G13" s="11">
-        <v>13.145</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1654326</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-584.3</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-584.3</v>
-      </c>
-      <c r="L13" s="9">
-        <v>-0.04</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="B13" s="6">
+        <v>300482</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>105.4</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>108419.45</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-8990.23</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1276,38 +1270,38 @@
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="6">
-        <v>300482</v>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="6">
-        <v>11800</v>
+        <v>190850</v>
       </c>
       <c r="D14" s="6">
-        <v>11800</v>
+        <v>190850</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>103.36</v>
+        <v>5.48</v>
       </c>
       <c r="G14" s="7">
-        <v>93.41</v>
+        <v>5.088</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1219648</v>
+        <v>1045858</v>
       </c>
       <c r="J14" s="7">
-        <v>117409.68</v>
+        <v>74884.88</v>
       </c>
       <c r="K14" s="7">
-        <v>46138</v>
+        <v>20993.5</v>
       </c>
       <c r="L14" s="8">
-        <v>10.65</v>
+        <v>7.7</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1318,46 +1312,46 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="B15" s="6">
+        <v>603856</v>
+      </c>
       <c r="C15" s="6">
-        <v>190850</v>
+        <v>19400</v>
       </c>
       <c r="D15" s="6">
-        <v>190850</v>
+        <v>19400</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>5.37</v>
+        <v>17.1</v>
       </c>
       <c r="G15" s="7">
-        <v>5.088</v>
+        <v>14.209</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>1024864.5</v>
+        <v>331740</v>
       </c>
       <c r="J15" s="7">
-        <v>53891.38</v>
+        <v>56088.08</v>
       </c>
       <c r="K15" s="7">
-        <v>-41987</v>
+        <v>23862</v>
       </c>
       <c r="L15" s="8">
-        <v>5.54</v>
+        <v>20.35</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1365,37 +1359,37 @@
         <v>46</v>
       </c>
       <c r="B16" s="6">
-        <v>603033</v>
+        <v>600637</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>93600</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
+        <v>93600</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>24.09</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>10.755</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1029600</v>
       </c>
       <c r="J16" s="7">
-        <v>21453.72</v>
+        <v>22968.9</v>
       </c>
       <c r="K16" s="7">
-        <v>8693.56</v>
+        <v>15912</v>
       </c>
       <c r="L16" s="8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1409,86 +1403,86 @@
         <v>47</v>
       </c>
       <c r="B17" s="6">
-        <v>300298</v>
+        <v>600811</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>55700</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>55700</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>35.91</v>
+        <v>5.36</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>4.431</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>298552</v>
       </c>
       <c r="J17" s="7">
-        <v>134978.61</v>
+        <v>51759.07</v>
       </c>
       <c r="K17" s="7">
-        <v>40270.64</v>
+        <v>20052</v>
       </c>
       <c r="L17" s="8">
-        <v>0</v>
+        <v>20.97</v>
       </c>
       <c r="M17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="10">
+        <v>76600</v>
+      </c>
+      <c r="D18" s="10">
+        <v>76600</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>36.26</v>
+      </c>
+      <c r="G18" s="11">
+        <v>37.025</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>2777516</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-58569.38</v>
+      </c>
+      <c r="K18" s="11">
+        <v>15730.31</v>
+      </c>
+      <c r="L18" s="9">
+        <v>-2.07</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>10.14</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>359088.98</v>
-      </c>
-      <c r="K18" s="7">
-        <v>58703.08</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1497,37 +1491,37 @@
         <v>50</v>
       </c>
       <c r="B19" s="6">
-        <v>603856</v>
+        <v>600158</v>
       </c>
       <c r="C19" s="6">
-        <v>19400</v>
+        <v>77000</v>
       </c>
       <c r="D19" s="6">
-        <v>19400</v>
+        <v>77000</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>15.87</v>
+        <v>9.41</v>
       </c>
       <c r="G19" s="7">
-        <v>14.209</v>
+        <v>9.302</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>307878</v>
+        <v>724570</v>
       </c>
       <c r="J19" s="7">
-        <v>32226.08</v>
+        <v>8350.29</v>
       </c>
       <c r="K19" s="7">
-        <v>10088</v>
+        <v>16170</v>
       </c>
       <c r="L19" s="8">
-        <v>11.69</v>
+        <v>1.16</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
@@ -1541,37 +1535,37 @@
         <v>51</v>
       </c>
       <c r="B20" s="6">
-        <v>600637</v>
+        <v>600675</v>
       </c>
       <c r="C20" s="6">
-        <v>93600</v>
+        <v>151260</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
+        <v>151260</v>
       </c>
       <c r="E20" s="6">
-        <v>93600</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>10.83</v>
+        <v>4.87</v>
       </c>
       <c r="G20" s="7">
-        <v>10.755</v>
+        <v>4.036</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1013688</v>
+        <v>736636.2</v>
       </c>
       <c r="J20" s="7">
-        <v>7011.46</v>
+        <v>126191.33</v>
       </c>
       <c r="K20" s="7">
-        <v>7011.46</v>
+        <v>7867.73</v>
       </c>
       <c r="L20" s="8">
-        <v>0.7</v>
+        <v>20.66</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>24</v>
@@ -1581,349 +1575,349 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="6">
-        <v>600811</v>
-      </c>
-      <c r="C21" s="6">
-        <v>55700</v>
-      </c>
-      <c r="D21" s="6">
-        <v>55700</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
-        <v>4.431</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>278500</v>
-      </c>
-      <c r="J21" s="7">
-        <v>31707.07</v>
-      </c>
-      <c r="K21" s="7">
-        <v>-3342</v>
-      </c>
-      <c r="L21" s="8">
-        <v>12.84</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="B21" s="10">
+        <v>601766</v>
+      </c>
+      <c r="C21" s="10">
+        <v>119400</v>
+      </c>
+      <c r="D21" s="10">
+        <v>119400</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>6.25</v>
+      </c>
+      <c r="G21" s="11">
+        <v>6.319</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>746250</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-8181.24</v>
+      </c>
+      <c r="K21" s="11">
+        <v>8358</v>
+      </c>
+      <c r="L21" s="9">
+        <v>-1.09</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6">
+        <v>601949</v>
+      </c>
+      <c r="C22" s="6">
+        <v>230500</v>
+      </c>
+      <c r="D22" s="6">
+        <v>230500</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5.716</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1383000</v>
+      </c>
+      <c r="J22" s="7">
+        <v>65512.08</v>
+      </c>
+      <c r="K22" s="7">
+        <v>25355</v>
+      </c>
+      <c r="L22" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="10">
-        <v>80200</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>80200</v>
-      </c>
-      <c r="F22" s="11">
-        <v>36.05</v>
-      </c>
-      <c r="G22" s="11">
-        <v>36.979</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2891210</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-74516.48</v>
-      </c>
-      <c r="K22" s="11">
-        <v>-74516.48</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-2.51</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="6">
+        <v>600176</v>
+      </c>
+      <c r="C23" s="6">
+        <v>185900</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>185900</v>
+      </c>
+      <c r="F23" s="7">
+        <v>10.47</v>
+      </c>
+      <c r="G23" s="7">
+        <v>9.899</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1946373</v>
+      </c>
+      <c r="J23" s="7">
+        <v>106165.82</v>
+      </c>
+      <c r="K23" s="7">
+        <v>106165.82</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5.77</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="10">
-        <v>600158</v>
-      </c>
-      <c r="C23" s="10">
-        <v>77000</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>77000</v>
-      </c>
-      <c r="F23" s="11">
-        <v>9.2</v>
-      </c>
-      <c r="G23" s="11">
-        <v>9.302</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>708400</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-7845.66</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-7845.66</v>
-      </c>
-      <c r="L23" s="9">
-        <v>-1.1</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="B24" s="10">
+        <v>601668</v>
+      </c>
+      <c r="C24" s="10">
+        <v>17400</v>
+      </c>
+      <c r="D24" s="10">
+        <v>17400</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.34</v>
+      </c>
+      <c r="G24" s="11">
+        <v>5.521</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>92916</v>
+      </c>
+      <c r="J24" s="11">
+        <v>-3148.33</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1218</v>
+      </c>
+      <c r="L24" s="9">
+        <v>-3.28</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6">
-        <v>600675</v>
-      </c>
-      <c r="C24" s="6">
-        <v>356960</v>
-      </c>
-      <c r="D24" s="6">
-        <v>356960</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>4.78</v>
-      </c>
-      <c r="G24" s="7">
-        <v>4.449</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1706268.8</v>
-      </c>
-      <c r="J24" s="7">
-        <v>118323.6</v>
-      </c>
-      <c r="K24" s="7">
-        <v>42835.2</v>
-      </c>
-      <c r="L24" s="8">
-        <v>7.44</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="B25" s="6">
+        <v>601965</v>
+      </c>
+      <c r="C25" s="6">
+        <v>35800</v>
+      </c>
+      <c r="D25" s="6">
+        <v>35800</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>10.43</v>
+      </c>
+      <c r="G25" s="7">
+        <v>9.589</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>373394</v>
+      </c>
+      <c r="J25" s="7">
+        <v>30117.13</v>
+      </c>
+      <c r="K25" s="7">
+        <v>8234</v>
+      </c>
+      <c r="L25" s="8">
+        <v>8.77</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="10">
-        <v>601766</v>
-      </c>
-      <c r="C25" s="10">
-        <v>119400</v>
-      </c>
-      <c r="D25" s="10">
-        <v>119400</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>6.18</v>
-      </c>
-      <c r="G25" s="11">
-        <v>6.319</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>737892</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-16539.24</v>
-      </c>
-      <c r="K25" s="11">
-        <v>-20298</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-2.2</v>
-      </c>
-      <c r="M25" s="9" t="s">
+      <c r="B26" s="10">
+        <v>600050</v>
+      </c>
+      <c r="C26" s="10">
+        <v>502800</v>
+      </c>
+      <c r="D26" s="10">
+        <v>502800</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="G26" s="11">
+        <v>5.393</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2664840</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-46635.9</v>
+      </c>
+      <c r="K26" s="11">
+        <v>55308</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-1.72</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="6">
-        <v>601949</v>
-      </c>
-      <c r="C26" s="6">
-        <v>230500</v>
-      </c>
-      <c r="D26" s="6">
-        <v>230500</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>5.89</v>
-      </c>
-      <c r="G26" s="7">
-        <v>5.716</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1357645</v>
-      </c>
-      <c r="J26" s="7">
-        <v>40157.08</v>
-      </c>
-      <c r="K26" s="7">
-        <v>-13830</v>
-      </c>
-      <c r="L26" s="8">
-        <v>3.04</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="B27" s="6">
+        <v>603378</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>50.98</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>132449.6</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5787.53</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="10">
-        <v>601668</v>
-      </c>
-      <c r="C27" s="10">
-        <v>17400</v>
-      </c>
-      <c r="D27" s="10">
-        <v>17400</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <v>5.27</v>
-      </c>
-      <c r="G27" s="11">
-        <v>5.521</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>91698</v>
-      </c>
-      <c r="J27" s="11">
-        <v>-4366.33</v>
-      </c>
-      <c r="K27" s="11">
-        <v>-3654</v>
-      </c>
-      <c r="L27" s="9">
-        <v>-4.55</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6">
-        <v>601965</v>
+        <v>603707</v>
       </c>
       <c r="C28" s="6">
-        <v>35800</v>
+        <v>24600</v>
       </c>
       <c r="D28" s="6">
-        <v>35800</v>
+        <v>24600</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>10.2</v>
+        <v>62.58</v>
       </c>
       <c r="G28" s="7">
-        <v>9.589</v>
+        <v>59.272</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>365160</v>
+        <v>1539468</v>
       </c>
       <c r="J28" s="7">
-        <v>21883.13</v>
+        <v>81371.8</v>
       </c>
       <c r="K28" s="7">
-        <v>2506</v>
+        <v>63468</v>
       </c>
       <c r="L28" s="8">
-        <v>6.37</v>
+        <v>5.58</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>24</v>
@@ -1933,85 +1927,85 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="10">
-        <v>600050</v>
-      </c>
-      <c r="C29" s="10">
-        <v>502800</v>
-      </c>
-      <c r="D29" s="10">
-        <v>502800</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>5.19</v>
-      </c>
-      <c r="G29" s="11">
-        <v>5.393</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>2609532</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-101943.9</v>
-      </c>
-      <c r="K29" s="11">
-        <v>-85476</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-3.76</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>23</v>
+      <c r="A29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6">
+        <v>300695</v>
+      </c>
+      <c r="C29" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F29" s="7">
+        <v>78.01</v>
+      </c>
+      <c r="G29" s="7">
+        <v>66.173</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>585075</v>
+      </c>
+      <c r="J29" s="7">
+        <v>88776.13</v>
+      </c>
+      <c r="K29" s="7">
+        <v>20561.17</v>
+      </c>
+      <c r="L29" s="8">
+        <v>17.89</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6">
-        <v>300575</v>
-      </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>453800</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>453800</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>44.82</v>
+        <v>6.04</v>
       </c>
       <c r="G30" s="7">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>2740952</v>
       </c>
       <c r="J30" s="7">
-        <v>394919.59</v>
+        <v>13604.37</v>
       </c>
       <c r="K30" s="7">
-        <v>3880.85</v>
+        <v>8820.07</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>26</v>
@@ -2021,85 +2015,85 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>35.3</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>-2157.16</v>
-      </c>
-      <c r="K31" s="11">
-        <v>-26915</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9" t="s">
+      <c r="B31" s="6">
+        <v>300296</v>
+      </c>
+      <c r="C31" s="6">
+        <v>389400</v>
+      </c>
+      <c r="D31" s="6">
+        <v>389400</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>7.43</v>
+      </c>
+      <c r="G31" s="7">
+        <v>7.045</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2893242</v>
+      </c>
+      <c r="J31" s="7">
+        <v>149736.95</v>
+      </c>
+      <c r="K31" s="7">
+        <v>211558.58</v>
+      </c>
+      <c r="L31" s="8">
+        <v>5.46</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="6">
-        <v>603378</v>
+        <v>600010</v>
       </c>
       <c r="C32" s="6">
-        <v>9700</v>
+        <v>1700000</v>
       </c>
       <c r="D32" s="6">
-        <v>9700</v>
+        <v>1700000</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>48.7</v>
+        <v>1.24</v>
       </c>
       <c r="G32" s="7">
-        <v>35.642</v>
+        <v>1.201</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>472390</v>
+        <v>2108000</v>
       </c>
       <c r="J32" s="7">
-        <v>126662.07</v>
+        <v>66653.04</v>
       </c>
       <c r="K32" s="7">
-        <v>30167</v>
+        <v>34000</v>
       </c>
       <c r="L32" s="8">
-        <v>36.64</v>
+        <v>3.25</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>24</v>
@@ -2110,40 +2104,40 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="6">
-        <v>603707</v>
+        <v>600850</v>
       </c>
       <c r="C33" s="6">
-        <v>24600</v>
+        <v>17000</v>
       </c>
       <c r="D33" s="6">
-        <v>24600</v>
+        <v>17000</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>60</v>
+        <v>28.07</v>
       </c>
       <c r="G33" s="7">
-        <v>59.272</v>
+        <v>22.902</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>1476000</v>
+        <v>477190</v>
       </c>
       <c r="J33" s="7">
-        <v>17903.8</v>
+        <v>87850.2</v>
       </c>
       <c r="K33" s="7">
-        <v>-17466</v>
+        <v>2890</v>
       </c>
       <c r="L33" s="8">
-        <v>1.23</v>
+        <v>22.57</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>24</v>
@@ -2154,265 +2148,265 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="6">
-        <v>300695</v>
+        <v>600475</v>
       </c>
       <c r="C34" s="6">
-        <v>6000</v>
+        <v>20700</v>
       </c>
       <c r="D34" s="6">
-        <v>6000</v>
+        <v>20700</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>75.1</v>
+        <v>13.6</v>
       </c>
       <c r="G34" s="7">
-        <v>63.731</v>
+        <v>11.312</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>450600</v>
+        <v>281520</v>
       </c>
       <c r="J34" s="7">
-        <v>68214.96</v>
+        <v>47357.19</v>
       </c>
       <c r="K34" s="7">
-        <v>-2580</v>
+        <v>8694</v>
       </c>
       <c r="L34" s="8">
-        <v>17.84</v>
+        <v>20.23</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="6">
+        <v>511990</v>
+      </c>
+      <c r="C35" s="6">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6">
+        <v>14</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>100.01</v>
+      </c>
+      <c r="G35" s="7">
+        <v>-11749.026</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1400.14</v>
+      </c>
+      <c r="J35" s="7">
+        <v>165886.51</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-0.29</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="6">
-        <v>472300</v>
-      </c>
-      <c r="D35" s="6">
-        <v>472300</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>6.02</v>
-      </c>
-      <c r="G35" s="7">
-        <v>6.01</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>2843246</v>
-      </c>
-      <c r="J35" s="7">
-        <v>4784.3</v>
-      </c>
-      <c r="K35" s="7">
-        <v>-33061</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="M35" s="8" t="s">
+      <c r="C36" s="6">
+        <v>201044</v>
+      </c>
+      <c r="D36" s="6">
+        <v>201044</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2.03</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>442296.8</v>
+      </c>
+      <c r="J36" s="7">
+        <v>34177.08</v>
+      </c>
+      <c r="K36" s="7">
+        <v>6031.32</v>
+      </c>
+      <c r="L36" s="8">
+        <v>8.37</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="10">
-        <v>300296</v>
-      </c>
-      <c r="C36" s="10">
-        <v>405200</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>405200</v>
-      </c>
-      <c r="F36" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="G36" s="11">
-        <v>7.053</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>2795880</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-61959.68</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-61959.68</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-2.17</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="6">
-        <v>600010</v>
+        <v>300027</v>
       </c>
       <c r="C37" s="6">
-        <v>1700000</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>1700000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>1.22</v>
+        <v>4.84</v>
       </c>
       <c r="G37" s="7">
-        <v>1.201</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>2074000</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>32653.04</v>
+        <v>223433.44</v>
       </c>
       <c r="K37" s="7">
-        <v>-85000</v>
+        <v>-43051.22</v>
       </c>
       <c r="L37" s="8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="6">
-        <v>600850</v>
-      </c>
       <c r="C38" s="6">
-        <v>17000</v>
+        <v>112400</v>
       </c>
       <c r="D38" s="6">
-        <v>17000</v>
+        <v>112400</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>27.9</v>
+        <v>5.13</v>
       </c>
       <c r="G38" s="7">
-        <v>22.902</v>
+        <v>5.107</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>474300</v>
+        <v>576612</v>
       </c>
       <c r="J38" s="7">
-        <v>84960.2</v>
+        <v>2582.85</v>
       </c>
       <c r="K38" s="7">
-        <v>1700</v>
+        <v>8992</v>
       </c>
       <c r="L38" s="8">
-        <v>21.82</v>
+        <v>0.45</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="10">
+        <v>600219</v>
+      </c>
+      <c r="C39" s="10">
+        <v>730300</v>
+      </c>
+      <c r="D39" s="10">
+        <v>730300</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="G39" s="11">
+        <v>2.41</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1745417</v>
+      </c>
+      <c r="J39" s="11">
+        <v>-14312</v>
+      </c>
+      <c r="K39" s="11">
+        <v>43818</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-0.83</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="6">
-        <v>600475</v>
-      </c>
-      <c r="C39" s="6">
-        <v>20700</v>
-      </c>
-      <c r="D39" s="6">
-        <v>20700</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>13.18</v>
-      </c>
-      <c r="G39" s="7">
-        <v>11.312</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>272826</v>
-      </c>
-      <c r="J39" s="7">
-        <v>38663.19</v>
-      </c>
-      <c r="K39" s="7">
-        <v>621</v>
-      </c>
-      <c r="L39" s="8">
-        <v>16.51</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2420,82 +2414,82 @@
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="6">
-        <v>511990</v>
+      <c r="B40" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C40" s="6">
-        <v>14</v>
+        <v>7500</v>
       </c>
       <c r="D40" s="6">
-        <v>14</v>
+        <v>7500</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>100.031</v>
+        <v>66.8</v>
       </c>
       <c r="G40" s="7">
-        <v>-11749.026</v>
+        <v>53.268</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>1400.43</v>
+        <v>501000</v>
       </c>
       <c r="J40" s="7">
-        <v>165886.8</v>
+        <v>101493.56</v>
       </c>
       <c r="K40" s="7">
-        <v>0.37</v>
+        <v>-900</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="6">
-        <v>201044</v>
+        <v>37200</v>
       </c>
       <c r="D41" s="6">
-        <v>1044</v>
+        <v>37200</v>
       </c>
       <c r="E41" s="6">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>2.17</v>
+        <v>75.16</v>
       </c>
       <c r="G41" s="7">
-        <v>2.03</v>
+        <v>70.823</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>436265.48</v>
+        <v>2795952</v>
       </c>
       <c r="J41" s="7">
-        <v>28145.76</v>
+        <v>161341.88</v>
       </c>
       <c r="K41" s="7">
-        <v>7428.94</v>
+        <v>-30132</v>
       </c>
       <c r="L41" s="8">
-        <v>6.9</v>
+        <v>6.12</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>26</v>
@@ -2506,172 +2500,172 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="6">
-        <v>300027</v>
+        <v>603077</v>
       </c>
       <c r="C42" s="6">
-        <v>544200</v>
+        <v>1960800</v>
       </c>
       <c r="D42" s="6">
-        <v>444200</v>
+        <v>1960800</v>
       </c>
       <c r="E42" s="6">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>4.73</v>
+        <v>1.45</v>
       </c>
       <c r="G42" s="7">
-        <v>4.24</v>
+        <v>1.417</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>2574066</v>
+        <v>2843160</v>
       </c>
       <c r="J42" s="7">
-        <v>266484.66</v>
+        <v>63851.77</v>
       </c>
       <c r="K42" s="7">
-        <v>234406.85</v>
+        <v>98254.6</v>
       </c>
       <c r="L42" s="8">
-        <v>11.56</v>
+        <v>2.33</v>
       </c>
       <c r="M42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="6">
+        <v>600039</v>
+      </c>
+      <c r="C43" s="6">
+        <v>62160</v>
+      </c>
+      <c r="D43" s="6">
+        <v>62160</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4.36</v>
+      </c>
+      <c r="G43" s="7">
+        <v>4.093</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>271017.6</v>
+      </c>
+      <c r="J43" s="7">
+        <v>16619.96</v>
+      </c>
+      <c r="K43" s="7">
+        <v>13053.6</v>
+      </c>
+      <c r="L43" s="8">
+        <v>6.52</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D44" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>13.88</v>
+      </c>
+      <c r="G44" s="7">
+        <v>12.392</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>208200</v>
+      </c>
+      <c r="J44" s="7">
+        <v>22321.07</v>
+      </c>
+      <c r="K44" s="7">
+        <v>6750</v>
+      </c>
+      <c r="L44" s="8">
+        <v>12.01</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="10">
-        <v>112400</v>
-      </c>
-      <c r="D43" s="10">
-        <v>112400</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>5.05</v>
-      </c>
-      <c r="G43" s="11">
-        <v>5.107</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>567620</v>
-      </c>
-      <c r="J43" s="11">
-        <v>-6409.15</v>
-      </c>
-      <c r="K43" s="11">
-        <v>-13488</v>
-      </c>
-      <c r="L43" s="9">
-        <v>-1.12</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="10">
-        <v>600219</v>
-      </c>
-      <c r="C44" s="10">
-        <v>730300</v>
-      </c>
-      <c r="D44" s="10">
-        <v>730300</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <v>2.33</v>
-      </c>
-      <c r="G44" s="11">
-        <v>2.41</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>1701599</v>
-      </c>
-      <c r="J44" s="11">
-        <v>-58130</v>
-      </c>
-      <c r="K44" s="11">
-        <v>-58424</v>
-      </c>
-      <c r="L44" s="9">
-        <v>-3.32</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="6">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="D45" s="6">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>66.92</v>
+        <v>108.17</v>
       </c>
       <c r="G45" s="7">
-        <v>53.268</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>501900</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>102393.56</v>
+        <v>267539.58</v>
       </c>
       <c r="K45" s="7">
-        <v>9525</v>
+        <v>24336.33</v>
       </c>
       <c r="L45" s="8">
-        <v>25.63</v>
+        <v>0</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2682,172 +2676,172 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="B46" s="6">
+        <v>603826</v>
+      </c>
       <c r="C46" s="6">
-        <v>37200</v>
+        <v>72900</v>
       </c>
       <c r="D46" s="6">
-        <v>37200</v>
+        <v>72900</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>75.97</v>
+        <v>32.92</v>
       </c>
       <c r="G46" s="7">
-        <v>70.823</v>
+        <v>31.379</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>2826084</v>
+        <v>2399868</v>
       </c>
       <c r="J46" s="7">
-        <v>191473.88</v>
+        <v>112361.22</v>
       </c>
       <c r="K46" s="7">
-        <v>136152</v>
+        <v>-93312</v>
       </c>
       <c r="L46" s="8">
-        <v>7.27</v>
+        <v>4.91</v>
       </c>
       <c r="M46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="6">
+        <v>12100</v>
+      </c>
+      <c r="D47" s="6">
+        <v>12100</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>114.38</v>
+      </c>
+      <c r="G47" s="7">
+        <v>103.31</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1383998</v>
+      </c>
+      <c r="J47" s="7">
+        <v>133950.44</v>
+      </c>
+      <c r="K47" s="7">
+        <v>33154</v>
+      </c>
+      <c r="L47" s="8">
+        <v>10.72</v>
+      </c>
+      <c r="M47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="N47" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="10">
-        <v>603077</v>
-      </c>
-      <c r="C47" s="10">
-        <v>1986500</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1986500</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1.417</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2781100</v>
-      </c>
-      <c r="J47" s="11">
-        <v>-34402.83</v>
-      </c>
-      <c r="K47" s="11">
-        <v>-99325</v>
-      </c>
-      <c r="L47" s="9">
-        <v>-1.2</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="6">
-        <v>600039</v>
+        <v>87</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C48" s="6">
-        <v>62160</v>
+        <v>69900</v>
       </c>
       <c r="D48" s="6">
-        <v>62160</v>
+        <v>69900</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>4.15</v>
+        <v>4.86</v>
       </c>
       <c r="G48" s="7">
-        <v>4.093</v>
+        <v>4.621</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>257964</v>
+        <v>339714</v>
       </c>
       <c r="J48" s="7">
-        <v>3566.36</v>
+        <v>16704.58</v>
       </c>
       <c r="K48" s="7">
-        <v>-3729.6</v>
+        <v>13980</v>
       </c>
       <c r="L48" s="8">
-        <v>1.39</v>
+        <v>5.17</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C49" s="6">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>13.43</v>
+        <v>7.84</v>
       </c>
       <c r="G49" s="7">
-        <v>12.392</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>201450</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>15571.07</v>
+        <v>26983.9</v>
       </c>
       <c r="K49" s="7">
-        <v>-1650</v>
+        <v>-1394.9</v>
       </c>
       <c r="L49" s="8">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2858,40 +2852,40 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B50" s="6">
+        <v>300616</v>
       </c>
       <c r="C50" s="6">
-        <v>10000</v>
+        <v>11900</v>
       </c>
       <c r="D50" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="F50" s="7">
-        <v>98.34</v>
+        <v>66.18</v>
       </c>
       <c r="G50" s="7">
-        <v>74.02</v>
+        <v>65.697</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>983400</v>
+        <v>787542</v>
       </c>
       <c r="J50" s="7">
-        <v>243203.25</v>
+        <v>5743.93</v>
       </c>
       <c r="K50" s="7">
-        <v>117620.64</v>
+        <v>5743.93</v>
       </c>
       <c r="L50" s="8">
-        <v>32.86</v>
+        <v>0.74</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>26</v>
@@ -2902,40 +2896,40 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="6">
-        <v>603826</v>
+        <v>601138</v>
       </c>
       <c r="C51" s="6">
-        <v>72900</v>
+        <v>113700</v>
       </c>
       <c r="D51" s="6">
-        <v>72900</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6">
-        <v>0</v>
+        <v>113700</v>
       </c>
       <c r="F51" s="7">
-        <v>34.2</v>
+        <v>16.5</v>
       </c>
       <c r="G51" s="7">
-        <v>31.379</v>
+        <v>16.051</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>2493180</v>
+        <v>1876050</v>
       </c>
       <c r="J51" s="7">
-        <v>205673.22</v>
+        <v>51100.86</v>
       </c>
       <c r="K51" s="7">
-        <v>114453</v>
+        <v>51100.86</v>
       </c>
       <c r="L51" s="8">
-        <v>8.99</v>
+        <v>2.8</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>24</v>
@@ -2946,40 +2940,40 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="B52" s="6">
+        <v>300776</v>
+      </c>
       <c r="C52" s="6">
-        <v>12100</v>
+        <v>20</v>
       </c>
       <c r="D52" s="6">
-        <v>12100</v>
+        <v>20</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>112.24</v>
+        <v>92.77</v>
       </c>
       <c r="G52" s="7">
-        <v>103.91</v>
+        <v>-9185.759</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1358104</v>
+        <v>1855.4</v>
       </c>
       <c r="J52" s="7">
-        <v>100796.44</v>
+        <v>185570.57</v>
       </c>
       <c r="K52" s="7">
-        <v>39688</v>
+        <v>20949.09</v>
       </c>
       <c r="L52" s="8">
-        <v>8.02</v>
+        <v>0</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>26</v>
@@ -2992,38 +2986,38 @@
       <c r="A53" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>95</v>
+      <c r="B53" s="6">
+        <v>300255</v>
       </c>
       <c r="C53" s="6">
-        <v>69900</v>
+        <v>193900</v>
       </c>
       <c r="D53" s="6">
-        <v>69900</v>
+        <v>193900</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>4.66</v>
+        <v>6.82</v>
       </c>
       <c r="G53" s="7">
-        <v>4.621</v>
+        <v>6.546</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>325734</v>
+        <v>1322398</v>
       </c>
       <c r="J53" s="7">
-        <v>2724.58</v>
+        <v>53120.25</v>
       </c>
       <c r="K53" s="7">
-        <v>-6291</v>
+        <v>81438</v>
       </c>
       <c r="L53" s="8">
-        <v>0.84</v>
+        <v>4.19</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3034,40 +3028,40 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="B54" s="6">
+        <v>300638</v>
       </c>
       <c r="C54" s="6">
-        <v>50900</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
-        <v>50900</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>7.81</v>
+        <v>68.88</v>
       </c>
       <c r="G54" s="7">
-        <v>7.252</v>
+        <v>0</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>397529</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7">
-        <v>28378.8</v>
+        <v>428914.3</v>
       </c>
       <c r="K54" s="7">
-        <v>7126</v>
+        <v>81.17</v>
       </c>
       <c r="L54" s="8">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3078,128 +3072,128 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="6">
-        <v>300776</v>
+        <v>600771</v>
       </c>
       <c r="C55" s="6">
-        <v>15820</v>
+        <v>99700</v>
       </c>
       <c r="D55" s="6">
-        <v>15820</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>99700</v>
       </c>
       <c r="F55" s="7">
-        <v>89.75</v>
+        <v>15.45</v>
       </c>
       <c r="G55" s="7">
-        <v>79.344</v>
+        <v>14.845</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>1419845</v>
+        <v>1540365</v>
       </c>
       <c r="J55" s="7">
-        <v>164621.48</v>
+        <v>60334.88</v>
       </c>
       <c r="K55" s="7">
-        <v>-28634.2</v>
+        <v>60334.88</v>
       </c>
       <c r="L55" s="8">
-        <v>13.12</v>
+        <v>4.08</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="10">
-        <v>300255</v>
+        <v>600984</v>
       </c>
       <c r="C56" s="10">
-        <v>193900</v>
+        <v>28600</v>
       </c>
       <c r="D56" s="10">
-        <v>46600</v>
+        <v>28600</v>
       </c>
       <c r="E56" s="10">
-        <v>147300</v>
+        <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>6.4</v>
+        <v>21.92</v>
       </c>
       <c r="G56" s="11">
-        <v>6.548</v>
+        <v>26.331</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>1240960</v>
+        <v>626912</v>
       </c>
       <c r="J56" s="11">
-        <v>-28621.88</v>
+        <v>-126155.68</v>
       </c>
       <c r="K56" s="11">
-        <v>-49169.12</v>
+        <v>15158</v>
       </c>
       <c r="L56" s="9">
-        <v>-2.26</v>
+        <v>-16.75</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="6">
-        <v>300638</v>
+        <v>300633</v>
       </c>
       <c r="C57" s="6">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="D57" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F57" s="7">
-        <v>67.33</v>
+        <v>39.55</v>
       </c>
       <c r="G57" s="7">
-        <v>-4215.186</v>
+        <v>38.183</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>6733</v>
+        <v>98875</v>
       </c>
       <c r="J57" s="7">
-        <v>428251.62</v>
+        <v>3418.68</v>
       </c>
       <c r="K57" s="7">
-        <v>67056.06</v>
+        <v>3418.68</v>
       </c>
       <c r="L57" s="8">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>26</v>
@@ -3209,129 +3203,129 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="6">
+        <v>426600</v>
+      </c>
+      <c r="D58" s="6">
+        <v>426600</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>6.87</v>
+      </c>
+      <c r="G58" s="7">
+        <v>6.389</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2930742</v>
+      </c>
+      <c r="J58" s="7">
+        <v>205388.27</v>
+      </c>
+      <c r="K58" s="7">
+        <v>230364</v>
+      </c>
+      <c r="L58" s="8">
+        <v>7.53</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="10">
-        <v>600984</v>
-      </c>
-      <c r="C58" s="10">
-        <v>28600</v>
-      </c>
-      <c r="D58" s="10">
-        <v>28600</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>21.39</v>
-      </c>
-      <c r="G58" s="11">
-        <v>26.338</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>611754</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-141526.8</v>
-      </c>
-      <c r="K58" s="11">
-        <v>-52183.79</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-18.79</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="B59" s="6">
+        <v>600805</v>
+      </c>
+      <c r="C59" s="6">
+        <v>85580</v>
+      </c>
+      <c r="D59" s="6">
+        <v>85580</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>4.62</v>
+      </c>
+      <c r="G59" s="7">
+        <v>4.613</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>395379.6</v>
+      </c>
+      <c r="J59" s="7">
+        <v>623.69</v>
+      </c>
+      <c r="K59" s="7">
+        <v>9413.8</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N59" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="10">
-        <v>426600</v>
-      </c>
-      <c r="D59" s="10">
-        <v>426600</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>6.33</v>
-      </c>
-      <c r="G59" s="11">
-        <v>6.389</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>2700378</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-24975.73</v>
-      </c>
-      <c r="K59" s="11">
-        <v>-106650</v>
-      </c>
-      <c r="L59" s="9">
-        <v>-0.92</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B60" s="6">
-        <v>603203</v>
+        <v>600486</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D60" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>31.97</v>
+        <v>87.46</v>
       </c>
       <c r="G60" s="7">
-        <v>0</v>
+        <v>80.514</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>43730</v>
       </c>
       <c r="J60" s="7">
-        <v>106431.2</v>
+        <v>3473.15</v>
       </c>
       <c r="K60" s="7">
-        <v>-5.71</v>
+        <v>1270</v>
       </c>
       <c r="L60" s="8">
-        <v>0</v>
+        <v>8.63</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>24</v>
@@ -3341,99 +3335,99 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="10">
-        <v>600805</v>
-      </c>
-      <c r="C61" s="10">
-        <v>85580</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0</v>
-      </c>
-      <c r="E61" s="10">
-        <v>85580</v>
-      </c>
-      <c r="F61" s="11">
-        <v>4.51</v>
-      </c>
-      <c r="G61" s="11">
-        <v>4.613</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>385965.8</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-8822.91</v>
-      </c>
-      <c r="K61" s="11">
-        <v>-8822.91</v>
-      </c>
-      <c r="L61" s="9">
-        <v>-2.23</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="A61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="6">
+        <v>603583</v>
+      </c>
+      <c r="C61" s="6">
+        <v>80</v>
+      </c>
+      <c r="D61" s="6">
+        <v>80</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="G61" s="7">
+        <v>-3159.184</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>4384</v>
+      </c>
+      <c r="J61" s="7">
+        <v>257118.7</v>
+      </c>
+      <c r="K61" s="7">
+        <v>-10283.74</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="6">
-        <v>600486</v>
+        <v>300079</v>
       </c>
       <c r="C62" s="6">
-        <v>500</v>
+        <v>30200</v>
       </c>
       <c r="D62" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="F62" s="7">
-        <v>84.92</v>
+        <v>5.44</v>
       </c>
       <c r="G62" s="7">
-        <v>80.514</v>
+        <v>5.413</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>42460</v>
+        <v>164288</v>
       </c>
       <c r="J62" s="7">
-        <v>2203.15</v>
+        <v>816.78</v>
       </c>
       <c r="K62" s="7">
-        <v>-725</v>
+        <v>816.78</v>
       </c>
       <c r="L62" s="8">
-        <v>5.47</v>
+        <v>0.5</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="6">
         <v>184700</v>
@@ -3445,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>11.14</v>
+        <v>11.54</v>
       </c>
       <c r="G63" s="7">
         <v>11.045</v>
@@ -3454,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>2057558</v>
+        <v>2131438</v>
       </c>
       <c r="J63" s="7">
-        <v>17537.01</v>
+        <v>91417.01</v>
       </c>
       <c r="K63" s="7">
-        <v>-38787</v>
+        <v>73880</v>
       </c>
       <c r="L63" s="8">
-        <v>0.86</v>
+        <v>4.48</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3474,10 +3468,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="6">
         <v>22300</v>
@@ -3489,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>36.8</v>
+        <v>38.08</v>
       </c>
       <c r="G64" s="7">
         <v>34.872</v>
@@ -3498,16 +3492,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>820640</v>
+        <v>849184</v>
       </c>
       <c r="J64" s="7">
-        <v>43001.37</v>
+        <v>71545.37</v>
       </c>
       <c r="K64" s="7">
-        <v>3122</v>
+        <v>28544</v>
       </c>
       <c r="L64" s="8">
-        <v>5.53</v>
+        <v>9.2</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>26</v>
@@ -3518,40 +3512,40 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="6">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="D65" s="6">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>57.62</v>
+        <v>57.25</v>
       </c>
       <c r="G65" s="7">
-        <v>53.899</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1480834</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>95630.49</v>
+        <v>61525.22</v>
       </c>
       <c r="K65" s="7">
-        <v>86609</v>
+        <v>-34105.27</v>
       </c>
       <c r="L65" s="8">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>26</v>
@@ -3562,7 +3556,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" s="6">
         <v>601799</v>
@@ -3577,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>129.92</v>
+        <v>129.95</v>
       </c>
       <c r="G66" s="7">
         <v>111.804</v>
@@ -3586,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>467712</v>
+        <v>467820</v>
       </c>
       <c r="J66" s="7">
-        <v>65215.92</v>
+        <v>65323.92</v>
       </c>
       <c r="K66" s="7">
-        <v>-3168</v>
+        <v>108</v>
       </c>
       <c r="L66" s="8">
-        <v>16.2</v>
+        <v>16.23</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>24</v>
@@ -3606,7 +3600,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" s="6">
         <v>603127</v>
@@ -3621,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>101.02</v>
+        <v>103.05</v>
       </c>
       <c r="G67" s="7">
         <v>89.398</v>
@@ -3630,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>1212240</v>
+        <v>1236600</v>
       </c>
       <c r="J67" s="7">
-        <v>139464.34</v>
+        <v>163824.34</v>
       </c>
       <c r="K67" s="7">
-        <v>21000</v>
+        <v>24360</v>
       </c>
       <c r="L67" s="8">
-        <v>13</v>
+        <v>15.27</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>24</v>
@@ -3650,7 +3644,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68" s="6">
         <v>300138</v>
@@ -3665,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>12.78</v>
+        <v>13.23</v>
       </c>
       <c r="G68" s="7">
         <v>11.069</v>
@@ -3674,16 +3668,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>452412</v>
+        <v>468342</v>
       </c>
       <c r="J68" s="7">
-        <v>60554.87</v>
+        <v>76484.87</v>
       </c>
       <c r="K68" s="7">
-        <v>-15222</v>
+        <v>15930</v>
       </c>
       <c r="L68" s="8">
-        <v>15.46</v>
+        <v>19.52</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>26</v>
@@ -3694,10 +3688,10 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="6">
         <v>28080</v>
@@ -3709,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>8.5</v>
+        <v>8.8</v>
       </c>
       <c r="G69" s="7">
         <v>7.736</v>
@@ -3718,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>238680</v>
+        <v>247104</v>
       </c>
       <c r="J69" s="7">
-        <v>21443.57</v>
+        <v>29867.57</v>
       </c>
       <c r="K69" s="7">
-        <v>-1965.6</v>
+        <v>8424</v>
       </c>
       <c r="L69" s="8">
-        <v>9.88</v>
+        <v>13.75</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3737,85 +3731,85 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="10">
+      <c r="A70" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="6">
         <v>437000</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="6">
         <v>437000</v>
       </c>
-      <c r="E70" s="10">
-        <v>0</v>
-      </c>
-      <c r="F70" s="11">
-        <v>5.31</v>
-      </c>
-      <c r="G70" s="11">
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="G70" s="7">
         <v>5.456</v>
       </c>
-      <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <v>2320470</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-63971.61</v>
-      </c>
-      <c r="K70" s="11">
-        <v>-69920</v>
-      </c>
-      <c r="L70" s="9">
-        <v>-2.68</v>
-      </c>
-      <c r="M70" s="9" t="s">
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2482160</v>
+      </c>
+      <c r="J70" s="7">
+        <v>97718.39</v>
+      </c>
+      <c r="K70" s="7">
+        <v>161690</v>
+      </c>
+      <c r="L70" s="8">
+        <v>4.11</v>
+      </c>
+      <c r="M70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" s="6">
-        <v>603866</v>
+        <v>600873</v>
       </c>
       <c r="C71" s="6">
-        <v>0</v>
+        <v>83200</v>
       </c>
       <c r="D71" s="6">
-        <v>0</v>
+        <v>83200</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>52.68</v>
+        <v>5.31</v>
       </c>
       <c r="G71" s="7">
-        <v>0</v>
+        <v>4.889</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>0</v>
+        <v>441792</v>
       </c>
       <c r="J71" s="7">
-        <v>128179.8</v>
+        <v>34990.86</v>
       </c>
       <c r="K71" s="7">
-        <v>1293.04</v>
+        <v>39936</v>
       </c>
       <c r="L71" s="8">
-        <v>0</v>
+        <v>8.61</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>24</v>
@@ -3825,85 +3819,85 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="10">
-        <v>600873</v>
-      </c>
-      <c r="C72" s="10">
-        <v>83200</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0</v>
-      </c>
-      <c r="E72" s="10">
-        <v>83200</v>
-      </c>
-      <c r="F72" s="11">
-        <v>4.83</v>
-      </c>
-      <c r="G72" s="11">
-        <v>4.889</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>401856</v>
-      </c>
-      <c r="J72" s="11">
-        <v>-4945.14</v>
-      </c>
-      <c r="K72" s="11">
-        <v>-4945.14</v>
-      </c>
-      <c r="L72" s="9">
-        <v>-1.21</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>23</v>
+      <c r="A72" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="6">
+        <v>300595</v>
+      </c>
+      <c r="C72" s="6">
+        <v>12200</v>
+      </c>
+      <c r="D72" s="6">
+        <v>12200</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>66.64</v>
+      </c>
+      <c r="G72" s="7">
+        <v>64.742</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>813008</v>
+      </c>
+      <c r="J72" s="7">
+        <v>23149.7</v>
+      </c>
+      <c r="K72" s="7">
+        <v>16104</v>
+      </c>
+      <c r="L72" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="6">
-        <v>300595</v>
+        <v>300053</v>
       </c>
       <c r="C73" s="6">
-        <v>12200</v>
+        <v>211700</v>
       </c>
       <c r="D73" s="6">
-        <v>12200</v>
+        <v>211700</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>65.32</v>
+        <v>13.19</v>
       </c>
       <c r="G73" s="7">
-        <v>64.742</v>
+        <v>13.086</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>796904</v>
+        <v>2792323</v>
       </c>
       <c r="J73" s="7">
-        <v>7045.7</v>
+        <v>21937.16</v>
       </c>
       <c r="K73" s="7">
-        <v>9760</v>
+        <v>74637.41</v>
       </c>
       <c r="L73" s="8">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>26</v>
@@ -3913,52 +3907,52 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="10">
-        <v>300053</v>
-      </c>
-      <c r="C74" s="10">
-        <v>215200</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0</v>
-      </c>
-      <c r="E74" s="10">
-        <v>215200</v>
-      </c>
-      <c r="F74" s="11">
-        <v>12.84</v>
-      </c>
-      <c r="G74" s="11">
-        <v>13.086</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>2763168</v>
-      </c>
-      <c r="J74" s="11">
-        <v>-52877.96</v>
-      </c>
-      <c r="K74" s="11">
-        <v>-52877.96</v>
-      </c>
-      <c r="L74" s="9">
-        <v>-1.88</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>25</v>
+      <c r="A74" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="6">
+        <v>603833</v>
+      </c>
+      <c r="C74" s="6">
+        <v>9400</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>9400</v>
+      </c>
+      <c r="F74" s="7">
+        <v>126.22</v>
+      </c>
+      <c r="G74" s="7">
+        <v>123.556</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1186468</v>
+      </c>
+      <c r="J74" s="7">
+        <v>25044.36</v>
+      </c>
+      <c r="K74" s="7">
+        <v>25044.36</v>
+      </c>
+      <c r="L74" s="8">
+        <v>2.16</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" s="6">
         <v>300653</v>
@@ -3973,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>76.7</v>
+        <v>78.6</v>
       </c>
       <c r="G75" s="7">
         <v>68.463</v>
@@ -3982,16 +3976,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>1776372</v>
+        <v>1820376</v>
       </c>
       <c r="J75" s="7">
-        <v>190766.15</v>
+        <v>234770.15</v>
       </c>
       <c r="K75" s="7">
-        <v>34971.6</v>
+        <v>44004</v>
       </c>
       <c r="L75" s="8">
-        <v>12.03</v>
+        <v>14.81</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -4001,129 +3995,129 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="10">
+      <c r="A76" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="6">
         <v>300232</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="6">
         <v>188221</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="6">
         <v>188221</v>
       </c>
-      <c r="E76" s="10">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>9.28</v>
-      </c>
-      <c r="G76" s="11">
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>9.86</v>
+      </c>
+      <c r="G76" s="7">
         <v>9.453</v>
       </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>1746690.88</v>
-      </c>
-      <c r="J76" s="11">
-        <v>-32557.59</v>
-      </c>
-      <c r="K76" s="11">
-        <v>-24468.73</v>
-      </c>
-      <c r="L76" s="9">
-        <v>-1.83</v>
-      </c>
-      <c r="M76" s="9" t="s">
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1855859.06</v>
+      </c>
+      <c r="J76" s="7">
+        <v>76610.59</v>
+      </c>
+      <c r="K76" s="7">
+        <v>109168.18</v>
+      </c>
+      <c r="L76" s="8">
+        <v>4.31</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="6">
-        <v>600221</v>
+        <v>124</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C77" s="6">
-        <v>1597600</v>
+        <v>37100</v>
       </c>
       <c r="D77" s="6">
-        <v>1597600</v>
+        <v>0</v>
       </c>
       <c r="E77" s="6">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="F77" s="7">
-        <v>1.73</v>
+        <v>12.3</v>
       </c>
       <c r="G77" s="7">
-        <v>1.716</v>
+        <v>12.168</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>2763848</v>
+        <v>456330</v>
       </c>
       <c r="J77" s="7">
-        <v>21697.99</v>
+        <v>4909.79</v>
       </c>
       <c r="K77" s="7">
-        <v>47928</v>
+        <v>4909.79</v>
       </c>
       <c r="L77" s="8">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="6">
-        <v>603605</v>
+        <v>600221</v>
       </c>
       <c r="C78" s="6">
-        <v>0</v>
+        <v>1577600</v>
       </c>
       <c r="D78" s="6">
-        <v>0</v>
+        <v>1577600</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>173.25</v>
+        <v>1.75</v>
       </c>
       <c r="G78" s="7">
-        <v>0</v>
+        <v>1.716</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>0</v>
+        <v>2760800</v>
       </c>
       <c r="J78" s="7">
-        <v>51925.73</v>
+        <v>53409.27</v>
       </c>
       <c r="K78" s="7">
-        <v>-5201.33</v>
+        <v>31711.28</v>
       </c>
       <c r="L78" s="8">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>24</v>
@@ -4134,40 +4128,40 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" s="6">
         <v>300119</v>
       </c>
       <c r="C79" s="6">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="D79" s="6">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>23.66</v>
+        <v>25.83</v>
       </c>
       <c r="G79" s="7">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>324142</v>
+        <v>0</v>
       </c>
       <c r="J79" s="7">
-        <v>98092.75</v>
+        <v>98918.1</v>
       </c>
       <c r="K79" s="7">
-        <v>5754.03</v>
+        <v>801.74</v>
       </c>
       <c r="L79" s="8">
-        <v>43.39</v>
+        <v>0</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4178,40 +4172,40 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" s="6">
         <v>603181</v>
       </c>
       <c r="C80" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D80" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>22.9</v>
+        <v>23.74</v>
       </c>
       <c r="G80" s="7">
-        <v>21.067</v>
+        <v>0</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>229000</v>
+        <v>0</v>
       </c>
       <c r="J80" s="7">
-        <v>18326.21</v>
+        <v>20374.11</v>
       </c>
       <c r="K80" s="7">
-        <v>4700</v>
+        <v>2047.9</v>
       </c>
       <c r="L80" s="8">
-        <v>8.7</v>
+        <v>0</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>24</v>
@@ -4222,37 +4216,37 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" s="6">
         <v>603688</v>
       </c>
       <c r="C81" s="6">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="D81" s="6">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>27.39</v>
+        <v>27.9</v>
       </c>
       <c r="G81" s="7">
-        <v>-33.99</v>
+        <v>0</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>123255</v>
+        <v>0</v>
       </c>
       <c r="J81" s="7">
-        <v>276210.93</v>
+        <v>277451.83</v>
       </c>
       <c r="K81" s="7">
-        <v>1611.65</v>
+        <v>1113.92</v>
       </c>
       <c r="L81" s="8">
         <v>0</v>
@@ -4266,7 +4260,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B82" s="6">
         <v>603609</v>
@@ -4281,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>15.35</v>
+        <v>16.89</v>
       </c>
       <c r="G82" s="7">
         <v>14.842</v>
@@ -4290,16 +4284,16 @@
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>1577980</v>
+        <v>1736292</v>
       </c>
       <c r="J82" s="7">
-        <v>52257.33</v>
+        <v>210569.33</v>
       </c>
       <c r="K82" s="7">
-        <v>-53456</v>
+        <v>158312</v>
       </c>
       <c r="L82" s="8">
-        <v>3.42</v>
+        <v>13.8</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>24</v>
@@ -4310,10 +4304,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="C83" s="6">
         <v>18800</v>
@@ -4325,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>22.91</v>
+        <v>23.5</v>
       </c>
       <c r="G83" s="7">
         <v>22.441</v>
@@ -4334,16 +4328,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>430708</v>
+        <v>441800</v>
       </c>
       <c r="J83" s="7">
-        <v>8815.73</v>
+        <v>19907.73</v>
       </c>
       <c r="K83" s="7">
-        <v>-4324</v>
+        <v>11092</v>
       </c>
       <c r="L83" s="8">
-        <v>2.09</v>
+        <v>4.72</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>26</v>
@@ -4354,16 +4348,16 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="C84" s="13">
-        <v>3535000</v>
+        <v>3711000</v>
       </c>
       <c r="D84" s="13">
-        <v>3535000</v>
+        <v>3711000</v>
       </c>
       <c r="E84" s="13">
         <v>0</v>
@@ -4398,348 +4392,348 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="6">
-        <v>603612</v>
-      </c>
       <c r="C85" s="6">
-        <v>0</v>
+        <v>48767</v>
       </c>
       <c r="D85" s="6">
-        <v>0</v>
+        <v>48767</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>14.07</v>
+        <v>53.6</v>
       </c>
       <c r="G85" s="7">
-        <v>0</v>
+        <v>52.099</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>0</v>
+        <v>2613911.2</v>
       </c>
       <c r="J85" s="7">
-        <v>75982.81</v>
+        <v>73177.46</v>
       </c>
       <c r="K85" s="7">
-        <v>-660.17</v>
+        <v>6827.38</v>
       </c>
       <c r="L85" s="8">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="M85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="10">
+        <v>601828</v>
+      </c>
+      <c r="C86" s="10">
+        <v>137800</v>
+      </c>
+      <c r="D86" s="10">
+        <v>137800</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>10.68</v>
+      </c>
+      <c r="G86" s="11">
+        <v>10.687</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>1471704</v>
+      </c>
+      <c r="J86" s="11">
+        <v>-929.38</v>
+      </c>
+      <c r="K86" s="11">
+        <v>20670</v>
+      </c>
+      <c r="L86" s="9">
+        <v>-0.07</v>
+      </c>
+      <c r="M86" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="N86" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" s="8" t="s">
+    <row r="87" spans="1:14">
+      <c r="A87" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="6">
-        <v>48767</v>
-      </c>
-      <c r="D86" s="6">
-        <v>48767</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>53.46</v>
-      </c>
-      <c r="G86" s="7">
-        <v>52.099</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>2607083.82</v>
-      </c>
-      <c r="J86" s="7">
-        <v>66350.08</v>
-      </c>
-      <c r="K86" s="7">
-        <v>-39013.6</v>
-      </c>
-      <c r="L86" s="8">
-        <v>2.61</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="10">
-        <v>601828</v>
-      </c>
-      <c r="C87" s="10">
-        <v>137800</v>
-      </c>
-      <c r="D87" s="10">
-        <v>0</v>
-      </c>
-      <c r="E87" s="10">
-        <v>137800</v>
-      </c>
-      <c r="F87" s="11">
-        <v>10.53</v>
-      </c>
-      <c r="G87" s="11">
-        <v>10.692</v>
-      </c>
-      <c r="H87" s="11">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11">
-        <v>1451034</v>
-      </c>
-      <c r="J87" s="11">
-        <v>-22270.88</v>
-      </c>
-      <c r="K87" s="11">
-        <v>-22270.88</v>
-      </c>
-      <c r="L87" s="9">
-        <v>-1.52</v>
-      </c>
-      <c r="M87" s="9" t="s">
+      <c r="B87" s="6">
+        <v>603538</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>53.88</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>34412.92</v>
+      </c>
+      <c r="K87" s="7">
+        <v>1553.7</v>
+      </c>
+      <c r="L87" s="8">
+        <v>0</v>
+      </c>
+      <c r="M87" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N87" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="6">
+        <v>300476</v>
+      </c>
+      <c r="C88" s="6">
+        <v>35900</v>
+      </c>
+      <c r="D88" s="6">
+        <v>35900</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>26.77</v>
+      </c>
+      <c r="G88" s="7">
+        <v>26.07</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>961043</v>
+      </c>
+      <c r="J88" s="7">
+        <v>25124.63</v>
+      </c>
+      <c r="K88" s="7">
+        <v>27284</v>
+      </c>
+      <c r="L88" s="8">
+        <v>2.69</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B88" s="6">
-        <v>603538</v>
-      </c>
-      <c r="C88" s="6">
-        <v>11800</v>
-      </c>
-      <c r="D88" s="6">
-        <v>11800</v>
-      </c>
-      <c r="E88" s="6">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>53.42</v>
-      </c>
-      <c r="G88" s="7">
-        <v>50.635</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>630356</v>
-      </c>
-      <c r="J88" s="7">
-        <v>32859.22</v>
-      </c>
-      <c r="K88" s="7">
-        <v>41536</v>
-      </c>
-      <c r="L88" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="M88" s="8" t="s">
+      <c r="B89" s="6">
+        <v>600151</v>
+      </c>
+      <c r="C89" s="6">
+        <v>364400</v>
+      </c>
+      <c r="D89" s="6">
+        <v>364400</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="G89" s="7">
+        <v>5.148</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>1949540</v>
+      </c>
+      <c r="J89" s="7">
+        <v>73761.34</v>
+      </c>
+      <c r="K89" s="7">
+        <v>32796</v>
+      </c>
+      <c r="L89" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="M89" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N88" s="8" t="s">
+      <c r="N89" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" s="10">
-        <v>300476</v>
-      </c>
-      <c r="C89" s="10">
-        <v>35900</v>
-      </c>
-      <c r="D89" s="10">
-        <v>35900</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>26.01</v>
-      </c>
-      <c r="G89" s="11">
-        <v>26.07</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>933759</v>
-      </c>
-      <c r="J89" s="11">
-        <v>-2159.37</v>
-      </c>
-      <c r="K89" s="11">
-        <v>-11129</v>
-      </c>
-      <c r="L89" s="9">
-        <v>-0.23</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="6">
-        <v>600151</v>
-      </c>
       <c r="C90" s="6">
-        <v>364400</v>
+        <v>0</v>
       </c>
       <c r="D90" s="6">
-        <v>364400</v>
+        <v>0</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <v>5.26</v>
+        <v>12.36</v>
       </c>
       <c r="G90" s="7">
-        <v>5.148</v>
+        <v>0</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <v>1916744</v>
+        <v>0</v>
       </c>
       <c r="J90" s="7">
-        <v>40965.34</v>
+        <v>711818.38</v>
       </c>
       <c r="K90" s="7">
-        <v>-32796</v>
+        <v>220180.1</v>
       </c>
       <c r="L90" s="8">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>144</v>
+      <c r="B91" s="6">
+        <v>603355</v>
       </c>
       <c r="C91" s="6">
-        <v>291200</v>
+        <v>9600</v>
       </c>
       <c r="D91" s="6">
-        <v>36700</v>
+        <v>9600</v>
       </c>
       <c r="E91" s="6">
-        <v>254500</v>
+        <v>0</v>
       </c>
       <c r="F91" s="7">
-        <v>11.24</v>
+        <v>26.6</v>
       </c>
       <c r="G91" s="7">
-        <v>9.552</v>
+        <v>22.984</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="7">
-        <v>3273088</v>
+        <v>255360</v>
       </c>
       <c r="J91" s="7">
-        <v>491638.28</v>
+        <v>34708.96</v>
       </c>
       <c r="K91" s="7">
-        <v>203661.15</v>
+        <v>17568</v>
       </c>
       <c r="L91" s="8">
-        <v>17.67</v>
+        <v>15.73</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" s="6">
-        <v>603355</v>
+        <v>603999</v>
       </c>
       <c r="C92" s="6">
-        <v>9600</v>
+        <v>55200</v>
       </c>
       <c r="D92" s="6">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="E92" s="6">
-        <v>0</v>
+        <v>55200</v>
       </c>
       <c r="F92" s="7">
-        <v>24.77</v>
+        <v>6.81</v>
       </c>
       <c r="G92" s="7">
-        <v>22.984</v>
+        <v>6.664</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>237792</v>
+        <v>375912</v>
       </c>
       <c r="J92" s="7">
-        <v>17140.96</v>
+        <v>8085.81</v>
       </c>
       <c r="K92" s="7">
-        <v>-4800</v>
+        <v>8085.81</v>
       </c>
       <c r="L92" s="8">
-        <v>7.77</v>
+        <v>2.19</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>24</v>
@@ -4750,90 +4744,90 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="6">
+        <v>600307</v>
+      </c>
+      <c r="C93" s="6">
+        <v>503000</v>
+      </c>
+      <c r="D93" s="6">
+        <v>503000</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="G93" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>880250</v>
+      </c>
+      <c r="J93" s="7">
+        <v>9912.09</v>
+      </c>
+      <c r="K93" s="7">
+        <v>25150</v>
+      </c>
+      <c r="L93" s="8">
+        <v>1.16</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="6">
-        <v>300760</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="7">
-        <v>318.67</v>
-      </c>
-      <c r="G93" s="7">
-        <v>0</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7">
-        <v>236014.97</v>
-      </c>
-      <c r="K93" s="7">
-        <v>12295.7</v>
-      </c>
-      <c r="L93" s="8">
-        <v>0</v>
-      </c>
-      <c r="M93" s="8" t="s">
+      <c r="B94" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="6">
+        <v>101624</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>101624</v>
+      </c>
+      <c r="F94" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="G94" s="7">
+        <v>8.751</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>904453.6</v>
+      </c>
+      <c r="J94" s="7">
+        <v>15141.69</v>
+      </c>
+      <c r="K94" s="7">
+        <v>15141.69</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="M94" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N93" s="8" t="s">
+      <c r="N94" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="10">
-        <v>600307</v>
-      </c>
-      <c r="C94" s="10">
-        <v>503000</v>
-      </c>
-      <c r="D94" s="10">
-        <v>503000</v>
-      </c>
-      <c r="E94" s="10">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="G94" s="11">
-        <v>1.73</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>855100</v>
-      </c>
-      <c r="J94" s="11">
-        <v>-15237.91</v>
-      </c>
-      <c r="K94" s="11">
-        <v>-30180</v>
-      </c>
-      <c r="L94" s="9">
-        <v>-1.73</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4853,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="11">
-        <v>10.04</v>
+        <v>10.26</v>
       </c>
       <c r="G95" s="11">
         <v>10.281</v>
@@ -4862,16 +4856,16 @@
         <v>0</v>
       </c>
       <c r="I95" s="11">
-        <v>2537108</v>
+        <v>2592702</v>
       </c>
       <c r="J95" s="11">
-        <v>-60967.69</v>
+        <v>-5373.69</v>
       </c>
       <c r="K95" s="11">
-        <v>-161728</v>
+        <v>55594</v>
       </c>
       <c r="L95" s="9">
-        <v>-2.34</v>
+        <v>-0.2</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>26</v>
@@ -4888,34 +4882,34 @@
         <v>300220</v>
       </c>
       <c r="C96" s="6">
-        <v>49900</v>
+        <v>47900</v>
       </c>
       <c r="D96" s="6">
-        <v>49900</v>
+        <v>47900</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <v>38.03</v>
+        <v>38.65</v>
       </c>
       <c r="G96" s="7">
-        <v>35.331</v>
+        <v>35.181</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <v>1897697</v>
+        <v>1851335</v>
       </c>
       <c r="J96" s="7">
-        <v>134690.84</v>
+        <v>166156.91</v>
       </c>
       <c r="K96" s="7">
-        <v>1497</v>
+        <v>31466.07</v>
       </c>
       <c r="L96" s="8">
-        <v>7.64</v>
+        <v>9.86</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>26</v>
@@ -4925,46 +4919,46 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="6">
         <v>601992</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="6">
         <v>141900</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="6">
         <v>141900</v>
       </c>
-      <c r="E97" s="10">
-        <v>0</v>
-      </c>
-      <c r="F97" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="G97" s="11">
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>3.42</v>
+      </c>
+      <c r="G97" s="7">
         <v>3.319</v>
       </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>468270</v>
-      </c>
-      <c r="J97" s="11">
-        <v>-2669.91</v>
-      </c>
-      <c r="K97" s="11">
-        <v>-11352</v>
-      </c>
-      <c r="L97" s="9">
-        <v>-0.57</v>
-      </c>
-      <c r="M97" s="9" t="s">
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>485298</v>
+      </c>
+      <c r="J97" s="7">
+        <v>14358.09</v>
+      </c>
+      <c r="K97" s="7">
+        <v>17028</v>
+      </c>
+      <c r="L97" s="8">
+        <v>3.04</v>
+      </c>
+      <c r="M97" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N97" s="9" t="s">
+      <c r="N97" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4985,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="7">
-        <v>6.13</v>
+        <v>6.28</v>
       </c>
       <c r="G98" s="7">
         <v>6.048</v>
@@ -4994,16 +4988,16 @@
         <v>0</v>
       </c>
       <c r="I98" s="7">
-        <v>82142</v>
+        <v>84152</v>
       </c>
       <c r="J98" s="7">
-        <v>1093.23</v>
+        <v>3103.23</v>
       </c>
       <c r="K98" s="7">
-        <v>-1206</v>
+        <v>2010</v>
       </c>
       <c r="L98" s="8">
-        <v>1.36</v>
+        <v>3.84</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>24</v>
@@ -5013,178 +5007,134 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="6">
-        <v>0</v>
-      </c>
-      <c r="D99" s="6">
-        <v>0</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="7">
-        <v>11.38</v>
-      </c>
-      <c r="G99" s="7">
-        <v>0</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
-      </c>
-      <c r="I99" s="7">
-        <v>0</v>
-      </c>
-      <c r="J99" s="7">
-        <v>15243.18</v>
-      </c>
-      <c r="K99" s="7">
-        <v>-6694.23</v>
-      </c>
-      <c r="L99" s="8">
-        <v>0</v>
-      </c>
-      <c r="M99" s="8" t="s">
+      <c r="C99" s="10">
+        <v>369039</v>
+      </c>
+      <c r="D99" s="10">
+        <v>369039</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11">
+        <v>7.46</v>
+      </c>
+      <c r="G99" s="11">
+        <v>7.606</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="11">
+        <v>2753030.94</v>
+      </c>
+      <c r="J99" s="11">
+        <v>-53970.42</v>
+      </c>
+      <c r="K99" s="11">
+        <v>18433.19</v>
+      </c>
+      <c r="L99" s="9">
+        <v>-1.92</v>
+      </c>
+      <c r="M99" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="8" t="s">
+      <c r="N99" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="10">
-        <v>374939</v>
-      </c>
-      <c r="D100" s="10">
-        <v>0</v>
-      </c>
-      <c r="E100" s="10">
-        <v>374939</v>
-      </c>
-      <c r="F100" s="11">
-        <v>7.41</v>
-      </c>
-      <c r="G100" s="11">
-        <v>7.604</v>
-      </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>2778297.99</v>
-      </c>
-      <c r="J100" s="11">
-        <v>-72577.41</v>
-      </c>
-      <c r="K100" s="11">
-        <v>-72577.41</v>
-      </c>
-      <c r="L100" s="9">
-        <v>-2.55</v>
-      </c>
-      <c r="M100" s="9" t="s">
+      <c r="C100" s="6">
+        <v>170800</v>
+      </c>
+      <c r="D100" s="6">
+        <v>117800</v>
+      </c>
+      <c r="E100" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F100" s="7">
+        <v>8.88</v>
+      </c>
+      <c r="G100" s="7">
+        <v>8.864</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>1516704</v>
+      </c>
+      <c r="J100" s="7">
+        <v>2662.55</v>
+      </c>
+      <c r="K100" s="7">
+        <v>27005.2</v>
+      </c>
+      <c r="L100" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="M100" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N100" s="9" t="s">
+      <c r="N100" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="10">
-        <v>117800</v>
-      </c>
-      <c r="D101" s="10">
-        <v>0</v>
-      </c>
-      <c r="E101" s="10">
-        <v>117800</v>
-      </c>
-      <c r="F101" s="11">
-        <v>8.66</v>
-      </c>
-      <c r="G101" s="11">
-        <v>8.867</v>
-      </c>
-      <c r="H101" s="11">
-        <v>0</v>
-      </c>
-      <c r="I101" s="11">
-        <v>1020148</v>
-      </c>
-      <c r="J101" s="11">
-        <v>-24399.28</v>
-      </c>
-      <c r="K101" s="11">
-        <v>-24399.28</v>
-      </c>
-      <c r="L101" s="9">
-        <v>-2.33</v>
-      </c>
-      <c r="M101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B102" s="10">
+      <c r="B101" s="6">
         <v>600490</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C101" s="6">
         <v>386500</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D101" s="6">
         <v>386500</v>
       </c>
-      <c r="E102" s="10">
-        <v>0</v>
-      </c>
-      <c r="F102" s="11">
-        <v>3.59</v>
-      </c>
-      <c r="G102" s="11">
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>3.79</v>
+      </c>
+      <c r="G101" s="7">
         <v>3.754</v>
       </c>
-      <c r="H102" s="11">
-        <v>0</v>
-      </c>
-      <c r="I102" s="11">
-        <v>1387535</v>
-      </c>
-      <c r="J102" s="11">
-        <v>-63346.64</v>
-      </c>
-      <c r="K102" s="11">
-        <v>-61840</v>
-      </c>
-      <c r="L102" s="9">
-        <v>-4.37</v>
-      </c>
-      <c r="M102" s="9" t="s">
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1464835</v>
+      </c>
+      <c r="J101" s="7">
+        <v>13953.36</v>
+      </c>
+      <c r="K101" s="7">
+        <v>77300</v>
+      </c>
+      <c r="L101" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="M101" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N102" s="9" t="s">
+      <c r="N101" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="185">
   <si>
     <t>资金</t>
   </si>
@@ -136,10 +136,10 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>一汽解放</t>
-  </si>
-  <si>
-    <t>000800</t>
+    <t>XD贵广网</t>
+  </si>
+  <si>
+    <t>XD金龙汽</t>
   </si>
   <si>
     <t>万孚生物</t>
@@ -151,15 +151,12 @@
     <t>002312</t>
   </si>
   <si>
-    <t>东宏股份</t>
+    <t>世运电路</t>
   </si>
   <si>
     <t>东方明珠</t>
   </si>
   <si>
-    <t>东方集团</t>
-  </si>
-  <si>
     <t>东阿阿胶</t>
   </si>
   <si>
@@ -187,10 +184,31 @@
     <t>中国汽研</t>
   </si>
   <si>
-    <t>中国联通</t>
-  </si>
-  <si>
-    <t>亚士创能</t>
+    <t>中航高科</t>
+  </si>
+  <si>
+    <t>久远银海</t>
+  </si>
+  <si>
+    <t>002777</t>
+  </si>
+  <si>
+    <t>九阳股份</t>
+  </si>
+  <si>
+    <t>002242</t>
+  </si>
+  <si>
+    <t>云天化</t>
+  </si>
+  <si>
+    <t>亚太科技</t>
+  </si>
+  <si>
+    <t>002540</t>
+  </si>
+  <si>
+    <t>亿嘉和</t>
   </si>
   <si>
     <t>健友股份</t>
@@ -211,12 +229,24 @@
     <t>包钢股份</t>
   </si>
   <si>
-    <t>华东电脑</t>
+    <t>千红制药</t>
+  </si>
+  <si>
+    <t>002550</t>
   </si>
   <si>
     <t>华光环能</t>
   </si>
   <si>
+    <t>华孚时尚</t>
+  </si>
+  <si>
+    <t>002042</t>
+  </si>
+  <si>
+    <t>华宇软件</t>
+  </si>
+  <si>
     <t>华宝添益</t>
   </si>
   <si>
@@ -226,9 +256,6 @@
     <t>000882</t>
   </si>
   <si>
-    <t>华谊兄弟</t>
-  </si>
-  <si>
     <t>华锦股份</t>
   </si>
   <si>
@@ -238,6 +265,15 @@
     <t>南山铝业</t>
   </si>
   <si>
+    <t>南洋股份</t>
+  </si>
+  <si>
+    <t>002212</t>
+  </si>
+  <si>
+    <t>博创科技</t>
+  </si>
+  <si>
     <t>卫光生物</t>
   </si>
   <si>
@@ -250,6 +286,15 @@
     <t>000403</t>
   </si>
   <si>
+    <t>双箭股份</t>
+  </si>
+  <si>
+    <t>002381</t>
+  </si>
+  <si>
+    <t>合盛硅业</t>
+  </si>
+  <si>
     <t>和邦生物</t>
   </si>
   <si>
@@ -262,15 +307,18 @@
     <t>002749</t>
   </si>
   <si>
-    <t>坚朗五金</t>
-  </si>
-  <si>
-    <t>002791</t>
+    <t>国泰君安</t>
+  </si>
+  <si>
+    <t>国瓷材料</t>
   </si>
   <si>
     <t>坤彩科技</t>
   </si>
   <si>
+    <t>基蛋生物</t>
+  </si>
+  <si>
     <t>大博医疗</t>
   </si>
   <si>
@@ -283,13 +331,16 @@
     <t>002433</t>
   </si>
   <si>
-    <t>富安娜</t>
-  </si>
-  <si>
-    <t>002327</t>
-  </si>
-  <si>
-    <t>尚品宅配</t>
+    <t>安正时尚</t>
+  </si>
+  <si>
+    <t>安靠智电</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>宝信软件</t>
   </si>
   <si>
     <t>工业富联</t>
@@ -304,27 +355,18 @@
     <t>广和通</t>
   </si>
   <si>
-    <t>广誉远</t>
-  </si>
-  <si>
-    <t>建设机械</t>
-  </si>
-  <si>
-    <t>开立医疗</t>
-  </si>
-  <si>
-    <t>徐工机械</t>
-  </si>
-  <si>
-    <t>000425</t>
+    <t>建发股份</t>
+  </si>
+  <si>
+    <t>当代文体</t>
+  </si>
+  <si>
+    <t>思创医惠</t>
   </si>
   <si>
     <t>悦达投资</t>
   </si>
   <si>
-    <t>扬农化工</t>
-  </si>
-  <si>
     <t>捷昌驱动</t>
   </si>
   <si>
@@ -337,19 +379,7 @@
     <t>002376</t>
   </si>
   <si>
-    <t>新宝股份</t>
-  </si>
-  <si>
-    <t>002705</t>
-  </si>
-  <si>
-    <t>昂利康</t>
-  </si>
-  <si>
-    <t>002940</t>
-  </si>
-  <si>
-    <t>星宇股份</t>
+    <t>旋极信息</t>
   </si>
   <si>
     <t>昭衍新药</t>
@@ -358,6 +388,15 @@
     <t>晨光生物</t>
   </si>
   <si>
+    <t>景旺电子</t>
+  </si>
+  <si>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>曲美家居</t>
+  </si>
+  <si>
     <t>杭锅股份</t>
   </si>
   <si>
@@ -373,9 +412,6 @@
     <t>梅花生物</t>
   </si>
   <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
     <t>欧比特</t>
   </si>
   <si>
@@ -385,6 +421,12 @@
     <t>正海生物</t>
   </si>
   <si>
+    <t>汇顶科技</t>
+  </si>
+  <si>
+    <t>泰豪科技</t>
+  </si>
+  <si>
     <t>洲明科技</t>
   </si>
   <si>
@@ -394,21 +436,30 @@
     <t>000921</t>
   </si>
   <si>
+    <t>海兴电力</t>
+  </si>
+  <si>
     <t>海航控股</t>
   </si>
   <si>
-    <t>瑞普生物</t>
-  </si>
-  <si>
-    <t>皇马科技</t>
+    <t>爱柯迪</t>
+  </si>
+  <si>
+    <t>环旭电子</t>
+  </si>
+  <si>
+    <t>百合花</t>
+  </si>
+  <si>
+    <t>百润股份</t>
+  </si>
+  <si>
+    <t>002568</t>
   </si>
   <si>
     <t>石英股份</t>
   </si>
   <si>
-    <t>禾丰牧业</t>
-  </si>
-  <si>
     <t>科伦药业</t>
   </si>
   <si>
@@ -421,6 +472,21 @@
     <t>SHKCED</t>
   </si>
   <si>
+    <t>科沃斯</t>
+  </si>
+  <si>
+    <t>移为通信</t>
+  </si>
+  <si>
+    <t>紫光股份</t>
+  </si>
+  <si>
+    <t>000938</t>
+  </si>
+  <si>
+    <t>纽威股份</t>
+  </si>
+  <si>
     <t>美亚光电</t>
   </si>
   <si>
@@ -430,27 +496,27 @@
     <t>美凯龙</t>
   </si>
   <si>
-    <t>美诺华</t>
-  </si>
-  <si>
     <t>胜宏科技</t>
   </si>
   <si>
     <t>航天机电</t>
   </si>
   <si>
-    <t>苏宁易购</t>
-  </si>
-  <si>
-    <t>002024</t>
-  </si>
-  <si>
-    <t>莱克电气</t>
+    <t>苏州科达</t>
   </si>
   <si>
     <t>读者传媒</t>
   </si>
   <si>
+    <t>赛意信息</t>
+  </si>
+  <si>
+    <t>通鼎互联</t>
+  </si>
+  <si>
+    <t>002491</t>
+  </si>
+  <si>
     <t>酒钢宏兴</t>
   </si>
   <si>
@@ -460,19 +526,19 @@
     <t>002081</t>
   </si>
   <si>
-    <t>金圆股份</t>
-  </si>
-  <si>
-    <t>000546</t>
-  </si>
-  <si>
     <t>金运激光</t>
   </si>
   <si>
     <t>金隅集团</t>
   </si>
   <si>
-    <t>金龙汽车</t>
+    <t>钢研高纳</t>
+  </si>
+  <si>
+    <t>银江股份</t>
+  </si>
+  <si>
+    <t>长亮科技</t>
   </si>
   <si>
     <t>阳 光 城</t>
@@ -481,10 +547,25 @@
     <t>000671</t>
   </si>
   <si>
+    <t>隧道股份</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>风华高科</t>
+  </si>
+  <si>
+    <t>000636</t>
+  </si>
+  <si>
     <t>鲁西化工</t>
   </si>
   <si>
     <t>000830</t>
+  </si>
+  <si>
+    <t>鸿远电子</t>
   </si>
   <si>
     <t>鹏欣资源</t>
@@ -507,12 +588,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFCA4949"/>
+      <color rgb="FF007AD0"/>
       <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF007AD0"/>
+      <color rgb="FFCA4949"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -879,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -959,28 +1040,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>4766554.91</v>
+        <v>8582390.38</v>
       </c>
       <c r="D3" s="3">
-        <v>10357578.88</v>
+        <v>5113718.87</v>
       </c>
       <c r="E3" s="3">
-        <v>4766554.91</v>
+        <v>5113718.87</v>
       </c>
       <c r="F3" s="3">
-        <v>-5591023.97</v>
+        <v>3468671.51</v>
       </c>
       <c r="G3" s="3">
-        <v>92377789.54</v>
+        <v>91338023.12</v>
       </c>
       <c r="H3" s="3">
-        <v>102735368.42</v>
+        <v>96451741.99</v>
       </c>
       <c r="I3" s="3">
-        <v>6706380.28</v>
+        <v>-3039275.86</v>
       </c>
       <c r="J3" s="3">
-        <v>2778146.01</v>
+        <v>176203.87</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1087,10 +1168,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>3711000</v>
+        <v>4412000</v>
       </c>
       <c r="C8" s="3">
-        <v>3711000</v>
+        <v>4412000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1104,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>4657000</v>
+        <v>5414500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1182,126 +1263,126 @@
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
+      <c r="B12" s="6">
+        <v>600996</v>
       </c>
       <c r="C12" s="6">
-        <v>136600</v>
+        <v>67900</v>
       </c>
       <c r="D12" s="6">
-        <v>125900</v>
+        <v>67900</v>
       </c>
       <c r="E12" s="6">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>14.29</v>
+        <v>7.31</v>
       </c>
       <c r="G12" s="7">
-        <v>13.16</v>
+        <v>7.914</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1952014</v>
+        <v>496349</v>
       </c>
       <c r="J12" s="7">
-        <v>154401</v>
+        <v>-40992.57</v>
       </c>
       <c r="K12" s="7">
-        <v>154939.19</v>
+        <v>-10185</v>
       </c>
       <c r="L12" s="8">
-        <v>8.59</v>
+        <v>-7.63</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6">
-        <v>300482</v>
+        <v>600686</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>105.4</v>
+        <v>6.06</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>6.078</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>27270</v>
       </c>
       <c r="J13" s="7">
-        <v>108419.45</v>
+        <v>-79.31</v>
       </c>
       <c r="K13" s="7">
-        <v>-8990.23</v>
+        <v>167.46</v>
       </c>
       <c r="L13" s="8">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="6">
+        <v>300482</v>
       </c>
       <c r="C14" s="6">
-        <v>190850</v>
+        <v>18600</v>
       </c>
       <c r="D14" s="6">
-        <v>190850</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="F14" s="7">
-        <v>5.48</v>
+        <v>97.4</v>
       </c>
       <c r="G14" s="7">
-        <v>5.088</v>
+        <v>98.566</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1045858</v>
+        <v>1811640</v>
       </c>
       <c r="J14" s="7">
-        <v>74884.88</v>
+        <v>-21686.4</v>
       </c>
       <c r="K14" s="7">
-        <v>20993.5</v>
+        <v>-21686.4</v>
       </c>
       <c r="L14" s="8">
-        <v>7.7</v>
+        <v>-1.18</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1311,85 +1392,85 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6">
-        <v>603856</v>
-      </c>
-      <c r="C15" s="6">
-        <v>19400</v>
-      </c>
-      <c r="D15" s="6">
-        <v>19400</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>17.1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>14.209</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>331740</v>
-      </c>
-      <c r="J15" s="7">
-        <v>56088.08</v>
-      </c>
-      <c r="K15" s="7">
-        <v>23862</v>
-      </c>
-      <c r="L15" s="8">
-        <v>20.35</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>23</v>
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>190850</v>
+      </c>
+      <c r="D15" s="10">
+        <v>190850</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5.088</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1068760</v>
+      </c>
+      <c r="J15" s="11">
+        <v>97786.88</v>
+      </c>
+      <c r="K15" s="11">
+        <v>76340</v>
+      </c>
+      <c r="L15" s="9">
+        <v>10.06</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6">
-        <v>600637</v>
+        <v>603920</v>
       </c>
       <c r="C16" s="6">
-        <v>93600</v>
+        <v>29400</v>
       </c>
       <c r="D16" s="6">
-        <v>93600</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="F16" s="7">
-        <v>11</v>
+        <v>24.12</v>
       </c>
       <c r="G16" s="7">
-        <v>10.755</v>
+        <v>24.432</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1029600</v>
+        <v>709128</v>
       </c>
       <c r="J16" s="7">
-        <v>22968.9</v>
+        <v>-9186.05</v>
       </c>
       <c r="K16" s="7">
-        <v>15912</v>
+        <v>-9186.05</v>
       </c>
       <c r="L16" s="8">
-        <v>2.28</v>
+        <v>-1.28</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1400,40 +1481,40 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6">
-        <v>600811</v>
+        <v>600637</v>
       </c>
       <c r="C17" s="6">
-        <v>55700</v>
+        <v>93600</v>
       </c>
       <c r="D17" s="6">
-        <v>55700</v>
+        <v>93600</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>5.36</v>
+        <v>10.11</v>
       </c>
       <c r="G17" s="7">
-        <v>4.431</v>
+        <v>10.755</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>298552</v>
+        <v>946296</v>
       </c>
       <c r="J17" s="7">
-        <v>51759.07</v>
+        <v>-60335.1</v>
       </c>
       <c r="K17" s="7">
-        <v>20052</v>
+        <v>-6552</v>
       </c>
       <c r="L17" s="8">
-        <v>20.97</v>
+        <v>-6</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>24</v>
@@ -1443,85 +1524,85 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10">
-        <v>76600</v>
-      </c>
-      <c r="D18" s="10">
-        <v>76600</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>36.26</v>
-      </c>
-      <c r="G18" s="11">
-        <v>37.025</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2777516</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-58569.38</v>
-      </c>
-      <c r="K18" s="11">
-        <v>15730.31</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-2.07</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="C18" s="6">
+        <v>59500</v>
+      </c>
+      <c r="D18" s="6">
+        <v>59500</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>33.72</v>
+      </c>
+      <c r="G18" s="7">
+        <v>37.848</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2006340</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-245643.94</v>
+      </c>
+      <c r="K18" s="7">
+        <v>37604.97</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-10.91</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
         <v>600158</v>
       </c>
       <c r="C19" s="6">
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>9.41</v>
+        <v>8.83</v>
       </c>
       <c r="G19" s="7">
-        <v>9.302</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>724570</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>8350.29</v>
+        <v>-40954.38</v>
       </c>
       <c r="K19" s="7">
-        <v>16170</v>
+        <v>-1564.67</v>
       </c>
       <c r="L19" s="8">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
@@ -1531,96 +1612,96 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10">
+        <v>600675</v>
+      </c>
+      <c r="C20" s="10">
+        <v>60</v>
+      </c>
+      <c r="D20" s="10">
+        <v>60</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4.46</v>
+      </c>
+      <c r="G20" s="11">
+        <v>-1900.718</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>267.6</v>
+      </c>
+      <c r="J20" s="11">
+        <v>114310.68</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-1.2</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6">
-        <v>600675</v>
-      </c>
-      <c r="C20" s="6">
-        <v>151260</v>
-      </c>
-      <c r="D20" s="6">
-        <v>151260</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>4.87</v>
-      </c>
-      <c r="G20" s="7">
-        <v>4.036</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>736636.2</v>
-      </c>
-      <c r="J20" s="7">
-        <v>126191.33</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7867.73</v>
-      </c>
-      <c r="L20" s="8">
-        <v>20.66</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="B21" s="6">
+        <v>601766</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-50168.81</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-1391.57</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="10">
-        <v>601766</v>
-      </c>
-      <c r="C21" s="10">
-        <v>119400</v>
-      </c>
-      <c r="D21" s="10">
-        <v>119400</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>6.25</v>
-      </c>
-      <c r="G21" s="11">
-        <v>6.319</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>746250</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-8181.24</v>
-      </c>
-      <c r="K21" s="11">
-        <v>8358</v>
-      </c>
-      <c r="L21" s="9">
-        <v>-1.09</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
         <v>601949</v>
@@ -1635,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G22" s="7">
         <v>5.716</v>
@@ -1644,16 +1725,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1383000</v>
+        <v>1313850</v>
       </c>
       <c r="J22" s="7">
-        <v>65512.08</v>
+        <v>-3637.92</v>
       </c>
       <c r="K22" s="7">
-        <v>25355</v>
+        <v>-2305</v>
       </c>
       <c r="L22" s="8">
-        <v>4.97</v>
+        <v>-0.28</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>24</v>
@@ -1663,349 +1744,349 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10">
+        <v>600176</v>
+      </c>
+      <c r="C23" s="10">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10">
+        <v>17</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10.9</v>
+      </c>
+      <c r="G23" s="11">
+        <v>-5814.666</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>185.3</v>
+      </c>
+      <c r="J23" s="11">
+        <v>99034.62</v>
+      </c>
+      <c r="K23" s="11">
+        <v>12.92</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="6">
-        <v>600176</v>
-      </c>
-      <c r="C23" s="6">
-        <v>185900</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>185900</v>
-      </c>
-      <c r="F23" s="7">
-        <v>10.47</v>
-      </c>
-      <c r="G23" s="7">
-        <v>9.899</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1946373</v>
-      </c>
-      <c r="J23" s="7">
-        <v>106165.82</v>
-      </c>
-      <c r="K23" s="7">
-        <v>106165.82</v>
-      </c>
-      <c r="L23" s="8">
-        <v>5.77</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="B24" s="6">
+        <v>601668</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.05</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>-8125.59</v>
+      </c>
+      <c r="K24" s="7">
+        <v>68.74</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10">
-        <v>601668</v>
-      </c>
-      <c r="C24" s="10">
-        <v>17400</v>
-      </c>
-      <c r="D24" s="10">
-        <v>17400</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>5.34</v>
-      </c>
-      <c r="G24" s="11">
-        <v>5.521</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>92916</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-3148.33</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1218</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-3.28</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="B25" s="10">
+        <v>601965</v>
+      </c>
+      <c r="C25" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D25" s="10">
+        <v>35800</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>10.03</v>
+      </c>
+      <c r="G25" s="11">
+        <v>9.589</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>359074</v>
+      </c>
+      <c r="J25" s="11">
+        <v>15797.13</v>
+      </c>
+      <c r="K25" s="11">
+        <v>15036</v>
+      </c>
+      <c r="L25" s="9">
+        <v>4.6</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="6">
-        <v>601965</v>
-      </c>
-      <c r="C25" s="6">
-        <v>35800</v>
-      </c>
-      <c r="D25" s="6">
-        <v>35800</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>10.43</v>
-      </c>
-      <c r="G25" s="7">
-        <v>9.589</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>373394</v>
-      </c>
-      <c r="J25" s="7">
-        <v>30117.13</v>
-      </c>
-      <c r="K25" s="7">
-        <v>8234</v>
-      </c>
-      <c r="L25" s="8">
-        <v>8.77</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="B26" s="6">
+        <v>600862</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>21.82</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>-94639.24</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-64923.16</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="10">
-        <v>600050</v>
-      </c>
-      <c r="C26" s="10">
-        <v>502800</v>
-      </c>
-      <c r="D26" s="10">
-        <v>502800</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>5.3</v>
-      </c>
-      <c r="G26" s="11">
-        <v>5.393</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>2664840</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-46635.9</v>
-      </c>
-      <c r="K26" s="11">
-        <v>55308</v>
-      </c>
-      <c r="L26" s="9">
-        <v>-1.72</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="6">
-        <v>603378</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>50.98</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <v>132449.6</v>
-      </c>
-      <c r="K27" s="7">
-        <v>5787.53</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>23</v>
+      <c r="C27" s="10">
+        <v>22800</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>22800</v>
+      </c>
+      <c r="F27" s="11">
+        <v>28.6</v>
+      </c>
+      <c r="G27" s="11">
+        <v>28.308</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>652080</v>
+      </c>
+      <c r="J27" s="11">
+        <v>6662.73</v>
+      </c>
+      <c r="K27" s="11">
+        <v>6662.73</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1.03</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="6">
-        <v>603707</v>
-      </c>
-      <c r="C28" s="6">
-        <v>24600</v>
-      </c>
-      <c r="D28" s="6">
-        <v>24600</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>62.58</v>
-      </c>
-      <c r="G28" s="7">
-        <v>59.272</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1539468</v>
-      </c>
-      <c r="J28" s="7">
-        <v>81371.8</v>
-      </c>
-      <c r="K28" s="7">
-        <v>63468</v>
-      </c>
-      <c r="L28" s="8">
-        <v>5.58</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>23</v>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="10">
+        <v>47625</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>47625</v>
+      </c>
+      <c r="F28" s="11">
+        <v>35.75</v>
+      </c>
+      <c r="G28" s="11">
+        <v>34.657</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1702593.75</v>
+      </c>
+      <c r="J28" s="11">
+        <v>52034.98</v>
+      </c>
+      <c r="K28" s="11">
+        <v>52034.98</v>
+      </c>
+      <c r="L28" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="6">
-        <v>300695</v>
+        <v>600096</v>
       </c>
       <c r="C29" s="6">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>78.01</v>
+        <v>5.09</v>
       </c>
       <c r="G29" s="7">
-        <v>66.173</v>
+        <v>0</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>585075</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7">
-        <v>88776.13</v>
+        <v>-4645.78</v>
       </c>
       <c r="K29" s="7">
-        <v>20561.17</v>
+        <v>-329.79</v>
       </c>
       <c r="L29" s="8">
-        <v>17.89</v>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
-        <v>453800</v>
+        <v>45600</v>
       </c>
       <c r="D30" s="6">
-        <v>453800</v>
+        <v>45600</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>6.04</v>
+        <v>4.75</v>
       </c>
       <c r="G30" s="7">
-        <v>6.01</v>
+        <v>4.861</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>2740952</v>
+        <v>216600</v>
       </c>
       <c r="J30" s="7">
-        <v>13604.37</v>
+        <v>-5049.24</v>
       </c>
       <c r="K30" s="7">
-        <v>8820.07</v>
+        <v>6840</v>
       </c>
       <c r="L30" s="8">
-        <v>0.5</v>
+        <v>-2.28</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>26</v>
@@ -2016,304 +2097,304 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="6">
-        <v>300296</v>
+        <v>603666</v>
       </c>
       <c r="C31" s="6">
-        <v>389400</v>
+        <v>8000</v>
       </c>
       <c r="D31" s="6">
-        <v>389400</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F31" s="7">
-        <v>7.43</v>
+        <v>93.59</v>
       </c>
       <c r="G31" s="7">
-        <v>7.045</v>
+        <v>96.443</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>2893242</v>
+        <v>748720</v>
       </c>
       <c r="J31" s="7">
-        <v>149736.95</v>
+        <v>-22825.02</v>
       </c>
       <c r="K31" s="7">
-        <v>211558.58</v>
+        <v>-22825.02</v>
       </c>
       <c r="L31" s="8">
-        <v>5.46</v>
+        <v>-2.96</v>
       </c>
       <c r="M31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="10">
+        <v>603707</v>
+      </c>
+      <c r="C32" s="10">
+        <v>24600</v>
+      </c>
+      <c r="D32" s="10">
+        <v>24600</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>59.28</v>
+      </c>
+      <c r="G32" s="11">
+        <v>59.272</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1458288</v>
+      </c>
+      <c r="J32" s="11">
+        <v>191.8</v>
+      </c>
+      <c r="K32" s="11">
+        <v>71340</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="10">
+        <v>300695</v>
+      </c>
+      <c r="C33" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D33" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>68.81</v>
+      </c>
+      <c r="G33" s="11">
+        <v>66.171</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>516075</v>
+      </c>
+      <c r="J33" s="11">
+        <v>19790.88</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-7800</v>
+      </c>
+      <c r="L33" s="9">
+        <v>3.99</v>
+      </c>
+      <c r="M33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N33" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="6">
-        <v>600010</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1.201</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2108000</v>
-      </c>
-      <c r="J32" s="7">
-        <v>66653.04</v>
-      </c>
-      <c r="K32" s="7">
-        <v>34000</v>
-      </c>
-      <c r="L32" s="8">
-        <v>3.25</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="6">
-        <v>600850</v>
-      </c>
-      <c r="C33" s="6">
-        <v>17000</v>
-      </c>
-      <c r="D33" s="6">
-        <v>17000</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>28.07</v>
-      </c>
-      <c r="G33" s="7">
-        <v>22.902</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>477190</v>
-      </c>
-      <c r="J33" s="7">
-        <v>87850.2</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2890</v>
-      </c>
-      <c r="L33" s="8">
-        <v>22.57</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="6">
-        <v>600475</v>
+        <v>67</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="6">
-        <v>20700</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>20700</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>13.6</v>
+        <v>5.66</v>
       </c>
       <c r="G34" s="7">
-        <v>11.312</v>
+        <v>0</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>281520</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7">
-        <v>47357.19</v>
+        <v>-150881.38</v>
       </c>
       <c r="K34" s="7">
-        <v>8694</v>
+        <v>-37421.75</v>
       </c>
       <c r="L34" s="8">
-        <v>20.23</v>
+        <v>0</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="6">
-        <v>511990</v>
+        <v>300296</v>
       </c>
       <c r="C35" s="6">
-        <v>14</v>
+        <v>124700</v>
       </c>
       <c r="D35" s="6">
-        <v>14</v>
+        <v>124700</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>100.01</v>
+        <v>6.66</v>
       </c>
       <c r="G35" s="7">
-        <v>-11749.026</v>
+        <v>7.349</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>1400.14</v>
+        <v>830502</v>
       </c>
       <c r="J35" s="7">
-        <v>165886.51</v>
+        <v>-85934.68</v>
       </c>
       <c r="K35" s="7">
-        <v>-0.29</v>
+        <v>-68710.13</v>
       </c>
       <c r="L35" s="8">
-        <v>0</v>
+        <v>-9.38</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="6">
+        <v>600010</v>
       </c>
       <c r="C36" s="6">
-        <v>201044</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
-        <v>201044</v>
+        <v>0</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>2.2</v>
+        <v>1.14</v>
       </c>
       <c r="G36" s="7">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>442296.8</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
-        <v>34177.08</v>
+        <v>-54690.47</v>
       </c>
       <c r="K36" s="7">
-        <v>6031.32</v>
+        <v>-11361.88</v>
       </c>
       <c r="L36" s="8">
-        <v>8.37</v>
+        <v>0</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="6">
-        <v>300027</v>
+        <v>71</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="6">
-        <v>0</v>
+        <v>68500</v>
       </c>
       <c r="D37" s="6">
-        <v>0</v>
+        <v>68500</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>4.84</v>
+        <v>4.63</v>
       </c>
       <c r="G37" s="7">
-        <v>0</v>
+        <v>4.935</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>317155</v>
       </c>
       <c r="J37" s="7">
-        <v>223433.44</v>
+        <v>-20920.7</v>
       </c>
       <c r="K37" s="7">
-        <v>-43051.22</v>
+        <v>4110</v>
       </c>
       <c r="L37" s="8">
-        <v>0</v>
+        <v>-6.18</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>26</v>
@@ -2323,129 +2404,129 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="6">
-        <v>112400</v>
-      </c>
-      <c r="D38" s="6">
-        <v>112400</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>5.13</v>
-      </c>
-      <c r="G38" s="7">
-        <v>5.107</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>576612</v>
-      </c>
-      <c r="J38" s="7">
-        <v>2582.85</v>
-      </c>
-      <c r="K38" s="7">
-        <v>8992</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="M38" s="8" t="s">
+      <c r="A38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="10">
+        <v>600475</v>
+      </c>
+      <c r="C38" s="10">
+        <v>20700</v>
+      </c>
+      <c r="D38" s="10">
+        <v>20700</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>13.05</v>
+      </c>
+      <c r="G38" s="11">
+        <v>11.312</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>270135</v>
+      </c>
+      <c r="J38" s="11">
+        <v>35972.19</v>
+      </c>
+      <c r="K38" s="11">
+        <v>3312</v>
+      </c>
+      <c r="L38" s="9">
+        <v>15.36</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="6">
+        <v>64700</v>
+      </c>
+      <c r="D39" s="6">
+        <v>64700</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5.67</v>
+      </c>
+      <c r="G39" s="7">
+        <v>6.33</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>366849</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-42695.41</v>
+      </c>
+      <c r="K39" s="7">
+        <v>-11646</v>
+      </c>
+      <c r="L39" s="8">
+        <v>-10.43</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="10">
-        <v>600219</v>
-      </c>
-      <c r="C39" s="10">
-        <v>730300</v>
-      </c>
-      <c r="D39" s="10">
-        <v>730300</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="G39" s="11">
-        <v>2.41</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>1745417</v>
-      </c>
-      <c r="J39" s="11">
-        <v>-14312</v>
-      </c>
-      <c r="K39" s="11">
-        <v>43818</v>
-      </c>
-      <c r="L39" s="9">
-        <v>-0.83</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B40" s="6">
+        <v>300271</v>
       </c>
       <c r="C40" s="6">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="D40" s="6">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>66.8</v>
+        <v>26.17</v>
       </c>
       <c r="G40" s="7">
-        <v>53.268</v>
+        <v>28.796</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>501000</v>
+        <v>327125</v>
       </c>
       <c r="J40" s="7">
-        <v>101493.56</v>
+        <v>-32822.98</v>
       </c>
       <c r="K40" s="7">
-        <v>-900</v>
+        <v>-9000</v>
       </c>
       <c r="L40" s="8">
-        <v>25.4</v>
+        <v>-9.12</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>26</v>
@@ -2455,217 +2536,217 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="6">
-        <v>37200</v>
-      </c>
-      <c r="D41" s="6">
-        <v>37200</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>75.16</v>
-      </c>
-      <c r="G41" s="7">
-        <v>70.823</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>2795952</v>
-      </c>
-      <c r="J41" s="7">
-        <v>161341.88</v>
-      </c>
-      <c r="K41" s="7">
-        <v>-30132</v>
-      </c>
-      <c r="L41" s="8">
-        <v>6.12</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>25</v>
+      <c r="B41" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C41" s="10">
+        <v>14</v>
+      </c>
+      <c r="D41" s="10">
+        <v>14</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>100.018</v>
+      </c>
+      <c r="G41" s="11">
+        <v>-11749.026</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1400.25</v>
+      </c>
+      <c r="J41" s="11">
+        <v>165886.62</v>
+      </c>
+      <c r="K41" s="11">
+        <v>-0.39</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="6">
-        <v>603077</v>
+      <c r="B42" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="6">
-        <v>1960800</v>
+        <v>73544</v>
       </c>
       <c r="D42" s="6">
-        <v>1960800</v>
+        <v>73544</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
-        <v>1.417</v>
+        <v>2.028</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>2843160</v>
+        <v>147088</v>
       </c>
       <c r="J42" s="7">
-        <v>63851.77</v>
+        <v>-2072.5</v>
       </c>
       <c r="K42" s="7">
-        <v>98254.6</v>
+        <v>-4082.54</v>
       </c>
       <c r="L42" s="8">
-        <v>2.33</v>
+        <v>-1.38</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="6">
-        <v>600039</v>
+        <v>80</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="6">
-        <v>62160</v>
+        <v>112400</v>
       </c>
       <c r="D43" s="6">
-        <v>62160</v>
+        <v>112400</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>4.36</v>
+        <v>4.84</v>
       </c>
       <c r="G43" s="7">
-        <v>4.093</v>
+        <v>5.107</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>271017.6</v>
+        <v>544016</v>
       </c>
       <c r="J43" s="7">
-        <v>16619.96</v>
+        <v>-30013.15</v>
       </c>
       <c r="K43" s="7">
-        <v>13053.6</v>
+        <v>-3372</v>
       </c>
       <c r="L43" s="8">
-        <v>6.52</v>
+        <v>-5.23</v>
       </c>
       <c r="M43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="10">
+        <v>600219</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>12218.41</v>
+      </c>
+      <c r="K44" s="11">
+        <v>41136.41</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N44" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6">
-        <v>15000</v>
-      </c>
-      <c r="D44" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>13.88</v>
-      </c>
-      <c r="G44" s="7">
-        <v>12.392</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>208200</v>
-      </c>
-      <c r="J44" s="7">
-        <v>22321.07</v>
-      </c>
-      <c r="K44" s="7">
-        <v>6750</v>
-      </c>
-      <c r="L44" s="8">
-        <v>12.01</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E45" s="6">
-        <v>0</v>
+        <v>62200</v>
       </c>
       <c r="F45" s="7">
-        <v>108.17</v>
+        <v>25.3</v>
       </c>
       <c r="G45" s="7">
-        <v>0</v>
+        <v>25.979</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>1771000</v>
       </c>
       <c r="J45" s="7">
-        <v>267539.58</v>
+        <v>-47535.4</v>
       </c>
       <c r="K45" s="7">
-        <v>24336.33</v>
+        <v>-34345.71</v>
       </c>
       <c r="L45" s="8">
-        <v>0</v>
+        <v>-2.61</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2676,172 +2757,172 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="6">
-        <v>603826</v>
+        <v>300548</v>
       </c>
       <c r="C46" s="6">
-        <v>72900</v>
+        <v>23200</v>
       </c>
       <c r="D46" s="6">
-        <v>72900</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>0</v>
+        <v>23200</v>
       </c>
       <c r="F46" s="7">
-        <v>32.92</v>
+        <v>63.88</v>
       </c>
       <c r="G46" s="7">
-        <v>31.379</v>
+        <v>64.267</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>2399868</v>
+        <v>1482016</v>
       </c>
       <c r="J46" s="7">
-        <v>112361.22</v>
+        <v>-8976.19</v>
       </c>
       <c r="K46" s="7">
-        <v>-93312</v>
+        <v>-8976.19</v>
       </c>
       <c r="L46" s="8">
-        <v>4.91</v>
+        <v>-0.6</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="6">
-        <v>12100</v>
-      </c>
-      <c r="D47" s="6">
-        <v>12100</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>114.38</v>
-      </c>
-      <c r="G47" s="7">
-        <v>103.31</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1383998</v>
-      </c>
-      <c r="J47" s="7">
-        <v>133950.44</v>
-      </c>
-      <c r="K47" s="7">
-        <v>33154</v>
-      </c>
-      <c r="L47" s="8">
-        <v>10.72</v>
-      </c>
-      <c r="M47" s="8" t="s">
+      <c r="B47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D47" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>59.74</v>
+      </c>
+      <c r="G47" s="11">
+        <v>53.268</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>448050</v>
+      </c>
+      <c r="J47" s="11">
+        <v>48543.56</v>
+      </c>
+      <c r="K47" s="11">
+        <v>4950</v>
+      </c>
+      <c r="L47" s="9">
+        <v>12.15</v>
+      </c>
+      <c r="M47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="8" t="s">
+      <c r="N47" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="6">
-        <v>69900</v>
-      </c>
-      <c r="D48" s="6">
-        <v>69900</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>4.86</v>
-      </c>
-      <c r="G48" s="7">
-        <v>4.621</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>339714</v>
-      </c>
-      <c r="J48" s="7">
-        <v>16704.58</v>
-      </c>
-      <c r="K48" s="7">
-        <v>13980</v>
-      </c>
-      <c r="L48" s="8">
-        <v>5.17</v>
-      </c>
-      <c r="M48" s="8" t="s">
+      <c r="B48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="10">
+        <v>36800</v>
+      </c>
+      <c r="D48" s="10">
+        <v>36800</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>73.2</v>
+      </c>
+      <c r="G48" s="11">
+        <v>70.791</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>2693760</v>
+      </c>
+      <c r="J48" s="11">
+        <v>88657.91</v>
+      </c>
+      <c r="K48" s="11">
+        <v>116288</v>
+      </c>
+      <c r="L48" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="8" t="s">
+      <c r="N48" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>36200</v>
       </c>
       <c r="D49" s="6">
-        <v>0</v>
+        <v>36200</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>7.84</v>
+        <v>9.1</v>
       </c>
       <c r="G49" s="7">
-        <v>0</v>
+        <v>10.009</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>329420</v>
       </c>
       <c r="J49" s="7">
-        <v>26983.9</v>
+        <v>-32915.29</v>
       </c>
       <c r="K49" s="7">
-        <v>-1394.9</v>
+        <v>-1086</v>
       </c>
       <c r="L49" s="8">
-        <v>0</v>
+        <v>-9.08</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2852,84 +2933,84 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="6">
-        <v>300616</v>
+        <v>603260</v>
       </c>
       <c r="C50" s="6">
-        <v>11900</v>
+        <v>36300</v>
       </c>
       <c r="D50" s="6">
-        <v>0</v>
+        <v>36300</v>
       </c>
       <c r="E50" s="6">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>66.18</v>
+        <v>27.94</v>
       </c>
       <c r="G50" s="7">
-        <v>65.697</v>
+        <v>29.681</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>787542</v>
+        <v>1014222</v>
       </c>
       <c r="J50" s="7">
-        <v>5743.93</v>
+        <v>-63199.29</v>
       </c>
       <c r="K50" s="7">
-        <v>5743.93</v>
+        <v>-10164</v>
       </c>
       <c r="L50" s="8">
-        <v>0.74</v>
+        <v>-5.87</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="6">
-        <v>601138</v>
+        <v>603077</v>
       </c>
       <c r="C51" s="6">
-        <v>113700</v>
+        <v>1783500</v>
       </c>
       <c r="D51" s="6">
-        <v>0</v>
+        <v>1783500</v>
       </c>
       <c r="E51" s="6">
-        <v>113700</v>
+        <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>16.5</v>
+        <v>1.35</v>
       </c>
       <c r="G51" s="7">
-        <v>16.051</v>
+        <v>1.421</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>1876050</v>
+        <v>2407725</v>
       </c>
       <c r="J51" s="7">
-        <v>51100.86</v>
+        <v>-126434.46</v>
       </c>
       <c r="K51" s="7">
-        <v>51100.86</v>
+        <v>-19108.34</v>
       </c>
       <c r="L51" s="8">
-        <v>2.8</v>
+        <v>-5</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>24</v>
@@ -2939,305 +3020,305 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="6">
-        <v>300776</v>
-      </c>
-      <c r="C52" s="6">
-        <v>20</v>
-      </c>
-      <c r="D52" s="6">
-        <v>20</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>92.77</v>
-      </c>
-      <c r="G52" s="7">
-        <v>-9185.759</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>1855.4</v>
-      </c>
-      <c r="J52" s="7">
-        <v>185570.57</v>
-      </c>
-      <c r="K52" s="7">
-        <v>20949.09</v>
-      </c>
-      <c r="L52" s="8">
-        <v>0</v>
-      </c>
-      <c r="M52" s="8" t="s">
+      <c r="A52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="10">
+        <v>600039</v>
+      </c>
+      <c r="C52" s="10">
+        <v>6860</v>
+      </c>
+      <c r="D52" s="10">
+        <v>6860</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>4.29</v>
+      </c>
+      <c r="G52" s="11">
+        <v>2.945</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>29429.4</v>
+      </c>
+      <c r="J52" s="11">
+        <v>9229.46</v>
+      </c>
+      <c r="K52" s="11">
+        <v>68.7</v>
+      </c>
+      <c r="L52" s="9">
+        <v>45.67</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D53" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>12.82</v>
+      </c>
+      <c r="G53" s="11">
+        <v>12.392</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>192300</v>
+      </c>
+      <c r="J53" s="11">
+        <v>6421.07</v>
+      </c>
+      <c r="K53" s="11">
+        <v>3300</v>
+      </c>
+      <c r="L53" s="9">
+        <v>3.45</v>
+      </c>
+      <c r="M53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="6">
-        <v>300255</v>
-      </c>
-      <c r="C53" s="6">
-        <v>193900</v>
-      </c>
-      <c r="D53" s="6">
-        <v>193900</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>6.82</v>
-      </c>
-      <c r="G53" s="7">
-        <v>6.546</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>1322398</v>
-      </c>
-      <c r="J53" s="7">
-        <v>53120.25</v>
-      </c>
-      <c r="K53" s="7">
-        <v>81438</v>
-      </c>
-      <c r="L53" s="8">
-        <v>4.19</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="8" t="s">
+      <c r="N53" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="6">
-        <v>300638</v>
+        <v>601211</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D54" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>68.88</v>
+        <v>18.89</v>
       </c>
       <c r="G54" s="7">
-        <v>0</v>
+        <v>4366.57</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>604.48</v>
       </c>
       <c r="J54" s="7">
-        <v>428914.3</v>
+        <v>-139125.76</v>
       </c>
       <c r="K54" s="7">
-        <v>81.17</v>
+        <v>-2947.14</v>
       </c>
       <c r="L54" s="8">
-        <v>0</v>
+        <v>-99.57</v>
       </c>
       <c r="M54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="10">
+        <v>300285</v>
+      </c>
+      <c r="C55" s="10">
+        <v>54100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <v>54100</v>
+      </c>
+      <c r="F55" s="11">
+        <v>35.16</v>
+      </c>
+      <c r="G55" s="11">
+        <v>35.08</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1902156</v>
+      </c>
+      <c r="J55" s="11">
+        <v>4332.38</v>
+      </c>
+      <c r="K55" s="11">
+        <v>4332.38</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="N55" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="6">
-        <v>600771</v>
-      </c>
-      <c r="C55" s="6">
-        <v>99700</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>99700</v>
-      </c>
-      <c r="F55" s="7">
-        <v>15.45</v>
-      </c>
-      <c r="G55" s="7">
-        <v>14.845</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1540365</v>
-      </c>
-      <c r="J55" s="7">
-        <v>60334.88</v>
-      </c>
-      <c r="K55" s="7">
-        <v>60334.88</v>
-      </c>
-      <c r="L55" s="8">
-        <v>4.08</v>
-      </c>
-      <c r="M55" s="8" t="s">
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="6">
+        <v>603826</v>
+      </c>
+      <c r="C56" s="6">
+        <v>58900</v>
+      </c>
+      <c r="D56" s="6">
+        <v>58300</v>
+      </c>
+      <c r="E56" s="6">
+        <v>600</v>
+      </c>
+      <c r="F56" s="7">
+        <v>30</v>
+      </c>
+      <c r="G56" s="7">
+        <v>30.918</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1767000</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-54072.18</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-76258.36</v>
+      </c>
+      <c r="L56" s="8">
+        <v>-2.97</v>
+      </c>
+      <c r="M56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N55" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="10">
-        <v>600984</v>
-      </c>
-      <c r="C56" s="10">
-        <v>28600</v>
-      </c>
-      <c r="D56" s="10">
-        <v>28600</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>21.92</v>
-      </c>
-      <c r="G56" s="11">
-        <v>26.331</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>626912</v>
-      </c>
-      <c r="J56" s="11">
-        <v>-126155.68</v>
-      </c>
-      <c r="K56" s="11">
-        <v>15158</v>
-      </c>
-      <c r="L56" s="9">
-        <v>-16.75</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="6">
-        <v>300633</v>
+        <v>603387</v>
       </c>
       <c r="C57" s="6">
-        <v>2500</v>
+        <v>13200</v>
       </c>
       <c r="D57" s="6">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E57" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>39.55</v>
+        <v>40.58</v>
       </c>
       <c r="G57" s="7">
-        <v>38.183</v>
+        <v>41.043</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>98875</v>
+        <v>535656</v>
       </c>
       <c r="J57" s="7">
-        <v>3418.68</v>
+        <v>-6107.09</v>
       </c>
       <c r="K57" s="7">
-        <v>3418.68</v>
+        <v>19140</v>
       </c>
       <c r="L57" s="8">
-        <v>3.58</v>
+        <v>-1.13</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C58" s="6">
-        <v>426600</v>
+        <v>12100</v>
       </c>
       <c r="D58" s="6">
-        <v>426600</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>6.87</v>
+        <v>100.31</v>
       </c>
       <c r="G58" s="7">
-        <v>6.389</v>
+        <v>103.31</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>2930742</v>
+        <v>1213751</v>
       </c>
       <c r="J58" s="7">
-        <v>205388.27</v>
+        <v>-36296.56</v>
       </c>
       <c r="K58" s="7">
-        <v>230364</v>
+        <v>5082</v>
       </c>
       <c r="L58" s="8">
-        <v>7.53</v>
+        <v>-2.9</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3248,84 +3329,84 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="6">
-        <v>600805</v>
+        <v>103</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C59" s="6">
-        <v>85580</v>
+        <v>69900</v>
       </c>
       <c r="D59" s="6">
-        <v>85580</v>
+        <v>69900</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="G59" s="7">
-        <v>4.613</v>
+        <v>4.606</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>395379.6</v>
+        <v>320841</v>
       </c>
       <c r="J59" s="7">
-        <v>623.69</v>
+        <v>-1112.93</v>
       </c>
       <c r="K59" s="7">
-        <v>9413.8</v>
+        <v>1048.5</v>
       </c>
       <c r="L59" s="8">
-        <v>0.15</v>
+        <v>-0.35</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B60" s="6">
-        <v>600486</v>
+        <v>603839</v>
       </c>
       <c r="C60" s="6">
-        <v>500</v>
+        <v>15500</v>
       </c>
       <c r="D60" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="F60" s="7">
-        <v>87.46</v>
+        <v>12.91</v>
       </c>
       <c r="G60" s="7">
-        <v>80.514</v>
+        <v>12.919</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>43730</v>
+        <v>200105</v>
       </c>
       <c r="J60" s="7">
-        <v>3473.15</v>
+        <v>-135.09</v>
       </c>
       <c r="K60" s="7">
-        <v>1270</v>
+        <v>-135.09</v>
       </c>
       <c r="L60" s="8">
-        <v>8.63</v>
+        <v>-0.07</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>24</v>
@@ -3336,221 +3417,221 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B61" s="6">
-        <v>603583</v>
+        <v>300617</v>
       </c>
       <c r="C61" s="6">
-        <v>80</v>
+        <v>18940</v>
       </c>
       <c r="D61" s="6">
-        <v>80</v>
+        <v>18940</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>54.8</v>
+        <v>36.63</v>
       </c>
       <c r="G61" s="7">
-        <v>-3159.184</v>
+        <v>38.59</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>4384</v>
+        <v>693772.2</v>
       </c>
       <c r="J61" s="7">
-        <v>257118.7</v>
+        <v>-37126.85</v>
       </c>
       <c r="K61" s="7">
-        <v>-10283.74</v>
+        <v>10038.2</v>
       </c>
       <c r="L61" s="8">
-        <v>0</v>
+        <v>-5.08</v>
       </c>
       <c r="M61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="10">
+        <v>600885</v>
+      </c>
+      <c r="C62" s="10">
+        <v>40637</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <v>40637</v>
+      </c>
+      <c r="F62" s="11">
+        <v>38.15</v>
+      </c>
+      <c r="G62" s="11">
+        <v>37.866</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>1550301.55</v>
+      </c>
+      <c r="J62" s="11">
+        <v>11559.21</v>
+      </c>
+      <c r="K62" s="11">
+        <v>11559.21</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="M62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N62" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="6">
-        <v>300079</v>
-      </c>
-      <c r="C62" s="6">
-        <v>30200</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6">
-        <v>30200</v>
-      </c>
-      <c r="F62" s="7">
-        <v>5.44</v>
-      </c>
-      <c r="G62" s="7">
-        <v>5.413</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>164288</v>
-      </c>
-      <c r="J62" s="7">
-        <v>816.78</v>
-      </c>
-      <c r="K62" s="7">
-        <v>816.78</v>
-      </c>
-      <c r="L62" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="B63" s="6">
+        <v>600845</v>
       </c>
       <c r="C63" s="6">
-        <v>184700</v>
+        <v>26400</v>
       </c>
       <c r="D63" s="6">
-        <v>184700</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="F63" s="7">
-        <v>11.54</v>
+        <v>69.63</v>
       </c>
       <c r="G63" s="7">
-        <v>11.045</v>
+        <v>70.206</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>2131438</v>
+        <v>1838232</v>
       </c>
       <c r="J63" s="7">
-        <v>91417.01</v>
+        <v>-15198.4</v>
       </c>
       <c r="K63" s="7">
-        <v>73880</v>
+        <v>-15198.4</v>
       </c>
       <c r="L63" s="8">
-        <v>4.48</v>
+        <v>-0.82</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B64" s="6">
+        <v>601138</v>
       </c>
       <c r="C64" s="6">
-        <v>22300</v>
+        <v>113700</v>
       </c>
       <c r="D64" s="6">
-        <v>22300</v>
+        <v>113700</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>38.08</v>
+        <v>14.79</v>
       </c>
       <c r="G64" s="7">
-        <v>34.872</v>
+        <v>16.051</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>849184</v>
+        <v>1681623</v>
       </c>
       <c r="J64" s="7">
-        <v>71545.37</v>
+        <v>-143326.14</v>
       </c>
       <c r="K64" s="7">
-        <v>28544</v>
+        <v>-9096</v>
       </c>
       <c r="L64" s="8">
-        <v>9.2</v>
+        <v>-7.86</v>
       </c>
       <c r="M64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="10">
+        <v>300776</v>
+      </c>
+      <c r="C65" s="10">
+        <v>20</v>
+      </c>
+      <c r="D65" s="10">
+        <v>20</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>86.24</v>
+      </c>
+      <c r="G65" s="11">
+        <v>-9196.857</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1724.8</v>
+      </c>
+      <c r="J65" s="11">
+        <v>185661.93</v>
+      </c>
+      <c r="K65" s="11">
+        <v>18.6</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>57.25</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
-        <v>61525.22</v>
-      </c>
-      <c r="K65" s="7">
-        <v>-34105.27</v>
-      </c>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="8" t="s">
+      <c r="N65" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3559,43 +3640,43 @@
         <v>111</v>
       </c>
       <c r="B66" s="6">
-        <v>601799</v>
+        <v>300255</v>
       </c>
       <c r="C66" s="6">
-        <v>3600</v>
+        <v>193900</v>
       </c>
       <c r="D66" s="6">
-        <v>3600</v>
+        <v>193900</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>129.95</v>
+        <v>6.17</v>
       </c>
       <c r="G66" s="7">
-        <v>111.804</v>
+        <v>6.546</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>467820</v>
+        <v>1196363</v>
       </c>
       <c r="J66" s="7">
-        <v>65323.92</v>
+        <v>-72914.75</v>
       </c>
       <c r="K66" s="7">
-        <v>108</v>
+        <v>-9695</v>
       </c>
       <c r="L66" s="8">
-        <v>16.23</v>
+        <v>-5.74</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3603,43 +3684,43 @@
         <v>112</v>
       </c>
       <c r="B67" s="6">
-        <v>603127</v>
+        <v>300638</v>
       </c>
       <c r="C67" s="6">
-        <v>12000</v>
+        <v>27100</v>
       </c>
       <c r="D67" s="6">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E67" s="6">
-        <v>0</v>
+        <v>27100</v>
       </c>
       <c r="F67" s="7">
-        <v>103.05</v>
+        <v>58.74</v>
       </c>
       <c r="G67" s="7">
-        <v>89.398</v>
+        <v>59.308</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>1236600</v>
+        <v>1591854</v>
       </c>
       <c r="J67" s="7">
-        <v>163824.34</v>
+        <v>-15397.47</v>
       </c>
       <c r="K67" s="7">
-        <v>24360</v>
+        <v>-15397.47</v>
       </c>
       <c r="L67" s="8">
-        <v>15.27</v>
+        <v>-0.96</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3647,125 +3728,125 @@
         <v>113</v>
       </c>
       <c r="B68" s="6">
-        <v>300138</v>
+        <v>600153</v>
       </c>
       <c r="C68" s="6">
-        <v>35400</v>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>35400</v>
+        <v>0</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>13.23</v>
+        <v>9.78</v>
       </c>
       <c r="G68" s="7">
-        <v>11.069</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>468342</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>76484.87</v>
+        <v>-15460.22</v>
       </c>
       <c r="K68" s="7">
-        <v>15930</v>
+        <v>43820.77</v>
       </c>
       <c r="L68" s="8">
-        <v>19.52</v>
+        <v>0</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>115</v>
+      <c r="B69" s="6">
+        <v>600136</v>
       </c>
       <c r="C69" s="6">
-        <v>28080</v>
+        <v>196100</v>
       </c>
       <c r="D69" s="6">
-        <v>28080</v>
+        <v>196100</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>8.8</v>
+        <v>8.51</v>
       </c>
       <c r="G69" s="7">
-        <v>7.736</v>
+        <v>9.313</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>247104</v>
+        <v>1668811</v>
       </c>
       <c r="J69" s="7">
-        <v>29867.57</v>
+        <v>-157476.75</v>
       </c>
       <c r="K69" s="7">
-        <v>8424</v>
+        <v>-41181</v>
       </c>
       <c r="L69" s="8">
-        <v>13.75</v>
+        <v>-8.62</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="B70" s="6">
+        <v>300078</v>
       </c>
       <c r="C70" s="6">
-        <v>437000</v>
+        <v>129800</v>
       </c>
       <c r="D70" s="6">
-        <v>437000</v>
+        <v>129800</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>5.68</v>
+        <v>13.36</v>
       </c>
       <c r="G70" s="7">
-        <v>5.456</v>
+        <v>14.553</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>2482160</v>
+        <v>1734128</v>
       </c>
       <c r="J70" s="7">
-        <v>97718.39</v>
+        <v>-154795.47</v>
       </c>
       <c r="K70" s="7">
-        <v>161690</v>
+        <v>-12980</v>
       </c>
       <c r="L70" s="8">
-        <v>4.11</v>
+        <v>-8.2</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3776,40 +3857,40 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="6">
-        <v>600873</v>
+        <v>600805</v>
       </c>
       <c r="C71" s="6">
-        <v>83200</v>
+        <v>105780</v>
       </c>
       <c r="D71" s="6">
-        <v>83200</v>
+        <v>105780</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>5.31</v>
+        <v>4.26</v>
       </c>
       <c r="G71" s="7">
-        <v>4.889</v>
+        <v>4.61</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>441792</v>
+        <v>450622.8</v>
       </c>
       <c r="J71" s="7">
-        <v>34990.86</v>
+        <v>-37068.9</v>
       </c>
       <c r="K71" s="7">
-        <v>39936</v>
+        <v>-4231.2</v>
       </c>
       <c r="L71" s="8">
-        <v>8.61</v>
+        <v>-7.59</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>24</v>
@@ -3819,85 +3900,85 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="6">
-        <v>300595</v>
-      </c>
-      <c r="C72" s="6">
-        <v>12200</v>
-      </c>
-      <c r="D72" s="6">
-        <v>12200</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>66.64</v>
-      </c>
-      <c r="G72" s="7">
-        <v>64.742</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>813008</v>
-      </c>
-      <c r="J72" s="7">
-        <v>23149.7</v>
-      </c>
-      <c r="K72" s="7">
-        <v>16104</v>
-      </c>
-      <c r="L72" s="8">
-        <v>2.93</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>25</v>
+      <c r="A72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="10">
+        <v>603583</v>
+      </c>
+      <c r="C72" s="10">
+        <v>80</v>
+      </c>
+      <c r="D72" s="10">
+        <v>80</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>52.99</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-3160.036</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>4239.2</v>
+      </c>
+      <c r="J72" s="11">
+        <v>257042.09</v>
+      </c>
+      <c r="K72" s="11">
+        <v>190.4</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" s="6">
-        <v>300053</v>
+        <v>300079</v>
       </c>
       <c r="C73" s="6">
-        <v>211700</v>
+        <v>252700</v>
       </c>
       <c r="D73" s="6">
-        <v>211700</v>
+        <v>252700</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>13.19</v>
+        <v>4.8</v>
       </c>
       <c r="G73" s="7">
-        <v>13.086</v>
+        <v>5.496</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>2792323</v>
+        <v>1212960</v>
       </c>
       <c r="J73" s="7">
-        <v>21937.16</v>
+        <v>-175801.29</v>
       </c>
       <c r="K73" s="7">
-        <v>74637.41</v>
+        <v>-25270</v>
       </c>
       <c r="L73" s="8">
-        <v>0.79</v>
+        <v>-12.66</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>26</v>
@@ -3908,216 +3989,216 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="6">
+        <v>184700</v>
+      </c>
+      <c r="D74" s="6">
+        <v>184700</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="G74" s="7">
+        <v>11.045</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1970749</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-69271.99</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-1847</v>
+      </c>
+      <c r="L74" s="8">
+        <v>-3.4</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="6">
-        <v>603833</v>
-      </c>
-      <c r="C74" s="6">
-        <v>9400</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6">
-        <v>9400</v>
-      </c>
-      <c r="F74" s="7">
-        <v>126.22</v>
-      </c>
-      <c r="G74" s="7">
-        <v>123.556</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>1186468</v>
-      </c>
-      <c r="J74" s="7">
-        <v>25044.36</v>
-      </c>
-      <c r="K74" s="7">
-        <v>25044.36</v>
-      </c>
-      <c r="L74" s="8">
-        <v>2.16</v>
-      </c>
-      <c r="M74" s="8" t="s">
+      <c r="B75" s="10">
+        <v>300324</v>
+      </c>
+      <c r="C75" s="10">
+        <v>253200</v>
+      </c>
+      <c r="D75" s="10">
+        <v>253200</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>7.33</v>
+      </c>
+      <c r="G75" s="11">
+        <v>7.187</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1855956</v>
+      </c>
+      <c r="J75" s="11">
+        <v>36171.05</v>
+      </c>
+      <c r="K75" s="11">
+        <v>169644</v>
+      </c>
+      <c r="L75" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="10">
+        <v>603127</v>
+      </c>
+      <c r="C76" s="10">
+        <v>500</v>
+      </c>
+      <c r="D76" s="10">
+        <v>500</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>96.86</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-278.343</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>48430</v>
+      </c>
+      <c r="J76" s="11">
+        <v>187601.71</v>
+      </c>
+      <c r="K76" s="11">
+        <v>720</v>
+      </c>
+      <c r="L76" s="9">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="N76" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="6">
-        <v>300653</v>
-      </c>
-      <c r="C75" s="6">
-        <v>23160</v>
-      </c>
-      <c r="D75" s="6">
-        <v>23160</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>78.6</v>
-      </c>
-      <c r="G75" s="7">
-        <v>68.463</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>1820376</v>
-      </c>
-      <c r="J75" s="7">
-        <v>234770.15</v>
-      </c>
-      <c r="K75" s="7">
-        <v>44004</v>
-      </c>
-      <c r="L75" s="8">
-        <v>14.81</v>
-      </c>
-      <c r="M75" s="8" t="s">
+    <row r="77" spans="1:14">
+      <c r="A77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="10">
+        <v>300138</v>
+      </c>
+      <c r="C77" s="10">
+        <v>35400</v>
+      </c>
+      <c r="D77" s="10">
+        <v>35400</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>13.31</v>
+      </c>
+      <c r="G77" s="11">
+        <v>11.069</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>471174</v>
+      </c>
+      <c r="J77" s="11">
+        <v>79316.87</v>
+      </c>
+      <c r="K77" s="11">
+        <v>10620</v>
+      </c>
+      <c r="L77" s="9">
+        <v>20.25</v>
+      </c>
+      <c r="M77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="6">
-        <v>300232</v>
-      </c>
-      <c r="C76" s="6">
-        <v>188221</v>
-      </c>
-      <c r="D76" s="6">
-        <v>188221</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>9.86</v>
-      </c>
-      <c r="G76" s="7">
-        <v>9.453</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>1855859.06</v>
-      </c>
-      <c r="J76" s="7">
-        <v>76610.59</v>
-      </c>
-      <c r="K76" s="7">
-        <v>109168.18</v>
-      </c>
-      <c r="L76" s="8">
-        <v>4.31</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="6">
-        <v>37100</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>37100</v>
-      </c>
-      <c r="F77" s="7">
-        <v>12.3</v>
-      </c>
-      <c r="G77" s="7">
-        <v>12.168</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>456330</v>
-      </c>
-      <c r="J77" s="7">
-        <v>4909.79</v>
-      </c>
-      <c r="K77" s="7">
-        <v>4909.79</v>
-      </c>
-      <c r="L77" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="8" t="s">
+      <c r="N77" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" s="6">
-        <v>600221</v>
+        <v>603228</v>
       </c>
       <c r="C78" s="6">
-        <v>1577600</v>
+        <v>47800</v>
       </c>
       <c r="D78" s="6">
-        <v>1577600</v>
+        <v>47800</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>1.75</v>
+        <v>35.5</v>
       </c>
       <c r="G78" s="7">
-        <v>1.716</v>
+        <v>39.48</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>2760800</v>
+        <v>1696900</v>
       </c>
       <c r="J78" s="7">
-        <v>53409.27</v>
+        <v>-190225.83</v>
       </c>
       <c r="K78" s="7">
-        <v>31711.28</v>
+        <v>-15774</v>
       </c>
       <c r="L78" s="8">
-        <v>1.98</v>
+        <v>-10.08</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>24</v>
@@ -4128,40 +4209,40 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="6">
-        <v>300119</v>
+        <v>300316</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D79" s="6">
         <v>0</v>
       </c>
       <c r="E79" s="6">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F79" s="7">
-        <v>25.83</v>
+        <v>23.67</v>
       </c>
       <c r="G79" s="7">
-        <v>0</v>
+        <v>24.797</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <v>82845</v>
       </c>
       <c r="J79" s="7">
-        <v>98918.1</v>
+        <v>-3944.7</v>
       </c>
       <c r="K79" s="7">
-        <v>801.74</v>
+        <v>-3944.7</v>
       </c>
       <c r="L79" s="8">
-        <v>0</v>
+        <v>-4.54</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4172,40 +4253,40 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B80" s="6">
-        <v>603181</v>
+        <v>603818</v>
       </c>
       <c r="C80" s="6">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="D80" s="6">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>23.74</v>
+        <v>9.01</v>
       </c>
       <c r="G80" s="7">
-        <v>0</v>
+        <v>9.307</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>0</v>
+        <v>144160</v>
       </c>
       <c r="J80" s="7">
-        <v>20374.11</v>
+        <v>-4757.35</v>
       </c>
       <c r="K80" s="7">
-        <v>2047.9</v>
+        <v>1280</v>
       </c>
       <c r="L80" s="8">
-        <v>0</v>
+        <v>-3.19</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>24</v>
@@ -4215,305 +4296,305 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="6">
-        <v>603688</v>
-      </c>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>27.9</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7">
-        <v>277451.83</v>
-      </c>
-      <c r="K81" s="7">
-        <v>1113.92</v>
-      </c>
-      <c r="L81" s="8">
-        <v>0</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>23</v>
+      <c r="A81" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="10">
+        <v>28080</v>
+      </c>
+      <c r="D81" s="10">
+        <v>28080</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>8.2</v>
+      </c>
+      <c r="G81" s="11">
+        <v>7.736</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>230256</v>
+      </c>
+      <c r="J81" s="11">
+        <v>13019.57</v>
+      </c>
+      <c r="K81" s="11">
+        <v>1123.2</v>
+      </c>
+      <c r="L81" s="9">
+        <v>6</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="6">
-        <v>603609</v>
-      </c>
       <c r="C82" s="6">
-        <v>102800</v>
+        <v>0</v>
       </c>
       <c r="D82" s="6">
-        <v>102800</v>
+        <v>0</v>
       </c>
       <c r="E82" s="6">
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>16.89</v>
+        <v>5.36</v>
       </c>
       <c r="G82" s="7">
-        <v>14.842</v>
+        <v>0</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>1736292</v>
+        <v>0</v>
       </c>
       <c r="J82" s="7">
-        <v>210569.33</v>
+        <v>-77429.72</v>
       </c>
       <c r="K82" s="7">
-        <v>158312</v>
+        <v>36764.66</v>
       </c>
       <c r="L82" s="8">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6">
+        <v>600873</v>
+      </c>
+      <c r="C83" s="6">
+        <v>83200</v>
+      </c>
+      <c r="D83" s="6">
+        <v>83200</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>4.78</v>
+      </c>
+      <c r="G83" s="7">
+        <v>4.889</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>397696</v>
+      </c>
+      <c r="J83" s="7">
+        <v>-9105.14</v>
+      </c>
+      <c r="K83" s="7">
+        <v>-9984</v>
+      </c>
+      <c r="L83" s="8">
+        <v>-2.23</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="6">
-        <v>18800</v>
-      </c>
-      <c r="D83" s="6">
-        <v>18800</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>23.5</v>
-      </c>
-      <c r="G83" s="7">
-        <v>22.441</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>441800</v>
-      </c>
-      <c r="J83" s="7">
-        <v>19907.73</v>
-      </c>
-      <c r="K83" s="7">
-        <v>11092</v>
-      </c>
-      <c r="L83" s="8">
-        <v>4.72</v>
-      </c>
-      <c r="M83" s="8" t="s">
+      <c r="B84" s="6">
+        <v>300053</v>
+      </c>
+      <c r="C84" s="6">
+        <v>208200</v>
+      </c>
+      <c r="D84" s="6">
+        <v>208200</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>11.89</v>
+      </c>
+      <c r="G84" s="7">
+        <v>13.085</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>2475498</v>
+      </c>
+      <c r="J84" s="7">
+        <v>-248789.71</v>
+      </c>
+      <c r="K84" s="7">
+        <v>-52050</v>
+      </c>
+      <c r="L84" s="8">
+        <v>-9.13</v>
+      </c>
+      <c r="M84" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="8" t="s">
+      <c r="N84" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="12" t="s">
+    <row r="85" spans="1:14">
+      <c r="A85" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="13">
-        <v>3711000</v>
-      </c>
-      <c r="D84" s="13">
-        <v>3711000</v>
-      </c>
-      <c r="E84" s="13">
-        <v>0</v>
-      </c>
-      <c r="F84" s="14">
-        <v>0</v>
-      </c>
-      <c r="G84" s="14">
-        <v>0</v>
-      </c>
-      <c r="H84" s="14">
-        <v>0</v>
-      </c>
-      <c r="I84" s="14">
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
-        <v>0</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="12">
-        <v>0</v>
-      </c>
-      <c r="M84" s="12" t="s">
+      <c r="B85" s="10">
+        <v>603833</v>
+      </c>
+      <c r="C85" s="10">
+        <v>2700</v>
+      </c>
+      <c r="D85" s="10">
+        <v>2700</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>126.95</v>
+      </c>
+      <c r="G85" s="11">
+        <v>119.531</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>342765</v>
+      </c>
+      <c r="J85" s="11">
+        <v>20030.69</v>
+      </c>
+      <c r="K85" s="11">
+        <v>29807.07</v>
+      </c>
+      <c r="L85" s="9">
+        <v>6.21</v>
+      </c>
+      <c r="M85" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N84" s="12" t="s">
+      <c r="N85" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="6">
-        <v>48767</v>
-      </c>
-      <c r="D85" s="6">
-        <v>48767</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>53.6</v>
-      </c>
-      <c r="G85" s="7">
-        <v>52.099</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>2613911.2</v>
-      </c>
-      <c r="J85" s="7">
-        <v>73177.46</v>
-      </c>
-      <c r="K85" s="7">
-        <v>6827.38</v>
-      </c>
-      <c r="L85" s="8">
-        <v>2.88</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B86" s="10">
-        <v>601828</v>
+        <v>300653</v>
       </c>
       <c r="C86" s="10">
-        <v>137800</v>
+        <v>60</v>
       </c>
       <c r="D86" s="10">
-        <v>137800</v>
+        <v>60</v>
       </c>
       <c r="E86" s="10">
         <v>0</v>
       </c>
       <c r="F86" s="11">
-        <v>10.68</v>
+        <v>74.64</v>
       </c>
       <c r="G86" s="11">
-        <v>10.687</v>
+        <v>-3934.097</v>
       </c>
       <c r="H86" s="11">
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <v>1471704</v>
+        <v>4478.4</v>
       </c>
       <c r="J86" s="11">
-        <v>-929.38</v>
+        <v>240524.21</v>
       </c>
       <c r="K86" s="11">
-        <v>20670</v>
+        <v>104.4</v>
       </c>
       <c r="L86" s="9">
-        <v>-0.07</v>
+        <v>0</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B87" s="6">
-        <v>603538</v>
+        <v>603160</v>
       </c>
       <c r="C87" s="6">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="D87" s="6">
         <v>0</v>
       </c>
       <c r="E87" s="6">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="F87" s="7">
-        <v>53.88</v>
+        <v>210.26</v>
       </c>
       <c r="G87" s="7">
-        <v>0</v>
+        <v>214.465</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>0</v>
+        <v>1787210</v>
       </c>
       <c r="J87" s="7">
-        <v>34412.92</v>
+        <v>-35742.31</v>
       </c>
       <c r="K87" s="7">
-        <v>1553.7</v>
+        <v>-35742.31</v>
       </c>
       <c r="L87" s="8">
-        <v>0</v>
+        <v>-1.96</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>24</v>
@@ -4524,128 +4605,128 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B88" s="6">
-        <v>300476</v>
+        <v>600590</v>
       </c>
       <c r="C88" s="6">
-        <v>35900</v>
+        <v>69700</v>
       </c>
       <c r="D88" s="6">
-        <v>35900</v>
+        <v>69700</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>26.77</v>
+        <v>5.8</v>
       </c>
       <c r="G88" s="7">
-        <v>26.07</v>
+        <v>6.083</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>961043</v>
+        <v>404260</v>
       </c>
       <c r="J88" s="7">
-        <v>25124.63</v>
+        <v>-19697.94</v>
       </c>
       <c r="K88" s="7">
-        <v>27284</v>
+        <v>1394</v>
       </c>
       <c r="L88" s="8">
-        <v>2.69</v>
+        <v>-4.65</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B89" s="6">
-        <v>600151</v>
+        <v>300232</v>
       </c>
       <c r="C89" s="6">
-        <v>364400</v>
+        <v>188221</v>
       </c>
       <c r="D89" s="6">
-        <v>364400</v>
+        <v>188221</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <v>5.35</v>
+        <v>8.43</v>
       </c>
       <c r="G89" s="7">
-        <v>5.148</v>
+        <v>9.453</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>1949540</v>
+        <v>1586703.03</v>
       </c>
       <c r="J89" s="7">
-        <v>73761.34</v>
+        <v>-192545.44</v>
       </c>
       <c r="K89" s="7">
-        <v>32796</v>
+        <v>-41408.62</v>
       </c>
       <c r="L89" s="8">
-        <v>3.92</v>
+        <v>-10.82</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C90" s="6">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="D90" s="6">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <v>12.36</v>
+        <v>11.21</v>
       </c>
       <c r="G90" s="7">
-        <v>0</v>
+        <v>12.155</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <v>0</v>
+        <v>415891</v>
       </c>
       <c r="J90" s="7">
-        <v>711818.38</v>
+        <v>-35051.74</v>
       </c>
       <c r="K90" s="7">
-        <v>220180.1</v>
+        <v>-1855</v>
       </c>
       <c r="L90" s="8">
-        <v>0</v>
+        <v>-7.77</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>26</v>
@@ -4656,40 +4737,40 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B91" s="6">
-        <v>603355</v>
+        <v>603556</v>
       </c>
       <c r="C91" s="6">
-        <v>9600</v>
+        <v>23600</v>
       </c>
       <c r="D91" s="6">
-        <v>9600</v>
+        <v>23600</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
       <c r="F91" s="7">
-        <v>26.6</v>
+        <v>14.45</v>
       </c>
       <c r="G91" s="7">
-        <v>22.984</v>
+        <v>15.607</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="7">
-        <v>255360</v>
+        <v>341020</v>
       </c>
       <c r="J91" s="7">
-        <v>34708.96</v>
+        <v>-27296.51</v>
       </c>
       <c r="K91" s="7">
-        <v>17568</v>
+        <v>-2360</v>
       </c>
       <c r="L91" s="8">
-        <v>15.73</v>
+        <v>-7.41</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>24</v>
@@ -4700,40 +4781,40 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B92" s="6">
-        <v>603999</v>
+        <v>600221</v>
       </c>
       <c r="C92" s="6">
-        <v>55200</v>
+        <v>307600</v>
       </c>
       <c r="D92" s="6">
-        <v>0</v>
+        <v>307600</v>
       </c>
       <c r="E92" s="6">
-        <v>55200</v>
+        <v>0</v>
       </c>
       <c r="F92" s="7">
-        <v>6.81</v>
+        <v>1.59</v>
       </c>
       <c r="G92" s="7">
-        <v>6.664</v>
+        <v>2.199</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>375912</v>
+        <v>489084</v>
       </c>
       <c r="J92" s="7">
-        <v>8085.81</v>
+        <v>-187428.15</v>
       </c>
       <c r="K92" s="7">
-        <v>8085.81</v>
+        <v>-5439.1</v>
       </c>
       <c r="L92" s="8">
-        <v>2.19</v>
+        <v>-27.69</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>24</v>
@@ -4744,40 +4825,40 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B93" s="6">
-        <v>600307</v>
+        <v>600933</v>
       </c>
       <c r="C93" s="6">
-        <v>503000</v>
+        <v>23400</v>
       </c>
       <c r="D93" s="6">
-        <v>503000</v>
+        <v>0</v>
       </c>
       <c r="E93" s="6">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="F93" s="7">
-        <v>1.75</v>
+        <v>13.03</v>
       </c>
       <c r="G93" s="7">
-        <v>1.73</v>
+        <v>13.177</v>
       </c>
       <c r="H93" s="7">
         <v>0</v>
       </c>
       <c r="I93" s="7">
-        <v>880250</v>
+        <v>304902</v>
       </c>
       <c r="J93" s="7">
-        <v>9912.09</v>
+        <v>-3442.31</v>
       </c>
       <c r="K93" s="7">
-        <v>25150</v>
+        <v>-3442.31</v>
       </c>
       <c r="L93" s="8">
-        <v>1.16</v>
+        <v>-1.12</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>24</v>
@@ -4788,172 +4869,172 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="6">
+        <v>601231</v>
+      </c>
+      <c r="C94" s="6">
+        <v>77100</v>
+      </c>
+      <c r="D94" s="6">
+        <v>77100</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="G94" s="7">
+        <v>24.159</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1642230</v>
+      </c>
+      <c r="J94" s="7">
+        <v>-220455.58</v>
+      </c>
+      <c r="K94" s="7">
+        <v>-24672</v>
+      </c>
+      <c r="L94" s="8">
+        <v>-11.83</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="6">
+        <v>603823</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2600</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2600</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>17.05</v>
+      </c>
+      <c r="G95" s="7">
+        <v>17.633</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>44330</v>
+      </c>
+      <c r="J95" s="7">
+        <v>-1516.39</v>
+      </c>
+      <c r="K95" s="7">
+        <v>-182</v>
+      </c>
+      <c r="L95" s="8">
+        <v>-3.31</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="6">
-        <v>101624</v>
-      </c>
-      <c r="D94" s="6">
-        <v>0</v>
-      </c>
-      <c r="E94" s="6">
-        <v>101624</v>
-      </c>
-      <c r="F94" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="G94" s="7">
-        <v>8.751</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0</v>
-      </c>
-      <c r="I94" s="7">
-        <v>904453.6</v>
-      </c>
-      <c r="J94" s="7">
-        <v>15141.69</v>
-      </c>
-      <c r="K94" s="7">
-        <v>15141.69</v>
-      </c>
-      <c r="L94" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="M94" s="8" t="s">
+      <c r="C96" s="10">
+        <v>22500</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10">
+        <v>22500</v>
+      </c>
+      <c r="F96" s="11">
+        <v>52.01</v>
+      </c>
+      <c r="G96" s="11">
+        <v>51.288</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>1170225</v>
+      </c>
+      <c r="J96" s="11">
+        <v>16251.73</v>
+      </c>
+      <c r="K96" s="11">
+        <v>16251.73</v>
+      </c>
+      <c r="L96" s="9">
+        <v>1.41</v>
+      </c>
+      <c r="M96" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N94" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="10">
-        <v>252700</v>
-      </c>
-      <c r="D95" s="10">
-        <v>252700</v>
-      </c>
-      <c r="E95" s="10">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <v>10.26</v>
-      </c>
-      <c r="G95" s="11">
-        <v>10.281</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
-        <v>2592702</v>
-      </c>
-      <c r="J95" s="11">
-        <v>-5373.69</v>
-      </c>
-      <c r="K95" s="11">
-        <v>55594</v>
-      </c>
-      <c r="L95" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="M95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" s="6">
-        <v>300220</v>
-      </c>
-      <c r="C96" s="6">
-        <v>47900</v>
-      </c>
-      <c r="D96" s="6">
-        <v>47900</v>
-      </c>
-      <c r="E96" s="6">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7">
-        <v>38.65</v>
-      </c>
-      <c r="G96" s="7">
-        <v>35.181</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7">
-        <v>1851335</v>
-      </c>
-      <c r="J96" s="7">
-        <v>166156.91</v>
-      </c>
-      <c r="K96" s="7">
-        <v>31466.07</v>
-      </c>
-      <c r="L96" s="8">
-        <v>9.86</v>
-      </c>
-      <c r="M96" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" s="8" t="s">
+      <c r="N96" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B97" s="6">
-        <v>601992</v>
+        <v>603688</v>
       </c>
       <c r="C97" s="6">
-        <v>141900</v>
+        <v>42168</v>
       </c>
       <c r="D97" s="6">
-        <v>141900</v>
+        <v>0</v>
       </c>
       <c r="E97" s="6">
-        <v>0</v>
+        <v>42168</v>
       </c>
       <c r="F97" s="7">
-        <v>3.42</v>
+        <v>23.62</v>
       </c>
       <c r="G97" s="7">
-        <v>3.319</v>
+        <v>24.195</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <v>485298</v>
+        <v>996008.16</v>
       </c>
       <c r="J97" s="7">
-        <v>14358.09</v>
+        <v>-24250.98</v>
       </c>
       <c r="K97" s="7">
-        <v>17028</v>
+        <v>-24250.98</v>
       </c>
       <c r="L97" s="8">
-        <v>3.04</v>
+        <v>-2.38</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>24</v>
@@ -4964,177 +5045,1233 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" s="6">
-        <v>600686</v>
+        <v>148</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C98" s="6">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="D98" s="6">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
       </c>
       <c r="F98" s="7">
-        <v>6.28</v>
+        <v>21.58</v>
       </c>
       <c r="G98" s="7">
-        <v>6.048</v>
+        <v>0</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
       </c>
       <c r="I98" s="7">
-        <v>84152</v>
+        <v>0</v>
       </c>
       <c r="J98" s="7">
-        <v>3103.23</v>
+        <v>-12542.06</v>
       </c>
       <c r="K98" s="7">
-        <v>2010</v>
+        <v>-489.79</v>
       </c>
       <c r="L98" s="8">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="M98" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="13">
+        <v>4412000</v>
+      </c>
+      <c r="D99" s="13">
+        <v>4412000</v>
+      </c>
+      <c r="E99" s="13">
+        <v>0</v>
+      </c>
+      <c r="F99" s="14">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0</v>
+      </c>
+      <c r="H99" s="14">
+        <v>0</v>
+      </c>
+      <c r="I99" s="14">
+        <v>0</v>
+      </c>
+      <c r="J99" s="14">
+        <v>0</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="12">
+        <v>0</v>
+      </c>
+      <c r="M99" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N98" s="8" t="s">
+      <c r="N99" s="12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="10">
-        <v>369039</v>
-      </c>
-      <c r="D99" s="10">
-        <v>369039</v>
-      </c>
-      <c r="E99" s="10">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11">
-        <v>7.46</v>
-      </c>
-      <c r="G99" s="11">
-        <v>7.606</v>
-      </c>
-      <c r="H99" s="11">
-        <v>0</v>
-      </c>
-      <c r="I99" s="11">
-        <v>2753030.94</v>
-      </c>
-      <c r="J99" s="11">
-        <v>-53970.42</v>
-      </c>
-      <c r="K99" s="11">
-        <v>18433.19</v>
-      </c>
-      <c r="L99" s="9">
-        <v>-1.92</v>
-      </c>
-      <c r="M99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N99" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="B100" s="6">
+        <v>603486</v>
       </c>
       <c r="C100" s="6">
-        <v>170800</v>
+        <v>18400</v>
       </c>
       <c r="D100" s="6">
-        <v>117800</v>
+        <v>0</v>
       </c>
       <c r="E100" s="6">
-        <v>53000</v>
+        <v>18400</v>
       </c>
       <c r="F100" s="7">
-        <v>8.88</v>
+        <v>29.2</v>
       </c>
       <c r="G100" s="7">
-        <v>8.864</v>
+        <v>29.456</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
       </c>
       <c r="I100" s="7">
-        <v>1516704</v>
+        <v>537280</v>
       </c>
       <c r="J100" s="7">
-        <v>2662.55</v>
+        <v>-4709.55</v>
       </c>
       <c r="K100" s="7">
-        <v>27005.2</v>
+        <v>-4709.55</v>
       </c>
       <c r="L100" s="8">
-        <v>0.18</v>
+        <v>-0.87</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="6">
+        <v>300590</v>
+      </c>
+      <c r="C101" s="6">
+        <v>13900</v>
+      </c>
+      <c r="D101" s="6">
+        <v>13900</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>29.68</v>
+      </c>
+      <c r="G101" s="7">
+        <v>32.544</v>
+      </c>
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>412552</v>
+      </c>
+      <c r="J101" s="7">
+        <v>-39814.34</v>
+      </c>
+      <c r="K101" s="7">
+        <v>-7367</v>
+      </c>
+      <c r="L101" s="8">
+        <v>-8.8</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="6">
+        <v>41800</v>
+      </c>
+      <c r="D102" s="6">
+        <v>37600</v>
+      </c>
+      <c r="E102" s="6">
+        <v>4200</v>
+      </c>
+      <c r="F102" s="7">
+        <v>43.26</v>
+      </c>
+      <c r="G102" s="7">
+        <v>48.508</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7">
+        <v>1808268</v>
+      </c>
+      <c r="J102" s="7">
+        <v>-219352.78</v>
+      </c>
+      <c r="K102" s="7">
+        <v>-4173.23</v>
+      </c>
+      <c r="L102" s="8">
+        <v>-10.82</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="6">
+        <v>603699</v>
+      </c>
+      <c r="C103" s="6">
+        <v>29400</v>
+      </c>
+      <c r="D103" s="6">
+        <v>29400</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>15.35</v>
+      </c>
+      <c r="G103" s="7">
+        <v>16.553</v>
+      </c>
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>451290</v>
+      </c>
+      <c r="J103" s="7">
+        <v>-35380.71</v>
+      </c>
+      <c r="K103" s="7">
+        <v>-13230</v>
+      </c>
+      <c r="L103" s="8">
+        <v>-7.27</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B104" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="10">
+        <v>74</v>
+      </c>
+      <c r="D104" s="10">
+        <v>74</v>
+      </c>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
+      <c r="F104" s="11">
+        <v>55.51</v>
+      </c>
+      <c r="G104" s="11">
+        <v>-1451.126</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>4107.74</v>
+      </c>
+      <c r="J104" s="11">
+        <v>111491.09</v>
+      </c>
+      <c r="K104" s="11">
+        <v>179.08</v>
+      </c>
+      <c r="L104" s="9">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="6">
+        <v>601828</v>
+      </c>
+      <c r="C105" s="6">
+        <v>152300</v>
+      </c>
+      <c r="D105" s="6">
+        <v>152300</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>9.74</v>
+      </c>
+      <c r="G105" s="7">
+        <v>10.676</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>1483402</v>
+      </c>
+      <c r="J105" s="7">
+        <v>-142627.45</v>
+      </c>
+      <c r="K105" s="7">
+        <v>-25891</v>
+      </c>
+      <c r="L105" s="8">
+        <v>-8.77</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="6">
+        <v>300476</v>
+      </c>
+      <c r="C106" s="6">
+        <v>78600</v>
+      </c>
+      <c r="D106" s="6">
+        <v>74400</v>
+      </c>
+      <c r="E106" s="6">
+        <v>4200</v>
+      </c>
+      <c r="F106" s="7">
+        <v>22.74</v>
+      </c>
+      <c r="G106" s="7">
+        <v>25.59</v>
+      </c>
+      <c r="H106" s="7">
+        <v>0</v>
+      </c>
+      <c r="I106" s="7">
+        <v>1787364</v>
+      </c>
+      <c r="J106" s="7">
+        <v>-224029.03</v>
+      </c>
+      <c r="K106" s="7">
+        <v>-39939</v>
+      </c>
+      <c r="L106" s="8">
+        <v>-11.14</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="6">
+        <v>600151</v>
+      </c>
+      <c r="C107" s="6">
+        <v>77600</v>
+      </c>
+      <c r="D107" s="6">
+        <v>77600</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>5</v>
+      </c>
+      <c r="G107" s="7">
+        <v>5.927</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="I107" s="7">
+        <v>388000</v>
+      </c>
+      <c r="J107" s="7">
+        <v>-71944.26</v>
+      </c>
+      <c r="K107" s="7">
+        <v>-14521.6</v>
+      </c>
+      <c r="L107" s="8">
+        <v>-15.64</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="6">
+        <v>603660</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>9.22</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7">
+        <v>-100463.63</v>
+      </c>
+      <c r="K108" s="7">
+        <v>1529.18</v>
+      </c>
+      <c r="L108" s="8">
+        <v>0</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N108" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="6">
+        <v>603999</v>
+      </c>
+      <c r="C109" s="6">
+        <v>55200</v>
+      </c>
+      <c r="D109" s="6">
+        <v>55200</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>6.28</v>
+      </c>
+      <c r="G109" s="7">
+        <v>6.66</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>346656</v>
+      </c>
+      <c r="J109" s="7">
+        <v>-20953.41</v>
+      </c>
+      <c r="K109" s="7">
+        <v>-3312</v>
+      </c>
+      <c r="L109" s="8">
+        <v>-5.71</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="6">
+        <v>300687</v>
+      </c>
+      <c r="C110" s="6">
+        <v>30800</v>
+      </c>
+      <c r="D110" s="6">
+        <v>30800</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>21.47</v>
+      </c>
+      <c r="G110" s="7">
+        <v>25.293</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>661276</v>
+      </c>
+      <c r="J110" s="7">
+        <v>-117748.83</v>
+      </c>
+      <c r="K110" s="7">
+        <v>-12936</v>
+      </c>
+      <c r="L110" s="8">
+        <v>-15.11</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="6">
+        <v>86600</v>
+      </c>
+      <c r="D111" s="6">
+        <v>86600</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>5.11</v>
+      </c>
+      <c r="G111" s="7">
+        <v>5.502</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="I111" s="7">
+        <v>442526</v>
+      </c>
+      <c r="J111" s="7">
+        <v>-33917.45</v>
+      </c>
+      <c r="K111" s="7">
+        <v>-6928</v>
+      </c>
+      <c r="L111" s="8">
+        <v>-7.12</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="6">
+        <v>600307</v>
+      </c>
+      <c r="C112" s="6">
+        <v>312200</v>
+      </c>
+      <c r="D112" s="6">
+        <v>312200</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="G112" s="7">
+        <v>1.781</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0</v>
+      </c>
+      <c r="I112" s="7">
+        <v>515130</v>
+      </c>
+      <c r="J112" s="7">
+        <v>-40772.45</v>
+      </c>
+      <c r="K112" s="7">
+        <v>-384.54</v>
+      </c>
+      <c r="L112" s="8">
+        <v>-7.36</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N112" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="6">
+        <v>101624</v>
+      </c>
+      <c r="D113" s="6">
+        <v>101624</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>8.44</v>
+      </c>
+      <c r="G113" s="7">
+        <v>8.749</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>857706.56</v>
+      </c>
+      <c r="J113" s="7">
+        <v>-31431.73</v>
+      </c>
+      <c r="K113" s="7">
+        <v>-12194.88</v>
+      </c>
+      <c r="L113" s="8">
+        <v>-3.53</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="10">
+        <v>300220</v>
+      </c>
+      <c r="C114" s="10">
+        <v>80</v>
+      </c>
+      <c r="D114" s="10">
+        <v>80</v>
+      </c>
+      <c r="E114" s="10">
+        <v>0</v>
+      </c>
+      <c r="F114" s="11">
+        <v>33.43</v>
+      </c>
+      <c r="G114" s="11">
+        <v>-1734.712</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="11">
+        <v>2674.4</v>
+      </c>
+      <c r="J114" s="11">
+        <v>141451.36</v>
+      </c>
+      <c r="K114" s="11">
+        <v>-109.6</v>
+      </c>
+      <c r="L114" s="9">
+        <v>0</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115" s="6">
+        <v>601992</v>
+      </c>
+      <c r="C115" s="6">
+        <v>141900</v>
+      </c>
+      <c r="D115" s="6">
+        <v>141900</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="G115" s="7">
+        <v>3.319</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0</v>
+      </c>
+      <c r="I115" s="7">
+        <v>446985</v>
+      </c>
+      <c r="J115" s="7">
+        <v>-23954.91</v>
+      </c>
+      <c r="K115" s="7">
+        <v>-5676</v>
+      </c>
+      <c r="L115" s="8">
+        <v>-5.09</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="6">
+        <v>300034</v>
+      </c>
+      <c r="C116" s="6">
+        <v>91800</v>
+      </c>
+      <c r="D116" s="6">
+        <v>91800</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>19.47</v>
+      </c>
+      <c r="G116" s="7">
+        <v>20.151</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>1787346</v>
+      </c>
+      <c r="J116" s="7">
+        <v>-62470.37</v>
+      </c>
+      <c r="K116" s="7">
+        <v>28458</v>
+      </c>
+      <c r="L116" s="8">
+        <v>-3.38</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" s="6">
+        <v>300020</v>
+      </c>
+      <c r="C117" s="6">
+        <v>101600</v>
+      </c>
+      <c r="D117" s="6">
+        <v>101600</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>11.26</v>
+      </c>
+      <c r="G117" s="7">
+        <v>12.004</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>1144016</v>
+      </c>
+      <c r="J117" s="7">
+        <v>-75582.98</v>
+      </c>
+      <c r="K117" s="7">
+        <v>-16256</v>
+      </c>
+      <c r="L117" s="8">
+        <v>-6.2</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="6">
+        <v>300348</v>
+      </c>
+      <c r="C118" s="6">
+        <v>85900</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6">
+        <v>85900</v>
+      </c>
+      <c r="F118" s="7">
+        <v>21.18</v>
+      </c>
+      <c r="G118" s="7">
+        <v>21.879</v>
+      </c>
+      <c r="H118" s="7">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>1819362</v>
+      </c>
+      <c r="J118" s="7">
+        <v>-60002.78</v>
+      </c>
+      <c r="K118" s="7">
+        <v>-60002.78</v>
+      </c>
+      <c r="L118" s="8">
+        <v>-3.19</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="6">
+        <v>368039</v>
+      </c>
+      <c r="D119" s="6">
+        <v>368039</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="G119" s="7">
+        <v>7.607</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0</v>
+      </c>
+      <c r="I119" s="7">
+        <v>2760292.5</v>
+      </c>
+      <c r="J119" s="7">
+        <v>-39259</v>
+      </c>
+      <c r="K119" s="7">
+        <v>158256.77</v>
+      </c>
+      <c r="L119" s="8">
+        <v>-1.41</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="6">
+        <v>600820</v>
+      </c>
+      <c r="C120" s="6">
+        <v>40700</v>
+      </c>
+      <c r="D120" s="6">
+        <v>40700</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="G120" s="7">
+        <v>6.273</v>
+      </c>
+      <c r="H120" s="7">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>245421</v>
+      </c>
+      <c r="J120" s="7">
+        <v>-9896.44</v>
+      </c>
+      <c r="K120" s="7">
+        <v>1221</v>
+      </c>
+      <c r="L120" s="8">
+        <v>-3.87</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N120" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="10">
+        <v>603501</v>
+      </c>
+      <c r="C121" s="10">
+        <v>8600</v>
+      </c>
+      <c r="D121" s="10">
+        <v>0</v>
+      </c>
+      <c r="E121" s="10">
+        <v>8600</v>
+      </c>
+      <c r="F121" s="11">
+        <v>218.43</v>
+      </c>
+      <c r="G121" s="11">
+        <v>213.506</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0</v>
+      </c>
+      <c r="I121" s="11">
+        <v>1878498</v>
+      </c>
+      <c r="J121" s="11">
+        <v>42349.45</v>
+      </c>
+      <c r="K121" s="11">
+        <v>42349.45</v>
+      </c>
+      <c r="L121" s="9">
+        <v>2.31</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="6">
+        <v>61900</v>
+      </c>
+      <c r="D122" s="6">
+        <v>61900</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>30.05</v>
+      </c>
+      <c r="G122" s="7">
+        <v>31.289</v>
+      </c>
+      <c r="H122" s="7">
+        <v>0</v>
+      </c>
+      <c r="I122" s="7">
+        <v>1860095</v>
+      </c>
+      <c r="J122" s="7">
+        <v>-76666.47</v>
+      </c>
+      <c r="K122" s="7">
+        <v>99040</v>
+      </c>
+      <c r="L122" s="8">
+        <v>-3.96</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N122" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="10">
+        <v>195400</v>
+      </c>
+      <c r="D123" s="10">
+        <v>195400</v>
+      </c>
+      <c r="E123" s="10">
+        <v>0</v>
+      </c>
+      <c r="F123" s="11">
+        <v>9.55</v>
+      </c>
+      <c r="G123" s="11">
+        <v>8.898</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="I123" s="11">
+        <v>1866070</v>
+      </c>
+      <c r="J123" s="11">
+        <v>127456.24</v>
+      </c>
+      <c r="K123" s="11">
+        <v>80114</v>
+      </c>
+      <c r="L123" s="9">
+        <v>7.33</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" s="10">
+        <v>603267</v>
+      </c>
+      <c r="C124" s="10">
+        <v>18820</v>
+      </c>
+      <c r="D124" s="10">
+        <v>0</v>
+      </c>
+      <c r="E124" s="10">
+        <v>18820</v>
+      </c>
+      <c r="F124" s="11">
+        <v>44.25</v>
+      </c>
+      <c r="G124" s="11">
+        <v>44.14</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
+      </c>
+      <c r="I124" s="11">
+        <v>832785</v>
+      </c>
+      <c r="J124" s="11">
+        <v>2061.8</v>
+      </c>
+      <c r="K124" s="11">
+        <v>2061.8</v>
+      </c>
+      <c r="L124" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="6">
         <v>600490</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C125" s="6">
         <v>386500</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D125" s="6">
         <v>386500</v>
       </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>3.79</v>
-      </c>
-      <c r="G101" s="7">
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="G125" s="7">
         <v>3.754</v>
       </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7">
-        <v>1464835</v>
-      </c>
-      <c r="J101" s="7">
-        <v>13953.36</v>
-      </c>
-      <c r="K101" s="7">
-        <v>77300</v>
-      </c>
-      <c r="L101" s="8">
-        <v>0.96</v>
-      </c>
-      <c r="M101" s="8" t="s">
+      <c r="H125" s="7">
+        <v>0</v>
+      </c>
+      <c r="I125" s="7">
+        <v>1325695</v>
+      </c>
+      <c r="J125" s="7">
+        <v>-125186.64</v>
+      </c>
+      <c r="K125" s="7">
+        <v>-7730</v>
+      </c>
+      <c r="L125" s="8">
+        <v>-8.63</v>
+      </c>
+      <c r="M125" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="8" t="s">
+      <c r="N125" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="178">
   <si>
     <t>资金</t>
   </si>
@@ -136,13 +136,10 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>DR健友股</t>
-  </si>
-  <si>
-    <t>XD华光环</t>
-  </si>
-  <si>
-    <t>XD宏发股</t>
+    <t>XD云赛智</t>
+  </si>
+  <si>
+    <t>XD韦尔股</t>
   </si>
   <si>
     <t>万孚生物</t>
@@ -166,6 +163,9 @@
     <t>中国汽研</t>
   </si>
   <si>
+    <t>中际旭创</t>
+  </si>
+  <si>
     <t>久远银海</t>
   </si>
   <si>
@@ -181,9 +181,6 @@
     <t>002053</t>
   </si>
   <si>
-    <t>云赛智联</t>
-  </si>
-  <si>
     <t>亚太科技</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
     <t>亿联网络</t>
   </si>
   <si>
+    <t>健友股份</t>
+  </si>
+  <si>
     <t>兆丰股份</t>
   </si>
   <si>
@@ -205,6 +205,9 @@
     <t>华体科技</t>
   </si>
   <si>
+    <t>华光环能</t>
+  </si>
+  <si>
     <t>华孚时尚</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
     <t>002212</t>
   </si>
   <si>
-    <t>博创科技</t>
-  </si>
-  <si>
     <t>卫光生物</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>宁波高发</t>
   </si>
   <si>
-    <t>安正时尚</t>
-  </si>
-  <si>
     <t>安靠智电</t>
   </si>
   <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
     <t>富安娜</t>
   </si>
   <si>
@@ -511,6 +511,9 @@
     <t>赛意信息</t>
   </si>
   <si>
+    <t>超图软件</t>
+  </si>
+  <si>
     <t>迈为股份</t>
   </si>
   <si>
@@ -532,9 +535,6 @@
     <t>金隅集团</t>
   </si>
   <si>
-    <t>钢研高纳</t>
-  </si>
-  <si>
     <t>银江股份</t>
   </si>
   <si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>雄塑科技</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
   </si>
   <si>
     <t>香飘飘</t>
@@ -570,12 +567,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFCA4949"/>
+      <color rgb="FF007AD0"/>
       <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF007AD0"/>
+      <color rgb="FFCA4949"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -942,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -1022,28 +1019,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>15273679.03</v>
+        <v>12040349.09</v>
       </c>
       <c r="D3" s="3">
-        <v>12035480.33</v>
+        <v>12575037.58</v>
       </c>
       <c r="E3" s="3">
-        <v>12035480.33</v>
+        <v>12040349.09</v>
       </c>
       <c r="F3" s="3">
-        <v>3238198.7</v>
+        <v>-534688.49</v>
       </c>
       <c r="G3" s="3">
-        <v>112981980.14</v>
+        <v>106784608.97</v>
       </c>
       <c r="H3" s="3">
-        <v>125017460.47</v>
+        <v>119359646.55</v>
       </c>
       <c r="I3" s="3">
-        <v>-54515.53</v>
+        <v>-5848817.69</v>
       </c>
       <c r="J3" s="3">
-        <v>-570708.32</v>
+        <v>-5657598.68</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1150,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5063000</v>
+        <v>5235000</v>
       </c>
       <c r="C8" s="3">
-        <v>5063000</v>
+        <v>5235000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1167,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>6143500</v>
+        <v>6341500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1246,37 +1243,37 @@
         <v>40</v>
       </c>
       <c r="B12" s="6">
-        <v>603707</v>
+        <v>600602</v>
       </c>
       <c r="C12" s="6">
-        <v>31980</v>
+        <v>117800</v>
       </c>
       <c r="D12" s="6">
-        <v>24600</v>
+        <v>83000</v>
       </c>
       <c r="E12" s="6">
-        <v>7380</v>
+        <v>34800</v>
       </c>
       <c r="F12" s="7">
-        <v>47.8</v>
+        <v>7.31</v>
       </c>
       <c r="G12" s="7">
-        <v>45.363</v>
+        <v>7.529</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1528644</v>
+        <v>861118</v>
       </c>
       <c r="J12" s="7">
-        <v>77927.8</v>
+        <v>-25819.51</v>
       </c>
       <c r="K12" s="7">
-        <v>15734.16</v>
+        <v>-29979.54</v>
       </c>
       <c r="L12" s="8">
-        <v>5.37</v>
+        <v>-2.91</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>24</v>
@@ -1290,37 +1287,37 @@
         <v>41</v>
       </c>
       <c r="B13" s="6">
-        <v>600475</v>
+        <v>603501</v>
       </c>
       <c r="C13" s="6">
-        <v>20700</v>
+        <v>10600</v>
       </c>
       <c r="D13" s="6">
-        <v>20700</v>
+        <v>8600</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="7">
-        <v>13.21</v>
+        <v>199.35</v>
       </c>
       <c r="G13" s="7">
-        <v>11.212</v>
+        <v>213.291</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>273447</v>
+        <v>2113110</v>
       </c>
       <c r="J13" s="7">
-        <v>41354.19</v>
+        <v>-147777.05</v>
       </c>
       <c r="K13" s="7">
-        <v>-4761</v>
+        <v>-152060.97</v>
       </c>
       <c r="L13" s="8">
-        <v>17.82</v>
+        <v>-6.54</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>24</v>
@@ -1334,262 +1331,262 @@
         <v>42</v>
       </c>
       <c r="B14" s="6">
-        <v>600885</v>
+        <v>300482</v>
       </c>
       <c r="C14" s="6">
-        <v>40637</v>
+        <v>23100</v>
       </c>
       <c r="D14" s="6">
-        <v>40637</v>
+        <v>23100</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>39.6</v>
+        <v>93.5</v>
       </c>
       <c r="G14" s="7">
-        <v>37.571</v>
+        <v>98.219</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1609225.2</v>
+        <v>2159850</v>
       </c>
       <c r="J14" s="7">
-        <v>82456.41</v>
+        <v>-109009.21</v>
       </c>
       <c r="K14" s="7">
-        <v>-34541.45</v>
+        <v>-154308</v>
       </c>
       <c r="L14" s="8">
-        <v>5.4</v>
+        <v>-4.8</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="6">
-        <v>300482</v>
-      </c>
-      <c r="C15" s="6">
-        <v>23100</v>
-      </c>
-      <c r="D15" s="6">
-        <v>23100</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>100.18</v>
-      </c>
-      <c r="G15" s="7">
-        <v>98.219</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2314158</v>
-      </c>
-      <c r="J15" s="7">
-        <v>45298.79</v>
-      </c>
-      <c r="K15" s="7">
-        <v>22638</v>
-      </c>
-      <c r="L15" s="8">
-        <v>2</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>190850</v>
+      </c>
+      <c r="D15" s="10">
+        <v>190850</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5.31</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5.088</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1013413.5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>42440.38</v>
+      </c>
+      <c r="K15" s="11">
+        <v>-57255</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4.36</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="B16" s="6">
+        <v>603920</v>
+      </c>
       <c r="C16" s="6">
-        <v>190850</v>
+        <v>29400</v>
       </c>
       <c r="D16" s="6">
-        <v>190850</v>
+        <v>29400</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>5.61</v>
+        <v>22.52</v>
       </c>
       <c r="G16" s="7">
-        <v>5.088</v>
+        <v>24.423</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1070668.5</v>
+        <v>662088</v>
       </c>
       <c r="J16" s="7">
-        <v>99695.38</v>
+        <v>-55943.56</v>
       </c>
       <c r="K16" s="7">
-        <v>-40078.5</v>
+        <v>-50568</v>
       </c>
       <c r="L16" s="8">
-        <v>10.26</v>
+        <v>-7.79</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10">
-        <v>603920</v>
-      </c>
-      <c r="C17" s="10">
-        <v>29400</v>
-      </c>
-      <c r="D17" s="10">
-        <v>29400</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>24.24</v>
-      </c>
-      <c r="G17" s="11">
-        <v>24.423</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>712656</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-5375.56</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-7350</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-0.75</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="B17" s="6">
+        <v>600637</v>
+      </c>
+      <c r="C17" s="6">
+        <v>93600</v>
+      </c>
+      <c r="D17" s="6">
+        <v>93600</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>9.98</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10.755</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>934128</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-72503.1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-26208</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-7.21</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10">
-        <v>600637</v>
-      </c>
-      <c r="C18" s="10">
-        <v>93600</v>
-      </c>
-      <c r="D18" s="10">
-        <v>93600</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>10.26</v>
-      </c>
-      <c r="G18" s="11">
-        <v>10.755</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>960336</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-46295.1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-13104</v>
-      </c>
-      <c r="L18" s="9">
-        <v>-4.6</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="B18" s="6">
+        <v>601949</v>
+      </c>
+      <c r="C18" s="6">
+        <v>230500</v>
+      </c>
+      <c r="D18" s="6">
+        <v>230500</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5.57</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.716</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1283885</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-33602.92</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-80675</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-2.55</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6">
-        <v>601949</v>
-      </c>
-      <c r="C19" s="6">
-        <v>230500</v>
-      </c>
-      <c r="D19" s="6">
-        <v>230500</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5.92</v>
-      </c>
-      <c r="G19" s="7">
-        <v>5.716</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1364560</v>
-      </c>
-      <c r="J19" s="7">
-        <v>47072.08</v>
-      </c>
-      <c r="K19" s="7">
-        <v>-18440</v>
-      </c>
-      <c r="L19" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="B19" s="10">
+        <v>601965</v>
+      </c>
+      <c r="C19" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D19" s="10">
+        <v>35800</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10.21</v>
+      </c>
+      <c r="G19" s="11">
+        <v>9.589</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>365518</v>
+      </c>
+      <c r="J19" s="11">
+        <v>22241.13</v>
+      </c>
+      <c r="K19" s="11">
+        <v>-6444</v>
+      </c>
+      <c r="L19" s="9">
+        <v>6.48</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1598,257 +1595,257 @@
         <v>49</v>
       </c>
       <c r="B20" s="6">
-        <v>601965</v>
+        <v>300308</v>
       </c>
       <c r="C20" s="6">
-        <v>35800</v>
+        <v>5700</v>
       </c>
       <c r="D20" s="6">
-        <v>35800</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="7">
-        <v>10.39</v>
+        <v>56.3</v>
       </c>
       <c r="G20" s="7">
-        <v>9.589</v>
+        <v>60.295</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>371962</v>
+        <v>320910</v>
       </c>
       <c r="J20" s="7">
-        <v>28685.13</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
+        <v>-22774.24</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-22774.24</v>
       </c>
       <c r="L20" s="8">
-        <v>8.35</v>
+        <v>-6.63</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>77200</v>
       </c>
-      <c r="D21" s="10">
-        <v>22800</v>
-      </c>
-      <c r="E21" s="10">
-        <v>54400</v>
-      </c>
-      <c r="F21" s="11">
-        <v>28.54</v>
-      </c>
-      <c r="G21" s="11">
-        <v>28.576</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2203288</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-2784.54</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-17829.81</v>
-      </c>
-      <c r="L21" s="9">
-        <v>-0.13</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="D21" s="6">
+        <v>77200</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>28.566</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2092120</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-113171.31</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-111168</v>
+      </c>
+      <c r="L21" s="8">
+        <v>-5.13</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>300406</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>101100</v>
       </c>
-      <c r="D22" s="10">
-        <v>78400</v>
-      </c>
-      <c r="E22" s="10">
-        <v>22700</v>
-      </c>
-      <c r="F22" s="11">
-        <v>21.33</v>
-      </c>
-      <c r="G22" s="11">
-        <v>21.474</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2156463</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-14508.8</v>
-      </c>
-      <c r="K22" s="11">
-        <v>-6929.95</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-0.67</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="D22" s="6">
+        <v>101100</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="G22" s="7">
+        <v>21.472</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2001780</v>
+      </c>
+      <c r="J22" s="7">
+        <v>-169017.59</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-154683</v>
+      </c>
+      <c r="L22" s="8">
+        <v>-7.79</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>15200</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>15200</v>
       </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>7.65</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>7.41</v>
+      </c>
+      <c r="G23" s="7">
         <v>7.703</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>116280</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-806.66</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-456</v>
-      </c>
-      <c r="L23" s="9">
-        <v>-0.69</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>112632</v>
+      </c>
+      <c r="J23" s="7">
+        <v>-4454.66</v>
+      </c>
+      <c r="K23" s="7">
+        <v>-3648</v>
+      </c>
+      <c r="L23" s="8">
+        <v>-3.8</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="6">
-        <v>600602</v>
-      </c>
-      <c r="C24" s="6">
-        <v>83000</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>83000</v>
-      </c>
-      <c r="F24" s="7">
-        <v>7.61</v>
-      </c>
-      <c r="G24" s="7">
-        <v>7.565</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>631630</v>
-      </c>
-      <c r="J24" s="7">
-        <v>3694.09</v>
-      </c>
-      <c r="K24" s="7">
-        <v>3694.09</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>23</v>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="10">
+        <v>45600</v>
+      </c>
+      <c r="D24" s="10">
+        <v>45600</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.02</v>
+      </c>
+      <c r="G24" s="11">
+        <v>4.861</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>228912</v>
+      </c>
+      <c r="J24" s="11">
+        <v>7262.76</v>
+      </c>
+      <c r="K24" s="11">
+        <v>-6384</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3.27</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="B25" s="6">
+        <v>300628</v>
+      </c>
       <c r="C25" s="6">
-        <v>45600</v>
+        <v>17500</v>
       </c>
       <c r="D25" s="6">
-        <v>45600</v>
+        <v>17500</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>5.16</v>
+        <v>61.73</v>
       </c>
       <c r="G25" s="7">
-        <v>4.861</v>
+        <v>66.427</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>235296</v>
+        <v>1080275</v>
       </c>
       <c r="J25" s="7">
-        <v>13646.76</v>
+        <v>-82194.36</v>
       </c>
       <c r="K25" s="7">
-        <v>4104</v>
+        <v>-79100</v>
       </c>
       <c r="L25" s="8">
-        <v>6.15</v>
+        <v>-7.07</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>26</v>
@@ -1862,174 +1859,174 @@
         <v>58</v>
       </c>
       <c r="B26" s="10">
-        <v>300628</v>
+        <v>603707</v>
       </c>
       <c r="C26" s="10">
-        <v>17500</v>
+        <v>31980</v>
       </c>
       <c r="D26" s="10">
-        <v>17500</v>
+        <v>31980</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>66.25</v>
+        <v>45.65</v>
       </c>
       <c r="G26" s="11">
-        <v>66.427</v>
+        <v>45.363</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>1159375</v>
+        <v>1459887</v>
       </c>
       <c r="J26" s="11">
-        <v>-3094.36</v>
+        <v>9170.8</v>
       </c>
       <c r="K26" s="11">
-        <v>-19600</v>
+        <v>-68757</v>
       </c>
       <c r="L26" s="9">
-        <v>-0.27</v>
+        <v>0.63</v>
       </c>
       <c r="M26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="10">
+        <v>300695</v>
+      </c>
+      <c r="C27" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D27" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>66.73</v>
+      </c>
+      <c r="G27" s="11">
+        <v>66.171</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>500475</v>
+      </c>
+      <c r="J27" s="11">
+        <v>4190.88</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-17025</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="6">
-        <v>300695</v>
-      </c>
-      <c r="C27" s="6">
-        <v>7500</v>
-      </c>
-      <c r="D27" s="6">
-        <v>7500</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>69</v>
-      </c>
-      <c r="G27" s="7">
-        <v>66.171</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>517500</v>
-      </c>
-      <c r="J27" s="7">
-        <v>21215.88</v>
-      </c>
-      <c r="K27" s="7">
-        <v>-4125</v>
-      </c>
-      <c r="L27" s="8">
-        <v>4.28</v>
-      </c>
-      <c r="M27" s="8" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6">
+        <v>68500</v>
+      </c>
+      <c r="D28" s="6">
+        <v>68500</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.65</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4.935</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>318525</v>
+      </c>
+      <c r="J28" s="7">
+        <v>-19550.7</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-10275</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-5.78</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="10">
-        <v>68500</v>
-      </c>
-      <c r="D28" s="10">
-        <v>68500</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="G28" s="11">
-        <v>4.935</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>328800</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-9275.7</v>
-      </c>
-      <c r="K28" s="11">
-        <v>2055</v>
-      </c>
-      <c r="L28" s="9">
-        <v>-2.74</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>603679</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>26700</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>26700</v>
       </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>29.12</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>27.48</v>
+      </c>
+      <c r="G29" s="7">
         <v>29.285</v>
       </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>777504</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-4395.92</v>
-      </c>
-      <c r="K29" s="11">
-        <v>-5607</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-0.56</v>
-      </c>
-      <c r="M29" s="9" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>733716</v>
+      </c>
+      <c r="J29" s="7">
+        <v>-48183.92</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-43788</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-6.16</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2037,87 +2034,87 @@
       <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10">
+        <v>600475</v>
+      </c>
+      <c r="C30" s="10">
+        <v>20700</v>
+      </c>
+      <c r="D30" s="10">
+        <v>20700</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>12.74</v>
+      </c>
+      <c r="G30" s="11">
+        <v>11.212</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>263718</v>
+      </c>
+      <c r="J30" s="11">
+        <v>31625.19</v>
+      </c>
+      <c r="K30" s="11">
+        <v>-9729</v>
+      </c>
+      <c r="L30" s="9">
+        <v>13.63</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="10">
+      <c r="B31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6">
         <v>64700</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="6">
         <v>64700</v>
       </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>5.91</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5.76</v>
+      </c>
+      <c r="G31" s="7">
         <v>6.33</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>382377</v>
-      </c>
-      <c r="J30" s="11">
-        <v>-27167.41</v>
-      </c>
-      <c r="K30" s="11">
-        <v>-5176</v>
-      </c>
-      <c r="L30" s="9">
-        <v>-6.64</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>372672</v>
+      </c>
+      <c r="J31" s="7">
+        <v>-36872.41</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-9705</v>
+      </c>
+      <c r="L31" s="8">
+        <v>-9</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="10">
-        <v>300271</v>
-      </c>
-      <c r="C31" s="10">
-        <v>12500</v>
-      </c>
-      <c r="D31" s="10">
-        <v>12500</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>26.39</v>
-      </c>
-      <c r="G31" s="11">
-        <v>28.796</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>329875</v>
-      </c>
-      <c r="J31" s="11">
-        <v>-30072.98</v>
-      </c>
-      <c r="K31" s="11">
-        <v>-7625</v>
-      </c>
-      <c r="L31" s="9">
-        <v>-8.36</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2126,213 +2123,213 @@
         <v>66</v>
       </c>
       <c r="B32" s="6">
-        <v>511990</v>
+        <v>300271</v>
       </c>
       <c r="C32" s="6">
-        <v>14</v>
+        <v>23400</v>
       </c>
       <c r="D32" s="6">
-        <v>14</v>
+        <v>12500</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="F32" s="7">
-        <v>100.011</v>
+        <v>25.67</v>
       </c>
       <c r="G32" s="7">
-        <v>-11749.026</v>
+        <v>27.589</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>1400.15</v>
+        <v>600678</v>
       </c>
       <c r="J32" s="7">
-        <v>165886.52</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>15</v>
+        <v>-44905.02</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-14832.04</v>
       </c>
       <c r="L32" s="8">
-        <v>0</v>
+        <v>-6.96</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C33" s="10">
+        <v>14</v>
+      </c>
+      <c r="D33" s="10">
+        <v>14</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>100.026</v>
+      </c>
+      <c r="G33" s="11">
+        <v>-11749.026</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1400.36</v>
+      </c>
+      <c r="J33" s="11">
+        <v>165886.73</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="10">
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="6">
         <v>112400</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="6">
         <v>112400</v>
       </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>5</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="G34" s="7">
         <v>5.107</v>
       </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>562000</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-12029.15</v>
-      </c>
-      <c r="K33" s="11">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>551884</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-22145.15</v>
+      </c>
+      <c r="K34" s="7">
         <v>-10116</v>
       </c>
-      <c r="L33" s="9">
-        <v>-2.1</v>
-      </c>
-      <c r="M33" s="9" t="s">
+      <c r="L34" s="8">
+        <v>-3.86</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N34" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="35" spans="1:14">
+      <c r="A35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="10">
+      <c r="B35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6">
         <v>38800</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="6">
         <v>38800</v>
       </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>20.57</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>19.13</v>
+      </c>
+      <c r="G35" s="7">
         <v>21.488</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>798116</v>
-      </c>
-      <c r="J34" s="11">
-        <v>-35636.05</v>
-      </c>
-      <c r="K34" s="11">
-        <v>1164</v>
-      </c>
-      <c r="L34" s="9">
-        <v>-4.27</v>
-      </c>
-      <c r="M34" s="9" t="s">
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>742244</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-91508.05</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-55872</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-10.97</v>
+      </c>
+      <c r="M35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="10">
-        <v>72000</v>
-      </c>
-      <c r="D35" s="10">
-        <v>72000</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>25.38</v>
-      </c>
-      <c r="G35" s="11">
-        <v>25.97</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>1827360</v>
-      </c>
-      <c r="J35" s="11">
-        <v>-42478.41</v>
-      </c>
-      <c r="K35" s="11">
-        <v>-2880</v>
-      </c>
-      <c r="L35" s="9">
-        <v>-2.27</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="6">
-        <v>300548</v>
-      </c>
       <c r="C36" s="6">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="D36" s="6">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>66.28</v>
+        <v>23.57</v>
       </c>
       <c r="G36" s="7">
-        <v>0</v>
+        <v>25.97</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>1697040</v>
       </c>
       <c r="J36" s="7">
-        <v>45246.56</v>
+        <v>-172798.41</v>
       </c>
       <c r="K36" s="7">
-        <v>-48582.45</v>
+        <v>-130320</v>
       </c>
       <c r="L36" s="8">
-        <v>0</v>
+        <v>-9.24</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>26</v>
@@ -2342,46 +2339,46 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="10">
         <v>7500</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="10">
         <v>7500</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>64.48</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>59.45</v>
+      </c>
+      <c r="G37" s="11">
         <v>53.268</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>483600</v>
-      </c>
-      <c r="J37" s="7">
-        <v>84093.56</v>
-      </c>
-      <c r="K37" s="7">
-        <v>15600</v>
-      </c>
-      <c r="L37" s="8">
-        <v>21.05</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>445875</v>
+      </c>
+      <c r="J37" s="11">
+        <v>46368.56</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-37725</v>
+      </c>
+      <c r="L37" s="9">
+        <v>11.61</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="N37" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2402,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>73.6</v>
+        <v>68.87</v>
       </c>
       <c r="G38" s="7">
         <v>70.791</v>
@@ -2411,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>2708480</v>
+        <v>2534416</v>
       </c>
       <c r="J38" s="7">
-        <v>103377.91</v>
+        <v>-70686.09</v>
       </c>
       <c r="K38" s="7">
-        <v>-76544</v>
+        <v>-174064</v>
       </c>
       <c r="L38" s="8">
-        <v>3.97</v>
+        <v>-2.71</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>9.81</v>
+        <v>9.35</v>
       </c>
       <c r="G39" s="7">
         <v>9.739</v>
@@ -2455,16 +2452,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>736731</v>
+        <v>702185</v>
       </c>
       <c r="J39" s="7">
-        <v>5305.37</v>
+        <v>-29240.63</v>
       </c>
       <c r="K39" s="7">
-        <v>2253</v>
+        <v>-34546</v>
       </c>
       <c r="L39" s="8">
-        <v>0.73</v>
+        <v>-3.99</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>26</v>
@@ -2474,266 +2471,266 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="10">
         <v>603260</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="10">
         <v>36300</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="10">
         <v>36300</v>
       </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>31.98</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>30.25</v>
+      </c>
+      <c r="G40" s="11">
         <v>29.681</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1160874</v>
-      </c>
-      <c r="J40" s="7">
-        <v>83452.71</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-8712</v>
-      </c>
-      <c r="L40" s="8">
-        <v>7.75</v>
-      </c>
-      <c r="M40" s="8" t="s">
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1098075</v>
+      </c>
+      <c r="J40" s="11">
+        <v>20653.71</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-62799</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="6">
         <v>300636</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>6800</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="6">
         <v>6800</v>
       </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11">
-        <v>38.64</v>
-      </c>
-      <c r="G41" s="11">
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>35.82</v>
+      </c>
+      <c r="G41" s="7">
         <v>38.829</v>
       </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>262752</v>
-      </c>
-      <c r="J41" s="11">
-        <v>-1282.59</v>
-      </c>
-      <c r="K41" s="11">
-        <v>952</v>
-      </c>
-      <c r="L41" s="9">
-        <v>-0.49</v>
-      </c>
-      <c r="M41" s="9" t="s">
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>243576</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-20458.59</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-19176</v>
+      </c>
+      <c r="L41" s="8">
+        <v>-7.75</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="6">
         <v>603077</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <v>1543000</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="6">
         <v>1543000</v>
       </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>1.35</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="G42" s="7">
         <v>1.432</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>2083050</v>
-      </c>
-      <c r="J42" s="11">
-        <v>-126811.34</v>
-      </c>
-      <c r="K42" s="11">
-        <v>-30860</v>
-      </c>
-      <c r="L42" s="9">
-        <v>-5.73</v>
-      </c>
-      <c r="M42" s="9" t="s">
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2036760</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-173101.34</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-46290</v>
+      </c>
+      <c r="L42" s="8">
+        <v>-7.82</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="10">
         <v>600039</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="10">
         <v>6860</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="10">
         <v>6860</v>
       </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>4.37</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="G43" s="11">
         <v>2.945</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>29978.2</v>
-      </c>
-      <c r="J43" s="7">
-        <v>9778.26</v>
-      </c>
-      <c r="K43" s="7">
-        <v>411.6</v>
-      </c>
-      <c r="L43" s="8">
-        <v>48.39</v>
-      </c>
-      <c r="M43" s="8" t="s">
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>29498</v>
+      </c>
+      <c r="J43" s="11">
+        <v>9298.06</v>
+      </c>
+      <c r="K43" s="11">
+        <v>-480.2</v>
+      </c>
+      <c r="L43" s="9">
+        <v>46.01</v>
+      </c>
+      <c r="M43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="10">
         <v>76300</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="10">
         <v>76300</v>
       </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>14.03</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="G44" s="11">
         <v>13.151</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1070489</v>
-      </c>
-      <c r="J44" s="7">
-        <v>67036.39</v>
-      </c>
-      <c r="K44" s="7">
-        <v>29757</v>
-      </c>
-      <c r="L44" s="8">
-        <v>6.68</v>
-      </c>
-      <c r="M44" s="8" t="s">
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1030050</v>
+      </c>
+      <c r="J44" s="11">
+        <v>26597.39</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-40439</v>
+      </c>
+      <c r="L44" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N44" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="6">
         <v>600335</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <v>10200</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="6">
         <v>10200</v>
       </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>5</v>
-      </c>
-      <c r="G45" s="11">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4.88</v>
+      </c>
+      <c r="G45" s="7">
         <v>5.203</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>51000</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-2068.01</v>
-      </c>
-      <c r="K45" s="11">
-        <v>-1530</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-3.9</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>49776</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-3292.01</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-1224</v>
+      </c>
+      <c r="L45" s="8">
+        <v>-6.21</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="N45" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2754,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>36.8</v>
+        <v>34.38</v>
       </c>
       <c r="G46" s="7">
         <v>35.078</v>
@@ -2763,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1990880</v>
+        <v>1859958</v>
       </c>
       <c r="J46" s="7">
-        <v>93159.39</v>
+        <v>-37762.61</v>
       </c>
       <c r="K46" s="7">
-        <v>-43280</v>
+        <v>-130922</v>
       </c>
       <c r="L46" s="8">
-        <v>4.91</v>
+        <v>-1.99</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2798,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>31.05</v>
+        <v>28.75</v>
       </c>
       <c r="G47" s="7">
         <v>30.994</v>
@@ -2807,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>2226285</v>
+        <v>2061375</v>
       </c>
       <c r="J47" s="7">
-        <v>4017.94</v>
+        <v>-160892.06</v>
       </c>
       <c r="K47" s="7">
-        <v>-35850</v>
+        <v>-164910</v>
       </c>
       <c r="L47" s="8">
-        <v>0.18</v>
+        <v>-7.24</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>24</v>
@@ -2842,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>41.91</v>
+        <v>38.4</v>
       </c>
       <c r="G48" s="7">
         <v>41.043</v>
@@ -2851,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>553212</v>
+        <v>506880</v>
       </c>
       <c r="J48" s="7">
-        <v>11448.91</v>
+        <v>-34883.09</v>
       </c>
       <c r="K48" s="7">
-        <v>8052</v>
+        <v>-46332</v>
       </c>
       <c r="L48" s="8">
-        <v>2.11</v>
+        <v>-6.44</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>24</v>
@@ -2886,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>105.5</v>
+        <v>100.03</v>
       </c>
       <c r="G49" s="7">
         <v>102.032</v>
@@ -2895,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1899000</v>
+        <v>1800540</v>
       </c>
       <c r="J49" s="7">
-        <v>62415.49</v>
+        <v>-36044.51</v>
       </c>
       <c r="K49" s="7">
-        <v>3060</v>
+        <v>-98460</v>
       </c>
       <c r="L49" s="8">
-        <v>3.4</v>
+        <v>-1.96</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>26</v>
@@ -2930,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>59.56</v>
+        <v>56</v>
       </c>
       <c r="G50" s="7">
         <v>56.567</v>
@@ -2939,16 +2936,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>1727240</v>
+        <v>1624000</v>
       </c>
       <c r="J50" s="7">
-        <v>86802.16</v>
+        <v>-16437.84</v>
       </c>
       <c r="K50" s="7">
-        <v>17690</v>
+        <v>-103240</v>
       </c>
       <c r="L50" s="8">
-        <v>5.29</v>
+        <v>-1</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>24</v>
@@ -2958,90 +2955,90 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="6">
         <v>18600</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="6">
         <v>18600</v>
       </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <v>58.03</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>54.95</v>
+      </c>
+      <c r="G51" s="7">
         <v>58.737</v>
       </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>1079358</v>
-      </c>
-      <c r="J51" s="11">
-        <v>-13154.83</v>
-      </c>
-      <c r="K51" s="11">
-        <v>-11532</v>
-      </c>
-      <c r="L51" s="9">
-        <v>-1.2</v>
-      </c>
-      <c r="M51" s="9" t="s">
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1022070</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-70442.83</v>
+      </c>
+      <c r="K51" s="7">
+        <v>-57288</v>
+      </c>
+      <c r="L51" s="8">
+        <v>-6.45</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="6">
         <v>603788</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>26300</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>26300</v>
       </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>17.92</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>17.13</v>
+      </c>
+      <c r="G52" s="7">
         <v>18.318</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>471296</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-10471.07</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-12361</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-2.17</v>
-      </c>
-      <c r="M52" s="9" t="s">
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>450519</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-31248.07</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-20777</v>
+      </c>
+      <c r="L52" s="8">
+        <v>-6.49</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3050,43 +3047,43 @@
         <v>96</v>
       </c>
       <c r="B53" s="6">
-        <v>603839</v>
+        <v>300617</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>18940</v>
       </c>
       <c r="D53" s="6">
-        <v>0</v>
+        <v>18940</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>14.66</v>
+        <v>37.5</v>
       </c>
       <c r="G53" s="7">
-        <v>0</v>
+        <v>38.59</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>710250</v>
       </c>
       <c r="J53" s="7">
-        <v>29956.73</v>
+        <v>-20649.05</v>
       </c>
       <c r="K53" s="7">
-        <v>-333.19</v>
+        <v>-34092</v>
       </c>
       <c r="L53" s="8">
-        <v>0</v>
+        <v>-2.82</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3094,43 +3091,43 @@
         <v>97</v>
       </c>
       <c r="B54" s="6">
-        <v>300617</v>
+        <v>600885</v>
       </c>
       <c r="C54" s="6">
-        <v>18940</v>
+        <v>40637</v>
       </c>
       <c r="D54" s="6">
-        <v>18940</v>
+        <v>40637</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>39.3</v>
+        <v>37.52</v>
       </c>
       <c r="G54" s="7">
-        <v>38.59</v>
+        <v>37.571</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>744342</v>
+        <v>1524700.24</v>
       </c>
       <c r="J54" s="7">
-        <v>13442.95</v>
+        <v>-2068.55</v>
       </c>
       <c r="K54" s="7">
-        <v>8144.2</v>
+        <v>-84524.96</v>
       </c>
       <c r="L54" s="8">
-        <v>1.84</v>
+        <v>-0.14</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3150,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>7.68</v>
+        <v>7.31</v>
       </c>
       <c r="G55" s="7">
         <v>7.555</v>
@@ -3159,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>178944</v>
+        <v>170323</v>
       </c>
       <c r="J55" s="7">
-        <v>2914.63</v>
+        <v>-5706.37</v>
       </c>
       <c r="K55" s="7">
-        <v>2097</v>
+        <v>-8621</v>
       </c>
       <c r="L55" s="8">
-        <v>1.65</v>
+        <v>-3.24</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>26</v>
@@ -3188,13 +3185,13 @@
         <v>23342</v>
       </c>
       <c r="D56" s="6">
-        <v>22742</v>
+        <v>23342</v>
       </c>
       <c r="E56" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>34.34</v>
+        <v>32.61</v>
       </c>
       <c r="G56" s="7">
         <v>32.989</v>
@@ -3203,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>801564.28</v>
+        <v>761182.62</v>
       </c>
       <c r="J56" s="7">
-        <v>31529.11</v>
+        <v>-8845.56</v>
       </c>
       <c r="K56" s="7">
-        <v>25790.21</v>
+        <v>-40381.66</v>
       </c>
       <c r="L56" s="8">
-        <v>4.1</v>
+        <v>-1.15</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>24</v>
@@ -3222,398 +3219,398 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="6">
         <v>601138</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="6">
         <v>113700</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="6">
         <v>113700</v>
       </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>14.98</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="G57" s="7">
         <v>16.051</v>
       </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>1703226</v>
-      </c>
-      <c r="J57" s="11">
-        <v>-121723.14</v>
-      </c>
-      <c r="K57" s="11">
-        <v>-43206</v>
-      </c>
-      <c r="L57" s="9">
-        <v>-6.67</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1609992</v>
+      </c>
+      <c r="J57" s="7">
+        <v>-214957.14</v>
+      </c>
+      <c r="K57" s="7">
+        <v>-93234</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-11.78</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="6">
         <v>300255</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="6">
         <v>193900</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="6">
         <v>193900</v>
       </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>6.38</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>6.06</v>
+      </c>
+      <c r="G58" s="7">
         <v>6.546</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>1237082</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-32195.75</v>
-      </c>
-      <c r="K58" s="11">
-        <v>3878</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-2.54</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1175034</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-94243.75</v>
+      </c>
+      <c r="K58" s="7">
+        <v>-62048</v>
+      </c>
+      <c r="L58" s="8">
+        <v>-7.42</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="6">
         <v>300638</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="6">
         <v>27100</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="6">
         <v>27100</v>
       </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>59.08</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>57.47</v>
+      </c>
+      <c r="G59" s="7">
         <v>59.294</v>
       </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>1601068</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-5810.41</v>
-      </c>
-      <c r="K59" s="11">
-        <v>-3794</v>
-      </c>
-      <c r="L59" s="9">
-        <v>-0.36</v>
-      </c>
-      <c r="M59" s="9" t="s">
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1557437</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-49441.41</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-43631</v>
+      </c>
+      <c r="L59" s="8">
+        <v>-3.08</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="6">
         <v>603303</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="6">
         <v>13900</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="6">
         <v>13900</v>
       </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>11</v>
-      </c>
-      <c r="G60" s="11">
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>10.48</v>
+      </c>
+      <c r="G60" s="7">
         <v>11.277</v>
       </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>152900</v>
-      </c>
-      <c r="J60" s="11">
-        <v>-3843.69</v>
-      </c>
-      <c r="K60" s="11">
-        <v>-2502</v>
-      </c>
-      <c r="L60" s="9">
-        <v>-2.46</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>145672</v>
+      </c>
+      <c r="J60" s="7">
+        <v>-11071.69</v>
+      </c>
+      <c r="K60" s="7">
+        <v>-7228</v>
+      </c>
+      <c r="L60" s="8">
+        <v>-7.07</v>
+      </c>
+      <c r="M60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="6">
         <v>300078</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="6">
         <v>129800</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="6">
         <v>129800</v>
       </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>13.43</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>12.88</v>
+      </c>
+      <c r="G61" s="7">
         <v>14.553</v>
       </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>1743214</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-145709.47</v>
-      </c>
-      <c r="K61" s="11">
-        <v>-38940</v>
-      </c>
-      <c r="L61" s="9">
-        <v>-7.72</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1671824</v>
+      </c>
+      <c r="J61" s="7">
+        <v>-217099.47</v>
+      </c>
+      <c r="K61" s="7">
+        <v>-71390</v>
+      </c>
+      <c r="L61" s="8">
+        <v>-11.5</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="6">
         <v>603508</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="6">
         <v>17600</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="6">
         <v>17600</v>
       </c>
-      <c r="E62" s="10">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11">
-        <v>35.36</v>
-      </c>
-      <c r="G62" s="11">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>34.33</v>
+      </c>
+      <c r="G62" s="7">
         <v>36.764</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>622336</v>
-      </c>
-      <c r="J62" s="11">
-        <v>-24709.8</v>
-      </c>
-      <c r="K62" s="11">
-        <v>-16016</v>
-      </c>
-      <c r="L62" s="9">
-        <v>-3.82</v>
-      </c>
-      <c r="M62" s="9" t="s">
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>604208</v>
+      </c>
+      <c r="J62" s="7">
+        <v>-42837.8</v>
+      </c>
+      <c r="K62" s="7">
+        <v>-18128</v>
+      </c>
+      <c r="L62" s="8">
+        <v>-6.62</v>
+      </c>
+      <c r="M62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="6">
         <v>600570</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="6">
         <v>17000</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="6">
         <v>17000</v>
       </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>105.9</v>
-      </c>
-      <c r="G63" s="11">
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>102.31</v>
+      </c>
+      <c r="G63" s="7">
         <v>106.408</v>
       </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>1800300</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-8640.6</v>
-      </c>
-      <c r="K63" s="11">
-        <v>-20910</v>
-      </c>
-      <c r="L63" s="9">
-        <v>-0.48</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1739270</v>
+      </c>
+      <c r="J63" s="7">
+        <v>-69670.6</v>
+      </c>
+      <c r="K63" s="7">
+        <v>-61030</v>
+      </c>
+      <c r="L63" s="8">
+        <v>-3.85</v>
+      </c>
+      <c r="M63" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="6">
         <v>600805</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="6">
         <v>153280</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="6">
         <v>153280</v>
       </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>4.4</v>
-      </c>
-      <c r="G64" s="11">
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="G64" s="7">
         <v>4.573</v>
       </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>674432</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-26526.95</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-9196.8</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-3.78</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>656038.4</v>
+      </c>
+      <c r="J64" s="7">
+        <v>-44920.55</v>
+      </c>
+      <c r="K64" s="7">
+        <v>-18393.6</v>
+      </c>
+      <c r="L64" s="8">
+        <v>-6.41</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="6">
         <v>300229</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="6">
         <v>109500</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="6">
         <v>109500</v>
       </c>
-      <c r="E65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <v>12.16</v>
-      </c>
-      <c r="G65" s="11">
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="G65" s="7">
         <v>12.503</v>
       </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>1331520</v>
-      </c>
-      <c r="J65" s="11">
-        <v>-37580.4</v>
-      </c>
-      <c r="K65" s="11">
-        <v>-25185</v>
-      </c>
-      <c r="L65" s="9">
-        <v>-2.74</v>
-      </c>
-      <c r="M65" s="9" t="s">
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1248300</v>
+      </c>
+      <c r="J65" s="7">
+        <v>-120800.4</v>
+      </c>
+      <c r="K65" s="7">
+        <v>-83220</v>
+      </c>
+      <c r="L65" s="8">
+        <v>-8.82</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3628,31 +3625,31 @@
         <v>24300</v>
       </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="E66" s="6">
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>93.99</v>
+        <v>87.4</v>
       </c>
       <c r="G66" s="7">
-        <v>93.359</v>
+        <v>93.351</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>2283957</v>
+        <v>2123820</v>
       </c>
       <c r="J66" s="7">
-        <v>15333.89</v>
+        <v>-144619.2</v>
       </c>
       <c r="K66" s="7">
-        <v>15333.89</v>
+        <v>-160137</v>
       </c>
       <c r="L66" s="8">
-        <v>0.68</v>
+        <v>-6.37</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3662,178 +3659,178 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="10">
         <v>603881</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="10">
         <v>14600</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="10">
         <v>14600</v>
       </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>96.57</v>
-      </c>
-      <c r="G67" s="7">
-        <v>88.973</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>1409922</v>
-      </c>
-      <c r="J67" s="7">
-        <v>110920.58</v>
-      </c>
-      <c r="K67" s="7">
-        <v>-65052.59</v>
-      </c>
-      <c r="L67" s="8">
-        <v>8.54</v>
-      </c>
-      <c r="M67" s="8" t="s">
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>93.24</v>
+      </c>
+      <c r="G67" s="11">
+        <v>88.97</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>1361304</v>
+      </c>
+      <c r="J67" s="11">
+        <v>62341.98</v>
+      </c>
+      <c r="K67" s="11">
+        <v>-48618</v>
+      </c>
+      <c r="L67" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="N67" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="6">
         <v>300079</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="6">
         <v>252700</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="6">
         <v>252700</v>
       </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>4.85</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>4.99</v>
+      </c>
+      <c r="G68" s="7">
         <v>5.496</v>
       </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>1225595</v>
-      </c>
-      <c r="J68" s="11">
-        <v>-163166.29</v>
-      </c>
-      <c r="K68" s="11">
-        <v>-22743</v>
-      </c>
-      <c r="L68" s="9">
-        <v>-11.75</v>
-      </c>
-      <c r="M68" s="9" t="s">
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1260973</v>
+      </c>
+      <c r="J68" s="7">
+        <v>-127788.29</v>
+      </c>
+      <c r="K68" s="7">
+        <v>35378</v>
+      </c>
+      <c r="L68" s="8">
+        <v>-9.21</v>
+      </c>
+      <c r="M68" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="N68" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="6">
         <v>126000</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="6">
         <v>126000</v>
       </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>10.68</v>
-      </c>
-      <c r="G69" s="11">
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="G69" s="7">
         <v>11.205</v>
       </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>1345680</v>
-      </c>
-      <c r="J69" s="11">
-        <v>-66190.13</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-34020</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-4.69</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1285200</v>
+      </c>
+      <c r="J69" s="7">
+        <v>-126670.13</v>
+      </c>
+      <c r="K69" s="7">
+        <v>-60480</v>
+      </c>
+      <c r="L69" s="8">
+        <v>-8.97</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="6">
         <v>300259</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="6">
         <v>75300</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="6">
         <v>75300</v>
       </c>
-      <c r="E70" s="10">
-        <v>0</v>
-      </c>
-      <c r="F70" s="11">
-        <v>5.33</v>
-      </c>
-      <c r="G70" s="11">
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>5.05</v>
+      </c>
+      <c r="G70" s="7">
         <v>5.639</v>
       </c>
-      <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <v>401349</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-23296.61</v>
-      </c>
-      <c r="K70" s="11">
-        <v>-18825</v>
-      </c>
-      <c r="L70" s="9">
-        <v>-5.48</v>
-      </c>
-      <c r="M70" s="9" t="s">
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>380265</v>
+      </c>
+      <c r="J70" s="7">
+        <v>-44380.61</v>
+      </c>
+      <c r="K70" s="7">
+        <v>-21084</v>
+      </c>
+      <c r="L70" s="8">
+        <v>-10.45</v>
+      </c>
+      <c r="M70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3848,31 +3845,31 @@
         <v>42844</v>
       </c>
       <c r="D71" s="6">
-        <v>0</v>
+        <v>42844</v>
       </c>
       <c r="E71" s="6">
-        <v>42844</v>
+        <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>52.7</v>
+        <v>49.46</v>
       </c>
       <c r="G71" s="7">
-        <v>52.628</v>
+        <v>52.624</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>2257878.8</v>
+        <v>2119064.24</v>
       </c>
       <c r="J71" s="7">
-        <v>3091.58</v>
+        <v>-135568.81</v>
       </c>
       <c r="K71" s="7">
-        <v>3091.58</v>
+        <v>-138814.56</v>
       </c>
       <c r="L71" s="8">
-        <v>0.14</v>
+        <v>-6.01</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3882,90 +3879,90 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="10">
         <v>603127</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="10">
         <v>500</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="10">
         <v>500</v>
       </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>99.74</v>
-      </c>
-      <c r="G72" s="7">
+      <c r="E72" s="10">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>94.03</v>
+      </c>
+      <c r="G72" s="11">
         <v>-278.343</v>
       </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>49870</v>
-      </c>
-      <c r="J72" s="7">
-        <v>189041.71</v>
-      </c>
-      <c r="K72" s="7">
-        <v>775</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0</v>
-      </c>
-      <c r="M72" s="8" t="s">
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>47015</v>
+      </c>
+      <c r="J72" s="11">
+        <v>186186.71</v>
+      </c>
+      <c r="K72" s="11">
+        <v>-2855</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N72" s="8" t="s">
+      <c r="N72" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="6">
         <v>603228</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="6">
         <v>62100</v>
       </c>
-      <c r="D73" s="10">
-        <v>47800</v>
-      </c>
-      <c r="E73" s="10">
-        <v>14300</v>
-      </c>
-      <c r="F73" s="11">
-        <v>35.49</v>
-      </c>
-      <c r="G73" s="11">
+      <c r="D73" s="6">
+        <v>62100</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>33.72</v>
+      </c>
+      <c r="G73" s="7">
         <v>38.676</v>
       </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>2203929</v>
-      </c>
-      <c r="J73" s="11">
-        <v>-197830.81</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-49668.98</v>
-      </c>
-      <c r="L73" s="9">
-        <v>-8.24</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>2094012</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-307744.29</v>
+      </c>
+      <c r="K73" s="7">
+        <v>-109917</v>
+      </c>
+      <c r="L73" s="8">
+        <v>-12.81</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N73" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3986,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>25.2</v>
+        <v>23.38</v>
       </c>
       <c r="G74" s="7">
         <v>23.983</v>
@@ -3995,16 +3992,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>1912680</v>
+        <v>1774542</v>
       </c>
       <c r="J74" s="7">
-        <v>92354.03</v>
+        <v>-45783.97</v>
       </c>
       <c r="K74" s="7">
-        <v>52371</v>
+        <v>-138138</v>
       </c>
       <c r="L74" s="8">
-        <v>5.07</v>
+        <v>-2.51</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>26</v>
@@ -4030,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>41.55</v>
+        <v>39.15</v>
       </c>
       <c r="G75" s="7">
         <v>40.651</v>
@@ -4039,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>324921</v>
+        <v>306153</v>
       </c>
       <c r="J75" s="7">
-        <v>7029.32</v>
+        <v>-11738.68</v>
       </c>
       <c r="K75" s="7">
-        <v>860.2</v>
+        <v>-18768</v>
       </c>
       <c r="L75" s="8">
-        <v>2.21</v>
+        <v>-3.69</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -4058,90 +4055,90 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="10">
         <v>28080</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="10">
         <v>28080</v>
       </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>8.69</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>8.33</v>
+      </c>
+      <c r="G76" s="11">
         <v>7.736</v>
       </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>244015.2</v>
-      </c>
-      <c r="J76" s="7">
-        <v>26778.77</v>
-      </c>
-      <c r="K76" s="7">
-        <v>-2527.2</v>
-      </c>
-      <c r="L76" s="8">
-        <v>12.33</v>
-      </c>
-      <c r="M76" s="8" t="s">
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>233906.4</v>
+      </c>
+      <c r="J76" s="11">
+        <v>16669.97</v>
+      </c>
+      <c r="K76" s="11">
+        <v>-10108.8</v>
+      </c>
+      <c r="L76" s="9">
+        <v>7.68</v>
+      </c>
+      <c r="M76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="8" t="s">
+      <c r="N76" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="10">
         <v>600873</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="10">
         <v>83200</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="10">
         <v>83200</v>
       </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>5.13</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>5.19</v>
+      </c>
+      <c r="G77" s="11">
         <v>4.889</v>
       </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>426816</v>
-      </c>
-      <c r="J77" s="7">
-        <v>20014.86</v>
-      </c>
-      <c r="K77" s="7">
-        <v>-1664</v>
-      </c>
-      <c r="L77" s="8">
-        <v>4.93</v>
-      </c>
-      <c r="M77" s="8" t="s">
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>431808</v>
+      </c>
+      <c r="J77" s="11">
+        <v>25006.86</v>
+      </c>
+      <c r="K77" s="11">
+        <v>4992</v>
+      </c>
+      <c r="L77" s="9">
+        <v>6.16</v>
+      </c>
+      <c r="M77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N77" s="8" t="s">
+      <c r="N77" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4162,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>65.18</v>
+        <v>60.27</v>
       </c>
       <c r="G78" s="7">
         <v>60.699</v>
@@ -4171,16 +4168,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>1942364</v>
+        <v>1796046</v>
       </c>
       <c r="J78" s="7">
-        <v>133524.87</v>
+        <v>-12793.13</v>
       </c>
       <c r="K78" s="7">
-        <v>3576</v>
+        <v>-146318</v>
       </c>
       <c r="L78" s="8">
-        <v>7.38</v>
+        <v>-0.71</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>26</v>
@@ -4190,354 +4187,354 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="6">
         <v>603160</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="6">
         <v>10500</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="6">
         <v>10500</v>
       </c>
-      <c r="E79" s="10">
-        <v>0</v>
-      </c>
-      <c r="F79" s="11">
-        <v>208.6</v>
-      </c>
-      <c r="G79" s="11">
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>206.11</v>
+      </c>
+      <c r="G79" s="7">
         <v>214.277</v>
       </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>2190300</v>
-      </c>
-      <c r="J79" s="11">
-        <v>-59606.4</v>
-      </c>
-      <c r="K79" s="11">
-        <v>-42630</v>
-      </c>
-      <c r="L79" s="9">
-        <v>-2.65</v>
-      </c>
-      <c r="M79" s="9" t="s">
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2164155</v>
+      </c>
+      <c r="J79" s="7">
+        <v>-85751.4</v>
+      </c>
+      <c r="K79" s="7">
+        <v>-26145</v>
+      </c>
+      <c r="L79" s="8">
+        <v>-3.81</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N79" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="6">
         <v>72300</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="6">
         <v>72300</v>
       </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11">
-        <v>9.53</v>
-      </c>
-      <c r="G80" s="11">
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>9</v>
+      </c>
+      <c r="G80" s="7">
         <v>9.802</v>
       </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>689019</v>
-      </c>
-      <c r="J80" s="11">
-        <v>-19644.28</v>
-      </c>
-      <c r="K80" s="11">
-        <v>-17352</v>
-      </c>
-      <c r="L80" s="9">
-        <v>-2.77</v>
-      </c>
-      <c r="M80" s="9" t="s">
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>650700</v>
+      </c>
+      <c r="J80" s="7">
+        <v>-57963.28</v>
+      </c>
+      <c r="K80" s="7">
+        <v>-38319</v>
+      </c>
+      <c r="L80" s="8">
+        <v>-8.18</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N80" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="10">
         <v>600590</v>
       </c>
-      <c r="C81" s="6">
-        <v>69700</v>
-      </c>
-      <c r="D81" s="6">
-        <v>69700</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>6.32</v>
-      </c>
-      <c r="G81" s="7">
-        <v>6.083</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>440504</v>
-      </c>
-      <c r="J81" s="7">
-        <v>16546.06</v>
-      </c>
-      <c r="K81" s="7">
-        <v>6970</v>
-      </c>
-      <c r="L81" s="8">
-        <v>3.9</v>
-      </c>
-      <c r="M81" s="8" t="s">
+      <c r="C81" s="10">
+        <v>0</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>6.08</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
+        <v>20349.83</v>
+      </c>
+      <c r="K81" s="11">
+        <v>3803.77</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0</v>
+      </c>
+      <c r="M81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N81" s="8" t="s">
+      <c r="N81" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="6">
         <v>300232</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="6">
         <v>188221</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="6">
         <v>188221</v>
       </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <v>8.45</v>
-      </c>
-      <c r="G82" s="11">
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>8.05</v>
+      </c>
+      <c r="G82" s="7">
         <v>9.453</v>
       </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>1590467.45</v>
-      </c>
-      <c r="J82" s="11">
-        <v>-188781.02</v>
-      </c>
-      <c r="K82" s="11">
-        <v>-54584.09</v>
-      </c>
-      <c r="L82" s="9">
-        <v>-10.61</v>
-      </c>
-      <c r="M82" s="9" t="s">
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1515179.05</v>
+      </c>
+      <c r="J82" s="7">
+        <v>-264069.42</v>
+      </c>
+      <c r="K82" s="7">
+        <v>-75288.4</v>
+      </c>
+      <c r="L82" s="8">
+        <v>-14.84</v>
+      </c>
+      <c r="M82" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N82" s="9" t="s">
+      <c r="N82" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="6">
         <v>37100</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="6">
         <v>37100</v>
       </c>
-      <c r="E83" s="10">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>11.3</v>
-      </c>
-      <c r="G83" s="11">
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="G83" s="7">
         <v>12.155</v>
       </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>419230</v>
-      </c>
-      <c r="J83" s="11">
-        <v>-31712.74</v>
-      </c>
-      <c r="K83" s="11">
-        <v>-8904</v>
-      </c>
-      <c r="L83" s="9">
-        <v>-7.03</v>
-      </c>
-      <c r="M83" s="9" t="s">
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>392147</v>
+      </c>
+      <c r="J83" s="7">
+        <v>-58795.74</v>
+      </c>
+      <c r="K83" s="7">
+        <v>-27083</v>
+      </c>
+      <c r="L83" s="8">
+        <v>-13.04</v>
+      </c>
+      <c r="M83" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="N83" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="6">
         <v>603556</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="6">
         <v>88700</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="6">
         <v>88700</v>
       </c>
-      <c r="E84" s="10">
-        <v>0</v>
-      </c>
-      <c r="F84" s="11">
-        <v>15.15</v>
-      </c>
-      <c r="G84" s="11">
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>14.58</v>
+      </c>
+      <c r="G84" s="7">
         <v>15.27</v>
       </c>
-      <c r="H84" s="11">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
-        <v>1343805</v>
-      </c>
-      <c r="J84" s="11">
-        <v>-10615.22</v>
-      </c>
-      <c r="K84" s="11">
-        <v>13305</v>
-      </c>
-      <c r="L84" s="9">
-        <v>-0.79</v>
-      </c>
-      <c r="M84" s="9" t="s">
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1293246</v>
+      </c>
+      <c r="J84" s="7">
+        <v>-61174.22</v>
+      </c>
+      <c r="K84" s="7">
+        <v>-50559</v>
+      </c>
+      <c r="L84" s="8">
+        <v>-4.52</v>
+      </c>
+      <c r="M84" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N84" s="9" t="s">
+      <c r="N84" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="10">
         <v>35500</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="10">
         <v>35500</v>
       </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>23.52</v>
-      </c>
-      <c r="G85" s="7">
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>22</v>
+      </c>
+      <c r="G85" s="11">
         <v>21.669</v>
       </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>834960</v>
-      </c>
-      <c r="J85" s="7">
-        <v>65697.57</v>
-      </c>
-      <c r="K85" s="7">
-        <v>51475</v>
-      </c>
-      <c r="L85" s="8">
-        <v>8.54</v>
-      </c>
-      <c r="M85" s="8" t="s">
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>781000</v>
+      </c>
+      <c r="J85" s="11">
+        <v>11737.57</v>
+      </c>
+      <c r="K85" s="11">
+        <v>-53960</v>
+      </c>
+      <c r="L85" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="M85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="N85" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="6">
         <v>12400</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="6">
         <v>12400</v>
       </c>
-      <c r="E86" s="10">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>26.99</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>26.03</v>
+      </c>
+      <c r="G86" s="7">
         <v>27.663</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>334676</v>
-      </c>
-      <c r="J86" s="11">
-        <v>-8349.42</v>
-      </c>
-      <c r="K86" s="11">
-        <v>-5704</v>
-      </c>
-      <c r="L86" s="9">
-        <v>-2.43</v>
-      </c>
-      <c r="M86" s="9" t="s">
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>322772</v>
+      </c>
+      <c r="J86" s="7">
+        <v>-20253.42</v>
+      </c>
+      <c r="K86" s="7">
+        <v>-11904</v>
+      </c>
+      <c r="L86" s="8">
+        <v>-5.9</v>
+      </c>
+      <c r="M86" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4558,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>13.32</v>
+        <v>12.7</v>
       </c>
       <c r="G87" s="7">
         <v>13.165</v>
@@ -4567,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>311688</v>
+        <v>297180</v>
       </c>
       <c r="J87" s="7">
-        <v>3637.4</v>
+        <v>-10870.6</v>
       </c>
       <c r="K87" s="7">
-        <v>-1170</v>
+        <v>-14508</v>
       </c>
       <c r="L87" s="8">
-        <v>1.18</v>
+        <v>-3.53</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>24</v>
@@ -4586,46 +4583,46 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="6">
         <v>601231</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="6">
         <v>77100</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="6">
         <v>77100</v>
       </c>
-      <c r="E88" s="10">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>21.35</v>
-      </c>
-      <c r="G88" s="11">
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>20.15</v>
+      </c>
+      <c r="G88" s="7">
         <v>24.159</v>
       </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>1646085</v>
-      </c>
-      <c r="J88" s="11">
-        <v>-216600.58</v>
-      </c>
-      <c r="K88" s="11">
-        <v>-49344</v>
-      </c>
-      <c r="L88" s="9">
-        <v>-11.63</v>
-      </c>
-      <c r="M88" s="9" t="s">
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1553565</v>
+      </c>
+      <c r="J88" s="7">
+        <v>-309120.58</v>
+      </c>
+      <c r="K88" s="7">
+        <v>-92520</v>
+      </c>
+      <c r="L88" s="8">
+        <v>-16.59</v>
+      </c>
+      <c r="M88" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N88" s="9" t="s">
+      <c r="N88" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4646,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <v>13.84</v>
+        <v>13.05</v>
       </c>
       <c r="G89" s="7">
         <v>13.775</v>
@@ -4655,16 +4652,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>289256</v>
+        <v>272745</v>
       </c>
       <c r="J89" s="7">
-        <v>1361.72</v>
+        <v>-15149.28</v>
       </c>
       <c r="K89" s="7">
-        <v>-3344</v>
+        <v>-16511</v>
       </c>
       <c r="L89" s="8">
-        <v>0.47</v>
+        <v>-5.26</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>26</v>
@@ -4690,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <v>108.99</v>
+        <v>99.6</v>
       </c>
       <c r="G90" s="7">
         <v>106.523</v>
@@ -4699,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <v>2310588</v>
+        <v>2111520</v>
       </c>
       <c r="J90" s="7">
-        <v>52294.11</v>
+        <v>-146773.89</v>
       </c>
       <c r="K90" s="7">
-        <v>40916</v>
+        <v>-199068</v>
       </c>
       <c r="L90" s="8">
-        <v>2.32</v>
+        <v>-6.5</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>24</v>
@@ -4718,90 +4715,90 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="6">
         <v>603823</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="6">
         <v>2600</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="6">
         <v>2600</v>
       </c>
-      <c r="E91" s="10">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>17.59</v>
-      </c>
-      <c r="G91" s="11">
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>17.16</v>
+      </c>
+      <c r="G91" s="7">
         <v>17.633</v>
       </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>45734</v>
-      </c>
-      <c r="J91" s="11">
-        <v>-112.39</v>
-      </c>
-      <c r="K91" s="11">
-        <v>-338</v>
-      </c>
-      <c r="L91" s="9">
-        <v>-0.24</v>
-      </c>
-      <c r="M91" s="9" t="s">
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>44616</v>
+      </c>
+      <c r="J91" s="7">
+        <v>-1230.39</v>
+      </c>
+      <c r="K91" s="7">
+        <v>-1118</v>
+      </c>
+      <c r="L91" s="8">
+        <v>-2.68</v>
+      </c>
+      <c r="M91" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="9" t="s">
+      <c r="N91" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="6">
-        <v>22500</v>
-      </c>
-      <c r="D92" s="6">
-        <v>22500</v>
-      </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
-      <c r="F92" s="7">
-        <v>54.47</v>
-      </c>
-      <c r="G92" s="7">
-        <v>51.279</v>
-      </c>
-      <c r="H92" s="7">
-        <v>0</v>
-      </c>
-      <c r="I92" s="7">
-        <v>1225575</v>
-      </c>
-      <c r="J92" s="7">
-        <v>71800.95</v>
-      </c>
-      <c r="K92" s="7">
-        <v>41850</v>
-      </c>
-      <c r="L92" s="8">
-        <v>6.22</v>
-      </c>
-      <c r="M92" s="8" t="s">
+      <c r="C92" s="10">
+        <v>0</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>49.8</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
+        <v>43800.54</v>
+      </c>
+      <c r="K92" s="11">
+        <v>-28000.41</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N92" s="8" t="s">
+      <c r="N92" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4822,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="7">
-        <v>24.31</v>
+        <v>22.81</v>
       </c>
       <c r="G93" s="7">
         <v>24.147</v>
@@ -4831,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="I93" s="7">
-        <v>2267345.08</v>
+        <v>2127443.08</v>
       </c>
       <c r="J93" s="7">
-        <v>15173.65</v>
+        <v>-124728.35</v>
       </c>
       <c r="K93" s="7">
-        <v>-13057.52</v>
+        <v>-139902</v>
       </c>
       <c r="L93" s="8">
-        <v>0.68</v>
+        <v>-5.54</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>24</v>
@@ -4850,46 +4847,46 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="6">
         <v>603315</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="6">
         <v>15300</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="6">
         <v>15300</v>
       </c>
-      <c r="E94" s="10">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>11.94</v>
+      </c>
+      <c r="G94" s="7">
         <v>12.798</v>
       </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>191250</v>
-      </c>
-      <c r="J94" s="11">
-        <v>-4558.52</v>
-      </c>
-      <c r="K94" s="11">
-        <v>-3519</v>
-      </c>
-      <c r="L94" s="9">
-        <v>-2.33</v>
-      </c>
-      <c r="M94" s="9" t="s">
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>182682</v>
+      </c>
+      <c r="J94" s="7">
+        <v>-13126.52</v>
+      </c>
+      <c r="K94" s="7">
+        <v>-8568</v>
+      </c>
+      <c r="L94" s="8">
+        <v>-6.7</v>
+      </c>
+      <c r="M94" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="9" t="s">
+      <c r="N94" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4901,10 +4898,10 @@
         <v>148</v>
       </c>
       <c r="C95" s="13">
-        <v>5063000</v>
+        <v>5235000</v>
       </c>
       <c r="D95" s="13">
-        <v>5063000</v>
+        <v>5235000</v>
       </c>
       <c r="E95" s="13">
         <v>0</v>
@@ -4954,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <v>29.22</v>
+        <v>28.1</v>
       </c>
       <c r="G96" s="7">
         <v>28.953</v>
@@ -4963,16 +4960,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <v>1504830</v>
+        <v>1447150</v>
       </c>
       <c r="J96" s="7">
-        <v>13758.78</v>
+        <v>-43921.22</v>
       </c>
       <c r="K96" s="7">
-        <v>-15965</v>
+        <v>-57680</v>
       </c>
       <c r="L96" s="8">
-        <v>0.92</v>
+        <v>-2.95</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>24</v>
@@ -4982,222 +4979,222 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="6">
         <v>600499</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="6">
         <v>5200</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="6">
         <v>5200</v>
       </c>
-      <c r="E97" s="10">
-        <v>0</v>
-      </c>
-      <c r="F97" s="11">
-        <v>4.67</v>
-      </c>
-      <c r="G97" s="11">
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>4.58</v>
+      </c>
+      <c r="G97" s="7">
         <v>4.731</v>
       </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>24284</v>
-      </c>
-      <c r="J97" s="11">
-        <v>-316.18</v>
-      </c>
-      <c r="K97" s="11">
-        <v>52</v>
-      </c>
-      <c r="L97" s="9">
-        <v>-1.29</v>
-      </c>
-      <c r="M97" s="9" t="s">
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>23816</v>
+      </c>
+      <c r="J97" s="7">
+        <v>-784.18</v>
+      </c>
+      <c r="K97" s="7">
+        <v>-468</v>
+      </c>
+      <c r="L97" s="8">
+        <v>-3.19</v>
+      </c>
+      <c r="M97" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N97" s="9" t="s">
+      <c r="N97" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="6">
         <v>300590</v>
       </c>
-      <c r="C98" s="10">
-        <v>13900</v>
-      </c>
-      <c r="D98" s="10">
-        <v>13900</v>
-      </c>
-      <c r="E98" s="10">
-        <v>0</v>
-      </c>
-      <c r="F98" s="11">
-        <v>31.56</v>
-      </c>
-      <c r="G98" s="11">
-        <v>32.544</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
-        <v>438684</v>
-      </c>
-      <c r="J98" s="11">
-        <v>-13682.34</v>
-      </c>
-      <c r="K98" s="11">
-        <v>6116</v>
-      </c>
-      <c r="L98" s="9">
-        <v>-3.02</v>
-      </c>
-      <c r="M98" s="9" t="s">
+      <c r="C98" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D98" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>29.57</v>
+      </c>
+      <c r="G98" s="7">
+        <v>39.818</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>73925</v>
+      </c>
+      <c r="J98" s="7">
+        <v>-25619.98</v>
+      </c>
+      <c r="K98" s="7">
+        <v>-11937.64</v>
+      </c>
+      <c r="L98" s="8">
+        <v>-25.74</v>
+      </c>
+      <c r="M98" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N98" s="9" t="s">
+      <c r="N98" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="6">
         <v>603236</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="6">
         <v>11500</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="6">
         <v>11500</v>
       </c>
-      <c r="E99" s="10">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11">
-        <v>199.88</v>
-      </c>
-      <c r="G99" s="11">
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>190</v>
+      </c>
+      <c r="G99" s="7">
         <v>202.253</v>
       </c>
-      <c r="H99" s="11">
-        <v>0</v>
-      </c>
-      <c r="I99" s="11">
-        <v>2298620</v>
-      </c>
-      <c r="J99" s="11">
-        <v>-27293.42</v>
-      </c>
-      <c r="K99" s="11">
-        <v>-14260</v>
-      </c>
-      <c r="L99" s="9">
-        <v>-1.17</v>
-      </c>
-      <c r="M99" s="9" t="s">
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>2185000</v>
+      </c>
+      <c r="J99" s="7">
+        <v>-140913.42</v>
+      </c>
+      <c r="K99" s="7">
+        <v>-113620</v>
+      </c>
+      <c r="L99" s="8">
+        <v>-6.06</v>
+      </c>
+      <c r="M99" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N99" s="9" t="s">
+      <c r="N99" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="6">
         <v>300709</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="6">
         <v>17500</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="6">
         <v>17500</v>
       </c>
-      <c r="E100" s="10">
-        <v>0</v>
-      </c>
-      <c r="F100" s="11">
-        <v>93.1</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>85.91</v>
+      </c>
+      <c r="G100" s="7">
         <v>96.734</v>
       </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>1629250</v>
-      </c>
-      <c r="J100" s="11">
-        <v>-63588.33</v>
-      </c>
-      <c r="K100" s="11">
-        <v>-61250</v>
-      </c>
-      <c r="L100" s="9">
-        <v>-3.76</v>
-      </c>
-      <c r="M100" s="9" t="s">
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>1503425</v>
+      </c>
+      <c r="J100" s="7">
+        <v>-189413.33</v>
+      </c>
+      <c r="K100" s="7">
+        <v>-125825</v>
+      </c>
+      <c r="L100" s="8">
+        <v>-11.19</v>
+      </c>
+      <c r="M100" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N100" s="9" t="s">
+      <c r="N100" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="6">
         <v>41800</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="6">
         <v>41800</v>
       </c>
-      <c r="E101" s="10">
-        <v>0</v>
-      </c>
-      <c r="F101" s="11">
-        <v>44.23</v>
-      </c>
-      <c r="G101" s="11">
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>42.6</v>
+      </c>
+      <c r="G101" s="7">
         <v>48.508</v>
       </c>
-      <c r="H101" s="11">
-        <v>0</v>
-      </c>
-      <c r="I101" s="11">
-        <v>1848814</v>
-      </c>
-      <c r="J101" s="11">
-        <v>-178803.09</v>
-      </c>
-      <c r="K101" s="11">
-        <v>-35948</v>
-      </c>
-      <c r="L101" s="9">
-        <v>-8.82</v>
-      </c>
-      <c r="M101" s="9" t="s">
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1780680</v>
+      </c>
+      <c r="J101" s="7">
+        <v>-246937.09</v>
+      </c>
+      <c r="K101" s="7">
+        <v>-68134</v>
+      </c>
+      <c r="L101" s="8">
+        <v>-12.18</v>
+      </c>
+      <c r="M101" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N101" s="9" t="s">
+      <c r="N101" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5218,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="7">
-        <v>16.37</v>
+        <v>15.75</v>
       </c>
       <c r="G102" s="7">
         <v>16.289</v>
@@ -5227,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <v>1268675</v>
+        <v>1220625</v>
       </c>
       <c r="J102" s="7">
-        <v>6279.65</v>
+        <v>-41770.35</v>
       </c>
       <c r="K102" s="7">
-        <v>21700</v>
+        <v>-48050</v>
       </c>
       <c r="L102" s="8">
-        <v>0.5</v>
+        <v>-3.31</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>24</v>
@@ -5246,134 +5243,134 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="6">
         <v>601828</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="6">
         <v>152300</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="6">
         <v>152300</v>
       </c>
-      <c r="E103" s="10">
-        <v>0</v>
-      </c>
-      <c r="F103" s="11">
-        <v>10.07</v>
-      </c>
-      <c r="G103" s="11">
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>9.83</v>
+      </c>
+      <c r="G103" s="7">
         <v>10.676</v>
       </c>
-      <c r="H103" s="11">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11">
-        <v>1533661</v>
-      </c>
-      <c r="J103" s="11">
-        <v>-92368.45</v>
-      </c>
-      <c r="K103" s="11">
-        <v>-12184</v>
-      </c>
-      <c r="L103" s="9">
-        <v>-5.68</v>
-      </c>
-      <c r="M103" s="9" t="s">
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>1497109</v>
+      </c>
+      <c r="J103" s="7">
+        <v>-128920.45</v>
+      </c>
+      <c r="K103" s="7">
+        <v>-36552</v>
+      </c>
+      <c r="L103" s="8">
+        <v>-7.92</v>
+      </c>
+      <c r="M103" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N103" s="9" t="s">
+      <c r="N103" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="6">
         <v>300475</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="6">
         <v>22300</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="6">
         <v>22300</v>
       </c>
-      <c r="E104" s="10">
-        <v>0</v>
-      </c>
-      <c r="F104" s="11">
-        <v>8.89</v>
-      </c>
-      <c r="G104" s="11">
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>8.55</v>
+      </c>
+      <c r="G104" s="7">
         <v>9.428</v>
       </c>
-      <c r="H104" s="11">
-        <v>0</v>
-      </c>
-      <c r="I104" s="11">
-        <v>198247</v>
-      </c>
-      <c r="J104" s="11">
-        <v>-12005.51</v>
-      </c>
-      <c r="K104" s="11">
-        <v>-8474</v>
-      </c>
-      <c r="L104" s="9">
-        <v>-5.71</v>
-      </c>
-      <c r="M104" s="9" t="s">
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>190665</v>
+      </c>
+      <c r="J104" s="7">
+        <v>-19587.51</v>
+      </c>
+      <c r="K104" s="7">
+        <v>-7582</v>
+      </c>
+      <c r="L104" s="8">
+        <v>-9.31</v>
+      </c>
+      <c r="M104" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N104" s="9" t="s">
+      <c r="N104" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="6">
         <v>300476</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="6">
+        <v>96600</v>
+      </c>
+      <c r="D105" s="6">
         <v>94500</v>
       </c>
-      <c r="D105" s="10">
-        <v>94500</v>
-      </c>
-      <c r="E105" s="10">
-        <v>0</v>
-      </c>
-      <c r="F105" s="11">
-        <v>23.53</v>
-      </c>
-      <c r="G105" s="11">
-        <v>25.29</v>
-      </c>
-      <c r="H105" s="11">
-        <v>0</v>
-      </c>
-      <c r="I105" s="11">
-        <v>2223585</v>
-      </c>
-      <c r="J105" s="11">
-        <v>-166361.43</v>
-      </c>
-      <c r="K105" s="11">
-        <v>-41580</v>
-      </c>
-      <c r="L105" s="9">
-        <v>-6.96</v>
-      </c>
-      <c r="M105" s="9" t="s">
+      <c r="E105" s="6">
+        <v>2100</v>
+      </c>
+      <c r="F105" s="7">
+        <v>21.86</v>
+      </c>
+      <c r="G105" s="7">
+        <v>25.249</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2111676</v>
+      </c>
+      <c r="J105" s="7">
+        <v>-327337.43</v>
+      </c>
+      <c r="K105" s="7">
+        <v>-160976</v>
+      </c>
+      <c r="L105" s="8">
+        <v>-13.42</v>
+      </c>
+      <c r="M105" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N105" s="9" t="s">
+      <c r="N105" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5394,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="7">
-        <v>130.98</v>
+        <v>120</v>
       </c>
       <c r="G106" s="7">
         <v>127.104</v>
@@ -5403,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="I106" s="7">
-        <v>903762</v>
+        <v>828000</v>
       </c>
       <c r="J106" s="7">
-        <v>26743.48</v>
+        <v>-49018.52</v>
       </c>
       <c r="K106" s="7">
-        <v>23115</v>
+        <v>-75762</v>
       </c>
       <c r="L106" s="8">
-        <v>3.05</v>
+        <v>-5.59</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>26</v>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="7">
-        <v>6.74</v>
+        <v>6.43</v>
       </c>
       <c r="G107" s="7">
         <v>6.66</v>
@@ -5447,16 +5444,16 @@
         <v>0</v>
       </c>
       <c r="I107" s="7">
-        <v>372048</v>
+        <v>354936</v>
       </c>
       <c r="J107" s="7">
-        <v>4438.59</v>
+        <v>-12673.41</v>
       </c>
       <c r="K107" s="7">
-        <v>-4416</v>
+        <v>-17112</v>
       </c>
       <c r="L107" s="8">
-        <v>1.2</v>
+        <v>-3.45</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>24</v>
@@ -5466,134 +5463,134 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="10">
         <v>300580</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="10">
         <v>13000</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="10">
         <v>13000</v>
       </c>
-      <c r="E108" s="6">
-        <v>0</v>
-      </c>
-      <c r="F108" s="7">
-        <v>21.63</v>
-      </c>
-      <c r="G108" s="7">
+      <c r="E108" s="10">
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <v>21.19</v>
+      </c>
+      <c r="G108" s="11">
         <v>20.695</v>
       </c>
-      <c r="H108" s="7">
-        <v>0</v>
-      </c>
-      <c r="I108" s="7">
-        <v>281190</v>
-      </c>
-      <c r="J108" s="7">
-        <v>12149.65</v>
-      </c>
-      <c r="K108" s="7">
-        <v>7020</v>
-      </c>
-      <c r="L108" s="8">
-        <v>4.52</v>
-      </c>
-      <c r="M108" s="8" t="s">
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <v>275470</v>
+      </c>
+      <c r="J108" s="11">
+        <v>6429.65</v>
+      </c>
+      <c r="K108" s="11">
+        <v>-5720</v>
+      </c>
+      <c r="L108" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="M108" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N108" s="8" t="s">
+      <c r="N108" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="6">
         <v>600996</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="6">
         <v>104000</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="6">
         <v>104000</v>
       </c>
-      <c r="E109" s="10">
-        <v>0</v>
-      </c>
-      <c r="F109" s="11">
-        <v>7.46</v>
-      </c>
-      <c r="G109" s="11">
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>7.18</v>
+      </c>
+      <c r="G109" s="7">
         <v>7.791</v>
       </c>
-      <c r="H109" s="11">
-        <v>0</v>
-      </c>
-      <c r="I109" s="11">
-        <v>775840</v>
-      </c>
-      <c r="J109" s="11">
-        <v>-34397.09</v>
-      </c>
-      <c r="K109" s="11">
-        <v>-9360</v>
-      </c>
-      <c r="L109" s="9">
-        <v>-4.25</v>
-      </c>
-      <c r="M109" s="9" t="s">
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>746720</v>
+      </c>
+      <c r="J109" s="7">
+        <v>-63517.09</v>
+      </c>
+      <c r="K109" s="7">
+        <v>-29120</v>
+      </c>
+      <c r="L109" s="8">
+        <v>-7.84</v>
+      </c>
+      <c r="M109" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N109" s="9" t="s">
+      <c r="N109" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="6">
         <v>300687</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="6">
         <v>30800</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="6">
         <v>30800</v>
       </c>
-      <c r="E110" s="10">
-        <v>0</v>
-      </c>
-      <c r="F110" s="11">
-        <v>21.26</v>
-      </c>
-      <c r="G110" s="11">
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>20.05</v>
+      </c>
+      <c r="G110" s="7">
         <v>25.293</v>
       </c>
-      <c r="H110" s="11">
-        <v>0</v>
-      </c>
-      <c r="I110" s="11">
-        <v>654808</v>
-      </c>
-      <c r="J110" s="11">
-        <v>-124216.83</v>
-      </c>
-      <c r="K110" s="11">
-        <v>-15708</v>
-      </c>
-      <c r="L110" s="9">
-        <v>-15.95</v>
-      </c>
-      <c r="M110" s="9" t="s">
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>617540</v>
+      </c>
+      <c r="J110" s="7">
+        <v>-161484.83</v>
+      </c>
+      <c r="K110" s="7">
+        <v>-37268</v>
+      </c>
+      <c r="L110" s="8">
+        <v>-20.73</v>
+      </c>
+      <c r="M110" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N110" s="9" t="s">
+      <c r="N110" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5602,37 +5599,37 @@
         <v>165</v>
       </c>
       <c r="B111" s="6">
-        <v>300751</v>
+        <v>300036</v>
       </c>
       <c r="C111" s="6">
-        <v>7500</v>
+        <v>43500</v>
       </c>
       <c r="D111" s="6">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E111" s="6">
-        <v>0</v>
+        <v>43500</v>
       </c>
       <c r="F111" s="7">
-        <v>323</v>
+        <v>22.95</v>
       </c>
       <c r="G111" s="7">
-        <v>305.157</v>
+        <v>23.954</v>
       </c>
       <c r="H111" s="7">
         <v>0</v>
       </c>
       <c r="I111" s="7">
-        <v>2422500</v>
+        <v>998325</v>
       </c>
       <c r="J111" s="7">
-        <v>133819.13</v>
+        <v>-43661.41</v>
       </c>
       <c r="K111" s="7">
-        <v>180000</v>
+        <v>-43661.41</v>
       </c>
       <c r="L111" s="8">
-        <v>5.85</v>
+        <v>-4.19</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>26</v>
@@ -5645,38 +5642,38 @@
       <c r="A112" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>167</v>
+      <c r="B112" s="10">
+        <v>300751</v>
       </c>
       <c r="C112" s="10">
-        <v>86600</v>
+        <v>7500</v>
       </c>
       <c r="D112" s="10">
-        <v>86600</v>
+        <v>7500</v>
       </c>
       <c r="E112" s="10">
         <v>0</v>
       </c>
       <c r="F112" s="11">
-        <v>5.36</v>
+        <v>313</v>
       </c>
       <c r="G112" s="11">
-        <v>5.502</v>
+        <v>305.157</v>
       </c>
       <c r="H112" s="11">
         <v>0</v>
       </c>
       <c r="I112" s="11">
-        <v>464176</v>
+        <v>2347500</v>
       </c>
       <c r="J112" s="11">
-        <v>-12267.45</v>
+        <v>58819.13</v>
       </c>
       <c r="K112" s="11">
-        <v>-8660</v>
+        <v>-75000</v>
       </c>
       <c r="L112" s="9">
-        <v>-2.58</v>
+        <v>2.57</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>26</v>
@@ -5686,135 +5683,135 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="10">
-        <v>600307</v>
-      </c>
-      <c r="C113" s="10">
-        <v>50900</v>
-      </c>
-      <c r="D113" s="10">
-        <v>50900</v>
-      </c>
-      <c r="E113" s="10">
-        <v>0</v>
-      </c>
-      <c r="F113" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="G113" s="11">
-        <v>2.409</v>
-      </c>
-      <c r="H113" s="11">
-        <v>0</v>
-      </c>
-      <c r="I113" s="11">
-        <v>85003</v>
-      </c>
-      <c r="J113" s="11">
-        <v>-37632.87</v>
-      </c>
-      <c r="K113" s="11">
-        <v>-1018</v>
-      </c>
-      <c r="L113" s="9">
-        <v>-30.68</v>
-      </c>
-      <c r="M113" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>23</v>
+      <c r="C113" s="6">
+        <v>86600</v>
+      </c>
+      <c r="D113" s="6">
+        <v>86600</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="G113" s="7">
+        <v>5.502</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>450320</v>
+      </c>
+      <c r="J113" s="7">
+        <v>-26123.45</v>
+      </c>
+      <c r="K113" s="7">
+        <v>-13856</v>
+      </c>
+      <c r="L113" s="8">
+        <v>-5.49</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>170</v>
+      <c r="B114" s="6">
+        <v>600307</v>
       </c>
       <c r="C114" s="6">
-        <v>101624</v>
+        <v>50900</v>
       </c>
       <c r="D114" s="6">
-        <v>101624</v>
+        <v>50900</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
       </c>
       <c r="F114" s="7">
-        <v>9.47</v>
+        <v>1.62</v>
       </c>
       <c r="G114" s="7">
-        <v>8.749</v>
+        <v>2.409</v>
       </c>
       <c r="H114" s="7">
         <v>0</v>
       </c>
       <c r="I114" s="7">
-        <v>962379.28</v>
+        <v>82458</v>
       </c>
       <c r="J114" s="7">
-        <v>73240.99</v>
+        <v>-40177.87</v>
       </c>
       <c r="K114" s="7">
-        <v>39633.36</v>
+        <v>-2545</v>
       </c>
       <c r="L114" s="8">
-        <v>8.24</v>
+        <v>-32.75</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B115" s="10">
-        <v>601992</v>
-      </c>
       <c r="C115" s="10">
-        <v>141900</v>
+        <v>24</v>
       </c>
       <c r="D115" s="10">
-        <v>141900</v>
+        <v>24</v>
       </c>
       <c r="E115" s="10">
         <v>0</v>
       </c>
       <c r="F115" s="11">
-        <v>3.25</v>
+        <v>9.17</v>
       </c>
       <c r="G115" s="11">
-        <v>3.319</v>
+        <v>-2522.57</v>
       </c>
       <c r="H115" s="11">
         <v>0</v>
       </c>
       <c r="I115" s="11">
-        <v>461175</v>
+        <v>220.08</v>
       </c>
       <c r="J115" s="11">
-        <v>-9764.91</v>
+        <v>60761.76</v>
       </c>
       <c r="K115" s="11">
-        <v>-2838</v>
+        <v>-12479.23</v>
       </c>
       <c r="L115" s="9">
-        <v>-2.08</v>
+        <v>0</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5822,174 +5819,174 @@
         <v>172</v>
       </c>
       <c r="B116" s="6">
-        <v>300034</v>
+        <v>601992</v>
       </c>
       <c r="C116" s="6">
-        <v>0</v>
+        <v>141900</v>
       </c>
       <c r="D116" s="6">
-        <v>0</v>
+        <v>141900</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
       </c>
       <c r="F116" s="7">
-        <v>22.98</v>
+        <v>3.15</v>
       </c>
       <c r="G116" s="7">
-        <v>0</v>
+        <v>3.319</v>
       </c>
       <c r="H116" s="7">
         <v>0</v>
       </c>
       <c r="I116" s="7">
-        <v>0</v>
+        <v>446985</v>
       </c>
       <c r="J116" s="7">
-        <v>63322.55</v>
+        <v>-23954.91</v>
       </c>
       <c r="K116" s="7">
-        <v>-4563.08</v>
+        <v>-14190</v>
       </c>
       <c r="L116" s="8">
-        <v>0</v>
+        <v>-5.09</v>
       </c>
       <c r="M116" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" s="6">
+        <v>300020</v>
+      </c>
+      <c r="C117" s="6">
+        <v>101600</v>
+      </c>
+      <c r="D117" s="6">
+        <v>101600</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>10.63</v>
+      </c>
+      <c r="G117" s="7">
+        <v>12.004</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>1080008</v>
+      </c>
+      <c r="J117" s="7">
+        <v>-139590.98</v>
+      </c>
+      <c r="K117" s="7">
+        <v>-78232</v>
+      </c>
+      <c r="L117" s="8">
+        <v>-11.45</v>
+      </c>
+      <c r="M117" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N116" s="8" t="s">
+      <c r="N117" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="10">
-        <v>300020</v>
-      </c>
-      <c r="C117" s="10">
-        <v>101600</v>
-      </c>
-      <c r="D117" s="10">
-        <v>101600</v>
-      </c>
-      <c r="E117" s="10">
-        <v>0</v>
-      </c>
-      <c r="F117" s="11">
-        <v>11.4</v>
-      </c>
-      <c r="G117" s="11">
-        <v>12.004</v>
-      </c>
-      <c r="H117" s="11">
-        <v>0</v>
-      </c>
-      <c r="I117" s="11">
-        <v>1158240</v>
-      </c>
-      <c r="J117" s="11">
-        <v>-61358.98</v>
-      </c>
-      <c r="K117" s="11">
-        <v>-43688</v>
-      </c>
-      <c r="L117" s="9">
-        <v>-5.03</v>
-      </c>
-      <c r="M117" s="9" t="s">
+    <row r="118" spans="1:14">
+      <c r="A118" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="6">
+        <v>600820</v>
+      </c>
+      <c r="C118" s="6">
+        <v>40700</v>
+      </c>
+      <c r="D118" s="6">
+        <v>40700</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>6.02</v>
+      </c>
+      <c r="G118" s="7">
+        <v>6.273</v>
+      </c>
+      <c r="H118" s="7">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>245014</v>
+      </c>
+      <c r="J118" s="7">
+        <v>-10303.44</v>
+      </c>
+      <c r="K118" s="7">
+        <v>-7326</v>
+      </c>
+      <c r="L118" s="8">
+        <v>-4.03</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N118" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" s="6">
+        <v>300599</v>
+      </c>
+      <c r="C119" s="6">
+        <v>105600</v>
+      </c>
+      <c r="D119" s="6">
+        <v>105600</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>12.93</v>
+      </c>
+      <c r="G119" s="7">
+        <v>14.111</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0</v>
+      </c>
+      <c r="I119" s="7">
+        <v>1365408</v>
+      </c>
+      <c r="J119" s="7">
+        <v>-124671.92</v>
+      </c>
+      <c r="K119" s="7">
+        <v>-81312</v>
+      </c>
+      <c r="L119" s="8">
+        <v>-8.37</v>
+      </c>
+      <c r="M119" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N117" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B118" s="10">
-        <v>600820</v>
-      </c>
-      <c r="C118" s="10">
-        <v>40700</v>
-      </c>
-      <c r="D118" s="10">
-        <v>40700</v>
-      </c>
-      <c r="E118" s="10">
-        <v>0</v>
-      </c>
-      <c r="F118" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="G118" s="11">
-        <v>6.273</v>
-      </c>
-      <c r="H118" s="11">
-        <v>0</v>
-      </c>
-      <c r="I118" s="11">
-        <v>252340</v>
-      </c>
-      <c r="J118" s="11">
-        <v>-2977.44</v>
-      </c>
-      <c r="K118" s="11">
-        <v>2035</v>
-      </c>
-      <c r="L118" s="9">
-        <v>-1.16</v>
-      </c>
-      <c r="M118" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B119" s="10">
-        <v>300599</v>
-      </c>
-      <c r="C119" s="10">
-        <v>105600</v>
-      </c>
-      <c r="D119" s="10">
-        <v>97500</v>
-      </c>
-      <c r="E119" s="10">
-        <v>8100</v>
-      </c>
-      <c r="F119" s="11">
-        <v>13.7</v>
-      </c>
-      <c r="G119" s="11">
-        <v>14.111</v>
-      </c>
-      <c r="H119" s="11">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11">
-        <v>1446720</v>
-      </c>
-      <c r="J119" s="11">
-        <v>-43372.91</v>
-      </c>
-      <c r="K119" s="11">
-        <v>-28756</v>
-      </c>
-      <c r="L119" s="9">
-        <v>-2.91</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N119" s="9" t="s">
+      <c r="N119" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5998,37 +5995,37 @@
         <v>176</v>
       </c>
       <c r="B120" s="6">
-        <v>603501</v>
+        <v>603711</v>
       </c>
       <c r="C120" s="6">
-        <v>8600</v>
+        <v>29900</v>
       </c>
       <c r="D120" s="6">
-        <v>8600</v>
+        <v>29900</v>
       </c>
       <c r="E120" s="6">
         <v>0</v>
       </c>
       <c r="F120" s="7">
-        <v>214</v>
+        <v>27.93</v>
       </c>
       <c r="G120" s="7">
-        <v>213.502</v>
+        <v>29.334</v>
       </c>
       <c r="H120" s="7">
         <v>0</v>
       </c>
       <c r="I120" s="7">
-        <v>1840400</v>
+        <v>835107</v>
       </c>
       <c r="J120" s="7">
-        <v>4283.92</v>
+        <v>-41970.47</v>
       </c>
       <c r="K120" s="7">
-        <v>-52460</v>
+        <v>-37973</v>
       </c>
       <c r="L120" s="8">
-        <v>0.23</v>
+        <v>-4.79</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>24</v>
@@ -6042,86 +6039,42 @@
         <v>177</v>
       </c>
       <c r="B121" s="10">
-        <v>603711</v>
+        <v>600490</v>
       </c>
       <c r="C121" s="10">
-        <v>29900</v>
+        <v>386500</v>
       </c>
       <c r="D121" s="10">
-        <v>29900</v>
+        <v>386500</v>
       </c>
       <c r="E121" s="10">
         <v>0</v>
       </c>
       <c r="F121" s="11">
-        <v>29.2</v>
+        <v>4.17</v>
       </c>
       <c r="G121" s="11">
-        <v>29.334</v>
+        <v>3.754</v>
       </c>
       <c r="H121" s="11">
         <v>0</v>
       </c>
       <c r="I121" s="11">
-        <v>873080</v>
+        <v>1611705</v>
       </c>
       <c r="J121" s="11">
-        <v>-3997.47</v>
+        <v>160823.36</v>
       </c>
       <c r="K121" s="11">
-        <v>-3588</v>
+        <v>69570</v>
       </c>
       <c r="L121" s="9">
-        <v>-0.46</v>
+        <v>11.08</v>
       </c>
       <c r="M121" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N121" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B122" s="6">
-        <v>600490</v>
-      </c>
-      <c r="C122" s="6">
-        <v>386500</v>
-      </c>
-      <c r="D122" s="6">
-        <v>386500</v>
-      </c>
-      <c r="E122" s="6">
-        <v>0</v>
-      </c>
-      <c r="F122" s="7">
-        <v>3.99</v>
-      </c>
-      <c r="G122" s="7">
-        <v>3.754</v>
-      </c>
-      <c r="H122" s="7">
-        <v>0</v>
-      </c>
-      <c r="I122" s="7">
-        <v>1542135</v>
-      </c>
-      <c r="J122" s="7">
-        <v>91253.36</v>
-      </c>
-      <c r="K122" s="7">
-        <v>139140</v>
-      </c>
-      <c r="L122" s="8">
-        <v>6.29</v>
-      </c>
-      <c r="M122" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N122" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="186">
   <si>
     <t>资金</t>
   </si>
@@ -205,6 +205,18 @@
     <t>光莆股份</t>
   </si>
   <si>
+    <t>兴瑞科技</t>
+  </si>
+  <si>
+    <t>002937</t>
+  </si>
+  <si>
+    <t>北京利尔</t>
+  </si>
+  <si>
+    <t>002392</t>
+  </si>
+  <si>
     <t>华体科技</t>
   </si>
   <si>
@@ -223,6 +235,9 @@
     <t>华宝添益</t>
   </si>
   <si>
+    <t>华致酒行</t>
+  </si>
+  <si>
     <t>华锦股份</t>
   </si>
   <si>
@@ -241,6 +256,9 @@
     <t>002212</t>
   </si>
   <si>
+    <t>博腾股份</t>
+  </si>
+  <si>
     <t>卫光生物</t>
   </si>
   <si>
@@ -346,9 +364,6 @@
     <t>思维列控</t>
   </si>
   <si>
-    <t>恒生电子</t>
-  </si>
-  <si>
     <t>悦达投资</t>
   </si>
   <si>
@@ -358,9 +373,6 @@
     <t>捷佳伟创</t>
   </si>
   <si>
-    <t>数据港</t>
-  </si>
-  <si>
     <t>数码科技</t>
   </si>
   <si>
@@ -406,9 +418,6 @@
     <t>水星家纺</t>
   </si>
   <si>
-    <t>汇顶科技</t>
-  </si>
-  <si>
     <t>江海股份</t>
   </si>
   <si>
@@ -517,9 +526,6 @@
     <t>诺邦股份</t>
   </si>
   <si>
-    <t>贝斯特</t>
-  </si>
-  <si>
     <t>贝达药业</t>
   </si>
   <si>
@@ -539,6 +545,9 @@
   </si>
   <si>
     <t>002491</t>
+  </si>
+  <si>
+    <t>金运激光</t>
   </si>
   <si>
     <t>隧道股份</t>
@@ -954,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -1034,28 +1043,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>7575292.35</v>
+        <v>10978127.93</v>
       </c>
       <c r="D3" s="3">
-        <v>10965914.09</v>
+        <v>9871827.73</v>
       </c>
       <c r="E3" s="3">
-        <v>7575292.35</v>
+        <v>9871827.73</v>
       </c>
       <c r="F3" s="3">
-        <v>-3390621.74</v>
+        <v>1106300.2</v>
       </c>
       <c r="G3" s="3">
-        <v>111839869.24</v>
+        <v>114618544.97</v>
       </c>
       <c r="H3" s="3">
-        <v>122805783.33</v>
+        <v>124490372.7</v>
       </c>
       <c r="I3" s="3">
-        <v>-1795731.11</v>
+        <v>-215048.16</v>
       </c>
       <c r="J3" s="3">
-        <v>-748597.25</v>
+        <v>1672375.53</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1162,10 +1171,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5590000</v>
+        <v>5669000</v>
       </c>
       <c r="C8" s="3">
-        <v>5590000</v>
+        <v>5669000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1179,7 +1188,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>7165500</v>
+        <v>7412000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1270,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>96.01</v>
+        <v>97.65</v>
       </c>
       <c r="G12" s="7">
         <v>98.178</v>
@@ -1279,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2246634</v>
+        <v>2285010</v>
       </c>
       <c r="J12" s="7">
-        <v>-50742.49</v>
+        <v>-12366.49</v>
       </c>
       <c r="K12" s="7">
-        <v>-37440</v>
+        <v>38376</v>
       </c>
       <c r="L12" s="8">
-        <v>-2.21</v>
+        <v>-0.54</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1314,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="G13" s="11">
         <v>5.088</v>
@@ -1323,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>1017230.5</v>
+        <v>1028681.5</v>
       </c>
       <c r="J13" s="11">
-        <v>46257.38</v>
+        <v>57708.38</v>
       </c>
       <c r="K13" s="11">
-        <v>-17176.5</v>
+        <v>11451</v>
       </c>
       <c r="L13" s="9">
-        <v>4.76</v>
+        <v>5.94</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>26</v>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>23.36</v>
+        <v>23.63</v>
       </c>
       <c r="G14" s="7">
         <v>24.423</v>
@@ -1367,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>686784</v>
+        <v>694722</v>
       </c>
       <c r="J14" s="7">
-        <v>-31247.56</v>
+        <v>-23309.56</v>
       </c>
       <c r="K14" s="7">
-        <v>-6174</v>
+        <v>7938</v>
       </c>
       <c r="L14" s="8">
-        <v>-4.35</v>
+        <v>-3.25</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>24</v>
@@ -1402,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>9.98</v>
+        <v>10.14</v>
       </c>
       <c r="G15" s="7">
         <v>10.755</v>
@@ -1411,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>934128</v>
+        <v>949104</v>
       </c>
       <c r="J15" s="7">
-        <v>-72503.1</v>
+        <v>-57527.1</v>
       </c>
       <c r="K15" s="7">
-        <v>-2808</v>
+        <v>14976</v>
       </c>
       <c r="L15" s="8">
-        <v>-7.21</v>
+        <v>-5.72</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>24</v>
@@ -1430,46 +1439,46 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>600158</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="10">
         <v>38700</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="10">
         <v>38700</v>
       </c>
-      <c r="F16" s="7">
-        <v>8.73</v>
-      </c>
-      <c r="G16" s="7">
-        <v>8.785</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>337851</v>
-      </c>
-      <c r="J16" s="7">
-        <v>-2126.95</v>
-      </c>
-      <c r="K16" s="7">
-        <v>-2126.95</v>
-      </c>
-      <c r="L16" s="8">
-        <v>-0.63</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>8.83</v>
+      </c>
+      <c r="G16" s="11">
+        <v>8.779</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>341721</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1992.14</v>
+      </c>
+      <c r="K16" s="11">
+        <v>3870</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.58</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>6.26</v>
+        <v>6.3</v>
       </c>
       <c r="G17" s="11">
         <v>5.716</v>
@@ -1499,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>1442930</v>
+        <v>1452150</v>
       </c>
       <c r="J17" s="11">
-        <v>125442.08</v>
+        <v>134662.08</v>
       </c>
       <c r="K17" s="11">
-        <v>92200</v>
+        <v>9220</v>
       </c>
       <c r="L17" s="9">
-        <v>9.52</v>
+        <v>10.22</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1534,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>81.6</v>
+        <v>83.42</v>
       </c>
       <c r="G18" s="7">
         <v>84.183</v>
@@ -1543,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1241952</v>
+        <v>1269652.4</v>
       </c>
       <c r="J18" s="7">
-        <v>-39319.58</v>
+        <v>-11619.18</v>
       </c>
       <c r="K18" s="7">
-        <v>-23743.2</v>
+        <v>27700.4</v>
       </c>
       <c r="L18" s="8">
-        <v>-3.07</v>
+        <v>-0.91</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>26</v>
@@ -1578,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>58.21</v>
+        <v>59.08</v>
       </c>
       <c r="G19" s="11">
         <v>56.63</v>
@@ -1587,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>2351684</v>
+        <v>2386832</v>
       </c>
       <c r="J19" s="11">
-        <v>63825.91</v>
+        <v>98973.91</v>
       </c>
       <c r="K19" s="11">
-        <v>-31916</v>
+        <v>35148</v>
       </c>
       <c r="L19" s="9">
-        <v>2.79</v>
+        <v>4.33</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>26</v>
@@ -1606,46 +1615,46 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10">
         <v>603983</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <v>17000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10">
         <v>17000</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>74.45</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>76.96</v>
+      </c>
+      <c r="G20" s="11">
         <v>75.157</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1265650</v>
-      </c>
-      <c r="J20" s="7">
-        <v>-12011.22</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-13430</v>
-      </c>
-      <c r="L20" s="8">
-        <v>-0.94</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1308320</v>
+      </c>
+      <c r="J20" s="11">
+        <v>30658.78</v>
+      </c>
+      <c r="K20" s="11">
+        <v>42670</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1666,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>27.05</v>
+        <v>27.65</v>
       </c>
       <c r="G21" s="7">
         <v>28.566</v>
@@ -1675,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>2088260</v>
+        <v>2134580</v>
       </c>
       <c r="J21" s="7">
-        <v>-117031.31</v>
+        <v>-70711.31</v>
       </c>
       <c r="K21" s="7">
-        <v>-62532</v>
+        <v>46320</v>
       </c>
       <c r="L21" s="8">
-        <v>-5.31</v>
+        <v>-3.21</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>26</v>
@@ -1710,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>20.81</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7">
         <v>21.472</v>
@@ -1719,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2103891</v>
+        <v>2123100</v>
       </c>
       <c r="J22" s="7">
-        <v>-66906.59</v>
+        <v>-47697.59</v>
       </c>
       <c r="K22" s="7">
-        <v>41451</v>
+        <v>19209</v>
       </c>
       <c r="L22" s="8">
-        <v>-3.08</v>
+        <v>-2.2</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1754,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>7.75</v>
+        <v>7.85</v>
       </c>
       <c r="G23" s="11">
         <v>7.703</v>
@@ -1763,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>117800</v>
+        <v>119320</v>
       </c>
       <c r="J23" s="11">
-        <v>713.34</v>
+        <v>2233.34</v>
       </c>
       <c r="K23" s="11">
-        <v>2128</v>
+        <v>1520</v>
       </c>
       <c r="L23" s="9">
-        <v>0.61</v>
+        <v>1.91</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>26</v>
@@ -1782,46 +1791,46 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="10">
         <v>600602</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="10">
         <v>200900</v>
       </c>
-      <c r="D24" s="6">
-        <v>117800</v>
-      </c>
-      <c r="E24" s="6">
-        <v>83100</v>
-      </c>
-      <c r="F24" s="7">
-        <v>7.46</v>
-      </c>
-      <c r="G24" s="7">
-        <v>7.527</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1498714</v>
-      </c>
-      <c r="J24" s="7">
-        <v>-13536.65</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-17492.65</v>
-      </c>
-      <c r="L24" s="8">
-        <v>-0.89</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="D24" s="10">
+        <v>200900</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>7.53</v>
+      </c>
+      <c r="G24" s="11">
+        <v>7.526</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1512777</v>
+      </c>
+      <c r="J24" s="11">
+        <v>850.57</v>
+      </c>
+      <c r="K24" s="11">
+        <v>14063</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1842,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>5.02</v>
+        <v>5.22</v>
       </c>
       <c r="G25" s="11">
         <v>4.667</v>
@@ -1851,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>134536</v>
+        <v>139896</v>
       </c>
       <c r="J25" s="11">
-        <v>9472.53</v>
+        <v>14832.53</v>
       </c>
       <c r="K25" s="11">
-        <v>-804</v>
+        <v>5360</v>
       </c>
       <c r="L25" s="9">
-        <v>7.56</v>
+        <v>11.85</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>26</v>
@@ -1886,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>64.01</v>
+        <v>62.93</v>
       </c>
       <c r="G26" s="7">
         <v>64.585</v>
@@ -1895,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1920300</v>
+        <v>1887900</v>
       </c>
       <c r="J26" s="7">
-        <v>-17241.62</v>
+        <v>-49641.62</v>
       </c>
       <c r="K26" s="7">
-        <v>-24000</v>
+        <v>-32400</v>
       </c>
       <c r="L26" s="8">
-        <v>-0.89</v>
+        <v>-2.56</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>26</v>
@@ -1930,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="11">
-        <v>47.03</v>
+        <v>47.22</v>
       </c>
       <c r="G27" s="11">
         <v>45.363</v>
@@ -1939,16 +1948,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>1504019.4</v>
+        <v>1510095.6</v>
       </c>
       <c r="J27" s="11">
-        <v>53303.2</v>
+        <v>59379.4</v>
       </c>
       <c r="K27" s="11">
-        <v>32939.4</v>
+        <v>6076.2</v>
       </c>
       <c r="L27" s="9">
-        <v>3.67</v>
+        <v>4.09</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>24</v>
@@ -1974,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>67.76</v>
+        <v>68.4</v>
       </c>
       <c r="G28" s="11">
         <v>66.171</v>
@@ -1983,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>508200</v>
+        <v>513000</v>
       </c>
       <c r="J28" s="11">
-        <v>11915.88</v>
+        <v>16715.88</v>
       </c>
       <c r="K28" s="11">
-        <v>-3975</v>
+        <v>4800</v>
       </c>
       <c r="L28" s="9">
-        <v>2.4</v>
+        <v>3.37</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>26</v>
@@ -2018,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>16.21</v>
+        <v>16.33</v>
       </c>
       <c r="G29" s="11">
         <v>15.709</v>
@@ -2027,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="11">
-        <v>275570</v>
+        <v>277610</v>
       </c>
       <c r="J29" s="11">
-        <v>8511.88</v>
+        <v>10551.88</v>
       </c>
       <c r="K29" s="11">
-        <v>-1870</v>
+        <v>2040</v>
       </c>
       <c r="L29" s="9">
-        <v>3.19</v>
+        <v>3.95</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>26</v>
@@ -2049,258 +2058,258 @@
       <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="6">
-        <v>603679</v>
+      <c r="B30" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C30" s="6">
-        <v>26700</v>
+        <v>31300</v>
       </c>
       <c r="D30" s="6">
-        <v>26700</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>31300</v>
       </c>
       <c r="F30" s="7">
-        <v>27.19</v>
+        <v>16.01</v>
       </c>
       <c r="G30" s="7">
-        <v>29.285</v>
+        <v>16.062</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>725973</v>
+        <v>501113</v>
       </c>
       <c r="J30" s="7">
-        <v>-55926.92</v>
+        <v>-1634.89</v>
       </c>
       <c r="K30" s="7">
-        <v>-5874</v>
+        <v>-1634.89</v>
       </c>
       <c r="L30" s="8">
-        <v>-7.15</v>
+        <v>-0.32</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="10">
-        <v>600475</v>
+        <v>65</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="10">
-        <v>20700</v>
+        <v>40200</v>
       </c>
       <c r="D31" s="10">
-        <v>20700</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>40200</v>
       </c>
       <c r="F31" s="11">
-        <v>13.59</v>
+        <v>4.81</v>
       </c>
       <c r="G31" s="11">
-        <v>11.212</v>
+        <v>4.786</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>281313</v>
+        <v>193362</v>
       </c>
       <c r="J31" s="11">
-        <v>49220.19</v>
+        <v>971</v>
       </c>
       <c r="K31" s="11">
-        <v>13041</v>
+        <v>971</v>
       </c>
       <c r="L31" s="9">
-        <v>21.21</v>
+        <v>0.5</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B32" s="6">
+        <v>603679</v>
       </c>
       <c r="C32" s="6">
+        <v>26700</v>
+      </c>
+      <c r="D32" s="6">
+        <v>26700</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>27.44</v>
+      </c>
+      <c r="G32" s="7">
+        <v>29.285</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>732648</v>
+      </c>
+      <c r="J32" s="7">
+        <v>-49251.92</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6675</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-6.3</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="10">
+        <v>600475</v>
+      </c>
+      <c r="C33" s="10">
+        <v>20700</v>
+      </c>
+      <c r="D33" s="10">
+        <v>20700</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>13.33</v>
+      </c>
+      <c r="G33" s="11">
+        <v>11.212</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>275931</v>
+      </c>
+      <c r="J33" s="11">
+        <v>43838.19</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-5382</v>
+      </c>
+      <c r="L33" s="9">
+        <v>18.89</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6">
         <v>80600</v>
       </c>
-      <c r="D32" s="6">
-        <v>64700</v>
-      </c>
-      <c r="E32" s="6">
-        <v>15900</v>
-      </c>
-      <c r="F32" s="7">
-        <v>5.69</v>
-      </c>
-      <c r="G32" s="7">
-        <v>6.221</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>458614</v>
-      </c>
-      <c r="J32" s="7">
-        <v>-42822.41</v>
-      </c>
-      <c r="K32" s="7">
-        <v>-5303</v>
-      </c>
-      <c r="L32" s="8">
-        <v>-8.54</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="6">
-        <v>300271</v>
-      </c>
-      <c r="C33" s="6">
-        <v>23400</v>
-      </c>
-      <c r="D33" s="6">
-        <v>23400</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>26.25</v>
-      </c>
-      <c r="G33" s="7">
-        <v>27.585</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>614250</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-31234.8</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2808</v>
-      </c>
-      <c r="L33" s="8">
-        <v>-4.84</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="10">
-        <v>511990</v>
-      </c>
-      <c r="C34" s="10">
-        <v>14</v>
-      </c>
-      <c r="D34" s="10">
-        <v>14</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>100.004</v>
-      </c>
-      <c r="G34" s="11">
-        <v>-11749.026</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1400.06</v>
-      </c>
-      <c r="J34" s="11">
-        <v>165886.43</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>23</v>
+      <c r="D34" s="6">
+        <v>80600</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5.67</v>
+      </c>
+      <c r="G34" s="7">
+        <v>6.22</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>457002</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-44338.2</v>
+      </c>
+      <c r="K34" s="7">
+        <v>-1612</v>
+      </c>
+      <c r="L34" s="8">
+        <v>-8.84</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B35" s="6">
+        <v>300271</v>
       </c>
       <c r="C35" s="6">
-        <v>112400</v>
+        <v>23400</v>
       </c>
       <c r="D35" s="6">
-        <v>112400</v>
+        <v>23400</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>5.07</v>
+        <v>26.55</v>
       </c>
       <c r="G35" s="7">
-        <v>5.107</v>
+        <v>27.585</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>569868</v>
+        <v>621270</v>
       </c>
       <c r="J35" s="7">
-        <v>-4161.15</v>
+        <v>-24214.8</v>
       </c>
       <c r="K35" s="7">
-        <v>17984</v>
+        <v>7020</v>
       </c>
       <c r="L35" s="8">
-        <v>-0.72</v>
+        <v>-3.75</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>26</v>
@@ -2310,393 +2319,393 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="6">
-        <v>38800</v>
-      </c>
-      <c r="D36" s="6">
-        <v>38800</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>19.27</v>
-      </c>
-      <c r="G36" s="7">
-        <v>21.488</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>747676</v>
-      </c>
-      <c r="J36" s="7">
-        <v>-86076.05</v>
-      </c>
-      <c r="K36" s="7">
-        <v>-36860</v>
-      </c>
-      <c r="L36" s="8">
-        <v>-10.32</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>25</v>
+      <c r="B36" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>100.011</v>
+      </c>
+      <c r="G36" s="11">
+        <v>-11749.026</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1400.15</v>
+      </c>
+      <c r="J36" s="11">
+        <v>165886.52</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="6">
-        <v>94800</v>
-      </c>
-      <c r="D37" s="6">
-        <v>94300</v>
-      </c>
-      <c r="E37" s="6">
-        <v>500</v>
-      </c>
-      <c r="F37" s="7">
-        <v>23.36</v>
-      </c>
-      <c r="G37" s="7">
-        <v>25.501</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2214528</v>
-      </c>
-      <c r="J37" s="7">
-        <v>-202949.77</v>
-      </c>
-      <c r="K37" s="7">
-        <v>-54944</v>
-      </c>
-      <c r="L37" s="8">
-        <v>-8.4</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="B37" s="10">
+        <v>300755</v>
+      </c>
+      <c r="C37" s="10">
+        <v>17500</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>17500</v>
+      </c>
+      <c r="F37" s="11">
+        <v>29.55</v>
+      </c>
+      <c r="G37" s="11">
+        <v>29.418</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>517125</v>
+      </c>
+      <c r="J37" s="11">
+        <v>2307.95</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2307.95</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10">
+        <v>112400</v>
+      </c>
+      <c r="D38" s="10">
+        <v>112400</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>5.16</v>
+      </c>
+      <c r="G38" s="11">
+        <v>5.107</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>579984</v>
+      </c>
+      <c r="J38" s="11">
+        <v>5954.85</v>
+      </c>
+      <c r="K38" s="11">
+        <v>10116</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="10">
+      <c r="B39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6">
+        <v>38800</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38800</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>19.59</v>
+      </c>
+      <c r="G39" s="7">
+        <v>21.488</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>760092</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-73660.05</v>
+      </c>
+      <c r="K39" s="7">
+        <v>12416</v>
+      </c>
+      <c r="L39" s="8">
+        <v>-8.83</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6">
+        <v>94800</v>
+      </c>
+      <c r="D40" s="6">
+        <v>94800</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>25.501</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2227800</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-189674.56</v>
+      </c>
+      <c r="K40" s="7">
+        <v>13272</v>
+      </c>
+      <c r="L40" s="8">
+        <v>-7.85</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="6">
+        <v>300363</v>
+      </c>
+      <c r="C41" s="6">
+        <v>51200</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>51200</v>
+      </c>
+      <c r="F41" s="7">
+        <v>31.96</v>
+      </c>
+      <c r="G41" s="7">
+        <v>33.114</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1636352</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-59087.71</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-59087.71</v>
+      </c>
+      <c r="L41" s="8">
+        <v>-3.48</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="10">
         <v>7500</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D42" s="10">
         <v>7500</v>
       </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>69.6</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>69</v>
+      </c>
+      <c r="G42" s="11">
         <v>53.268</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>522000</v>
-      </c>
-      <c r="J38" s="11">
-        <v>122493.56</v>
-      </c>
-      <c r="K38" s="11">
-        <v>10650</v>
-      </c>
-      <c r="L38" s="9">
-        <v>30.66</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="10">
-        <v>37488</v>
-      </c>
-      <c r="D39" s="10">
-        <v>37488</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>45.89</v>
-      </c>
-      <c r="G39" s="11">
-        <v>33.582</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>1720324.32</v>
-      </c>
-      <c r="J39" s="11">
-        <v>461398.35</v>
-      </c>
-      <c r="K39" s="11">
-        <v>6082.09</v>
-      </c>
-      <c r="L39" s="9">
-        <v>36.65</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="10">
-        <v>75100</v>
-      </c>
-      <c r="D40" s="10">
-        <v>75100</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>9.78</v>
-      </c>
-      <c r="G40" s="11">
-        <v>9.739</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>734478</v>
-      </c>
-      <c r="J40" s="11">
-        <v>3052.37</v>
-      </c>
-      <c r="K40" s="11">
-        <v>6759</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="10">
-        <v>603260</v>
-      </c>
-      <c r="C41" s="10">
-        <v>23600</v>
-      </c>
-      <c r="D41" s="10">
-        <v>23600</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11">
-        <v>31.62</v>
-      </c>
-      <c r="G41" s="11">
-        <v>29.113</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>746232</v>
-      </c>
-      <c r="J41" s="11">
-        <v>59156.71</v>
-      </c>
-      <c r="K41" s="11">
-        <v>19588</v>
-      </c>
-      <c r="L41" s="9">
-        <v>8.61</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="6">
-        <v>300636</v>
-      </c>
-      <c r="C42" s="6">
-        <v>6800</v>
-      </c>
-      <c r="D42" s="6">
-        <v>6800</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>35.7</v>
-      </c>
-      <c r="G42" s="7">
-        <v>38.829</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>242760</v>
-      </c>
-      <c r="J42" s="7">
-        <v>-21274.59</v>
-      </c>
-      <c r="K42" s="7">
-        <v>-5984</v>
-      </c>
-      <c r="L42" s="8">
-        <v>-8.06</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" s="8" t="s">
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>517500</v>
+      </c>
+      <c r="J42" s="11">
+        <v>117993.56</v>
+      </c>
+      <c r="K42" s="11">
+        <v>-4500</v>
+      </c>
+      <c r="L42" s="9">
+        <v>29.53</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="6">
-        <v>603077</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1028300</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1028300</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1.486</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1367639</v>
-      </c>
-      <c r="J43" s="7">
-        <v>-160616.74</v>
-      </c>
-      <c r="K43" s="7">
-        <v>-20566</v>
-      </c>
-      <c r="L43" s="8">
-        <v>-10.5</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>23</v>
+      <c r="B43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="10">
+        <v>88</v>
+      </c>
+      <c r="D43" s="10">
+        <v>88</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>44.48</v>
+      </c>
+      <c r="G43" s="11">
+        <v>-4778.633</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>3914.24</v>
+      </c>
+      <c r="J43" s="11">
+        <v>424433.91</v>
+      </c>
+      <c r="K43" s="11">
+        <v>-37041.88</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="10">
-        <v>76300</v>
+        <v>75100</v>
       </c>
       <c r="D44" s="10">
-        <v>76300</v>
+        <v>75100</v>
       </c>
       <c r="E44" s="10">
         <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>13.95</v>
+        <v>9.92</v>
       </c>
       <c r="G44" s="11">
-        <v>13.151</v>
+        <v>9.739</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>1064385</v>
+        <v>744992</v>
       </c>
       <c r="J44" s="11">
-        <v>60932.39</v>
+        <v>13566.37</v>
       </c>
       <c r="K44" s="11">
-        <v>-17549</v>
+        <v>10514</v>
       </c>
       <c r="L44" s="9">
-        <v>6.08</v>
+        <v>1.86</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>26</v>
@@ -2706,90 +2715,90 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="13">
-        <v>566</v>
-      </c>
-      <c r="D45" s="13">
-        <v>566</v>
-      </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14">
-        <v>100</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14">
-        <v>0</v>
-      </c>
-      <c r="I45" s="14">
-        <v>0</v>
-      </c>
-      <c r="J45" s="14">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="12">
-        <v>0</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>25</v>
+      <c r="B45" s="10">
+        <v>603260</v>
+      </c>
+      <c r="C45" s="10">
+        <v>23600</v>
+      </c>
+      <c r="D45" s="10">
+        <v>23600</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="G45" s="11">
+        <v>29.113</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>743400</v>
+      </c>
+      <c r="J45" s="11">
+        <v>56324.71</v>
+      </c>
+      <c r="K45" s="11">
+        <v>-2832</v>
+      </c>
+      <c r="L45" s="9">
+        <v>8.2</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="10">
-        <v>300285</v>
-      </c>
-      <c r="C46" s="10">
-        <v>54100</v>
-      </c>
-      <c r="D46" s="10">
-        <v>54100</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>35.81</v>
-      </c>
-      <c r="G46" s="11">
-        <v>35.078</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>1937321</v>
-      </c>
-      <c r="J46" s="11">
-        <v>39600.39</v>
-      </c>
-      <c r="K46" s="11">
-        <v>-27591</v>
-      </c>
-      <c r="L46" s="9">
-        <v>2.09</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="B46" s="6">
+        <v>300636</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6800</v>
+      </c>
+      <c r="D46" s="6">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>36.15</v>
+      </c>
+      <c r="G46" s="7">
+        <v>38.829</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>245820</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-18214.59</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3060</v>
+      </c>
+      <c r="L46" s="8">
+        <v>-6.9</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2798,37 +2807,37 @@
         <v>89</v>
       </c>
       <c r="B47" s="6">
-        <v>603826</v>
+        <v>603077</v>
       </c>
       <c r="C47" s="6">
-        <v>78100</v>
+        <v>1028300</v>
       </c>
       <c r="D47" s="6">
-        <v>78100</v>
+        <v>1028300</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>28.81</v>
+        <v>1.35</v>
       </c>
       <c r="G47" s="7">
-        <v>30.821</v>
+        <v>1.486</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>2250061</v>
+        <v>1388205</v>
       </c>
       <c r="J47" s="7">
-        <v>-157085.52</v>
+        <v>-140050.74</v>
       </c>
       <c r="K47" s="7">
-        <v>-42174</v>
+        <v>20566</v>
       </c>
       <c r="L47" s="8">
-        <v>-6.52</v>
+        <v>-9.15</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>24</v>
@@ -2838,179 +2847,179 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="6">
-        <v>603387</v>
-      </c>
-      <c r="C48" s="6">
-        <v>13200</v>
-      </c>
-      <c r="D48" s="6">
-        <v>13200</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>40.63</v>
-      </c>
-      <c r="G48" s="7">
-        <v>41.043</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>536316</v>
-      </c>
-      <c r="J48" s="7">
-        <v>-5447.09</v>
-      </c>
-      <c r="K48" s="7">
-        <v>-4884</v>
-      </c>
-      <c r="L48" s="8">
-        <v>-1.01</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>23</v>
+      <c r="B48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="10">
+        <v>76300</v>
+      </c>
+      <c r="D48" s="10">
+        <v>76300</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>13.82</v>
+      </c>
+      <c r="G48" s="11">
+        <v>13.151</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1054466</v>
+      </c>
+      <c r="J48" s="11">
+        <v>51013.39</v>
+      </c>
+      <c r="K48" s="11">
+        <v>-9919</v>
+      </c>
+      <c r="L48" s="9">
+        <v>5.09</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="10">
-        <v>18000</v>
-      </c>
-      <c r="D49" s="10">
-        <v>18000</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>105.23</v>
-      </c>
-      <c r="G49" s="11">
-        <v>102.032</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1894140</v>
-      </c>
-      <c r="J49" s="11">
-        <v>57555.49</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-21060</v>
-      </c>
-      <c r="L49" s="9">
-        <v>3.13</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="9" t="s">
+      <c r="B49" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="13">
+        <v>566</v>
+      </c>
+      <c r="D49" s="13">
+        <v>566</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>100</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <v>0</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="10">
-        <v>603317</v>
+        <v>300285</v>
       </c>
       <c r="C50" s="10">
-        <v>29000</v>
+        <v>54100</v>
       </c>
       <c r="D50" s="10">
-        <v>29000</v>
+        <v>54100</v>
       </c>
       <c r="E50" s="10">
         <v>0</v>
       </c>
       <c r="F50" s="11">
-        <v>58.1</v>
+        <v>35.88</v>
       </c>
       <c r="G50" s="11">
-        <v>56.567</v>
+        <v>35.078</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>1684900</v>
+        <v>1941108</v>
       </c>
       <c r="J50" s="11">
-        <v>44462.16</v>
+        <v>43387.39</v>
       </c>
       <c r="K50" s="11">
-        <v>-54810</v>
+        <v>3787</v>
       </c>
       <c r="L50" s="9">
-        <v>2.71</v>
+        <v>2.29</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="B51" s="6">
+        <v>603826</v>
+      </c>
       <c r="C51" s="6">
-        <v>18600</v>
+        <v>78400</v>
       </c>
       <c r="D51" s="6">
-        <v>18600</v>
+        <v>78100</v>
       </c>
       <c r="E51" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F51" s="7">
-        <v>56.8</v>
+        <v>29.05</v>
       </c>
       <c r="G51" s="7">
-        <v>58.737</v>
+        <v>30.815</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>1056480</v>
+        <v>2277520</v>
       </c>
       <c r="J51" s="7">
-        <v>-36032.83</v>
+        <v>-138337.69</v>
       </c>
       <c r="K51" s="7">
-        <v>-2046</v>
+        <v>18747.83</v>
       </c>
       <c r="L51" s="8">
-        <v>-3.3</v>
+        <v>-5.73</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3018,37 +3027,37 @@
         <v>96</v>
       </c>
       <c r="B52" s="6">
-        <v>603788</v>
+        <v>603387</v>
       </c>
       <c r="C52" s="6">
-        <v>26300</v>
+        <v>13200</v>
       </c>
       <c r="D52" s="6">
-        <v>26300</v>
+        <v>13200</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>17.08</v>
+        <v>40.61</v>
       </c>
       <c r="G52" s="7">
-        <v>18.318</v>
+        <v>41.043</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>449204</v>
+        <v>536052</v>
       </c>
       <c r="J52" s="7">
-        <v>-32563.07</v>
+        <v>-5711.09</v>
       </c>
       <c r="K52" s="7">
-        <v>-13676</v>
+        <v>-264</v>
       </c>
       <c r="L52" s="8">
-        <v>-6.76</v>
+        <v>-1.05</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>24</v>
@@ -3061,38 +3070,38 @@
       <c r="A53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="10">
-        <v>300617</v>
+      <c r="B53" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="C53" s="10">
-        <v>40</v>
+        <v>18000</v>
       </c>
       <c r="D53" s="10">
-        <v>40</v>
+        <v>18000</v>
       </c>
       <c r="E53" s="10">
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>39.08</v>
+        <v>104.74</v>
       </c>
       <c r="G53" s="11">
-        <v>-142.39</v>
+        <v>102.032</v>
       </c>
       <c r="H53" s="11">
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>1563.2</v>
+        <v>1885320</v>
       </c>
       <c r="J53" s="11">
-        <v>7258.8</v>
+        <v>48735.49</v>
       </c>
       <c r="K53" s="11">
-        <v>-12623.75</v>
+        <v>-8820</v>
       </c>
       <c r="L53" s="9">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>26</v>
@@ -3103,40 +3112,40 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="10">
-        <v>600885</v>
+        <v>603317</v>
       </c>
       <c r="C54" s="10">
-        <v>40637</v>
+        <v>29000</v>
       </c>
       <c r="D54" s="10">
-        <v>40637</v>
+        <v>29000</v>
       </c>
       <c r="E54" s="10">
         <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>38.27</v>
+        <v>58.3</v>
       </c>
       <c r="G54" s="11">
-        <v>37.571</v>
+        <v>56.567</v>
       </c>
       <c r="H54" s="11">
         <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>1555177.99</v>
+        <v>1690700</v>
       </c>
       <c r="J54" s="11">
-        <v>28409.2</v>
+        <v>50262.16</v>
       </c>
       <c r="K54" s="11">
-        <v>21943.98</v>
+        <v>5800</v>
       </c>
       <c r="L54" s="9">
-        <v>1.86</v>
+        <v>3.06</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>24</v>
@@ -3147,40 +3156,40 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="6">
-        <v>23300</v>
+        <v>18600</v>
       </c>
       <c r="D55" s="6">
-        <v>23300</v>
+        <v>18600</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>7.38</v>
+        <v>57.64</v>
       </c>
       <c r="G55" s="7">
-        <v>7.555</v>
+        <v>58.737</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>171954</v>
+        <v>1072104</v>
       </c>
       <c r="J55" s="7">
-        <v>-4075.37</v>
+        <v>-20408.83</v>
       </c>
       <c r="K55" s="7">
-        <v>233</v>
+        <v>15624</v>
       </c>
       <c r="L55" s="8">
-        <v>-2.32</v>
+        <v>-1.87</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>26</v>
@@ -3190,349 +3199,349 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="10">
-        <v>300613</v>
-      </c>
-      <c r="C56" s="10">
-        <v>11100</v>
-      </c>
-      <c r="D56" s="10">
-        <v>11100</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>106.5</v>
-      </c>
-      <c r="G56" s="11">
-        <v>104.505</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>1182150</v>
-      </c>
-      <c r="J56" s="11">
-        <v>22143</v>
-      </c>
-      <c r="K56" s="11">
-        <v>-35520</v>
-      </c>
-      <c r="L56" s="9">
-        <v>1.91</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>25</v>
+      <c r="A56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="6">
+        <v>603788</v>
+      </c>
+      <c r="C56" s="6">
+        <v>26300</v>
+      </c>
+      <c r="D56" s="6">
+        <v>26300</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="G56" s="7">
+        <v>18.318</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>452360</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-29407.07</v>
+      </c>
+      <c r="K56" s="7">
+        <v>3156</v>
+      </c>
+      <c r="L56" s="8">
+        <v>-6.1</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="10">
+        <v>300617</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>41.8</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>7435.73</v>
+      </c>
+      <c r="K57" s="11">
+        <v>-6.16</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="10">
+        <v>600885</v>
+      </c>
+      <c r="C58" s="10">
+        <v>40637</v>
+      </c>
+      <c r="D58" s="10">
+        <v>40637</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="G58" s="11">
+        <v>37.571</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1710817.7</v>
+      </c>
+      <c r="J58" s="11">
+        <v>184048.91</v>
+      </c>
+      <c r="K58" s="11">
+        <v>155639.71</v>
+      </c>
+      <c r="L58" s="9">
+        <v>12.05</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="10">
+        <v>23300</v>
+      </c>
+      <c r="D59" s="10">
+        <v>23300</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>7.63</v>
+      </c>
+      <c r="G59" s="11">
+        <v>7.555</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>177779</v>
+      </c>
+      <c r="J59" s="11">
+        <v>1749.63</v>
+      </c>
+      <c r="K59" s="11">
+        <v>5825</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="10">
+        <v>300613</v>
+      </c>
+      <c r="C60" s="10">
+        <v>11100</v>
+      </c>
+      <c r="D60" s="10">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>117.1</v>
+      </c>
+      <c r="G60" s="11">
+        <v>104.505</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1299810</v>
+      </c>
+      <c r="J60" s="11">
+        <v>139803</v>
+      </c>
+      <c r="K60" s="11">
+        <v>117660</v>
+      </c>
+      <c r="L60" s="9">
+        <v>12.05</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="10">
         <v>603730</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C61" s="10">
         <v>23342</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D61" s="10">
         <v>23342</v>
       </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>33</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>33.8</v>
+      </c>
+      <c r="G61" s="11">
         <v>32.989</v>
       </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>770286</v>
-      </c>
-      <c r="J57" s="11">
-        <v>257.82</v>
-      </c>
-      <c r="K57" s="11">
-        <v>-8169.7</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>788959.6</v>
+      </c>
+      <c r="J61" s="11">
+        <v>18931.42</v>
+      </c>
+      <c r="K61" s="11">
+        <v>18673.6</v>
+      </c>
+      <c r="L61" s="9">
+        <v>2.46</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="6">
+    <row r="62" spans="1:14">
+      <c r="A62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="6">
         <v>601138</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C62" s="6">
         <v>113700</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D62" s="6">
         <v>113700</v>
       </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>14.29</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>14.59</v>
+      </c>
+      <c r="G62" s="7">
         <v>16.051</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1624773</v>
-      </c>
-      <c r="J58" s="7">
-        <v>-200176.14</v>
-      </c>
-      <c r="K58" s="7">
-        <v>-25014</v>
-      </c>
-      <c r="L58" s="8">
-        <v>-10.97</v>
-      </c>
-      <c r="M58" s="8" t="s">
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1658883</v>
+      </c>
+      <c r="J62" s="7">
+        <v>-166066.14</v>
+      </c>
+      <c r="K62" s="7">
+        <v>34110</v>
+      </c>
+      <c r="L62" s="8">
+        <v>-9.1</v>
+      </c>
+      <c r="M62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="N62" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="6">
-        <v>300255</v>
-      </c>
-      <c r="C59" s="6">
-        <v>193900</v>
-      </c>
-      <c r="D59" s="6">
-        <v>193900</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>6.31</v>
-      </c>
-      <c r="G59" s="7">
-        <v>6.546</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>1223509</v>
-      </c>
-      <c r="J59" s="7">
-        <v>-45768.75</v>
-      </c>
-      <c r="K59" s="7">
-        <v>17451</v>
-      </c>
-      <c r="L59" s="8">
-        <v>-3.61</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="6">
-        <v>603599</v>
-      </c>
-      <c r="C60" s="6">
-        <v>51900</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="6">
-        <v>51900</v>
-      </c>
-      <c r="F60" s="7">
-        <v>18.1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>18.125</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>939390</v>
-      </c>
-      <c r="J60" s="7">
-        <v>-1323.29</v>
-      </c>
-      <c r="K60" s="7">
-        <v>-1323.29</v>
-      </c>
-      <c r="L60" s="8">
-        <v>-0.14</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="6">
-        <v>603303</v>
-      </c>
-      <c r="C61" s="6">
-        <v>13900</v>
-      </c>
-      <c r="D61" s="6">
-        <v>13900</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>10.69</v>
-      </c>
-      <c r="G61" s="7">
-        <v>11.277</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>148591</v>
-      </c>
-      <c r="J61" s="7">
-        <v>-8152.69</v>
-      </c>
-      <c r="K61" s="7">
-        <v>139</v>
-      </c>
-      <c r="L61" s="8">
-        <v>-5.21</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="10">
-        <v>300769</v>
-      </c>
-      <c r="C62" s="10">
-        <v>6200</v>
-      </c>
-      <c r="D62" s="10">
-        <v>6200</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11">
-        <v>98.05</v>
-      </c>
-      <c r="G62" s="11">
-        <v>95.707</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>607910</v>
-      </c>
-      <c r="J62" s="11">
-        <v>14524.78</v>
-      </c>
-      <c r="K62" s="11">
-        <v>-8494</v>
-      </c>
-      <c r="L62" s="9">
-        <v>2.45</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B63" s="6">
-        <v>300078</v>
+        <v>300255</v>
       </c>
       <c r="C63" s="6">
-        <v>45700</v>
+        <v>193900</v>
       </c>
       <c r="D63" s="6">
-        <v>45700</v>
+        <v>193900</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>12.89</v>
+        <v>6.47</v>
       </c>
       <c r="G63" s="7">
-        <v>17.946</v>
+        <v>6.546</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>589073</v>
+        <v>1254533</v>
       </c>
       <c r="J63" s="7">
-        <v>-231042.04</v>
+        <v>-14744.75</v>
       </c>
       <c r="K63" s="7">
-        <v>-5941</v>
+        <v>31024</v>
       </c>
       <c r="L63" s="8">
-        <v>-28.17</v>
+        <v>-1.16</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3543,40 +3552,40 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="6">
-        <v>603508</v>
+        <v>603599</v>
       </c>
       <c r="C64" s="6">
-        <v>17600</v>
+        <v>51900</v>
       </c>
       <c r="D64" s="6">
-        <v>17600</v>
+        <v>51900</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>34.15</v>
+        <v>17.9</v>
       </c>
       <c r="G64" s="7">
-        <v>36.764</v>
+        <v>18.12</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>601040</v>
+        <v>929010</v>
       </c>
       <c r="J64" s="7">
-        <v>-46005.8</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>15</v>
+        <v>-11427.95</v>
+      </c>
+      <c r="K64" s="7">
+        <v>-10380</v>
       </c>
       <c r="L64" s="8">
-        <v>-7.11</v>
+        <v>-1.21</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>24</v>
@@ -3586,129 +3595,129 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="10">
-        <v>600570</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <v>107.11</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11">
-        <v>36083.55</v>
-      </c>
-      <c r="K65" s="11">
-        <v>-13925.85</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9" t="s">
+      <c r="A65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="6">
+        <v>603303</v>
+      </c>
+      <c r="C65" s="6">
+        <v>13900</v>
+      </c>
+      <c r="D65" s="6">
+        <v>13900</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>10.91</v>
+      </c>
+      <c r="G65" s="7">
+        <v>11.277</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>151649</v>
+      </c>
+      <c r="J65" s="7">
+        <v>-5094.69</v>
+      </c>
+      <c r="K65" s="7">
+        <v>3058</v>
+      </c>
+      <c r="L65" s="8">
+        <v>-3.25</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="6">
-        <v>600805</v>
-      </c>
-      <c r="C66" s="6">
-        <v>153280</v>
-      </c>
-      <c r="D66" s="6">
-        <v>153280</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
-        <v>4.34</v>
-      </c>
-      <c r="G66" s="7">
-        <v>4.573</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>665235.2</v>
-      </c>
-      <c r="J66" s="7">
-        <v>-35723.75</v>
-      </c>
-      <c r="K66" s="7">
-        <v>-4598.4</v>
-      </c>
-      <c r="L66" s="8">
-        <v>-5.1</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>23</v>
+      <c r="A66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="10">
+        <v>300769</v>
+      </c>
+      <c r="C66" s="10">
+        <v>6200</v>
+      </c>
+      <c r="D66" s="10">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>97.3</v>
+      </c>
+      <c r="G66" s="11">
+        <v>95.707</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>603260</v>
+      </c>
+      <c r="J66" s="11">
+        <v>9874.78</v>
+      </c>
+      <c r="K66" s="11">
+        <v>-4650</v>
+      </c>
+      <c r="L66" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="6">
-        <v>300229</v>
+        <v>300078</v>
       </c>
       <c r="C67" s="6">
-        <v>109500</v>
+        <v>45700</v>
       </c>
       <c r="D67" s="6">
-        <v>109500</v>
+        <v>45700</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>11.44</v>
+        <v>12.99</v>
       </c>
       <c r="G67" s="7">
-        <v>12.503</v>
+        <v>17.946</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>1252680</v>
+        <v>593643</v>
       </c>
       <c r="J67" s="7">
-        <v>-116420.4</v>
+        <v>-226472.04</v>
       </c>
       <c r="K67" s="7">
-        <v>-15330</v>
+        <v>4570</v>
       </c>
       <c r="L67" s="8">
-        <v>-8.5</v>
+        <v>-27.62</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>26</v>
@@ -3718,129 +3727,129 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="10">
-        <v>300724</v>
-      </c>
-      <c r="C68" s="10">
-        <v>25600</v>
-      </c>
-      <c r="D68" s="10">
-        <v>25600</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>96.31</v>
-      </c>
-      <c r="G68" s="11">
-        <v>93.022</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>2465536</v>
-      </c>
-      <c r="J68" s="11">
-        <v>84162.87</v>
-      </c>
-      <c r="K68" s="11">
-        <v>39168</v>
-      </c>
-      <c r="L68" s="9">
-        <v>3.53</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>25</v>
+      <c r="A68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="6">
+        <v>603508</v>
+      </c>
+      <c r="C68" s="6">
+        <v>17600</v>
+      </c>
+      <c r="D68" s="6">
+        <v>17600</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>34.35</v>
+      </c>
+      <c r="G68" s="7">
+        <v>36.764</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>604560</v>
+      </c>
+      <c r="J68" s="7">
+        <v>-42485.8</v>
+      </c>
+      <c r="K68" s="7">
+        <v>3520</v>
+      </c>
+      <c r="L68" s="8">
+        <v>-6.57</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="10">
-        <v>603881</v>
-      </c>
-      <c r="C69" s="10">
-        <v>0</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>91.39</v>
-      </c>
-      <c r="G69" s="11">
-        <v>0</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>0</v>
-      </c>
-      <c r="J69" s="11">
-        <v>95215.42</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-29614.56</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="A69" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="6">
+        <v>600805</v>
+      </c>
+      <c r="C69" s="6">
+        <v>153280</v>
+      </c>
+      <c r="D69" s="6">
+        <v>153280</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>4.36</v>
+      </c>
+      <c r="G69" s="7">
+        <v>4.573</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>668300.8</v>
+      </c>
+      <c r="J69" s="7">
+        <v>-32658.15</v>
+      </c>
+      <c r="K69" s="7">
+        <v>3065.6</v>
+      </c>
+      <c r="L69" s="8">
+        <v>-4.66</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="6">
-        <v>300079</v>
+        <v>300229</v>
       </c>
       <c r="C70" s="6">
-        <v>61900</v>
+        <v>109500</v>
       </c>
       <c r="D70" s="6">
-        <v>61900</v>
+        <v>109500</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>5.02</v>
+        <v>11.55</v>
       </c>
       <c r="G70" s="7">
-        <v>6.772</v>
+        <v>12.503</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>310738</v>
+        <v>1264725</v>
       </c>
       <c r="J70" s="7">
-        <v>-108418.19</v>
+        <v>-104375.4</v>
       </c>
       <c r="K70" s="7">
-        <v>-14668.45</v>
+        <v>12045</v>
       </c>
       <c r="L70" s="8">
-        <v>-25.87</v>
+        <v>-7.62</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3850,85 +3859,85 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="6">
-        <v>126000</v>
-      </c>
-      <c r="D71" s="6">
-        <v>126000</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>10.26</v>
-      </c>
-      <c r="G71" s="7">
-        <v>11.205</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>1292760</v>
-      </c>
-      <c r="J71" s="7">
-        <v>-119110.13</v>
-      </c>
-      <c r="K71" s="7">
-        <v>-13860</v>
-      </c>
-      <c r="L71" s="8">
-        <v>-8.43</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" s="8" t="s">
+      <c r="A71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="10">
+        <v>300724</v>
+      </c>
+      <c r="C71" s="10">
+        <v>25600</v>
+      </c>
+      <c r="D71" s="10">
+        <v>25600</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>96.59</v>
+      </c>
+      <c r="G71" s="11">
+        <v>93.022</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>2472704</v>
+      </c>
+      <c r="J71" s="11">
+        <v>91330.87</v>
+      </c>
+      <c r="K71" s="11">
+        <v>7168</v>
+      </c>
+      <c r="L71" s="9">
+        <v>3.84</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B72" s="6">
-        <v>300259</v>
+        <v>300079</v>
       </c>
       <c r="C72" s="6">
-        <v>75300</v>
+        <v>61900</v>
       </c>
       <c r="D72" s="6">
-        <v>75300</v>
+        <v>61900</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>4.99</v>
+        <v>5.06</v>
       </c>
       <c r="G72" s="7">
-        <v>5.639</v>
+        <v>6.77</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>375747</v>
+        <v>313214</v>
       </c>
       <c r="J72" s="7">
-        <v>-48898.61</v>
+        <v>-105830.75</v>
       </c>
       <c r="K72" s="7">
-        <v>-7530</v>
+        <v>2476</v>
       </c>
       <c r="L72" s="8">
-        <v>-11.51</v>
+        <v>-25.26</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3938,85 +3947,85 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="10">
-        <v>300037</v>
-      </c>
-      <c r="C73" s="10">
-        <v>21900</v>
-      </c>
-      <c r="D73" s="10">
-        <v>21900</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <v>56.02</v>
-      </c>
-      <c r="G73" s="11">
-        <v>55.82</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>1226838</v>
-      </c>
-      <c r="J73" s="11">
-        <v>4378.66</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-13578</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="9" t="s">
+      <c r="A73" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="6">
+        <v>126000</v>
+      </c>
+      <c r="D73" s="6">
+        <v>126000</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>10.42</v>
+      </c>
+      <c r="G73" s="7">
+        <v>11.205</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1312920</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-98950.13</v>
+      </c>
+      <c r="K73" s="7">
+        <v>20160</v>
+      </c>
+      <c r="L73" s="8">
+        <v>-7.01</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="6">
-        <v>300212</v>
+        <v>300259</v>
       </c>
       <c r="C74" s="6">
-        <v>45044</v>
+        <v>75300</v>
       </c>
       <c r="D74" s="6">
-        <v>45044</v>
+        <v>75300</v>
       </c>
       <c r="E74" s="6">
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>50.1</v>
+        <v>4.99</v>
       </c>
       <c r="G74" s="7">
-        <v>52.469</v>
+        <v>5.639</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>2256704.4</v>
+        <v>375747</v>
       </c>
       <c r="J74" s="7">
-        <v>-106717.96</v>
-      </c>
-      <c r="K74" s="7">
-        <v>-40539.6</v>
+        <v>-48898.61</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L74" s="8">
-        <v>-4.52</v>
+        <v>-11.51</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>26</v>
@@ -4027,260 +4036,260 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="10">
-        <v>603127</v>
+        <v>300037</v>
       </c>
       <c r="C75" s="10">
-        <v>500</v>
+        <v>21900</v>
       </c>
       <c r="D75" s="10">
-        <v>500</v>
+        <v>21900</v>
       </c>
       <c r="E75" s="10">
         <v>0</v>
       </c>
       <c r="F75" s="11">
-        <v>98.32</v>
+        <v>57.12</v>
       </c>
       <c r="G75" s="11">
-        <v>-278.343</v>
+        <v>55.82</v>
       </c>
       <c r="H75" s="11">
         <v>0</v>
       </c>
       <c r="I75" s="11">
-        <v>49160</v>
+        <v>1250928</v>
       </c>
       <c r="J75" s="11">
-        <v>188331.71</v>
+        <v>28468.66</v>
       </c>
       <c r="K75" s="11">
-        <v>-500</v>
+        <v>24090</v>
       </c>
       <c r="L75" s="9">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="6">
+        <v>300212</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45044</v>
+      </c>
+      <c r="D76" s="6">
+        <v>45044</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>50.1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>52.469</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2256704.4</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-106717.96</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="8">
+        <v>-4.52</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="10">
+        <v>603127</v>
+      </c>
+      <c r="C77" s="10">
+        <v>500</v>
+      </c>
+      <c r="D77" s="10">
+        <v>500</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>97.61</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-278.343</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>48805</v>
+      </c>
+      <c r="J77" s="11">
+        <v>187976.71</v>
+      </c>
+      <c r="K77" s="11">
+        <v>-355</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="6">
         <v>300630</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C78" s="6">
         <v>25000</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D78" s="6">
         <v>25000</v>
       </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>44.88</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="G78" s="7">
         <v>45.589</v>
       </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>1122000</v>
-      </c>
-      <c r="J76" s="7">
-        <v>-17717.61</v>
-      </c>
-      <c r="K76" s="7">
-        <v>-19250</v>
-      </c>
-      <c r="L76" s="8">
-        <v>-1.56</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="6">
-        <v>603228</v>
-      </c>
-      <c r="C77" s="6">
-        <v>62100</v>
-      </c>
-      <c r="D77" s="6">
-        <v>62100</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>35.8</v>
-      </c>
-      <c r="G77" s="7">
-        <v>38.676</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>2223180</v>
-      </c>
-      <c r="J77" s="7">
-        <v>-178576.29</v>
-      </c>
-      <c r="K77" s="7">
-        <v>39123</v>
-      </c>
-      <c r="L77" s="8">
-        <v>-7.44</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="10">
-        <v>300316</v>
-      </c>
-      <c r="C78" s="10">
-        <v>75900</v>
-      </c>
-      <c r="D78" s="10">
-        <v>75900</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11">
-        <v>24.55</v>
-      </c>
-      <c r="G78" s="11">
-        <v>23.983</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>1863345</v>
-      </c>
-      <c r="J78" s="11">
-        <v>43019.03</v>
-      </c>
-      <c r="K78" s="11">
-        <v>-41745</v>
-      </c>
-      <c r="L78" s="9">
-        <v>2.36</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" s="9" t="s">
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>1112500</v>
+      </c>
+      <c r="J78" s="7">
+        <v>-27217.61</v>
+      </c>
+      <c r="K78" s="7">
+        <v>-9500</v>
+      </c>
+      <c r="L78" s="8">
+        <v>-2.39</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="6">
-        <v>300771</v>
+        <v>603228</v>
       </c>
       <c r="C79" s="6">
-        <v>7820</v>
+        <v>62100</v>
       </c>
       <c r="D79" s="6">
-        <v>7820</v>
+        <v>62100</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>37.9</v>
+        <v>35.72</v>
       </c>
       <c r="G79" s="7">
-        <v>40.651</v>
+        <v>38.676</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>296378</v>
+        <v>2218212</v>
       </c>
       <c r="J79" s="7">
-        <v>-21513.68</v>
+        <v>-183544.29</v>
       </c>
       <c r="K79" s="7">
-        <v>-3675.4</v>
+        <v>-4968</v>
       </c>
       <c r="L79" s="8">
-        <v>-6.77</v>
+        <v>-7.64</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B80" s="10">
+        <v>300316</v>
       </c>
       <c r="C80" s="10">
-        <v>28080</v>
+        <v>75900</v>
       </c>
       <c r="D80" s="10">
-        <v>28080</v>
+        <v>75900</v>
       </c>
       <c r="E80" s="10">
         <v>0</v>
       </c>
       <c r="F80" s="11">
-        <v>8.74</v>
+        <v>24.83</v>
       </c>
       <c r="G80" s="11">
-        <v>7.736</v>
+        <v>23.983</v>
       </c>
       <c r="H80" s="11">
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <v>245419.2</v>
+        <v>1884597</v>
       </c>
       <c r="J80" s="11">
-        <v>28182.77</v>
+        <v>64271.03</v>
       </c>
       <c r="K80" s="11">
-        <v>1965.6</v>
+        <v>21252</v>
       </c>
       <c r="L80" s="9">
-        <v>12.98</v>
+        <v>3.53</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>26</v>
@@ -4290,349 +4299,349 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="10">
-        <v>603337</v>
-      </c>
-      <c r="C81" s="10">
-        <v>8200</v>
-      </c>
-      <c r="D81" s="10">
-        <v>8200</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>20.15</v>
-      </c>
-      <c r="G81" s="11">
-        <v>19.188</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>165230</v>
-      </c>
-      <c r="J81" s="11">
-        <v>7887.02</v>
-      </c>
-      <c r="K81" s="11">
-        <v>-492</v>
-      </c>
-      <c r="L81" s="9">
-        <v>5.01</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>23</v>
+      <c r="A81" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="6">
+        <v>300771</v>
+      </c>
+      <c r="C81" s="6">
+        <v>7820</v>
+      </c>
+      <c r="D81" s="6">
+        <v>7820</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>38.49</v>
+      </c>
+      <c r="G81" s="7">
+        <v>40.651</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>300991.8</v>
+      </c>
+      <c r="J81" s="7">
+        <v>-16899.88</v>
+      </c>
+      <c r="K81" s="7">
+        <v>4613.8</v>
+      </c>
+      <c r="L81" s="8">
+        <v>-5.32</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="10">
-        <v>603365</v>
+        <v>130</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C82" s="10">
-        <v>6500</v>
+        <v>28080</v>
       </c>
       <c r="D82" s="10">
-        <v>6500</v>
+        <v>28080</v>
       </c>
       <c r="E82" s="10">
         <v>0</v>
       </c>
       <c r="F82" s="11">
-        <v>15.67</v>
+        <v>9.05</v>
       </c>
       <c r="G82" s="11">
-        <v>15.664</v>
+        <v>7.736</v>
       </c>
       <c r="H82" s="11">
         <v>0</v>
       </c>
       <c r="I82" s="11">
-        <v>101855</v>
+        <v>254124</v>
       </c>
       <c r="J82" s="11">
-        <v>36.73</v>
+        <v>36887.57</v>
       </c>
       <c r="K82" s="11">
-        <v>-2015</v>
+        <v>8704.8</v>
       </c>
       <c r="L82" s="9">
-        <v>0.04</v>
+        <v>16.99</v>
       </c>
       <c r="M82" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="10">
+        <v>603337</v>
+      </c>
+      <c r="C83" s="10">
+        <v>8200</v>
+      </c>
+      <c r="D83" s="10">
+        <v>8200</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>20.07</v>
+      </c>
+      <c r="G83" s="11">
+        <v>19.188</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>164574</v>
+      </c>
+      <c r="J83" s="11">
+        <v>7231.02</v>
+      </c>
+      <c r="K83" s="11">
+        <v>-656</v>
+      </c>
+      <c r="L83" s="9">
+        <v>4.6</v>
+      </c>
+      <c r="M83" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N82" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="6">
-        <v>603160</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>207.4</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7">
-        <v>-52705.25</v>
-      </c>
-      <c r="K83" s="7">
-        <v>-14740.91</v>
-      </c>
-      <c r="L83" s="8">
-        <v>0</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="8" t="s">
+      <c r="N83" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B84" s="6">
+        <v>603365</v>
       </c>
       <c r="C84" s="6">
+        <v>6500</v>
+      </c>
+      <c r="D84" s="6">
+        <v>6500</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>15.62</v>
+      </c>
+      <c r="G84" s="7">
+        <v>15.664</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>101530</v>
+      </c>
+      <c r="J84" s="7">
+        <v>-288.27</v>
+      </c>
+      <c r="K84" s="7">
+        <v>-325</v>
+      </c>
+      <c r="L84" s="8">
+        <v>-0.28</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="10">
         <v>72300</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="10">
         <v>72300</v>
       </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <v>9.74</v>
-      </c>
-      <c r="G84" s="7">
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>10.01</v>
+      </c>
+      <c r="G85" s="11">
         <v>9.802</v>
       </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>704202</v>
-      </c>
-      <c r="J84" s="7">
-        <v>-4461.28</v>
-      </c>
-      <c r="K84" s="7">
-        <v>2892</v>
-      </c>
-      <c r="L84" s="8">
-        <v>-0.63</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="6">
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>723723</v>
+      </c>
+      <c r="J85" s="11">
+        <v>15059.72</v>
+      </c>
+      <c r="K85" s="11">
+        <v>19521</v>
+      </c>
+      <c r="L85" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="10">
         <v>30700</v>
       </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
+      <c r="D86" s="10">
         <v>30700</v>
       </c>
-      <c r="F85" s="7">
-        <v>6.64</v>
-      </c>
-      <c r="G85" s="7">
-        <v>6.684</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>203848</v>
-      </c>
-      <c r="J85" s="7">
-        <v>-1364.28</v>
-      </c>
-      <c r="K85" s="7">
-        <v>-1364.28</v>
-      </c>
-      <c r="L85" s="8">
-        <v>-0.66</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" s="6">
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>6.68</v>
+      </c>
+      <c r="G86" s="11">
+        <v>6.679</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>205076</v>
+      </c>
+      <c r="J86" s="11">
+        <v>32.99</v>
+      </c>
+      <c r="K86" s="11">
+        <v>1228</v>
+      </c>
+      <c r="L86" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="10">
         <v>600563</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C87" s="10">
         <v>28600</v>
       </c>
-      <c r="D86" s="6">
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
+      <c r="D87" s="10">
         <v>28600</v>
       </c>
-      <c r="F86" s="7">
-        <v>58.93</v>
-      </c>
-      <c r="G86" s="7">
-        <v>59.101</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>1685398</v>
-      </c>
-      <c r="J86" s="7">
-        <v>-4890.55</v>
-      </c>
-      <c r="K86" s="7">
-        <v>-4890.55</v>
-      </c>
-      <c r="L86" s="8">
-        <v>-0.29</v>
-      </c>
-      <c r="M86" s="8" t="s">
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>60.41</v>
+      </c>
+      <c r="G87" s="11">
+        <v>59.089</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>1727726</v>
+      </c>
+      <c r="J87" s="11">
+        <v>37793.54</v>
+      </c>
+      <c r="K87" s="11">
+        <v>42328</v>
+      </c>
+      <c r="L87" s="9">
+        <v>2.24</v>
+      </c>
+      <c r="M87" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N86" s="8" t="s">
+      <c r="N87" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="6">
-        <v>300232</v>
-      </c>
-      <c r="C87" s="6">
-        <v>188221</v>
-      </c>
-      <c r="D87" s="6">
-        <v>188221</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>8.41</v>
-      </c>
-      <c r="G87" s="7">
-        <v>9.453</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>1582938.61</v>
-      </c>
-      <c r="J87" s="7">
-        <v>-196309.86</v>
-      </c>
-      <c r="K87" s="7">
-        <v>1882.21</v>
-      </c>
-      <c r="L87" s="8">
-        <v>-11.03</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B88" s="6">
+        <v>300232</v>
       </c>
       <c r="C88" s="6">
-        <v>37100</v>
+        <v>188221</v>
       </c>
       <c r="D88" s="6">
-        <v>37100</v>
+        <v>188221</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>10.89</v>
+        <v>8.98</v>
       </c>
       <c r="G88" s="7">
-        <v>12.155</v>
+        <v>9.453</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>404019</v>
+        <v>1690224.58</v>
       </c>
       <c r="J88" s="7">
-        <v>-46923.74</v>
+        <v>-89023.89</v>
       </c>
       <c r="K88" s="7">
-        <v>-7049</v>
+        <v>107285.97</v>
       </c>
       <c r="L88" s="8">
-        <v>-10.41</v>
+        <v>-5</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>26</v>
@@ -4643,216 +4652,216 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="6">
+        <v>140</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="6">
+        <v>37100</v>
+      </c>
+      <c r="D89" s="6">
+        <v>37100</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>10.98</v>
+      </c>
+      <c r="G89" s="7">
+        <v>12.155</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>407358</v>
+      </c>
+      <c r="J89" s="7">
+        <v>-43584.74</v>
+      </c>
+      <c r="K89" s="7">
+        <v>3339</v>
+      </c>
+      <c r="L89" s="8">
+        <v>-9.67</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="6">
         <v>603556</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C90" s="6">
+        <v>93500</v>
+      </c>
+      <c r="D90" s="6">
         <v>88700</v>
       </c>
-      <c r="D89" s="6">
-        <v>88700</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0</v>
-      </c>
-      <c r="F89" s="7">
-        <v>14.72</v>
-      </c>
-      <c r="G89" s="7">
-        <v>15.27</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>1305664</v>
-      </c>
-      <c r="J89" s="7">
-        <v>-48756.22</v>
-      </c>
-      <c r="K89" s="7">
-        <v>1774</v>
-      </c>
-      <c r="L89" s="8">
-        <v>-3.6</v>
-      </c>
-      <c r="M89" s="8" t="s">
+      <c r="E90" s="6">
+        <v>4800</v>
+      </c>
+      <c r="F90" s="7">
+        <v>15.03</v>
+      </c>
+      <c r="G90" s="7">
+        <v>15.248</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>1405305</v>
+      </c>
+      <c r="J90" s="7">
+        <v>-20363.65</v>
+      </c>
+      <c r="K90" s="7">
+        <v>28392.57</v>
+      </c>
+      <c r="L90" s="8">
+        <v>-1.43</v>
+      </c>
+      <c r="M90" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N89" s="8" t="s">
+      <c r="N90" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="10">
+    <row r="91" spans="1:14">
+      <c r="A91" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="10">
         <v>15000</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>15000</v>
       </c>
-      <c r="E90" s="10">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>152.61</v>
-      </c>
-      <c r="G90" s="11">
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>154.14</v>
+      </c>
+      <c r="G91" s="11">
         <v>149.36</v>
       </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>2289150</v>
-      </c>
-      <c r="J90" s="11">
-        <v>48745</v>
-      </c>
-      <c r="K90" s="11">
-        <v>-16800</v>
-      </c>
-      <c r="L90" s="9">
-        <v>2.18</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="6">
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>2312100</v>
+      </c>
+      <c r="J91" s="11">
+        <v>71695</v>
+      </c>
+      <c r="K91" s="11">
+        <v>22950</v>
+      </c>
+      <c r="L91" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="10">
         <v>12400</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="10">
         <v>12400</v>
       </c>
-      <c r="E91" s="6">
-        <v>0</v>
-      </c>
-      <c r="F91" s="7">
-        <v>27.18</v>
-      </c>
-      <c r="G91" s="7">
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>27.91</v>
+      </c>
+      <c r="G92" s="11">
         <v>27.663</v>
       </c>
-      <c r="H91" s="7">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7">
-        <v>337032</v>
-      </c>
-      <c r="J91" s="7">
-        <v>-5993.42</v>
-      </c>
-      <c r="K91" s="7">
-        <v>372</v>
-      </c>
-      <c r="L91" s="8">
-        <v>-1.75</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="6">
-        <v>600933</v>
-      </c>
-      <c r="C92" s="6">
-        <v>23400</v>
-      </c>
-      <c r="D92" s="6">
-        <v>23400</v>
-      </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
-      <c r="F92" s="7">
-        <v>13</v>
-      </c>
-      <c r="G92" s="7">
-        <v>13.165</v>
-      </c>
-      <c r="H92" s="7">
-        <v>0</v>
-      </c>
-      <c r="I92" s="7">
-        <v>304200</v>
-      </c>
-      <c r="J92" s="7">
-        <v>-3850.6</v>
-      </c>
-      <c r="K92" s="7">
-        <v>936</v>
-      </c>
-      <c r="L92" s="8">
-        <v>-1.25</v>
-      </c>
-      <c r="M92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="8" t="s">
-        <v>23</v>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>346084</v>
+      </c>
+      <c r="J92" s="11">
+        <v>3058.58</v>
+      </c>
+      <c r="K92" s="11">
+        <v>9052</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="6">
-        <v>601231</v>
+        <v>600933</v>
       </c>
       <c r="C93" s="6">
-        <v>77100</v>
+        <v>23400</v>
       </c>
       <c r="D93" s="6">
-        <v>77100</v>
+        <v>23400</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
       <c r="F93" s="7">
-        <v>22.01</v>
+        <v>13.13</v>
       </c>
       <c r="G93" s="7">
-        <v>24.159</v>
+        <v>13.165</v>
       </c>
       <c r="H93" s="7">
         <v>0</v>
       </c>
       <c r="I93" s="7">
-        <v>1696971</v>
+        <v>307242</v>
       </c>
       <c r="J93" s="7">
-        <v>-165714.58</v>
+        <v>-808.6</v>
       </c>
       <c r="K93" s="7">
-        <v>32382</v>
+        <v>3042</v>
       </c>
       <c r="L93" s="8">
-        <v>-8.9</v>
+        <v>-0.27</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>24</v>
@@ -4863,128 +4872,128 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="B94" s="10">
+        <v>601231</v>
       </c>
       <c r="C94" s="10">
-        <v>64300</v>
+        <v>77100</v>
       </c>
       <c r="D94" s="10">
-        <v>20900</v>
+        <v>77100</v>
       </c>
       <c r="E94" s="10">
-        <v>43400</v>
+        <v>0</v>
       </c>
       <c r="F94" s="11">
-        <v>15</v>
+        <v>24.21</v>
       </c>
       <c r="G94" s="11">
-        <v>14.357</v>
+        <v>24.159</v>
       </c>
       <c r="H94" s="11">
         <v>0</v>
       </c>
       <c r="I94" s="11">
-        <v>964500</v>
+        <v>1866591</v>
       </c>
       <c r="J94" s="11">
-        <v>41351.73</v>
+        <v>3905.42</v>
       </c>
       <c r="K94" s="11">
-        <v>35392.01</v>
+        <v>169620</v>
       </c>
       <c r="L94" s="9">
-        <v>4.48</v>
+        <v>0.21</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="6">
-        <v>603659</v>
-      </c>
-      <c r="C95" s="6">
-        <v>22700</v>
-      </c>
-      <c r="D95" s="6">
-        <v>22700</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7">
-        <v>101.66</v>
-      </c>
-      <c r="G95" s="7">
-        <v>106.007</v>
-      </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
-      <c r="I95" s="7">
-        <v>2307682</v>
-      </c>
-      <c r="J95" s="7">
-        <v>-98686.07</v>
-      </c>
-      <c r="K95" s="7">
-        <v>-37455</v>
-      </c>
-      <c r="L95" s="8">
-        <v>-4.1</v>
-      </c>
-      <c r="M95" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="8" t="s">
-        <v>23</v>
+      <c r="A95" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="10">
+        <v>45600</v>
+      </c>
+      <c r="D95" s="10">
+        <v>45600</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>14.89</v>
+      </c>
+      <c r="G95" s="11">
+        <v>14.129</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>678984</v>
+      </c>
+      <c r="J95" s="11">
+        <v>34723.29</v>
+      </c>
+      <c r="K95" s="11">
+        <v>-6803.19</v>
+      </c>
+      <c r="L95" s="9">
+        <v>5.39</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B96" s="10">
-        <v>603823</v>
+        <v>603659</v>
       </c>
       <c r="C96" s="10">
-        <v>2600</v>
+        <v>22700</v>
       </c>
       <c r="D96" s="10">
-        <v>2600</v>
+        <v>22700</v>
       </c>
       <c r="E96" s="10">
         <v>0</v>
       </c>
       <c r="F96" s="11">
-        <v>18.2</v>
+        <v>106.39</v>
       </c>
       <c r="G96" s="11">
-        <v>17.633</v>
+        <v>106.007</v>
       </c>
       <c r="H96" s="11">
         <v>0</v>
       </c>
       <c r="I96" s="11">
-        <v>47320</v>
+        <v>2415053</v>
       </c>
       <c r="J96" s="11">
-        <v>1473.61</v>
+        <v>8684.93</v>
       </c>
       <c r="K96" s="11">
-        <v>-442</v>
+        <v>107371</v>
       </c>
       <c r="L96" s="9">
-        <v>3.22</v>
+        <v>0.36</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>24</v>
@@ -4995,40 +5004,40 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B97" s="6">
-        <v>603688</v>
+        <v>603823</v>
       </c>
       <c r="C97" s="6">
-        <v>93268</v>
+        <v>2600</v>
       </c>
       <c r="D97" s="6">
-        <v>93268</v>
+        <v>2600</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>23.27</v>
+        <v>17.37</v>
       </c>
       <c r="G97" s="7">
-        <v>24.147</v>
+        <v>17.633</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <v>2170346.36</v>
+        <v>45162</v>
       </c>
       <c r="J97" s="7">
-        <v>-81825.07</v>
+        <v>-684.39</v>
       </c>
       <c r="K97" s="7">
-        <v>-12124.84</v>
+        <v>-2158</v>
       </c>
       <c r="L97" s="8">
-        <v>-3.63</v>
+        <v>-1.49</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>24</v>
@@ -5039,40 +5048,40 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B98" s="6">
-        <v>603315</v>
+        <v>603688</v>
       </c>
       <c r="C98" s="6">
-        <v>15300</v>
+        <v>93268</v>
       </c>
       <c r="D98" s="6">
-        <v>15300</v>
+        <v>93268</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
       </c>
       <c r="F98" s="7">
-        <v>11.94</v>
+        <v>23.4</v>
       </c>
       <c r="G98" s="7">
-        <v>12.798</v>
+        <v>24.147</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
       </c>
       <c r="I98" s="7">
-        <v>182682</v>
+        <v>2182471.2</v>
       </c>
       <c r="J98" s="7">
-        <v>-13126.52</v>
+        <v>-69700.23</v>
       </c>
       <c r="K98" s="7">
-        <v>-3060</v>
+        <v>12124.84</v>
       </c>
       <c r="L98" s="8">
-        <v>-6.7</v>
+        <v>-3.09</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>24</v>
@@ -5082,437 +5091,437 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="13">
-        <v>5590000</v>
-      </c>
-      <c r="D99" s="13">
-        <v>5590000</v>
-      </c>
-      <c r="E99" s="13">
-        <v>0</v>
-      </c>
-      <c r="F99" s="14">
-        <v>0</v>
-      </c>
-      <c r="G99" s="14">
-        <v>0</v>
-      </c>
-      <c r="H99" s="14">
-        <v>0</v>
-      </c>
-      <c r="I99" s="14">
-        <v>0</v>
-      </c>
-      <c r="J99" s="14">
-        <v>0</v>
-      </c>
-      <c r="K99" s="14" t="s">
+      <c r="A99" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="6">
+        <v>603315</v>
+      </c>
+      <c r="C99" s="6">
+        <v>15300</v>
+      </c>
+      <c r="D99" s="6">
+        <v>15300</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>12.07</v>
+      </c>
+      <c r="G99" s="7">
+        <v>12.798</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>184671</v>
+      </c>
+      <c r="J99" s="7">
+        <v>-11137.52</v>
+      </c>
+      <c r="K99" s="7">
+        <v>1989</v>
+      </c>
+      <c r="L99" s="8">
+        <v>-5.69</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="13">
+        <v>5669000</v>
+      </c>
+      <c r="D100" s="13">
+        <v>5669000</v>
+      </c>
+      <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="14">
+        <v>0</v>
+      </c>
+      <c r="G100" s="14">
+        <v>0</v>
+      </c>
+      <c r="H100" s="14">
+        <v>0</v>
+      </c>
+      <c r="I100" s="14">
+        <v>0</v>
+      </c>
+      <c r="J100" s="14">
+        <v>0</v>
+      </c>
+      <c r="K100" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L99" s="12">
-        <v>0</v>
-      </c>
-      <c r="M99" s="12" t="s">
+      <c r="L100" s="12">
+        <v>0</v>
+      </c>
+      <c r="M100" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N99" s="12" t="s">
+      <c r="N100" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" s="10">
+    <row r="101" spans="1:14">
+      <c r="A101" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="10">
         <v>603486</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C101" s="10">
         <v>51500</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D101" s="10">
         <v>51500</v>
       </c>
-      <c r="E100" s="10">
-        <v>0</v>
-      </c>
-      <c r="F100" s="11">
-        <v>30.75</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="E101" s="10">
+        <v>0</v>
+      </c>
+      <c r="F101" s="11">
+        <v>31.6</v>
+      </c>
+      <c r="G101" s="11">
         <v>28.953</v>
       </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>1583625</v>
-      </c>
-      <c r="J100" s="11">
-        <v>92553.78</v>
-      </c>
-      <c r="K100" s="11">
-        <v>1545</v>
-      </c>
-      <c r="L100" s="9">
-        <v>6.21</v>
-      </c>
-      <c r="M100" s="9" t="s">
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11">
+        <v>1627400</v>
+      </c>
+      <c r="J101" s="11">
+        <v>136328.78</v>
+      </c>
+      <c r="K101" s="11">
+        <v>43775</v>
+      </c>
+      <c r="L101" s="9">
+        <v>9.14</v>
+      </c>
+      <c r="M101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="9" t="s">
+      <c r="N101" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" s="6">
-        <v>300590</v>
-      </c>
-      <c r="C101" s="6">
-        <v>2500</v>
-      </c>
-      <c r="D101" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>30.18</v>
-      </c>
-      <c r="G101" s="7">
-        <v>39.8</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7">
-        <v>75450</v>
-      </c>
-      <c r="J101" s="7">
-        <v>-24049.6</v>
-      </c>
-      <c r="K101" s="7">
-        <v>375</v>
-      </c>
-      <c r="L101" s="8">
-        <v>-24.17</v>
-      </c>
-      <c r="M101" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B102" s="6">
-        <v>603236</v>
+        <v>300590</v>
       </c>
       <c r="C102" s="6">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="D102" s="6">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="E102" s="6">
         <v>0</v>
       </c>
       <c r="F102" s="7">
-        <v>197.59</v>
+        <v>30.63</v>
       </c>
       <c r="G102" s="7">
-        <v>202.253</v>
+        <v>39.8</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <v>2272285</v>
+        <v>76575</v>
       </c>
       <c r="J102" s="7">
-        <v>-53628.42</v>
+        <v>-22924.6</v>
       </c>
       <c r="K102" s="7">
-        <v>-31395</v>
+        <v>1125</v>
       </c>
       <c r="L102" s="8">
-        <v>-2.31</v>
+        <v>-23.04</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B103" s="6">
-        <v>300709</v>
+        <v>603236</v>
       </c>
       <c r="C103" s="6">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="D103" s="6">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
       </c>
       <c r="F103" s="7">
-        <v>89.6</v>
+        <v>196.36</v>
       </c>
       <c r="G103" s="7">
-        <v>96.734</v>
+        <v>202.253</v>
       </c>
       <c r="H103" s="7">
         <v>0</v>
       </c>
       <c r="I103" s="7">
-        <v>1568000</v>
+        <v>2258140</v>
       </c>
       <c r="J103" s="7">
-        <v>-124838.33</v>
+        <v>-67773.42</v>
       </c>
       <c r="K103" s="7">
-        <v>-24500</v>
+        <v>-14145</v>
       </c>
       <c r="L103" s="8">
-        <v>-7.37</v>
+        <v>-2.91</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="B104" s="6">
+        <v>300709</v>
       </c>
       <c r="C104" s="6">
+        <v>17500</v>
+      </c>
+      <c r="D104" s="6">
+        <v>17500</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>95.51</v>
+      </c>
+      <c r="G104" s="7">
+        <v>96.734</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>1671425</v>
+      </c>
+      <c r="J104" s="7">
+        <v>-21413.33</v>
+      </c>
+      <c r="K104" s="7">
+        <v>103425</v>
+      </c>
+      <c r="L104" s="8">
+        <v>-1.27</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="6">
         <v>41800</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D105" s="6">
         <v>41800</v>
       </c>
-      <c r="E104" s="6">
-        <v>0</v>
-      </c>
-      <c r="F104" s="7">
-        <v>43.22</v>
-      </c>
-      <c r="G104" s="7">
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="G105" s="7">
         <v>48.508</v>
       </c>
-      <c r="H104" s="7">
-        <v>0</v>
-      </c>
-      <c r="I104" s="7">
-        <v>1806596</v>
-      </c>
-      <c r="J104" s="7">
-        <v>-221021.09</v>
-      </c>
-      <c r="K104" s="7">
-        <v>-19646</v>
-      </c>
-      <c r="L104" s="8">
-        <v>-10.9</v>
-      </c>
-      <c r="M104" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N104" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B105" s="10">
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>1830840</v>
+      </c>
+      <c r="J105" s="7">
+        <v>-196777.09</v>
+      </c>
+      <c r="K105" s="7">
+        <v>24244</v>
+      </c>
+      <c r="L105" s="8">
+        <v>-9.71</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="10">
         <v>603699</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C106" s="10">
         <v>77500</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D106" s="10">
         <v>77500</v>
       </c>
-      <c r="E105" s="10">
-        <v>0</v>
-      </c>
-      <c r="F105" s="11">
-        <v>16.98</v>
-      </c>
-      <c r="G105" s="11">
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>16.99</v>
+      </c>
+      <c r="G106" s="11">
         <v>16.289</v>
       </c>
-      <c r="H105" s="11">
-        <v>0</v>
-      </c>
-      <c r="I105" s="11">
-        <v>1315950</v>
-      </c>
-      <c r="J105" s="11">
-        <v>53554.65</v>
-      </c>
-      <c r="K105" s="11">
-        <v>-10075</v>
-      </c>
-      <c r="L105" s="9">
-        <v>4.24</v>
-      </c>
-      <c r="M105" s="9" t="s">
+      <c r="H106" s="11">
+        <v>0</v>
+      </c>
+      <c r="I106" s="11">
+        <v>1316725</v>
+      </c>
+      <c r="J106" s="11">
+        <v>54329.65</v>
+      </c>
+      <c r="K106" s="11">
+        <v>775</v>
+      </c>
+      <c r="L106" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="M106" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N105" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B106" s="6">
-        <v>601828</v>
-      </c>
-      <c r="C106" s="6">
-        <v>152300</v>
-      </c>
-      <c r="D106" s="6">
-        <v>152300</v>
-      </c>
-      <c r="E106" s="6">
-        <v>0</v>
-      </c>
-      <c r="F106" s="7">
-        <v>9.84</v>
-      </c>
-      <c r="G106" s="7">
-        <v>10.676</v>
-      </c>
-      <c r="H106" s="7">
-        <v>0</v>
-      </c>
-      <c r="I106" s="7">
-        <v>1498632</v>
-      </c>
-      <c r="J106" s="7">
-        <v>-127397.45</v>
-      </c>
-      <c r="K106" s="7">
-        <v>-10661</v>
-      </c>
-      <c r="L106" s="8">
-        <v>-7.83</v>
-      </c>
-      <c r="M106" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N106" s="8" t="s">
+      <c r="N106" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B107" s="6">
-        <v>300475</v>
+        <v>601828</v>
       </c>
       <c r="C107" s="6">
-        <v>22300</v>
+        <v>152300</v>
       </c>
       <c r="D107" s="6">
-        <v>22300</v>
+        <v>152300</v>
       </c>
       <c r="E107" s="6">
         <v>0</v>
       </c>
       <c r="F107" s="7">
-        <v>8.47</v>
+        <v>9.83</v>
       </c>
       <c r="G107" s="7">
-        <v>9.428</v>
+        <v>10.676</v>
       </c>
       <c r="H107" s="7">
         <v>0</v>
       </c>
       <c r="I107" s="7">
-        <v>188881</v>
+        <v>1497109</v>
       </c>
       <c r="J107" s="7">
-        <v>-21371.51</v>
+        <v>-128920.45</v>
       </c>
       <c r="K107" s="7">
-        <v>-2230</v>
+        <v>-1523</v>
       </c>
       <c r="L107" s="8">
-        <v>-10.16</v>
+        <v>-7.92</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B108" s="6">
-        <v>300476</v>
+        <v>300475</v>
       </c>
       <c r="C108" s="6">
-        <v>104800</v>
+        <v>22300</v>
       </c>
       <c r="D108" s="6">
-        <v>104800</v>
+        <v>22300</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
       </c>
       <c r="F108" s="7">
-        <v>22.48</v>
+        <v>8.53</v>
       </c>
       <c r="G108" s="7">
-        <v>24.971</v>
+        <v>9.428</v>
       </c>
       <c r="H108" s="7">
         <v>0</v>
       </c>
       <c r="I108" s="7">
-        <v>2355904</v>
+        <v>190219</v>
       </c>
       <c r="J108" s="7">
-        <v>-261023.46</v>
+        <v>-20033.51</v>
       </c>
       <c r="K108" s="7">
-        <v>-16768</v>
+        <v>1338</v>
       </c>
       <c r="L108" s="8">
-        <v>-9.98</v>
+        <v>-9.52</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>26</v>
@@ -5523,183 +5532,183 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B109" s="6">
+        <v>300476</v>
+      </c>
+      <c r="C109" s="6">
+        <v>104800</v>
+      </c>
+      <c r="D109" s="6">
+        <v>104800</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>23.05</v>
+      </c>
+      <c r="G109" s="7">
+        <v>24.971</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>2415640</v>
+      </c>
+      <c r="J109" s="7">
+        <v>-201287.46</v>
+      </c>
+      <c r="K109" s="7">
+        <v>59736</v>
+      </c>
+      <c r="L109" s="8">
+        <v>-7.69</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="10">
         <v>300725</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C110" s="10">
         <v>6900</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D110" s="10">
         <v>6900</v>
       </c>
-      <c r="E109" s="6">
-        <v>0</v>
-      </c>
-      <c r="F109" s="7">
-        <v>126</v>
-      </c>
-      <c r="G109" s="7">
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <v>127.85</v>
+      </c>
+      <c r="G110" s="11">
         <v>127.104</v>
       </c>
-      <c r="H109" s="7">
-        <v>0</v>
-      </c>
-      <c r="I109" s="7">
-        <v>869400</v>
-      </c>
-      <c r="J109" s="7">
-        <v>-7618.52</v>
-      </c>
-      <c r="K109" s="7">
-        <v>-7176</v>
-      </c>
-      <c r="L109" s="8">
-        <v>-0.87</v>
-      </c>
-      <c r="M109" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N109" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B110" s="6">
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>882165</v>
+      </c>
+      <c r="J110" s="11">
+        <v>5146.48</v>
+      </c>
+      <c r="K110" s="11">
+        <v>12765</v>
+      </c>
+      <c r="L110" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="6">
         <v>300487</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C111" s="6">
         <v>7300</v>
       </c>
-      <c r="D110" s="6">
-        <v>0</v>
-      </c>
-      <c r="E110" s="6">
+      <c r="D111" s="6">
         <v>7300</v>
       </c>
-      <c r="F110" s="7">
-        <v>38.2</v>
-      </c>
-      <c r="G110" s="7">
-        <v>38.589</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0</v>
-      </c>
-      <c r="I110" s="7">
-        <v>278860</v>
-      </c>
-      <c r="J110" s="7">
-        <v>-2837.16</v>
-      </c>
-      <c r="K110" s="7">
-        <v>-2837.16</v>
-      </c>
-      <c r="L110" s="8">
-        <v>-1.01</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N110" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" s="10">
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>38.25</v>
+      </c>
+      <c r="G111" s="7">
+        <v>38.579</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="I111" s="7">
+        <v>279225</v>
+      </c>
+      <c r="J111" s="7">
+        <v>-2404.22</v>
+      </c>
+      <c r="K111" s="7">
+        <v>365</v>
+      </c>
+      <c r="L111" s="8">
+        <v>-0.85</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="6">
         <v>603238</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C112" s="6">
         <v>18200</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D112" s="6">
         <v>18200</v>
       </c>
-      <c r="E111" s="10">
-        <v>0</v>
-      </c>
-      <c r="F111" s="11">
-        <v>41.5</v>
-      </c>
-      <c r="G111" s="11">
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>41.11</v>
+      </c>
+      <c r="G112" s="7">
         <v>41.308</v>
       </c>
-      <c r="H111" s="11">
-        <v>0</v>
-      </c>
-      <c r="I111" s="11">
-        <v>755300</v>
-      </c>
-      <c r="J111" s="11">
-        <v>3503.47</v>
-      </c>
-      <c r="K111" s="11">
-        <v>-27118</v>
-      </c>
-      <c r="L111" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="M111" s="9" t="s">
+      <c r="H112" s="7">
+        <v>0</v>
+      </c>
+      <c r="I112" s="7">
+        <v>748202</v>
+      </c>
+      <c r="J112" s="7">
+        <v>-3594.53</v>
+      </c>
+      <c r="K112" s="7">
+        <v>-7098</v>
+      </c>
+      <c r="L112" s="8">
+        <v>-0.48</v>
+      </c>
+      <c r="M112" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N111" s="9" t="s">
+      <c r="N112" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="10">
-        <v>300580</v>
-      </c>
-      <c r="C112" s="10">
-        <v>0</v>
-      </c>
-      <c r="D112" s="10">
-        <v>0</v>
-      </c>
-      <c r="E112" s="10">
-        <v>0</v>
-      </c>
-      <c r="F112" s="11">
-        <v>22.01</v>
-      </c>
-      <c r="G112" s="11">
-        <v>0</v>
-      </c>
-      <c r="H112" s="11">
-        <v>0</v>
-      </c>
-      <c r="I112" s="11">
-        <v>0</v>
-      </c>
-      <c r="J112" s="11">
-        <v>15186.95</v>
-      </c>
-      <c r="K112" s="11">
-        <v>-2277.73</v>
-      </c>
-      <c r="L112" s="9">
-        <v>0</v>
-      </c>
-      <c r="M112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N112" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B113" s="10">
         <v>300558</v>
@@ -5714,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="11">
-        <v>135.5</v>
+        <v>138.19</v>
       </c>
       <c r="G113" s="11">
         <v>134.821</v>
@@ -5723,16 +5732,16 @@
         <v>0</v>
       </c>
       <c r="I113" s="11">
-        <v>2235750</v>
+        <v>2280135</v>
       </c>
       <c r="J113" s="11">
-        <v>11203.37</v>
+        <v>55588.37</v>
       </c>
       <c r="K113" s="11">
-        <v>-47355</v>
+        <v>44385</v>
       </c>
       <c r="L113" s="9">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="M113" s="9" t="s">
         <v>26</v>
@@ -5743,7 +5752,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B114" s="6">
         <v>600996</v>
@@ -5758,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="7">
-        <v>7.31</v>
+        <v>7.35</v>
       </c>
       <c r="G114" s="7">
         <v>7.791</v>
@@ -5767,16 +5776,16 @@
         <v>0</v>
       </c>
       <c r="I114" s="7">
-        <v>760240</v>
+        <v>764400</v>
       </c>
       <c r="J114" s="7">
-        <v>-49997.09</v>
+        <v>-45837.09</v>
       </c>
       <c r="K114" s="7">
-        <v>-7280</v>
+        <v>4160</v>
       </c>
       <c r="L114" s="8">
-        <v>-6.17</v>
+        <v>-5.66</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>24</v>
@@ -5787,7 +5796,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B115" s="6">
         <v>300687</v>
@@ -5802,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="7">
-        <v>20.65</v>
+        <v>21.2</v>
       </c>
       <c r="G115" s="7">
         <v>25.293</v>
@@ -5811,16 +5820,16 @@
         <v>0</v>
       </c>
       <c r="I115" s="7">
-        <v>636020</v>
+        <v>652960</v>
       </c>
       <c r="J115" s="7">
-        <v>-143004.83</v>
+        <v>-126064.83</v>
       </c>
       <c r="K115" s="7">
-        <v>-10164</v>
+        <v>16940</v>
       </c>
       <c r="L115" s="8">
-        <v>-18.36</v>
+        <v>-16.18</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>26</v>
@@ -5831,7 +5840,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B116" s="10">
         <v>300036</v>
@@ -5846,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="11">
-        <v>24.5</v>
+        <v>24.84</v>
       </c>
       <c r="G116" s="11">
         <v>23.947</v>
@@ -5855,16 +5864,16 @@
         <v>0</v>
       </c>
       <c r="I116" s="11">
-        <v>1065750</v>
+        <v>1080540</v>
       </c>
       <c r="J116" s="11">
-        <v>24057.77</v>
+        <v>38847.77</v>
       </c>
       <c r="K116" s="11">
-        <v>13920</v>
+        <v>14790</v>
       </c>
       <c r="L116" s="9">
-        <v>2.31</v>
+        <v>3.73</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>26</v>
@@ -5875,7 +5884,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B117" s="10">
         <v>300751</v>
@@ -5890,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="11">
-        <v>346.56</v>
+        <v>359.37</v>
       </c>
       <c r="G117" s="11">
         <v>-38.963</v>
@@ -5899,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="I117" s="11">
-        <v>173280</v>
+        <v>179685</v>
       </c>
       <c r="J117" s="11">
-        <v>192761.68</v>
+        <v>199166.68</v>
       </c>
       <c r="K117" s="11">
-        <v>1785</v>
+        <v>6405</v>
       </c>
       <c r="L117" s="9">
         <v>0</v>
@@ -5919,10 +5928,10 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C118" s="6">
         <v>46100</v>
@@ -5934,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="7">
-        <v>5.23</v>
+        <v>5.3</v>
       </c>
       <c r="G118" s="7">
         <v>5.789</v>
@@ -5943,16 +5952,16 @@
         <v>0</v>
       </c>
       <c r="I118" s="7">
-        <v>241103</v>
+        <v>244330</v>
       </c>
       <c r="J118" s="7">
-        <v>-25764.77</v>
+        <v>-22537.77</v>
       </c>
       <c r="K118" s="7">
-        <v>-2766</v>
+        <v>3227</v>
       </c>
       <c r="L118" s="8">
-        <v>-9.66</v>
+        <v>-8.45</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>26</v>
@@ -5962,173 +5971,173 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B119" s="6">
+      <c r="A119" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="10">
+        <v>300220</v>
+      </c>
+      <c r="C119" s="10">
+        <v>2600</v>
+      </c>
+      <c r="D119" s="10">
+        <v>0</v>
+      </c>
+      <c r="E119" s="10">
+        <v>2600</v>
+      </c>
+      <c r="F119" s="11">
+        <v>31.54</v>
+      </c>
+      <c r="G119" s="11">
+        <v>30.993</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0</v>
+      </c>
+      <c r="I119" s="11">
+        <v>82004</v>
+      </c>
+      <c r="J119" s="11">
+        <v>1421</v>
+      </c>
+      <c r="K119" s="11">
+        <v>1421</v>
+      </c>
+      <c r="L119" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="6">
         <v>600820</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C120" s="6">
         <v>40700</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D120" s="6">
         <v>40700</v>
       </c>
-      <c r="E119" s="6">
-        <v>0</v>
-      </c>
-      <c r="F119" s="7">
-        <v>5.98</v>
-      </c>
-      <c r="G119" s="7">
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>6.02</v>
+      </c>
+      <c r="G120" s="7">
         <v>6.273</v>
       </c>
-      <c r="H119" s="7">
-        <v>0</v>
-      </c>
-      <c r="I119" s="7">
-        <v>243386</v>
-      </c>
-      <c r="J119" s="7">
-        <v>-11931.44</v>
-      </c>
-      <c r="K119" s="7">
-        <v>-407</v>
-      </c>
-      <c r="L119" s="8">
-        <v>-4.67</v>
-      </c>
-      <c r="M119" s="8" t="s">
+      <c r="H120" s="7">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>245014</v>
+      </c>
+      <c r="J120" s="7">
+        <v>-10303.44</v>
+      </c>
+      <c r="K120" s="7">
+        <v>1628</v>
+      </c>
+      <c r="L120" s="8">
+        <v>-4.03</v>
+      </c>
+      <c r="M120" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N119" s="8" t="s">
+      <c r="N120" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
-      <c r="A120" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B120" s="10">
+    <row r="121" spans="1:14">
+      <c r="A121" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="10">
         <v>300599</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C121" s="10">
         <v>69800</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D121" s="10">
         <v>69800</v>
       </c>
-      <c r="E120" s="10">
-        <v>0</v>
-      </c>
-      <c r="F120" s="11">
-        <v>14.91</v>
-      </c>
-      <c r="G120" s="11">
+      <c r="E121" s="10">
+        <v>0</v>
+      </c>
+      <c r="F121" s="11">
+        <v>14.85</v>
+      </c>
+      <c r="G121" s="11">
         <v>14.052</v>
       </c>
-      <c r="H120" s="11">
-        <v>0</v>
-      </c>
-      <c r="I120" s="11">
-        <v>1040718</v>
-      </c>
-      <c r="J120" s="11">
-        <v>59904.71</v>
-      </c>
-      <c r="K120" s="11">
-        <v>27920</v>
-      </c>
-      <c r="L120" s="9">
-        <v>6.11</v>
-      </c>
-      <c r="M120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B121" s="6">
-        <v>603501</v>
-      </c>
-      <c r="C121" s="6">
-        <v>11200</v>
-      </c>
-      <c r="D121" s="6">
-        <v>11200</v>
-      </c>
-      <c r="E121" s="6">
-        <v>0</v>
-      </c>
-      <c r="F121" s="7">
-        <v>203.4</v>
-      </c>
-      <c r="G121" s="7">
-        <v>212.58</v>
-      </c>
-      <c r="H121" s="7">
-        <v>0</v>
-      </c>
-      <c r="I121" s="7">
-        <v>2278080</v>
-      </c>
-      <c r="J121" s="7">
-        <v>-102814.8</v>
-      </c>
-      <c r="K121" s="7">
-        <v>-42224</v>
-      </c>
-      <c r="L121" s="8">
-        <v>-4.32</v>
-      </c>
-      <c r="M121" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N121" s="8" t="s">
-        <v>23</v>
+      <c r="H121" s="11">
+        <v>0</v>
+      </c>
+      <c r="I121" s="11">
+        <v>1036530</v>
+      </c>
+      <c r="J121" s="11">
+        <v>55716.71</v>
+      </c>
+      <c r="K121" s="11">
+        <v>-4188</v>
+      </c>
+      <c r="L121" s="9">
+        <v>5.68</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B122" s="6">
-        <v>603711</v>
+        <v>603501</v>
       </c>
       <c r="C122" s="6">
-        <v>29900</v>
+        <v>11200</v>
       </c>
       <c r="D122" s="6">
-        <v>29900</v>
+        <v>11200</v>
       </c>
       <c r="E122" s="6">
         <v>0</v>
       </c>
       <c r="F122" s="7">
-        <v>28.24</v>
+        <v>205.64</v>
       </c>
       <c r="G122" s="7">
-        <v>29.334</v>
+        <v>212.58</v>
       </c>
       <c r="H122" s="7">
         <v>0</v>
       </c>
       <c r="I122" s="7">
-        <v>844376</v>
+        <v>2303168</v>
       </c>
       <c r="J122" s="7">
-        <v>-32701.47</v>
+        <v>-77726.8</v>
       </c>
       <c r="K122" s="7">
-        <v>-4485</v>
+        <v>25088</v>
       </c>
       <c r="L122" s="8">
-        <v>-3.73</v>
+        <v>-3.26</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>24</v>
@@ -6138,90 +6147,134 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="10">
-        <v>50500</v>
-      </c>
-      <c r="D123" s="10">
-        <v>50500</v>
-      </c>
-      <c r="E123" s="10">
-        <v>0</v>
-      </c>
-      <c r="F123" s="11">
-        <v>48.87</v>
-      </c>
-      <c r="G123" s="11">
-        <v>45.183</v>
-      </c>
-      <c r="H123" s="11">
-        <v>0</v>
-      </c>
-      <c r="I123" s="11">
-        <v>2467935</v>
-      </c>
-      <c r="J123" s="11">
-        <v>186199.68</v>
-      </c>
-      <c r="K123" s="11">
-        <v>5050</v>
-      </c>
-      <c r="L123" s="9">
-        <v>8.16</v>
-      </c>
-      <c r="M123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N123" s="9" t="s">
-        <v>25</v>
+      <c r="A123" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="6">
+        <v>603711</v>
+      </c>
+      <c r="C123" s="6">
+        <v>29900</v>
+      </c>
+      <c r="D123" s="6">
+        <v>29900</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>28.02</v>
+      </c>
+      <c r="G123" s="7">
+        <v>29.334</v>
+      </c>
+      <c r="H123" s="7">
+        <v>0</v>
+      </c>
+      <c r="I123" s="7">
+        <v>837798</v>
+      </c>
+      <c r="J123" s="7">
+        <v>-39279.47</v>
+      </c>
+      <c r="K123" s="7">
+        <v>-6578</v>
+      </c>
+      <c r="L123" s="8">
+        <v>-4.48</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C124" s="10">
+        <v>50500</v>
+      </c>
+      <c r="D124" s="10">
+        <v>50500</v>
+      </c>
+      <c r="E124" s="10">
+        <v>0</v>
+      </c>
+      <c r="F124" s="11">
+        <v>51</v>
+      </c>
+      <c r="G124" s="11">
+        <v>45.183</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
+      </c>
+      <c r="I124" s="11">
+        <v>2575500</v>
+      </c>
+      <c r="J124" s="11">
+        <v>293764.68</v>
+      </c>
+      <c r="K124" s="11">
+        <v>107565</v>
+      </c>
+      <c r="L124" s="9">
+        <v>12.87</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="10">
         <v>16800</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D125" s="10">
         <v>16800</v>
       </c>
-      <c r="E124" s="10">
-        <v>0</v>
-      </c>
-      <c r="F124" s="11">
-        <v>16.32</v>
-      </c>
-      <c r="G124" s="11">
+      <c r="E125" s="10">
+        <v>0</v>
+      </c>
+      <c r="F125" s="11">
+        <v>16.64</v>
+      </c>
+      <c r="G125" s="11">
         <v>15.499</v>
       </c>
-      <c r="H124" s="11">
-        <v>0</v>
-      </c>
-      <c r="I124" s="11">
-        <v>274176</v>
-      </c>
-      <c r="J124" s="11">
-        <v>13786.98</v>
-      </c>
-      <c r="K124" s="11">
-        <v>4032</v>
-      </c>
-      <c r="L124" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="M124" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N124" s="9" t="s">
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="I125" s="11">
+        <v>279552</v>
+      </c>
+      <c r="J125" s="11">
+        <v>19162.98</v>
+      </c>
+      <c r="K125" s="11">
+        <v>5376</v>
+      </c>
+      <c r="L125" s="9">
+        <v>7.36</v>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N125" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="178">
   <si>
     <t>资金</t>
   </si>
@@ -157,12 +157,6 @@
     <t>三只松鼠</t>
   </si>
   <si>
-    <t>三泰控股</t>
-  </si>
-  <si>
-    <t>002312</t>
-  </si>
-  <si>
     <t>世运电路</t>
   </si>
   <si>
@@ -175,9 +169,15 @@
     <t>中国出版</t>
   </si>
   <si>
+    <t>中国汽研</t>
+  </si>
+  <si>
     <t>中际旭创</t>
   </si>
   <si>
+    <t>丰山集团</t>
+  </si>
+  <si>
     <t>丸美股份</t>
   </si>
   <si>
@@ -229,9 +229,6 @@
     <t>华体科技</t>
   </si>
   <si>
-    <t>华光环能</t>
-  </si>
-  <si>
     <t>华孚时尚</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
     <t>002212</t>
   </si>
   <si>
+    <t>博创科技</t>
+  </si>
+  <si>
     <t>博威合金</t>
   </si>
   <si>
@@ -334,30 +334,27 @@
     <t>002327</t>
   </si>
   <si>
-    <t>岱美股份</t>
-  </si>
-  <si>
     <t>工业富联</t>
   </si>
   <si>
     <t>广信股份</t>
   </si>
   <si>
+    <t>广和通</t>
+  </si>
+  <si>
     <t>广联达</t>
   </si>
   <si>
     <t>002410</t>
   </si>
   <si>
+    <t>开润股份</t>
+  </si>
+  <si>
     <t>思创医惠</t>
   </si>
   <si>
-    <t>思维列控</t>
-  </si>
-  <si>
-    <t>悦达投资</t>
-  </si>
-  <si>
     <t>拓尔思</t>
   </si>
   <si>
@@ -430,12 +427,6 @@
     <t>洲明科技</t>
   </si>
   <si>
-    <t>海信家电</t>
-  </si>
-  <si>
-    <t>000921</t>
-  </si>
-  <si>
     <t>海兴电力</t>
   </si>
   <si>
@@ -445,6 +436,12 @@
     <t>璞泰来</t>
   </si>
   <si>
+    <t>盈趣科技</t>
+  </si>
+  <si>
+    <t>002925</t>
+  </si>
+  <si>
     <t>石基信息</t>
   </si>
   <si>
@@ -484,10 +481,10 @@
     <t>美凯龙</t>
   </si>
   <si>
-    <t>聚隆科技</t>
-  </si>
-  <si>
     <t>胜宏科技</t>
+  </si>
+  <si>
+    <t>芒果超媒</t>
   </si>
   <si>
     <t>英飞拓</t>
@@ -1022,28 +1019,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>11736527.21</v>
+        <v>12819172.11</v>
       </c>
       <c r="D3" s="3">
-        <v>12818378.34</v>
+        <v>10936534.82</v>
       </c>
       <c r="E3" s="3">
-        <v>11736527.21</v>
+        <v>10936534.82</v>
       </c>
       <c r="F3" s="3">
-        <v>-1081851.13</v>
+        <v>1882637.29</v>
       </c>
       <c r="G3" s="3">
-        <v>111139813.11</v>
+        <v>111389329.77</v>
       </c>
       <c r="H3" s="3">
-        <v>123958191.45</v>
+        <v>122325864.59</v>
       </c>
       <c r="I3" s="3">
-        <v>-3619056.57</v>
+        <v>-5569895.68</v>
       </c>
       <c r="J3" s="3">
-        <v>-1658538.23</v>
+        <v>-1633120.63</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1150,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5874000</v>
+        <v>5879000</v>
       </c>
       <c r="C8" s="3">
-        <v>5874000</v>
+        <v>5879000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1167,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>7814000</v>
+        <v>7905000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>93.68</v>
+        <v>90.21</v>
       </c>
       <c r="G12" s="7">
         <v>98.178</v>
@@ -1267,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2192112</v>
+        <v>2110914</v>
       </c>
       <c r="J12" s="7">
-        <v>-105264.49</v>
+        <v>-186462.49</v>
       </c>
       <c r="K12" s="7">
-        <v>-21060</v>
+        <v>-81198</v>
       </c>
       <c r="L12" s="8">
-        <v>-4.58</v>
+        <v>-8.12</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1286,46 +1283,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>66800</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>66800</v>
       </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>9.42</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>9.27</v>
+      </c>
+      <c r="G13" s="7">
         <v>9.282</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>629256</v>
-      </c>
-      <c r="J13" s="11">
-        <v>9229.98</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-12692</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1.49</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="9" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>619236</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-790.02</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-10020</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1337,34 +1334,34 @@
         <v>300552</v>
       </c>
       <c r="C14" s="6">
-        <v>26000</v>
+        <v>48882</v>
       </c>
       <c r="D14" s="6">
         <v>26000</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>22882</v>
       </c>
       <c r="F14" s="7">
-        <v>46.47</v>
+        <v>45.46</v>
       </c>
       <c r="G14" s="7">
-        <v>47.389</v>
+        <v>46.595</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1208220</v>
+        <v>2222175.72</v>
       </c>
       <c r="J14" s="7">
-        <v>-23894.82</v>
+        <v>-55471.78</v>
       </c>
       <c r="K14" s="7">
-        <v>-28080</v>
+        <v>-31576.96</v>
       </c>
       <c r="L14" s="8">
-        <v>-1.94</v>
+        <v>-2.44</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1390,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>41.79</v>
+        <v>41.3</v>
       </c>
       <c r="G15" s="7">
         <v>44.786</v>
@@ -1399,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2131290</v>
+        <v>2106300</v>
       </c>
       <c r="J15" s="7">
-        <v>-152807.29</v>
+        <v>-177797.29</v>
       </c>
       <c r="K15" s="7">
-        <v>-38760</v>
+        <v>-24990</v>
       </c>
       <c r="L15" s="8">
-        <v>-6.69</v>
+        <v>-7.78</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1418,129 +1415,129 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>300783</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>5800</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>5800</v>
       </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>67.4</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>64.69</v>
+      </c>
+      <c r="G16" s="7">
         <v>67.205</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>390920</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1131.49</v>
-      </c>
-      <c r="K16" s="11">
-        <v>11600</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0.29</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="9" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>375202</v>
+      </c>
+      <c r="J16" s="7">
+        <v>-14586.51</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-15718</v>
+      </c>
+      <c r="L16" s="8">
+        <v>-3.74</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>5.84</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>184336.33</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-5.8</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>25</v>
+      <c r="B17" s="6">
+        <v>603920</v>
+      </c>
+      <c r="C17" s="6">
+        <v>29400</v>
+      </c>
+      <c r="D17" s="6">
+        <v>29400</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>22.83</v>
+      </c>
+      <c r="G17" s="7">
+        <v>24.423</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>671202</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-46829.56</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-7056</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-6.52</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6">
-        <v>603920</v>
+        <v>600637</v>
       </c>
       <c r="C18" s="6">
-        <v>29400</v>
+        <v>75500</v>
       </c>
       <c r="D18" s="6">
-        <v>29400</v>
+        <v>75500</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>23.07</v>
+        <v>10.2</v>
       </c>
       <c r="G18" s="7">
-        <v>24.423</v>
+        <v>10.579</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>678258</v>
+        <v>770100</v>
       </c>
       <c r="J18" s="7">
-        <v>-39773.56</v>
+        <v>-28617.13</v>
       </c>
       <c r="K18" s="7">
-        <v>-13230</v>
+        <v>-4786.03</v>
       </c>
       <c r="L18" s="8">
-        <v>-5.54</v>
+        <v>-3.58</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>24</v>
@@ -1551,40 +1548,40 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
-        <v>600637</v>
+        <v>600875</v>
       </c>
       <c r="C19" s="6">
-        <v>93600</v>
+        <v>13300</v>
       </c>
       <c r="D19" s="6">
-        <v>93600</v>
+        <v>13300</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>10.23</v>
+        <v>9.87</v>
       </c>
       <c r="G19" s="7">
-        <v>10.485</v>
+        <v>17.868</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>957528</v>
+        <v>131271</v>
       </c>
       <c r="J19" s="7">
-        <v>-23831.1</v>
+        <v>-106374.26</v>
       </c>
       <c r="K19" s="7">
-        <v>-30888</v>
+        <v>-21134.86</v>
       </c>
       <c r="L19" s="8">
-        <v>-2.43</v>
+        <v>-44.76</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
@@ -1594,85 +1591,85 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="6">
-        <v>600875</v>
-      </c>
-      <c r="C20" s="6">
-        <v>135700</v>
-      </c>
-      <c r="D20" s="6">
-        <v>135700</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>10.07</v>
-      </c>
-      <c r="G20" s="7">
-        <v>10.698</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1366499</v>
-      </c>
-      <c r="J20" s="7">
-        <v>-85239.4</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-24426</v>
-      </c>
-      <c r="L20" s="8">
-        <v>-5.87</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10">
+        <v>601949</v>
+      </c>
+      <c r="C20" s="10">
+        <v>230500</v>
+      </c>
+      <c r="D20" s="10">
+        <v>230500</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>5.83</v>
+      </c>
+      <c r="G20" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1343815</v>
+      </c>
+      <c r="J20" s="11">
+        <v>53065.08</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-4610</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4.11</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="10">
-        <v>601949</v>
+        <v>601965</v>
       </c>
       <c r="C21" s="10">
-        <v>230500</v>
+        <v>75400</v>
       </c>
       <c r="D21" s="10">
-        <v>230500</v>
+        <v>0</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="F21" s="11">
-        <v>5.85</v>
+        <v>11.32</v>
       </c>
       <c r="G21" s="11">
-        <v>5.6</v>
+        <v>10.788</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>1348425</v>
+        <v>853528</v>
       </c>
       <c r="J21" s="11">
-        <v>57675.08</v>
+        <v>40129.74</v>
       </c>
       <c r="K21" s="11">
-        <v>-50710</v>
+        <v>40129.74</v>
       </c>
       <c r="L21" s="9">
-        <v>4.46</v>
+        <v>4.93</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
         <v>300308</v>
@@ -1698,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>56.46</v>
+        <v>55.22</v>
       </c>
       <c r="G22" s="7">
         <v>56.63</v>
@@ -1707,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2280984</v>
+        <v>2230888</v>
       </c>
       <c r="J22" s="7">
-        <v>-6874.09</v>
+        <v>-56970.09</v>
       </c>
       <c r="K22" s="7">
-        <v>-42420</v>
+        <v>-50096</v>
       </c>
       <c r="L22" s="8">
-        <v>-0.3</v>
+        <v>-2.49</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1726,393 +1723,393 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="6">
-        <v>603983</v>
-      </c>
-      <c r="C23" s="6">
-        <v>17000</v>
-      </c>
-      <c r="D23" s="6">
-        <v>17000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>74.8</v>
-      </c>
-      <c r="G23" s="7">
-        <v>75.157</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1271600</v>
-      </c>
-      <c r="J23" s="7">
-        <v>-6061.22</v>
-      </c>
-      <c r="K23" s="7">
-        <v>-28050</v>
-      </c>
-      <c r="L23" s="8">
-        <v>-0.48</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="A23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10">
+        <v>603810</v>
+      </c>
+      <c r="C23" s="10">
+        <v>11000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>11000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>36.26</v>
+      </c>
+      <c r="G23" s="11">
+        <v>36.12</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>398860</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1537.68</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1537.68</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="6">
+        <v>603983</v>
       </c>
       <c r="C24" s="6">
-        <v>77200</v>
+        <v>17000</v>
       </c>
       <c r="D24" s="6">
-        <v>77200</v>
+        <v>17000</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>26.5</v>
+        <v>74.16</v>
       </c>
       <c r="G24" s="7">
-        <v>28.566</v>
+        <v>75.157</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>2045800</v>
+        <v>1260720</v>
       </c>
       <c r="J24" s="7">
-        <v>-159491.31</v>
+        <v>-16941.22</v>
       </c>
       <c r="K24" s="7">
-        <v>-65620</v>
+        <v>-10880</v>
       </c>
       <c r="L24" s="8">
-        <v>-7.23</v>
+        <v>-1.33</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6">
-        <v>600602</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="6">
-        <v>300100</v>
+        <v>77200</v>
       </c>
       <c r="D25" s="6">
-        <v>300100</v>
+        <v>77200</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>7.42</v>
+        <v>25.54</v>
       </c>
       <c r="G25" s="7">
-        <v>7.556</v>
+        <v>28.566</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>2226742</v>
+        <v>1971688</v>
       </c>
       <c r="J25" s="7">
-        <v>-40725.9</v>
+        <v>-233603.31</v>
       </c>
       <c r="K25" s="7">
-        <v>-75025</v>
+        <v>-74112</v>
       </c>
       <c r="L25" s="8">
-        <v>-1.8</v>
+        <v>-10.59</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="6">
+        <v>600602</v>
+      </c>
+      <c r="C26" s="6">
+        <v>300100</v>
+      </c>
+      <c r="D26" s="6">
+        <v>300100</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="G26" s="7">
+        <v>7.556</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2205735</v>
+      </c>
+      <c r="J26" s="7">
+        <v>-61732.9</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-21007</v>
+      </c>
+      <c r="L26" s="8">
+        <v>-2.73</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <v>300628</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <v>36900</v>
       </c>
-      <c r="D26" s="6">
-        <v>36600</v>
-      </c>
-      <c r="E26" s="6">
-        <v>300</v>
-      </c>
-      <c r="F26" s="7">
-        <v>62.13</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="D27" s="6">
+        <v>36900</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>62.59</v>
+      </c>
+      <c r="G27" s="7">
         <v>64.412</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2292597</v>
-      </c>
-      <c r="J26" s="7">
-        <v>-84196.71</v>
-      </c>
-      <c r="K26" s="7">
-        <v>23204</v>
-      </c>
-      <c r="L26" s="8">
-        <v>-3.54</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2309571</v>
+      </c>
+      <c r="J27" s="7">
+        <v>-67215.48</v>
+      </c>
+      <c r="K27" s="7">
+        <v>16974</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-2.83</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="6">
         <v>300695</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C28" s="6">
         <v>7500</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="6">
         <v>7500</v>
       </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <v>68.28</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>65.12</v>
+      </c>
+      <c r="G28" s="7">
         <v>66.171</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>512100</v>
-      </c>
-      <c r="J27" s="11">
-        <v>15815.88</v>
-      </c>
-      <c r="K27" s="11">
-        <v>3600</v>
-      </c>
-      <c r="L27" s="9">
-        <v>3.19</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="10">
-        <v>300632</v>
-      </c>
-      <c r="C28" s="10">
-        <v>17000</v>
-      </c>
-      <c r="D28" s="10">
-        <v>17000</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>16.01</v>
-      </c>
-      <c r="G28" s="11">
-        <v>15.709</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>272170</v>
-      </c>
-      <c r="J28" s="11">
-        <v>5111.88</v>
-      </c>
-      <c r="K28" s="11">
-        <v>-6120</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1.92</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>488400</v>
+      </c>
+      <c r="J28" s="7">
+        <v>-7884.12</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-23700</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-1.59</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6">
+        <v>300632</v>
+      </c>
+      <c r="C29" s="6">
+        <v>17000</v>
+      </c>
+      <c r="D29" s="6">
+        <v>17000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>15.709</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>265200</v>
+      </c>
+      <c r="J29" s="7">
+        <v>-1858.12</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-6970</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-0.69</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="6">
         <v>31300</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>31300</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>15.05</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>14.85</v>
+      </c>
+      <c r="G30" s="7">
         <v>16.061</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>471065</v>
-      </c>
-      <c r="J29" s="7">
-        <v>-31650.39</v>
-      </c>
-      <c r="K29" s="7">
-        <v>-15024</v>
-      </c>
-      <c r="L29" s="8">
-        <v>-6.29</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="10">
-        <v>300715</v>
-      </c>
-      <c r="C30" s="10">
-        <v>9100</v>
-      </c>
-      <c r="D30" s="10">
-        <v>9100</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>53.99</v>
-      </c>
-      <c r="G30" s="11">
-        <v>41.637</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>491309</v>
-      </c>
-      <c r="J30" s="11">
-        <v>112409.2</v>
-      </c>
-      <c r="K30" s="11">
-        <v>43316</v>
-      </c>
-      <c r="L30" s="9">
-        <v>29.67</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="9" t="s">
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>464805</v>
+      </c>
+      <c r="J30" s="7">
+        <v>-37910.39</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-6260</v>
+      </c>
+      <c r="L30" s="8">
+        <v>-7.54</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="10">
-        <v>300639</v>
+        <v>300715</v>
       </c>
       <c r="C31" s="10">
-        <v>25700</v>
+        <v>9100</v>
       </c>
       <c r="D31" s="10">
-        <v>25700</v>
+        <v>9100</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="G31" s="11">
-        <v>48.841</v>
+        <v>41.637</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>1359530</v>
+        <v>482300</v>
       </c>
       <c r="J31" s="11">
-        <v>104317.67</v>
+        <v>103400.2</v>
       </c>
       <c r="K31" s="11">
-        <v>97660</v>
+        <v>-9009</v>
       </c>
       <c r="L31" s="9">
-        <v>8.31</v>
+        <v>27.29</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>26</v>
@@ -2123,128 +2120,128 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="10">
+        <v>300639</v>
+      </c>
+      <c r="C32" s="10">
+        <v>25700</v>
+      </c>
+      <c r="D32" s="10">
+        <v>25700</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>50.86</v>
+      </c>
+      <c r="G32" s="11">
+        <v>48.841</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1307102</v>
+      </c>
+      <c r="J32" s="11">
+        <v>51889.67</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-52428</v>
+      </c>
+      <c r="L32" s="9">
+        <v>4.13</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <v>300596</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <v>10000</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>10000</v>
       </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>37.3</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>37.18</v>
+      </c>
+      <c r="G33" s="11">
         <v>33.81</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>373000</v>
-      </c>
-      <c r="J32" s="11">
-        <v>34901.25</v>
-      </c>
-      <c r="K32" s="11">
-        <v>20000</v>
-      </c>
-      <c r="L32" s="9">
-        <v>10.32</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="6">
-        <v>54607</v>
-      </c>
-      <c r="D33" s="6">
-        <v>54607</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>16.58</v>
-      </c>
-      <c r="G33" s="7">
-        <v>16.725</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>905384.06</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-7908.94</v>
-      </c>
-      <c r="K33" s="7">
-        <v>-18566.38</v>
-      </c>
-      <c r="L33" s="8">
-        <v>-0.87</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>371800</v>
+      </c>
+      <c r="J33" s="11">
+        <v>33701.25</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-1200</v>
+      </c>
+      <c r="L33" s="9">
+        <v>9.97</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="6">
-        <v>40200</v>
+        <v>54607</v>
       </c>
       <c r="D34" s="6">
-        <v>40200</v>
+        <v>54607</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>4.57</v>
+        <v>15.95</v>
       </c>
       <c r="G34" s="7">
-        <v>4.785</v>
+        <v>16.725</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>183714</v>
+        <v>870981.65</v>
       </c>
       <c r="J34" s="7">
-        <v>-8640.86</v>
+        <v>-42311.35</v>
       </c>
       <c r="K34" s="7">
-        <v>-8442</v>
+        <v>-34402.41</v>
       </c>
       <c r="L34" s="8">
-        <v>-4.49</v>
+        <v>-4.63</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2255,98 +2252,98 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6">
+        <v>40200</v>
+      </c>
+      <c r="D35" s="6">
+        <v>40200</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4.59</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4.785</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>184518</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-7836.86</v>
+      </c>
+      <c r="K35" s="7">
+        <v>804</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-4.08</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B36" s="6">
         <v>603679</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C36" s="6">
         <v>26700</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>26700</v>
       </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>28.95</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>27.94</v>
+      </c>
+      <c r="G36" s="7">
         <v>29.285</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>772965</v>
-      </c>
-      <c r="J35" s="7">
-        <v>-8934.92</v>
-      </c>
-      <c r="K35" s="7">
-        <v>-12816</v>
-      </c>
-      <c r="L35" s="8">
-        <v>-1.14</v>
-      </c>
-      <c r="M35" s="8" t="s">
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>745998</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-35901.92</v>
+      </c>
+      <c r="K36" s="7">
+        <v>-26967</v>
+      </c>
+      <c r="L36" s="8">
+        <v>-4.59</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="10">
-        <v>600475</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>13.48</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>53780.41</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-2477.78</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="6">
         <v>80600</v>
@@ -2372,8 +2369,8 @@
       <c r="J37" s="7">
         <v>-60458.2</v>
       </c>
-      <c r="K37" s="7">
-        <v>-4030</v>
+      <c r="K37" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L37" s="8">
         <v>-12.06</v>
@@ -2387,7 +2384,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="6">
         <v>300271</v>
@@ -2402,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>26.48</v>
+        <v>26.9</v>
       </c>
       <c r="G38" s="7">
         <v>27.585</v>
@@ -2411,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>619632</v>
+        <v>629460</v>
       </c>
       <c r="J38" s="7">
-        <v>-25852.8</v>
+        <v>-16024.8</v>
       </c>
       <c r="K38" s="7">
-        <v>18018</v>
+        <v>9828</v>
       </c>
       <c r="L38" s="8">
-        <v>-4.01</v>
+        <v>-2.48</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="10">
         <v>511990</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>100.017</v>
+        <v>100.012</v>
       </c>
       <c r="G39" s="11">
         <v>-11749.026</v>
@@ -2455,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>1400.24</v>
+        <v>1400.17</v>
       </c>
       <c r="J39" s="11">
-        <v>165886.61</v>
+        <v>165886.54</v>
       </c>
       <c r="K39" s="11">
-        <v>0.13</v>
+        <v>-0.07</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="6">
         <v>300755</v>
@@ -2490,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>29.06</v>
+        <v>28.35</v>
       </c>
       <c r="G40" s="7">
         <v>29.407</v>
@@ -2499,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>508550</v>
+        <v>496125</v>
       </c>
       <c r="J40" s="7">
-        <v>-6065.2</v>
+        <v>-18490.2</v>
       </c>
       <c r="K40" s="7">
-        <v>-11200</v>
+        <v>-12425</v>
       </c>
       <c r="L40" s="8">
-        <v>-1.18</v>
+        <v>-3.59</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>26</v>
@@ -2519,7 +2516,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="6">
         <v>603855</v>
@@ -2534,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>19.19</v>
+        <v>17.95</v>
       </c>
       <c r="G41" s="7">
         <v>19.26</v>
@@ -2543,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>376124</v>
+        <v>351820</v>
       </c>
       <c r="J41" s="7">
-        <v>-1364.24</v>
+        <v>-25668.24</v>
       </c>
       <c r="K41" s="7">
-        <v>-196</v>
+        <v>-24304</v>
       </c>
       <c r="L41" s="8">
-        <v>-0.36</v>
+        <v>-6.8</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>24</v>
@@ -2562,55 +2559,55 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="10">
         <v>300782</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="10">
+        <v>5500</v>
+      </c>
+      <c r="D42" s="10">
         <v>5400</v>
       </c>
-      <c r="D42" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>409.2</v>
-      </c>
-      <c r="G42" s="7">
-        <v>414.497</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>2209680</v>
-      </c>
-      <c r="J42" s="7">
-        <v>-28604.7</v>
-      </c>
-      <c r="K42" s="7">
-        <v>-47358</v>
-      </c>
-      <c r="L42" s="8">
-        <v>-1.28</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" s="8" t="s">
+      <c r="E42" s="10">
+        <v>100</v>
+      </c>
+      <c r="F42" s="11">
+        <v>417.08</v>
+      </c>
+      <c r="G42" s="11">
+        <v>414.407</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>2293940</v>
+      </c>
+      <c r="J42" s="11">
+        <v>14699.16</v>
+      </c>
+      <c r="K42" s="11">
+        <v>43303.86</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C43" s="6">
         <v>38800</v>
@@ -2622,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>18.4</v>
+        <v>18.28</v>
       </c>
       <c r="G43" s="7">
         <v>21.488</v>
@@ -2631,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>713920</v>
+        <v>709264</v>
       </c>
       <c r="J43" s="7">
-        <v>-119832.05</v>
+        <v>-124488.05</v>
       </c>
       <c r="K43" s="7">
-        <v>-13192</v>
+        <v>-4656</v>
       </c>
       <c r="L43" s="8">
-        <v>-14.37</v>
+        <v>-14.93</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>26</v>
@@ -2651,10 +2648,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="C44" s="6">
         <v>94800</v>
@@ -2666,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>23.26</v>
+        <v>22.3</v>
       </c>
       <c r="G44" s="7">
         <v>25.501</v>
@@ -2675,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>2205048</v>
+        <v>2114040</v>
       </c>
       <c r="J44" s="7">
-        <v>-212426.56</v>
+        <v>-303434.56</v>
       </c>
       <c r="K44" s="7">
-        <v>2844</v>
+        <v>-91008</v>
       </c>
       <c r="L44" s="8">
-        <v>-8.79</v>
+        <v>-12.55</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>26</v>
@@ -2695,172 +2692,172 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="6">
-        <v>601137</v>
+        <v>300548</v>
       </c>
       <c r="C45" s="6">
-        <v>97100</v>
+        <v>4500</v>
       </c>
       <c r="D45" s="6">
-        <v>97100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="F45" s="7">
-        <v>14.62</v>
+        <v>54.54</v>
       </c>
       <c r="G45" s="7">
-        <v>14.838</v>
+        <v>55.342</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>1419602</v>
+        <v>245430</v>
       </c>
       <c r="J45" s="7">
-        <v>-21142.72</v>
+        <v>-3608</v>
       </c>
       <c r="K45" s="7">
-        <v>-36898</v>
+        <v>-3608</v>
       </c>
       <c r="L45" s="8">
-        <v>-1.47</v>
+        <v>-1.45</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6">
+        <v>601137</v>
+      </c>
+      <c r="C46" s="6">
+        <v>97100</v>
+      </c>
+      <c r="D46" s="6">
+        <v>97100</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>14.38</v>
+      </c>
+      <c r="G46" s="7">
+        <v>14.838</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1396298</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-44446.72</v>
+      </c>
+      <c r="K46" s="7">
+        <v>-23304</v>
+      </c>
+      <c r="L46" s="8">
+        <v>-3.09</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B47" s="6">
         <v>300363</v>
       </c>
-      <c r="C46" s="6">
-        <v>51200</v>
-      </c>
-      <c r="D46" s="6">
-        <v>51200</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>32.3</v>
-      </c>
-      <c r="G46" s="7">
-        <v>33.113</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>1653760</v>
-      </c>
-      <c r="J46" s="7">
-        <v>-41641.27</v>
-      </c>
-      <c r="K46" s="7">
-        <v>30720</v>
-      </c>
-      <c r="L46" s="8">
-        <v>-2.46</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="10">
-        <v>7500</v>
-      </c>
-      <c r="D47" s="10">
-        <v>7500</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>63.22</v>
-      </c>
-      <c r="G47" s="11">
-        <v>53.268</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>474150</v>
-      </c>
-      <c r="J47" s="11">
-        <v>74643.56</v>
-      </c>
-      <c r="K47" s="11">
-        <v>-11100</v>
-      </c>
-      <c r="L47" s="9">
-        <v>18.68</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="9" t="s">
+      <c r="C47" s="6">
+        <v>12300</v>
+      </c>
+      <c r="D47" s="6">
+        <v>12300</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>29.62</v>
+      </c>
+      <c r="G47" s="7">
+        <v>34.33</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>364326</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-57936.73</v>
+      </c>
+      <c r="K47" s="7">
+        <v>-16295.46</v>
+      </c>
+      <c r="L47" s="8">
+        <v>-13.72</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="10">
-        <v>76100</v>
+        <v>7500</v>
       </c>
       <c r="D48" s="10">
-        <v>76100</v>
+        <v>7500</v>
       </c>
       <c r="E48" s="10">
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>10.11</v>
+        <v>61</v>
       </c>
       <c r="G48" s="11">
-        <v>9.74</v>
+        <v>53.268</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>769371</v>
+        <v>457500</v>
       </c>
       <c r="J48" s="11">
-        <v>28163.9</v>
+        <v>57993.56</v>
       </c>
       <c r="K48" s="11">
-        <v>20547</v>
+        <v>-16650</v>
       </c>
       <c r="L48" s="9">
-        <v>3.8</v>
+        <v>14.52</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>26</v>
@@ -2871,304 +2868,304 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="10">
+        <v>76100</v>
+      </c>
+      <c r="D49" s="10">
+        <v>76100</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>9.78</v>
+      </c>
+      <c r="G49" s="11">
+        <v>9.74</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>744258</v>
+      </c>
+      <c r="J49" s="11">
+        <v>3050.9</v>
+      </c>
+      <c r="K49" s="11">
+        <v>-25113</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B50" s="10">
         <v>603260</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C50" s="10">
         <v>23600</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>23600</v>
       </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>30.61</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>30.29</v>
+      </c>
+      <c r="G50" s="11">
         <v>29.113</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>722396</v>
-      </c>
-      <c r="J49" s="11">
-        <v>35320.71</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-31860</v>
-      </c>
-      <c r="L49" s="9">
-        <v>5.14</v>
-      </c>
-      <c r="M49" s="9" t="s">
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>714844</v>
+      </c>
+      <c r="J50" s="11">
+        <v>27768.71</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-7552</v>
+      </c>
+      <c r="L50" s="9">
+        <v>4.04</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="N50" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
+    <row r="51" spans="1:14">
+      <c r="A51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B51" s="6">
         <v>300636</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C51" s="6">
         <v>6800</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>6800</v>
       </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>33.78</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>32.15</v>
+      </c>
+      <c r="G51" s="7">
         <v>38.829</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>229704</v>
-      </c>
-      <c r="J50" s="7">
-        <v>-34330.59</v>
-      </c>
-      <c r="K50" s="7">
-        <v>-8364</v>
-      </c>
-      <c r="L50" s="8">
-        <v>-13</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="10">
-        <v>11800</v>
-      </c>
-      <c r="D51" s="10">
-        <v>11800</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <v>14.14</v>
-      </c>
-      <c r="G51" s="11">
-        <v>3.772</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>166852</v>
-      </c>
-      <c r="J51" s="11">
-        <v>122348.13</v>
-      </c>
-      <c r="K51" s="11">
-        <v>-8378</v>
-      </c>
-      <c r="L51" s="9">
-        <v>274.87</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="9" t="s">
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>218620</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-45414.59</v>
+      </c>
+      <c r="K51" s="7">
+        <v>-11084</v>
+      </c>
+      <c r="L51" s="8">
+        <v>-17.2</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="10">
-        <v>603613</v>
+        <v>91</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="C52" s="10">
-        <v>7900</v>
+        <v>11800</v>
       </c>
       <c r="D52" s="10">
-        <v>7900</v>
+        <v>11800</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
       </c>
       <c r="F52" s="11">
-        <v>83.8</v>
+        <v>13.77</v>
       </c>
       <c r="G52" s="11">
-        <v>83.704</v>
+        <v>3.772</v>
       </c>
       <c r="H52" s="11">
         <v>0</v>
       </c>
       <c r="I52" s="11">
-        <v>662020</v>
+        <v>162486</v>
       </c>
       <c r="J52" s="11">
-        <v>760.88</v>
+        <v>117982.13</v>
       </c>
       <c r="K52" s="11">
-        <v>8058</v>
+        <v>-4366</v>
       </c>
       <c r="L52" s="9">
-        <v>0.11</v>
+        <v>265.06</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="6">
-        <v>300661</v>
+        <v>603613</v>
       </c>
       <c r="C53" s="6">
-        <v>7100</v>
+        <v>7900</v>
       </c>
       <c r="D53" s="6">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="E53" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>319.58</v>
+        <v>82.7</v>
       </c>
       <c r="G53" s="7">
-        <v>341.405</v>
+        <v>83.704</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>2269018</v>
+        <v>653330</v>
       </c>
       <c r="J53" s="7">
-        <v>-154954.88</v>
+        <v>-7929.12</v>
       </c>
       <c r="K53" s="7">
-        <v>-37138</v>
+        <v>-8690</v>
       </c>
       <c r="L53" s="8">
-        <v>-6.39</v>
+        <v>-1.2</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="6">
-        <v>603826</v>
+        <v>300661</v>
       </c>
       <c r="C54" s="6">
-        <v>80800</v>
+        <v>7100</v>
       </c>
       <c r="D54" s="6">
-        <v>79400</v>
+        <v>3600</v>
       </c>
       <c r="E54" s="6">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="F54" s="7">
-        <v>27.15</v>
+        <v>331.66</v>
       </c>
       <c r="G54" s="7">
-        <v>30.74</v>
+        <v>341.312</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>2193720</v>
+        <v>2354786</v>
       </c>
       <c r="J54" s="7">
-        <v>-290098.71</v>
+        <v>-68528.98</v>
       </c>
       <c r="K54" s="7">
-        <v>-63843.8</v>
+        <v>86425.58</v>
       </c>
       <c r="L54" s="8">
-        <v>-11.68</v>
+        <v>-2.83</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" s="6">
-        <v>603387</v>
+        <v>603826</v>
       </c>
       <c r="C55" s="6">
-        <v>13200</v>
+        <v>81000</v>
       </c>
       <c r="D55" s="6">
-        <v>13200</v>
+        <v>80800</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F55" s="7">
-        <v>39.26</v>
+        <v>26.2</v>
       </c>
       <c r="G55" s="7">
-        <v>41.043</v>
+        <v>30.731</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>518232</v>
+        <v>2122200</v>
       </c>
       <c r="J55" s="7">
-        <v>-23531.09</v>
+        <v>-367012.68</v>
       </c>
       <c r="K55" s="7">
-        <v>-9636</v>
+        <v>-76933.11</v>
       </c>
       <c r="L55" s="8">
-        <v>-4.34</v>
+        <v>-14.74</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>24</v>
@@ -3179,128 +3176,128 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="6">
+        <v>603387</v>
+      </c>
+      <c r="C56" s="6">
+        <v>13200</v>
+      </c>
+      <c r="D56" s="6">
+        <v>13200</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>38</v>
+      </c>
+      <c r="G56" s="7">
+        <v>41.043</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>501600</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-40163.09</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-16632</v>
+      </c>
+      <c r="L56" s="8">
+        <v>-7.41</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C57" s="6">
         <v>18000</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>18000</v>
       </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>93.98</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>92.43</v>
+      </c>
+      <c r="G57" s="7">
         <v>102.032</v>
       </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1691640</v>
-      </c>
-      <c r="J56" s="7">
-        <v>-144944.51</v>
-      </c>
-      <c r="K56" s="7">
-        <v>-23040</v>
-      </c>
-      <c r="L56" s="8">
-        <v>-7.89</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="10">
-        <v>603317</v>
-      </c>
-      <c r="C57" s="10">
-        <v>39100</v>
-      </c>
-      <c r="D57" s="10">
-        <v>39100</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>58</v>
-      </c>
-      <c r="G57" s="11">
-        <v>57.098</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>2267800</v>
-      </c>
-      <c r="J57" s="11">
-        <v>35264.47</v>
-      </c>
-      <c r="K57" s="11">
-        <v>-14858</v>
-      </c>
-      <c r="L57" s="9">
-        <v>1.58</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>23</v>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1663740</v>
+      </c>
+      <c r="J57" s="7">
+        <v>-172844.51</v>
+      </c>
+      <c r="K57" s="7">
+        <v>-27900</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-9.41</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="6">
-        <v>600129</v>
+        <v>603317</v>
       </c>
       <c r="C58" s="6">
-        <v>14800</v>
+        <v>39100</v>
       </c>
       <c r="D58" s="6">
-        <v>14800</v>
+        <v>39100</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>16.57</v>
+        <v>56.24</v>
       </c>
       <c r="G58" s="7">
-        <v>17.039</v>
+        <v>57.098</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>245236</v>
+        <v>2198984</v>
       </c>
       <c r="J58" s="7">
-        <v>-6938.86</v>
+        <v>-33551.53</v>
       </c>
       <c r="K58" s="7">
-        <v>-4736</v>
+        <v>-68816</v>
       </c>
       <c r="L58" s="8">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>24</v>
@@ -3310,217 +3307,217 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="6">
+        <v>600129</v>
+      </c>
+      <c r="C59" s="6">
+        <v>14800</v>
+      </c>
+      <c r="D59" s="6">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>16.24</v>
+      </c>
+      <c r="G59" s="7">
+        <v>17.039</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>240352</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-11822.86</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-4884</v>
+      </c>
+      <c r="L59" s="8">
+        <v>-4.69</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C60" s="10">
         <v>19800</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>19800</v>
       </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>57.88</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>58.69</v>
+      </c>
+      <c r="G60" s="11">
         <v>57.744</v>
       </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>1146024</v>
-      </c>
-      <c r="J59" s="11">
-        <v>2699.26</v>
-      </c>
-      <c r="K59" s="11">
-        <v>-26532</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1162062</v>
+      </c>
+      <c r="J60" s="11">
+        <v>18737.26</v>
+      </c>
+      <c r="K60" s="11">
+        <v>16038</v>
+      </c>
+      <c r="L60" s="9">
+        <v>1.64</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B61" s="10">
         <v>603788</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C61" s="10">
         <v>26300</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="10">
         <v>26300</v>
       </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>17.85</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>18.4</v>
+      </c>
+      <c r="G61" s="11">
         <v>18.318</v>
       </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>469455</v>
-      </c>
-      <c r="J60" s="7">
-        <v>-12312.07</v>
-      </c>
-      <c r="K60" s="7">
-        <v>7364</v>
-      </c>
-      <c r="L60" s="8">
-        <v>-2.55</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>483920</v>
+      </c>
+      <c r="J61" s="11">
+        <v>2152.93</v>
+      </c>
+      <c r="K61" s="11">
+        <v>14465</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="8" t="s">
+      <c r="N61" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
+    <row r="62" spans="1:14">
+      <c r="A62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C62" s="6">
         <v>23300</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>23300</v>
       </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>7.46</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>7.29</v>
+      </c>
+      <c r="G62" s="7">
         <v>7.555</v>
       </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>173818</v>
-      </c>
-      <c r="J61" s="7">
-        <v>-2211.37</v>
-      </c>
-      <c r="K61" s="7">
-        <v>-3495</v>
-      </c>
-      <c r="L61" s="8">
-        <v>-1.26</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="10">
-        <v>603730</v>
-      </c>
-      <c r="C62" s="10">
-        <v>0</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11">
-        <v>23.1</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-      <c r="J62" s="11">
-        <v>64946.34</v>
-      </c>
-      <c r="K62" s="11">
-        <v>-10.78</v>
-      </c>
-      <c r="L62" s="9">
-        <v>0</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>23</v>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>169857</v>
+      </c>
+      <c r="J62" s="7">
+        <v>-6172.37</v>
+      </c>
+      <c r="K62" s="7">
+        <v>-3961</v>
+      </c>
+      <c r="L62" s="8">
+        <v>-3.51</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="6">
         <v>601138</v>
       </c>
       <c r="C63" s="6">
-        <v>113700</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
-        <v>113700</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>14.16</v>
+        <v>15.14</v>
       </c>
       <c r="G63" s="7">
-        <v>16.051</v>
+        <v>0</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>1609992</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>-214957.14</v>
+        <v>-193709.89</v>
       </c>
       <c r="K63" s="7">
-        <v>-28425</v>
+        <v>21247.25</v>
       </c>
       <c r="L63" s="8">
-        <v>-11.78</v>
+        <v>0</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>24</v>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="6">
         <v>603599</v>
@@ -3546,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>17.01</v>
+        <v>16.83</v>
       </c>
       <c r="G64" s="7">
         <v>18.12</v>
@@ -3555,16 +3552,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>882819</v>
+        <v>873477</v>
       </c>
       <c r="J64" s="7">
-        <v>-57618.95</v>
+        <v>-66960.95</v>
       </c>
       <c r="K64" s="7">
-        <v>-28545</v>
+        <v>-9342</v>
       </c>
       <c r="L64" s="8">
-        <v>-6.13</v>
+        <v>-7.12</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>24</v>
@@ -3575,40 +3572,40 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="B65" s="6">
+        <v>300638</v>
       </c>
       <c r="C65" s="6">
-        <v>30199</v>
+        <v>15300</v>
       </c>
       <c r="D65" s="6">
-        <v>30199</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="F65" s="7">
-        <v>67.95</v>
+        <v>74.33</v>
       </c>
       <c r="G65" s="7">
-        <v>74.839</v>
+        <v>75.636</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>2052022.05</v>
+        <v>1137249</v>
       </c>
       <c r="J65" s="7">
-        <v>-208055.82</v>
+        <v>-19974.54</v>
       </c>
       <c r="K65" s="7">
-        <v>-46808.45</v>
+        <v>-19974.54</v>
       </c>
       <c r="L65" s="8">
-        <v>-9.21</v>
+        <v>-1.73</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>26</v>
@@ -3619,98 +3616,98 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="6">
+        <v>33299</v>
+      </c>
+      <c r="D66" s="6">
+        <v>30199</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="7">
+        <v>66.92</v>
+      </c>
+      <c r="G66" s="7">
+        <v>74.118</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>2228369.08</v>
+      </c>
+      <c r="J66" s="7">
+        <v>-239698.96</v>
+      </c>
+      <c r="K66" s="7">
+        <v>-31643.14</v>
+      </c>
+      <c r="L66" s="8">
+        <v>-9.71</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="6">
-        <v>300078</v>
-      </c>
-      <c r="C66" s="6">
-        <v>45700</v>
-      </c>
-      <c r="D66" s="6">
-        <v>45700</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
-        <v>12.38</v>
-      </c>
-      <c r="G66" s="7">
-        <v>17.946</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>565766</v>
-      </c>
-      <c r="J66" s="7">
-        <v>-254349.04</v>
-      </c>
-      <c r="K66" s="7">
-        <v>-8683</v>
-      </c>
-      <c r="L66" s="8">
-        <v>-31.02</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="10">
-        <v>603508</v>
-      </c>
-      <c r="C67" s="10">
-        <v>0</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
-      <c r="E67" s="10">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>37.2</v>
-      </c>
-      <c r="G67" s="11">
-        <v>0</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-      <c r="J67" s="11">
-        <v>16595.24</v>
-      </c>
-      <c r="K67" s="11">
-        <v>-13606.96</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>23</v>
+      <c r="B67" s="6">
+        <v>300577</v>
+      </c>
+      <c r="C67" s="6">
+        <v>21900</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>21900</v>
+      </c>
+      <c r="F67" s="7">
+        <v>31.65</v>
+      </c>
+      <c r="G67" s="7">
+        <v>32.231</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>693135</v>
+      </c>
+      <c r="J67" s="7">
+        <v>-12730.41</v>
+      </c>
+      <c r="K67" s="7">
+        <v>-12730.41</v>
+      </c>
+      <c r="L67" s="8">
+        <v>-1.8</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="6">
-        <v>600805</v>
+        <v>300078</v>
       </c>
       <c r="C68" s="6">
         <v>0</v>
@@ -3722,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>4.38</v>
+        <v>12.27</v>
       </c>
       <c r="G68" s="7">
         <v>0</v>
@@ -3734,24 +3731,24 @@
         <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>-29317.75</v>
+        <v>-258717.84</v>
       </c>
       <c r="K68" s="7">
-        <v>-6.35</v>
+        <v>-4368.8</v>
       </c>
       <c r="L68" s="8">
         <v>0</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" s="6">
         <v>300229</v>
@@ -3766,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>11.79</v>
+        <v>11.58</v>
       </c>
       <c r="G69" s="7">
         <v>12.36</v>
@@ -3775,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>2006658</v>
+        <v>1970916</v>
       </c>
       <c r="J69" s="7">
-        <v>-96976.53</v>
+        <v>-132718.53</v>
       </c>
       <c r="K69" s="7">
-        <v>-47656</v>
+        <v>-35742</v>
       </c>
       <c r="L69" s="8">
-        <v>-4.61</v>
+        <v>-6.31</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3795,7 +3792,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="6">
         <v>300724</v>
@@ -3804,31 +3801,31 @@
         <v>27000</v>
       </c>
       <c r="D70" s="6">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="E70" s="6">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F70" s="7">
-        <v>87</v>
+        <v>83.25</v>
       </c>
       <c r="G70" s="7">
-        <v>92.744</v>
+        <v>92.8</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>2349000</v>
+        <v>2247750</v>
       </c>
       <c r="J70" s="7">
-        <v>-155097.54</v>
+        <v>-257861.06</v>
       </c>
       <c r="K70" s="7">
-        <v>40500</v>
+        <v>-102763.52</v>
       </c>
       <c r="L70" s="8">
-        <v>-6.19</v>
+        <v>-10.29</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3839,7 +3836,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="6">
         <v>300079</v>
@@ -3854,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>4.92</v>
+        <v>4.9</v>
       </c>
       <c r="G71" s="7">
         <v>6.77</v>
@@ -3863,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>304548</v>
+        <v>303310</v>
       </c>
       <c r="J71" s="7">
-        <v>-114496.75</v>
+        <v>-115734.75</v>
       </c>
       <c r="K71" s="7">
-        <v>-9904</v>
+        <v>-1238</v>
       </c>
       <c r="L71" s="8">
-        <v>-27.33</v>
+        <v>-27.62</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3883,10 +3880,10 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="C72" s="6">
         <v>126000</v>
@@ -3898,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
       <c r="G72" s="7">
         <v>11.205</v>
@@ -3907,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>1354500</v>
+        <v>1355760</v>
       </c>
       <c r="J72" s="7">
-        <v>-57370.13</v>
+        <v>-56110.13</v>
       </c>
       <c r="K72" s="7">
-        <v>-26460</v>
+        <v>1260</v>
       </c>
       <c r="L72" s="8">
-        <v>-4.06</v>
+        <v>-3.97</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3927,7 +3924,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="6">
         <v>300259</v>
@@ -3942,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>4.94</v>
+        <v>4.89</v>
       </c>
       <c r="G73" s="7">
         <v>5.639</v>
@@ -3951,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>371982</v>
+        <v>368217</v>
       </c>
       <c r="J73" s="7">
-        <v>-52663.61</v>
+        <v>-56428.61</v>
       </c>
       <c r="K73" s="7">
         <v>-3765</v>
       </c>
       <c r="L73" s="8">
-        <v>-12.4</v>
+        <v>-13.28</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>26</v>
@@ -3971,40 +3968,40 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="6">
         <v>300502</v>
       </c>
       <c r="C74" s="6">
+        <v>32780</v>
+      </c>
+      <c r="D74" s="6">
         <v>32180</v>
       </c>
-      <c r="D74" s="6">
-        <v>31480</v>
-      </c>
       <c r="E74" s="6">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F74" s="7">
-        <v>69.19</v>
+        <v>67.66</v>
       </c>
       <c r="G74" s="7">
-        <v>71.832</v>
+        <v>71.778</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>2226534.2</v>
+        <v>2217894.8</v>
       </c>
       <c r="J74" s="7">
-        <v>-85017.83</v>
+        <v>-134993.31</v>
       </c>
       <c r="K74" s="7">
-        <v>-41912.08</v>
+        <v>-49979.4</v>
       </c>
       <c r="L74" s="8">
-        <v>-3.68</v>
+        <v>-5.74</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>26</v>
@@ -4015,40 +4012,40 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="6">
         <v>300212</v>
       </c>
       <c r="C75" s="6">
-        <v>45044</v>
+        <v>47144</v>
       </c>
       <c r="D75" s="6">
         <v>45044</v>
       </c>
       <c r="E75" s="6">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F75" s="7">
-        <v>47.7</v>
+        <v>46.44</v>
       </c>
       <c r="G75" s="7">
-        <v>52.469</v>
+        <v>52.269</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>2148598.8</v>
+        <v>2189367.36</v>
       </c>
       <c r="J75" s="7">
-        <v>-214823.56</v>
+        <v>-274784.47</v>
       </c>
       <c r="K75" s="7">
-        <v>-89637.56</v>
+        <v>-59960.91</v>
       </c>
       <c r="L75" s="8">
-        <v>-9.09</v>
+        <v>-11.15</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="10">
         <v>603127</v>
@@ -4074,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="11">
-        <v>97.8</v>
+        <v>93.25</v>
       </c>
       <c r="G76" s="11">
         <v>-278.343</v>
@@ -4083,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <v>48900</v>
+        <v>46625</v>
       </c>
       <c r="J76" s="11">
-        <v>188071.71</v>
+        <v>185796.71</v>
       </c>
       <c r="K76" s="11">
-        <v>-25</v>
+        <v>-2275</v>
       </c>
       <c r="L76" s="9">
         <v>0</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="6">
         <v>300630</v>
@@ -4118,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>42.73</v>
+        <v>41.39</v>
       </c>
       <c r="G77" s="7">
         <v>45.589</v>
@@ -4127,16 +4124,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>1068250</v>
+        <v>1034750</v>
       </c>
       <c r="J77" s="7">
-        <v>-71467.61</v>
+        <v>-104967.61</v>
       </c>
       <c r="K77" s="7">
-        <v>-23500</v>
+        <v>-33500</v>
       </c>
       <c r="L77" s="8">
-        <v>-6.27</v>
+        <v>-9.21</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>26</v>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="6">
         <v>603228</v>
@@ -4162,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>35.45</v>
+        <v>35.2</v>
       </c>
       <c r="G78" s="7">
         <v>38.676</v>
@@ -4171,16 +4168,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>2201445</v>
+        <v>2185920</v>
       </c>
       <c r="J78" s="7">
-        <v>-200311.29</v>
+        <v>-215836.29</v>
       </c>
       <c r="K78" s="7">
-        <v>-39744</v>
+        <v>-15525</v>
       </c>
       <c r="L78" s="8">
-        <v>-8.34</v>
+        <v>-8.99</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>24</v>
@@ -4190,55 +4187,55 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="6">
+      <c r="A79" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="10">
         <v>300771</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="10">
         <v>7820</v>
       </c>
-      <c r="D79" s="6">
-        <v>7820</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>40</v>
-      </c>
-      <c r="G79" s="7">
-        <v>40.651</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>312800</v>
-      </c>
-      <c r="J79" s="7">
-        <v>-5091.68</v>
-      </c>
-      <c r="K79" s="7">
-        <v>11730</v>
-      </c>
-      <c r="L79" s="8">
-        <v>-1.6</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="8" t="s">
+      <c r="D79" s="10">
+        <v>6720</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1100</v>
+      </c>
+      <c r="F79" s="11">
+        <v>41.98</v>
+      </c>
+      <c r="G79" s="11">
+        <v>40.608</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>328283.6</v>
+      </c>
+      <c r="J79" s="11">
+        <v>10725.81</v>
+      </c>
+      <c r="K79" s="11">
+        <v>15817.49</v>
+      </c>
+      <c r="L79" s="9">
+        <v>3.38</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="C80" s="10">
         <v>28080</v>
@@ -4250,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="11">
-        <v>8.9</v>
+        <v>8.62</v>
       </c>
       <c r="G80" s="11">
         <v>7.736</v>
@@ -4259,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="11">
-        <v>249912</v>
+        <v>242049.6</v>
       </c>
       <c r="J80" s="11">
-        <v>32675.57</v>
+        <v>24813.17</v>
       </c>
       <c r="K80" s="11">
-        <v>-15724.8</v>
+        <v>-7862.4</v>
       </c>
       <c r="L80" s="9">
-        <v>15.05</v>
+        <v>11.43</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>26</v>
@@ -4279,7 +4276,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="10">
         <v>603337</v>
@@ -4294,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="11">
-        <v>20.51</v>
+        <v>22.56</v>
       </c>
       <c r="G81" s="11">
         <v>19.188</v>
@@ -4303,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="I81" s="11">
-        <v>168182</v>
+        <v>184992</v>
       </c>
       <c r="J81" s="11">
-        <v>10839.02</v>
+        <v>27649.02</v>
       </c>
       <c r="K81" s="11">
-        <v>4346</v>
+        <v>16810</v>
       </c>
       <c r="L81" s="9">
-        <v>6.89</v>
+        <v>17.57</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>24</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="6">
         <v>300595</v>
@@ -4338,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>63.01</v>
+        <v>61.32</v>
       </c>
       <c r="G82" s="7">
         <v>64.201</v>
@@ -4347,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>2224253</v>
+        <v>2164596</v>
       </c>
       <c r="J82" s="7">
-        <v>-42031.89</v>
+        <v>-101688.89</v>
       </c>
       <c r="K82" s="7">
-        <v>19415</v>
+        <v>-59657</v>
       </c>
       <c r="L82" s="8">
-        <v>-1.86</v>
+        <v>-4.49</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>26</v>
@@ -4366,55 +4363,55 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="6">
+      <c r="C83" s="10">
         <v>19500</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="10">
         <v>19500</v>
       </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>12.02</v>
-      </c>
-      <c r="G83" s="7">
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>12.42</v>
+      </c>
+      <c r="G83" s="11">
         <v>12.291</v>
       </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>234390</v>
-      </c>
-      <c r="J83" s="7">
-        <v>-5275.94</v>
-      </c>
-      <c r="K83" s="7">
-        <v>-6240</v>
-      </c>
-      <c r="L83" s="8">
-        <v>-2.2</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="8" t="s">
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>242190</v>
+      </c>
+      <c r="J83" s="11">
+        <v>2524.06</v>
+      </c>
+      <c r="K83" s="11">
+        <v>7800</v>
+      </c>
+      <c r="L83" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="C84" s="10">
         <v>72300</v>
@@ -4426,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="11">
-        <v>10.7</v>
+        <v>10.28</v>
       </c>
       <c r="G84" s="11">
         <v>9.802</v>
@@ -4435,16 +4432,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>773610</v>
+        <v>743244</v>
       </c>
       <c r="J84" s="11">
-        <v>64946.72</v>
+        <v>34580.72</v>
       </c>
       <c r="K84" s="11">
-        <v>15183</v>
+        <v>-30366</v>
       </c>
       <c r="L84" s="9">
-        <v>9.16</v>
+        <v>4.88</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>26</v>
@@ -4455,10 +4452,10 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="C85" s="6">
         <v>129200</v>
@@ -4470,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>6.51</v>
+        <v>6.45</v>
       </c>
       <c r="G85" s="7">
         <v>6.772</v>
@@ -4479,16 +4476,16 @@
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>841092</v>
+        <v>833340</v>
       </c>
       <c r="J85" s="7">
-        <v>-33858.45</v>
+        <v>-41610.45</v>
       </c>
       <c r="K85" s="7">
-        <v>-27132</v>
+        <v>-7752</v>
       </c>
       <c r="L85" s="8">
-        <v>-3.87</v>
+        <v>-4.75</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>26</v>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" s="10">
         <v>600563</v>
@@ -4514,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="11">
-        <v>62.99</v>
+        <v>63.29</v>
       </c>
       <c r="G86" s="11">
         <v>59.089</v>
@@ -4523,16 +4520,16 @@
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <v>1801514</v>
+        <v>1810094</v>
       </c>
       <c r="J86" s="11">
-        <v>111581.54</v>
+        <v>120161.54</v>
       </c>
       <c r="K86" s="11">
-        <v>1144</v>
+        <v>8580</v>
       </c>
       <c r="L86" s="9">
-        <v>6.6</v>
+        <v>7.11</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>24</v>
@@ -4543,7 +4540,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="6">
         <v>300232</v>
@@ -4558,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>8.43</v>
+        <v>8.36</v>
       </c>
       <c r="G87" s="7">
         <v>9.325</v>
@@ -4567,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>2125380.03</v>
+        <v>2107731.56</v>
       </c>
       <c r="J87" s="7">
-        <v>-225691.2</v>
+        <v>-243339.67</v>
       </c>
       <c r="K87" s="7">
-        <v>-27733.31</v>
+        <v>-17648.47</v>
       </c>
       <c r="L87" s="8">
-        <v>-9.6</v>
+        <v>-10.35</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>26</v>
@@ -4586,85 +4583,85 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="10">
-        <v>0</v>
-      </c>
-      <c r="D88" s="10">
-        <v>0</v>
-      </c>
-      <c r="E88" s="10">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>13.06</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>0</v>
-      </c>
-      <c r="J88" s="11">
-        <v>38319.91</v>
-      </c>
-      <c r="K88" s="11">
-        <v>-3425.35</v>
-      </c>
-      <c r="L88" s="9">
-        <v>0</v>
-      </c>
-      <c r="M88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>25</v>
+      <c r="A88" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="6">
+        <v>603556</v>
+      </c>
+      <c r="C88" s="6">
+        <v>93500</v>
+      </c>
+      <c r="D88" s="6">
+        <v>93500</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>14.59</v>
+      </c>
+      <c r="G88" s="7">
+        <v>15.247</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1364165</v>
+      </c>
+      <c r="J88" s="7">
+        <v>-61464.33</v>
+      </c>
+      <c r="K88" s="7">
+        <v>-21505</v>
+      </c>
+      <c r="L88" s="8">
+        <v>-4.31</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B89" s="6">
-        <v>603556</v>
+        <v>600933</v>
       </c>
       <c r="C89" s="6">
-        <v>93500</v>
+        <v>137500</v>
       </c>
       <c r="D89" s="6">
-        <v>93500</v>
+        <v>59100</v>
       </c>
       <c r="E89" s="6">
-        <v>0</v>
+        <v>78400</v>
       </c>
       <c r="F89" s="7">
-        <v>14.82</v>
+        <v>13.1</v>
       </c>
       <c r="G89" s="7">
-        <v>15.247</v>
+        <v>13.117</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>1385670</v>
+        <v>1801250</v>
       </c>
       <c r="J89" s="7">
-        <v>-39959.33</v>
+        <v>-2399.86</v>
       </c>
       <c r="K89" s="7">
-        <v>-20570</v>
+        <v>10651.83</v>
       </c>
       <c r="L89" s="8">
-        <v>-2.8</v>
+        <v>-0.13</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>24</v>
@@ -4674,99 +4671,99 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="10">
+        <v>603659</v>
+      </c>
+      <c r="C90" s="10">
+        <v>11200</v>
+      </c>
+      <c r="D90" s="10">
+        <v>10400</v>
+      </c>
+      <c r="E90" s="10">
+        <v>800</v>
+      </c>
+      <c r="F90" s="11">
+        <v>104.93</v>
+      </c>
+      <c r="G90" s="11">
+        <v>100.767</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>1175216</v>
+      </c>
+      <c r="J90" s="11">
+        <v>46620.01</v>
+      </c>
+      <c r="K90" s="11">
+        <v>-309.59</v>
+      </c>
+      <c r="L90" s="9">
+        <v>4.13</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="6">
-        <v>600933</v>
-      </c>
-      <c r="C90" s="6">
-        <v>59100</v>
-      </c>
-      <c r="D90" s="6">
-        <v>30400</v>
-      </c>
-      <c r="E90" s="6">
-        <v>28700</v>
-      </c>
-      <c r="F90" s="7">
-        <v>13.16</v>
-      </c>
-      <c r="G90" s="7">
-        <v>13.384</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>777756</v>
-      </c>
-      <c r="J90" s="7">
-        <v>-13228.13</v>
-      </c>
-      <c r="K90" s="7">
-        <v>-15591.41</v>
-      </c>
-      <c r="L90" s="8">
-        <v>-1.67</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="10">
-        <v>603659</v>
-      </c>
-      <c r="C91" s="10">
-        <v>10400</v>
-      </c>
-      <c r="D91" s="10">
-        <v>10400</v>
-      </c>
-      <c r="E91" s="10">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>104.61</v>
-      </c>
-      <c r="G91" s="11">
-        <v>100.098</v>
-      </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>1087944</v>
-      </c>
-      <c r="J91" s="11">
-        <v>46929.6</v>
-      </c>
-      <c r="K91" s="11">
-        <v>-49088</v>
-      </c>
-      <c r="L91" s="9">
-        <v>4.51</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" s="9" t="s">
-        <v>23</v>
+      <c r="C91" s="6">
+        <v>15500</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>15500</v>
+      </c>
+      <c r="F91" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="G91" s="7">
+        <v>55.067</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>835450</v>
+      </c>
+      <c r="J91" s="7">
+        <v>-18089.01</v>
+      </c>
+      <c r="K91" s="7">
+        <v>-18089.01</v>
+      </c>
+      <c r="L91" s="8">
+        <v>-2.12</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="C92" s="6">
         <v>34100</v>
@@ -4778,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <v>33.82</v>
+        <v>32.85</v>
       </c>
       <c r="G92" s="7">
         <v>37.208</v>
@@ -4787,16 +4784,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>1153262</v>
+        <v>1120185</v>
       </c>
       <c r="J92" s="7">
-        <v>-115529.37</v>
+        <v>-148606.37</v>
       </c>
       <c r="K92" s="7">
-        <v>-23870</v>
+        <v>-33077</v>
       </c>
       <c r="L92" s="8">
-        <v>-9.11</v>
+        <v>-11.71</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>26</v>
@@ -4807,7 +4804,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" s="6">
         <v>603688</v>
@@ -4822,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="7">
-        <v>23.86</v>
+        <v>23.21</v>
       </c>
       <c r="G93" s="7">
         <v>24.147</v>
@@ -4831,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="I93" s="7">
-        <v>2225374.48</v>
+        <v>2164750.28</v>
       </c>
       <c r="J93" s="7">
-        <v>-26796.95</v>
+        <v>-87421.15</v>
       </c>
       <c r="K93" s="7">
-        <v>-98864.08</v>
+        <v>-60624.2</v>
       </c>
       <c r="L93" s="8">
-        <v>-1.19</v>
+        <v>-3.88</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>24</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" s="6">
         <v>603327</v>
@@ -4866,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="7">
-        <v>27.15</v>
+        <v>26.96</v>
       </c>
       <c r="G94" s="7">
         <v>28.261</v>
@@ -4875,16 +4872,16 @@
         <v>0</v>
       </c>
       <c r="I94" s="7">
-        <v>654315</v>
+        <v>649736</v>
       </c>
       <c r="J94" s="7">
-        <v>-26769.83</v>
+        <v>-31348.83</v>
       </c>
       <c r="K94" s="7">
-        <v>-20726</v>
+        <v>-4579</v>
       </c>
       <c r="L94" s="8">
-        <v>-3.93</v>
+        <v>-4.6</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>24</v>
@@ -4895,16 +4892,16 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="C95" s="13">
-        <v>5874000</v>
+        <v>5879000</v>
       </c>
       <c r="D95" s="13">
-        <v>5874000</v>
+        <v>5879000</v>
       </c>
       <c r="E95" s="13">
         <v>0</v>
@@ -4939,40 +4936,40 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="10">
         <v>603486</v>
       </c>
       <c r="C96" s="10">
-        <v>14600</v>
+        <v>600</v>
       </c>
       <c r="D96" s="10">
-        <v>14600</v>
+        <v>600</v>
       </c>
       <c r="E96" s="10">
         <v>0</v>
       </c>
       <c r="F96" s="11">
-        <v>38.24</v>
+        <v>37.2</v>
       </c>
       <c r="G96" s="11">
-        <v>7.561</v>
+        <v>-696.715</v>
       </c>
       <c r="H96" s="11">
         <v>0</v>
       </c>
       <c r="I96" s="11">
-        <v>558304</v>
+        <v>22320</v>
       </c>
       <c r="J96" s="11">
-        <v>447912.98</v>
+        <v>440349.17</v>
       </c>
       <c r="K96" s="11">
-        <v>-26602.35</v>
+        <v>-7667.02</v>
       </c>
       <c r="L96" s="9">
-        <v>405.75</v>
+        <v>0</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>24</v>
@@ -4983,7 +4980,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" s="6">
         <v>300590</v>
@@ -4998,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>29.06</v>
+        <v>28.6</v>
       </c>
       <c r="G97" s="7">
         <v>39.8</v>
@@ -5007,16 +5004,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <v>72650</v>
+        <v>71500</v>
       </c>
       <c r="J97" s="7">
-        <v>-26849.6</v>
+        <v>-27999.6</v>
       </c>
       <c r="K97" s="7">
-        <v>-1700</v>
+        <v>-1150</v>
       </c>
       <c r="L97" s="8">
-        <v>-26.98</v>
+        <v>-28.14</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>26</v>
@@ -5027,7 +5024,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" s="6">
         <v>300709</v>
@@ -5042,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="7">
-        <v>81</v>
+        <v>81.34</v>
       </c>
       <c r="G98" s="7">
         <v>96.734</v>
@@ -5051,16 +5048,16 @@
         <v>0</v>
       </c>
       <c r="I98" s="7">
-        <v>1417500</v>
+        <v>1423450</v>
       </c>
       <c r="J98" s="7">
-        <v>-275338.33</v>
+        <v>-269388.33</v>
       </c>
       <c r="K98" s="7">
-        <v>-70700</v>
+        <v>5950</v>
       </c>
       <c r="L98" s="8">
-        <v>-16.27</v>
+        <v>-15.91</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>26</v>
@@ -5071,40 +5068,40 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C99" s="6">
         <v>400</v>
       </c>
       <c r="D99" s="6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E99" s="6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F99" s="7">
-        <v>74.68</v>
+        <v>73.51</v>
       </c>
       <c r="G99" s="7">
-        <v>79.06</v>
+        <v>79.022</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
       <c r="I99" s="7">
-        <v>29872</v>
+        <v>29404</v>
       </c>
       <c r="J99" s="7">
-        <v>-1752</v>
+        <v>-2204.74</v>
       </c>
       <c r="K99" s="7">
-        <v>-1752</v>
+        <v>-468</v>
       </c>
       <c r="L99" s="8">
-        <v>-5.54</v>
+        <v>-6.98</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>26</v>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100" s="6">
         <v>603699</v>
@@ -5124,31 +5121,31 @@
         <v>120200</v>
       </c>
       <c r="D100" s="6">
-        <v>102200</v>
+        <v>120200</v>
       </c>
       <c r="E100" s="6">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F100" s="7">
-        <v>15.99</v>
+        <v>15.49</v>
       </c>
       <c r="G100" s="7">
-        <v>16.377</v>
+        <v>16.375</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
       </c>
       <c r="I100" s="7">
-        <v>1921998</v>
+        <v>1861898</v>
       </c>
       <c r="J100" s="7">
-        <v>-46478.89</v>
+        <v>-106338.13</v>
       </c>
       <c r="K100" s="7">
-        <v>-36885.72</v>
+        <v>-60100</v>
       </c>
       <c r="L100" s="8">
-        <v>-2.36</v>
+        <v>-5.4</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>24</v>
@@ -5159,7 +5156,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B101" s="6">
         <v>601828</v>
@@ -5174,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="7">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="G101" s="7">
         <v>10.676</v>
@@ -5183,16 +5180,16 @@
         <v>0</v>
       </c>
       <c r="I101" s="7">
-        <v>1523000</v>
+        <v>1507770</v>
       </c>
       <c r="J101" s="7">
-        <v>-103029.45</v>
+        <v>-118259.45</v>
       </c>
       <c r="K101" s="7">
-        <v>-35029</v>
+        <v>-15230</v>
       </c>
       <c r="L101" s="8">
-        <v>-6.33</v>
+        <v>-7.27</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>24</v>
@@ -5203,40 +5200,40 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102" s="6">
-        <v>300475</v>
+        <v>300476</v>
       </c>
       <c r="C102" s="6">
-        <v>0</v>
+        <v>106000</v>
       </c>
       <c r="D102" s="6">
-        <v>0</v>
+        <v>104800</v>
       </c>
       <c r="E102" s="6">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F102" s="7">
-        <v>10.13</v>
+        <v>21.11</v>
       </c>
       <c r="G102" s="7">
-        <v>0</v>
+        <v>24.927</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <v>0</v>
+        <v>2237660</v>
       </c>
       <c r="J102" s="7">
-        <v>-10129.64</v>
+        <v>-404621.46</v>
       </c>
       <c r="K102" s="7">
-        <v>-3.82</v>
+        <v>-11550</v>
       </c>
       <c r="L102" s="8">
-        <v>0</v>
+        <v>-15.31</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>26</v>
@@ -5247,40 +5244,40 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" s="6">
-        <v>300476</v>
+        <v>300413</v>
       </c>
       <c r="C103" s="6">
-        <v>104800</v>
+        <v>13400</v>
       </c>
       <c r="D103" s="6">
-        <v>104800</v>
+        <v>0</v>
       </c>
       <c r="E103" s="6">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="F103" s="7">
-        <v>21.22</v>
+        <v>61.4</v>
       </c>
       <c r="G103" s="7">
-        <v>24.971</v>
+        <v>62.025</v>
       </c>
       <c r="H103" s="7">
         <v>0</v>
       </c>
       <c r="I103" s="7">
-        <v>2223856</v>
+        <v>822760</v>
       </c>
       <c r="J103" s="7">
-        <v>-393071.46</v>
+        <v>-8380.96</v>
       </c>
       <c r="K103" s="7">
-        <v>-52400</v>
+        <v>-8380.96</v>
       </c>
       <c r="L103" s="8">
-        <v>-15.02</v>
+        <v>-1.01</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>26</v>
@@ -5291,10 +5288,10 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="C104" s="6">
         <v>68500</v>
@@ -5306,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="7">
-        <v>4.97</v>
+        <v>4.96</v>
       </c>
       <c r="G104" s="7">
         <v>5.083</v>
@@ -5315,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="I104" s="7">
-        <v>340445</v>
+        <v>339760</v>
       </c>
       <c r="J104" s="7">
-        <v>-7739.26</v>
+        <v>-8424.26</v>
       </c>
       <c r="K104" s="7">
-        <v>-14385</v>
+        <v>-685</v>
       </c>
       <c r="L104" s="8">
-        <v>-2.22</v>
+        <v>-2.42</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>26</v>
@@ -5335,7 +5332,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" s="6">
         <v>300725</v>
@@ -5350,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="7">
-        <v>117.27</v>
+        <v>113.01</v>
       </c>
       <c r="G105" s="7">
         <v>123.171</v>
@@ -5359,16 +5356,16 @@
         <v>0</v>
       </c>
       <c r="I105" s="7">
-        <v>2181222</v>
+        <v>2101986</v>
       </c>
       <c r="J105" s="7">
-        <v>-109756.62</v>
+        <v>-188992.62</v>
       </c>
       <c r="K105" s="7">
-        <v>-7998</v>
+        <v>-79236</v>
       </c>
       <c r="L105" s="8">
-        <v>-4.79</v>
+        <v>-8.25</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>26</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="6">
         <v>603238</v>
@@ -5394,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="7">
-        <v>38.91</v>
+        <v>37.88</v>
       </c>
       <c r="G106" s="7">
         <v>41.065</v>
@@ -5403,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="I106" s="7">
-        <v>918276</v>
+        <v>893968</v>
       </c>
       <c r="J106" s="7">
-        <v>-50851.35</v>
+        <v>-75159.35</v>
       </c>
       <c r="K106" s="7">
-        <v>-9440</v>
+        <v>-24308</v>
       </c>
       <c r="L106" s="8">
-        <v>-5.25</v>
+        <v>-7.76</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>24</v>
@@ -5422,85 +5419,85 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="6">
+      <c r="A107" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="10">
         <v>600996</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="10">
         <v>104000</v>
       </c>
-      <c r="D107" s="6">
-        <v>104000</v>
-      </c>
-      <c r="E107" s="6">
-        <v>0</v>
-      </c>
-      <c r="F107" s="7">
-        <v>7.46</v>
-      </c>
-      <c r="G107" s="7">
-        <v>7.791</v>
-      </c>
-      <c r="H107" s="7">
-        <v>0</v>
-      </c>
-      <c r="I107" s="7">
-        <v>775840</v>
-      </c>
-      <c r="J107" s="7">
-        <v>-34397.09</v>
-      </c>
-      <c r="K107" s="7">
-        <v>-40560</v>
-      </c>
-      <c r="L107" s="8">
-        <v>-4.25</v>
-      </c>
-      <c r="M107" s="8" t="s">
+      <c r="D107" s="10">
+        <v>74000</v>
+      </c>
+      <c r="E107" s="10">
+        <v>30000</v>
+      </c>
+      <c r="F107" s="11">
+        <v>8</v>
+      </c>
+      <c r="G107" s="11">
+        <v>7.783</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <v>832000</v>
+      </c>
+      <c r="J107" s="11">
+        <v>22529.27</v>
+      </c>
+      <c r="K107" s="11">
+        <v>56926.36</v>
+      </c>
+      <c r="L107" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="M107" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N107" s="8" t="s">
+      <c r="N107" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B108" s="6">
         <v>300687</v>
       </c>
       <c r="C108" s="6">
-        <v>30800</v>
+        <v>53600</v>
       </c>
       <c r="D108" s="6">
         <v>30800</v>
       </c>
       <c r="E108" s="6">
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="F108" s="7">
-        <v>21.22</v>
+        <v>20.5</v>
       </c>
       <c r="G108" s="7">
-        <v>25.293</v>
+        <v>23.41</v>
       </c>
       <c r="H108" s="7">
         <v>0</v>
       </c>
       <c r="I108" s="7">
-        <v>653576</v>
+        <v>1098800</v>
       </c>
       <c r="J108" s="7">
-        <v>-125448.83</v>
+        <v>-155984.83</v>
       </c>
       <c r="K108" s="7">
-        <v>-39424</v>
+        <v>-30536</v>
       </c>
       <c r="L108" s="8">
-        <v>-16.1</v>
+        <v>-12.43</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>26</v>
@@ -5510,52 +5507,52 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B109" s="10">
+      <c r="A109" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="6">
         <v>300036</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="6">
         <v>43500</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="6">
         <v>43500</v>
       </c>
-      <c r="E109" s="10">
-        <v>0</v>
-      </c>
-      <c r="F109" s="11">
-        <v>24.8</v>
-      </c>
-      <c r="G109" s="11">
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="G109" s="7">
         <v>23.947</v>
       </c>
-      <c r="H109" s="11">
-        <v>0</v>
-      </c>
-      <c r="I109" s="11">
-        <v>1078800</v>
-      </c>
-      <c r="J109" s="11">
-        <v>37107.77</v>
-      </c>
-      <c r="K109" s="11">
-        <v>-24360</v>
-      </c>
-      <c r="L109" s="9">
-        <v>3.56</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N109" s="9" t="s">
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>1030950</v>
+      </c>
+      <c r="J109" s="7">
+        <v>-10742.23</v>
+      </c>
+      <c r="K109" s="7">
+        <v>-47850</v>
+      </c>
+      <c r="L109" s="8">
+        <v>-1.03</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B110" s="6">
         <v>300768</v>
@@ -5564,31 +5561,31 @@
         <v>12100</v>
       </c>
       <c r="D110" s="6">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="E110" s="6">
-        <v>12100</v>
+        <v>0</v>
       </c>
       <c r="F110" s="7">
-        <v>44.46</v>
+        <v>43.51</v>
       </c>
       <c r="G110" s="7">
-        <v>46.034</v>
+        <v>46.021</v>
       </c>
       <c r="H110" s="7">
         <v>0</v>
       </c>
       <c r="I110" s="7">
-        <v>537966</v>
+        <v>526471</v>
       </c>
       <c r="J110" s="7">
-        <v>-19049</v>
+        <v>-30382.51</v>
       </c>
       <c r="K110" s="7">
-        <v>-19049</v>
+        <v>-11495</v>
       </c>
       <c r="L110" s="8">
-        <v>-3.42</v>
+        <v>-5.46</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>26</v>
@@ -5599,16 +5596,16 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="C111" s="6">
-        <v>78800</v>
+        <v>70</v>
       </c>
       <c r="D111" s="6">
-        <v>78800</v>
+        <v>70</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
@@ -5617,22 +5614,22 @@
         <v>5.81</v>
       </c>
       <c r="G111" s="7">
-        <v>6.015</v>
+        <v>336.344</v>
       </c>
       <c r="H111" s="7">
         <v>0</v>
       </c>
       <c r="I111" s="7">
-        <v>457828</v>
+        <v>406.7</v>
       </c>
       <c r="J111" s="7">
-        <v>-16185.07</v>
+        <v>-23137.4</v>
       </c>
       <c r="K111" s="7">
-        <v>-19700</v>
+        <v>-6952.33</v>
       </c>
       <c r="L111" s="8">
-        <v>-3.41</v>
+        <v>-98.27</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>26</v>
@@ -5643,7 +5640,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B112" s="6">
         <v>300220</v>
@@ -5658,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="7">
-        <v>30.49</v>
+        <v>29.64</v>
       </c>
       <c r="G112" s="7">
         <v>30.979</v>
@@ -5667,16 +5664,16 @@
         <v>0</v>
       </c>
       <c r="I112" s="7">
-        <v>79274</v>
+        <v>77064</v>
       </c>
       <c r="J112" s="7">
-        <v>-1271.08</v>
+        <v>-3481.08</v>
       </c>
       <c r="K112" s="7">
-        <v>-2496</v>
+        <v>-2210</v>
       </c>
       <c r="L112" s="8">
-        <v>-1.58</v>
+        <v>-4.32</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>26</v>
@@ -5686,52 +5683,52 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" s="6">
+      <c r="A113" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="10">
         <v>600745</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="10">
         <v>16700</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="10">
         <v>16700</v>
       </c>
-      <c r="E113" s="6">
-        <v>0</v>
-      </c>
-      <c r="F113" s="7">
-        <v>136.3</v>
-      </c>
-      <c r="G113" s="7">
+      <c r="E113" s="10">
+        <v>0</v>
+      </c>
+      <c r="F113" s="11">
+        <v>137.6</v>
+      </c>
+      <c r="G113" s="11">
         <v>137.514</v>
       </c>
-      <c r="H113" s="7">
-        <v>0</v>
-      </c>
-      <c r="I113" s="7">
-        <v>2276210</v>
-      </c>
-      <c r="J113" s="7">
-        <v>-20267.42</v>
-      </c>
-      <c r="K113" s="7">
-        <v>-28390</v>
-      </c>
-      <c r="L113" s="8">
-        <v>-0.88</v>
-      </c>
-      <c r="M113" s="8" t="s">
+      <c r="H113" s="11">
+        <v>0</v>
+      </c>
+      <c r="I113" s="11">
+        <v>2297920</v>
+      </c>
+      <c r="J113" s="11">
+        <v>1442.58</v>
+      </c>
+      <c r="K113" s="11">
+        <v>21710</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="M113" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N113" s="8" t="s">
+      <c r="N113" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" s="6">
         <v>600820</v>
@@ -5746,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="7">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="G114" s="7">
         <v>6.273</v>
@@ -5755,16 +5752,16 @@
         <v>0</v>
       </c>
       <c r="I114" s="7">
-        <v>249084</v>
+        <v>249491</v>
       </c>
       <c r="J114" s="7">
-        <v>-6233.44</v>
+        <v>-5826.44</v>
       </c>
       <c r="K114" s="7">
-        <v>-4884</v>
+        <v>407</v>
       </c>
       <c r="L114" s="8">
-        <v>-2.44</v>
+        <v>-2.28</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>24</v>
@@ -5775,40 +5772,40 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B115" s="10">
         <v>300599</v>
       </c>
       <c r="C115" s="10">
-        <v>21900</v>
+        <v>0</v>
       </c>
       <c r="D115" s="10">
-        <v>21900</v>
+        <v>0</v>
       </c>
       <c r="E115" s="10">
         <v>0</v>
       </c>
       <c r="F115" s="11">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="G115" s="11">
-        <v>10.999</v>
+        <v>0</v>
       </c>
       <c r="H115" s="11">
         <v>0</v>
       </c>
       <c r="I115" s="11">
-        <v>328500</v>
+        <v>0</v>
       </c>
       <c r="J115" s="11">
-        <v>87616.13</v>
+        <v>86049.9</v>
       </c>
       <c r="K115" s="11">
-        <v>-12074.58</v>
+        <v>-1650.82</v>
       </c>
       <c r="L115" s="9">
-        <v>36.38</v>
+        <v>0</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>26</v>
@@ -5819,7 +5816,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" s="6">
         <v>603501</v>
@@ -5834,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="7">
-        <v>187</v>
+        <v>187.05</v>
       </c>
       <c r="G116" s="7">
         <v>210.976</v>
@@ -5843,16 +5840,16 @@
         <v>0</v>
       </c>
       <c r="I116" s="7">
-        <v>2244000</v>
+        <v>2244600</v>
       </c>
       <c r="J116" s="7">
-        <v>-287716.45</v>
+        <v>-287116.45</v>
       </c>
       <c r="K116" s="7">
-        <v>-54120</v>
+        <v>600</v>
       </c>
       <c r="L116" s="8">
-        <v>-11.36</v>
+        <v>-11.34</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>24</v>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" s="6">
         <v>603711</v>
@@ -5878,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="7">
-        <v>27.21</v>
+        <v>26.55</v>
       </c>
       <c r="G117" s="7">
         <v>29.334</v>
@@ -5887,16 +5884,16 @@
         <v>0</v>
       </c>
       <c r="I117" s="7">
-        <v>813579</v>
+        <v>793845</v>
       </c>
       <c r="J117" s="7">
-        <v>-63498.47</v>
+        <v>-83232.47</v>
       </c>
       <c r="K117" s="7">
-        <v>-5681</v>
+        <v>-19734</v>
       </c>
       <c r="L117" s="8">
-        <v>-7.24</v>
+        <v>-9.49</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>24</v>
@@ -5907,7 +5904,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118" s="10">
         <v>300423</v>
@@ -5922,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="11">
-        <v>14.61</v>
+        <v>14.43</v>
       </c>
       <c r="G118" s="11">
         <v>13.926</v>
@@ -5931,16 +5928,16 @@
         <v>0</v>
       </c>
       <c r="I118" s="11">
-        <v>115419</v>
+        <v>113997</v>
       </c>
       <c r="J118" s="11">
-        <v>5406.5</v>
+        <v>3984.5</v>
       </c>
       <c r="K118" s="11">
-        <v>-2291</v>
+        <v>-1422</v>
       </c>
       <c r="L118" s="9">
-        <v>4.91</v>
+        <v>3.62</v>
       </c>
       <c r="M118" s="9" t="s">
         <v>26</v>
@@ -5951,10 +5948,10 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="C119" s="10">
         <v>50500</v>
@@ -5966,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="11">
-        <v>47.64</v>
+        <v>46.53</v>
       </c>
       <c r="G119" s="11">
         <v>45.183</v>
@@ -5975,16 +5972,16 @@
         <v>0</v>
       </c>
       <c r="I119" s="11">
-        <v>2405820</v>
+        <v>2349765</v>
       </c>
       <c r="J119" s="11">
-        <v>124084.68</v>
+        <v>68029.68</v>
       </c>
       <c r="K119" s="11">
-        <v>-15150</v>
+        <v>-56055</v>
       </c>
       <c r="L119" s="9">
-        <v>5.44</v>
+        <v>2.98</v>
       </c>
       <c r="M119" s="9" t="s">
         <v>26</v>
@@ -5995,10 +5992,10 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="C120" s="6">
         <v>138025</v>
@@ -6010,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="7">
-        <v>16.09</v>
+        <v>15.85</v>
       </c>
       <c r="G120" s="7">
         <v>16.25</v>
@@ -6019,16 +6016,16 @@
         <v>0</v>
       </c>
       <c r="I120" s="7">
-        <v>2220822.25</v>
+        <v>2187696.25</v>
       </c>
       <c r="J120" s="7">
-        <v>-22062.38</v>
+        <v>-55188.38</v>
       </c>
       <c r="K120" s="7">
-        <v>55210</v>
+        <v>-33126</v>
       </c>
       <c r="L120" s="8">
-        <v>-0.98</v>
+        <v>-2.46</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>26</v>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="175">
   <si>
     <t>资金</t>
   </si>
@@ -334,9 +334,6 @@
     <t>002327</t>
   </si>
   <si>
-    <t>工业富联</t>
-  </si>
-  <si>
     <t>广信股份</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>开润股份</t>
   </si>
   <si>
-    <t>思创医惠</t>
-  </si>
-  <si>
     <t>拓尔思</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
   </si>
   <si>
     <t>隧道股份</t>
-  </si>
-  <si>
-    <t>雄塑科技</t>
   </si>
   <si>
     <t>韦尔股份</t>
@@ -939,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -1019,28 +1010,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>12819172.11</v>
+        <v>10938654.8</v>
       </c>
       <c r="D3" s="3">
-        <v>10936534.82</v>
+        <v>2279464.61</v>
       </c>
       <c r="E3" s="3">
-        <v>10936534.82</v>
+        <v>2279464.61</v>
       </c>
       <c r="F3" s="3">
-        <v>1882637.29</v>
+        <v>8659190.19</v>
       </c>
       <c r="G3" s="3">
-        <v>111389329.77</v>
+        <v>120338456.83</v>
       </c>
       <c r="H3" s="3">
-        <v>122325864.59</v>
+        <v>122617921.44</v>
       </c>
       <c r="I3" s="3">
-        <v>-5569895.68</v>
+        <v>-4911320.67</v>
       </c>
       <c r="J3" s="3">
-        <v>-1633120.63</v>
+        <v>289936.87</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1147,10 +1138,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5879000</v>
+        <v>5871000</v>
       </c>
       <c r="C8" s="3">
-        <v>5879000</v>
+        <v>5871000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1164,7 +1155,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>7905000</v>
+        <v>8008000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1246,34 +1237,34 @@
         <v>300482</v>
       </c>
       <c r="C12" s="6">
-        <v>23400</v>
+        <v>18800</v>
       </c>
       <c r="D12" s="6">
-        <v>23400</v>
+        <v>18800</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>90.21</v>
+        <v>89.31</v>
       </c>
       <c r="G12" s="7">
-        <v>98.178</v>
+        <v>100.19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2110914</v>
+        <v>1679028</v>
       </c>
       <c r="J12" s="7">
-        <v>-186462.49</v>
+        <v>-204537.3</v>
       </c>
       <c r="K12" s="7">
-        <v>-81198</v>
+        <v>-18074.81</v>
       </c>
       <c r="L12" s="8">
-        <v>-8.12</v>
+        <v>-10.86</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1283,46 +1274,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6">
-        <v>66800</v>
-      </c>
-      <c r="D13" s="6">
-        <v>66800</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>9.27</v>
-      </c>
-      <c r="G13" s="7">
-        <v>9.282</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>619236</v>
-      </c>
-      <c r="J13" s="7">
-        <v>-790.02</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-10020</v>
-      </c>
-      <c r="L13" s="8">
-        <v>-0.13</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="C13" s="10">
+        <v>1400</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1400</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>9.33</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-7.4</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>13062</v>
+      </c>
+      <c r="J13" s="11">
+        <v>23421.61</v>
+      </c>
+      <c r="K13" s="11">
+        <v>24211.63</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1334,34 +1325,34 @@
         <v>300552</v>
       </c>
       <c r="C14" s="6">
-        <v>48882</v>
+        <v>36882</v>
       </c>
       <c r="D14" s="6">
-        <v>26000</v>
+        <v>36882</v>
       </c>
       <c r="E14" s="6">
-        <v>22882</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>45.46</v>
+        <v>45.93</v>
       </c>
       <c r="G14" s="7">
-        <v>46.595</v>
+        <v>46.435</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2222175.72</v>
+        <v>1693990.26</v>
       </c>
       <c r="J14" s="7">
-        <v>-55471.78</v>
+        <v>-18617.66</v>
       </c>
       <c r="K14" s="7">
-        <v>-31576.96</v>
+        <v>36804.29</v>
       </c>
       <c r="L14" s="8">
-        <v>-2.44</v>
+        <v>-1.09</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>26</v>
@@ -1378,34 +1369,34 @@
         <v>45</v>
       </c>
       <c r="C15" s="6">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>41.3</v>
+        <v>41.8</v>
       </c>
       <c r="G15" s="7">
-        <v>44.786</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2106300</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>-177797.29</v>
+        <v>-160592.04</v>
       </c>
       <c r="K15" s="7">
-        <v>-24990</v>
+        <v>17205.25</v>
       </c>
       <c r="L15" s="8">
-        <v>-7.78</v>
+        <v>0</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1422,34 +1413,34 @@
         <v>300783</v>
       </c>
       <c r="C16" s="6">
-        <v>5800</v>
+        <v>100</v>
       </c>
       <c r="D16" s="6">
-        <v>5800</v>
+        <v>100</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>64.69</v>
+        <v>63.75</v>
       </c>
       <c r="G16" s="7">
-        <v>67.205</v>
+        <v>254.934</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>375202</v>
+        <v>6375</v>
       </c>
       <c r="J16" s="7">
-        <v>-14586.51</v>
+        <v>-19118.36</v>
       </c>
       <c r="K16" s="7">
-        <v>-15718</v>
+        <v>-4531.85</v>
       </c>
       <c r="L16" s="8">
-        <v>-3.74</v>
+        <v>-74.99</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>26</v>
@@ -1466,34 +1457,34 @@
         <v>603920</v>
       </c>
       <c r="C17" s="6">
-        <v>29400</v>
+        <v>8900</v>
       </c>
       <c r="D17" s="6">
-        <v>29400</v>
+        <v>8900</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>22.83</v>
+        <v>23.03</v>
       </c>
       <c r="G17" s="7">
-        <v>24.423</v>
+        <v>26.37</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>671202</v>
+        <v>204967</v>
       </c>
       <c r="J17" s="7">
-        <v>-46829.56</v>
+        <v>-29724.76</v>
       </c>
       <c r="K17" s="7">
-        <v>-7056</v>
+        <v>17104.8</v>
       </c>
       <c r="L17" s="8">
-        <v>-6.52</v>
+        <v>-12.67</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>24</v>
@@ -1510,34 +1501,34 @@
         <v>600637</v>
       </c>
       <c r="C18" s="6">
-        <v>75500</v>
+        <v>39400</v>
       </c>
       <c r="D18" s="6">
-        <v>75500</v>
+        <v>39400</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>10.2</v>
+        <v>10.11</v>
       </c>
       <c r="G18" s="7">
-        <v>10.579</v>
+        <v>10.959</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>770100</v>
+        <v>398334</v>
       </c>
       <c r="J18" s="7">
-        <v>-28617.13</v>
+        <v>-33461.5</v>
       </c>
       <c r="K18" s="7">
-        <v>-4786.03</v>
+        <v>-4848.46</v>
       </c>
       <c r="L18" s="8">
-        <v>-3.58</v>
+        <v>-7.75</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>24</v>
@@ -1554,34 +1545,34 @@
         <v>600875</v>
       </c>
       <c r="C19" s="6">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>9.87</v>
+        <v>10.15</v>
       </c>
       <c r="G19" s="7">
-        <v>17.868</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>131271</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>-106374.26</v>
+        <v>-105683.35</v>
       </c>
       <c r="K19" s="7">
-        <v>-21134.86</v>
+        <v>687.3</v>
       </c>
       <c r="L19" s="8">
-        <v>-44.76</v>
+        <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
@@ -1621,8 +1612,8 @@
       <c r="J20" s="11">
         <v>53065.08</v>
       </c>
-      <c r="K20" s="11">
-        <v>-4610</v>
+      <c r="K20" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L20" s="9">
         <v>4.11</v>
@@ -1645,31 +1636,31 @@
         <v>75400</v>
       </c>
       <c r="D21" s="10">
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="E21" s="10">
-        <v>75400</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>11.32</v>
+        <v>10.95</v>
       </c>
       <c r="G21" s="11">
-        <v>10.788</v>
+        <v>10.784</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>853528</v>
+        <v>825630</v>
       </c>
       <c r="J21" s="11">
-        <v>40129.74</v>
+        <v>12488.85</v>
       </c>
       <c r="K21" s="11">
-        <v>40129.74</v>
+        <v>-27898</v>
       </c>
       <c r="L21" s="9">
-        <v>4.93</v>
+        <v>1.54</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1686,34 +1677,34 @@
         <v>300308</v>
       </c>
       <c r="C22" s="6">
-        <v>40400</v>
+        <v>30700</v>
       </c>
       <c r="D22" s="6">
-        <v>40400</v>
+        <v>30700</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>55.22</v>
+        <v>54.89</v>
       </c>
       <c r="G22" s="7">
-        <v>56.63</v>
+        <v>56.898</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2230888</v>
+        <v>1685123</v>
       </c>
       <c r="J22" s="7">
-        <v>-56970.09</v>
+        <v>-61647.66</v>
       </c>
       <c r="K22" s="7">
-        <v>-50096</v>
+        <v>-4677.57</v>
       </c>
       <c r="L22" s="8">
-        <v>-2.49</v>
+        <v>-3.53</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1733,31 +1724,31 @@
         <v>11000</v>
       </c>
       <c r="D23" s="10">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E23" s="10">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>36.26</v>
+        <v>37.4</v>
       </c>
       <c r="G23" s="11">
-        <v>36.12</v>
+        <v>36.108</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>398860</v>
+        <v>411400</v>
       </c>
       <c r="J23" s="11">
-        <v>1537.68</v>
+        <v>14215.59</v>
       </c>
       <c r="K23" s="11">
-        <v>1537.68</v>
+        <v>12540</v>
       </c>
       <c r="L23" s="9">
-        <v>0.39</v>
+        <v>3.58</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>24</v>
@@ -1774,34 +1765,34 @@
         <v>603983</v>
       </c>
       <c r="C24" s="6">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="D24" s="6">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>74.16</v>
+        <v>73.34</v>
       </c>
       <c r="G24" s="7">
-        <v>75.157</v>
+        <v>75.167</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1260720</v>
+        <v>1232112</v>
       </c>
       <c r="J24" s="7">
-        <v>-16941.22</v>
+        <v>-30697.4</v>
       </c>
       <c r="K24" s="7">
-        <v>-10880</v>
+        <v>-13756.18</v>
       </c>
       <c r="L24" s="8">
-        <v>-1.33</v>
+        <v>-2.43</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>24</v>
@@ -1818,34 +1809,34 @@
         <v>56</v>
       </c>
       <c r="C25" s="6">
-        <v>77200</v>
+        <v>66200</v>
       </c>
       <c r="D25" s="6">
-        <v>77200</v>
+        <v>66200</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>25.54</v>
+        <v>24.94</v>
       </c>
       <c r="G25" s="7">
-        <v>28.566</v>
+        <v>29.091</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1971688</v>
+        <v>1651028</v>
       </c>
       <c r="J25" s="7">
-        <v>-233603.31</v>
+        <v>-274764.27</v>
       </c>
       <c r="K25" s="7">
-        <v>-74112</v>
+        <v>-41160.96</v>
       </c>
       <c r="L25" s="8">
-        <v>-10.59</v>
+        <v>-14.27</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>26</v>
@@ -1862,10 +1853,10 @@
         <v>600602</v>
       </c>
       <c r="C26" s="6">
-        <v>300100</v>
+        <v>259100</v>
       </c>
       <c r="D26" s="6">
-        <v>300100</v>
+        <v>259100</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -1874,22 +1865,22 @@
         <v>7.35</v>
       </c>
       <c r="G26" s="7">
-        <v>7.556</v>
+        <v>7.584</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>2205735</v>
+        <v>1904385</v>
       </c>
       <c r="J26" s="7">
-        <v>-61732.9</v>
+        <v>-60657.35</v>
       </c>
       <c r="K26" s="7">
-        <v>-21007</v>
+        <v>1075.55</v>
       </c>
       <c r="L26" s="8">
-        <v>-2.73</v>
+        <v>-3.09</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>24</v>
@@ -1906,34 +1897,34 @@
         <v>300628</v>
       </c>
       <c r="C27" s="6">
-        <v>36900</v>
+        <v>7100</v>
       </c>
       <c r="D27" s="6">
-        <v>36900</v>
+        <v>7100</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>62.59</v>
+        <v>62.57</v>
       </c>
       <c r="G27" s="7">
-        <v>64.412</v>
+        <v>74.788</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>2309571</v>
+        <v>444247</v>
       </c>
       <c r="J27" s="7">
-        <v>-67215.48</v>
+        <v>-86749.73</v>
       </c>
       <c r="K27" s="7">
-        <v>16974</v>
+        <v>-19534.25</v>
       </c>
       <c r="L27" s="8">
-        <v>-2.83</v>
+        <v>-16.34</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>26</v>
@@ -1959,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>65.12</v>
+        <v>65.1</v>
       </c>
       <c r="G28" s="7">
         <v>66.171</v>
@@ -1968,16 +1959,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>488400</v>
+        <v>488250</v>
       </c>
       <c r="J28" s="7">
-        <v>-7884.12</v>
+        <v>-8034.12</v>
       </c>
       <c r="K28" s="7">
-        <v>-23700</v>
+        <v>-150</v>
       </c>
       <c r="L28" s="8">
-        <v>-1.59</v>
+        <v>-1.62</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>26</v>
@@ -1994,34 +1985,34 @@
         <v>300632</v>
       </c>
       <c r="C29" s="6">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="D29" s="6">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>15.6</v>
+        <v>15.58</v>
       </c>
       <c r="G29" s="7">
-        <v>15.709</v>
+        <v>15.819</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>265200</v>
+        <v>93480</v>
       </c>
       <c r="J29" s="7">
-        <v>-1858.12</v>
+        <v>-1432.88</v>
       </c>
       <c r="K29" s="7">
-        <v>-6970</v>
+        <v>425.24</v>
       </c>
       <c r="L29" s="8">
-        <v>-0.69</v>
+        <v>-1.51</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>26</v>
@@ -2047,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>14.85</v>
+        <v>14.78</v>
       </c>
       <c r="G30" s="7">
         <v>16.061</v>
@@ -2056,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>464805</v>
+        <v>462614</v>
       </c>
       <c r="J30" s="7">
-        <v>-37910.39</v>
+        <v>-40101.39</v>
       </c>
       <c r="K30" s="7">
-        <v>-6260</v>
+        <v>-2191</v>
       </c>
       <c r="L30" s="8">
-        <v>-7.54</v>
+        <v>-7.98</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>26</v>
@@ -2091,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>53</v>
+        <v>54.9</v>
       </c>
       <c r="G31" s="11">
         <v>41.637</v>
@@ -2100,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>482300</v>
+        <v>499590</v>
       </c>
       <c r="J31" s="11">
-        <v>103400.2</v>
+        <v>120690.2</v>
       </c>
       <c r="K31" s="11">
-        <v>-9009</v>
+        <v>17290</v>
       </c>
       <c r="L31" s="9">
-        <v>27.29</v>
+        <v>31.85</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>26</v>
@@ -2135,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <v>50.86</v>
+        <v>54.86</v>
       </c>
       <c r="G32" s="11">
         <v>48.841</v>
@@ -2144,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>1307102</v>
+        <v>1409902</v>
       </c>
       <c r="J32" s="11">
-        <v>51889.67</v>
+        <v>154689.67</v>
       </c>
       <c r="K32" s="11">
-        <v>-52428</v>
+        <v>102800</v>
       </c>
       <c r="L32" s="9">
-        <v>4.13</v>
+        <v>12.32</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>26</v>
@@ -2179,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>37.18</v>
+        <v>37.31</v>
       </c>
       <c r="G33" s="11">
         <v>33.81</v>
@@ -2188,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>371800</v>
+        <v>373100</v>
       </c>
       <c r="J33" s="11">
-        <v>33701.25</v>
+        <v>35001.25</v>
       </c>
       <c r="K33" s="11">
-        <v>-1200</v>
+        <v>1300</v>
       </c>
       <c r="L33" s="9">
-        <v>9.97</v>
+        <v>10.35</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>26</v>
@@ -2223,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>15.95</v>
+        <v>15.88</v>
       </c>
       <c r="G34" s="7">
         <v>16.725</v>
@@ -2232,16 +2223,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>870981.65</v>
+        <v>867159.16</v>
       </c>
       <c r="J34" s="7">
-        <v>-42311.35</v>
+        <v>-46133.84</v>
       </c>
       <c r="K34" s="7">
-        <v>-34402.41</v>
+        <v>-3822.49</v>
       </c>
       <c r="L34" s="8">
-        <v>-4.63</v>
+        <v>-5.05</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>26</v>
@@ -2258,34 +2249,34 @@
         <v>69</v>
       </c>
       <c r="C35" s="6">
-        <v>40200</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
-        <v>40200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>4.59</v>
+        <v>4.73</v>
       </c>
       <c r="G35" s="7">
-        <v>4.785</v>
+        <v>0</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>184518</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7">
-        <v>-7836.86</v>
+        <v>-7432.52</v>
       </c>
       <c r="K35" s="7">
-        <v>804</v>
+        <v>404.34</v>
       </c>
       <c r="L35" s="8">
-        <v>-4.08</v>
+        <v>0</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>26</v>
@@ -2311,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>27.94</v>
+        <v>27.55</v>
       </c>
       <c r="G36" s="7">
         <v>29.285</v>
@@ -2320,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>745998</v>
+        <v>735585</v>
       </c>
       <c r="J36" s="7">
-        <v>-35901.92</v>
+        <v>-46314.92</v>
       </c>
       <c r="K36" s="7">
-        <v>-26967</v>
+        <v>-10413</v>
       </c>
       <c r="L36" s="8">
-        <v>-4.59</v>
+        <v>-5.92</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>24</v>
@@ -2346,34 +2337,34 @@
         <v>72</v>
       </c>
       <c r="C37" s="6">
-        <v>80600</v>
+        <v>55200</v>
       </c>
       <c r="D37" s="6">
-        <v>80600</v>
+        <v>55200</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>5.47</v>
+        <v>5.76</v>
       </c>
       <c r="G37" s="7">
-        <v>6.22</v>
+        <v>6.563</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>440882</v>
+        <v>317952</v>
       </c>
       <c r="J37" s="7">
-        <v>-60458.2</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>15</v>
+        <v>-44342.73</v>
+      </c>
+      <c r="K37" s="7">
+        <v>16115.47</v>
       </c>
       <c r="L37" s="8">
-        <v>-12.06</v>
+        <v>-12.24</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>26</v>
@@ -2390,34 +2381,34 @@
         <v>300271</v>
       </c>
       <c r="C38" s="6">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="D38" s="6">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>26.9</v>
+        <v>26.65</v>
       </c>
       <c r="G38" s="7">
-        <v>27.585</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>629460</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
-        <v>-16024.8</v>
+        <v>-22047.92</v>
       </c>
       <c r="K38" s="7">
-        <v>9828</v>
+        <v>-6023.12</v>
       </c>
       <c r="L38" s="8">
-        <v>-2.48</v>
+        <v>0</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>26</v>
@@ -2434,34 +2425,34 @@
         <v>511990</v>
       </c>
       <c r="C39" s="10">
-        <v>14</v>
+        <v>600014</v>
       </c>
       <c r="D39" s="10">
-        <v>14</v>
+        <v>600014</v>
       </c>
       <c r="E39" s="10">
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>100.012</v>
+        <v>100.024</v>
       </c>
       <c r="G39" s="11">
-        <v>-11749.026</v>
+        <v>99.738</v>
       </c>
       <c r="H39" s="11">
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>1400.17</v>
+        <v>60015800.34</v>
       </c>
       <c r="J39" s="11">
-        <v>165886.54</v>
+        <v>171886.71</v>
       </c>
       <c r="K39" s="11">
-        <v>-0.07</v>
+        <v>6000.17</v>
       </c>
       <c r="L39" s="9">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>24</v>
@@ -2487,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>28.35</v>
+        <v>28.34</v>
       </c>
       <c r="G40" s="7">
         <v>29.407</v>
@@ -2496,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>496125</v>
+        <v>495950</v>
       </c>
       <c r="J40" s="7">
-        <v>-18490.2</v>
+        <v>-18665.2</v>
       </c>
       <c r="K40" s="7">
-        <v>-12425</v>
+        <v>-175</v>
       </c>
       <c r="L40" s="8">
-        <v>-3.59</v>
+        <v>-3.63</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>26</v>
@@ -2531,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>17.95</v>
+        <v>17.8</v>
       </c>
       <c r="G41" s="7">
         <v>19.26</v>
@@ -2540,16 +2531,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>351820</v>
+        <v>348880</v>
       </c>
       <c r="J41" s="7">
-        <v>-25668.24</v>
+        <v>-28608.24</v>
       </c>
       <c r="K41" s="7">
-        <v>-24304</v>
+        <v>-2940</v>
       </c>
       <c r="L41" s="8">
-        <v>-6.8</v>
+        <v>-7.58</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>24</v>
@@ -2559,46 +2550,46 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="6">
         <v>300782</v>
       </c>
-      <c r="C42" s="10">
-        <v>5500</v>
-      </c>
-      <c r="D42" s="10">
-        <v>5400</v>
-      </c>
-      <c r="E42" s="10">
-        <v>100</v>
-      </c>
-      <c r="F42" s="11">
-        <v>417.08</v>
-      </c>
-      <c r="G42" s="11">
-        <v>414.407</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>2293940</v>
-      </c>
-      <c r="J42" s="11">
-        <v>14699.16</v>
-      </c>
-      <c r="K42" s="11">
-        <v>43303.86</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" s="9" t="s">
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>406.86</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-29940.94</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-44640.1</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2610,34 +2601,34 @@
         <v>79</v>
       </c>
       <c r="C43" s="6">
-        <v>38800</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>38800</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>18.28</v>
+        <v>18.94</v>
       </c>
       <c r="G43" s="7">
-        <v>21.488</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>709264</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
-        <v>-124488.05</v>
+        <v>-124810.38</v>
       </c>
       <c r="K43" s="7">
-        <v>-4656</v>
+        <v>-322.33</v>
       </c>
       <c r="L43" s="8">
-        <v>-14.93</v>
+        <v>0</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>26</v>
@@ -2654,34 +2645,34 @@
         <v>81</v>
       </c>
       <c r="C44" s="6">
-        <v>94800</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
-        <v>94800</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>22.3</v>
+        <v>23.36</v>
       </c>
       <c r="G44" s="7">
-        <v>25.501</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>2114040</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>-303434.56</v>
+        <v>-210064.01</v>
       </c>
       <c r="K44" s="7">
-        <v>-91008</v>
+        <v>93370.55</v>
       </c>
       <c r="L44" s="8">
-        <v>-12.55</v>
+        <v>0</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>26</v>
@@ -2701,31 +2692,31 @@
         <v>4500</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="6">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>54.54</v>
+        <v>54.45</v>
       </c>
       <c r="G45" s="7">
-        <v>55.342</v>
+        <v>55.32</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>245430</v>
+        <v>245025</v>
       </c>
       <c r="J45" s="7">
-        <v>-3608</v>
+        <v>-3915.35</v>
       </c>
       <c r="K45" s="7">
-        <v>-3608</v>
+        <v>-405</v>
       </c>
       <c r="L45" s="8">
-        <v>-1.45</v>
+        <v>-1.57</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>26</v>
@@ -2742,34 +2733,34 @@
         <v>601137</v>
       </c>
       <c r="C46" s="6">
-        <v>97100</v>
+        <v>12574</v>
       </c>
       <c r="D46" s="6">
-        <v>97100</v>
+        <v>12574</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>14.38</v>
+        <v>14.43</v>
       </c>
       <c r="G46" s="7">
-        <v>14.838</v>
+        <v>18.264</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1396298</v>
+        <v>181442.82</v>
       </c>
       <c r="J46" s="7">
-        <v>-44446.72</v>
+        <v>-48205.38</v>
       </c>
       <c r="K46" s="7">
-        <v>-23304</v>
+        <v>-3758.66</v>
       </c>
       <c r="L46" s="8">
-        <v>-3.09</v>
+        <v>-20.99</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>24</v>
@@ -2795,25 +2786,25 @@
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>29.62</v>
+        <v>29.24</v>
       </c>
       <c r="G47" s="7">
-        <v>34.33</v>
+        <v>34.324</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>364326</v>
+        <v>359652</v>
       </c>
       <c r="J47" s="7">
-        <v>-57936.73</v>
+        <v>-62538.17</v>
       </c>
       <c r="K47" s="7">
-        <v>-16295.46</v>
+        <v>-4674</v>
       </c>
       <c r="L47" s="8">
-        <v>-13.72</v>
+        <v>-14.81</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>26</v>
@@ -2839,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="G48" s="11">
         <v>53.268</v>
@@ -2848,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>457500</v>
+        <v>452250</v>
       </c>
       <c r="J48" s="11">
-        <v>57993.56</v>
+        <v>52743.56</v>
       </c>
       <c r="K48" s="11">
-        <v>-16650</v>
+        <v>-5250</v>
       </c>
       <c r="L48" s="9">
-        <v>14.52</v>
+        <v>13.2</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>26</v>
@@ -2874,34 +2865,34 @@
         <v>88</v>
       </c>
       <c r="C49" s="10">
-        <v>76100</v>
+        <v>41000</v>
       </c>
       <c r="D49" s="10">
-        <v>76100</v>
+        <v>41000</v>
       </c>
       <c r="E49" s="10">
         <v>0</v>
       </c>
       <c r="F49" s="11">
-        <v>9.78</v>
+        <v>10.48</v>
       </c>
       <c r="G49" s="11">
-        <v>9.74</v>
+        <v>9.428</v>
       </c>
       <c r="H49" s="11">
         <v>0</v>
       </c>
       <c r="I49" s="11">
-        <v>744258</v>
+        <v>429680</v>
       </c>
       <c r="J49" s="11">
-        <v>3050.9</v>
+        <v>43136.07</v>
       </c>
       <c r="K49" s="11">
-        <v>-25113</v>
+        <v>40085.17</v>
       </c>
       <c r="L49" s="9">
-        <v>0.41</v>
+        <v>11.16</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>26</v>
@@ -2918,34 +2909,34 @@
         <v>603260</v>
       </c>
       <c r="C50" s="10">
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="D50" s="10">
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="E50" s="10">
         <v>0</v>
       </c>
       <c r="F50" s="11">
-        <v>30.29</v>
+        <v>29.87</v>
       </c>
       <c r="G50" s="11">
-        <v>29.113</v>
+        <v>0</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>714844</v>
+        <v>0</v>
       </c>
       <c r="J50" s="11">
-        <v>27768.71</v>
+        <v>33869.53</v>
       </c>
       <c r="K50" s="11">
-        <v>-7552</v>
+        <v>6100.82</v>
       </c>
       <c r="L50" s="9">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>24</v>
@@ -2971,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>32.15</v>
+        <v>32.03</v>
       </c>
       <c r="G51" s="7">
         <v>38.829</v>
@@ -2980,16 +2971,16 @@
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>218620</v>
+        <v>217804</v>
       </c>
       <c r="J51" s="7">
-        <v>-45414.59</v>
+        <v>-46230.59</v>
       </c>
       <c r="K51" s="7">
-        <v>-11084</v>
+        <v>-816</v>
       </c>
       <c r="L51" s="8">
-        <v>-17.2</v>
+        <v>-17.51</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>26</v>
@@ -3015,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="11">
-        <v>13.77</v>
+        <v>14.01</v>
       </c>
       <c r="G52" s="11">
         <v>3.772</v>
@@ -3024,16 +3015,16 @@
         <v>0</v>
       </c>
       <c r="I52" s="11">
-        <v>162486</v>
+        <v>165318</v>
       </c>
       <c r="J52" s="11">
-        <v>117982.13</v>
+        <v>120814.13</v>
       </c>
       <c r="K52" s="11">
-        <v>-4366</v>
+        <v>2832</v>
       </c>
       <c r="L52" s="9">
-        <v>265.06</v>
+        <v>271.42</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>26</v>
@@ -3050,34 +3041,34 @@
         <v>603613</v>
       </c>
       <c r="C53" s="6">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>82.7</v>
+        <v>82.84</v>
       </c>
       <c r="G53" s="7">
-        <v>83.704</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>653330</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>-7929.12</v>
+        <v>-8811.41</v>
       </c>
       <c r="K53" s="7">
-        <v>-8690</v>
+        <v>-882.29</v>
       </c>
       <c r="L53" s="8">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>24</v>
@@ -3094,34 +3085,34 @@
         <v>300661</v>
       </c>
       <c r="C54" s="6">
-        <v>7100</v>
+        <v>3200</v>
       </c>
       <c r="D54" s="6">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="E54" s="6">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>331.66</v>
+        <v>338.75</v>
       </c>
       <c r="G54" s="7">
-        <v>341.312</v>
+        <v>355.44</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>2354786</v>
+        <v>1084000</v>
       </c>
       <c r="J54" s="7">
-        <v>-68528.98</v>
+        <v>-53408.56</v>
       </c>
       <c r="K54" s="7">
-        <v>86425.58</v>
+        <v>15120.42</v>
       </c>
       <c r="L54" s="8">
-        <v>-2.83</v>
+        <v>-4.7</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3138,34 +3129,34 @@
         <v>603826</v>
       </c>
       <c r="C55" s="6">
-        <v>81000</v>
+        <v>65100</v>
       </c>
       <c r="D55" s="6">
-        <v>80800</v>
+        <v>65100</v>
       </c>
       <c r="E55" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="G55" s="7">
-        <v>30.731</v>
+        <v>31.617</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>2122200</v>
+        <v>1699110</v>
       </c>
       <c r="J55" s="7">
-        <v>-367012.68</v>
+        <v>-359126.03</v>
       </c>
       <c r="K55" s="7">
-        <v>-76933.11</v>
+        <v>7882.46</v>
       </c>
       <c r="L55" s="8">
-        <v>-14.74</v>
+        <v>-17.45</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>24</v>
@@ -3182,34 +3173,34 @@
         <v>603387</v>
       </c>
       <c r="C56" s="6">
-        <v>13200</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
-        <v>13200</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>38</v>
+        <v>38.01</v>
       </c>
       <c r="G56" s="7">
-        <v>41.043</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>501600</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7">
-        <v>-40163.09</v>
+        <v>-39618.39</v>
       </c>
       <c r="K56" s="7">
-        <v>-16632</v>
+        <v>544.7</v>
       </c>
       <c r="L56" s="8">
-        <v>-7.41</v>
+        <v>0</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>24</v>
@@ -3235,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>92.43</v>
+        <v>90.81</v>
       </c>
       <c r="G57" s="7">
         <v>102.032</v>
@@ -3244,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>1663740</v>
+        <v>1634580</v>
       </c>
       <c r="J57" s="7">
-        <v>-172844.51</v>
+        <v>-202004.51</v>
       </c>
       <c r="K57" s="7">
-        <v>-27900</v>
+        <v>-29160</v>
       </c>
       <c r="L57" s="8">
-        <v>-9.41</v>
+        <v>-11</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>26</v>
@@ -3270,34 +3261,34 @@
         <v>603317</v>
       </c>
       <c r="C58" s="6">
-        <v>39100</v>
+        <v>30000</v>
       </c>
       <c r="D58" s="6">
-        <v>39100</v>
+        <v>30000</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>56.24</v>
+        <v>56.77</v>
       </c>
       <c r="G58" s="7">
-        <v>57.098</v>
+        <v>57.222</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>2198984</v>
+        <v>1703100</v>
       </c>
       <c r="J58" s="7">
-        <v>-33551.53</v>
+        <v>-13558.82</v>
       </c>
       <c r="K58" s="7">
-        <v>-68816</v>
+        <v>19992.71</v>
       </c>
       <c r="L58" s="8">
-        <v>-1.5</v>
+        <v>-0.79</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>24</v>
@@ -3314,34 +3305,34 @@
         <v>600129</v>
       </c>
       <c r="C59" s="6">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>16.24</v>
+        <v>16.34</v>
       </c>
       <c r="G59" s="7">
-        <v>17.039</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>240352</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7">
-        <v>-11822.86</v>
+        <v>-11895.38</v>
       </c>
       <c r="K59" s="7">
-        <v>-4884</v>
+        <v>-72.52</v>
       </c>
       <c r="L59" s="8">
-        <v>-4.69</v>
+        <v>0</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>24</v>
@@ -3358,34 +3349,34 @@
         <v>102</v>
       </c>
       <c r="C60" s="10">
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="D60" s="10">
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="E60" s="10">
         <v>0</v>
       </c>
       <c r="F60" s="11">
-        <v>58.69</v>
+        <v>59.25</v>
       </c>
       <c r="G60" s="11">
-        <v>57.744</v>
+        <v>0</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
       </c>
       <c r="I60" s="11">
-        <v>1162062</v>
+        <v>0</v>
       </c>
       <c r="J60" s="11">
-        <v>18737.26</v>
+        <v>56568.15</v>
       </c>
       <c r="K60" s="11">
-        <v>16038</v>
+        <v>37830.89</v>
       </c>
       <c r="L60" s="9">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>26</v>
@@ -3395,46 +3386,46 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="6">
         <v>603788</v>
       </c>
-      <c r="C61" s="10">
-        <v>26300</v>
-      </c>
-      <c r="D61" s="10">
-        <v>26300</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>18.4</v>
-      </c>
-      <c r="G61" s="11">
-        <v>18.318</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>483920</v>
-      </c>
-      <c r="J61" s="11">
-        <v>2152.93</v>
-      </c>
-      <c r="K61" s="11">
-        <v>14465</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="C61" s="6">
+        <v>8500</v>
+      </c>
+      <c r="D61" s="6">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>18.35</v>
+      </c>
+      <c r="G61" s="7">
+        <v>18.429</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>155975</v>
+      </c>
+      <c r="J61" s="7">
+        <v>-673.95</v>
+      </c>
+      <c r="K61" s="7">
+        <v>-2826.88</v>
+      </c>
+      <c r="L61" s="8">
+        <v>-0.43</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3446,34 +3437,34 @@
         <v>105</v>
       </c>
       <c r="C62" s="6">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>7.29</v>
+        <v>7.26</v>
       </c>
       <c r="G62" s="7">
-        <v>7.555</v>
+        <v>0</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>169857</v>
+        <v>0</v>
       </c>
       <c r="J62" s="7">
-        <v>-6172.37</v>
+        <v>-5260.54</v>
       </c>
       <c r="K62" s="7">
-        <v>-3961</v>
+        <v>911.83</v>
       </c>
       <c r="L62" s="8">
-        <v>-3.51</v>
+        <v>0</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3487,37 +3478,37 @@
         <v>106</v>
       </c>
       <c r="B63" s="6">
-        <v>601138</v>
+        <v>603599</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="D63" s="6">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>15.14</v>
+        <v>16.9</v>
       </c>
       <c r="G63" s="7">
-        <v>0</v>
+        <v>19.402</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>0</v>
+        <v>430950</v>
       </c>
       <c r="J63" s="7">
-        <v>-193709.89</v>
+        <v>-63803.8</v>
       </c>
       <c r="K63" s="7">
-        <v>21247.25</v>
+        <v>3157.15</v>
       </c>
       <c r="L63" s="8">
-        <v>0</v>
+        <v>-12.9</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>24</v>
@@ -3531,81 +3522,81 @@
         <v>107</v>
       </c>
       <c r="B64" s="6">
-        <v>603599</v>
+        <v>300638</v>
       </c>
       <c r="C64" s="6">
-        <v>51900</v>
+        <v>15300</v>
       </c>
       <c r="D64" s="6">
-        <v>51900</v>
+        <v>15300</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>16.83</v>
+        <v>73.39</v>
       </c>
       <c r="G64" s="7">
-        <v>18.12</v>
+        <v>75.628</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>873477</v>
+        <v>1122867</v>
       </c>
       <c r="J64" s="7">
-        <v>-66960.95</v>
+        <v>-34244.56</v>
       </c>
       <c r="K64" s="7">
-        <v>-9342</v>
+        <v>-14382</v>
       </c>
       <c r="L64" s="8">
-        <v>-7.12</v>
+        <v>-2.96</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="6">
-        <v>300638</v>
+      <c r="B65" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C65" s="6">
-        <v>15300</v>
+        <v>25299</v>
       </c>
       <c r="D65" s="6">
-        <v>0</v>
+        <v>25299</v>
       </c>
       <c r="E65" s="6">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>74.33</v>
+        <v>65.8</v>
       </c>
       <c r="G65" s="7">
-        <v>75.636</v>
+        <v>76.476</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1137249</v>
+        <v>1664674.2</v>
       </c>
       <c r="J65" s="7">
-        <v>-19974.54</v>
+        <v>-270089.23</v>
       </c>
       <c r="K65" s="7">
-        <v>-19974.54</v>
+        <v>-30396.24</v>
       </c>
       <c r="L65" s="8">
-        <v>-1.73</v>
+        <v>-13.96</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>26</v>
@@ -3616,40 +3607,40 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="B66" s="6">
+        <v>300577</v>
+      </c>
       <c r="C66" s="6">
-        <v>33299</v>
+        <v>21900</v>
       </c>
       <c r="D66" s="6">
-        <v>30199</v>
+        <v>21900</v>
       </c>
       <c r="E66" s="6">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>66.92</v>
+        <v>31.3</v>
       </c>
       <c r="G66" s="7">
-        <v>74.118</v>
+        <v>32.217</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>2228369.08</v>
+        <v>685470</v>
       </c>
       <c r="J66" s="7">
-        <v>-239698.96</v>
+        <v>-20078.84</v>
       </c>
       <c r="K66" s="7">
-        <v>-31643.14</v>
+        <v>-7665</v>
       </c>
       <c r="L66" s="8">
-        <v>-9.71</v>
+        <v>-2.85</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>26</v>
@@ -3663,37 +3654,37 @@
         <v>111</v>
       </c>
       <c r="B67" s="6">
-        <v>300577</v>
+        <v>300229</v>
       </c>
       <c r="C67" s="6">
-        <v>21900</v>
+        <v>61000</v>
       </c>
       <c r="D67" s="6">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E67" s="6">
-        <v>21900</v>
+        <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>31.65</v>
+        <v>11.63</v>
       </c>
       <c r="G67" s="7">
-        <v>32.231</v>
+        <v>13.402</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>693135</v>
+        <v>709430</v>
       </c>
       <c r="J67" s="7">
-        <v>-12730.41</v>
+        <v>-108110.38</v>
       </c>
       <c r="K67" s="7">
-        <v>-12730.41</v>
+        <v>24608.15</v>
       </c>
       <c r="L67" s="8">
-        <v>-1.8</v>
+        <v>-13.22</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>26</v>
@@ -3707,37 +3698,37 @@
         <v>112</v>
       </c>
       <c r="B68" s="6">
-        <v>300078</v>
+        <v>300724</v>
       </c>
       <c r="C68" s="6">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>12.27</v>
+        <v>83.22</v>
       </c>
       <c r="G68" s="7">
-        <v>0</v>
+        <v>96.138</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>1697688</v>
       </c>
       <c r="J68" s="7">
-        <v>-258717.84</v>
+        <v>-263521.51</v>
       </c>
       <c r="K68" s="7">
-        <v>-4368.8</v>
+        <v>-5660.45</v>
       </c>
       <c r="L68" s="8">
-        <v>0</v>
+        <v>-13.44</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>26</v>
@@ -3751,37 +3742,37 @@
         <v>113</v>
       </c>
       <c r="B69" s="6">
-        <v>300229</v>
+        <v>300079</v>
       </c>
       <c r="C69" s="6">
-        <v>170200</v>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
-        <v>170200</v>
+        <v>0</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>11.58</v>
+        <v>4.92</v>
       </c>
       <c r="G69" s="7">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>1970916</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7">
-        <v>-132718.53</v>
+        <v>-110159.88</v>
       </c>
       <c r="K69" s="7">
-        <v>-35742</v>
+        <v>5574.87</v>
       </c>
       <c r="L69" s="8">
-        <v>-6.31</v>
+        <v>0</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3794,38 +3785,38 @@
       <c r="A70" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="6">
-        <v>300724</v>
+      <c r="B70" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C70" s="6">
-        <v>27000</v>
+        <v>63100</v>
       </c>
       <c r="D70" s="6">
-        <v>23000</v>
+        <v>63100</v>
       </c>
       <c r="E70" s="6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>83.25</v>
+        <v>10.85</v>
       </c>
       <c r="G70" s="7">
-        <v>92.8</v>
+        <v>11.632</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>2247750</v>
+        <v>684635</v>
       </c>
       <c r="J70" s="7">
-        <v>-257861.06</v>
+        <v>-49344.62</v>
       </c>
       <c r="K70" s="7">
-        <v>-102763.52</v>
+        <v>6765.51</v>
       </c>
       <c r="L70" s="8">
-        <v>-10.29</v>
+        <v>-6.72</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3836,40 +3827,40 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="6">
-        <v>300079</v>
+        <v>300259</v>
       </c>
       <c r="C71" s="6">
-        <v>61900</v>
+        <v>6460</v>
       </c>
       <c r="D71" s="6">
-        <v>61900</v>
+        <v>6460</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
       <c r="G71" s="7">
-        <v>6.77</v>
+        <v>13.526</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>303310</v>
+        <v>31524.8</v>
       </c>
       <c r="J71" s="7">
-        <v>-115734.75</v>
+        <v>-55852.41</v>
       </c>
       <c r="K71" s="7">
-        <v>-1238</v>
+        <v>576.2</v>
       </c>
       <c r="L71" s="8">
-        <v>-27.62</v>
+        <v>-63.92</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>26</v>
@@ -3880,40 +3871,40 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="8" t="s">
         <v>117</v>
       </c>
+      <c r="B72" s="6">
+        <v>300502</v>
+      </c>
       <c r="C72" s="6">
-        <v>126000</v>
+        <v>24980</v>
       </c>
       <c r="D72" s="6">
-        <v>126000</v>
+        <v>24980</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>10.76</v>
+        <v>67.92</v>
       </c>
       <c r="G72" s="7">
-        <v>11.205</v>
+        <v>72.88</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>1355760</v>
+        <v>1696641.6</v>
       </c>
       <c r="J72" s="7">
-        <v>-56110.13</v>
+        <v>-123898.39</v>
       </c>
       <c r="K72" s="7">
-        <v>1260</v>
+        <v>11091.12</v>
       </c>
       <c r="L72" s="8">
-        <v>-3.97</v>
+        <v>-6.81</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3927,37 +3918,37 @@
         <v>118</v>
       </c>
       <c r="B73" s="6">
-        <v>300259</v>
+        <v>300212</v>
       </c>
       <c r="C73" s="6">
-        <v>75300</v>
+        <v>36244</v>
       </c>
       <c r="D73" s="6">
-        <v>75300</v>
+        <v>36244</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>4.89</v>
+        <v>45.75</v>
       </c>
       <c r="G73" s="7">
-        <v>5.639</v>
+        <v>53.925</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>368217</v>
+        <v>1658163</v>
       </c>
       <c r="J73" s="7">
-        <v>-56428.61</v>
+        <v>-296306.82</v>
       </c>
       <c r="K73" s="7">
-        <v>-3765</v>
+        <v>-21528.71</v>
       </c>
       <c r="L73" s="8">
-        <v>-13.28</v>
+        <v>-15.16</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>26</v>
@@ -3967,47 +3958,47 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="6">
-        <v>300502</v>
-      </c>
-      <c r="C74" s="6">
-        <v>32780</v>
-      </c>
-      <c r="D74" s="6">
-        <v>32180</v>
-      </c>
-      <c r="E74" s="6">
-        <v>600</v>
-      </c>
-      <c r="F74" s="7">
-        <v>67.66</v>
-      </c>
-      <c r="G74" s="7">
-        <v>71.778</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>2217894.8</v>
-      </c>
-      <c r="J74" s="7">
-        <v>-134993.31</v>
-      </c>
-      <c r="K74" s="7">
-        <v>-49979.4</v>
-      </c>
-      <c r="L74" s="8">
-        <v>-5.74</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>25</v>
+      <c r="B74" s="10">
+        <v>603127</v>
+      </c>
+      <c r="C74" s="10">
+        <v>500</v>
+      </c>
+      <c r="D74" s="10">
+        <v>500</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>87.9</v>
+      </c>
+      <c r="G74" s="11">
+        <v>-278.343</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>43950</v>
+      </c>
+      <c r="J74" s="11">
+        <v>183121.71</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-2675</v>
+      </c>
+      <c r="L74" s="9">
+        <v>0</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4015,37 +4006,37 @@
         <v>120</v>
       </c>
       <c r="B75" s="6">
-        <v>300212</v>
+        <v>300630</v>
       </c>
       <c r="C75" s="6">
-        <v>47144</v>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
-        <v>45044</v>
+        <v>0</v>
       </c>
       <c r="E75" s="6">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>46.44</v>
+        <v>40.7</v>
       </c>
       <c r="G75" s="7">
-        <v>52.269</v>
+        <v>0</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>2189367.36</v>
+        <v>0</v>
       </c>
       <c r="J75" s="7">
-        <v>-274784.47</v>
+        <v>-118114.53</v>
       </c>
       <c r="K75" s="7">
-        <v>-59960.91</v>
+        <v>-13146.92</v>
       </c>
       <c r="L75" s="8">
-        <v>-11.15</v>
+        <v>0</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -4055,222 +4046,222 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="10">
-        <v>603127</v>
-      </c>
-      <c r="C76" s="10">
-        <v>500</v>
-      </c>
-      <c r="D76" s="10">
-        <v>500</v>
-      </c>
-      <c r="E76" s="10">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>93.25</v>
-      </c>
-      <c r="G76" s="11">
-        <v>-278.343</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>46625</v>
-      </c>
-      <c r="J76" s="11">
-        <v>185796.71</v>
-      </c>
-      <c r="K76" s="11">
-        <v>-2275</v>
-      </c>
-      <c r="L76" s="9">
-        <v>0</v>
-      </c>
-      <c r="M76" s="9" t="s">
+      <c r="B76" s="6">
+        <v>603228</v>
+      </c>
+      <c r="C76" s="6">
+        <v>24300</v>
+      </c>
+      <c r="D76" s="6">
+        <v>24300</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>35.03</v>
+      </c>
+      <c r="G76" s="7">
+        <v>44.088</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>851229</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-220102.47</v>
+      </c>
+      <c r="K76" s="7">
+        <v>-4266.18</v>
+      </c>
+      <c r="L76" s="8">
+        <v>-20.55</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="6">
-        <v>300630</v>
-      </c>
-      <c r="C77" s="6">
-        <v>25000</v>
-      </c>
-      <c r="D77" s="6">
-        <v>25000</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>41.39</v>
-      </c>
-      <c r="G77" s="7">
-        <v>45.589</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>1034750</v>
-      </c>
-      <c r="J77" s="7">
-        <v>-104967.61</v>
-      </c>
-      <c r="K77" s="7">
-        <v>-33500</v>
-      </c>
-      <c r="L77" s="8">
-        <v>-9.21</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="8" t="s">
+      <c r="B77" s="10">
+        <v>300771</v>
+      </c>
+      <c r="C77" s="10">
+        <v>20</v>
+      </c>
+      <c r="D77" s="10">
+        <v>20</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>41.53</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-85.111</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>830.6</v>
+      </c>
+      <c r="J77" s="11">
+        <v>2532.82</v>
+      </c>
+      <c r="K77" s="11">
+        <v>-8192.99</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="6">
-        <v>603228</v>
-      </c>
-      <c r="C78" s="6">
-        <v>62100</v>
-      </c>
-      <c r="D78" s="6">
-        <v>62100</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>35.2</v>
-      </c>
-      <c r="G78" s="7">
-        <v>38.676</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>2185920</v>
-      </c>
-      <c r="J78" s="7">
-        <v>-215836.29</v>
-      </c>
-      <c r="K78" s="7">
-        <v>-15525</v>
-      </c>
-      <c r="L78" s="8">
-        <v>-8.99</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>23</v>
+      <c r="B78" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="10">
+        <v>6480</v>
+      </c>
+      <c r="D78" s="10">
+        <v>6480</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>8.63</v>
+      </c>
+      <c r="G78" s="11">
+        <v>4.972</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>55922.4</v>
+      </c>
+      <c r="J78" s="11">
+        <v>23701.56</v>
+      </c>
+      <c r="K78" s="11">
+        <v>-1111.61</v>
+      </c>
+      <c r="L78" s="9">
+        <v>73.57</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B79" s="10">
-        <v>300771</v>
+        <v>603337</v>
       </c>
       <c r="C79" s="10">
-        <v>7820</v>
+        <v>0</v>
       </c>
       <c r="D79" s="10">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="E79" s="10">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F79" s="11">
-        <v>41.98</v>
+        <v>24.11</v>
       </c>
       <c r="G79" s="11">
-        <v>40.608</v>
+        <v>0</v>
       </c>
       <c r="H79" s="11">
         <v>0</v>
       </c>
       <c r="I79" s="11">
-        <v>328283.6</v>
+        <v>0</v>
       </c>
       <c r="J79" s="11">
-        <v>10725.81</v>
+        <v>35585.04</v>
       </c>
       <c r="K79" s="11">
-        <v>15817.49</v>
+        <v>7936.02</v>
       </c>
       <c r="L79" s="9">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="10">
-        <v>28080</v>
-      </c>
-      <c r="D80" s="10">
-        <v>28080</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="11">
-        <v>8.62</v>
-      </c>
-      <c r="G80" s="11">
-        <v>7.736</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>242049.6</v>
-      </c>
-      <c r="J80" s="11">
-        <v>24813.17</v>
-      </c>
-      <c r="K80" s="11">
-        <v>-7862.4</v>
-      </c>
-      <c r="L80" s="9">
-        <v>11.43</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="9" t="s">
+      <c r="B80" s="6">
+        <v>300595</v>
+      </c>
+      <c r="C80" s="6">
+        <v>50</v>
+      </c>
+      <c r="D80" s="6">
+        <v>50</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>58.22</v>
+      </c>
+      <c r="G80" s="7">
+        <v>2438.231</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>2911</v>
+      </c>
+      <c r="J80" s="7">
+        <v>-119000.53</v>
+      </c>
+      <c r="K80" s="7">
+        <v>-17311.64</v>
+      </c>
+      <c r="L80" s="8">
+        <v>-97.61</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4278,214 +4269,214 @@
       <c r="A81" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="10">
-        <v>603337</v>
+      <c r="B81" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C81" s="10">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="D81" s="10">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="E81" s="10">
         <v>0</v>
       </c>
       <c r="F81" s="11">
-        <v>22.56</v>
+        <v>12.79</v>
       </c>
       <c r="G81" s="11">
-        <v>19.188</v>
+        <v>11.525</v>
       </c>
       <c r="H81" s="11">
         <v>0</v>
       </c>
       <c r="I81" s="11">
-        <v>184992</v>
+        <v>112552</v>
       </c>
       <c r="J81" s="11">
-        <v>27649.02</v>
+        <v>11128.2</v>
       </c>
       <c r="K81" s="11">
-        <v>16810</v>
+        <v>8604.14</v>
       </c>
       <c r="L81" s="9">
-        <v>17.57</v>
+        <v>10.98</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="6">
-        <v>300595</v>
-      </c>
-      <c r="C82" s="6">
-        <v>35300</v>
-      </c>
-      <c r="D82" s="6">
-        <v>35300</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>61.32</v>
-      </c>
-      <c r="G82" s="7">
-        <v>64.201</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>2164596</v>
-      </c>
-      <c r="J82" s="7">
-        <v>-101688.89</v>
-      </c>
-      <c r="K82" s="7">
-        <v>-59657</v>
-      </c>
-      <c r="L82" s="8">
-        <v>-4.49</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="8" t="s">
+      <c r="A82" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="10">
+        <v>72300</v>
+      </c>
+      <c r="D82" s="10">
+        <v>72300</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>10.08</v>
+      </c>
+      <c r="G82" s="11">
+        <v>9.802</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>728784</v>
+      </c>
+      <c r="J82" s="11">
+        <v>20120.72</v>
+      </c>
+      <c r="K82" s="11">
+        <v>-14460</v>
+      </c>
+      <c r="L82" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="10">
-        <v>19500</v>
-      </c>
-      <c r="D83" s="10">
-        <v>19500</v>
-      </c>
-      <c r="E83" s="10">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>12.42</v>
-      </c>
-      <c r="G83" s="11">
-        <v>12.291</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>242190</v>
-      </c>
-      <c r="J83" s="11">
-        <v>2524.06</v>
-      </c>
-      <c r="K83" s="11">
-        <v>7800</v>
-      </c>
-      <c r="L83" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="9" t="s">
+      <c r="A83" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="6">
+        <v>43400</v>
+      </c>
+      <c r="D83" s="6">
+        <v>43400</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="G83" s="7">
+        <v>7.009</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>284270</v>
+      </c>
+      <c r="J83" s="7">
+        <v>-19935.46</v>
+      </c>
+      <c r="K83" s="7">
+        <v>21674.99</v>
+      </c>
+      <c r="L83" s="8">
+        <v>-6.55</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B84" s="10">
+        <v>600563</v>
       </c>
       <c r="C84" s="10">
-        <v>72300</v>
+        <v>8000</v>
       </c>
       <c r="D84" s="10">
-        <v>72300</v>
+        <v>8000</v>
       </c>
       <c r="E84" s="10">
         <v>0</v>
       </c>
       <c r="F84" s="11">
-        <v>10.28</v>
+        <v>67.25</v>
       </c>
       <c r="G84" s="11">
-        <v>9.802</v>
+        <v>44.108</v>
       </c>
       <c r="H84" s="11">
         <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>743244</v>
+        <v>538000</v>
       </c>
       <c r="J84" s="11">
-        <v>34580.72</v>
+        <v>185137.96</v>
       </c>
       <c r="K84" s="11">
-        <v>-30366</v>
+        <v>64976.42</v>
       </c>
       <c r="L84" s="9">
-        <v>4.88</v>
+        <v>52.47</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="B85" s="6">
+        <v>300232</v>
+      </c>
       <c r="C85" s="6">
-        <v>129200</v>
+        <v>203321</v>
       </c>
       <c r="D85" s="6">
-        <v>129200</v>
+        <v>203321</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>6.45</v>
+        <v>8.35</v>
       </c>
       <c r="G85" s="7">
-        <v>6.772</v>
+        <v>9.55</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>833340</v>
+        <v>1697730.35</v>
       </c>
       <c r="J85" s="7">
-        <v>-41610.45</v>
+        <v>-243896.53</v>
       </c>
       <c r="K85" s="7">
-        <v>-7752</v>
+        <v>-556.86</v>
       </c>
       <c r="L85" s="8">
-        <v>-4.75</v>
+        <v>-12.57</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>26</v>
@@ -4495,134 +4486,134 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B86" s="10">
-        <v>600563</v>
-      </c>
-      <c r="C86" s="10">
-        <v>28600</v>
-      </c>
-      <c r="D86" s="10">
-        <v>28600</v>
-      </c>
-      <c r="E86" s="10">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>63.29</v>
-      </c>
-      <c r="G86" s="11">
-        <v>59.089</v>
-      </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>1810094</v>
-      </c>
-      <c r="J86" s="11">
-        <v>120161.54</v>
-      </c>
-      <c r="K86" s="11">
-        <v>8580</v>
-      </c>
-      <c r="L86" s="9">
-        <v>7.11</v>
-      </c>
-      <c r="M86" s="9" t="s">
+      <c r="B86" s="6">
+        <v>603556</v>
+      </c>
+      <c r="C86" s="6">
+        <v>93500</v>
+      </c>
+      <c r="D86" s="6">
+        <v>93500</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>14.58</v>
+      </c>
+      <c r="G86" s="7">
+        <v>15.247</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1363230</v>
+      </c>
+      <c r="J86" s="7">
+        <v>-62399.33</v>
+      </c>
+      <c r="K86" s="7">
+        <v>-935</v>
+      </c>
+      <c r="L86" s="8">
+        <v>-4.37</v>
+      </c>
+      <c r="M86" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B87" s="6">
-        <v>300232</v>
-      </c>
-      <c r="C87" s="6">
-        <v>252121</v>
-      </c>
-      <c r="D87" s="6">
-        <v>252121</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>8.36</v>
-      </c>
-      <c r="G87" s="7">
-        <v>9.325</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>2107731.56</v>
-      </c>
-      <c r="J87" s="7">
-        <v>-243339.67</v>
-      </c>
-      <c r="K87" s="7">
-        <v>-17648.47</v>
-      </c>
-      <c r="L87" s="8">
-        <v>-10.35</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>25</v>
+      <c r="B87" s="10">
+        <v>600933</v>
+      </c>
+      <c r="C87" s="10">
+        <v>128700</v>
+      </c>
+      <c r="D87" s="10">
+        <v>128700</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>13.82</v>
+      </c>
+      <c r="G87" s="11">
+        <v>13.094</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>1778634</v>
+      </c>
+      <c r="J87" s="11">
+        <v>93469.61</v>
+      </c>
+      <c r="K87" s="11">
+        <v>95355.24</v>
+      </c>
+      <c r="L87" s="9">
+        <v>5.54</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="6">
-        <v>603556</v>
-      </c>
-      <c r="C88" s="6">
-        <v>93500</v>
-      </c>
-      <c r="D88" s="6">
-        <v>93500</v>
-      </c>
-      <c r="E88" s="6">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>14.59</v>
-      </c>
-      <c r="G88" s="7">
-        <v>15.247</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>1364165</v>
-      </c>
-      <c r="J88" s="7">
-        <v>-61464.33</v>
-      </c>
-      <c r="K88" s="7">
-        <v>-21505</v>
-      </c>
-      <c r="L88" s="8">
-        <v>-4.31</v>
-      </c>
-      <c r="M88" s="8" t="s">
+      <c r="B88" s="10">
+        <v>603659</v>
+      </c>
+      <c r="C88" s="10">
+        <v>11200</v>
+      </c>
+      <c r="D88" s="10">
+        <v>11200</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>105.33</v>
+      </c>
+      <c r="G88" s="11">
+        <v>100.767</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>1179696</v>
+      </c>
+      <c r="J88" s="11">
+        <v>51101.71</v>
+      </c>
+      <c r="K88" s="11">
+        <v>4480</v>
+      </c>
+      <c r="L88" s="9">
+        <v>4.53</v>
+      </c>
+      <c r="M88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N88" s="8" t="s">
+      <c r="N88" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4630,390 +4621,390 @@
       <c r="A89" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="6">
-        <v>600933</v>
+      <c r="B89" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C89" s="6">
-        <v>137500</v>
+        <v>15500</v>
       </c>
       <c r="D89" s="6">
-        <v>59100</v>
+        <v>15500</v>
       </c>
       <c r="E89" s="6">
-        <v>78400</v>
+        <v>0</v>
       </c>
       <c r="F89" s="7">
-        <v>13.1</v>
+        <v>53.96</v>
       </c>
       <c r="G89" s="7">
-        <v>13.117</v>
+        <v>55.058</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>1801250</v>
+        <v>836380</v>
       </c>
       <c r="J89" s="7">
-        <v>-2399.86</v>
+        <v>-17016.02</v>
       </c>
       <c r="K89" s="7">
-        <v>10651.83</v>
+        <v>930</v>
       </c>
       <c r="L89" s="8">
-        <v>-0.13</v>
+        <v>-1.99</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" s="10">
-        <v>603659</v>
-      </c>
-      <c r="C90" s="10">
-        <v>11200</v>
-      </c>
-      <c r="D90" s="10">
-        <v>10400</v>
-      </c>
-      <c r="E90" s="10">
-        <v>800</v>
-      </c>
-      <c r="F90" s="11">
-        <v>104.93</v>
-      </c>
-      <c r="G90" s="11">
-        <v>100.767</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>1175216</v>
-      </c>
-      <c r="J90" s="11">
-        <v>46620.01</v>
-      </c>
-      <c r="K90" s="11">
-        <v>-309.59</v>
-      </c>
-      <c r="L90" s="9">
-        <v>4.13</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>23</v>
+      <c r="A90" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="6">
+        <v>100</v>
+      </c>
+      <c r="D90" s="6">
+        <v>100</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>32.72</v>
+      </c>
+      <c r="G90" s="7">
+        <v>1463.803</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>3272</v>
+      </c>
+      <c r="J90" s="7">
+        <v>-143108.31</v>
+      </c>
+      <c r="K90" s="7">
+        <v>5498.06</v>
+      </c>
+      <c r="L90" s="8">
+        <v>-97.76</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B91" s="6">
+        <v>603688</v>
       </c>
       <c r="C91" s="6">
-        <v>15500</v>
+        <v>30368</v>
       </c>
       <c r="D91" s="6">
-        <v>0</v>
+        <v>30368</v>
       </c>
       <c r="E91" s="6">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="F91" s="7">
-        <v>53.9</v>
+        <v>23</v>
       </c>
       <c r="G91" s="7">
-        <v>55.067</v>
+        <v>26.278</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="7">
-        <v>835450</v>
+        <v>698464</v>
       </c>
       <c r="J91" s="7">
-        <v>-18089.01</v>
+        <v>-99546.48</v>
       </c>
       <c r="K91" s="7">
-        <v>-18089.01</v>
+        <v>-12125.33</v>
       </c>
       <c r="L91" s="8">
-        <v>-2.12</v>
+        <v>-12.47</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="B92" s="6">
+        <v>603327</v>
+      </c>
       <c r="C92" s="6">
-        <v>34100</v>
+        <v>12000</v>
       </c>
       <c r="D92" s="6">
-        <v>34100</v>
+        <v>12000</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <v>32.85</v>
+        <v>26.94</v>
       </c>
       <c r="G92" s="7">
-        <v>37.208</v>
+        <v>29.525</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>1120185</v>
+        <v>323280</v>
       </c>
       <c r="J92" s="7">
-        <v>-148606.37</v>
+        <v>-31014.59</v>
       </c>
       <c r="K92" s="7">
-        <v>-33077</v>
+        <v>334.24</v>
       </c>
       <c r="L92" s="8">
-        <v>-11.71</v>
+        <v>-8.76</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="6">
-        <v>603688</v>
-      </c>
-      <c r="C93" s="6">
-        <v>93268</v>
-      </c>
-      <c r="D93" s="6">
-        <v>93268</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="7">
-        <v>23.21</v>
-      </c>
-      <c r="G93" s="7">
-        <v>24.147</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>2164750.28</v>
-      </c>
-      <c r="J93" s="7">
-        <v>-87421.15</v>
-      </c>
-      <c r="K93" s="7">
-        <v>-60624.2</v>
-      </c>
-      <c r="L93" s="8">
-        <v>-3.88</v>
-      </c>
-      <c r="M93" s="8" t="s">
+      <c r="B93" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="13">
+        <v>5871000</v>
+      </c>
+      <c r="D93" s="13">
+        <v>5871000</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="14">
+        <v>0</v>
+      </c>
+      <c r="G93" s="14">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" s="12">
+        <v>0</v>
+      </c>
+      <c r="M93" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N93" s="8" t="s">
+      <c r="N93" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="6">
-        <v>603327</v>
-      </c>
-      <c r="C94" s="6">
-        <v>24100</v>
-      </c>
-      <c r="D94" s="6">
-        <v>24100</v>
-      </c>
-      <c r="E94" s="6">
-        <v>0</v>
-      </c>
-      <c r="F94" s="7">
-        <v>26.96</v>
-      </c>
-      <c r="G94" s="7">
-        <v>28.261</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0</v>
-      </c>
-      <c r="I94" s="7">
-        <v>649736</v>
-      </c>
-      <c r="J94" s="7">
-        <v>-31348.83</v>
-      </c>
-      <c r="K94" s="7">
-        <v>-4579</v>
-      </c>
-      <c r="L94" s="8">
-        <v>-4.6</v>
-      </c>
-      <c r="M94" s="8" t="s">
+      <c r="A94" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="10">
+        <v>603486</v>
+      </c>
+      <c r="C94" s="10">
+        <v>0</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>38.81</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <v>440607.04</v>
+      </c>
+      <c r="K94" s="11">
+        <v>131.08</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="8" t="s">
+      <c r="N94" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C95" s="13">
-        <v>5879000</v>
-      </c>
-      <c r="D95" s="13">
-        <v>5879000</v>
-      </c>
-      <c r="E95" s="13">
-        <v>0</v>
-      </c>
-      <c r="F95" s="14">
-        <v>0</v>
-      </c>
-      <c r="G95" s="14">
-        <v>0</v>
-      </c>
-      <c r="H95" s="14">
-        <v>0</v>
-      </c>
-      <c r="I95" s="14">
-        <v>0</v>
-      </c>
-      <c r="J95" s="14">
-        <v>0</v>
-      </c>
-      <c r="K95" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="12">
-        <v>0</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>23</v>
+      <c r="B95" s="6">
+        <v>300590</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>28.43</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>-27454.75</v>
+      </c>
+      <c r="K95" s="7">
+        <v>544.85</v>
+      </c>
+      <c r="L95" s="8">
+        <v>0</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B96" s="10">
-        <v>603486</v>
-      </c>
-      <c r="C96" s="10">
-        <v>600</v>
-      </c>
-      <c r="D96" s="10">
-        <v>600</v>
-      </c>
-      <c r="E96" s="10">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11">
-        <v>37.2</v>
-      </c>
-      <c r="G96" s="11">
-        <v>-696.715</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>22320</v>
-      </c>
-      <c r="J96" s="11">
-        <v>440349.17</v>
-      </c>
-      <c r="K96" s="11">
-        <v>-7667.02</v>
-      </c>
-      <c r="L96" s="9">
-        <v>0</v>
-      </c>
-      <c r="M96" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="9" t="s">
-        <v>23</v>
+      <c r="B96" s="6">
+        <v>300709</v>
+      </c>
+      <c r="C96" s="6">
+        <v>100</v>
+      </c>
+      <c r="D96" s="6">
+        <v>100</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="G96" s="7">
+        <v>2910.152</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>8020</v>
+      </c>
+      <c r="J96" s="7">
+        <v>-282995.23</v>
+      </c>
+      <c r="K96" s="7">
+        <v>-13606.9</v>
+      </c>
+      <c r="L96" s="8">
+        <v>-97.24</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="6">
-        <v>300590</v>
+      <c r="B97" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C97" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D97" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>28.6</v>
+        <v>73.18</v>
       </c>
       <c r="G97" s="7">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>-27999.6</v>
+        <v>-2082.31</v>
       </c>
       <c r="K97" s="7">
-        <v>-1150</v>
+        <v>122.43</v>
       </c>
       <c r="L97" s="8">
-        <v>-28.14</v>
+        <v>0</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>26</v>
@@ -5024,90 +5015,90 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B98" s="6">
-        <v>300709</v>
+        <v>603699</v>
       </c>
       <c r="C98" s="6">
-        <v>17500</v>
+        <v>109200</v>
       </c>
       <c r="D98" s="6">
-        <v>17500</v>
+        <v>109200</v>
       </c>
       <c r="E98" s="6">
         <v>0</v>
       </c>
       <c r="F98" s="7">
-        <v>81.34</v>
+        <v>15.34</v>
       </c>
       <c r="G98" s="7">
-        <v>96.734</v>
+        <v>16.464</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
       </c>
       <c r="I98" s="7">
-        <v>1423450</v>
+        <v>1675128</v>
       </c>
       <c r="J98" s="7">
-        <v>-269388.33</v>
+        <v>-122749.21</v>
       </c>
       <c r="K98" s="7">
-        <v>5950</v>
+        <v>-16411.08</v>
       </c>
       <c r="L98" s="8">
-        <v>-15.91</v>
+        <v>-6.83</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B99" s="8" t="s">
         <v>152</v>
       </c>
+      <c r="B99" s="6">
+        <v>601828</v>
+      </c>
       <c r="C99" s="6">
-        <v>400</v>
+        <v>119640</v>
       </c>
       <c r="D99" s="6">
-        <v>400</v>
+        <v>119640</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <v>73.51</v>
+        <v>9.92</v>
       </c>
       <c r="G99" s="7">
-        <v>79.022</v>
+        <v>10.896</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
       <c r="I99" s="7">
-        <v>29404</v>
+        <v>1186828.8</v>
       </c>
       <c r="J99" s="7">
-        <v>-2204.74</v>
+        <v>-116802.43</v>
       </c>
       <c r="K99" s="7">
-        <v>-468</v>
+        <v>1457.02</v>
       </c>
       <c r="L99" s="8">
-        <v>-6.98</v>
+        <v>-8.96</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5115,125 +5106,125 @@
         <v>153</v>
       </c>
       <c r="B100" s="6">
-        <v>603699</v>
+        <v>300476</v>
       </c>
       <c r="C100" s="6">
-        <v>120200</v>
+        <v>80600</v>
       </c>
       <c r="D100" s="6">
-        <v>120200</v>
+        <v>80600</v>
       </c>
       <c r="E100" s="6">
         <v>0</v>
       </c>
       <c r="F100" s="7">
-        <v>15.49</v>
+        <v>21.17</v>
       </c>
       <c r="G100" s="7">
-        <v>16.375</v>
+        <v>26.14</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
       </c>
       <c r="I100" s="7">
-        <v>1861898</v>
+        <v>1706302</v>
       </c>
       <c r="J100" s="7">
-        <v>-106338.13</v>
+        <v>-400575.53</v>
       </c>
       <c r="K100" s="7">
-        <v>-60100</v>
+        <v>4039.73</v>
       </c>
       <c r="L100" s="8">
-        <v>-5.4</v>
+        <v>-19.01</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="6">
-        <v>601828</v>
-      </c>
-      <c r="C101" s="6">
-        <v>152300</v>
-      </c>
-      <c r="D101" s="6">
-        <v>152300</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>9.9</v>
-      </c>
-      <c r="G101" s="7">
-        <v>10.676</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7">
-        <v>1507770</v>
-      </c>
-      <c r="J101" s="7">
-        <v>-118259.45</v>
-      </c>
-      <c r="K101" s="7">
-        <v>-15230</v>
-      </c>
-      <c r="L101" s="8">
-        <v>-7.27</v>
-      </c>
-      <c r="M101" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" s="8" t="s">
-        <v>23</v>
+      <c r="B101" s="10">
+        <v>300413</v>
+      </c>
+      <c r="C101" s="10">
+        <v>13400</v>
+      </c>
+      <c r="D101" s="10">
+        <v>13400</v>
+      </c>
+      <c r="E101" s="10">
+        <v>0</v>
+      </c>
+      <c r="F101" s="11">
+        <v>63.09</v>
+      </c>
+      <c r="G101" s="11">
+        <v>62.023</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11">
+        <v>845406</v>
+      </c>
+      <c r="J101" s="11">
+        <v>14303.35</v>
+      </c>
+      <c r="K101" s="11">
+        <v>22646</v>
+      </c>
+      <c r="L101" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B102" s="6">
-        <v>300476</v>
+      <c r="B102" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C102" s="6">
-        <v>106000</v>
+        <v>500</v>
       </c>
       <c r="D102" s="6">
-        <v>104800</v>
+        <v>500</v>
       </c>
       <c r="E102" s="6">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="7">
-        <v>21.11</v>
+        <v>5.06</v>
       </c>
       <c r="G102" s="7">
-        <v>24.927</v>
+        <v>18.206</v>
       </c>
       <c r="H102" s="7">
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <v>2237660</v>
+        <v>2530</v>
       </c>
       <c r="J102" s="7">
-        <v>-404621.46</v>
+        <v>-6573.07</v>
       </c>
       <c r="K102" s="7">
-        <v>-11550</v>
+        <v>1851.19</v>
       </c>
       <c r="L102" s="8">
-        <v>-15.31</v>
+        <v>-72.21</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>26</v>
@@ -5244,40 +5235,40 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B103" s="6">
-        <v>300413</v>
+        <v>300725</v>
       </c>
       <c r="C103" s="6">
-        <v>13400</v>
+        <v>17500</v>
       </c>
       <c r="D103" s="6">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="E103" s="6">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="F103" s="7">
-        <v>61.4</v>
+        <v>111.9</v>
       </c>
       <c r="G103" s="7">
-        <v>62.025</v>
+        <v>123.837</v>
       </c>
       <c r="H103" s="7">
         <v>0</v>
       </c>
       <c r="I103" s="7">
-        <v>822760</v>
+        <v>1958250</v>
       </c>
       <c r="J103" s="7">
-        <v>-8380.96</v>
+        <v>-208902.63</v>
       </c>
       <c r="K103" s="7">
-        <v>-8380.96</v>
+        <v>-19910.01</v>
       </c>
       <c r="L103" s="8">
-        <v>-1.01</v>
+        <v>-9.64</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>26</v>
@@ -5288,90 +5279,90 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="B104" s="6">
+        <v>603238</v>
+      </c>
       <c r="C104" s="6">
-        <v>68500</v>
+        <v>23600</v>
       </c>
       <c r="D104" s="6">
-        <v>68500</v>
+        <v>23600</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
       </c>
       <c r="F104" s="7">
-        <v>4.96</v>
+        <v>37.46</v>
       </c>
       <c r="G104" s="7">
-        <v>5.083</v>
+        <v>41.065</v>
       </c>
       <c r="H104" s="7">
         <v>0</v>
       </c>
       <c r="I104" s="7">
-        <v>339760</v>
+        <v>884056</v>
       </c>
       <c r="J104" s="7">
-        <v>-8424.26</v>
+        <v>-85071.35</v>
       </c>
       <c r="K104" s="7">
-        <v>-685</v>
+        <v>-9912</v>
       </c>
       <c r="L104" s="8">
-        <v>-2.42</v>
+        <v>-8.78</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B105" s="6">
-        <v>300725</v>
-      </c>
-      <c r="C105" s="6">
-        <v>18600</v>
-      </c>
-      <c r="D105" s="6">
-        <v>18600</v>
-      </c>
-      <c r="E105" s="6">
-        <v>0</v>
-      </c>
-      <c r="F105" s="7">
-        <v>113.01</v>
-      </c>
-      <c r="G105" s="7">
-        <v>123.171</v>
-      </c>
-      <c r="H105" s="7">
-        <v>0</v>
-      </c>
-      <c r="I105" s="7">
-        <v>2101986</v>
-      </c>
-      <c r="J105" s="7">
-        <v>-188992.62</v>
-      </c>
-      <c r="K105" s="7">
-        <v>-79236</v>
-      </c>
-      <c r="L105" s="8">
-        <v>-8.25</v>
-      </c>
-      <c r="M105" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N105" s="8" t="s">
-        <v>25</v>
+      <c r="B105" s="10">
+        <v>600996</v>
+      </c>
+      <c r="C105" s="10">
+        <v>93700</v>
+      </c>
+      <c r="D105" s="10">
+        <v>93700</v>
+      </c>
+      <c r="E105" s="10">
+        <v>0</v>
+      </c>
+      <c r="F105" s="11">
+        <v>7.81</v>
+      </c>
+      <c r="G105" s="11">
+        <v>7.775</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11">
+        <v>731797</v>
+      </c>
+      <c r="J105" s="11">
+        <v>3242.07</v>
+      </c>
+      <c r="K105" s="11">
+        <v>-19287.2</v>
+      </c>
+      <c r="L105" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5379,87 +5370,87 @@
         <v>160</v>
       </c>
       <c r="B106" s="6">
-        <v>603238</v>
+        <v>300687</v>
       </c>
       <c r="C106" s="6">
-        <v>23600</v>
+        <v>53600</v>
       </c>
       <c r="D106" s="6">
-        <v>23600</v>
+        <v>53600</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
       </c>
       <c r="F106" s="7">
-        <v>37.88</v>
+        <v>20.15</v>
       </c>
       <c r="G106" s="7">
-        <v>41.065</v>
+        <v>23.406</v>
       </c>
       <c r="H106" s="7">
         <v>0</v>
       </c>
       <c r="I106" s="7">
-        <v>893968</v>
+        <v>1080040</v>
       </c>
       <c r="J106" s="7">
-        <v>-75159.35</v>
+        <v>-174546.11</v>
       </c>
       <c r="K106" s="7">
-        <v>-24308</v>
+        <v>-18760</v>
       </c>
       <c r="L106" s="8">
-        <v>-7.76</v>
+        <v>-13.91</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="10">
-        <v>600996</v>
-      </c>
-      <c r="C107" s="10">
-        <v>104000</v>
-      </c>
-      <c r="D107" s="10">
-        <v>74000</v>
-      </c>
-      <c r="E107" s="10">
-        <v>30000</v>
-      </c>
-      <c r="F107" s="11">
-        <v>8</v>
-      </c>
-      <c r="G107" s="11">
-        <v>7.783</v>
-      </c>
-      <c r="H107" s="11">
-        <v>0</v>
-      </c>
-      <c r="I107" s="11">
-        <v>832000</v>
-      </c>
-      <c r="J107" s="11">
-        <v>22529.27</v>
-      </c>
-      <c r="K107" s="11">
-        <v>56926.36</v>
-      </c>
-      <c r="L107" s="9">
-        <v>2.79</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N107" s="9" t="s">
-        <v>23</v>
+      <c r="B107" s="6">
+        <v>300036</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>23.49</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
+        <v>-5235.98</v>
+      </c>
+      <c r="K107" s="7">
+        <v>5506.25</v>
+      </c>
+      <c r="L107" s="8">
+        <v>0</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5467,37 +5458,37 @@
         <v>162</v>
       </c>
       <c r="B108" s="6">
-        <v>300687</v>
+        <v>300768</v>
       </c>
       <c r="C108" s="6">
-        <v>53600</v>
+        <v>0</v>
       </c>
       <c r="D108" s="6">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="E108" s="6">
-        <v>22800</v>
+        <v>0</v>
       </c>
       <c r="F108" s="7">
-        <v>20.5</v>
+        <v>43.39</v>
       </c>
       <c r="G108" s="7">
-        <v>23.41</v>
+        <v>0</v>
       </c>
       <c r="H108" s="7">
         <v>0</v>
       </c>
       <c r="I108" s="7">
-        <v>1098800</v>
+        <v>0</v>
       </c>
       <c r="J108" s="7">
-        <v>-155984.83</v>
+        <v>-26343.95</v>
       </c>
       <c r="K108" s="7">
-        <v>-30536</v>
+        <v>4038.56</v>
       </c>
       <c r="L108" s="8">
-        <v>-12.43</v>
+        <v>0</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>26</v>
@@ -5510,38 +5501,38 @@
       <c r="A109" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="6">
-        <v>300036</v>
+      <c r="B109" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="C109" s="6">
-        <v>43500</v>
+        <v>0</v>
       </c>
       <c r="D109" s="6">
-        <v>43500</v>
+        <v>0</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
       </c>
       <c r="F109" s="7">
-        <v>23.7</v>
+        <v>5.81</v>
       </c>
       <c r="G109" s="7">
-        <v>23.947</v>
+        <v>0</v>
       </c>
       <c r="H109" s="7">
         <v>0</v>
       </c>
       <c r="I109" s="7">
-        <v>1030950</v>
+        <v>0</v>
       </c>
       <c r="J109" s="7">
-        <v>-10742.23</v>
+        <v>-22981.67</v>
       </c>
       <c r="K109" s="7">
-        <v>-47850</v>
+        <v>-4.01</v>
       </c>
       <c r="L109" s="8">
-        <v>-1.03</v>
+        <v>0</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>26</v>
@@ -5551,91 +5542,91 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="6">
-        <v>300768</v>
-      </c>
-      <c r="C110" s="6">
-        <v>12100</v>
-      </c>
-      <c r="D110" s="6">
-        <v>12100</v>
-      </c>
-      <c r="E110" s="6">
-        <v>0</v>
-      </c>
-      <c r="F110" s="7">
-        <v>43.51</v>
-      </c>
-      <c r="G110" s="7">
-        <v>46.021</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0</v>
-      </c>
-      <c r="I110" s="7">
-        <v>526471</v>
-      </c>
-      <c r="J110" s="7">
-        <v>-30382.51</v>
-      </c>
-      <c r="K110" s="7">
-        <v>-11495</v>
-      </c>
-      <c r="L110" s="8">
-        <v>-5.46</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N110" s="8" t="s">
+      <c r="A110" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" s="10">
+        <v>300220</v>
+      </c>
+      <c r="C110" s="10">
+        <v>2600</v>
+      </c>
+      <c r="D110" s="10">
+        <v>2600</v>
+      </c>
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <v>32.6</v>
+      </c>
+      <c r="G110" s="11">
+        <v>30.979</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>84760</v>
+      </c>
+      <c r="J110" s="11">
+        <v>4214.92</v>
+      </c>
+      <c r="K110" s="11">
+        <v>7696</v>
+      </c>
+      <c r="L110" s="9">
+        <v>5.23</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="B111" s="6">
+        <v>600745</v>
+      </c>
       <c r="C111" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D111" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
       </c>
       <c r="F111" s="7">
-        <v>5.81</v>
+        <v>134.2</v>
       </c>
       <c r="G111" s="7">
-        <v>336.344</v>
+        <v>0</v>
       </c>
       <c r="H111" s="7">
         <v>0</v>
       </c>
       <c r="I111" s="7">
-        <v>406.7</v>
+        <v>0</v>
       </c>
       <c r="J111" s="7">
-        <v>-23137.4</v>
+        <v>-24108.57</v>
       </c>
       <c r="K111" s="7">
-        <v>-6952.33</v>
+        <v>-25551.15</v>
       </c>
       <c r="L111" s="8">
-        <v>-98.27</v>
+        <v>0</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5643,86 +5634,86 @@
         <v>167</v>
       </c>
       <c r="B112" s="6">
-        <v>300220</v>
+        <v>600820</v>
       </c>
       <c r="C112" s="6">
-        <v>2600</v>
+        <v>40700</v>
       </c>
       <c r="D112" s="6">
-        <v>2600</v>
+        <v>40700</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
       </c>
       <c r="F112" s="7">
-        <v>29.64</v>
+        <v>6.18</v>
       </c>
       <c r="G112" s="7">
-        <v>30.979</v>
+        <v>6.273</v>
       </c>
       <c r="H112" s="7">
         <v>0</v>
       </c>
       <c r="I112" s="7">
-        <v>77064</v>
+        <v>251526</v>
       </c>
       <c r="J112" s="7">
-        <v>-3481.08</v>
+        <v>-3791.44</v>
       </c>
       <c r="K112" s="7">
-        <v>-2210</v>
+        <v>2035</v>
       </c>
       <c r="L112" s="8">
-        <v>-4.32</v>
+        <v>-1.48</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="10">
-        <v>600745</v>
-      </c>
-      <c r="C113" s="10">
-        <v>16700</v>
-      </c>
-      <c r="D113" s="10">
-        <v>16700</v>
-      </c>
-      <c r="E113" s="10">
-        <v>0</v>
-      </c>
-      <c r="F113" s="11">
-        <v>137.6</v>
-      </c>
-      <c r="G113" s="11">
-        <v>137.514</v>
-      </c>
-      <c r="H113" s="11">
-        <v>0</v>
-      </c>
-      <c r="I113" s="11">
-        <v>2297920</v>
-      </c>
-      <c r="J113" s="11">
-        <v>1442.58</v>
-      </c>
-      <c r="K113" s="11">
-        <v>21710</v>
-      </c>
-      <c r="L113" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="M113" s="9" t="s">
+      <c r="B113" s="6">
+        <v>603501</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>182.97</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7">
+        <v>-315983.78</v>
+      </c>
+      <c r="K113" s="7">
+        <v>-28867.33</v>
+      </c>
+      <c r="L113" s="8">
+        <v>0</v>
+      </c>
+      <c r="M113" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N113" s="9" t="s">
+      <c r="N113" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5731,37 +5722,37 @@
         <v>169</v>
       </c>
       <c r="B114" s="6">
-        <v>600820</v>
+        <v>603711</v>
       </c>
       <c r="C114" s="6">
-        <v>40700</v>
+        <v>21900</v>
       </c>
       <c r="D114" s="6">
-        <v>40700</v>
+        <v>21900</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
       </c>
       <c r="F114" s="7">
-        <v>6.13</v>
+        <v>27.66</v>
       </c>
       <c r="G114" s="7">
-        <v>6.273</v>
+        <v>30.339</v>
       </c>
       <c r="H114" s="7">
         <v>0</v>
       </c>
       <c r="I114" s="7">
-        <v>249491</v>
+        <v>605754</v>
       </c>
       <c r="J114" s="7">
-        <v>-5826.44</v>
+        <v>-58665.79</v>
       </c>
       <c r="K114" s="7">
-        <v>407</v>
+        <v>24566.68</v>
       </c>
       <c r="L114" s="8">
-        <v>-2.28</v>
+        <v>-8.83</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>24</v>
@@ -5775,37 +5766,37 @@
         <v>170</v>
       </c>
       <c r="B115" s="10">
-        <v>300599</v>
+        <v>300423</v>
       </c>
       <c r="C115" s="10">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="D115" s="10">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E115" s="10">
         <v>0</v>
       </c>
       <c r="F115" s="11">
-        <v>14.5</v>
+        <v>14.34</v>
       </c>
       <c r="G115" s="11">
-        <v>0</v>
+        <v>13.926</v>
       </c>
       <c r="H115" s="11">
         <v>0</v>
       </c>
       <c r="I115" s="11">
-        <v>0</v>
+        <v>113286</v>
       </c>
       <c r="J115" s="11">
-        <v>86049.9</v>
+        <v>3273.5</v>
       </c>
       <c r="K115" s="11">
-        <v>-1650.82</v>
+        <v>-711</v>
       </c>
       <c r="L115" s="9">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>26</v>
@@ -5815,222 +5806,90 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="6">
-        <v>603501</v>
-      </c>
-      <c r="C116" s="6">
-        <v>12000</v>
-      </c>
-      <c r="D116" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E116" s="6">
-        <v>0</v>
-      </c>
-      <c r="F116" s="7">
-        <v>187.05</v>
-      </c>
-      <c r="G116" s="7">
-        <v>210.976</v>
-      </c>
-      <c r="H116" s="7">
-        <v>0</v>
-      </c>
-      <c r="I116" s="7">
-        <v>2244600</v>
-      </c>
-      <c r="J116" s="7">
-        <v>-287116.45</v>
-      </c>
-      <c r="K116" s="7">
-        <v>600</v>
-      </c>
-      <c r="L116" s="8">
-        <v>-11.34</v>
-      </c>
-      <c r="M116" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N116" s="8" t="s">
-        <v>23</v>
+      <c r="B116" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="10">
+        <v>0</v>
+      </c>
+      <c r="D116" s="10">
+        <v>0</v>
+      </c>
+      <c r="E116" s="10">
+        <v>0</v>
+      </c>
+      <c r="F116" s="11">
+        <v>45.65</v>
+      </c>
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11">
+        <v>80386.79</v>
+      </c>
+      <c r="K116" s="11">
+        <v>12357.11</v>
+      </c>
+      <c r="L116" s="9">
+        <v>0</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B117" s="6">
-        <v>603711</v>
+        <v>173</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="C117" s="6">
-        <v>29900</v>
+        <v>24225</v>
       </c>
       <c r="D117" s="6">
-        <v>29900</v>
+        <v>24225</v>
       </c>
       <c r="E117" s="6">
         <v>0</v>
       </c>
       <c r="F117" s="7">
-        <v>26.55</v>
+        <v>16.26</v>
       </c>
       <c r="G117" s="7">
-        <v>29.334</v>
+        <v>17.581</v>
       </c>
       <c r="H117" s="7">
         <v>0</v>
       </c>
       <c r="I117" s="7">
-        <v>793845</v>
+        <v>393898.5</v>
       </c>
       <c r="J117" s="7">
-        <v>-83232.47</v>
+        <v>-32002.03</v>
       </c>
       <c r="K117" s="7">
-        <v>-19734</v>
+        <v>23186.35</v>
       </c>
       <c r="L117" s="8">
-        <v>-9.49</v>
+        <v>-7.51</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B118" s="10">
-        <v>300423</v>
-      </c>
-      <c r="C118" s="10">
-        <v>7900</v>
-      </c>
-      <c r="D118" s="10">
-        <v>7900</v>
-      </c>
-      <c r="E118" s="10">
-        <v>0</v>
-      </c>
-      <c r="F118" s="11">
-        <v>14.43</v>
-      </c>
-      <c r="G118" s="11">
-        <v>13.926</v>
-      </c>
-      <c r="H118" s="11">
-        <v>0</v>
-      </c>
-      <c r="I118" s="11">
-        <v>113997</v>
-      </c>
-      <c r="J118" s="11">
-        <v>3984.5</v>
-      </c>
-      <c r="K118" s="11">
-        <v>-1422</v>
-      </c>
-      <c r="L118" s="9">
-        <v>3.62</v>
-      </c>
-      <c r="M118" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" s="10">
-        <v>50500</v>
-      </c>
-      <c r="D119" s="10">
-        <v>50500</v>
-      </c>
-      <c r="E119" s="10">
-        <v>0</v>
-      </c>
-      <c r="F119" s="11">
-        <v>46.53</v>
-      </c>
-      <c r="G119" s="11">
-        <v>45.183</v>
-      </c>
-      <c r="H119" s="11">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11">
-        <v>2349765</v>
-      </c>
-      <c r="J119" s="11">
-        <v>68029.68</v>
-      </c>
-      <c r="K119" s="11">
-        <v>-56055</v>
-      </c>
-      <c r="L119" s="9">
-        <v>2.98</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="6">
-        <v>138025</v>
-      </c>
-      <c r="D120" s="6">
-        <v>138025</v>
-      </c>
-      <c r="E120" s="6">
-        <v>0</v>
-      </c>
-      <c r="F120" s="7">
-        <v>15.85</v>
-      </c>
-      <c r="G120" s="7">
-        <v>16.25</v>
-      </c>
-      <c r="H120" s="7">
-        <v>0</v>
-      </c>
-      <c r="I120" s="7">
-        <v>2187696.25</v>
-      </c>
-      <c r="J120" s="7">
-        <v>-55188.38</v>
-      </c>
-      <c r="K120" s="7">
-        <v>-33126</v>
-      </c>
-      <c r="L120" s="8">
-        <v>-2.46</v>
-      </c>
-      <c r="M120" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
   <si>
     <t>资金</t>
   </si>
@@ -154,9 +154,6 @@
     <t>世运电路</t>
   </si>
   <si>
-    <t>东方明珠</t>
-  </si>
-  <si>
     <t>中国出版</t>
   </si>
   <si>
@@ -250,12 +247,6 @@
     <t>000403</t>
   </si>
   <si>
-    <t>双箭股份</t>
-  </si>
-  <si>
-    <t>002381</t>
-  </si>
-  <si>
     <t>同和药业</t>
   </si>
   <si>
@@ -280,6 +271,9 @@
     <t>天味食品</t>
   </si>
   <si>
+    <t>天孚通信</t>
+  </si>
+  <si>
     <t>天赐材料</t>
   </si>
   <si>
@@ -346,18 +340,12 @@
     <t>景旺电子</t>
   </si>
   <si>
-    <t>智莱科技</t>
-  </si>
-  <si>
     <t>杭锅股份</t>
   </si>
   <si>
     <t>002534</t>
   </si>
   <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
     <t>永新股份</t>
   </si>
   <si>
@@ -388,6 +376,12 @@
     <t>爱柯迪</t>
   </si>
   <si>
+    <t>王子新材</t>
+  </si>
+  <si>
+    <t>002735</t>
+  </si>
+  <si>
     <t>璞泰来</t>
   </si>
   <si>
@@ -424,6 +418,9 @@
     <t>精研科技</t>
   </si>
   <si>
+    <t>紫天科技</t>
+  </si>
+  <si>
     <t>纽威股份</t>
   </si>
   <si>
@@ -457,16 +454,13 @@
     <t>赛意信息</t>
   </si>
   <si>
+    <t>迈克生物</t>
+  </si>
+  <si>
     <t>金运激光</t>
   </si>
   <si>
-    <t>隧道股份</t>
-  </si>
-  <si>
     <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>香飘飘</t>
   </si>
   <si>
     <t>鲁亿通</t>
@@ -870,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -950,28 +944,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2288298.53</v>
+        <v>39290488.86</v>
       </c>
       <c r="D3" s="3">
-        <v>6682097.73</v>
+        <v>7347994.79</v>
       </c>
       <c r="E3" s="3">
-        <v>2288298.53</v>
+        <v>7347994.79</v>
       </c>
       <c r="F3" s="3">
-        <v>-4393799.2</v>
+        <v>31942494.07</v>
       </c>
       <c r="G3" s="3">
-        <v>116885733.89</v>
+        <v>149966018.09</v>
       </c>
       <c r="H3" s="3">
-        <v>123567831.62</v>
+        <v>157314012.88</v>
       </c>
       <c r="I3" s="3">
-        <v>-3230503.78</v>
+        <v>-1909792.61</v>
       </c>
       <c r="J3" s="3">
-        <v>942416.26</v>
+        <v>1135290</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1078,10 +1072,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5843000</v>
+        <v>5723000</v>
       </c>
       <c r="C8" s="3">
-        <v>5843000</v>
+        <v>5723000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1095,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>8133500</v>
+        <v>8040000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1186,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>89.78</v>
+        <v>89.35</v>
       </c>
       <c r="G12" s="7">
         <v>100.188</v>
@@ -1195,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1687864</v>
+        <v>1679780</v>
       </c>
       <c r="J12" s="7">
-        <v>-195667.97</v>
+        <v>-203751.97</v>
       </c>
       <c r="K12" s="7">
-        <v>8836</v>
+        <v>-8084</v>
       </c>
       <c r="L12" s="8">
-        <v>-10.39</v>
+        <v>-10.82</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1230,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>9.38</v>
+        <v>9.68</v>
       </c>
       <c r="G13" s="11">
         <v>-7.409</v>
@@ -1239,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>13132</v>
+        <v>13552</v>
       </c>
       <c r="J13" s="11">
-        <v>23504.19</v>
+        <v>23924.19</v>
       </c>
       <c r="K13" s="11">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -1268,31 +1262,31 @@
         <v>36882</v>
       </c>
       <c r="D14" s="10">
-        <v>36882</v>
+        <v>26382</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="F14" s="11">
-        <v>47.64</v>
+        <v>48.89</v>
       </c>
       <c r="G14" s="11">
-        <v>46.434</v>
+        <v>46.475</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>1757058.48</v>
+        <v>1803160.98</v>
       </c>
       <c r="J14" s="11">
-        <v>44480.3</v>
+        <v>89085.35</v>
       </c>
       <c r="K14" s="11">
-        <v>63068.22</v>
+        <v>44605.05</v>
       </c>
       <c r="L14" s="9">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>26</v>
@@ -1318,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>64.13</v>
+        <v>66.18</v>
       </c>
       <c r="G15" s="7">
         <v>254.78</v>
@@ -1327,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>6413</v>
+        <v>6618</v>
       </c>
       <c r="J15" s="7">
-        <v>-19064.95</v>
+        <v>-18859.95</v>
       </c>
       <c r="K15" s="7">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="L15" s="8">
-        <v>-74.83</v>
+        <v>-74.02</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1362,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>23.64</v>
+        <v>24.04</v>
       </c>
       <c r="G16" s="7">
         <v>26.366</v>
@@ -1371,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210396</v>
+        <v>213956</v>
       </c>
       <c r="J16" s="7">
-        <v>-24263.79</v>
+        <v>-20703.79</v>
       </c>
       <c r="K16" s="7">
-        <v>5429</v>
+        <v>3560</v>
       </c>
       <c r="L16" s="8">
-        <v>-10.34</v>
+        <v>-8.82</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1390,46 +1384,46 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6">
-        <v>600637</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>10.2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>-34648.4</v>
-      </c>
-      <c r="K17" s="7">
-        <v>-1221.33</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="B17" s="10">
+        <v>601949</v>
+      </c>
+      <c r="C17" s="10">
+        <v>230500</v>
+      </c>
+      <c r="D17" s="10">
+        <v>230500</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5.93</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1366865</v>
+      </c>
+      <c r="J17" s="11">
+        <v>76115.08</v>
+      </c>
+      <c r="K17" s="11">
+        <v>18440</v>
+      </c>
+      <c r="L17" s="9">
+        <v>5.89</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1438,37 +1432,37 @@
         <v>47</v>
       </c>
       <c r="B18" s="10">
-        <v>601949</v>
+        <v>601965</v>
       </c>
       <c r="C18" s="10">
-        <v>230500</v>
+        <v>75400</v>
       </c>
       <c r="D18" s="10">
-        <v>230500</v>
+        <v>75400</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>5.85</v>
+        <v>11.58</v>
       </c>
       <c r="G18" s="11">
-        <v>5.6</v>
+        <v>10.784</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>1348425</v>
+        <v>873132</v>
       </c>
       <c r="J18" s="11">
-        <v>57675.08</v>
+        <v>59990.85</v>
       </c>
       <c r="K18" s="11">
-        <v>4610</v>
+        <v>43732</v>
       </c>
       <c r="L18" s="9">
-        <v>4.46</v>
+        <v>7.38</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>24</v>
@@ -1482,87 +1476,87 @@
         <v>48</v>
       </c>
       <c r="B19" s="10">
-        <v>601965</v>
+        <v>300308</v>
       </c>
       <c r="C19" s="10">
-        <v>75400</v>
+        <v>30700</v>
       </c>
       <c r="D19" s="10">
-        <v>75400</v>
+        <v>30700</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>11</v>
+        <v>58.6</v>
       </c>
       <c r="G19" s="11">
-        <v>10.784</v>
+        <v>56.896</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>829400</v>
+        <v>1799020</v>
       </c>
       <c r="J19" s="11">
-        <v>16258.85</v>
+        <v>52305.85</v>
       </c>
       <c r="K19" s="11">
-        <v>3770</v>
+        <v>65391</v>
       </c>
       <c r="L19" s="9">
-        <v>2</v>
+        <v>2.99</v>
       </c>
       <c r="M19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10">
+        <v>603810</v>
+      </c>
+      <c r="C20" s="10">
+        <v>11000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>38.26</v>
+      </c>
+      <c r="G20" s="11">
+        <v>36.108</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>420860</v>
+      </c>
+      <c r="J20" s="11">
+        <v>23675.59</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-1870</v>
+      </c>
+      <c r="L20" s="9">
+        <v>5.96</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N20" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="6">
-        <v>300308</v>
-      </c>
-      <c r="C20" s="6">
-        <v>30700</v>
-      </c>
-      <c r="D20" s="6">
-        <v>30700</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>56.47</v>
-      </c>
-      <c r="G20" s="7">
-        <v>56.896</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1733629</v>
-      </c>
-      <c r="J20" s="7">
-        <v>-13085.15</v>
-      </c>
-      <c r="K20" s="7">
-        <v>48506</v>
-      </c>
-      <c r="L20" s="8">
-        <v>-0.75</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1570,37 +1564,37 @@
         <v>50</v>
       </c>
       <c r="B21" s="10">
-        <v>603810</v>
+        <v>603983</v>
       </c>
       <c r="C21" s="10">
-        <v>11000</v>
+        <v>16800</v>
       </c>
       <c r="D21" s="10">
-        <v>11000</v>
+        <v>16800</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>38.43</v>
+        <v>75.92</v>
       </c>
       <c r="G21" s="11">
-        <v>36.108</v>
+        <v>75.167</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>422730</v>
+        <v>1275456</v>
       </c>
       <c r="J21" s="11">
-        <v>25545.59</v>
+        <v>12654.36</v>
       </c>
       <c r="K21" s="11">
-        <v>11330</v>
+        <v>14616</v>
       </c>
       <c r="L21" s="9">
-        <v>6.43</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1613,88 +1607,88 @@
       <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6">
-        <v>603983</v>
+      <c r="B22" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="6">
-        <v>16800</v>
+        <v>66200</v>
       </c>
       <c r="D22" s="6">
-        <v>16800</v>
+        <v>66200</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>75.05</v>
+        <v>25.6</v>
       </c>
       <c r="G22" s="7">
-        <v>75.167</v>
+        <v>29.089</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1260840</v>
+        <v>1694720</v>
       </c>
       <c r="J22" s="7">
-        <v>-1961.64</v>
+        <v>-230969.24</v>
       </c>
       <c r="K22" s="7">
-        <v>28728</v>
+        <v>17212</v>
       </c>
       <c r="L22" s="8">
-        <v>-0.16</v>
+        <v>-11.99</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="B23" s="6">
+        <v>600602</v>
+      </c>
       <c r="C23" s="6">
-        <v>66200</v>
+        <v>259100</v>
       </c>
       <c r="D23" s="6">
-        <v>66200</v>
+        <v>259100</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>25.34</v>
+        <v>7.5</v>
       </c>
       <c r="G23" s="7">
-        <v>29.089</v>
+        <v>7.584</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1677508</v>
+        <v>1943250</v>
       </c>
       <c r="J23" s="7">
-        <v>-248181.24</v>
+        <v>-21659.23</v>
       </c>
       <c r="K23" s="7">
-        <v>26480</v>
+        <v>25910</v>
       </c>
       <c r="L23" s="8">
-        <v>-12.89</v>
+        <v>-1.11</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1702,86 +1696,86 @@
         <v>54</v>
       </c>
       <c r="B24" s="6">
-        <v>600602</v>
+        <v>300628</v>
       </c>
       <c r="C24" s="6">
-        <v>259100</v>
+        <v>7100</v>
       </c>
       <c r="D24" s="6">
-        <v>259100</v>
+        <v>7100</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>7.4</v>
+        <v>62.08</v>
       </c>
       <c r="G24" s="7">
-        <v>7.584</v>
+        <v>74.729</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1917340</v>
+        <v>440768</v>
       </c>
       <c r="J24" s="7">
-        <v>-47569.23</v>
+        <v>-89805.23</v>
       </c>
       <c r="K24" s="7">
-        <v>12955</v>
+        <v>-14626</v>
       </c>
       <c r="L24" s="8">
-        <v>-2.43</v>
+        <v>-16.93</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="6">
-        <v>300628</v>
-      </c>
-      <c r="C25" s="6">
-        <v>7100</v>
-      </c>
-      <c r="D25" s="6">
-        <v>7100</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>64.14</v>
-      </c>
-      <c r="G25" s="7">
-        <v>74.729</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>455394</v>
-      </c>
-      <c r="J25" s="7">
-        <v>-75179.23</v>
-      </c>
-      <c r="K25" s="7">
-        <v>11147</v>
-      </c>
-      <c r="L25" s="8">
-        <v>-14.17</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="8" t="s">
+      <c r="B25" s="10">
+        <v>300695</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D25" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>68.3</v>
+      </c>
+      <c r="G25" s="11">
+        <v>66.171</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>512250</v>
+      </c>
+      <c r="J25" s="11">
+        <v>15965.88</v>
+      </c>
+      <c r="K25" s="11">
+        <v>4425</v>
+      </c>
+      <c r="L25" s="9">
+        <v>3.22</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1790,37 +1784,37 @@
         <v>56</v>
       </c>
       <c r="B26" s="10">
-        <v>300695</v>
+        <v>300632</v>
       </c>
       <c r="C26" s="10">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D26" s="10">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>67.71</v>
+        <v>15.93</v>
       </c>
       <c r="G26" s="11">
-        <v>66.171</v>
+        <v>15.796</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>507825</v>
+        <v>95580</v>
       </c>
       <c r="J26" s="11">
-        <v>11540.88</v>
+        <v>806.24</v>
       </c>
       <c r="K26" s="11">
-        <v>19575</v>
+        <v>1560</v>
       </c>
       <c r="L26" s="9">
-        <v>2.33</v>
+        <v>0.85</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>26</v>
@@ -1833,38 +1827,38 @@
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6">
-        <v>300632</v>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C27" s="6">
-        <v>6000</v>
+        <v>31300</v>
       </c>
       <c r="D27" s="6">
-        <v>6000</v>
+        <v>31300</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>15.67</v>
+        <v>15.2</v>
       </c>
       <c r="G27" s="7">
-        <v>15.796</v>
+        <v>16.061</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>94020</v>
+        <v>475760</v>
       </c>
       <c r="J27" s="7">
-        <v>-753.76</v>
+        <v>-26955.39</v>
       </c>
       <c r="K27" s="7">
-        <v>540</v>
+        <v>3130</v>
       </c>
       <c r="L27" s="8">
-        <v>-0.8</v>
+        <v>-5.36</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>26</v>
@@ -1874,46 +1868,46 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6">
-        <v>31300</v>
-      </c>
-      <c r="D28" s="6">
-        <v>31300</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>15.1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>16.061</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>472630</v>
-      </c>
-      <c r="J28" s="7">
-        <v>-30085.39</v>
-      </c>
-      <c r="K28" s="7">
-        <v>10016</v>
-      </c>
-      <c r="L28" s="8">
-        <v>-5.98</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="B28" s="10">
+        <v>300715</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>59.2</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>142336.21</v>
+      </c>
+      <c r="K28" s="11">
+        <v>-9748.99</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1922,37 +1916,37 @@
         <v>60</v>
       </c>
       <c r="B29" s="10">
-        <v>300715</v>
+        <v>300639</v>
       </c>
       <c r="C29" s="10">
-        <v>9100</v>
+        <v>25700</v>
       </c>
       <c r="D29" s="10">
-        <v>9100</v>
+        <v>25700</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>58.35</v>
+        <v>54.23</v>
       </c>
       <c r="G29" s="11">
-        <v>41.637</v>
+        <v>48.841</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
       </c>
       <c r="I29" s="11">
-        <v>530985</v>
+        <v>1393711</v>
       </c>
       <c r="J29" s="11">
-        <v>152085.2</v>
+        <v>138498.67</v>
       </c>
       <c r="K29" s="11">
-        <v>31395</v>
+        <v>15677</v>
       </c>
       <c r="L29" s="9">
-        <v>40.14</v>
+        <v>11.03</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>26</v>
@@ -1966,37 +1960,37 @@
         <v>61</v>
       </c>
       <c r="B30" s="10">
-        <v>300639</v>
+        <v>300596</v>
       </c>
       <c r="C30" s="10">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="D30" s="10">
-        <v>25700</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>53.62</v>
+        <v>37.6</v>
       </c>
       <c r="G30" s="11">
-        <v>48.841</v>
+        <v>0</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>1378034</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
-        <v>122821.67</v>
+        <v>29225.81</v>
       </c>
       <c r="K30" s="11">
-        <v>-31868</v>
+        <v>-1075.44</v>
       </c>
       <c r="L30" s="9">
-        <v>9.78</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>26</v>
@@ -2009,38 +2003,38 @@
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="10">
-        <v>300596</v>
+      <c r="B31" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="10">
-        <v>10000</v>
+        <v>54607</v>
       </c>
       <c r="D31" s="10">
-        <v>10000</v>
+        <v>54607</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>36.84</v>
+        <v>16.9</v>
       </c>
       <c r="G31" s="11">
-        <v>33.81</v>
+        <v>16.725</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>368400</v>
+        <v>922858.3</v>
       </c>
       <c r="J31" s="11">
-        <v>30301.25</v>
+        <v>9565.3</v>
       </c>
       <c r="K31" s="11">
-        <v>-4700</v>
+        <v>40955.25</v>
       </c>
       <c r="L31" s="9">
-        <v>8.96</v>
+        <v>1.05</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>26</v>
@@ -2051,134 +2045,134 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B32" s="6">
+        <v>603679</v>
+      </c>
       <c r="C32" s="6">
-        <v>54607</v>
+        <v>26700</v>
       </c>
       <c r="D32" s="6">
-        <v>54607</v>
+        <v>26700</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>16.15</v>
+        <v>28.95</v>
       </c>
       <c r="G32" s="7">
-        <v>16.725</v>
+        <v>29.285</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>881903.05</v>
+        <v>772965</v>
       </c>
       <c r="J32" s="7">
-        <v>-31389.95</v>
+        <v>-8934.92</v>
       </c>
       <c r="K32" s="7">
-        <v>14743.89</v>
+        <v>7743</v>
       </c>
       <c r="L32" s="8">
-        <v>-3.44</v>
+        <v>-1.14</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="6">
-        <v>603679</v>
+      <c r="B33" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="6">
-        <v>26700</v>
+        <v>40100</v>
       </c>
       <c r="D33" s="6">
-        <v>26700</v>
+        <v>40100</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>28.66</v>
+        <v>5.8</v>
       </c>
       <c r="G33" s="7">
-        <v>29.285</v>
+        <v>6.936</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>765222</v>
+        <v>232580</v>
       </c>
       <c r="J33" s="7">
-        <v>-16677.92</v>
+        <v>-45554.24</v>
       </c>
       <c r="K33" s="7">
-        <v>29637</v>
+        <v>9624</v>
       </c>
       <c r="L33" s="8">
-        <v>-2.13</v>
+        <v>-16.38</v>
       </c>
       <c r="M33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C34" s="10">
+        <v>770025</v>
+      </c>
+      <c r="D34" s="10">
+        <v>770025</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>99.994</v>
+      </c>
+      <c r="G34" s="11">
+        <v>99.784</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>76997879.85</v>
+      </c>
+      <c r="J34" s="11">
+        <v>161356.44</v>
+      </c>
+      <c r="K34" s="11">
+        <v>-4630.28</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N34" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="6">
-        <v>40100</v>
-      </c>
-      <c r="D34" s="6">
-        <v>40100</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>5.56</v>
-      </c>
-      <c r="G34" s="7">
-        <v>6.936</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>222956</v>
-      </c>
-      <c r="J34" s="7">
-        <v>-55186.97</v>
-      </c>
-      <c r="K34" s="7">
-        <v>-11083.36</v>
-      </c>
-      <c r="L34" s="8">
-        <v>-19.84</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2186,131 +2180,131 @@
         <v>68</v>
       </c>
       <c r="B35" s="10">
-        <v>511990</v>
+        <v>300755</v>
       </c>
       <c r="C35" s="10">
-        <v>450000</v>
+        <v>17500</v>
       </c>
       <c r="D35" s="10">
-        <v>450000</v>
+        <v>17500</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>100.005</v>
+        <v>29.51</v>
       </c>
       <c r="G35" s="11">
-        <v>99.642</v>
+        <v>29.407</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>45002250</v>
+        <v>516425</v>
       </c>
       <c r="J35" s="11">
-        <v>163486.59</v>
+        <v>1809.8</v>
       </c>
       <c r="K35" s="11">
-        <v>-8400.12</v>
+        <v>10500</v>
       </c>
       <c r="L35" s="9">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="M35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="10">
+        <v>603855</v>
+      </c>
+      <c r="C36" s="10">
+        <v>61500</v>
+      </c>
+      <c r="D36" s="10">
+        <v>61500</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>19.15</v>
+      </c>
+      <c r="G36" s="11">
+        <v>18.201</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1177725</v>
+      </c>
+      <c r="J36" s="11">
+        <v>58350.46</v>
+      </c>
+      <c r="K36" s="11">
+        <v>99015</v>
+      </c>
+      <c r="L36" s="9">
+        <v>5.21</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="6">
-        <v>300755</v>
-      </c>
-      <c r="C36" s="6">
-        <v>17500</v>
-      </c>
-      <c r="D36" s="6">
-        <v>17500</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>28.91</v>
-      </c>
-      <c r="G36" s="7">
-        <v>29.407</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>505925</v>
-      </c>
-      <c r="J36" s="7">
-        <v>-8690.2</v>
-      </c>
-      <c r="K36" s="7">
-        <v>9975</v>
-      </c>
-      <c r="L36" s="8">
-        <v>-1.69</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="6">
-        <v>603855</v>
-      </c>
-      <c r="C37" s="6">
-        <v>61500</v>
-      </c>
-      <c r="D37" s="6">
-        <v>19600</v>
-      </c>
-      <c r="E37" s="6">
-        <v>41900</v>
-      </c>
-      <c r="F37" s="7">
-        <v>17.54</v>
-      </c>
-      <c r="G37" s="7">
-        <v>18.205</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1078710</v>
-      </c>
-      <c r="J37" s="7">
-        <v>-40919.96</v>
-      </c>
-      <c r="K37" s="7">
-        <v>-12311.72</v>
-      </c>
-      <c r="L37" s="8">
-        <v>-3.65</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>23</v>
+      <c r="B37" s="10">
+        <v>300548</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4500</v>
+      </c>
+      <c r="D37" s="10">
+        <v>4500</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>56.13</v>
+      </c>
+      <c r="G37" s="11">
+        <v>55.32</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>252585</v>
+      </c>
+      <c r="J37" s="11">
+        <v>3644.65</v>
+      </c>
+      <c r="K37" s="11">
+        <v>6975</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2318,43 +2312,43 @@
         <v>71</v>
       </c>
       <c r="B38" s="6">
-        <v>300548</v>
+        <v>601137</v>
       </c>
       <c r="C38" s="6">
-        <v>4500</v>
+        <v>12574</v>
       </c>
       <c r="D38" s="6">
-        <v>4500</v>
+        <v>12574</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>54.58</v>
+        <v>14.68</v>
       </c>
       <c r="G38" s="7">
-        <v>55.32</v>
+        <v>18.218</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>245610</v>
+        <v>184586.32</v>
       </c>
       <c r="J38" s="7">
-        <v>-3330.35</v>
+        <v>-44492.73</v>
       </c>
       <c r="K38" s="7">
-        <v>585</v>
+        <v>2137.58</v>
       </c>
       <c r="L38" s="8">
-        <v>-1.34</v>
+        <v>-19.42</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2362,125 +2356,125 @@
         <v>72</v>
       </c>
       <c r="B39" s="6">
-        <v>601137</v>
+        <v>300363</v>
       </c>
       <c r="C39" s="6">
-        <v>12574</v>
+        <v>12300</v>
       </c>
       <c r="D39" s="6">
-        <v>12574</v>
+        <v>12300</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>14.51</v>
+        <v>30.8</v>
       </c>
       <c r="G39" s="7">
-        <v>18.218</v>
+        <v>34.324</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>182448.74</v>
+        <v>378840</v>
       </c>
       <c r="J39" s="7">
-        <v>-46630.31</v>
+        <v>-43350.17</v>
       </c>
       <c r="K39" s="7">
-        <v>1005.92</v>
+        <v>6150</v>
       </c>
       <c r="L39" s="8">
-        <v>-20.35</v>
+        <v>-10.27</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="6">
-        <v>300363</v>
-      </c>
-      <c r="C40" s="6">
-        <v>12300</v>
-      </c>
-      <c r="D40" s="6">
-        <v>12300</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>30.3</v>
-      </c>
-      <c r="G40" s="7">
-        <v>34.324</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>372690</v>
-      </c>
-      <c r="J40" s="7">
-        <v>-49500.17</v>
-      </c>
-      <c r="K40" s="7">
-        <v>13038</v>
-      </c>
-      <c r="L40" s="8">
-        <v>-11.72</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="B40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D40" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>60.81</v>
+      </c>
+      <c r="G40" s="11">
+        <v>53.268</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>456075</v>
+      </c>
+      <c r="J40" s="11">
+        <v>56568.56</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1725</v>
+      </c>
+      <c r="L40" s="9">
+        <v>14.16</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" s="10">
-        <v>7500</v>
+        <v>19600</v>
       </c>
       <c r="D41" s="10">
-        <v>7500</v>
+        <v>19600</v>
       </c>
       <c r="E41" s="10">
         <v>0</v>
       </c>
       <c r="F41" s="11">
-        <v>60.58</v>
+        <v>40.63</v>
       </c>
       <c r="G41" s="11">
-        <v>53.268</v>
+        <v>39.803</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>454350</v>
+        <v>796348</v>
       </c>
       <c r="J41" s="11">
-        <v>54843.56</v>
+        <v>16213.45</v>
       </c>
       <c r="K41" s="11">
-        <v>2100</v>
+        <v>18032</v>
       </c>
       <c r="L41" s="9">
-        <v>13.73</v>
+        <v>2.08</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>26</v>
@@ -2491,40 +2485,40 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="B42" s="6">
+        <v>300636</v>
+      </c>
       <c r="C42" s="6">
-        <v>19600</v>
+        <v>6800</v>
       </c>
       <c r="D42" s="6">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="E42" s="6">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>39.71</v>
+        <v>32.95</v>
       </c>
       <c r="G42" s="7">
-        <v>39.814</v>
+        <v>38.829</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>778316</v>
+        <v>224060</v>
       </c>
       <c r="J42" s="7">
-        <v>-2046.46</v>
+        <v>-39974.59</v>
       </c>
       <c r="K42" s="7">
-        <v>-2046.46</v>
+        <v>-1020</v>
       </c>
       <c r="L42" s="8">
-        <v>-0.26</v>
+        <v>-15.14</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2541,34 +2535,34 @@
         <v>79</v>
       </c>
       <c r="C43" s="10">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="D43" s="10">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E43" s="10">
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <v>10.49</v>
+        <v>14.14</v>
       </c>
       <c r="G43" s="11">
-        <v>0</v>
+        <v>3.772</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>0</v>
+        <v>166852</v>
       </c>
       <c r="J43" s="11">
-        <v>39701.29</v>
+        <v>122348.13</v>
       </c>
       <c r="K43" s="11">
-        <v>-3446.26</v>
+        <v>354</v>
       </c>
       <c r="L43" s="9">
-        <v>0</v>
+        <v>274.87</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>26</v>
@@ -2582,37 +2576,37 @@
         <v>80</v>
       </c>
       <c r="B44" s="6">
-        <v>300636</v>
+        <v>300661</v>
       </c>
       <c r="C44" s="6">
-        <v>6800</v>
+        <v>3200</v>
       </c>
       <c r="D44" s="6">
-        <v>6800</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>33.1</v>
+        <v>318.6</v>
       </c>
       <c r="G44" s="7">
-        <v>38.829</v>
+        <v>355.44</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>225080</v>
+        <v>1019520</v>
       </c>
       <c r="J44" s="7">
-        <v>-38954.59</v>
+        <v>-117888.48</v>
       </c>
       <c r="K44" s="7">
-        <v>7276</v>
+        <v>-87680</v>
       </c>
       <c r="L44" s="8">
-        <v>-14.75</v>
+        <v>-10.36</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>26</v>
@@ -2622,85 +2616,85 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="10">
-        <v>11800</v>
-      </c>
-      <c r="D45" s="10">
-        <v>11800</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>14.11</v>
-      </c>
-      <c r="G45" s="11">
-        <v>3.772</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>166498</v>
-      </c>
-      <c r="J45" s="11">
-        <v>121994.13</v>
-      </c>
-      <c r="K45" s="11">
-        <v>1180</v>
-      </c>
-      <c r="L45" s="9">
-        <v>274.07</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>25</v>
+      <c r="B45" s="6">
+        <v>603826</v>
+      </c>
+      <c r="C45" s="6">
+        <v>65100</v>
+      </c>
+      <c r="D45" s="6">
+        <v>65100</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>27.04</v>
+      </c>
+      <c r="G45" s="7">
+        <v>31.616</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1760304</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-297908.3</v>
+      </c>
+      <c r="K45" s="7">
+        <v>57939</v>
+      </c>
+      <c r="L45" s="8">
+        <v>-14.47</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="6">
-        <v>300661</v>
-      </c>
       <c r="C46" s="6">
-        <v>3200</v>
+        <v>18000</v>
       </c>
       <c r="D46" s="6">
-        <v>3200</v>
+        <v>18000</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>346</v>
+        <v>95.4</v>
       </c>
       <c r="G46" s="7">
-        <v>355.44</v>
+        <v>102.032</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1107200</v>
+        <v>1717200</v>
       </c>
       <c r="J46" s="7">
-        <v>-30208.48</v>
+        <v>-119384.51</v>
       </c>
       <c r="K46" s="7">
-        <v>23200</v>
+        <v>43740</v>
       </c>
       <c r="L46" s="8">
-        <v>-2.66</v>
+        <v>-6.5</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2710,46 +2704,46 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="6">
-        <v>603826</v>
-      </c>
-      <c r="C47" s="6">
-        <v>65100</v>
-      </c>
-      <c r="D47" s="6">
-        <v>65100</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>26.15</v>
-      </c>
-      <c r="G47" s="7">
-        <v>31.616</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1702365</v>
-      </c>
-      <c r="J47" s="7">
-        <v>-355847.3</v>
-      </c>
-      <c r="K47" s="7">
-        <v>3255</v>
-      </c>
-      <c r="L47" s="8">
-        <v>-17.29</v>
-      </c>
-      <c r="M47" s="8" t="s">
+      <c r="B47" s="10">
+        <v>603317</v>
+      </c>
+      <c r="C47" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D47" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>60</v>
+      </c>
+      <c r="G47" s="11">
+        <v>57.219</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="J47" s="11">
+        <v>83420.11</v>
+      </c>
+      <c r="K47" s="11">
+        <v>74700</v>
+      </c>
+      <c r="L47" s="9">
+        <v>4.86</v>
+      </c>
+      <c r="M47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="8" t="s">
+      <c r="N47" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2757,38 +2751,38 @@
       <c r="A48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>86</v>
+      <c r="B48" s="6">
+        <v>300394</v>
       </c>
       <c r="C48" s="6">
-        <v>18000</v>
+        <v>15800</v>
       </c>
       <c r="D48" s="6">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
-        <v>0</v>
+        <v>15800</v>
       </c>
       <c r="F48" s="7">
-        <v>92.97</v>
+        <v>66.55</v>
       </c>
       <c r="G48" s="7">
-        <v>102.032</v>
+        <v>66.557</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1673460</v>
+        <v>1051490</v>
       </c>
       <c r="J48" s="7">
-        <v>-163124.51</v>
+        <v>-107.19</v>
       </c>
       <c r="K48" s="7">
-        <v>38880</v>
+        <v>-107.19</v>
       </c>
       <c r="L48" s="8">
-        <v>-8.88</v>
+        <v>-0.01</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>26</v>
@@ -2799,216 +2793,216 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="10">
-        <v>603317</v>
-      </c>
       <c r="C49" s="10">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="D49" s="10">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="E49" s="10">
         <v>0</v>
       </c>
       <c r="F49" s="11">
-        <v>57.51</v>
+        <v>38.44</v>
       </c>
       <c r="G49" s="11">
-        <v>57.219</v>
+        <v>37.031</v>
       </c>
       <c r="H49" s="11">
         <v>0</v>
       </c>
       <c r="I49" s="11">
-        <v>1725300</v>
+        <v>1499160</v>
       </c>
       <c r="J49" s="11">
-        <v>8720.11</v>
+        <v>54943.4</v>
       </c>
       <c r="K49" s="11">
-        <v>22200</v>
+        <v>45240</v>
       </c>
       <c r="L49" s="9">
-        <v>0.51</v>
+        <v>3.8</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10">
+        <v>603788</v>
+      </c>
+      <c r="C50" s="10">
+        <v>8500</v>
+      </c>
+      <c r="D50" s="10">
+        <v>8500</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>18.57</v>
+      </c>
+      <c r="G50" s="11">
+        <v>18.414</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>157845</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1323.91</v>
+      </c>
+      <c r="K50" s="11">
+        <v>680</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="10">
-        <v>39000</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>39000</v>
-      </c>
-      <c r="F50" s="11">
-        <v>37.28</v>
-      </c>
-      <c r="G50" s="11">
-        <v>37.032</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1453920</v>
-      </c>
-      <c r="J50" s="11">
-        <v>9658.42</v>
-      </c>
-      <c r="K50" s="11">
-        <v>9658.42</v>
-      </c>
-      <c r="L50" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="10">
-        <v>603788</v>
-      </c>
-      <c r="C51" s="10">
-        <v>8500</v>
-      </c>
-      <c r="D51" s="10">
-        <v>8500</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <v>18.49</v>
-      </c>
-      <c r="G51" s="11">
-        <v>18.414</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>157165</v>
-      </c>
-      <c r="J51" s="11">
-        <v>643.91</v>
-      </c>
-      <c r="K51" s="11">
-        <v>1190</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0.41</v>
-      </c>
-      <c r="M51" s="9" t="s">
+      <c r="B51" s="6">
+        <v>603599</v>
+      </c>
+      <c r="C51" s="6">
+        <v>25500</v>
+      </c>
+      <c r="D51" s="6">
+        <v>25500</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>17.14</v>
+      </c>
+      <c r="G51" s="7">
+        <v>19.398</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>437070</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-57567.08</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2550</v>
+      </c>
+      <c r="L51" s="8">
+        <v>-11.64</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="6">
-        <v>603599</v>
+        <v>300638</v>
       </c>
       <c r="C52" s="6">
-        <v>25500</v>
+        <v>15300</v>
       </c>
       <c r="D52" s="6">
-        <v>25500</v>
+        <v>15300</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>17.04</v>
+        <v>73.99</v>
       </c>
       <c r="G52" s="7">
-        <v>19.398</v>
+        <v>75.628</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>434520</v>
+        <v>1132047</v>
       </c>
       <c r="J52" s="7">
-        <v>-60117.08</v>
+        <v>-25064.56</v>
       </c>
       <c r="K52" s="7">
-        <v>3570</v>
+        <v>-4743</v>
       </c>
       <c r="L52" s="8">
-        <v>-12.16</v>
+        <v>-2.17</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="6">
-        <v>300638</v>
-      </c>
       <c r="C53" s="6">
-        <v>15300</v>
+        <v>25299</v>
       </c>
       <c r="D53" s="6">
-        <v>15300</v>
+        <v>25299</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>74.3</v>
+        <v>68.3</v>
       </c>
       <c r="G53" s="7">
-        <v>75.628</v>
+        <v>76.475</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>1136790</v>
+        <v>1727921.7</v>
       </c>
       <c r="J53" s="7">
-        <v>-20321.56</v>
+        <v>-206806.68</v>
       </c>
       <c r="K53" s="7">
-        <v>13923</v>
+        <v>46803.15</v>
       </c>
       <c r="L53" s="8">
-        <v>-1.76</v>
+        <v>-10.69</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3021,38 +3015,38 @@
       <c r="A54" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>94</v>
+      <c r="B54" s="6">
+        <v>300759</v>
       </c>
       <c r="C54" s="6">
-        <v>25299</v>
+        <v>15400</v>
       </c>
       <c r="D54" s="6">
-        <v>25299</v>
+        <v>15400</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>66.45</v>
+        <v>93.84</v>
       </c>
       <c r="G54" s="7">
-        <v>76.475</v>
+        <v>94.022</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>1681118.55</v>
+        <v>1445136</v>
       </c>
       <c r="J54" s="7">
-        <v>-253609.83</v>
+        <v>-2810.14</v>
       </c>
       <c r="K54" s="7">
-        <v>16444.35</v>
+        <v>8624</v>
       </c>
       <c r="L54" s="8">
-        <v>-13.11</v>
+        <v>-0.19</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>26</v>
@@ -3063,216 +3057,216 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="6">
+        <v>300577</v>
+      </c>
+      <c r="C55" s="6">
+        <v>21900</v>
+      </c>
+      <c r="D55" s="6">
+        <v>21900</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>31.68</v>
+      </c>
+      <c r="G55" s="7">
+        <v>32.217</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>693792</v>
+      </c>
+      <c r="J55" s="7">
+        <v>-11756.84</v>
+      </c>
+      <c r="K55" s="7">
+        <v>-3504</v>
+      </c>
+      <c r="L55" s="8">
+        <v>-1.67</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="6">
-        <v>300759</v>
-      </c>
-      <c r="C55" s="6">
-        <v>15400</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>15400</v>
-      </c>
-      <c r="F55" s="7">
-        <v>93.28</v>
-      </c>
-      <c r="G55" s="7">
-        <v>94.023</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1436512</v>
-      </c>
-      <c r="J55" s="7">
-        <v>-11447.35</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-11447.35</v>
-      </c>
-      <c r="L55" s="8">
-        <v>-0.79</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="6">
-        <v>300577</v>
-      </c>
-      <c r="C56" s="6">
-        <v>21900</v>
-      </c>
-      <c r="D56" s="6">
-        <v>21900</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>31.84</v>
-      </c>
-      <c r="G56" s="7">
-        <v>32.217</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>697296</v>
-      </c>
-      <c r="J56" s="7">
-        <v>-8252.84</v>
-      </c>
-      <c r="K56" s="7">
-        <v>11826</v>
-      </c>
-      <c r="L56" s="8">
-        <v>-1.17</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="8" t="s">
+      <c r="C56" s="10">
+        <v>8200</v>
+      </c>
+      <c r="D56" s="10">
+        <v>8200</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>36.48</v>
+      </c>
+      <c r="G56" s="11">
+        <v>34.99</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>299136</v>
+      </c>
+      <c r="J56" s="11">
+        <v>12215.95</v>
+      </c>
+      <c r="K56" s="11">
+        <v>11480</v>
+      </c>
+      <c r="L56" s="9">
+        <v>4.26</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="10">
-        <v>8200</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>8200</v>
-      </c>
-      <c r="F57" s="11">
-        <v>35.08</v>
-      </c>
-      <c r="G57" s="11">
-        <v>35.013</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>287656</v>
-      </c>
-      <c r="J57" s="11">
-        <v>549</v>
-      </c>
-      <c r="K57" s="11">
-        <v>549</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>25</v>
+      <c r="B57" s="6">
+        <v>601100</v>
+      </c>
+      <c r="C57" s="6">
+        <v>23700</v>
+      </c>
+      <c r="D57" s="6">
+        <v>23700</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>60.77</v>
+      </c>
+      <c r="G57" s="7">
+        <v>60.847</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1440249</v>
+      </c>
+      <c r="J57" s="7">
+        <v>-1832.99</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3081</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="6">
-        <v>601100</v>
+        <v>300229</v>
       </c>
       <c r="C58" s="6">
-        <v>23700</v>
+        <v>61000</v>
       </c>
       <c r="D58" s="6">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E58" s="6">
-        <v>23700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>60.64</v>
+        <v>11.88</v>
       </c>
       <c r="G58" s="7">
-        <v>60.852</v>
+        <v>13.4</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>1437168</v>
+        <v>724680</v>
       </c>
       <c r="J58" s="7">
-        <v>-5026.32</v>
+        <v>-92742.37</v>
       </c>
       <c r="K58" s="7">
-        <v>-5026.32</v>
+        <v>7320</v>
       </c>
       <c r="L58" s="8">
-        <v>-0.35</v>
+        <v>-11.34</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="6">
-        <v>300229</v>
+        <v>300724</v>
       </c>
       <c r="C59" s="6">
-        <v>61000</v>
+        <v>20400</v>
       </c>
       <c r="D59" s="6">
-        <v>61000</v>
+        <v>20400</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>11.76</v>
+        <v>84.29</v>
       </c>
       <c r="G59" s="7">
-        <v>13.4</v>
+        <v>96.134</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>717360</v>
+        <v>1719516</v>
       </c>
       <c r="J59" s="7">
-        <v>-100062.37</v>
+        <v>-241612.99</v>
       </c>
       <c r="K59" s="7">
-        <v>7930</v>
+        <v>-10608</v>
       </c>
       <c r="L59" s="8">
-        <v>-12.24</v>
+        <v>-12.32</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>26</v>
@@ -3283,40 +3277,40 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="6">
-        <v>300724</v>
-      </c>
       <c r="C60" s="6">
-        <v>20400</v>
+        <v>63100</v>
       </c>
       <c r="D60" s="6">
-        <v>20400</v>
+        <v>63100</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>84.81</v>
+        <v>10.98</v>
       </c>
       <c r="G60" s="7">
-        <v>96.134</v>
+        <v>11.626</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>1730124</v>
+        <v>692838</v>
       </c>
       <c r="J60" s="7">
-        <v>-231004.99</v>
+        <v>-40763.41</v>
       </c>
       <c r="K60" s="7">
-        <v>32436</v>
+        <v>3155</v>
       </c>
       <c r="L60" s="8">
-        <v>-11.78</v>
+        <v>-5.56</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3329,38 +3323,38 @@
       <c r="A61" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>103</v>
+      <c r="B61" s="6">
+        <v>300259</v>
       </c>
       <c r="C61" s="6">
-        <v>63100</v>
+        <v>6460</v>
       </c>
       <c r="D61" s="6">
-        <v>63100</v>
+        <v>6460</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>10.93</v>
+        <v>5.1</v>
       </c>
       <c r="G61" s="7">
-        <v>11.626</v>
+        <v>13.524</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>689683</v>
+        <v>32946</v>
       </c>
       <c r="J61" s="7">
-        <v>-43918.41</v>
+        <v>-54416.94</v>
       </c>
       <c r="K61" s="7">
-        <v>5048</v>
+        <v>1098.2</v>
       </c>
       <c r="L61" s="8">
-        <v>-5.99</v>
+        <v>-62.29</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>26</v>
@@ -3371,40 +3365,40 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="6">
-        <v>300259</v>
+        <v>300037</v>
       </c>
       <c r="C62" s="6">
-        <v>6460</v>
+        <v>9200</v>
       </c>
       <c r="D62" s="6">
-        <v>6460</v>
+        <v>9200</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>4.93</v>
+        <v>56.58</v>
       </c>
       <c r="G62" s="7">
-        <v>13.524</v>
+        <v>56.989</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>31847.8</v>
+        <v>520536</v>
       </c>
       <c r="J62" s="7">
-        <v>-55515.14</v>
+        <v>-3764.64</v>
       </c>
       <c r="K62" s="7">
-        <v>323</v>
+        <v>1748</v>
       </c>
       <c r="L62" s="8">
-        <v>-63.55</v>
+        <v>-0.72</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3415,40 +3409,40 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="6">
-        <v>300037</v>
+        <v>300502</v>
       </c>
       <c r="C63" s="6">
-        <v>9200</v>
+        <v>24980</v>
       </c>
       <c r="D63" s="6">
-        <v>0</v>
+        <v>24980</v>
       </c>
       <c r="E63" s="6">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="F63" s="7">
-        <v>56.39</v>
+        <v>69.98</v>
       </c>
       <c r="G63" s="7">
-        <v>57.007</v>
+        <v>72.879</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>518788</v>
+        <v>1748100.4</v>
       </c>
       <c r="J63" s="7">
-        <v>-5671.92</v>
+        <v>-72406.88</v>
       </c>
       <c r="K63" s="7">
-        <v>-5671.92</v>
+        <v>4496.4</v>
       </c>
       <c r="L63" s="8">
-        <v>-1.08</v>
+        <v>-3.98</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>26</v>
@@ -3459,216 +3453,216 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="6">
+        <v>300212</v>
+      </c>
+      <c r="C64" s="6">
+        <v>36244</v>
+      </c>
+      <c r="D64" s="6">
+        <v>36244</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>46.78</v>
+      </c>
+      <c r="G64" s="7">
+        <v>53.923</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1695494.32</v>
+      </c>
+      <c r="J64" s="7">
+        <v>-258898.05</v>
+      </c>
+      <c r="K64" s="7">
+        <v>-13410.28</v>
+      </c>
+      <c r="L64" s="8">
+        <v>-13.25</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="6">
-        <v>300502</v>
-      </c>
-      <c r="C64" s="6">
-        <v>24980</v>
-      </c>
-      <c r="D64" s="6">
-        <v>24980</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>69.8</v>
-      </c>
-      <c r="G64" s="7">
-        <v>72.879</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>1743604</v>
-      </c>
-      <c r="J64" s="7">
-        <v>-76903.28</v>
-      </c>
-      <c r="K64" s="7">
-        <v>46962.4</v>
-      </c>
-      <c r="L64" s="8">
-        <v>-4.22</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
+      <c r="B65" s="10">
+        <v>603127</v>
+      </c>
+      <c r="C65" s="10">
+        <v>16300</v>
+      </c>
+      <c r="D65" s="10">
+        <v>16300</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>87.48</v>
+      </c>
+      <c r="G65" s="11">
+        <v>77.06</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1425924</v>
+      </c>
+      <c r="J65" s="11">
+        <v>169849.1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>-3749</v>
+      </c>
+      <c r="L65" s="9">
+        <v>13.52</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="6">
-        <v>300212</v>
-      </c>
-      <c r="C65" s="6">
-        <v>36244</v>
-      </c>
-      <c r="D65" s="6">
-        <v>36244</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>47.15</v>
-      </c>
-      <c r="G65" s="7">
-        <v>53.923</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>1708904.6</v>
-      </c>
-      <c r="J65" s="7">
-        <v>-245487.77</v>
-      </c>
-      <c r="K65" s="7">
-        <v>50741.6</v>
-      </c>
-      <c r="L65" s="8">
-        <v>-12.56</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="9" t="s">
+      <c r="B66" s="6">
+        <v>603228</v>
+      </c>
+      <c r="C66" s="6">
+        <v>24300</v>
+      </c>
+      <c r="D66" s="6">
+        <v>24300</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>36</v>
+      </c>
+      <c r="G66" s="7">
+        <v>44.067</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>874800</v>
+      </c>
+      <c r="J66" s="7">
+        <v>-196025.5</v>
+      </c>
+      <c r="K66" s="7">
+        <v>13608</v>
+      </c>
+      <c r="L66" s="8">
+        <v>-18.31</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="10">
-        <v>603127</v>
-      </c>
-      <c r="C66" s="10">
-        <v>16300</v>
-      </c>
-      <c r="D66" s="10">
-        <v>500</v>
-      </c>
-      <c r="E66" s="10">
-        <v>15800</v>
-      </c>
-      <c r="F66" s="11">
-        <v>87.71</v>
-      </c>
-      <c r="G66" s="11">
-        <v>77.071</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>1429673</v>
-      </c>
-      <c r="J66" s="11">
-        <v>173414.71</v>
-      </c>
-      <c r="K66" s="11">
-        <v>-9707</v>
-      </c>
-      <c r="L66" s="9">
-        <v>13.8</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="6">
-        <v>603228</v>
-      </c>
-      <c r="C67" s="6">
-        <v>24300</v>
-      </c>
-      <c r="D67" s="6">
-        <v>24300</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>35.44</v>
-      </c>
-      <c r="G67" s="7">
-        <v>44.067</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>861192</v>
-      </c>
-      <c r="J67" s="7">
-        <v>-209633.5</v>
-      </c>
-      <c r="K67" s="7">
-        <v>9963</v>
-      </c>
-      <c r="L67" s="8">
-        <v>-19.58</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>23</v>
+      <c r="C67" s="10">
+        <v>6480</v>
+      </c>
+      <c r="D67" s="10">
+        <v>6480</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="G67" s="11">
+        <v>4.946</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>57672</v>
+      </c>
+      <c r="J67" s="11">
+        <v>25623.31</v>
+      </c>
+      <c r="K67" s="11">
+        <v>1555.2</v>
+      </c>
+      <c r="L67" s="9">
+        <v>79.94</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="10">
-        <v>300771</v>
+      <c r="B68" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="C68" s="10">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="D68" s="10">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E68" s="10">
         <v>0</v>
       </c>
       <c r="F68" s="11">
-        <v>41.09</v>
+        <v>12.51</v>
       </c>
       <c r="G68" s="11">
-        <v>0</v>
+        <v>11.524</v>
       </c>
       <c r="H68" s="11">
         <v>0</v>
       </c>
       <c r="I68" s="11">
-        <v>0</v>
+        <v>110088</v>
       </c>
       <c r="J68" s="11">
-        <v>2551.74</v>
+        <v>8679.88</v>
       </c>
       <c r="K68" s="11">
-        <v>-10.43</v>
+        <v>1320</v>
       </c>
       <c r="L68" s="9">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>26</v>
@@ -3679,40 +3673,40 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="10">
-        <v>6480</v>
+        <v>72300</v>
       </c>
       <c r="D69" s="10">
-        <v>6480</v>
+        <v>72300</v>
       </c>
       <c r="E69" s="10">
         <v>0</v>
       </c>
       <c r="F69" s="11">
-        <v>8.66</v>
+        <v>11.05</v>
       </c>
       <c r="G69" s="11">
-        <v>4.946</v>
+        <v>9.802</v>
       </c>
       <c r="H69" s="11">
         <v>0</v>
       </c>
       <c r="I69" s="11">
-        <v>56116.8</v>
+        <v>798915</v>
       </c>
       <c r="J69" s="11">
-        <v>24068.11</v>
+        <v>90251.72</v>
       </c>
       <c r="K69" s="11">
-        <v>194.4</v>
+        <v>15906</v>
       </c>
       <c r="L69" s="9">
-        <v>75.09</v>
+        <v>12.73</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>26</v>
@@ -3723,40 +3717,40 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="6">
-        <v>300595</v>
+        <v>114</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C70" s="6">
-        <v>0</v>
+        <v>43400</v>
       </c>
       <c r="D70" s="6">
-        <v>0</v>
+        <v>43400</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>58.25</v>
+        <v>6.74</v>
       </c>
       <c r="G70" s="7">
-        <v>0</v>
+        <v>7.009</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>0</v>
+        <v>292516</v>
       </c>
       <c r="J70" s="7">
-        <v>-118857.5</v>
+        <v>-11675.57</v>
       </c>
       <c r="K70" s="7">
-        <v>-35.88</v>
+        <v>5642</v>
       </c>
       <c r="L70" s="8">
-        <v>0</v>
+        <v>-3.84</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>26</v>
@@ -3767,89 +3761,89 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B71" s="10">
+        <v>600563</v>
       </c>
       <c r="C71" s="10">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="D71" s="10">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="E71" s="10">
         <v>0</v>
       </c>
       <c r="F71" s="11">
-        <v>12.36</v>
+        <v>66.76</v>
       </c>
       <c r="G71" s="11">
-        <v>11.524</v>
+        <v>0</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>108768</v>
+        <v>0</v>
       </c>
       <c r="J71" s="11">
-        <v>7359.88</v>
+        <v>181916.96</v>
       </c>
       <c r="K71" s="11">
-        <v>-3784</v>
+        <v>-5262.29</v>
       </c>
       <c r="L71" s="9">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="10">
-        <v>72300</v>
-      </c>
-      <c r="D72" s="10">
-        <v>72300</v>
-      </c>
-      <c r="E72" s="10">
-        <v>0</v>
-      </c>
-      <c r="F72" s="11">
-        <v>10.83</v>
-      </c>
-      <c r="G72" s="11">
-        <v>9.802</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>783009</v>
-      </c>
-      <c r="J72" s="11">
-        <v>74345.72</v>
-      </c>
-      <c r="K72" s="11">
-        <v>54225</v>
-      </c>
-      <c r="L72" s="9">
-        <v>10.49</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" s="9" t="s">
+      <c r="B72" s="6">
+        <v>300232</v>
+      </c>
+      <c r="C72" s="6">
+        <v>156821</v>
+      </c>
+      <c r="D72" s="6">
+        <v>156821</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>8.64</v>
+      </c>
+      <c r="G72" s="7">
+        <v>9.86</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1354933.44</v>
+      </c>
+      <c r="J72" s="7">
+        <v>-191398.65</v>
+      </c>
+      <c r="K72" s="7">
+        <v>36157.99</v>
+      </c>
+      <c r="L72" s="8">
+        <v>-12.37</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3857,82 +3851,82 @@
       <c r="A73" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>119</v>
+      <c r="B73" s="6">
+        <v>603556</v>
       </c>
       <c r="C73" s="6">
-        <v>43400</v>
+        <v>93500</v>
       </c>
       <c r="D73" s="6">
-        <v>43400</v>
+        <v>93500</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>6.61</v>
+        <v>15.1</v>
       </c>
       <c r="G73" s="7">
-        <v>7.009</v>
+        <v>15.247</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>286874</v>
+        <v>1411850</v>
       </c>
       <c r="J73" s="7">
-        <v>-17317.57</v>
+        <v>-13779.33</v>
       </c>
       <c r="K73" s="7">
-        <v>2604</v>
+        <v>26180</v>
       </c>
       <c r="L73" s="8">
-        <v>-5.69</v>
+        <v>-0.96</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="10">
-        <v>600563</v>
+        <v>600933</v>
       </c>
       <c r="C74" s="10">
-        <v>8000</v>
+        <v>128700</v>
       </c>
       <c r="D74" s="10">
-        <v>8000</v>
+        <v>128700</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>67.5</v>
+        <v>13.82</v>
       </c>
       <c r="G74" s="11">
-        <v>44.103</v>
+        <v>13.094</v>
       </c>
       <c r="H74" s="11">
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>540000</v>
+        <v>1778634</v>
       </c>
       <c r="J74" s="11">
-        <v>187179.25</v>
+        <v>93475.18</v>
       </c>
       <c r="K74" s="11">
-        <v>2000</v>
+        <v>2574</v>
       </c>
       <c r="L74" s="9">
-        <v>53.05</v>
+        <v>5.54</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>24</v>
@@ -3943,40 +3937,40 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="6">
-        <v>300232</v>
-      </c>
       <c r="C75" s="6">
-        <v>203321</v>
+        <v>9700</v>
       </c>
       <c r="D75" s="6">
-        <v>203321</v>
+        <v>0</v>
       </c>
       <c r="E75" s="6">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="F75" s="7">
-        <v>8.43</v>
+        <v>31.32</v>
       </c>
       <c r="G75" s="7">
-        <v>9.549</v>
+        <v>31.4</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>1713996.03</v>
+        <v>303804</v>
       </c>
       <c r="J75" s="7">
-        <v>-227556.64</v>
+        <v>-771.63</v>
       </c>
       <c r="K75" s="7">
-        <v>16265.68</v>
+        <v>-771.63</v>
       </c>
       <c r="L75" s="8">
-        <v>-11.72</v>
+        <v>-0.25</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>26</v>
@@ -3986,46 +3980,46 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="6">
-        <v>603556</v>
-      </c>
-      <c r="C76" s="6">
-        <v>93500</v>
-      </c>
-      <c r="D76" s="6">
-        <v>93500</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>14.82</v>
-      </c>
-      <c r="G76" s="7">
-        <v>15.247</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>1385670</v>
-      </c>
-      <c r="J76" s="7">
-        <v>-39959.33</v>
-      </c>
-      <c r="K76" s="7">
-        <v>22440</v>
-      </c>
-      <c r="L76" s="8">
-        <v>-2.8</v>
-      </c>
-      <c r="M76" s="8" t="s">
+      <c r="B76" s="10">
+        <v>603659</v>
+      </c>
+      <c r="C76" s="10">
+        <v>13600</v>
+      </c>
+      <c r="D76" s="10">
+        <v>13600</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>102.95</v>
+      </c>
+      <c r="G76" s="11">
+        <v>101.716</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1400120</v>
+      </c>
+      <c r="J76" s="11">
+        <v>16781.42</v>
+      </c>
+      <c r="K76" s="11">
+        <v>-52904</v>
+      </c>
+      <c r="L76" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="M76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="8" t="s">
+      <c r="N76" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4033,126 +4027,126 @@
       <c r="A77" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="10">
-        <v>600933</v>
+      <c r="B77" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C77" s="10">
-        <v>128700</v>
+        <v>15500</v>
       </c>
       <c r="D77" s="10">
-        <v>128700</v>
+        <v>15500</v>
       </c>
       <c r="E77" s="10">
         <v>0</v>
       </c>
       <c r="F77" s="11">
-        <v>13.8</v>
+        <v>55.6</v>
       </c>
       <c r="G77" s="11">
-        <v>13.094</v>
+        <v>55.058</v>
       </c>
       <c r="H77" s="11">
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>1776060</v>
+        <v>861800</v>
       </c>
       <c r="J77" s="11">
-        <v>90901.18</v>
+        <v>8403.98</v>
       </c>
       <c r="K77" s="11">
-        <v>-2574</v>
+        <v>15500</v>
       </c>
       <c r="L77" s="9">
-        <v>5.39</v>
+        <v>0.98</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="10">
-        <v>603659</v>
+        <v>125</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C78" s="10">
-        <v>13600</v>
+        <v>7200</v>
       </c>
       <c r="D78" s="10">
-        <v>11200</v>
+        <v>7200</v>
       </c>
       <c r="E78" s="10">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>106.84</v>
+        <v>134.96</v>
       </c>
       <c r="G78" s="11">
-        <v>101.718</v>
+        <v>129.334</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>1453024</v>
+        <v>971712</v>
       </c>
       <c r="J78" s="11">
-        <v>69659.08</v>
+        <v>40505.43</v>
       </c>
       <c r="K78" s="11">
-        <v>18557.37</v>
+        <v>-1437.14</v>
       </c>
       <c r="L78" s="9">
-        <v>5.04</v>
+        <v>4.35</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C79" s="6">
-        <v>15500</v>
+        <v>100</v>
       </c>
       <c r="D79" s="6">
-        <v>15500</v>
+        <v>100</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>54.6</v>
+        <v>33.37</v>
       </c>
       <c r="G79" s="7">
-        <v>55.058</v>
+        <v>1460.541</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>846300</v>
+        <v>3337</v>
       </c>
       <c r="J79" s="7">
-        <v>-7096.02</v>
+        <v>-142717.09</v>
       </c>
       <c r="K79" s="7">
-        <v>9920</v>
+        <v>44</v>
       </c>
       <c r="L79" s="8">
-        <v>-0.83</v>
+        <v>-97.72</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>26</v>
@@ -4162,223 +4156,223 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="10">
-        <v>11400</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0</v>
-      </c>
-      <c r="E80" s="10">
-        <v>11400</v>
-      </c>
-      <c r="F80" s="11">
-        <v>133.78</v>
-      </c>
-      <c r="G80" s="11">
-        <v>130.116</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>1525092</v>
-      </c>
-      <c r="J80" s="11">
-        <v>41772.88</v>
-      </c>
-      <c r="K80" s="11">
-        <v>41772.88</v>
-      </c>
-      <c r="L80" s="9">
-        <v>2.82</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>25</v>
+      <c r="A80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="6">
+        <v>603688</v>
+      </c>
+      <c r="C80" s="6">
+        <v>30368</v>
+      </c>
+      <c r="D80" s="6">
+        <v>30368</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>23.71</v>
+      </c>
+      <c r="G80" s="7">
+        <v>26.257</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>720025.28</v>
+      </c>
+      <c r="J80" s="7">
+        <v>-77358.83</v>
+      </c>
+      <c r="K80" s="7">
+        <v>13058.24</v>
+      </c>
+      <c r="L80" s="8">
+        <v>-9.7</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="B81" s="6">
+        <v>603327</v>
+      </c>
       <c r="C81" s="6">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="D81" s="6">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <v>32.93</v>
+        <v>27.69</v>
       </c>
       <c r="G81" s="7">
-        <v>1460.541</v>
+        <v>29.513</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>3293</v>
+        <v>332280</v>
       </c>
       <c r="J81" s="7">
-        <v>-142761.09</v>
+        <v>-21878.68</v>
       </c>
       <c r="K81" s="7">
-        <v>21</v>
+        <v>4080</v>
       </c>
       <c r="L81" s="8">
-        <v>-97.75</v>
+        <v>-6.18</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="6">
-        <v>603688</v>
-      </c>
-      <c r="C82" s="6">
-        <v>30368</v>
-      </c>
-      <c r="D82" s="6">
-        <v>30368</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>23.28</v>
-      </c>
-      <c r="G82" s="7">
-        <v>26.257</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>706967.04</v>
-      </c>
-      <c r="J82" s="7">
-        <v>-90417.07</v>
-      </c>
-      <c r="K82" s="7">
-        <v>8503.04</v>
-      </c>
-      <c r="L82" s="8">
-        <v>-11.34</v>
-      </c>
-      <c r="M82" s="8" t="s">
+      <c r="B82" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="13">
+        <v>5723000</v>
+      </c>
+      <c r="D82" s="13">
+        <v>5723000</v>
+      </c>
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+      <c r="G82" s="14">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>0</v>
+      </c>
+      <c r="I82" s="14">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="12">
+        <v>0</v>
+      </c>
+      <c r="M82" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N82" s="8" t="s">
+      <c r="N82" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" s="6">
-        <v>603327</v>
+        <v>300709</v>
       </c>
       <c r="C83" s="6">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="D83" s="6">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>27.35</v>
+        <v>84.81</v>
       </c>
       <c r="G83" s="7">
-        <v>29.513</v>
+        <v>2907.865</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>328200</v>
+        <v>8481</v>
       </c>
       <c r="J83" s="7">
-        <v>-25958.68</v>
+        <v>-282305.53</v>
       </c>
       <c r="K83" s="7">
-        <v>4920</v>
+        <v>401</v>
       </c>
       <c r="L83" s="8">
-        <v>-7.33</v>
+        <v>-97.08</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="13">
-        <v>5843000</v>
-      </c>
-      <c r="D84" s="13">
-        <v>5843000</v>
-      </c>
-      <c r="E84" s="13">
-        <v>0</v>
-      </c>
-      <c r="F84" s="14">
-        <v>0</v>
-      </c>
-      <c r="G84" s="14">
-        <v>0</v>
-      </c>
-      <c r="H84" s="14">
-        <v>0</v>
-      </c>
-      <c r="I84" s="14">
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
-        <v>0</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="12">
-        <v>0</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" s="12" t="s">
-        <v>23</v>
+      <c r="B84" s="10">
+        <v>300280</v>
+      </c>
+      <c r="C84" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <v>12500</v>
+      </c>
+      <c r="F84" s="11">
+        <v>40.74</v>
+      </c>
+      <c r="G84" s="11">
+        <v>40.607</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>509250</v>
+      </c>
+      <c r="J84" s="11">
+        <v>1661.51</v>
+      </c>
+      <c r="K84" s="11">
+        <v>1661.51</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4386,43 +4380,43 @@
         <v>135</v>
       </c>
       <c r="B85" s="6">
-        <v>300709</v>
+        <v>603699</v>
       </c>
       <c r="C85" s="6">
-        <v>100</v>
+        <v>109200</v>
       </c>
       <c r="D85" s="6">
-        <v>100</v>
+        <v>109200</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>80.8</v>
+        <v>16.07</v>
       </c>
       <c r="G85" s="7">
-        <v>2907.865</v>
+        <v>16.463</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>8080</v>
+        <v>1754844</v>
       </c>
       <c r="J85" s="7">
-        <v>-282706.53</v>
+        <v>-42893.79</v>
       </c>
       <c r="K85" s="7">
-        <v>60</v>
+        <v>46956</v>
       </c>
       <c r="L85" s="8">
-        <v>-97.22</v>
+        <v>-2.39</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4430,37 +4424,37 @@
         <v>136</v>
       </c>
       <c r="B86" s="6">
-        <v>603699</v>
+        <v>601828</v>
       </c>
       <c r="C86" s="6">
-        <v>109200</v>
+        <v>84640</v>
       </c>
       <c r="D86" s="6">
-        <v>109200</v>
+        <v>84640</v>
       </c>
       <c r="E86" s="6">
         <v>0</v>
       </c>
       <c r="F86" s="7">
-        <v>15.64</v>
+        <v>10</v>
       </c>
       <c r="G86" s="7">
-        <v>16.463</v>
+        <v>11.322</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
       </c>
       <c r="I86" s="7">
-        <v>1707888</v>
+        <v>846400</v>
       </c>
       <c r="J86" s="7">
-        <v>-89849.79</v>
+        <v>-111925.93</v>
       </c>
       <c r="K86" s="7">
-        <v>32760</v>
+        <v>11003.2</v>
       </c>
       <c r="L86" s="8">
-        <v>-5</v>
+        <v>-11.68</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>24</v>
@@ -4474,87 +4468,87 @@
         <v>137</v>
       </c>
       <c r="B87" s="6">
-        <v>601828</v>
+        <v>300476</v>
       </c>
       <c r="C87" s="6">
-        <v>84640</v>
+        <v>80600</v>
       </c>
       <c r="D87" s="6">
-        <v>84640</v>
+        <v>80600</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>9.87</v>
+        <v>24.22</v>
       </c>
       <c r="G87" s="7">
-        <v>11.326</v>
+        <v>26.138</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>835396.8</v>
+        <v>1952132</v>
       </c>
       <c r="J87" s="7">
-        <v>-123217.31</v>
+        <v>-154600.94</v>
       </c>
       <c r="K87" s="7">
-        <v>-6841.3</v>
+        <v>177320</v>
       </c>
       <c r="L87" s="8">
-        <v>-12.86</v>
+        <v>-7.34</v>
       </c>
       <c r="M87" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="10">
+        <v>603158</v>
+      </c>
+      <c r="C88" s="10">
+        <v>9800</v>
+      </c>
+      <c r="D88" s="10">
+        <v>9800</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>24.51</v>
+      </c>
+      <c r="G88" s="11">
+        <v>22.846</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>240198</v>
+      </c>
+      <c r="J88" s="11">
+        <v>16303.8</v>
+      </c>
+      <c r="K88" s="11">
+        <v>13524</v>
+      </c>
+      <c r="L88" s="9">
+        <v>7.28</v>
+      </c>
+      <c r="M88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N87" s="8" t="s">
+      <c r="N88" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="6">
-        <v>300476</v>
-      </c>
-      <c r="C88" s="6">
-        <v>80600</v>
-      </c>
-      <c r="D88" s="6">
-        <v>80600</v>
-      </c>
-      <c r="E88" s="6">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>22.02</v>
-      </c>
-      <c r="G88" s="7">
-        <v>26.138</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>1774812</v>
-      </c>
-      <c r="J88" s="7">
-        <v>-331920.94</v>
-      </c>
-      <c r="K88" s="7">
-        <v>68510</v>
-      </c>
-      <c r="L88" s="8">
-        <v>-15.75</v>
-      </c>
-      <c r="M88" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N88" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4562,125 +4556,125 @@
         <v>139</v>
       </c>
       <c r="B89" s="10">
-        <v>603158</v>
+        <v>300413</v>
       </c>
       <c r="C89" s="10">
-        <v>9800</v>
+        <v>13400</v>
       </c>
       <c r="D89" s="10">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="E89" s="10">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="F89" s="11">
-        <v>23.13</v>
+        <v>63.62</v>
       </c>
       <c r="G89" s="11">
-        <v>22.867</v>
+        <v>61.923</v>
       </c>
       <c r="H89" s="11">
         <v>0</v>
       </c>
       <c r="I89" s="11">
-        <v>226674</v>
+        <v>852508</v>
       </c>
       <c r="J89" s="11">
-        <v>2573.33</v>
+        <v>22745.35</v>
       </c>
       <c r="K89" s="11">
-        <v>2573.33</v>
+        <v>-4020</v>
       </c>
       <c r="L89" s="9">
-        <v>1.15</v>
+        <v>2.74</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="10">
-        <v>300413</v>
-      </c>
-      <c r="C90" s="10">
-        <v>13400</v>
-      </c>
-      <c r="D90" s="10">
-        <v>13400</v>
-      </c>
-      <c r="E90" s="10">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>63.92</v>
-      </c>
-      <c r="G90" s="11">
-        <v>61.923</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>856528</v>
-      </c>
-      <c r="J90" s="11">
-        <v>26765.35</v>
-      </c>
-      <c r="K90" s="11">
-        <v>12462</v>
-      </c>
-      <c r="L90" s="9">
-        <v>3.22</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" s="9" t="s">
+      <c r="B90" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="6">
+        <v>500</v>
+      </c>
+      <c r="D90" s="6">
+        <v>500</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="G90" s="7">
+        <v>18.199</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>2565</v>
+      </c>
+      <c r="J90" s="7">
+        <v>-6534.7</v>
+      </c>
+      <c r="K90" s="7">
+        <v>35</v>
+      </c>
+      <c r="L90" s="8">
+        <v>-71.81</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="8" t="s">
         <v>142</v>
       </c>
+      <c r="B91" s="6">
+        <v>300725</v>
+      </c>
       <c r="C91" s="6">
-        <v>500</v>
+        <v>17500</v>
       </c>
       <c r="D91" s="6">
-        <v>500</v>
+        <v>17500</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
       <c r="F91" s="7">
-        <v>5.06</v>
+        <v>113</v>
       </c>
       <c r="G91" s="7">
-        <v>18.199</v>
+        <v>123.835</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="7">
-        <v>2530</v>
+        <v>1977500</v>
       </c>
       <c r="J91" s="7">
-        <v>-6569.7</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>15</v>
+        <v>-189621.24</v>
+      </c>
+      <c r="K91" s="7">
+        <v>3850</v>
       </c>
       <c r="L91" s="8">
-        <v>-72.2</v>
+        <v>-8.75</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>26</v>
@@ -4694,174 +4688,174 @@
         <v>143</v>
       </c>
       <c r="B92" s="6">
-        <v>300725</v>
+        <v>603238</v>
       </c>
       <c r="C92" s="6">
-        <v>17500</v>
+        <v>23600</v>
       </c>
       <c r="D92" s="6">
-        <v>17500</v>
+        <v>23600</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <v>112.78</v>
+        <v>38.16</v>
       </c>
       <c r="G92" s="7">
-        <v>123.835</v>
+        <v>41.065</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>1973650</v>
+        <v>900576</v>
       </c>
       <c r="J92" s="7">
-        <v>-193471.24</v>
+        <v>-68551.35</v>
       </c>
       <c r="K92" s="7">
-        <v>15400</v>
+        <v>11092</v>
       </c>
       <c r="L92" s="8">
-        <v>-8.93</v>
+        <v>-7.07</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="6">
-        <v>603238</v>
-      </c>
-      <c r="C93" s="6">
-        <v>23600</v>
-      </c>
-      <c r="D93" s="6">
-        <v>23600</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="7">
-        <v>37.69</v>
-      </c>
-      <c r="G93" s="7">
-        <v>41.065</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>889484</v>
-      </c>
-      <c r="J93" s="7">
-        <v>-79643.35</v>
-      </c>
-      <c r="K93" s="7">
-        <v>5428</v>
-      </c>
-      <c r="L93" s="8">
-        <v>-8.22</v>
-      </c>
-      <c r="M93" s="8" t="s">
+      <c r="B93" s="10">
+        <v>600996</v>
+      </c>
+      <c r="C93" s="10">
+        <v>0</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>7.91</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
+        <v>5147.2</v>
+      </c>
+      <c r="K93" s="11">
+        <v>-7942.29</v>
+      </c>
+      <c r="L93" s="9">
+        <v>0</v>
+      </c>
+      <c r="M93" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N93" s="8" t="s">
+      <c r="N93" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="10">
-        <v>600996</v>
-      </c>
-      <c r="C94" s="10">
-        <v>69000</v>
-      </c>
-      <c r="D94" s="10">
-        <v>69000</v>
-      </c>
-      <c r="E94" s="10">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>7.94</v>
-      </c>
-      <c r="G94" s="11">
-        <v>7.751</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>547860</v>
-      </c>
-      <c r="J94" s="11">
-        <v>13069.08</v>
-      </c>
-      <c r="K94" s="11">
-        <v>9821.62</v>
-      </c>
-      <c r="L94" s="9">
-        <v>2.44</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>23</v>
+      <c r="B94" s="6">
+        <v>300687</v>
+      </c>
+      <c r="C94" s="6">
+        <v>53600</v>
+      </c>
+      <c r="D94" s="6">
+        <v>53600</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>22.54</v>
+      </c>
+      <c r="G94" s="7">
+        <v>23.406</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1208144</v>
+      </c>
+      <c r="J94" s="7">
+        <v>-46442.11</v>
+      </c>
+      <c r="K94" s="7">
+        <v>109880</v>
+      </c>
+      <c r="L94" s="8">
+        <v>-3.7</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="6">
-        <v>300687</v>
-      </c>
-      <c r="C95" s="6">
-        <v>53600</v>
-      </c>
-      <c r="D95" s="6">
-        <v>53600</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7">
-        <v>20.49</v>
-      </c>
-      <c r="G95" s="7">
-        <v>23.406</v>
-      </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
-      <c r="I95" s="7">
-        <v>1098264</v>
-      </c>
-      <c r="J95" s="7">
-        <v>-156322.11</v>
-      </c>
-      <c r="K95" s="7">
-        <v>18224</v>
-      </c>
-      <c r="L95" s="8">
-        <v>-12.46</v>
-      </c>
-      <c r="M95" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" s="8" t="s">
+      <c r="B95" s="10">
+        <v>300463</v>
+      </c>
+      <c r="C95" s="10">
+        <v>18600</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10">
+        <v>18600</v>
+      </c>
+      <c r="F95" s="11">
+        <v>54.01</v>
+      </c>
+      <c r="G95" s="11">
+        <v>53.218</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>1004586</v>
+      </c>
+      <c r="J95" s="11">
+        <v>14731.26</v>
+      </c>
+      <c r="K95" s="11">
+        <v>14731.26</v>
+      </c>
+      <c r="L95" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4882,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="11">
-        <v>32.34</v>
+        <v>32.12</v>
       </c>
       <c r="G96" s="11">
         <v>30.979</v>
@@ -4891,16 +4885,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="11">
-        <v>84084</v>
+        <v>83512</v>
       </c>
       <c r="J96" s="11">
-        <v>3538.92</v>
+        <v>2966.92</v>
       </c>
       <c r="K96" s="11">
-        <v>-676</v>
+        <v>-572</v>
       </c>
       <c r="L96" s="9">
-        <v>4.39</v>
+        <v>3.68</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>26</v>
@@ -4914,37 +4908,37 @@
         <v>148</v>
       </c>
       <c r="B97" s="6">
-        <v>600820</v>
+        <v>603501</v>
       </c>
       <c r="C97" s="6">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="D97" s="6">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>6.2</v>
+        <v>183.71</v>
       </c>
       <c r="G97" s="7">
-        <v>0</v>
+        <v>183.981</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <v>0</v>
+        <v>1432938</v>
       </c>
       <c r="J97" s="7">
-        <v>-4048.87</v>
+        <v>-2116</v>
       </c>
       <c r="K97" s="7">
-        <v>-257.43</v>
+        <v>-20046</v>
       </c>
       <c r="L97" s="8">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>24</v>
@@ -4958,218 +4952,130 @@
         <v>149</v>
       </c>
       <c r="B98" s="10">
-        <v>603501</v>
+        <v>300423</v>
       </c>
       <c r="C98" s="10">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="D98" s="10">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E98" s="10">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="F98" s="11">
-        <v>186.28</v>
+        <v>14.93</v>
       </c>
       <c r="G98" s="11">
-        <v>183.988</v>
+        <v>13.926</v>
       </c>
       <c r="H98" s="11">
         <v>0</v>
       </c>
       <c r="I98" s="11">
-        <v>1452984</v>
+        <v>117947</v>
       </c>
       <c r="J98" s="11">
-        <v>17880.68</v>
+        <v>7934.5</v>
       </c>
       <c r="K98" s="11">
-        <v>17880.68</v>
+        <v>1817</v>
       </c>
       <c r="L98" s="9">
-        <v>1.25</v>
+        <v>7.21</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="6">
-        <v>603711</v>
+      <c r="B99" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C99" s="6">
-        <v>0</v>
+        <v>24225</v>
       </c>
       <c r="D99" s="6">
-        <v>0</v>
+        <v>24225</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <v>27.7</v>
+        <v>16.42</v>
       </c>
       <c r="G99" s="7">
-        <v>0</v>
+        <v>17.557</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
       <c r="I99" s="7">
-        <v>0</v>
+        <v>397774.5</v>
       </c>
       <c r="J99" s="7">
-        <v>-65448.23</v>
+        <v>-27552.76</v>
       </c>
       <c r="K99" s="7">
-        <v>-6975.46</v>
+        <v>484.5</v>
       </c>
       <c r="L99" s="8">
-        <v>0</v>
+        <v>-6.48</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="10">
-        <v>300423</v>
+        <v>603686</v>
       </c>
       <c r="C100" s="10">
-        <v>7900</v>
+        <v>54200</v>
       </c>
       <c r="D100" s="10">
-        <v>7900</v>
+        <v>54200</v>
       </c>
       <c r="E100" s="10">
         <v>0</v>
       </c>
       <c r="F100" s="11">
-        <v>14.7</v>
+        <v>29.06</v>
       </c>
       <c r="G100" s="11">
-        <v>13.926</v>
+        <v>26.739</v>
       </c>
       <c r="H100" s="11">
         <v>0</v>
       </c>
       <c r="I100" s="11">
-        <v>116130</v>
+        <v>1575052</v>
       </c>
       <c r="J100" s="11">
-        <v>6117.5</v>
+        <v>125778.76</v>
       </c>
       <c r="K100" s="11">
-        <v>2844</v>
+        <v>89972</v>
       </c>
       <c r="L100" s="9">
-        <v>5.56</v>
+        <v>8.68</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C101" s="6">
-        <v>24225</v>
-      </c>
-      <c r="D101" s="6">
-        <v>24225</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>16.4</v>
-      </c>
-      <c r="G101" s="7">
-        <v>17.557</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7">
-        <v>397290</v>
-      </c>
-      <c r="J101" s="7">
-        <v>-28037.26</v>
-      </c>
-      <c r="K101" s="7">
-        <v>3391.5</v>
-      </c>
-      <c r="L101" s="8">
-        <v>-6.59</v>
-      </c>
-      <c r="M101" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B102" s="10">
-        <v>603686</v>
-      </c>
-      <c r="C102" s="10">
-        <v>54200</v>
-      </c>
-      <c r="D102" s="10">
-        <v>0</v>
-      </c>
-      <c r="E102" s="10">
-        <v>54200</v>
-      </c>
-      <c r="F102" s="11">
-        <v>27.4</v>
-      </c>
-      <c r="G102" s="11">
-        <v>26.743</v>
-      </c>
-      <c r="H102" s="11">
-        <v>0</v>
-      </c>
-      <c r="I102" s="11">
-        <v>1485080</v>
-      </c>
-      <c r="J102" s="11">
-        <v>35588.3</v>
-      </c>
-      <c r="K102" s="11">
-        <v>35588.3</v>
-      </c>
-      <c r="L102" s="9">
-        <v>2.46</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N102" s="9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="151">
   <si>
     <t>资金</t>
   </si>
@@ -193,15 +193,9 @@
     <t>002937</t>
   </si>
   <si>
-    <t>凯伦股份</t>
-  </si>
-  <si>
     <t>凯普生物</t>
   </si>
   <si>
-    <t>利安隆</t>
-  </si>
-  <si>
     <t>利民股份</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>002091</t>
   </si>
   <si>
-    <t>法拉电子</t>
-  </si>
-  <si>
     <t>洲明科技</t>
   </si>
   <si>
@@ -448,9 +439,6 @@
     <t>诺邦股份</t>
   </si>
   <si>
-    <t>贵广网络</t>
-  </si>
-  <si>
     <t>赛意信息</t>
   </si>
   <si>
@@ -458,6 +446,12 @@
   </si>
   <si>
     <t>金运激光</t>
+  </si>
+  <si>
+    <t>长江证券</t>
+  </si>
+  <si>
+    <t>000783</t>
   </si>
   <si>
     <t>韦尔股份</t>
@@ -864,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -944,28 +938,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>39290488.86</v>
+        <v>7349378.2</v>
       </c>
       <c r="D3" s="3">
-        <v>7347994.79</v>
+        <v>8566405.52</v>
       </c>
       <c r="E3" s="3">
-        <v>7347994.79</v>
+        <v>7349378.2</v>
       </c>
       <c r="F3" s="3">
-        <v>31942494.07</v>
+        <v>-1217027.32</v>
       </c>
       <c r="G3" s="3">
-        <v>149966018.09</v>
+        <v>149433248.79</v>
       </c>
       <c r="H3" s="3">
-        <v>157314012.88</v>
+        <v>157999654.31</v>
       </c>
       <c r="I3" s="3">
-        <v>-1909792.61</v>
+        <v>-1583277.47</v>
       </c>
       <c r="J3" s="3">
-        <v>1135290</v>
+        <v>678658.36</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1072,10 +1066,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5723000</v>
+        <v>5619000</v>
       </c>
       <c r="C8" s="3">
-        <v>5723000</v>
+        <v>5619500</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1089,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>8040000</v>
+        <v>7884000</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1180,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>89.35</v>
+        <v>90.18</v>
       </c>
       <c r="G12" s="7">
         <v>100.188</v>
@@ -1189,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1679780</v>
+        <v>1695384</v>
       </c>
       <c r="J12" s="7">
-        <v>-203751.97</v>
+        <v>-188147.97</v>
       </c>
       <c r="K12" s="7">
-        <v>-8084</v>
+        <v>15604</v>
       </c>
       <c r="L12" s="8">
-        <v>-10.82</v>
+        <v>-9.99</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1224,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>9.68</v>
+        <v>9.63</v>
       </c>
       <c r="G13" s="11">
         <v>-7.409</v>
@@ -1233,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>13552</v>
+        <v>13482</v>
       </c>
       <c r="J13" s="11">
-        <v>23924.19</v>
+        <v>23854.19</v>
       </c>
       <c r="K13" s="11">
-        <v>420</v>
+        <v>-70</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -1262,31 +1256,31 @@
         <v>36882</v>
       </c>
       <c r="D14" s="10">
-        <v>26382</v>
+        <v>36882</v>
       </c>
       <c r="E14" s="10">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>48.89</v>
+        <v>48.41</v>
       </c>
       <c r="G14" s="11">
-        <v>46.475</v>
+        <v>46.474</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>1803160.98</v>
+        <v>1785457.62</v>
       </c>
       <c r="J14" s="11">
-        <v>89085.35</v>
+        <v>71386.74</v>
       </c>
       <c r="K14" s="11">
-        <v>44605.05</v>
+        <v>-17703.36</v>
       </c>
       <c r="L14" s="9">
-        <v>5.2</v>
+        <v>4.17</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>26</v>
@@ -1312,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>66.18</v>
+        <v>68.05</v>
       </c>
       <c r="G15" s="7">
         <v>254.78</v>
@@ -1321,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>6618</v>
+        <v>6805</v>
       </c>
       <c r="J15" s="7">
-        <v>-18859.95</v>
+        <v>-18672.95</v>
       </c>
       <c r="K15" s="7">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L15" s="8">
-        <v>-74.02</v>
+        <v>-73.29</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1356,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>24.04</v>
+        <v>23.91</v>
       </c>
       <c r="G16" s="7">
         <v>26.366</v>
@@ -1365,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>213956</v>
+        <v>212799</v>
       </c>
       <c r="J16" s="7">
-        <v>-20703.79</v>
+        <v>-21860.79</v>
       </c>
       <c r="K16" s="7">
-        <v>3560</v>
+        <v>-1157</v>
       </c>
       <c r="L16" s="8">
-        <v>-8.82</v>
+        <v>-9.32</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1400,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="G17" s="11">
         <v>5.6</v>
@@ -1409,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>1366865</v>
+        <v>1364560</v>
       </c>
       <c r="J17" s="11">
-        <v>76115.08</v>
+        <v>73810.08</v>
       </c>
       <c r="K17" s="11">
-        <v>18440</v>
+        <v>-2305</v>
       </c>
       <c r="L17" s="9">
-        <v>5.89</v>
+        <v>5.71</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>11.58</v>
+        <v>12.37</v>
       </c>
       <c r="G18" s="11">
         <v>10.784</v>
@@ -1453,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>873132</v>
+        <v>932698</v>
       </c>
       <c r="J18" s="11">
-        <v>59990.85</v>
+        <v>119556.85</v>
       </c>
       <c r="K18" s="11">
-        <v>43732</v>
+        <v>59566</v>
       </c>
       <c r="L18" s="9">
-        <v>7.38</v>
+        <v>14.71</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>24</v>
@@ -1488,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>58.6</v>
+        <v>58.87</v>
       </c>
       <c r="G19" s="11">
         <v>56.896</v>
@@ -1497,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>1799020</v>
+        <v>1807309</v>
       </c>
       <c r="J19" s="11">
-        <v>52305.85</v>
+        <v>60594.85</v>
       </c>
       <c r="K19" s="11">
-        <v>65391</v>
+        <v>8289</v>
       </c>
       <c r="L19" s="9">
-        <v>2.99</v>
+        <v>3.47</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>26</v>
@@ -1532,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <v>38.26</v>
+        <v>37.3</v>
       </c>
       <c r="G20" s="11">
         <v>36.108</v>
@@ -1541,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>420860</v>
+        <v>410300</v>
       </c>
       <c r="J20" s="11">
-        <v>23675.59</v>
+        <v>13115.59</v>
       </c>
       <c r="K20" s="11">
-        <v>-1870</v>
+        <v>-10560</v>
       </c>
       <c r="L20" s="9">
-        <v>5.96</v>
+        <v>3.3</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>24</v>
@@ -1576,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>75.92</v>
+        <v>76.36</v>
       </c>
       <c r="G21" s="11">
         <v>75.167</v>
@@ -1585,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>1275456</v>
+        <v>1282848</v>
       </c>
       <c r="J21" s="11">
-        <v>12654.36</v>
+        <v>20046.36</v>
       </c>
       <c r="K21" s="11">
-        <v>14616</v>
+        <v>7392</v>
       </c>
       <c r="L21" s="9">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1620,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>25.6</v>
+        <v>25.71</v>
       </c>
       <c r="G22" s="7">
         <v>29.089</v>
@@ -1629,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1694720</v>
+        <v>1702002</v>
       </c>
       <c r="J22" s="7">
-        <v>-230969.24</v>
+        <v>-223687.24</v>
       </c>
       <c r="K22" s="7">
-        <v>17212</v>
+        <v>7282</v>
       </c>
       <c r="L22" s="8">
-        <v>-11.99</v>
+        <v>-11.62</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>26</v>
@@ -1664,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>7.5</v>
+        <v>7.52</v>
       </c>
       <c r="G23" s="7">
         <v>7.584</v>
@@ -1673,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1943250</v>
+        <v>1948432</v>
       </c>
       <c r="J23" s="7">
-        <v>-21659.23</v>
+        <v>-16477.23</v>
       </c>
       <c r="K23" s="7">
-        <v>25910</v>
+        <v>5182</v>
       </c>
       <c r="L23" s="8">
-        <v>-1.11</v>
+        <v>-0.84</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>24</v>
@@ -1708,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>62.08</v>
+        <v>62.66</v>
       </c>
       <c r="G24" s="7">
         <v>74.729</v>
@@ -1717,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>440768</v>
+        <v>444886</v>
       </c>
       <c r="J24" s="7">
-        <v>-89805.23</v>
+        <v>-85687.23</v>
       </c>
       <c r="K24" s="7">
-        <v>-14626</v>
+        <v>4118</v>
       </c>
       <c r="L24" s="8">
-        <v>-16.93</v>
+        <v>-16.15</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>26</v>
@@ -1752,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>68.3</v>
+        <v>70.99</v>
       </c>
       <c r="G25" s="11">
         <v>66.171</v>
@@ -1761,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>512250</v>
+        <v>532425</v>
       </c>
       <c r="J25" s="11">
-        <v>15965.88</v>
+        <v>36140.88</v>
       </c>
       <c r="K25" s="11">
-        <v>4425</v>
+        <v>20175</v>
       </c>
       <c r="L25" s="9">
-        <v>3.22</v>
+        <v>7.28</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>26</v>
@@ -1796,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>15.93</v>
+        <v>16.15</v>
       </c>
       <c r="G26" s="11">
         <v>15.796</v>
@@ -1805,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>95580</v>
+        <v>96900</v>
       </c>
       <c r="J26" s="11">
-        <v>806.24</v>
+        <v>2126.24</v>
       </c>
       <c r="K26" s="11">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="L26" s="9">
-        <v>0.85</v>
+        <v>2.24</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>26</v>
@@ -1840,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>15.2</v>
+        <v>14.97</v>
       </c>
       <c r="G27" s="7">
         <v>16.061</v>
@@ -1849,16 +1843,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>475760</v>
+        <v>468561</v>
       </c>
       <c r="J27" s="7">
-        <v>-26955.39</v>
+        <v>-34154.39</v>
       </c>
       <c r="K27" s="7">
-        <v>3130</v>
+        <v>-7199</v>
       </c>
       <c r="L27" s="8">
-        <v>-5.36</v>
+        <v>-6.79</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>26</v>
@@ -1872,37 +1866,37 @@
         <v>59</v>
       </c>
       <c r="B28" s="10">
-        <v>300715</v>
+        <v>300639</v>
       </c>
       <c r="C28" s="10">
-        <v>0</v>
+        <v>25700</v>
       </c>
       <c r="D28" s="10">
-        <v>0</v>
+        <v>25700</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>59.2</v>
+        <v>56</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
+        <v>48.841</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>0</v>
+        <v>1439200</v>
       </c>
       <c r="J28" s="11">
-        <v>142336.21</v>
+        <v>183987.67</v>
       </c>
       <c r="K28" s="11">
-        <v>-9748.99</v>
+        <v>45489</v>
       </c>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>14.66</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>26</v>
@@ -1915,38 +1909,38 @@
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="10">
-        <v>300639</v>
+      <c r="B29" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C29" s="10">
-        <v>25700</v>
+        <v>54607</v>
       </c>
       <c r="D29" s="10">
-        <v>25700</v>
+        <v>54607</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>54.23</v>
+        <v>17.45</v>
       </c>
       <c r="G29" s="11">
-        <v>48.841</v>
+        <v>16.725</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
       </c>
       <c r="I29" s="11">
-        <v>1393711</v>
+        <v>952892.15</v>
       </c>
       <c r="J29" s="11">
-        <v>138498.67</v>
+        <v>39599.15</v>
       </c>
       <c r="K29" s="11">
-        <v>15677</v>
+        <v>30033.85</v>
       </c>
       <c r="L29" s="9">
-        <v>11.03</v>
+        <v>4.33</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>26</v>
@@ -1957,177 +1951,177 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="10">
-        <v>300596</v>
+        <v>603679</v>
       </c>
       <c r="C30" s="10">
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="D30" s="10">
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>37.6</v>
+        <v>29.83</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
+        <v>29.285</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
+        <v>796461</v>
       </c>
       <c r="J30" s="11">
-        <v>29225.81</v>
+        <v>14561.08</v>
       </c>
       <c r="K30" s="11">
-        <v>-1075.44</v>
+        <v>23496</v>
       </c>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="10">
-        <v>54607</v>
-      </c>
-      <c r="D31" s="10">
-        <v>54607</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>16.9</v>
-      </c>
-      <c r="G31" s="11">
-        <v>16.725</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>922858.3</v>
-      </c>
-      <c r="J31" s="11">
-        <v>9565.3</v>
-      </c>
-      <c r="K31" s="11">
-        <v>40955.25</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="9" t="s">
+      <c r="B31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5.82</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>-46292.87</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-738.63</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="6">
-        <v>603679</v>
-      </c>
-      <c r="C32" s="6">
-        <v>26700</v>
-      </c>
-      <c r="D32" s="6">
-        <v>26700</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>28.95</v>
-      </c>
-      <c r="G32" s="7">
-        <v>29.285</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>772965</v>
-      </c>
-      <c r="J32" s="7">
-        <v>-8934.92</v>
-      </c>
-      <c r="K32" s="7">
-        <v>7743</v>
-      </c>
-      <c r="L32" s="8">
-        <v>-1.14</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C32" s="10">
+        <v>770081</v>
+      </c>
+      <c r="D32" s="10">
+        <v>770081</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>99.998</v>
+      </c>
+      <c r="G32" s="11">
+        <v>99.777</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>77006559.84</v>
+      </c>
+      <c r="J32" s="11">
+        <v>170036.43</v>
+      </c>
+      <c r="K32" s="11">
+        <v>3080.33</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6">
-        <v>40100</v>
-      </c>
-      <c r="D33" s="6">
-        <v>40100</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="G33" s="7">
-        <v>6.936</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>232580</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-45554.24</v>
-      </c>
-      <c r="K33" s="7">
-        <v>9624</v>
-      </c>
-      <c r="L33" s="8">
-        <v>-16.38</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="B33" s="10">
+        <v>300755</v>
+      </c>
+      <c r="C33" s="10">
+        <v>17500</v>
+      </c>
+      <c r="D33" s="10">
+        <v>17500</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>32.35</v>
+      </c>
+      <c r="G33" s="11">
+        <v>29.407</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>566125</v>
+      </c>
+      <c r="J33" s="11">
+        <v>51509.8</v>
+      </c>
+      <c r="K33" s="11">
+        <v>49700</v>
+      </c>
+      <c r="L33" s="9">
+        <v>10.01</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2136,37 +2130,37 @@
         <v>67</v>
       </c>
       <c r="B34" s="10">
-        <v>511990</v>
+        <v>603855</v>
       </c>
       <c r="C34" s="10">
-        <v>770025</v>
+        <v>32600</v>
       </c>
       <c r="D34" s="10">
-        <v>770025</v>
+        <v>32600</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>99.994</v>
+        <v>19.04</v>
       </c>
       <c r="G34" s="11">
-        <v>99.784</v>
+        <v>17.82</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>76997879.85</v>
+        <v>620704</v>
       </c>
       <c r="J34" s="11">
-        <v>161356.44</v>
+        <v>39765.17</v>
       </c>
       <c r="K34" s="11">
-        <v>-4630.28</v>
+        <v>-18585.29</v>
       </c>
       <c r="L34" s="9">
-        <v>0.21</v>
+        <v>6.85</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>24</v>
@@ -2180,37 +2174,37 @@
         <v>68</v>
       </c>
       <c r="B35" s="10">
-        <v>300755</v>
+        <v>300548</v>
       </c>
       <c r="C35" s="10">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="D35" s="10">
-        <v>17500</v>
+        <v>4500</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>29.51</v>
+        <v>57.55</v>
       </c>
       <c r="G35" s="11">
-        <v>29.407</v>
+        <v>55.32</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>516425</v>
+        <v>258975</v>
       </c>
       <c r="J35" s="11">
-        <v>1809.8</v>
+        <v>10034.65</v>
       </c>
       <c r="K35" s="11">
-        <v>10500</v>
+        <v>6390</v>
       </c>
       <c r="L35" s="9">
-        <v>0.35</v>
+        <v>4.03</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>26</v>
@@ -2220,261 +2214,261 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="10">
-        <v>603855</v>
-      </c>
-      <c r="C36" s="10">
-        <v>61500</v>
-      </c>
-      <c r="D36" s="10">
-        <v>61500</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>19.15</v>
-      </c>
-      <c r="G36" s="11">
-        <v>18.201</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1177725</v>
-      </c>
-      <c r="J36" s="11">
-        <v>58350.46</v>
-      </c>
-      <c r="K36" s="11">
-        <v>99015</v>
-      </c>
-      <c r="L36" s="9">
-        <v>5.21</v>
-      </c>
-      <c r="M36" s="9" t="s">
+      <c r="B36" s="6">
+        <v>601137</v>
+      </c>
+      <c r="C36" s="6">
+        <v>12574</v>
+      </c>
+      <c r="D36" s="6">
+        <v>12574</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>14.81</v>
+      </c>
+      <c r="G36" s="7">
+        <v>18.218</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>186220.94</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-42858.11</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1634.62</v>
+      </c>
+      <c r="L36" s="8">
+        <v>-18.71</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="10">
-        <v>300548</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4500</v>
-      </c>
-      <c r="D37" s="10">
-        <v>4500</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>56.13</v>
-      </c>
-      <c r="G37" s="11">
-        <v>55.32</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>252585</v>
-      </c>
-      <c r="J37" s="11">
-        <v>3644.65</v>
-      </c>
-      <c r="K37" s="11">
-        <v>6975</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1.46</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="9" t="s">
+      <c r="B37" s="6">
+        <v>300363</v>
+      </c>
+      <c r="C37" s="6">
+        <v>12300</v>
+      </c>
+      <c r="D37" s="6">
+        <v>12300</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>32.05</v>
+      </c>
+      <c r="G37" s="7">
+        <v>34.324</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>394215</v>
+      </c>
+      <c r="J37" s="7">
+        <v>-27975.17</v>
+      </c>
+      <c r="K37" s="7">
+        <v>15375</v>
+      </c>
+      <c r="L37" s="8">
+        <v>-6.63</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="6">
-        <v>601137</v>
-      </c>
-      <c r="C38" s="6">
-        <v>12574</v>
-      </c>
-      <c r="D38" s="6">
-        <v>12574</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>14.68</v>
-      </c>
-      <c r="G38" s="7">
-        <v>18.218</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>184586.32</v>
-      </c>
-      <c r="J38" s="7">
-        <v>-44492.73</v>
-      </c>
-      <c r="K38" s="7">
-        <v>2137.58</v>
-      </c>
-      <c r="L38" s="8">
-        <v>-19.42</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>23</v>
+      <c r="B38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D38" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>61.62</v>
+      </c>
+      <c r="G38" s="11">
+        <v>53.268</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>462150</v>
+      </c>
+      <c r="J38" s="11">
+        <v>62643.56</v>
+      </c>
+      <c r="K38" s="11">
+        <v>6075</v>
+      </c>
+      <c r="L38" s="9">
+        <v>15.68</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="6">
-        <v>300363</v>
-      </c>
-      <c r="C39" s="6">
-        <v>12300</v>
-      </c>
-      <c r="D39" s="6">
-        <v>12300</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>30.8</v>
-      </c>
-      <c r="G39" s="7">
-        <v>34.324</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>378840</v>
-      </c>
-      <c r="J39" s="7">
-        <v>-43350.17</v>
-      </c>
-      <c r="K39" s="7">
-        <v>6150</v>
-      </c>
-      <c r="L39" s="8">
-        <v>-10.27</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="8" t="s">
+      <c r="A39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="10">
+        <v>19600</v>
+      </c>
+      <c r="D39" s="10">
+        <v>19600</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>40.87</v>
+      </c>
+      <c r="G39" s="11">
+        <v>39.803</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>801052</v>
+      </c>
+      <c r="J39" s="11">
+        <v>20917.45</v>
+      </c>
+      <c r="K39" s="11">
+        <v>4704</v>
+      </c>
+      <c r="L39" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="10">
-        <v>7500</v>
-      </c>
-      <c r="D40" s="10">
-        <v>7500</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>60.81</v>
-      </c>
-      <c r="G40" s="11">
-        <v>53.268</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>456075</v>
-      </c>
-      <c r="J40" s="11">
-        <v>56568.56</v>
-      </c>
-      <c r="K40" s="11">
-        <v>1725</v>
-      </c>
-      <c r="L40" s="9">
-        <v>14.16</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="9" t="s">
+      <c r="A40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="6">
+        <v>300636</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6800</v>
+      </c>
+      <c r="D40" s="6">
+        <v>6800</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>33.11</v>
+      </c>
+      <c r="G40" s="7">
+        <v>38.829</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>225148</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-38886.59</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1088</v>
+      </c>
+      <c r="L40" s="8">
+        <v>-14.73</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="10">
-        <v>19600</v>
+        <v>11800</v>
       </c>
       <c r="D41" s="10">
-        <v>19600</v>
+        <v>11800</v>
       </c>
       <c r="E41" s="10">
         <v>0</v>
       </c>
       <c r="F41" s="11">
-        <v>40.63</v>
+        <v>14.5</v>
       </c>
       <c r="G41" s="11">
-        <v>39.803</v>
+        <v>3.772</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>796348</v>
+        <v>171100</v>
       </c>
       <c r="J41" s="11">
-        <v>16213.45</v>
+        <v>126596.13</v>
       </c>
       <c r="K41" s="11">
-        <v>18032</v>
+        <v>4248</v>
       </c>
       <c r="L41" s="9">
-        <v>2.08</v>
+        <v>284.41</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>26</v>
@@ -2485,40 +2479,40 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="6">
-        <v>300636</v>
+        <v>300661</v>
       </c>
       <c r="C42" s="6">
-        <v>6800</v>
+        <v>4500</v>
       </c>
       <c r="D42" s="6">
-        <v>6800</v>
+        <v>3200</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F42" s="7">
-        <v>32.95</v>
+        <v>315.93</v>
       </c>
       <c r="G42" s="7">
-        <v>38.829</v>
+        <v>342.419</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>224060</v>
+        <v>1421685</v>
       </c>
       <c r="J42" s="7">
-        <v>-39974.59</v>
+        <v>-119202.68</v>
       </c>
       <c r="K42" s="7">
-        <v>-1020</v>
+        <v>-1314.2</v>
       </c>
       <c r="L42" s="8">
-        <v>-15.14</v>
+        <v>-7.74</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2528,85 +2522,85 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="10">
-        <v>11800</v>
-      </c>
-      <c r="D43" s="10">
-        <v>11800</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>14.14</v>
-      </c>
-      <c r="G43" s="11">
-        <v>3.772</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>166852</v>
-      </c>
-      <c r="J43" s="11">
-        <v>122348.13</v>
-      </c>
-      <c r="K43" s="11">
-        <v>354</v>
-      </c>
-      <c r="L43" s="9">
-        <v>274.87</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>25</v>
+      <c r="B43" s="6">
+        <v>603826</v>
+      </c>
+      <c r="C43" s="6">
+        <v>65100</v>
+      </c>
+      <c r="D43" s="6">
+        <v>65100</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>26.92</v>
+      </c>
+      <c r="G43" s="7">
+        <v>31.616</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1752492</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-305720.3</v>
+      </c>
+      <c r="K43" s="7">
+        <v>-7812</v>
+      </c>
+      <c r="L43" s="8">
+        <v>-14.85</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="6">
-        <v>300661</v>
+      <c r="B44" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C44" s="6">
-        <v>3200</v>
+        <v>18000</v>
       </c>
       <c r="D44" s="6">
-        <v>3200</v>
+        <v>18000</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>318.6</v>
+        <v>100.12</v>
       </c>
       <c r="G44" s="7">
-        <v>355.44</v>
+        <v>102.032</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>1019520</v>
+        <v>1802160</v>
       </c>
       <c r="J44" s="7">
-        <v>-117888.48</v>
+        <v>-34424.51</v>
       </c>
       <c r="K44" s="7">
-        <v>-87680</v>
+        <v>84960</v>
       </c>
       <c r="L44" s="8">
-        <v>-10.36</v>
+        <v>-1.87</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>26</v>
@@ -2616,85 +2610,85 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="6">
-        <v>603826</v>
-      </c>
-      <c r="C45" s="6">
-        <v>65100</v>
-      </c>
-      <c r="D45" s="6">
-        <v>65100</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>27.04</v>
-      </c>
-      <c r="G45" s="7">
-        <v>31.616</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1760304</v>
-      </c>
-      <c r="J45" s="7">
-        <v>-297908.3</v>
-      </c>
-      <c r="K45" s="7">
-        <v>57939</v>
-      </c>
-      <c r="L45" s="8">
-        <v>-14.47</v>
-      </c>
-      <c r="M45" s="8" t="s">
+      <c r="A45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="10">
+        <v>603317</v>
+      </c>
+      <c r="C45" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D45" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>62</v>
+      </c>
+      <c r="G45" s="11">
+        <v>57.219</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1860000</v>
+      </c>
+      <c r="J45" s="11">
+        <v>143420.11</v>
+      </c>
+      <c r="K45" s="11">
+        <v>60000</v>
+      </c>
+      <c r="L45" s="9">
+        <v>8.36</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="B46" s="6">
+        <v>300394</v>
+      </c>
       <c r="C46" s="6">
-        <v>18000</v>
+        <v>15800</v>
       </c>
       <c r="D46" s="6">
-        <v>18000</v>
+        <v>15800</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>95.4</v>
+        <v>63.59</v>
       </c>
       <c r="G46" s="7">
-        <v>102.032</v>
+        <v>66.541</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1717200</v>
+        <v>1004722</v>
       </c>
       <c r="J46" s="7">
-        <v>-119384.51</v>
+        <v>-46621.18</v>
       </c>
       <c r="K46" s="7">
-        <v>43740</v>
+        <v>-46768</v>
       </c>
       <c r="L46" s="8">
-        <v>-6.5</v>
+        <v>-4.43</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2707,302 +2701,302 @@
       <c r="A47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="10">
-        <v>603317</v>
+      <c r="B47" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="C47" s="10">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="D47" s="10">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>60</v>
+        <v>41.02</v>
       </c>
       <c r="G47" s="11">
-        <v>57.219</v>
+        <v>37.031</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>1800000</v>
+        <v>1599780</v>
       </c>
       <c r="J47" s="11">
-        <v>83420.11</v>
+        <v>155563.4</v>
       </c>
       <c r="K47" s="11">
-        <v>74700</v>
+        <v>100620</v>
       </c>
       <c r="L47" s="9">
-        <v>4.86</v>
+        <v>10.77</v>
       </c>
       <c r="M47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="10">
+        <v>603788</v>
+      </c>
+      <c r="C48" s="10">
+        <v>8500</v>
+      </c>
+      <c r="D48" s="10">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>19.08</v>
+      </c>
+      <c r="G48" s="11">
+        <v>18.414</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>162180</v>
+      </c>
+      <c r="J48" s="11">
+        <v>5658.91</v>
+      </c>
+      <c r="K48" s="11">
+        <v>4335</v>
+      </c>
+      <c r="L48" s="9">
+        <v>3.62</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="N48" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="6">
-        <v>300394</v>
-      </c>
-      <c r="C48" s="6">
-        <v>15800</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
-        <v>15800</v>
-      </c>
-      <c r="F48" s="7">
-        <v>66.55</v>
-      </c>
-      <c r="G48" s="7">
-        <v>66.557</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1051490</v>
-      </c>
-      <c r="J48" s="7">
-        <v>-107.19</v>
-      </c>
-      <c r="K48" s="7">
-        <v>-107.19</v>
-      </c>
-      <c r="L48" s="8">
-        <v>-0.01</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="10">
-        <v>39000</v>
-      </c>
-      <c r="D49" s="10">
-        <v>39000</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>38.44</v>
-      </c>
-      <c r="G49" s="11">
-        <v>37.031</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1499160</v>
-      </c>
-      <c r="J49" s="11">
-        <v>54943.4</v>
-      </c>
-      <c r="K49" s="11">
-        <v>45240</v>
-      </c>
-      <c r="L49" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>25</v>
+      <c r="B49" s="6">
+        <v>603599</v>
+      </c>
+      <c r="C49" s="6">
+        <v>25500</v>
+      </c>
+      <c r="D49" s="6">
+        <v>25500</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>17.22</v>
+      </c>
+      <c r="G49" s="7">
+        <v>19.398</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>439110</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-55527.08</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L49" s="8">
+        <v>-11.23</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="10">
-        <v>603788</v>
-      </c>
-      <c r="C50" s="10">
-        <v>8500</v>
-      </c>
-      <c r="D50" s="10">
-        <v>8500</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
-        <v>18.57</v>
-      </c>
-      <c r="G50" s="11">
-        <v>18.414</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>157845</v>
-      </c>
-      <c r="J50" s="11">
-        <v>1323.91</v>
-      </c>
-      <c r="K50" s="11">
-        <v>680</v>
-      </c>
-      <c r="L50" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>23</v>
+      <c r="B50" s="6">
+        <v>300638</v>
+      </c>
+      <c r="C50" s="6">
+        <v>15300</v>
+      </c>
+      <c r="D50" s="6">
+        <v>15300</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>73.25</v>
+      </c>
+      <c r="G50" s="7">
+        <v>75.628</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1120725</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-36386.56</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-11322</v>
+      </c>
+      <c r="L50" s="8">
+        <v>-3.14</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="6">
-        <v>603599</v>
+      <c r="B51" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C51" s="6">
-        <v>25500</v>
+        <v>20099</v>
       </c>
       <c r="D51" s="6">
-        <v>25500</v>
+        <v>20099</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>17.14</v>
+        <v>67.7</v>
       </c>
       <c r="G51" s="7">
-        <v>19.398</v>
+        <v>78.644</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>437070</v>
+        <v>1360702.3</v>
       </c>
       <c r="J51" s="7">
-        <v>-57567.08</v>
+        <v>-219966.17</v>
       </c>
       <c r="K51" s="7">
-        <v>2550</v>
+        <v>-13159.49</v>
       </c>
       <c r="L51" s="8">
-        <v>-11.64</v>
+        <v>-13.92</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="6">
-        <v>300638</v>
-      </c>
-      <c r="C52" s="6">
-        <v>15300</v>
-      </c>
-      <c r="D52" s="6">
-        <v>15300</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>73.99</v>
-      </c>
-      <c r="G52" s="7">
-        <v>75.628</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>1132047</v>
-      </c>
-      <c r="J52" s="7">
-        <v>-25064.56</v>
-      </c>
-      <c r="K52" s="7">
-        <v>-4743</v>
-      </c>
-      <c r="L52" s="8">
-        <v>-2.17</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="8" t="s">
+      <c r="A52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="10">
+        <v>300759</v>
+      </c>
+      <c r="C52" s="10">
+        <v>15400</v>
+      </c>
+      <c r="D52" s="10">
+        <v>15400</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>95.68</v>
+      </c>
+      <c r="G52" s="11">
+        <v>94.022</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1473472</v>
+      </c>
+      <c r="J52" s="11">
+        <v>25525.86</v>
+      </c>
+      <c r="K52" s="11">
+        <v>28336</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="B53" s="6">
+        <v>300577</v>
+      </c>
       <c r="C53" s="6">
-        <v>25299</v>
+        <v>21900</v>
       </c>
       <c r="D53" s="6">
-        <v>25299</v>
+        <v>21900</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>68.3</v>
+        <v>32.2</v>
       </c>
       <c r="G53" s="7">
-        <v>76.475</v>
+        <v>32.217</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>1727921.7</v>
+        <v>705180</v>
       </c>
       <c r="J53" s="7">
-        <v>-206806.68</v>
+        <v>-368.84</v>
       </c>
       <c r="K53" s="7">
-        <v>46803.15</v>
+        <v>11388</v>
       </c>
       <c r="L53" s="8">
-        <v>-10.69</v>
+        <v>-0.05</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3012,134 +3006,134 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="6">
-        <v>300759</v>
-      </c>
-      <c r="C54" s="6">
-        <v>15400</v>
-      </c>
-      <c r="D54" s="6">
-        <v>15400</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>93.84</v>
-      </c>
-      <c r="G54" s="7">
-        <v>94.022</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>1445136</v>
-      </c>
-      <c r="J54" s="7">
-        <v>-2810.14</v>
-      </c>
-      <c r="K54" s="7">
-        <v>8624</v>
-      </c>
-      <c r="L54" s="8">
-        <v>-0.19</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="8" t="s">
+      <c r="B54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="10">
+        <v>8200</v>
+      </c>
+      <c r="D54" s="10">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>37.7</v>
+      </c>
+      <c r="G54" s="11">
+        <v>34.99</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>309140</v>
+      </c>
+      <c r="J54" s="11">
+        <v>22219.95</v>
+      </c>
+      <c r="K54" s="11">
+        <v>10004</v>
+      </c>
+      <c r="L54" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="6">
-        <v>300577</v>
-      </c>
-      <c r="C55" s="6">
-        <v>21900</v>
-      </c>
-      <c r="D55" s="6">
-        <v>21900</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>31.68</v>
-      </c>
-      <c r="G55" s="7">
-        <v>32.217</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>693792</v>
-      </c>
-      <c r="J55" s="7">
-        <v>-11756.84</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-3504</v>
-      </c>
-      <c r="L55" s="8">
-        <v>-1.67</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>25</v>
+      <c r="A55" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="10">
+        <v>601100</v>
+      </c>
+      <c r="C55" s="10">
+        <v>23700</v>
+      </c>
+      <c r="D55" s="10">
+        <v>23700</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>61.2</v>
+      </c>
+      <c r="G55" s="11">
+        <v>60.847</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1450440</v>
+      </c>
+      <c r="J55" s="11">
+        <v>8358.01</v>
+      </c>
+      <c r="K55" s="11">
+        <v>10191</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.58</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="10">
-        <v>8200</v>
-      </c>
-      <c r="D56" s="10">
-        <v>8200</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>36.48</v>
-      </c>
-      <c r="G56" s="11">
-        <v>34.99</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>299136</v>
-      </c>
-      <c r="J56" s="11">
-        <v>12215.95</v>
-      </c>
-      <c r="K56" s="11">
-        <v>11480</v>
-      </c>
-      <c r="L56" s="9">
-        <v>4.26</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="B56" s="6">
+        <v>300229</v>
+      </c>
+      <c r="C56" s="6">
+        <v>61000</v>
+      </c>
+      <c r="D56" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>11.75</v>
+      </c>
+      <c r="G56" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>716750</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-100672.37</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-7930</v>
+      </c>
+      <c r="L56" s="8">
+        <v>-12.31</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3148,81 +3142,81 @@
         <v>97</v>
       </c>
       <c r="B57" s="6">
-        <v>601100</v>
+        <v>300724</v>
       </c>
       <c r="C57" s="6">
-        <v>23700</v>
+        <v>20400</v>
       </c>
       <c r="D57" s="6">
-        <v>23700</v>
+        <v>20400</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>60.77</v>
+        <v>83.8</v>
       </c>
       <c r="G57" s="7">
-        <v>60.847</v>
+        <v>96.134</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>1440249</v>
+        <v>1709520</v>
       </c>
       <c r="J57" s="7">
-        <v>-1832.99</v>
+        <v>-251608.99</v>
       </c>
       <c r="K57" s="7">
-        <v>3081</v>
+        <v>-9996</v>
       </c>
       <c r="L57" s="8">
-        <v>-0.13</v>
+        <v>-12.83</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="6">
-        <v>300229</v>
+      <c r="B58" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="6">
-        <v>61000</v>
+        <v>63100</v>
       </c>
       <c r="D58" s="6">
-        <v>61000</v>
+        <v>63100</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>11.88</v>
+        <v>10.96</v>
       </c>
       <c r="G58" s="7">
-        <v>13.4</v>
+        <v>11.626</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>724680</v>
+        <v>691576</v>
       </c>
       <c r="J58" s="7">
-        <v>-92742.37</v>
+        <v>-42025.41</v>
       </c>
       <c r="K58" s="7">
-        <v>7320</v>
+        <v>-1262</v>
       </c>
       <c r="L58" s="8">
-        <v>-11.34</v>
+        <v>-5.73</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3233,40 +3227,40 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="6">
-        <v>300724</v>
+        <v>300259</v>
       </c>
       <c r="C59" s="6">
-        <v>20400</v>
+        <v>6460</v>
       </c>
       <c r="D59" s="6">
-        <v>20400</v>
+        <v>6460</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>84.29</v>
+        <v>5.2</v>
       </c>
       <c r="G59" s="7">
-        <v>96.134</v>
+        <v>13.524</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>1719516</v>
+        <v>33592</v>
       </c>
       <c r="J59" s="7">
-        <v>-241612.99</v>
+        <v>-53770.94</v>
       </c>
       <c r="K59" s="7">
-        <v>-10608</v>
+        <v>646</v>
       </c>
       <c r="L59" s="8">
-        <v>-12.32</v>
+        <v>-61.55</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>26</v>
@@ -3277,40 +3271,40 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="B60" s="6">
+        <v>300037</v>
+      </c>
       <c r="C60" s="6">
-        <v>63100</v>
+        <v>9200</v>
       </c>
       <c r="D60" s="6">
-        <v>63100</v>
+        <v>9200</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>10.98</v>
+        <v>56.91</v>
       </c>
       <c r="G60" s="7">
-        <v>11.626</v>
+        <v>56.989</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>692838</v>
+        <v>523572</v>
       </c>
       <c r="J60" s="7">
-        <v>-40763.41</v>
+        <v>-728.64</v>
       </c>
       <c r="K60" s="7">
-        <v>3155</v>
+        <v>3036</v>
       </c>
       <c r="L60" s="8">
-        <v>-5.56</v>
+        <v>-0.14</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3324,37 +3318,37 @@
         <v>102</v>
       </c>
       <c r="B61" s="6">
-        <v>300259</v>
+        <v>300502</v>
       </c>
       <c r="C61" s="6">
-        <v>6460</v>
+        <v>24980</v>
       </c>
       <c r="D61" s="6">
-        <v>6460</v>
+        <v>19980</v>
       </c>
       <c r="E61" s="6">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F61" s="7">
-        <v>5.1</v>
+        <v>67.98</v>
       </c>
       <c r="G61" s="7">
-        <v>13.524</v>
+        <v>72.775</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>32946</v>
+        <v>1698140.4</v>
       </c>
       <c r="J61" s="7">
-        <v>-54416.94</v>
+        <v>-119767.33</v>
       </c>
       <c r="K61" s="7">
-        <v>1098.2</v>
+        <v>-47360.45</v>
       </c>
       <c r="L61" s="8">
-        <v>-62.29</v>
+        <v>-6.59</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>26</v>
@@ -3368,37 +3362,37 @@
         <v>103</v>
       </c>
       <c r="B62" s="6">
-        <v>300037</v>
+        <v>300212</v>
       </c>
       <c r="C62" s="6">
-        <v>9200</v>
+        <v>36244</v>
       </c>
       <c r="D62" s="6">
-        <v>9200</v>
+        <v>36244</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>56.58</v>
+        <v>46.8</v>
       </c>
       <c r="G62" s="7">
-        <v>56.989</v>
+        <v>53.923</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>520536</v>
+        <v>1696219.2</v>
       </c>
       <c r="J62" s="7">
-        <v>-3764.64</v>
+        <v>-258173.17</v>
       </c>
       <c r="K62" s="7">
-        <v>1748</v>
+        <v>724.88</v>
       </c>
       <c r="L62" s="8">
-        <v>-0.72</v>
+        <v>-13.21</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3408,47 +3402,47 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="6">
-        <v>300502</v>
-      </c>
-      <c r="C63" s="6">
-        <v>24980</v>
-      </c>
-      <c r="D63" s="6">
-        <v>24980</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>69.98</v>
-      </c>
-      <c r="G63" s="7">
-        <v>72.879</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>1748100.4</v>
-      </c>
-      <c r="J63" s="7">
-        <v>-72406.88</v>
-      </c>
-      <c r="K63" s="7">
-        <v>4496.4</v>
-      </c>
-      <c r="L63" s="8">
-        <v>-3.98</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>25</v>
+      <c r="B63" s="10">
+        <v>603127</v>
+      </c>
+      <c r="C63" s="10">
+        <v>16300</v>
+      </c>
+      <c r="D63" s="10">
+        <v>16300</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>88.98</v>
+      </c>
+      <c r="G63" s="11">
+        <v>77.06</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1450374</v>
+      </c>
+      <c r="J63" s="11">
+        <v>194299.1</v>
+      </c>
+      <c r="K63" s="11">
+        <v>24450</v>
+      </c>
+      <c r="L63" s="9">
+        <v>15.47</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3456,169 +3450,169 @@
         <v>105</v>
       </c>
       <c r="B64" s="6">
-        <v>300212</v>
+        <v>603228</v>
       </c>
       <c r="C64" s="6">
-        <v>36244</v>
+        <v>24300</v>
       </c>
       <c r="D64" s="6">
-        <v>36244</v>
+        <v>24300</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>46.78</v>
+        <v>35.38</v>
       </c>
       <c r="G64" s="7">
-        <v>53.923</v>
+        <v>44.067</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>1695494.32</v>
+        <v>859734</v>
       </c>
       <c r="J64" s="7">
-        <v>-258898.05</v>
+        <v>-211091.5</v>
       </c>
       <c r="K64" s="7">
-        <v>-13410.28</v>
+        <v>-15066</v>
       </c>
       <c r="L64" s="8">
-        <v>-13.25</v>
+        <v>-19.71</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="10">
-        <v>603127</v>
+      <c r="B65" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="C65" s="10">
-        <v>16300</v>
+        <v>6480</v>
       </c>
       <c r="D65" s="10">
-        <v>16300</v>
+        <v>6480</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
       </c>
       <c r="F65" s="11">
-        <v>87.48</v>
+        <v>8.91</v>
       </c>
       <c r="G65" s="11">
-        <v>77.06</v>
+        <v>4.946</v>
       </c>
       <c r="H65" s="11">
         <v>0</v>
       </c>
       <c r="I65" s="11">
-        <v>1425924</v>
+        <v>57736.8</v>
       </c>
       <c r="J65" s="11">
-        <v>169849.1</v>
+        <v>25688.11</v>
       </c>
       <c r="K65" s="11">
-        <v>-3749</v>
+        <v>64.8</v>
       </c>
       <c r="L65" s="9">
-        <v>13.52</v>
+        <v>80.15</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="6">
-        <v>603228</v>
-      </c>
-      <c r="C66" s="6">
-        <v>24300</v>
-      </c>
-      <c r="D66" s="6">
-        <v>24300</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
-        <v>36</v>
-      </c>
-      <c r="G66" s="7">
-        <v>44.067</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>874800</v>
-      </c>
-      <c r="J66" s="7">
-        <v>-196025.5</v>
-      </c>
-      <c r="K66" s="7">
-        <v>13608</v>
-      </c>
-      <c r="L66" s="8">
-        <v>-18.31</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>23</v>
+      <c r="A66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="10">
+        <v>8800</v>
+      </c>
+      <c r="D66" s="10">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>12.37</v>
+      </c>
+      <c r="G66" s="11">
+        <v>11.524</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>108856</v>
+      </c>
+      <c r="J66" s="11">
+        <v>7447.88</v>
+      </c>
+      <c r="K66" s="11">
+        <v>-1232</v>
+      </c>
+      <c r="L66" s="9">
+        <v>7.34</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C67" s="10">
-        <v>6480</v>
+        <v>72300</v>
       </c>
       <c r="D67" s="10">
-        <v>6480</v>
+        <v>72300</v>
       </c>
       <c r="E67" s="10">
         <v>0</v>
       </c>
       <c r="F67" s="11">
-        <v>8.9</v>
+        <v>10.99</v>
       </c>
       <c r="G67" s="11">
-        <v>4.946</v>
+        <v>9.802</v>
       </c>
       <c r="H67" s="11">
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>57672</v>
+        <v>794577</v>
       </c>
       <c r="J67" s="11">
-        <v>25623.31</v>
+        <v>85913.72</v>
       </c>
       <c r="K67" s="11">
-        <v>1555.2</v>
+        <v>-4338</v>
       </c>
       <c r="L67" s="9">
-        <v>79.94</v>
+        <v>12.12</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>26</v>
@@ -3628,135 +3622,135 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="10">
-        <v>8800</v>
-      </c>
-      <c r="D68" s="10">
-        <v>8800</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>12.51</v>
-      </c>
-      <c r="G68" s="11">
-        <v>11.524</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>110088</v>
-      </c>
-      <c r="J68" s="11">
-        <v>8679.88</v>
-      </c>
-      <c r="K68" s="11">
-        <v>1320</v>
-      </c>
-      <c r="L68" s="9">
-        <v>8.56</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="9" t="s">
+      <c r="A68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="6">
+        <v>43400</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43400</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>6.71</v>
+      </c>
+      <c r="G68" s="7">
+        <v>7.009</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>291214</v>
+      </c>
+      <c r="J68" s="7">
+        <v>-12977.57</v>
+      </c>
+      <c r="K68" s="7">
+        <v>-1302</v>
+      </c>
+      <c r="L68" s="8">
+        <v>-4.27</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="10">
-        <v>72300</v>
-      </c>
-      <c r="D69" s="10">
-        <v>72300</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>11.05</v>
-      </c>
-      <c r="G69" s="11">
-        <v>9.802</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>798915</v>
-      </c>
-      <c r="J69" s="11">
-        <v>90251.72</v>
-      </c>
-      <c r="K69" s="11">
-        <v>15906</v>
-      </c>
-      <c r="L69" s="9">
-        <v>12.73</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N69" s="9" t="s">
+      <c r="A69" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="6">
+        <v>300232</v>
+      </c>
+      <c r="C69" s="6">
+        <v>156821</v>
+      </c>
+      <c r="D69" s="6">
+        <v>156821</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="G69" s="7">
+        <v>9.86</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1380024.8</v>
+      </c>
+      <c r="J69" s="7">
+        <v>-166264.98</v>
+      </c>
+      <c r="K69" s="7">
+        <v>25091.36</v>
+      </c>
+      <c r="L69" s="8">
+        <v>-10.75</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="B70" s="6">
+        <v>603556</v>
+      </c>
       <c r="C70" s="6">
-        <v>43400</v>
+        <v>93500</v>
       </c>
       <c r="D70" s="6">
-        <v>43400</v>
+        <v>93500</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <v>6.74</v>
+        <v>15.09</v>
       </c>
       <c r="G70" s="7">
-        <v>7.009</v>
+        <v>15.247</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>292516</v>
+        <v>1410915</v>
       </c>
       <c r="J70" s="7">
-        <v>-11675.57</v>
+        <v>-14714.33</v>
       </c>
       <c r="K70" s="7">
-        <v>5642</v>
+        <v>-935</v>
       </c>
       <c r="L70" s="8">
-        <v>-3.84</v>
+        <v>-1.03</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3764,37 +3758,37 @@
         <v>116</v>
       </c>
       <c r="B71" s="10">
-        <v>600563</v>
+        <v>600933</v>
       </c>
       <c r="C71" s="10">
-        <v>0</v>
+        <v>128700</v>
       </c>
       <c r="D71" s="10">
-        <v>0</v>
+        <v>128700</v>
       </c>
       <c r="E71" s="10">
         <v>0</v>
       </c>
       <c r="F71" s="11">
-        <v>66.76</v>
+        <v>14.34</v>
       </c>
       <c r="G71" s="11">
-        <v>0</v>
+        <v>13.094</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>0</v>
+        <v>1845558</v>
       </c>
       <c r="J71" s="11">
-        <v>181916.96</v>
+        <v>160399.18</v>
       </c>
       <c r="K71" s="11">
-        <v>-5262.29</v>
+        <v>66924</v>
       </c>
       <c r="L71" s="9">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>24</v>
@@ -3807,38 +3801,38 @@
       <c r="A72" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="6">
-        <v>300232</v>
+      <c r="B72" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C72" s="6">
-        <v>156821</v>
+        <v>9700</v>
       </c>
       <c r="D72" s="6">
-        <v>156821</v>
+        <v>9700</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>8.64</v>
+        <v>31.32</v>
       </c>
       <c r="G72" s="7">
-        <v>9.86</v>
+        <v>31.376</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>1354933.44</v>
+        <v>303804</v>
       </c>
       <c r="J72" s="7">
-        <v>-191398.65</v>
-      </c>
-      <c r="K72" s="7">
-        <v>36157.99</v>
+        <v>-540.62</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L72" s="8">
-        <v>-12.37</v>
+        <v>-0.18</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>26</v>
@@ -3849,40 +3843,40 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B73" s="6">
-        <v>603556</v>
+        <v>603659</v>
       </c>
       <c r="C73" s="6">
-        <v>93500</v>
+        <v>13600</v>
       </c>
       <c r="D73" s="6">
-        <v>93500</v>
+        <v>13600</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>15.1</v>
+        <v>100.3</v>
       </c>
       <c r="G73" s="7">
-        <v>15.247</v>
+        <v>101.716</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>1411850</v>
+        <v>1364080</v>
       </c>
       <c r="J73" s="7">
-        <v>-13779.33</v>
+        <v>-19258.58</v>
       </c>
       <c r="K73" s="7">
-        <v>26180</v>
+        <v>-36040</v>
       </c>
       <c r="L73" s="8">
-        <v>-0.96</v>
+        <v>-1.39</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>24</v>
@@ -3893,397 +3887,397 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B74" s="10">
-        <v>600933</v>
+        <v>120</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C74" s="10">
-        <v>128700</v>
+        <v>15500</v>
       </c>
       <c r="D74" s="10">
-        <v>128700</v>
+        <v>15500</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>13.82</v>
+        <v>56.8</v>
       </c>
       <c r="G74" s="11">
-        <v>13.094</v>
+        <v>55.058</v>
       </c>
       <c r="H74" s="11">
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>1778634</v>
+        <v>880400</v>
       </c>
       <c r="J74" s="11">
-        <v>93475.18</v>
+        <v>27003.98</v>
       </c>
       <c r="K74" s="11">
-        <v>2574</v>
+        <v>18600</v>
       </c>
       <c r="L74" s="9">
-        <v>5.54</v>
+        <v>3.16</v>
       </c>
       <c r="M74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="10">
+        <v>2100</v>
+      </c>
+      <c r="D75" s="10">
+        <v>2100</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>135.91</v>
+      </c>
+      <c r="G75" s="11">
+        <v>115.437</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>285411</v>
+      </c>
+      <c r="J75" s="11">
+        <v>42994.1</v>
+      </c>
+      <c r="K75" s="11">
+        <v>2456.06</v>
+      </c>
+      <c r="L75" s="9">
+        <v>17.74</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>33.51</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-142753.4</v>
+      </c>
+      <c r="K76" s="7">
+        <v>-36.31</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="6">
+        <v>603688</v>
+      </c>
+      <c r="C77" s="6">
+        <v>30368</v>
+      </c>
+      <c r="D77" s="6">
+        <v>30368</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>23.73</v>
+      </c>
+      <c r="G77" s="7">
+        <v>26.257</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>720632.64</v>
+      </c>
+      <c r="J77" s="7">
+        <v>-76751.47</v>
+      </c>
+      <c r="K77" s="7">
+        <v>607.36</v>
+      </c>
+      <c r="L77" s="8">
+        <v>-9.62</v>
+      </c>
+      <c r="M77" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N77" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="6">
-        <v>9700</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <v>9700</v>
-      </c>
-      <c r="F75" s="7">
-        <v>31.32</v>
-      </c>
-      <c r="G75" s="7">
-        <v>31.4</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>303804</v>
-      </c>
-      <c r="J75" s="7">
-        <v>-771.63</v>
-      </c>
-      <c r="K75" s="7">
-        <v>-771.63</v>
-      </c>
-      <c r="L75" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="10">
-        <v>603659</v>
-      </c>
-      <c r="C76" s="10">
-        <v>13600</v>
-      </c>
-      <c r="D76" s="10">
-        <v>13600</v>
-      </c>
-      <c r="E76" s="10">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>102.95</v>
-      </c>
-      <c r="G76" s="11">
-        <v>101.716</v>
-      </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
-        <v>1400120</v>
-      </c>
-      <c r="J76" s="11">
-        <v>16781.42</v>
-      </c>
-      <c r="K76" s="11">
-        <v>-52904</v>
-      </c>
-      <c r="L76" s="9">
-        <v>1.21</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="10">
-        <v>15500</v>
-      </c>
-      <c r="D77" s="10">
-        <v>15500</v>
-      </c>
-      <c r="E77" s="10">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11">
-        <v>55.6</v>
-      </c>
-      <c r="G77" s="11">
-        <v>55.058</v>
-      </c>
-      <c r="H77" s="11">
-        <v>0</v>
-      </c>
-      <c r="I77" s="11">
-        <v>861800</v>
-      </c>
-      <c r="J77" s="11">
-        <v>8403.98</v>
-      </c>
-      <c r="K77" s="11">
-        <v>15500</v>
-      </c>
-      <c r="L77" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B78" s="10">
+        <v>603327</v>
       </c>
       <c r="C78" s="10">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="D78" s="10">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>134.96</v>
+        <v>30.46</v>
       </c>
       <c r="G78" s="11">
-        <v>129.334</v>
+        <v>29.513</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>971712</v>
+        <v>365520</v>
       </c>
       <c r="J78" s="11">
-        <v>40505.43</v>
+        <v>11361.32</v>
       </c>
       <c r="K78" s="11">
-        <v>-1437.14</v>
+        <v>33240</v>
       </c>
       <c r="L78" s="9">
-        <v>4.35</v>
+        <v>3.21</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="6">
-        <v>100</v>
-      </c>
-      <c r="D79" s="6">
-        <v>100</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>33.37</v>
-      </c>
-      <c r="G79" s="7">
-        <v>1460.541</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>3337</v>
-      </c>
-      <c r="J79" s="7">
-        <v>-142717.09</v>
-      </c>
-      <c r="K79" s="7">
-        <v>44</v>
-      </c>
-      <c r="L79" s="8">
-        <v>-97.72</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>25</v>
+      <c r="B79" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="13">
+        <v>5619500</v>
+      </c>
+      <c r="D79" s="13">
+        <v>5619500</v>
+      </c>
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+      <c r="G79" s="14">
+        <v>0</v>
+      </c>
+      <c r="H79" s="14">
+        <v>0</v>
+      </c>
+      <c r="I79" s="14">
+        <v>0</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" s="6">
-        <v>603688</v>
+        <v>300709</v>
       </c>
       <c r="C80" s="6">
-        <v>30368</v>
+        <v>100</v>
       </c>
       <c r="D80" s="6">
-        <v>30368</v>
+        <v>100</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>23.71</v>
+        <v>85.36</v>
       </c>
       <c r="G80" s="7">
-        <v>26.257</v>
+        <v>2907.865</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>720025.28</v>
+        <v>8536</v>
       </c>
       <c r="J80" s="7">
-        <v>-77358.83</v>
+        <v>-282250.53</v>
       </c>
       <c r="K80" s="7">
-        <v>13058.24</v>
+        <v>55</v>
       </c>
       <c r="L80" s="8">
-        <v>-9.7</v>
+        <v>-97.06</v>
       </c>
       <c r="M80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="10">
+        <v>300280</v>
+      </c>
+      <c r="C81" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D81" s="10">
+        <v>12500</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>41.05</v>
+      </c>
+      <c r="G81" s="11">
+        <v>40.592</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>513125</v>
+      </c>
+      <c r="J81" s="11">
+        <v>5730.88</v>
+      </c>
+      <c r="K81" s="11">
+        <v>3875</v>
+      </c>
+      <c r="L81" s="9">
+        <v>1.13</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="6">
+        <v>603699</v>
+      </c>
+      <c r="C82" s="6">
+        <v>109200</v>
+      </c>
+      <c r="D82" s="6">
+        <v>109200</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>16.41</v>
+      </c>
+      <c r="G82" s="7">
+        <v>16.463</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1791972</v>
+      </c>
+      <c r="J82" s="7">
+        <v>-5765.79</v>
+      </c>
+      <c r="K82" s="7">
+        <v>37128</v>
+      </c>
+      <c r="L82" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="M82" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="6">
-        <v>603327</v>
-      </c>
-      <c r="C81" s="6">
-        <v>12000</v>
-      </c>
-      <c r="D81" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>27.69</v>
-      </c>
-      <c r="G81" s="7">
-        <v>29.513</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>332280</v>
-      </c>
-      <c r="J81" s="7">
-        <v>-21878.68</v>
-      </c>
-      <c r="K81" s="7">
-        <v>4080</v>
-      </c>
-      <c r="L81" s="8">
-        <v>-6.18</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="13">
-        <v>5723000</v>
-      </c>
-      <c r="D82" s="13">
-        <v>5723000</v>
-      </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="14">
-        <v>0</v>
-      </c>
-      <c r="G82" s="14">
-        <v>0</v>
-      </c>
-      <c r="H82" s="14">
-        <v>0</v>
-      </c>
-      <c r="I82" s="14">
-        <v>0</v>
-      </c>
-      <c r="J82" s="14">
-        <v>0</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="12">
-        <v>0</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="12" t="s">
+      <c r="N82" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4292,213 +4286,213 @@
         <v>133</v>
       </c>
       <c r="B83" s="6">
-        <v>300709</v>
+        <v>601828</v>
       </c>
       <c r="C83" s="6">
-        <v>100</v>
+        <v>84640</v>
       </c>
       <c r="D83" s="6">
-        <v>100</v>
+        <v>84640</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>84.81</v>
+        <v>10.09</v>
       </c>
       <c r="G83" s="7">
-        <v>2907.865</v>
+        <v>11.322</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>8481</v>
+        <v>854017.6</v>
       </c>
       <c r="J83" s="7">
-        <v>-282305.53</v>
+        <v>-104308.33</v>
       </c>
       <c r="K83" s="7">
-        <v>401</v>
+        <v>7617.6</v>
       </c>
       <c r="L83" s="8">
-        <v>-97.08</v>
+        <v>-10.88</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="10">
-        <v>300280</v>
-      </c>
-      <c r="C84" s="10">
-        <v>12500</v>
-      </c>
-      <c r="D84" s="10">
-        <v>0</v>
-      </c>
-      <c r="E84" s="10">
-        <v>12500</v>
-      </c>
-      <c r="F84" s="11">
-        <v>40.74</v>
-      </c>
-      <c r="G84" s="11">
-        <v>40.607</v>
-      </c>
-      <c r="H84" s="11">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
-        <v>509250</v>
-      </c>
-      <c r="J84" s="11">
-        <v>1661.51</v>
-      </c>
-      <c r="K84" s="11">
-        <v>1661.51</v>
-      </c>
-      <c r="L84" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="9" t="s">
+      <c r="B84" s="6">
+        <v>300476</v>
+      </c>
+      <c r="C84" s="6">
+        <v>80600</v>
+      </c>
+      <c r="D84" s="6">
+        <v>80600</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>23.78</v>
+      </c>
+      <c r="G84" s="7">
+        <v>26.138</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1916668</v>
+      </c>
+      <c r="J84" s="7">
+        <v>-190064.94</v>
+      </c>
+      <c r="K84" s="7">
+        <v>-35464</v>
+      </c>
+      <c r="L84" s="8">
+        <v>-9.02</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="6">
-        <v>603699</v>
-      </c>
-      <c r="C85" s="6">
-        <v>109200</v>
-      </c>
-      <c r="D85" s="6">
-        <v>109200</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>16.07</v>
-      </c>
-      <c r="G85" s="7">
-        <v>16.463</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>1754844</v>
-      </c>
-      <c r="J85" s="7">
-        <v>-42893.79</v>
-      </c>
-      <c r="K85" s="7">
-        <v>46956</v>
-      </c>
-      <c r="L85" s="8">
-        <v>-2.39</v>
-      </c>
-      <c r="M85" s="8" t="s">
+      <c r="B85" s="10">
+        <v>603158</v>
+      </c>
+      <c r="C85" s="10">
+        <v>9800</v>
+      </c>
+      <c r="D85" s="10">
+        <v>9800</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>24.64</v>
+      </c>
+      <c r="G85" s="11">
+        <v>22.846</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>241472</v>
+      </c>
+      <c r="J85" s="11">
+        <v>17577.8</v>
+      </c>
+      <c r="K85" s="11">
+        <v>1274</v>
+      </c>
+      <c r="L85" s="9">
+        <v>7.85</v>
+      </c>
+      <c r="M85" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="N85" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="6">
-        <v>601828</v>
-      </c>
-      <c r="C86" s="6">
-        <v>84640</v>
-      </c>
-      <c r="D86" s="6">
-        <v>84640</v>
-      </c>
-      <c r="E86" s="6">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
-        <v>10</v>
-      </c>
-      <c r="G86" s="7">
-        <v>11.322</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>846400</v>
-      </c>
-      <c r="J86" s="7">
-        <v>-111925.93</v>
-      </c>
-      <c r="K86" s="7">
-        <v>11003.2</v>
-      </c>
-      <c r="L86" s="8">
-        <v>-11.68</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>23</v>
+      <c r="B86" s="10">
+        <v>300413</v>
+      </c>
+      <c r="C86" s="10">
+        <v>13400</v>
+      </c>
+      <c r="D86" s="10">
+        <v>13400</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>63.86</v>
+      </c>
+      <c r="G86" s="11">
+        <v>61.923</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>855724</v>
+      </c>
+      <c r="J86" s="11">
+        <v>25961.35</v>
+      </c>
+      <c r="K86" s="11">
+        <v>3216</v>
+      </c>
+      <c r="L86" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="6">
-        <v>300476</v>
+      <c r="B87" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C87" s="6">
-        <v>80600</v>
+        <v>500</v>
       </c>
       <c r="D87" s="6">
-        <v>80600</v>
+        <v>500</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>24.22</v>
+        <v>5.14</v>
       </c>
       <c r="G87" s="7">
-        <v>26.138</v>
+        <v>18.199</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>1952132</v>
+        <v>2570</v>
       </c>
       <c r="J87" s="7">
-        <v>-154600.94</v>
+        <v>-6529.7</v>
       </c>
       <c r="K87" s="7">
-        <v>177320</v>
+        <v>5</v>
       </c>
       <c r="L87" s="8">
-        <v>-7.34</v>
+        <v>-71.76</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>26</v>
@@ -4508,129 +4502,129 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="10">
-        <v>603158</v>
-      </c>
-      <c r="C88" s="10">
-        <v>9800</v>
-      </c>
-      <c r="D88" s="10">
-        <v>9800</v>
-      </c>
-      <c r="E88" s="10">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>24.51</v>
-      </c>
-      <c r="G88" s="11">
-        <v>22.846</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>240198</v>
-      </c>
-      <c r="J88" s="11">
-        <v>16303.8</v>
-      </c>
-      <c r="K88" s="11">
-        <v>13524</v>
-      </c>
-      <c r="L88" s="9">
-        <v>7.28</v>
-      </c>
-      <c r="M88" s="9" t="s">
+      <c r="A88" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="6">
+        <v>300725</v>
+      </c>
+      <c r="C88" s="6">
+        <v>17500</v>
+      </c>
+      <c r="D88" s="6">
+        <v>17500</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>116.38</v>
+      </c>
+      <c r="G88" s="7">
+        <v>123.835</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>2036650</v>
+      </c>
+      <c r="J88" s="7">
+        <v>-130471.24</v>
+      </c>
+      <c r="K88" s="7">
+        <v>59150</v>
+      </c>
+      <c r="L88" s="8">
+        <v>-6.02</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="6">
+        <v>603238</v>
+      </c>
+      <c r="C89" s="6">
+        <v>23600</v>
+      </c>
+      <c r="D89" s="6">
+        <v>23600</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>39.55</v>
+      </c>
+      <c r="G89" s="7">
+        <v>41.065</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>933380</v>
+      </c>
+      <c r="J89" s="7">
+        <v>-35747.35</v>
+      </c>
+      <c r="K89" s="7">
+        <v>32804</v>
+      </c>
+      <c r="L89" s="8">
+        <v>-3.69</v>
+      </c>
+      <c r="M89" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N88" s="9" t="s">
+      <c r="N89" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="10">
-        <v>300413</v>
-      </c>
-      <c r="C89" s="10">
-        <v>13400</v>
-      </c>
-      <c r="D89" s="10">
-        <v>13400</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>63.62</v>
-      </c>
-      <c r="G89" s="11">
-        <v>61.923</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>852508</v>
-      </c>
-      <c r="J89" s="11">
-        <v>22745.35</v>
-      </c>
-      <c r="K89" s="11">
-        <v>-4020</v>
-      </c>
-      <c r="L89" s="9">
-        <v>2.74</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="B90" s="6">
+        <v>300687</v>
+      </c>
       <c r="C90" s="6">
-        <v>500</v>
+        <v>53600</v>
       </c>
       <c r="D90" s="6">
-        <v>500</v>
+        <v>53600</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <v>5.13</v>
+        <v>22.96</v>
       </c>
       <c r="G90" s="7">
-        <v>18.199</v>
+        <v>23.406</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <v>2565</v>
+        <v>1230656</v>
       </c>
       <c r="J90" s="7">
-        <v>-6534.7</v>
+        <v>-23930.11</v>
       </c>
       <c r="K90" s="7">
-        <v>35</v>
+        <v>22512</v>
       </c>
       <c r="L90" s="8">
-        <v>-71.81</v>
+        <v>-1.91</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>26</v>
@@ -4640,217 +4634,217 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="6">
-        <v>300725</v>
-      </c>
-      <c r="C91" s="6">
-        <v>17500</v>
-      </c>
-      <c r="D91" s="6">
-        <v>17500</v>
-      </c>
-      <c r="E91" s="6">
-        <v>0</v>
-      </c>
-      <c r="F91" s="7">
-        <v>113</v>
-      </c>
-      <c r="G91" s="7">
-        <v>123.835</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7">
-        <v>1977500</v>
-      </c>
-      <c r="J91" s="7">
-        <v>-189621.24</v>
-      </c>
-      <c r="K91" s="7">
-        <v>3850</v>
-      </c>
-      <c r="L91" s="8">
-        <v>-8.75</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="8" t="s">
+      <c r="B91" s="10">
+        <v>300463</v>
+      </c>
+      <c r="C91" s="10">
+        <v>18600</v>
+      </c>
+      <c r="D91" s="10">
+        <v>18600</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>53.25</v>
+      </c>
+      <c r="G91" s="11">
+        <v>53.211</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>990450</v>
+      </c>
+      <c r="J91" s="11">
+        <v>719.5</v>
+      </c>
+      <c r="K91" s="11">
+        <v>-14136</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0.07</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="6">
-        <v>603238</v>
-      </c>
-      <c r="C92" s="6">
-        <v>23600</v>
-      </c>
-      <c r="D92" s="6">
-        <v>23600</v>
-      </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
-      <c r="F92" s="7">
-        <v>38.16</v>
-      </c>
-      <c r="G92" s="7">
-        <v>41.065</v>
-      </c>
-      <c r="H92" s="7">
-        <v>0</v>
-      </c>
-      <c r="I92" s="7">
-        <v>900576</v>
-      </c>
-      <c r="J92" s="7">
-        <v>-68551.35</v>
-      </c>
-      <c r="K92" s="7">
-        <v>11092</v>
-      </c>
-      <c r="L92" s="8">
-        <v>-7.07</v>
-      </c>
-      <c r="M92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="8" t="s">
-        <v>23</v>
+      <c r="B92" s="10">
+        <v>300220</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2600</v>
+      </c>
+      <c r="D92" s="10">
+        <v>2600</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>32.58</v>
+      </c>
+      <c r="G92" s="11">
+        <v>30.979</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>84708</v>
+      </c>
+      <c r="J92" s="11">
+        <v>4162.92</v>
+      </c>
+      <c r="K92" s="11">
+        <v>1196</v>
+      </c>
+      <c r="L92" s="9">
+        <v>5.17</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="10">
-        <v>600996</v>
-      </c>
-      <c r="C93" s="10">
-        <v>0</v>
-      </c>
-      <c r="D93" s="10">
-        <v>0</v>
-      </c>
-      <c r="E93" s="10">
-        <v>0</v>
-      </c>
-      <c r="F93" s="11">
-        <v>7.91</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11">
-        <v>5147.2</v>
-      </c>
-      <c r="K93" s="11">
-        <v>-7942.29</v>
-      </c>
-      <c r="L93" s="9">
-        <v>0</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>23</v>
+      <c r="B93" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="6">
+        <v>22100</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>22100</v>
+      </c>
+      <c r="F93" s="7">
+        <v>8.94</v>
+      </c>
+      <c r="G93" s="7">
+        <v>8.981</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>197574</v>
+      </c>
+      <c r="J93" s="7">
+        <v>-913.77</v>
+      </c>
+      <c r="K93" s="7">
+        <v>-913.77</v>
+      </c>
+      <c r="L93" s="8">
+        <v>-0.46</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B94" s="6">
-        <v>300687</v>
+        <v>603501</v>
       </c>
       <c r="C94" s="6">
-        <v>53600</v>
+        <v>7800</v>
       </c>
       <c r="D94" s="6">
-        <v>53600</v>
+        <v>7800</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
       </c>
       <c r="F94" s="7">
-        <v>22.54</v>
+        <v>182.66</v>
       </c>
       <c r="G94" s="7">
-        <v>23.406</v>
+        <v>183.981</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
       </c>
       <c r="I94" s="7">
-        <v>1208144</v>
+        <v>1424748</v>
       </c>
       <c r="J94" s="7">
-        <v>-46442.11</v>
+        <v>-10306</v>
       </c>
       <c r="K94" s="7">
-        <v>109880</v>
+        <v>-8190</v>
       </c>
       <c r="L94" s="8">
-        <v>-3.7</v>
+        <v>-0.72</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B95" s="10">
-        <v>300463</v>
+        <v>300423</v>
       </c>
       <c r="C95" s="10">
-        <v>18600</v>
+        <v>7900</v>
       </c>
       <c r="D95" s="10">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E95" s="10">
-        <v>18600</v>
+        <v>0</v>
       </c>
       <c r="F95" s="11">
-        <v>54.01</v>
+        <v>14.8</v>
       </c>
       <c r="G95" s="11">
-        <v>53.218</v>
+        <v>13.926</v>
       </c>
       <c r="H95" s="11">
         <v>0</v>
       </c>
       <c r="I95" s="11">
-        <v>1004586</v>
+        <v>116920</v>
       </c>
       <c r="J95" s="11">
-        <v>14731.26</v>
+        <v>6907.5</v>
       </c>
       <c r="K95" s="11">
-        <v>14731.26</v>
+        <v>-1027</v>
       </c>
       <c r="L95" s="9">
-        <v>1.49</v>
+        <v>6.28</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>26</v>
@@ -4860,222 +4854,90 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="10">
-        <v>300220</v>
-      </c>
-      <c r="C96" s="10">
-        <v>2600</v>
-      </c>
-      <c r="D96" s="10">
-        <v>2600</v>
-      </c>
-      <c r="E96" s="10">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11">
-        <v>32.12</v>
-      </c>
-      <c r="G96" s="11">
-        <v>30.979</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>83512</v>
-      </c>
-      <c r="J96" s="11">
-        <v>2966.92</v>
-      </c>
-      <c r="K96" s="11">
-        <v>-572</v>
-      </c>
-      <c r="L96" s="9">
-        <v>3.68</v>
-      </c>
-      <c r="M96" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" s="9" t="s">
+      <c r="A96" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="6">
+        <v>24225</v>
+      </c>
+      <c r="D96" s="6">
+        <v>24225</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>16.94</v>
+      </c>
+      <c r="G96" s="7">
+        <v>17.557</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>410371.5</v>
+      </c>
+      <c r="J96" s="7">
+        <v>-14955.76</v>
+      </c>
+      <c r="K96" s="7">
+        <v>12597</v>
+      </c>
+      <c r="L96" s="8">
+        <v>-3.51</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="6">
-        <v>603501</v>
-      </c>
-      <c r="C97" s="6">
-        <v>7800</v>
-      </c>
-      <c r="D97" s="6">
-        <v>7800</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="7">
-        <v>183.71</v>
-      </c>
-      <c r="G97" s="7">
-        <v>183.981</v>
-      </c>
-      <c r="H97" s="7">
-        <v>0</v>
-      </c>
-      <c r="I97" s="7">
-        <v>1432938</v>
-      </c>
-      <c r="J97" s="7">
-        <v>-2116</v>
-      </c>
-      <c r="K97" s="7">
-        <v>-20046</v>
-      </c>
-      <c r="L97" s="8">
-        <v>-0.15</v>
-      </c>
-      <c r="M97" s="8" t="s">
+      <c r="A97" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="10">
+        <v>603686</v>
+      </c>
+      <c r="C97" s="10">
+        <v>54200</v>
+      </c>
+      <c r="D97" s="10">
+        <v>54200</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>29.3</v>
+      </c>
+      <c r="G97" s="11">
+        <v>26.739</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1588060</v>
+      </c>
+      <c r="J97" s="11">
+        <v>138786.76</v>
+      </c>
+      <c r="K97" s="11">
+        <v>13008</v>
+      </c>
+      <c r="L97" s="9">
+        <v>9.58</v>
+      </c>
+      <c r="M97" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N97" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="10">
-        <v>300423</v>
-      </c>
-      <c r="C98" s="10">
-        <v>7900</v>
-      </c>
-      <c r="D98" s="10">
-        <v>7900</v>
-      </c>
-      <c r="E98" s="10">
-        <v>0</v>
-      </c>
-      <c r="F98" s="11">
-        <v>14.93</v>
-      </c>
-      <c r="G98" s="11">
-        <v>13.926</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
-        <v>117947</v>
-      </c>
-      <c r="J98" s="11">
-        <v>7934.5</v>
-      </c>
-      <c r="K98" s="11">
-        <v>1817</v>
-      </c>
-      <c r="L98" s="9">
-        <v>7.21</v>
-      </c>
-      <c r="M98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C99" s="6">
-        <v>24225</v>
-      </c>
-      <c r="D99" s="6">
-        <v>24225</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="7">
-        <v>16.42</v>
-      </c>
-      <c r="G99" s="7">
-        <v>17.557</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
-      </c>
-      <c r="I99" s="7">
-        <v>397774.5</v>
-      </c>
-      <c r="J99" s="7">
-        <v>-27552.76</v>
-      </c>
-      <c r="K99" s="7">
-        <v>484.5</v>
-      </c>
-      <c r="L99" s="8">
-        <v>-6.48</v>
-      </c>
-      <c r="M99" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N99" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B100" s="10">
-        <v>603686</v>
-      </c>
-      <c r="C100" s="10">
-        <v>54200</v>
-      </c>
-      <c r="D100" s="10">
-        <v>54200</v>
-      </c>
-      <c r="E100" s="10">
-        <v>0</v>
-      </c>
-      <c r="F100" s="11">
-        <v>29.06</v>
-      </c>
-      <c r="G100" s="11">
-        <v>26.739</v>
-      </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>1575052</v>
-      </c>
-      <c r="J100" s="11">
-        <v>125778.76</v>
-      </c>
-      <c r="K100" s="11">
-        <v>89972</v>
-      </c>
-      <c r="L100" s="9">
-        <v>8.68</v>
-      </c>
-      <c r="M100" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" s="9" t="s">
+      <c r="N97" s="9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
+++ b/data/trdrec_from_trdclient/1211_c_hait_6611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="151">
   <si>
     <t>资金</t>
   </si>
@@ -160,6 +160,12 @@
     <t>中国汽研</t>
   </si>
   <si>
+    <t>中矿资源</t>
+  </si>
+  <si>
+    <t>002738</t>
+  </si>
+  <si>
     <t>中际旭创</t>
   </si>
   <si>
@@ -205,12 +211,6 @@
     <t>华体科技</t>
   </si>
   <si>
-    <t>华孚时尚</t>
-  </si>
-  <si>
-    <t>002042</t>
-  </si>
-  <si>
     <t>华宝添益</t>
   </si>
   <si>
@@ -340,6 +340,9 @@
     <t>002534</t>
   </si>
   <si>
+    <t>森霸传感</t>
+  </si>
+  <si>
     <t>永新股份</t>
   </si>
   <si>
@@ -388,12 +391,6 @@
     <t>002847</t>
   </si>
   <si>
-    <t>石基信息</t>
-  </si>
-  <si>
-    <t>002153</t>
-  </si>
-  <si>
     <t>石英股份</t>
   </si>
   <si>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t>赛意信息</t>
+  </si>
+  <si>
+    <t>辰安科技</t>
   </si>
   <si>
     <t>迈克生物</t>
@@ -858,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -938,28 +938,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>7349378.2</v>
+        <v>8566589.67</v>
       </c>
       <c r="D3" s="3">
-        <v>8566405.52</v>
+        <v>9841503.28</v>
       </c>
       <c r="E3" s="3">
-        <v>7349378.2</v>
+        <v>8566589.67</v>
       </c>
       <c r="F3" s="3">
-        <v>-1217027.32</v>
+        <v>-1274913.61</v>
       </c>
       <c r="G3" s="3">
-        <v>149433248.79</v>
+        <v>146697220.52</v>
       </c>
       <c r="H3" s="3">
-        <v>157999654.31</v>
+        <v>156538723.8</v>
       </c>
       <c r="I3" s="3">
-        <v>-1583277.47</v>
+        <v>-2855042.71</v>
       </c>
       <c r="J3" s="3">
-        <v>678658.36</v>
+        <v>-1464514.59</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>5619000</v>
+        <v>5471000</v>
       </c>
       <c r="C8" s="3">
-        <v>5619500</v>
+        <v>5471000</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>7884000</v>
+        <v>7756500</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>90.18</v>
+        <v>88.11</v>
       </c>
       <c r="G12" s="7">
         <v>100.188</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1695384</v>
+        <v>1656468</v>
       </c>
       <c r="J12" s="7">
-        <v>-188147.97</v>
+        <v>-227063.97</v>
       </c>
       <c r="K12" s="7">
-        <v>15604</v>
+        <v>-38916</v>
       </c>
       <c r="L12" s="8">
-        <v>-9.99</v>
+        <v>-12.06</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>26</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>9.63</v>
+        <v>9.34</v>
       </c>
       <c r="G13" s="11">
         <v>-7.409</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>13482</v>
+        <v>13076</v>
       </c>
       <c r="J13" s="11">
-        <v>23854.19</v>
+        <v>23448.19</v>
       </c>
       <c r="K13" s="11">
-        <v>-70</v>
+        <v>-406</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>48.41</v>
+        <v>46.55</v>
       </c>
       <c r="G14" s="11">
         <v>46.474</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>1785457.62</v>
+        <v>1716857.1</v>
       </c>
       <c r="J14" s="11">
-        <v>71386.74</v>
+        <v>2786.22</v>
       </c>
       <c r="K14" s="11">
-        <v>-17703.36</v>
+        <v>-68600.52</v>
       </c>
       <c r="L14" s="9">
-        <v>4.17</v>
+        <v>0.16</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>26</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>68.05</v>
+        <v>67.07</v>
       </c>
       <c r="G15" s="7">
         <v>254.78</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>6805</v>
+        <v>6707</v>
       </c>
       <c r="J15" s="7">
-        <v>-18672.95</v>
+        <v>-18770.95</v>
       </c>
       <c r="K15" s="7">
-        <v>187</v>
+        <v>-98</v>
       </c>
       <c r="L15" s="8">
-        <v>-73.29</v>
+        <v>-73.68</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>26</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>23.91</v>
+        <v>23.23</v>
       </c>
       <c r="G16" s="7">
         <v>26.366</v>
@@ -1359,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>212799</v>
+        <v>206747</v>
       </c>
       <c r="J16" s="7">
-        <v>-21860.79</v>
+        <v>-27912.79</v>
       </c>
       <c r="K16" s="7">
-        <v>-1157</v>
+        <v>-6052</v>
       </c>
       <c r="L16" s="8">
-        <v>-9.32</v>
+        <v>-11.89</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>24</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>5.92</v>
+        <v>5.8</v>
       </c>
       <c r="G17" s="11">
         <v>5.6</v>
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>1364560</v>
+        <v>1336900</v>
       </c>
       <c r="J17" s="11">
-        <v>73810.08</v>
+        <v>46150.08</v>
       </c>
       <c r="K17" s="11">
-        <v>-2305</v>
+        <v>-27660</v>
       </c>
       <c r="L17" s="9">
-        <v>5.71</v>
+        <v>3.57</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>24</v>
@@ -1429,34 +1429,34 @@
         <v>601965</v>
       </c>
       <c r="C18" s="10">
-        <v>75400</v>
+        <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>75400</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="G18" s="11">
-        <v>10.784</v>
+        <v>0</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>932698</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
-        <v>119556.85</v>
+        <v>122697.77</v>
       </c>
       <c r="K18" s="11">
-        <v>59566</v>
+        <v>3140.92</v>
       </c>
       <c r="L18" s="9">
-        <v>14.71</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>24</v>
@@ -1466,129 +1466,129 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10">
-        <v>300308</v>
-      </c>
-      <c r="C19" s="10">
-        <v>30700</v>
-      </c>
-      <c r="D19" s="10">
-        <v>30700</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>58.87</v>
-      </c>
-      <c r="G19" s="11">
-        <v>56.896</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1807309</v>
-      </c>
-      <c r="J19" s="11">
-        <v>60594.85</v>
-      </c>
-      <c r="K19" s="11">
-        <v>8289</v>
-      </c>
-      <c r="L19" s="9">
-        <v>3.47</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6">
+        <v>22900</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>22900</v>
+      </c>
+      <c r="F19" s="7">
+        <v>16.49</v>
+      </c>
+      <c r="G19" s="7">
+        <v>16.816</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>377621</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-7464</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-7464</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-1.94</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="10">
-        <v>603810</v>
+        <v>300308</v>
       </c>
       <c r="C20" s="10">
-        <v>11000</v>
+        <v>30700</v>
       </c>
       <c r="D20" s="10">
-        <v>11000</v>
+        <v>30700</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <v>37.3</v>
+        <v>58.35</v>
       </c>
       <c r="G20" s="11">
-        <v>36.108</v>
+        <v>56.896</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>410300</v>
+        <v>1791345</v>
       </c>
       <c r="J20" s="11">
-        <v>13115.59</v>
+        <v>44630.85</v>
       </c>
       <c r="K20" s="11">
-        <v>-10560</v>
+        <v>-15964</v>
       </c>
       <c r="L20" s="9">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="10">
-        <v>603983</v>
+        <v>603810</v>
       </c>
       <c r="C21" s="10">
-        <v>16800</v>
+        <v>11000</v>
       </c>
       <c r="D21" s="10">
-        <v>16800</v>
+        <v>11000</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>76.36</v>
+        <v>38.11</v>
       </c>
       <c r="G21" s="11">
-        <v>75.167</v>
+        <v>36.108</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>1282848</v>
+        <v>419210</v>
       </c>
       <c r="J21" s="11">
-        <v>20046.36</v>
+        <v>22025.59</v>
       </c>
       <c r="K21" s="11">
-        <v>7392</v>
+        <v>8910</v>
       </c>
       <c r="L21" s="9">
-        <v>1.59</v>
+        <v>5.54</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>24</v>
@@ -1599,348 +1599,348 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="B22" s="6">
+        <v>603983</v>
+      </c>
       <c r="C22" s="6">
-        <v>66200</v>
+        <v>16800</v>
       </c>
       <c r="D22" s="6">
-        <v>66200</v>
+        <v>16800</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>25.71</v>
+        <v>74.78</v>
       </c>
       <c r="G22" s="7">
-        <v>29.089</v>
+        <v>75.167</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1702002</v>
+        <v>1256304</v>
       </c>
       <c r="J22" s="7">
-        <v>-223687.24</v>
+        <v>-6497.64</v>
       </c>
       <c r="K22" s="7">
-        <v>7282</v>
+        <v>-26544</v>
       </c>
       <c r="L22" s="8">
-        <v>-11.62</v>
+        <v>-0.51</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6">
-        <v>600602</v>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="6">
-        <v>259100</v>
+        <v>66200</v>
       </c>
       <c r="D23" s="6">
-        <v>259100</v>
+        <v>66200</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>7.52</v>
+        <v>25.53</v>
       </c>
       <c r="G23" s="7">
-        <v>7.584</v>
+        <v>29.089</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1948432</v>
+        <v>1690086</v>
       </c>
       <c r="J23" s="7">
-        <v>-16477.23</v>
+        <v>-235603.24</v>
       </c>
       <c r="K23" s="7">
-        <v>5182</v>
+        <v>-11916</v>
       </c>
       <c r="L23" s="8">
-        <v>-0.84</v>
+        <v>-12.23</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6">
+        <v>600602</v>
+      </c>
+      <c r="C24" s="6">
+        <v>259100</v>
+      </c>
+      <c r="D24" s="6">
+        <v>259100</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>7.37</v>
+      </c>
+      <c r="G24" s="7">
+        <v>7.584</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1909567</v>
+      </c>
+      <c r="J24" s="7">
+        <v>-55342.23</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-38865</v>
+      </c>
+      <c r="L24" s="8">
+        <v>-2.82</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="6">
         <v>300628</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>7100</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>7100</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>62.66</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>61.21</v>
+      </c>
+      <c r="G25" s="7">
         <v>74.729</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>444886</v>
-      </c>
-      <c r="J24" s="7">
-        <v>-85687.23</v>
-      </c>
-      <c r="K24" s="7">
-        <v>4118</v>
-      </c>
-      <c r="L24" s="8">
-        <v>-16.15</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="10">
-        <v>300695</v>
-      </c>
-      <c r="C25" s="10">
-        <v>7500</v>
-      </c>
-      <c r="D25" s="10">
-        <v>7500</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>70.99</v>
-      </c>
-      <c r="G25" s="11">
-        <v>66.171</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>532425</v>
-      </c>
-      <c r="J25" s="11">
-        <v>36140.88</v>
-      </c>
-      <c r="K25" s="11">
-        <v>20175</v>
-      </c>
-      <c r="L25" s="9">
-        <v>7.28</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>434591</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-95982.23</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-10295</v>
+      </c>
+      <c r="L25" s="8">
+        <v>-18.09</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="10">
+        <v>300695</v>
+      </c>
+      <c r="C26" s="10">
+        <v>7500</v>
+      </c>
+      <c r="D26" s="10">
+        <v>7500</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>70.41</v>
+      </c>
+      <c r="G26" s="11">
+        <v>66.171</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>528075</v>
+      </c>
+      <c r="J26" s="11">
+        <v>31790.88</v>
+      </c>
+      <c r="K26" s="11">
+        <v>-4350</v>
+      </c>
+      <c r="L26" s="9">
+        <v>6.41</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="10">
         <v>300632</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C27" s="10">
         <v>6000</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>6000</v>
       </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>16.15</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>15.88</v>
+      </c>
+      <c r="G27" s="11">
         <v>15.796</v>
       </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>96900</v>
-      </c>
-      <c r="J26" s="11">
-        <v>2126.24</v>
-      </c>
-      <c r="K26" s="11">
-        <v>1320</v>
-      </c>
-      <c r="L26" s="9">
-        <v>2.24</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>95280</v>
+      </c>
+      <c r="J27" s="11">
+        <v>506.24</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-1620</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6">
         <v>31300</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>31300</v>
       </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>14.97</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>14.77</v>
+      </c>
+      <c r="G28" s="7">
         <v>16.061</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>468561</v>
-      </c>
-      <c r="J27" s="7">
-        <v>-34154.39</v>
-      </c>
-      <c r="K27" s="7">
-        <v>-7199</v>
-      </c>
-      <c r="L27" s="8">
-        <v>-6.79</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10">
-        <v>300639</v>
-      </c>
-      <c r="C28" s="10">
-        <v>25700</v>
-      </c>
-      <c r="D28" s="10">
-        <v>25700</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>56</v>
-      </c>
-      <c r="G28" s="11">
-        <v>48.841</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>1439200</v>
-      </c>
-      <c r="J28" s="11">
-        <v>183987.67</v>
-      </c>
-      <c r="K28" s="11">
-        <v>45489</v>
-      </c>
-      <c r="L28" s="9">
-        <v>14.66</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="9" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>462301</v>
+      </c>
+      <c r="J28" s="7">
+        <v>-40414.39</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-6260</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-8.04</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="B29" s="10">
+        <v>300639</v>
+      </c>
       <c r="C29" s="10">
-        <v>54607</v>
+        <v>25700</v>
       </c>
       <c r="D29" s="10">
-        <v>54607</v>
+        <v>25700</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <v>17.45</v>
+        <v>53.7</v>
       </c>
       <c r="G29" s="11">
-        <v>16.725</v>
+        <v>48.841</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
       </c>
       <c r="I29" s="11">
-        <v>952892.15</v>
+        <v>1380090</v>
       </c>
       <c r="J29" s="11">
-        <v>39599.15</v>
+        <v>124877.67</v>
       </c>
       <c r="K29" s="11">
-        <v>30033.85</v>
+        <v>-59110</v>
       </c>
       <c r="L29" s="9">
-        <v>4.33</v>
+        <v>9.95</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>26</v>
@@ -1953,88 +1953,88 @@
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="10">
+        <v>54607</v>
+      </c>
+      <c r="D30" s="10">
+        <v>54607</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>16.76</v>
+      </c>
+      <c r="G30" s="11">
+        <v>16.725</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>915213.32</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1920.32</v>
+      </c>
+      <c r="K30" s="11">
+        <v>-37678.83</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="10">
         <v>603679</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10">
         <v>26700</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>26700</v>
       </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>29.83</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>31.05</v>
+      </c>
+      <c r="G31" s="11">
         <v>29.285</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>796461</v>
-      </c>
-      <c r="J30" s="11">
-        <v>14561.08</v>
-      </c>
-      <c r="K30" s="11">
-        <v>23496</v>
-      </c>
-      <c r="L30" s="9">
-        <v>1.86</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>829035</v>
+      </c>
+      <c r="J31" s="11">
+        <v>47135.08</v>
+      </c>
+      <c r="K31" s="11">
+        <v>32574</v>
+      </c>
+      <c r="L31" s="9">
+        <v>6.03</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N31" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>5.82</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <v>-46292.87</v>
-      </c>
-      <c r="K31" s="7">
-        <v>-738.63</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2045,34 +2045,34 @@
         <v>511990</v>
       </c>
       <c r="C32" s="10">
-        <v>770081</v>
+        <v>770115</v>
       </c>
       <c r="D32" s="10">
-        <v>770081</v>
+        <v>770115</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <v>99.998</v>
+        <v>100.005</v>
       </c>
       <c r="G32" s="11">
-        <v>99.777</v>
+        <v>99.773</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>77006559.84</v>
+        <v>77015350.58</v>
       </c>
       <c r="J32" s="11">
-        <v>170036.43</v>
+        <v>178827.17</v>
       </c>
       <c r="K32" s="11">
-        <v>3080.33</v>
+        <v>5390.81</v>
       </c>
       <c r="L32" s="9">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>24</v>
@@ -2089,34 +2089,34 @@
         <v>300755</v>
       </c>
       <c r="C33" s="10">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="D33" s="10">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <v>32.35</v>
+        <v>32.1</v>
       </c>
       <c r="G33" s="11">
-        <v>29.407</v>
+        <v>0</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>566125</v>
+        <v>0</v>
       </c>
       <c r="J33" s="11">
-        <v>51509.8</v>
+        <v>49498.74</v>
       </c>
       <c r="K33" s="11">
-        <v>49700</v>
+        <v>-2011.06</v>
       </c>
       <c r="L33" s="9">
-        <v>10.01</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>26</v>
@@ -2142,25 +2142,25 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>19.04</v>
+        <v>18.88</v>
       </c>
       <c r="G34" s="11">
-        <v>17.82</v>
+        <v>17.815</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>620704</v>
+        <v>615488</v>
       </c>
       <c r="J34" s="11">
-        <v>39765.17</v>
+        <v>34714.45</v>
       </c>
       <c r="K34" s="11">
-        <v>-18585.29</v>
+        <v>-5216</v>
       </c>
       <c r="L34" s="9">
-        <v>6.85</v>
+        <v>5.98</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>24</v>
@@ -2170,46 +2170,46 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="6">
         <v>300548</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <v>4500</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>4500</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>57.55</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>54.61</v>
+      </c>
+      <c r="G35" s="7">
         <v>55.32</v>
       </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>258975</v>
-      </c>
-      <c r="J35" s="11">
-        <v>10034.65</v>
-      </c>
-      <c r="K35" s="11">
-        <v>6390</v>
-      </c>
-      <c r="L35" s="9">
-        <v>4.03</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="9" t="s">
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>245745</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-3195.35</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-13230</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-1.28</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>14.81</v>
+        <v>14.31</v>
       </c>
       <c r="G36" s="7">
         <v>18.218</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>186220.94</v>
+        <v>179933.94</v>
       </c>
       <c r="J36" s="7">
-        <v>-42858.11</v>
+        <v>-49145.11</v>
       </c>
       <c r="K36" s="7">
-        <v>1634.62</v>
+        <v>-6287</v>
       </c>
       <c r="L36" s="8">
-        <v>-18.71</v>
+        <v>-21.45</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>24</v>
@@ -2265,34 +2265,34 @@
         <v>300363</v>
       </c>
       <c r="C37" s="6">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>32.05</v>
+        <v>30.43</v>
       </c>
       <c r="G37" s="7">
-        <v>34.324</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>394215</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>-27975.17</v>
+        <v>-34275.32</v>
       </c>
       <c r="K37" s="7">
-        <v>15375</v>
+        <v>-6300.15</v>
       </c>
       <c r="L37" s="8">
-        <v>-6.63</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>26</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>61.62</v>
+        <v>59.93</v>
       </c>
       <c r="G38" s="11">
         <v>53.268</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="11">
-        <v>462150</v>
+        <v>449475</v>
       </c>
       <c r="J38" s="11">
-        <v>62643.56</v>
+        <v>49968.56</v>
       </c>
       <c r="K38" s="11">
-        <v>6075</v>
+        <v>-12675</v>
       </c>
       <c r="L38" s="9">
-        <v>15.68</v>
+        <v>12.51</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>26</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>40.87</v>
+        <v>40.13</v>
       </c>
       <c r="G39" s="11">
         <v>39.803</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>801052</v>
+        <v>786548</v>
       </c>
       <c r="J39" s="11">
-        <v>20917.45</v>
+        <v>6413.45</v>
       </c>
       <c r="K39" s="11">
-        <v>4704</v>
+        <v>-14504</v>
       </c>
       <c r="L39" s="9">
-        <v>2.68</v>
+        <v>0.82</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>26</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>33.11</v>
+        <v>31.8</v>
       </c>
       <c r="G40" s="7">
         <v>38.829</v>
@@ -2415,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>225148</v>
+        <v>216240</v>
       </c>
       <c r="J40" s="7">
-        <v>-38886.59</v>
+        <v>-47794.59</v>
       </c>
       <c r="K40" s="7">
-        <v>1088</v>
+        <v>-8908</v>
       </c>
       <c r="L40" s="8">
-        <v>-14.73</v>
+        <v>-18.1</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>26</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="11">
-        <v>14.5</v>
+        <v>14.63</v>
       </c>
       <c r="G41" s="11">
         <v>3.772</v>
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>171100</v>
+        <v>172634</v>
       </c>
       <c r="J41" s="11">
-        <v>126596.13</v>
+        <v>128130.13</v>
       </c>
       <c r="K41" s="11">
-        <v>4248</v>
+        <v>1534</v>
       </c>
       <c r="L41" s="9">
-        <v>284.41</v>
+        <v>287.86</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>26</v>
@@ -2488,13 +2488,13 @@
         <v>4500</v>
       </c>
       <c r="D42" s="6">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="E42" s="6">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>315.93</v>
+        <v>310</v>
       </c>
       <c r="G42" s="7">
         <v>342.419</v>
@@ -2503,16 +2503,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>1421685</v>
+        <v>1395000</v>
       </c>
       <c r="J42" s="7">
-        <v>-119202.68</v>
+        <v>-145886.99</v>
       </c>
       <c r="K42" s="7">
-        <v>-1314.2</v>
+        <v>-26685</v>
       </c>
       <c r="L42" s="8">
-        <v>-7.74</v>
+        <v>-9.47</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>26</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>26.92</v>
+        <v>26.39</v>
       </c>
       <c r="G43" s="7">
         <v>31.616</v>
@@ -2547,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>1752492</v>
+        <v>1717989</v>
       </c>
       <c r="J43" s="7">
-        <v>-305720.3</v>
+        <v>-340223.3</v>
       </c>
       <c r="K43" s="7">
-        <v>-7812</v>
+        <v>-34503</v>
       </c>
       <c r="L43" s="8">
-        <v>-14.85</v>
+        <v>-16.53</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>24</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>100.12</v>
+        <v>95.65</v>
       </c>
       <c r="G44" s="7">
         <v>102.032</v>
@@ -2591,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>1802160</v>
+        <v>1721700</v>
       </c>
       <c r="J44" s="7">
-        <v>-34424.51</v>
+        <v>-114884.51</v>
       </c>
       <c r="K44" s="7">
-        <v>84960</v>
+        <v>-80460</v>
       </c>
       <c r="L44" s="8">
-        <v>-1.87</v>
+        <v>-6.25</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>26</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="11">
-        <v>62</v>
+        <v>62.4</v>
       </c>
       <c r="G45" s="11">
         <v>57.219</v>
@@ -2635,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="11">
-        <v>1860000</v>
+        <v>1872000</v>
       </c>
       <c r="J45" s="11">
-        <v>143420.11</v>
+        <v>155420.11</v>
       </c>
       <c r="K45" s="11">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="L45" s="9">
-        <v>8.36</v>
+        <v>9.05</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>24</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>63.59</v>
+        <v>63.5</v>
       </c>
       <c r="G46" s="7">
         <v>66.541</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>1004722</v>
+        <v>1003300</v>
       </c>
       <c r="J46" s="7">
-        <v>-46621.18</v>
+        <v>-48043.18</v>
       </c>
       <c r="K46" s="7">
-        <v>-46768</v>
+        <v>-1422</v>
       </c>
       <c r="L46" s="8">
-        <v>-4.43</v>
+        <v>-4.57</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>26</v>
@@ -2705,34 +2705,34 @@
         <v>85</v>
       </c>
       <c r="C47" s="10">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="D47" s="10">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>41.02</v>
+        <v>40.08</v>
       </c>
       <c r="G47" s="11">
-        <v>37.031</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>1599780</v>
+        <v>0</v>
       </c>
       <c r="J47" s="11">
-        <v>155563.4</v>
+        <v>172040.11</v>
       </c>
       <c r="K47" s="11">
-        <v>100620</v>
+        <v>16476.71</v>
       </c>
       <c r="L47" s="9">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>26</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>19.08</v>
+        <v>18.87</v>
       </c>
       <c r="G48" s="11">
         <v>18.414</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>162180</v>
+        <v>160395</v>
       </c>
       <c r="J48" s="11">
-        <v>5658.91</v>
+        <v>3873.91</v>
       </c>
       <c r="K48" s="11">
-        <v>4335</v>
+        <v>-1785</v>
       </c>
       <c r="L48" s="9">
-        <v>3.62</v>
+        <v>2.48</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>24</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>17.22</v>
+        <v>16.81</v>
       </c>
       <c r="G49" s="7">
         <v>19.398</v>
@@ -2811,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>439110</v>
+        <v>428655</v>
       </c>
       <c r="J49" s="7">
-        <v>-55527.08</v>
+        <v>-65982.08</v>
       </c>
       <c r="K49" s="7">
-        <v>2040</v>
+        <v>-10455</v>
       </c>
       <c r="L49" s="8">
-        <v>-11.23</v>
+        <v>-13.34</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>24</v>
@@ -2837,34 +2837,34 @@
         <v>300638</v>
       </c>
       <c r="C50" s="6">
-        <v>15300</v>
+        <v>15271</v>
       </c>
       <c r="D50" s="6">
-        <v>15300</v>
+        <v>8171</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="F50" s="7">
-        <v>73.25</v>
+        <v>66.1</v>
       </c>
       <c r="G50" s="7">
-        <v>75.628</v>
+        <v>75.592</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>1120725</v>
+        <v>1009413.1</v>
       </c>
       <c r="J50" s="7">
-        <v>-36386.56</v>
+        <v>-144956.47</v>
       </c>
       <c r="K50" s="7">
-        <v>-11322</v>
+        <v>-108569.91</v>
       </c>
       <c r="L50" s="8">
-        <v>-3.14</v>
+        <v>-12.56</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>26</v>
@@ -2890,25 +2890,25 @@
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>67.7</v>
+        <v>65.89</v>
       </c>
       <c r="G51" s="7">
-        <v>78.644</v>
+        <v>78.643</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>1360702.3</v>
+        <v>1324323.11</v>
       </c>
       <c r="J51" s="7">
-        <v>-219966.17</v>
+        <v>-256319.95</v>
       </c>
       <c r="K51" s="7">
-        <v>-13159.49</v>
+        <v>-36379.19</v>
       </c>
       <c r="L51" s="8">
-        <v>-13.92</v>
+        <v>-16.22</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>26</v>
@@ -2918,46 +2918,46 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="6">
         <v>300759</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>15400</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>15400</v>
       </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>95.68</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>93.02</v>
+      </c>
+      <c r="G52" s="7">
         <v>94.022</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1473472</v>
-      </c>
-      <c r="J52" s="11">
-        <v>25525.86</v>
-      </c>
-      <c r="K52" s="11">
-        <v>28336</v>
-      </c>
-      <c r="L52" s="9">
-        <v>1.76</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="9" t="s">
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1432508</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-15438.14</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-40964</v>
+      </c>
+      <c r="L52" s="8">
+        <v>-1.07</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>32.2</v>
+        <v>31.04</v>
       </c>
       <c r="G53" s="7">
         <v>32.217</v>
@@ -2987,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>705180</v>
+        <v>679776</v>
       </c>
       <c r="J53" s="7">
-        <v>-368.84</v>
+        <v>-25772.84</v>
       </c>
       <c r="K53" s="7">
-        <v>11388</v>
+        <v>-25404</v>
       </c>
       <c r="L53" s="8">
-        <v>-0.05</v>
+        <v>-3.65</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>26</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>37.7</v>
+        <v>39.99</v>
       </c>
       <c r="G54" s="11">
         <v>34.99</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>309140</v>
+        <v>327918</v>
       </c>
       <c r="J54" s="11">
-        <v>22219.95</v>
+        <v>40997.95</v>
       </c>
       <c r="K54" s="11">
-        <v>10004</v>
+        <v>18778</v>
       </c>
       <c r="L54" s="9">
-        <v>7.75</v>
+        <v>14.29</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>26</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="11">
-        <v>61.2</v>
+        <v>63.22</v>
       </c>
       <c r="G55" s="11">
         <v>60.847</v>
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="11">
-        <v>1450440</v>
+        <v>1498314</v>
       </c>
       <c r="J55" s="11">
-        <v>8358.01</v>
+        <v>56232.01</v>
       </c>
       <c r="K55" s="11">
-        <v>10191</v>
+        <v>47874</v>
       </c>
       <c r="L55" s="9">
-        <v>0.58</v>
+        <v>3.9</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>24</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>11.75</v>
+        <v>11.31</v>
       </c>
       <c r="G56" s="7">
         <v>13.4</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>716750</v>
+        <v>689910</v>
       </c>
       <c r="J56" s="7">
-        <v>-100672.37</v>
+        <v>-127512.37</v>
       </c>
       <c r="K56" s="7">
-        <v>-7930</v>
+        <v>-26840</v>
       </c>
       <c r="L56" s="8">
-        <v>-12.31</v>
+        <v>-15.6</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>26</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>83.8</v>
+        <v>80.5</v>
       </c>
       <c r="G57" s="7">
         <v>96.134</v>
@@ -3163,16 +3163,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>1709520</v>
+        <v>1642200</v>
       </c>
       <c r="J57" s="7">
-        <v>-251608.99</v>
+        <v>-318928.99</v>
       </c>
       <c r="K57" s="7">
-        <v>-9996</v>
+        <v>-67320</v>
       </c>
       <c r="L57" s="8">
-        <v>-12.83</v>
+        <v>-16.26</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>26</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>10.96</v>
+        <v>10.73</v>
       </c>
       <c r="G58" s="7">
         <v>11.626</v>
@@ -3207,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>691576</v>
+        <v>677063</v>
       </c>
       <c r="J58" s="7">
-        <v>-42025.41</v>
+        <v>-56538.41</v>
       </c>
       <c r="K58" s="7">
-        <v>-1262</v>
+        <v>-14513</v>
       </c>
       <c r="L58" s="8">
-        <v>-5.73</v>
+        <v>-7.71</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>26</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>5.2</v>
+        <v>5.16</v>
       </c>
       <c r="G59" s="7">
         <v>13.524</v>
@@ -3251,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>33592</v>
+        <v>33333.6</v>
       </c>
       <c r="J59" s="7">
-        <v>-53770.94</v>
+        <v>-54029.34</v>
       </c>
       <c r="K59" s="7">
-        <v>646</v>
+        <v>-258.4</v>
       </c>
       <c r="L59" s="8">
-        <v>-61.55</v>
+        <v>-61.85</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>26</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>56.91</v>
+        <v>54</v>
       </c>
       <c r="G60" s="7">
         <v>56.989</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>523572</v>
+        <v>496800</v>
       </c>
       <c r="J60" s="7">
-        <v>-728.64</v>
+        <v>-27500.64</v>
       </c>
       <c r="K60" s="7">
-        <v>3036</v>
+        <v>-26772</v>
       </c>
       <c r="L60" s="8">
-        <v>-0.14</v>
+        <v>-5.24</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>26</v>
@@ -3324,13 +3324,13 @@
         <v>24980</v>
       </c>
       <c r="D61" s="6">
-        <v>19980</v>
+        <v>24980</v>
       </c>
       <c r="E61" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>67.98</v>
+        <v>65.17</v>
       </c>
       <c r="G61" s="7">
         <v>72.775</v>
@@ -3339,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>1698140.4</v>
+        <v>1627946.6</v>
       </c>
       <c r="J61" s="7">
-        <v>-119767.33</v>
+        <v>-189961.13</v>
       </c>
       <c r="K61" s="7">
-        <v>-47360.45</v>
+        <v>-70193.8</v>
       </c>
       <c r="L61" s="8">
-        <v>-6.59</v>
+        <v>-10.45</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>26</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>46.8</v>
+        <v>46.84</v>
       </c>
       <c r="G62" s="7">
         <v>53.923</v>
@@ -3383,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>1696219.2</v>
+        <v>1697668.96</v>
       </c>
       <c r="J62" s="7">
-        <v>-258173.17</v>
+        <v>-256723.41</v>
       </c>
       <c r="K62" s="7">
-        <v>724.88</v>
+        <v>1449.76</v>
       </c>
       <c r="L62" s="8">
-        <v>-13.21</v>
+        <v>-13.14</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>26</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <v>88.98</v>
+        <v>85.98</v>
       </c>
       <c r="G63" s="11">
         <v>77.06</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="11">
-        <v>1450374</v>
+        <v>1401474</v>
       </c>
       <c r="J63" s="11">
-        <v>194299.1</v>
+        <v>145399.1</v>
       </c>
       <c r="K63" s="11">
-        <v>24450</v>
+        <v>-48900</v>
       </c>
       <c r="L63" s="9">
-        <v>15.47</v>
+        <v>11.58</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>24</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>35.38</v>
+        <v>34.83</v>
       </c>
       <c r="G64" s="7">
         <v>44.067</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>859734</v>
+        <v>846369</v>
       </c>
       <c r="J64" s="7">
-        <v>-211091.5</v>
+        <v>-224456.5</v>
       </c>
       <c r="K64" s="7">
-        <v>-15066</v>
+        <v>-13365</v>
       </c>
       <c r="L64" s="8">
-        <v>-19.71</v>
+        <v>-20.96</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>24</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="11">
-        <v>8.91</v>
+        <v>8.7</v>
       </c>
       <c r="G65" s="11">
         <v>4.946</v>
@@ -3515,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="11">
-        <v>57736.8</v>
+        <v>56376</v>
       </c>
       <c r="J65" s="11">
-        <v>25688.11</v>
+        <v>24327.31</v>
       </c>
       <c r="K65" s="11">
-        <v>64.8</v>
+        <v>-1360.8</v>
       </c>
       <c r="L65" s="9">
-        <v>80.15</v>
+        <v>75.9</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>26</v>
@@ -3534,173 +3534,173 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="10">
-        <v>8800</v>
-      </c>
-      <c r="D66" s="10">
-        <v>8800</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>12.37</v>
-      </c>
-      <c r="G66" s="11">
-        <v>11.524</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>108856</v>
-      </c>
-      <c r="J66" s="11">
-        <v>7447.88</v>
-      </c>
-      <c r="K66" s="11">
-        <v>-1232</v>
-      </c>
-      <c r="L66" s="9">
-        <v>7.34</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" s="9" t="s">
+      <c r="B66" s="6">
+        <v>300701</v>
+      </c>
+      <c r="C66" s="6">
+        <v>14546</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>14546</v>
+      </c>
+      <c r="F66" s="7">
+        <v>39.83</v>
+      </c>
+      <c r="G66" s="7">
+        <v>40.652</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>579367.18</v>
+      </c>
+      <c r="J66" s="7">
+        <v>-11954.09</v>
+      </c>
+      <c r="K66" s="7">
+        <v>-11954.09</v>
+      </c>
+      <c r="L66" s="8">
+        <v>-2.02</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="C67" s="10">
+        <v>8800</v>
+      </c>
+      <c r="D67" s="10">
+        <v>8800</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>11.87</v>
+      </c>
+      <c r="G67" s="11">
+        <v>11.524</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>104456</v>
+      </c>
+      <c r="J67" s="11">
+        <v>3047.88</v>
+      </c>
+      <c r="K67" s="11">
+        <v>-4400</v>
+      </c>
+      <c r="L67" s="9">
+        <v>3</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="10">
+      <c r="B68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="10">
         <v>72300</v>
       </c>
-      <c r="D67" s="10">
-        <v>72300</v>
-      </c>
-      <c r="E67" s="10">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>10.99</v>
-      </c>
-      <c r="G67" s="11">
-        <v>9.802</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>794577</v>
-      </c>
-      <c r="J67" s="11">
-        <v>85913.72</v>
-      </c>
-      <c r="K67" s="11">
-        <v>-4338</v>
-      </c>
-      <c r="L67" s="9">
-        <v>12.12</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="6">
-        <v>43400</v>
-      </c>
-      <c r="D68" s="6">
-        <v>43400</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
-        <v>6.71</v>
-      </c>
-      <c r="G68" s="7">
-        <v>7.009</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>291214</v>
-      </c>
-      <c r="J68" s="7">
-        <v>-12977.57</v>
-      </c>
-      <c r="K68" s="7">
-        <v>-1302</v>
-      </c>
-      <c r="L68" s="8">
-        <v>-4.27</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="8" t="s">
+      <c r="D68" s="10">
+        <v>59000</v>
+      </c>
+      <c r="E68" s="10">
+        <v>13300</v>
+      </c>
+      <c r="F68" s="11">
+        <v>10.78</v>
+      </c>
+      <c r="G68" s="11">
+        <v>9.795</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>779394</v>
+      </c>
+      <c r="J68" s="11">
+        <v>71188.35</v>
+      </c>
+      <c r="K68" s="11">
+        <v>-14725.37</v>
+      </c>
+      <c r="L68" s="9">
+        <v>10.06</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="6">
-        <v>300232</v>
-      </c>
       <c r="C69" s="6">
-        <v>156821</v>
+        <v>43400</v>
       </c>
       <c r="D69" s="6">
-        <v>156821</v>
+        <v>43400</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <v>8.8</v>
+        <v>6.54</v>
       </c>
       <c r="G69" s="7">
-        <v>9.86</v>
+        <v>7.009</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>1380024.8</v>
+        <v>283836</v>
       </c>
       <c r="J69" s="7">
-        <v>-166264.98</v>
+        <v>-20355.57</v>
       </c>
       <c r="K69" s="7">
-        <v>25091.36</v>
+        <v>-7378</v>
       </c>
       <c r="L69" s="8">
-        <v>-10.75</v>
+        <v>-6.69</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>26</v>
@@ -3714,312 +3714,312 @@
         <v>115</v>
       </c>
       <c r="B70" s="6">
+        <v>300232</v>
+      </c>
+      <c r="C70" s="6">
+        <v>156821</v>
+      </c>
+      <c r="D70" s="6">
+        <v>156821</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>9.08</v>
+      </c>
+      <c r="G70" s="7">
+        <v>9.86</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1423934.68</v>
+      </c>
+      <c r="J70" s="7">
+        <v>-122355.1</v>
+      </c>
+      <c r="K70" s="7">
+        <v>43909.88</v>
+      </c>
+      <c r="L70" s="8">
+        <v>-7.91</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="6">
         <v>603556</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C71" s="6">
         <v>93500</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>93500</v>
       </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>15.09</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="G71" s="7">
         <v>15.247</v>
       </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1410915</v>
-      </c>
-      <c r="J70" s="7">
-        <v>-14714.33</v>
-      </c>
-      <c r="K70" s="7">
-        <v>-935</v>
-      </c>
-      <c r="L70" s="8">
-        <v>-1.03</v>
-      </c>
-      <c r="M70" s="8" t="s">
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1393150</v>
+      </c>
+      <c r="J71" s="7">
+        <v>-32479.33</v>
+      </c>
+      <c r="K71" s="7">
+        <v>-17765</v>
+      </c>
+      <c r="L71" s="8">
+        <v>-2.28</v>
+      </c>
+      <c r="M71" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N70" s="8" t="s">
+      <c r="N71" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="10">
+    <row r="72" spans="1:14">
+      <c r="A72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="10">
         <v>600933</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C72" s="10">
         <v>128700</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>128700</v>
       </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>14.34</v>
-      </c>
-      <c r="G71" s="11">
+      <c r="E72" s="10">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="G72" s="11">
         <v>13.094</v>
       </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>1845558</v>
-      </c>
-      <c r="J71" s="11">
-        <v>160399.18</v>
-      </c>
-      <c r="K71" s="11">
-        <v>66924</v>
-      </c>
-      <c r="L71" s="9">
-        <v>9.52</v>
-      </c>
-      <c r="M71" s="9" t="s">
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1788930</v>
+      </c>
+      <c r="J72" s="11">
+        <v>103771.18</v>
+      </c>
+      <c r="K72" s="11">
+        <v>-56628</v>
+      </c>
+      <c r="L72" s="9">
+        <v>6.16</v>
+      </c>
+      <c r="M72" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N72" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="6">
-        <v>9700</v>
-      </c>
-      <c r="D72" s="6">
-        <v>9700</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>31.32</v>
-      </c>
-      <c r="G72" s="7">
-        <v>31.376</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>303804</v>
-      </c>
-      <c r="J72" s="7">
-        <v>-540.62</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="8">
-        <v>-0.18</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="6">
+      <c r="C73" s="6">
+        <v>9700</v>
+      </c>
+      <c r="D73" s="6">
+        <v>9700</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>30.88</v>
+      </c>
+      <c r="G73" s="7">
+        <v>31.376</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>299536</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-4808.62</v>
+      </c>
+      <c r="K73" s="7">
+        <v>-4268</v>
+      </c>
+      <c r="L73" s="8">
+        <v>-1.58</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="6">
         <v>603659</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C74" s="6">
         <v>13600</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>13600</v>
       </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>100.3</v>
-      </c>
-      <c r="G73" s="7">
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>94.42</v>
+      </c>
+      <c r="G74" s="7">
         <v>101.716</v>
       </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>1364080</v>
-      </c>
-      <c r="J73" s="7">
-        <v>-19258.58</v>
-      </c>
-      <c r="K73" s="7">
-        <v>-36040</v>
-      </c>
-      <c r="L73" s="8">
-        <v>-1.39</v>
-      </c>
-      <c r="M73" s="8" t="s">
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1284112</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-99226.58</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-79968</v>
+      </c>
+      <c r="L74" s="8">
+        <v>-7.17</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="N74" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="9" t="s">
+    <row r="75" spans="1:14">
+      <c r="A75" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="10">
+      <c r="B75" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="6">
         <v>15500</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="6">
         <v>15500</v>
       </c>
-      <c r="E74" s="10">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <v>56.8</v>
-      </c>
-      <c r="G74" s="11">
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="G75" s="7">
         <v>55.058</v>
       </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>880400</v>
-      </c>
-      <c r="J74" s="11">
-        <v>27003.98</v>
-      </c>
-      <c r="K74" s="11">
-        <v>18600</v>
-      </c>
-      <c r="L74" s="9">
-        <v>3.16</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>847850</v>
+      </c>
+      <c r="J75" s="7">
+        <v>-5546.02</v>
+      </c>
+      <c r="K75" s="7">
+        <v>-32550</v>
+      </c>
+      <c r="L75" s="8">
+        <v>-0.65</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="10">
+      <c r="B76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="10">
         <v>2100</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>2100</v>
       </c>
-      <c r="E75" s="10">
-        <v>0</v>
-      </c>
-      <c r="F75" s="11">
-        <v>135.91</v>
-      </c>
-      <c r="G75" s="11">
-        <v>115.437</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <v>285411</v>
-      </c>
-      <c r="J75" s="11">
-        <v>42994.1</v>
-      </c>
-      <c r="K75" s="11">
-        <v>2456.06</v>
-      </c>
-      <c r="L75" s="9">
-        <v>17.74</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>33.51</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="J76" s="7">
-        <v>-142753.4</v>
-      </c>
-      <c r="K76" s="7">
-        <v>-36.31</v>
-      </c>
-      <c r="L76" s="8">
-        <v>0</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="8" t="s">
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>137.5</v>
+      </c>
+      <c r="G76" s="11">
+        <v>115.383</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>288750</v>
+      </c>
+      <c r="J76" s="11">
+        <v>46444.87</v>
+      </c>
+      <c r="K76" s="11">
+        <v>3339</v>
+      </c>
+      <c r="L76" s="9">
+        <v>19.17</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" s="6">
         <v>603688</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <v>23.73</v>
+        <v>23.05</v>
       </c>
       <c r="G77" s="7">
         <v>26.257</v>
@@ -4043,16 +4043,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>720632.64</v>
+        <v>699982.4</v>
       </c>
       <c r="J77" s="7">
-        <v>-76751.47</v>
+        <v>-97401.71</v>
       </c>
       <c r="K77" s="7">
-        <v>607.36</v>
+        <v>-20650.24</v>
       </c>
       <c r="L77" s="8">
-        <v>-9.62</v>
+        <v>-12.21</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>24</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="10">
         <v>603327</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>30.46</v>
+        <v>30.36</v>
       </c>
       <c r="G78" s="11">
         <v>29.513</v>
@@ -4087,16 +4087,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>365520</v>
+        <v>364320</v>
       </c>
       <c r="J78" s="11">
-        <v>11361.32</v>
+        <v>10161.32</v>
       </c>
       <c r="K78" s="11">
-        <v>33240</v>
+        <v>-1200</v>
       </c>
       <c r="L78" s="9">
-        <v>3.21</v>
+        <v>2.87</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>24</v>
@@ -4107,16 +4107,16 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="C79" s="13">
-        <v>5619500</v>
+        <v>5471000</v>
       </c>
       <c r="D79" s="13">
-        <v>5619500</v>
+        <v>5471000</v>
       </c>
       <c r="E79" s="13">
         <v>0</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="6">
         <v>300709</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>85.36</v>
+        <v>83.8</v>
       </c>
       <c r="G80" s="7">
         <v>2907.865</v>
@@ -4175,16 +4175,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>8536</v>
+        <v>8380</v>
       </c>
       <c r="J80" s="7">
-        <v>-282250.53</v>
+        <v>-282406.53</v>
       </c>
       <c r="K80" s="7">
-        <v>55</v>
+        <v>-156</v>
       </c>
       <c r="L80" s="8">
-        <v>-97.06</v>
+        <v>-97.12</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>26</v>
@@ -4194,52 +4194,52 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="10">
+      <c r="A81" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="6">
         <v>300280</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="6">
         <v>12500</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="6">
         <v>12500</v>
       </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>41.05</v>
-      </c>
-      <c r="G81" s="11">
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>40.2</v>
+      </c>
+      <c r="G81" s="7">
         <v>40.592</v>
       </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>513125</v>
-      </c>
-      <c r="J81" s="11">
-        <v>5730.88</v>
-      </c>
-      <c r="K81" s="11">
-        <v>3875</v>
-      </c>
-      <c r="L81" s="9">
-        <v>1.13</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" s="9" t="s">
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>502500</v>
+      </c>
+      <c r="J81" s="7">
+        <v>-4894.12</v>
+      </c>
+      <c r="K81" s="7">
+        <v>-10625</v>
+      </c>
+      <c r="L81" s="8">
+        <v>-0.97</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="6">
         <v>603699</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <v>16.41</v>
+        <v>16.18</v>
       </c>
       <c r="G82" s="7">
         <v>16.463</v>
@@ -4263,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <v>1791972</v>
+        <v>1766856</v>
       </c>
       <c r="J82" s="7">
-        <v>-5765.79</v>
+        <v>-30881.79</v>
       </c>
       <c r="K82" s="7">
-        <v>37128</v>
+        <v>-25116</v>
       </c>
       <c r="L82" s="8">
-        <v>-0.32</v>
+        <v>-1.72</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>24</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="6">
         <v>601828</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>10.09</v>
+        <v>10.08</v>
       </c>
       <c r="G83" s="7">
         <v>11.322</v>
@@ -4307,16 +4307,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>854017.6</v>
+        <v>853171.2</v>
       </c>
       <c r="J83" s="7">
-        <v>-104308.33</v>
+        <v>-105154.73</v>
       </c>
       <c r="K83" s="7">
-        <v>7617.6</v>
+        <v>-846.4</v>
       </c>
       <c r="L83" s="8">
-        <v>-10.88</v>
+        <v>-10.97</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>24</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="6">
         <v>300476</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="7">
-        <v>23.78</v>
+        <v>23.33</v>
       </c>
       <c r="G84" s="7">
         <v>26.138</v>
@@ -4351,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>1916668</v>
+        <v>1880398</v>
       </c>
       <c r="J84" s="7">
-        <v>-190064.94</v>
+        <v>-226334.94</v>
       </c>
       <c r="K84" s="7">
-        <v>-35464</v>
+        <v>-36270</v>
       </c>
       <c r="L84" s="8">
-        <v>-9.02</v>
+        <v>-10.74</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>26</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="10">
         <v>603158</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="11">
-        <v>24.64</v>
+        <v>22.95</v>
       </c>
       <c r="G85" s="11">
         <v>22.846</v>
@@ -4395,16 +4395,16 @@
         <v>0</v>
       </c>
       <c r="I85" s="11">
-        <v>241472</v>
+        <v>224910</v>
       </c>
       <c r="J85" s="11">
-        <v>17577.8</v>
+        <v>1015.8</v>
       </c>
       <c r="K85" s="11">
-        <v>1274</v>
+        <v>-16562</v>
       </c>
       <c r="L85" s="9">
-        <v>7.85</v>
+        <v>0.46</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>24</v>
@@ -4414,55 +4414,55 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="10">
+      <c r="A86" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="6">
         <v>300413</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="6">
         <v>13400</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="6">
         <v>13400</v>
       </c>
-      <c r="E86" s="10">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>63.86</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>61.03</v>
+      </c>
+      <c r="G86" s="7">
         <v>61.923</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>855724</v>
-      </c>
-      <c r="J86" s="11">
-        <v>25961.35</v>
-      </c>
-      <c r="K86" s="11">
-        <v>3216</v>
-      </c>
-      <c r="L86" s="9">
-        <v>3.13</v>
-      </c>
-      <c r="M86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="9" t="s">
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>817802</v>
+      </c>
+      <c r="J86" s="7">
+        <v>-11960.65</v>
+      </c>
+      <c r="K86" s="7">
+        <v>-37922</v>
+      </c>
+      <c r="L86" s="8">
+        <v>-1.44</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="C87" s="6">
         <v>500</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="G87" s="7">
         <v>18.199</v>
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>2570</v>
+        <v>2540</v>
       </c>
       <c r="J87" s="7">
-        <v>-6529.7</v>
+        <v>-6559.7</v>
       </c>
       <c r="K87" s="7">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="L87" s="8">
-        <v>-71.76</v>
+        <v>-72.09</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>26</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" s="6">
         <v>300725</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>116.38</v>
+        <v>115.4</v>
       </c>
       <c r="G88" s="7">
         <v>123.835</v>
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>2036650</v>
+        <v>2019500</v>
       </c>
       <c r="J88" s="7">
-        <v>-130471.24</v>
+        <v>-147621.24</v>
       </c>
       <c r="K88" s="7">
-        <v>59150</v>
+        <v>-17150</v>
       </c>
       <c r="L88" s="8">
-        <v>-6.02</v>
+        <v>-6.81</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>26</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="6">
         <v>603238</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <v>39.55</v>
+        <v>38.07</v>
       </c>
       <c r="G89" s="7">
         <v>41.065</v>
@@ -4571,16 +4571,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>933380</v>
+        <v>898452</v>
       </c>
       <c r="J89" s="7">
-        <v>-35747.35</v>
+        <v>-70675.35</v>
       </c>
       <c r="K89" s="7">
-        <v>32804</v>
+        <v>-34928</v>
       </c>
       <c r="L89" s="8">
-        <v>-3.69</v>
+        <v>-7.29</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>24</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" s="6">
         <v>300687</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <v>22.96</v>
+        <v>22.05</v>
       </c>
       <c r="G90" s="7">
         <v>23.406</v>
@@ -4615,16 +4615,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <v>1230656</v>
+        <v>1181880</v>
       </c>
       <c r="J90" s="7">
-        <v>-23930.11</v>
+        <v>-72706.11</v>
       </c>
       <c r="K90" s="7">
-        <v>22512</v>
+        <v>-48776</v>
       </c>
       <c r="L90" s="8">
-        <v>-1.91</v>
+        <v>-5.79</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>26</v>
@@ -4634,310 +4634,354 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="6">
+        <v>300523</v>
+      </c>
+      <c r="C91" s="6">
+        <v>12900</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>12900</v>
+      </c>
+      <c r="F91" s="7">
+        <v>51.02</v>
+      </c>
+      <c r="G91" s="7">
+        <v>52.434</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>658158</v>
+      </c>
+      <c r="J91" s="7">
+        <v>-18234.45</v>
+      </c>
+      <c r="K91" s="7">
+        <v>-18234.45</v>
+      </c>
+      <c r="L91" s="8">
+        <v>-2.7</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B92" s="6">
         <v>300463</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C92" s="6">
         <v>18600</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="6">
         <v>18600</v>
       </c>
-      <c r="E91" s="10">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>53.25</v>
-      </c>
-      <c r="G91" s="11">
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>50</v>
+      </c>
+      <c r="G92" s="7">
         <v>53.211</v>
       </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>990450</v>
-      </c>
-      <c r="J91" s="11">
-        <v>719.5</v>
-      </c>
-      <c r="K91" s="11">
-        <v>-14136</v>
-      </c>
-      <c r="L91" s="9">
-        <v>0.07</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="9" t="s">
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>930000</v>
+      </c>
+      <c r="J92" s="7">
+        <v>-59730.5</v>
+      </c>
+      <c r="K92" s="7">
+        <v>-60450</v>
+      </c>
+      <c r="L92" s="8">
+        <v>-6.03</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B93" s="10">
         <v>300220</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C93" s="10">
         <v>2600</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D93" s="10">
         <v>2600</v>
       </c>
-      <c r="E92" s="10">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <v>32.58</v>
-      </c>
-      <c r="G92" s="11">
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>31.69</v>
+      </c>
+      <c r="G93" s="11">
         <v>30.979</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11">
-        <v>84708</v>
-      </c>
-      <c r="J92" s="11">
-        <v>4162.92</v>
-      </c>
-      <c r="K92" s="11">
-        <v>1196</v>
-      </c>
-      <c r="L92" s="9">
-        <v>5.17</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="6">
-        <v>22100</v>
-      </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6">
-        <v>22100</v>
-      </c>
-      <c r="F93" s="7">
-        <v>8.94</v>
-      </c>
-      <c r="G93" s="7">
-        <v>8.981</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>197574</v>
-      </c>
-      <c r="J93" s="7">
-        <v>-913.77</v>
-      </c>
-      <c r="K93" s="7">
-        <v>-913.77</v>
-      </c>
-      <c r="L93" s="8">
-        <v>-0.46</v>
-      </c>
-      <c r="M93" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N93" s="8" t="s">
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>82394</v>
+      </c>
+      <c r="J93" s="11">
+        <v>1848.92</v>
+      </c>
+      <c r="K93" s="11">
+        <v>-2314</v>
+      </c>
+      <c r="L93" s="9">
+        <v>2.3</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="6">
-        <v>603501</v>
+        <v>144</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C94" s="6">
-        <v>7800</v>
+        <v>86900</v>
       </c>
       <c r="D94" s="6">
-        <v>7800</v>
+        <v>22100</v>
       </c>
       <c r="E94" s="6">
-        <v>0</v>
+        <v>64800</v>
       </c>
       <c r="F94" s="7">
-        <v>182.66</v>
+        <v>8.74</v>
       </c>
       <c r="G94" s="7">
-        <v>183.981</v>
+        <v>8.954</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
       </c>
       <c r="I94" s="7">
-        <v>1424748</v>
+        <v>759506</v>
       </c>
       <c r="J94" s="7">
-        <v>-10306</v>
+        <v>-18593.48</v>
       </c>
       <c r="K94" s="7">
-        <v>-8190</v>
+        <v>-17679.71</v>
       </c>
       <c r="L94" s="8">
-        <v>-0.72</v>
+        <v>-2.39</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="10">
+        <v>603501</v>
+      </c>
+      <c r="C95" s="10">
+        <v>7800</v>
+      </c>
+      <c r="D95" s="10">
+        <v>7800</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>187.3</v>
+      </c>
+      <c r="G95" s="11">
+        <v>183.981</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>1460940</v>
+      </c>
+      <c r="J95" s="11">
+        <v>25886</v>
+      </c>
+      <c r="K95" s="11">
+        <v>36192</v>
+      </c>
+      <c r="L95" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B96" s="10">
         <v>300423</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C96" s="10">
         <v>7900</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D96" s="10">
         <v>7900</v>
       </c>
-      <c r="E95" s="10">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <v>14.8</v>
-      </c>
-      <c r="G95" s="11">
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="G96" s="11">
         <v>13.926</v>
       </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
-        <v>116920</v>
-      </c>
-      <c r="J95" s="11">
-        <v>6907.5</v>
-      </c>
-      <c r="K95" s="11">
-        <v>-1027</v>
-      </c>
-      <c r="L95" s="9">
-        <v>6.28</v>
-      </c>
-      <c r="M95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="8" t="s">
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>118105</v>
+      </c>
+      <c r="J96" s="11">
+        <v>8092.5</v>
+      </c>
+      <c r="K96" s="11">
+        <v>1185</v>
+      </c>
+      <c r="L96" s="9">
+        <v>7.35</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C97" s="6">
         <v>24225</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D97" s="6">
         <v>24225</v>
       </c>
-      <c r="E96" s="6">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7">
-        <v>16.94</v>
-      </c>
-      <c r="G96" s="7">
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>16.71</v>
+      </c>
+      <c r="G97" s="7">
         <v>17.557</v>
       </c>
-      <c r="H96" s="7">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7">
-        <v>410371.5</v>
-      </c>
-      <c r="J96" s="7">
-        <v>-14955.76</v>
-      </c>
-      <c r="K96" s="7">
-        <v>12597</v>
-      </c>
-      <c r="L96" s="8">
-        <v>-3.51</v>
-      </c>
-      <c r="M96" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="9" t="s">
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>404799.75</v>
+      </c>
+      <c r="J97" s="7">
+        <v>-20527.51</v>
+      </c>
+      <c r="K97" s="7">
+        <v>-5571.75</v>
+      </c>
+      <c r="L97" s="8">
+        <v>-4.82</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B98" s="10">
         <v>603686</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C98" s="10">
         <v>54200</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D98" s="10">
         <v>54200</v>
       </c>
-      <c r="E97" s="10">
-        <v>0</v>
-      </c>
-      <c r="F97" s="11">
-        <v>29.3</v>
-      </c>
-      <c r="G97" s="11">
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>28.45</v>
+      </c>
+      <c r="G98" s="11">
         <v>26.739</v>
       </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>1588060</v>
-      </c>
-      <c r="J97" s="11">
-        <v>138786.76</v>
-      </c>
-      <c r="K97" s="11">
-        <v>13008</v>
-      </c>
-      <c r="L97" s="9">
-        <v>9.58</v>
-      </c>
-      <c r="M97" s="9" t="s">
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>1541990</v>
+      </c>
+      <c r="J98" s="11">
+        <v>92716.76</v>
+      </c>
+      <c r="K98" s="11">
+        <v>-46070</v>
+      </c>
+      <c r="L98" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="M98" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N97" s="9" t="s">
+      <c r="N98" s="9" t="s">
         <v>23</v>
       </c>
     </row>
